--- a/storico.xlsx
+++ b/storico.xlsx
@@ -144,12 +144,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Bozen.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Brixen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Bruneck.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Brixen.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Burgstall.xlsx</t>
   </si>
   <si>
@@ -168,6 +168,9 @@
     <t>Erklärung Gemeinden Jahr 2020 Graun.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Hafling.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Gsies.xlsx</t>
   </si>
   <si>
@@ -177,15 +180,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Karneid.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Hafling.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
   </si>
   <si>
@@ -315,12 +315,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Villanders.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
   </si>
   <si>
@@ -369,6 +369,27 @@
     <t>Viaro Camilla</t>
   </si>
   <si>
+    <t>Cappello Camilla</t>
+  </si>
+  <si>
+    <t>Lüling Gabriel</t>
+  </si>
+  <si>
+    <t>Oschmann Carl Cosimo</t>
+  </si>
+  <si>
+    <t>Ostermayer  Alois</t>
+  </si>
+  <si>
+    <t>Platter  Felix</t>
+  </si>
+  <si>
+    <t>Weissteiner Maximilian</t>
+  </si>
+  <si>
+    <t>Witcher Noah Sebastian</t>
+  </si>
+  <si>
     <t>Burchia Benny</t>
   </si>
   <si>
@@ -393,27 +414,6 @@
     <t>Zingerle Amaja</t>
   </si>
   <si>
-    <t>Cappello Camilla</t>
-  </si>
-  <si>
-    <t>Lüling Gabriel</t>
-  </si>
-  <si>
-    <t>Oschmann Carl Cosimo</t>
-  </si>
-  <si>
-    <t>Ostermayer  Alois</t>
-  </si>
-  <si>
-    <t>Platter  Felix</t>
-  </si>
-  <si>
-    <t>Weissteiner Maximilian</t>
-  </si>
-  <si>
-    <t>Witcher Noah Sebastian</t>
-  </si>
-  <si>
     <t>Vent Ludwig</t>
   </si>
   <si>
@@ -453,6 +453,12 @@
     <t>Edobor Evidence</t>
   </si>
   <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
+    <t>Messner  Lian</t>
+  </si>
+  <si>
     <t>Haller Toni</t>
   </si>
   <si>
@@ -477,10 +483,10 @@
     <t>Rieder Fabian</t>
   </si>
   <si>
-    <t>Eschgfaeller Marie</t>
-  </si>
-  <si>
-    <t>Messner  Lian</t>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
   </si>
   <si>
     <t>Gostner Noah</t>
@@ -489,12 +495,6 @@
     <t>Mulser Lenny</t>
   </si>
   <si>
-    <t>Hochgruber Raphael</t>
-  </si>
-  <si>
-    <t>Weger Mathe Elisabeth</t>
-  </si>
-  <si>
     <t>Bekoe Lucia</t>
   </si>
   <si>
@@ -858,18 +858,18 @@
     <t>Delueg Ida</t>
   </si>
   <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
     <t>Mayer Fabienne</t>
   </si>
   <si>
     <t>Obexer Elias</t>
   </si>
   <si>
-    <t>Mor  Nadyn</t>
-  </si>
-  <si>
-    <t>Ploner  Simon</t>
-  </si>
-  <si>
     <t>Singer  Theresa</t>
   </si>
   <si>
@@ -912,12 +912,12 @@
     <t>Bozen</t>
   </si>
   <si>
+    <t>Brixen</t>
+  </si>
+  <si>
     <t>Bruneck</t>
   </si>
   <si>
-    <t>Brixen</t>
-  </si>
-  <si>
     <t>Burgstall</t>
   </si>
   <si>
@@ -936,6 +936,9 @@
     <t>Graun im Vinschgau</t>
   </si>
   <si>
+    <t>Hafling</t>
+  </si>
+  <si>
     <t>Gsies</t>
   </si>
   <si>
@@ -945,15 +948,12 @@
     <t>Karneid</t>
   </si>
   <si>
-    <t>Hafling</t>
+    <t>Kiens</t>
   </si>
   <si>
     <t>Kastelruth</t>
   </si>
   <si>
-    <t>Kiens</t>
-  </si>
-  <si>
     <t>Klausen</t>
   </si>
   <si>
@@ -1083,12 +1083,12 @@
     <t>Villanderes</t>
   </si>
   <si>
+    <t>Vintl</t>
+  </si>
+  <si>
     <t>Villnöss</t>
   </si>
   <si>
-    <t>Vintl</t>
-  </si>
-  <si>
     <t>Völs am Schlern</t>
   </si>
   <si>
@@ -1137,6 +1137,27 @@
     <t>VRICLL16R64L378G</t>
   </si>
   <si>
+    <t>CPPCLL18E44B160A</t>
+  </si>
+  <si>
+    <t>LLNGRL17B23B160G</t>
+  </si>
+  <si>
+    <t>SCHCLC17L23B160P</t>
+  </si>
+  <si>
+    <t>STRLSA17L15Z112O</t>
+  </si>
+  <si>
+    <t>PLTFLX17D28B160Z</t>
+  </si>
+  <si>
+    <t>WSSMML18L16B160Z</t>
+  </si>
+  <si>
+    <t>WTCNSB17C04B160X</t>
+  </si>
+  <si>
     <t>BRCBNY17M09B220S</t>
   </si>
   <si>
@@ -1161,27 +1182,6 @@
     <t>ZNGMJA18H56B220I</t>
   </si>
   <si>
-    <t>CPPCLL18E44B160A</t>
-  </si>
-  <si>
-    <t>LLNGRL17B23B160G</t>
-  </si>
-  <si>
-    <t>SCHCLC17L23B160P</t>
-  </si>
-  <si>
-    <t>STRLSA17L15Z112O</t>
-  </si>
-  <si>
-    <t>PLTFLX17D28B160Z</t>
-  </si>
-  <si>
-    <t>WSSMML18L16B160Z</t>
-  </si>
-  <si>
-    <t>WTCNSB17C04B160X</t>
-  </si>
-  <si>
     <t>VNTLWG18P17F132O</t>
   </si>
   <si>
@@ -1221,6 +1221,12 @@
     <t>DBRVNC19L59A952Z</t>
   </si>
   <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
+    <t>MSSLNI17H19F132Q</t>
+  </si>
+  <si>
     <t>HLLTNO16T14B220U</t>
   </si>
   <si>
@@ -1245,10 +1251,10 @@
     <t>RDRFBN17A08B160U</t>
   </si>
   <si>
-    <t>SCHMRA17T62A952K</t>
-  </si>
-  <si>
-    <t>MSSLNI17H19F132Q</t>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
   </si>
   <si>
     <t>GSTNHO17T18B160K</t>
@@ -1257,12 +1263,6 @@
     <t>MLSLNY19A24B160V</t>
   </si>
   <si>
-    <t>HCHRHL17S04B220O</t>
-  </si>
-  <si>
-    <t>WGRMHL18M51B220M</t>
-  </si>
-  <si>
     <t>BKELCU17R50A952D</t>
   </si>
   <si>
@@ -1626,18 +1626,18 @@
     <t>DLGDIA18A57B160Q</t>
   </si>
   <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
     <t>MYRFNN17L67B160A</t>
   </si>
   <si>
     <t>BXRLSE18E18B160Z</t>
   </si>
   <si>
-    <t>MRONYN16P65B160C</t>
-  </si>
-  <si>
-    <t>PLNSMN17A18B220Q</t>
-  </si>
-  <si>
     <t>SNGTRS17C61F132M</t>
   </si>
   <si>
@@ -1689,6 +1689,21 @@
     <t>Plattner Julia</t>
   </si>
   <si>
+    <t>May Stephanie</t>
+  </si>
+  <si>
+    <t>Stablum Martina</t>
+  </si>
+  <si>
+    <t>Gasser Sophie</t>
+  </si>
+  <si>
+    <t>Agreiter Theolinda</t>
+  </si>
+  <si>
+    <t>Tschiggfrei Monika</t>
+  </si>
+  <si>
     <t>Bacher Helga</t>
   </si>
   <si>
@@ -1704,21 +1719,6 @@
     <t>Knollseisen  Kathrin</t>
   </si>
   <si>
-    <t>May Stephanie</t>
-  </si>
-  <si>
-    <t>Stablum Martina</t>
-  </si>
-  <si>
-    <t>Gasser Sophie</t>
-  </si>
-  <si>
-    <t>Agreiter Theolinda</t>
-  </si>
-  <si>
-    <t>Tschiggfrei Monika</t>
-  </si>
-  <si>
     <t>Zelger Sara</t>
   </si>
   <si>
@@ -1749,6 +1749,9 @@
     <t>Oswald Maria Pia</t>
   </si>
   <si>
+    <t>Plattner Martina</t>
+  </si>
+  <si>
     <t>Kargruber  Maria</t>
   </si>
   <si>
@@ -1767,19 +1770,16 @@
     <t>Covi Sibylle</t>
   </si>
   <si>
-    <t>Plattner Martina</t>
+    <t>Leiter Manuela</t>
+  </si>
+  <si>
+    <t>Tasser Margit</t>
   </si>
   <si>
     <t>Bernard  Nadine</t>
   </si>
   <si>
     <t>Silbernagl  Katharina</t>
-  </si>
-  <si>
-    <t>Leiter Manuela</t>
-  </si>
-  <si>
-    <t>Tasser Margit</t>
   </si>
   <si>
     <t>Duchova Dana</t>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -3284,7 +3284,7 @@
         <v>296</v>
       </c>
       <c r="F15" s="2">
-        <v>42956</v>
+        <v>43224</v>
       </c>
       <c r="G15" t="s">
         <v>371</v>
@@ -3296,19 +3296,19 @@
         <v>296</v>
       </c>
       <c r="J15" s="2">
-        <v>43839</v>
+        <v>43784</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="M15">
-        <v>45.75</v>
+        <v>160</v>
       </c>
       <c r="N15">
-        <v>94</v>
+        <v>85.5</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3317,21 +3317,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>139.75</v>
+        <v>245.5</v>
       </c>
       <c r="AC15" t="b">
         <v>1</v>
       </c>
       <c r="AI15" s="2">
-        <v>43839</v>
+        <v>43831</v>
       </c>
       <c r="AJ15" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -3346,7 +3346,7 @@
         <v>296</v>
       </c>
       <c r="F16" s="2">
-        <v>42767</v>
+        <v>42789</v>
       </c>
       <c r="G16" t="s">
         <v>372</v>
@@ -3355,10 +3355,10 @@
         <v>556</v>
       </c>
       <c r="I16" t="s">
-        <v>643</v>
+        <v>296</v>
       </c>
       <c r="J16" s="2">
-        <v>43339</v>
+        <v>43402</v>
       </c>
       <c r="K16">
         <v>250</v>
@@ -3367,19 +3367,19 @@
         <v>44081</v>
       </c>
       <c r="M16">
-        <v>641.5</v>
+        <v>278.75</v>
       </c>
       <c r="N16">
-        <v>208</v>
+        <v>195.25</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>-81</v>
+        <v>73</v>
       </c>
       <c r="Q16">
-        <v>768.5</v>
+        <v>547</v>
       </c>
       <c r="Y16" t="b">
         <v>1</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -3408,40 +3408,40 @@
         <v>296</v>
       </c>
       <c r="F17" s="2">
-        <v>42828</v>
+        <v>42939</v>
       </c>
       <c r="G17" t="s">
         <v>373</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I17" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="J17" s="2">
-        <v>43473</v>
+        <v>43756</v>
       </c>
       <c r="K17">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="L17" s="2">
-        <v>44196</v>
+        <v>44097</v>
       </c>
       <c r="M17">
-        <v>834</v>
+        <v>280.5</v>
       </c>
       <c r="N17">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>168.5</v>
+        <v>56</v>
       </c>
       <c r="Q17">
-        <v>1277.5</v>
+        <v>472.5</v>
       </c>
       <c r="Z17" t="b">
         <v>1</v>
@@ -3450,12 +3450,12 @@
         <v>43831</v>
       </c>
       <c r="AJ17" s="2">
-        <v>44196</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -3470,31 +3470,31 @@
         <v>296</v>
       </c>
       <c r="F18" s="2">
-        <v>43201</v>
+        <v>42931</v>
       </c>
       <c r="G18" t="s">
         <v>374</v>
       </c>
       <c r="H18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I18" t="s">
-        <v>643</v>
+        <v>321</v>
       </c>
       <c r="J18" s="2">
-        <v>43809</v>
+        <v>43313</v>
       </c>
       <c r="K18">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>43921</v>
+        <v>43832</v>
       </c>
       <c r="M18">
-        <v>174.5</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3503,21 +3503,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>222.5</v>
-      </c>
-      <c r="AC18" t="b">
+        <v>7</v>
+      </c>
+      <c r="AG18" t="b">
         <v>1</v>
       </c>
       <c r="AI18" s="2">
         <v>43831</v>
       </c>
       <c r="AJ18" s="2">
-        <v>43921</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -3532,40 +3532,40 @@
         <v>296</v>
       </c>
       <c r="F19" s="2">
-        <v>42883</v>
+        <v>42853</v>
       </c>
       <c r="G19" t="s">
         <v>375</v>
       </c>
       <c r="H19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I19" t="s">
-        <v>643</v>
+        <v>296</v>
       </c>
       <c r="J19" s="2">
-        <v>43357</v>
+        <v>43297</v>
       </c>
       <c r="K19">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="L19" s="2">
-        <v>44196</v>
+        <v>44097</v>
       </c>
       <c r="M19">
-        <v>582.5</v>
+        <v>268</v>
       </c>
       <c r="N19">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="Q19">
-        <v>731.5</v>
+        <v>445</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -3574,12 +3574,12 @@
         <v>43831</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44196</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -3594,54 +3594,54 @@
         <v>296</v>
       </c>
       <c r="F20" s="2">
-        <v>42792</v>
+        <v>43297</v>
       </c>
       <c r="G20" t="s">
         <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="I20" t="s">
         <v>296</v>
       </c>
       <c r="J20" s="2">
-        <v>43073</v>
+        <v>44144</v>
       </c>
       <c r="K20">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2">
-        <v>44082</v>
+        <v>44196</v>
       </c>
       <c r="M20">
-        <v>293</v>
+        <v>58.25</v>
       </c>
       <c r="N20">
-        <v>183.5</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>164.5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>641</v>
-      </c>
-      <c r="Y20" t="b">
+        <v>67.25</v>
+      </c>
+      <c r="AF20" t="b">
         <v>1</v>
       </c>
       <c r="AI20" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ20" s="2">
-        <v>44082</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="1">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -3656,57 +3656,57 @@
         <v>296</v>
       </c>
       <c r="F21" s="2">
-        <v>43608</v>
+        <v>42798</v>
       </c>
       <c r="G21" t="s">
         <v>377</v>
       </c>
       <c r="H21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="J21" s="2">
-        <v>43894</v>
+        <v>43844</v>
       </c>
       <c r="K21">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="L21" s="2">
-        <v>43957</v>
+        <v>44099</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>286.5</v>
       </c>
       <c r="N21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q21">
-        <v>133.75</v>
-      </c>
-      <c r="AE21" t="b">
+        <v>402.5</v>
+      </c>
+      <c r="Z21" t="b">
         <v>1</v>
       </c>
       <c r="AI21" s="2">
-        <v>43894</v>
+        <v>43844</v>
       </c>
       <c r="AJ21" s="2">
-        <v>43957</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="1">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>122</v>
@@ -3715,34 +3715,34 @@
         <v>290</v>
       </c>
       <c r="E22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F22" s="2">
-        <v>43267</v>
+        <v>42956</v>
       </c>
       <c r="G22" t="s">
         <v>378</v>
       </c>
       <c r="H22" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J22" s="2">
-        <v>43556</v>
+        <v>43839</v>
       </c>
       <c r="K22">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L22" s="2">
         <v>43924</v>
       </c>
       <c r="M22">
-        <v>132</v>
+        <v>45.75</v>
       </c>
       <c r="N22">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>216</v>
+        <v>139.75</v>
       </c>
       <c r="AC22" t="b">
         <v>1</v>
       </c>
       <c r="AI22" s="2">
-        <v>43831</v>
+        <v>43839</v>
       </c>
       <c r="AJ22" s="2">
         <v>43924</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -3780,54 +3780,54 @@
         <v>297</v>
       </c>
       <c r="F23" s="2">
-        <v>43224</v>
+        <v>42767</v>
       </c>
       <c r="G23" t="s">
         <v>379</v>
       </c>
       <c r="H23" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I23" t="s">
-        <v>297</v>
+        <v>643</v>
       </c>
       <c r="J23" s="2">
-        <v>43784</v>
+        <v>43339</v>
       </c>
       <c r="K23">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="L23" s="2">
-        <v>43921</v>
+        <v>44081</v>
       </c>
       <c r="M23">
-        <v>160</v>
+        <v>641.5</v>
       </c>
       <c r="N23">
-        <v>85.5</v>
+        <v>208</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="Q23">
-        <v>245.5</v>
-      </c>
-      <c r="AC23" t="b">
+        <v>768.5</v>
+      </c>
+      <c r="Y23" t="b">
         <v>1</v>
       </c>
       <c r="AI23" s="2">
         <v>43831</v>
       </c>
       <c r="AJ23" s="2">
-        <v>43921</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -3842,54 +3842,54 @@
         <v>297</v>
       </c>
       <c r="F24" s="2">
-        <v>42789</v>
+        <v>42828</v>
       </c>
       <c r="G24" t="s">
         <v>380</v>
       </c>
       <c r="H24" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I24" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="J24" s="2">
-        <v>43402</v>
+        <v>43473</v>
       </c>
       <c r="K24">
-        <v>250</v>
+        <v>365</v>
       </c>
       <c r="L24" s="2">
-        <v>44081</v>
+        <v>44196</v>
       </c>
       <c r="M24">
-        <v>278.75</v>
+        <v>834</v>
       </c>
       <c r="N24">
-        <v>195.25</v>
+        <v>275</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>73</v>
+        <v>168.5</v>
       </c>
       <c r="Q24">
-        <v>547</v>
-      </c>
-      <c r="Y24" t="b">
+        <v>1277.5</v>
+      </c>
+      <c r="Z24" t="b">
         <v>1</v>
       </c>
       <c r="AI24" s="2">
         <v>43831</v>
       </c>
       <c r="AJ24" s="2">
-        <v>44081</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -3904,7 +3904,7 @@
         <v>297</v>
       </c>
       <c r="F25" s="2">
-        <v>42939</v>
+        <v>43201</v>
       </c>
       <c r="G25" t="s">
         <v>381</v>
@@ -3913,45 +3913,45 @@
         <v>561</v>
       </c>
       <c r="I25" t="s">
-        <v>297</v>
+        <v>643</v>
       </c>
       <c r="J25" s="2">
-        <v>43756</v>
+        <v>43809</v>
       </c>
       <c r="K25">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2">
-        <v>44097</v>
+        <v>43921</v>
       </c>
       <c r="M25">
-        <v>280.5</v>
+        <v>174.5</v>
       </c>
       <c r="N25">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>472.5</v>
-      </c>
-      <c r="Z25" t="b">
+        <v>222.5</v>
+      </c>
+      <c r="AC25" t="b">
         <v>1</v>
       </c>
       <c r="AI25" s="2">
         <v>43831</v>
       </c>
       <c r="AJ25" s="2">
-        <v>44097</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -3966,54 +3966,54 @@
         <v>297</v>
       </c>
       <c r="F26" s="2">
-        <v>42931</v>
+        <v>42883</v>
       </c>
       <c r="G26" t="s">
         <v>382</v>
       </c>
       <c r="H26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I26" t="s">
-        <v>321</v>
+        <v>643</v>
       </c>
       <c r="J26" s="2">
-        <v>43313</v>
+        <v>43357</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="L26" s="2">
-        <v>43832</v>
+        <v>44196</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>582.5</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q26">
-        <v>7</v>
-      </c>
-      <c r="AG26" t="b">
+        <v>731.5</v>
+      </c>
+      <c r="Z26" t="b">
         <v>1</v>
       </c>
       <c r="AI26" s="2">
         <v>43831</v>
       </c>
       <c r="AJ26" s="2">
-        <v>43832</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="1">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -4028,54 +4028,54 @@
         <v>297</v>
       </c>
       <c r="F27" s="2">
-        <v>42853</v>
+        <v>42792</v>
       </c>
       <c r="G27" t="s">
         <v>383</v>
       </c>
       <c r="H27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I27" t="s">
         <v>297</v>
       </c>
       <c r="J27" s="2">
-        <v>43297</v>
+        <v>43073</v>
       </c>
       <c r="K27">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L27" s="2">
-        <v>44097</v>
+        <v>44082</v>
       </c>
       <c r="M27">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="N27">
-        <v>108</v>
+        <v>183.5</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>69</v>
+        <v>164.5</v>
       </c>
       <c r="Q27">
-        <v>445</v>
-      </c>
-      <c r="Z27" t="b">
+        <v>641</v>
+      </c>
+      <c r="Y27" t="b">
         <v>1</v>
       </c>
       <c r="AI27" s="2">
         <v>43831</v>
       </c>
       <c r="AJ27" s="2">
-        <v>44097</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -4090,31 +4090,31 @@
         <v>297</v>
       </c>
       <c r="F28" s="2">
-        <v>43297</v>
+        <v>43608</v>
       </c>
       <c r="G28" t="s">
         <v>384</v>
       </c>
       <c r="H28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="J28" s="2">
-        <v>44144</v>
+        <v>43894</v>
       </c>
       <c r="K28">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L28" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
       <c r="M28">
-        <v>58.25</v>
+        <v>3.75</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4123,21 +4123,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>67.25</v>
-      </c>
-      <c r="AF28" t="b">
+        <v>133.75</v>
+      </c>
+      <c r="AE28" t="b">
         <v>1</v>
       </c>
       <c r="AI28" s="2">
-        <v>44144</v>
+        <v>43894</v>
       </c>
       <c r="AJ28" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="1">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -4152,7 +4152,7 @@
         <v>297</v>
       </c>
       <c r="F29" s="2">
-        <v>42798</v>
+        <v>43267</v>
       </c>
       <c r="G29" t="s">
         <v>385</v>
@@ -4164,37 +4164,37 @@
         <v>297</v>
       </c>
       <c r="J29" s="2">
-        <v>43844</v>
+        <v>43556</v>
       </c>
       <c r="K29">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="L29" s="2">
-        <v>44099</v>
+        <v>43924</v>
       </c>
       <c r="M29">
-        <v>286.5</v>
+        <v>132</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>402.5</v>
-      </c>
-      <c r="Z29" t="b">
+        <v>216</v>
+      </c>
+      <c r="AC29" t="b">
         <v>1</v>
       </c>
       <c r="AI29" s="2">
-        <v>43844</v>
+        <v>43831</v>
       </c>
       <c r="AJ29" s="2">
-        <v>44099</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -4288,7 +4288,7 @@
         <v>565</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J31" s="2">
         <v>44075</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
@@ -5088,7 +5088,7 @@
         <v>304</v>
       </c>
       <c r="F44" s="2">
-        <v>42718</v>
+        <v>43091</v>
       </c>
       <c r="G44" t="s">
         <v>399</v>
@@ -5100,48 +5100,48 @@
         <v>304</v>
       </c>
       <c r="J44" s="2">
-        <v>44018</v>
+        <v>43647</v>
       </c>
       <c r="K44">
-        <v>30</v>
+        <v>365</v>
       </c>
       <c r="L44" s="2">
-        <v>44048</v>
+        <v>44196</v>
       </c>
       <c r="M44">
-        <v>105</v>
+        <v>888</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>97.75</v>
       </c>
       <c r="Q44">
-        <v>105</v>
-      </c>
-      <c r="Y44" t="b">
+        <v>1249.75</v>
+      </c>
+      <c r="Z44" t="b">
         <v>1</v>
       </c>
       <c r="AI44" s="2">
-        <v>44018</v>
+        <v>43831</v>
       </c>
       <c r="AJ44" s="2">
-        <v>44048</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
         <v>290</v>
@@ -5150,119 +5150,116 @@
         <v>304</v>
       </c>
       <c r="F45" s="2">
-        <v>42718</v>
+        <v>42905</v>
       </c>
       <c r="G45" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J45" s="2">
-        <v>43558</v>
+        <v>43166</v>
       </c>
       <c r="K45">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L45" s="2">
-        <v>43945</v>
+        <v>43957</v>
       </c>
       <c r="M45">
-        <v>130.5</v>
+        <v>186</v>
       </c>
       <c r="N45">
-        <v>189</v>
+        <v>262.5</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="Q45">
-        <v>559.5</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC45" t="b">
+        <v>808.5</v>
+      </c>
+      <c r="AG45" t="b">
         <v>1</v>
       </c>
       <c r="AI45" s="2">
         <v>43831</v>
       </c>
       <c r="AJ45" s="2">
-        <v>43945</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
         <v>290</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F46" s="2">
-        <v>42682</v>
+        <v>42718</v>
       </c>
       <c r="G46" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H46" t="s">
         <v>576</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="J46" s="2">
-        <v>43650</v>
+        <v>44018</v>
       </c>
       <c r="K46">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="L46" s="2">
-        <v>44077</v>
+        <v>44048</v>
       </c>
       <c r="M46">
-        <v>598.5</v>
+        <v>105</v>
       </c>
       <c r="N46">
-        <v>237.25</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>72.75</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>908.5</v>
+        <v>105</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
       </c>
       <c r="AI46" s="2">
-        <v>43831</v>
+        <v>44018</v>
       </c>
       <c r="AJ46" s="2">
-        <v>44077</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -5277,49 +5274,52 @@
         <v>305</v>
       </c>
       <c r="F47" s="2">
-        <v>43278</v>
+        <v>42718</v>
       </c>
       <c r="G47" t="s">
         <v>401</v>
       </c>
       <c r="H47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I47" t="s">
-        <v>645</v>
+        <v>305</v>
       </c>
       <c r="J47" s="2">
-        <v>43711</v>
+        <v>43558</v>
       </c>
       <c r="K47">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L47" s="2">
-        <v>43957</v>
+        <v>43945</v>
       </c>
       <c r="M47">
-        <v>123</v>
+        <v>130.5</v>
       </c>
       <c r="N47">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q47">
-        <v>783</v>
-      </c>
-      <c r="AG47" t="b">
+        <v>559.5</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="b">
         <v>1</v>
       </c>
       <c r="AI47" s="2">
         <v>43831</v>
       </c>
       <c r="AJ47" s="2">
-        <v>43957</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5339,57 +5339,57 @@
         <v>305</v>
       </c>
       <c r="F48" s="2">
-        <v>43240</v>
+        <v>42682</v>
       </c>
       <c r="G48" t="s">
         <v>402</v>
       </c>
       <c r="H48" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="J48" s="2">
-        <v>43879</v>
+        <v>43650</v>
       </c>
       <c r="K48">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="L48" s="2">
-        <v>43957</v>
+        <v>44077</v>
       </c>
       <c r="M48">
-        <v>12.25</v>
+        <v>598.5</v>
       </c>
       <c r="N48">
-        <v>117</v>
+        <v>237.25</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>72.75</v>
       </c>
       <c r="Q48">
-        <v>129.25</v>
-      </c>
-      <c r="AE48" t="b">
+        <v>908.5</v>
+      </c>
+      <c r="Y48" t="b">
         <v>1</v>
       </c>
       <c r="AI48" s="2">
-        <v>43879</v>
+        <v>43831</v>
       </c>
       <c r="AJ48" s="2">
-        <v>43957</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>147</v>
@@ -5398,10 +5398,10 @@
         <v>290</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F49" s="2">
-        <v>42830</v>
+        <v>43278</v>
       </c>
       <c r="G49" t="s">
         <v>403</v>
@@ -5410,48 +5410,48 @@
         <v>578</v>
       </c>
       <c r="I49" t="s">
-        <v>305</v>
+        <v>645</v>
       </c>
       <c r="J49" s="2">
-        <v>43647</v>
+        <v>43711</v>
       </c>
       <c r="K49">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L49" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="M49">
-        <v>190.75</v>
+        <v>123</v>
       </c>
       <c r="N49">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q49">
-        <v>374.75</v>
-      </c>
-      <c r="AC49" t="b">
+        <v>783</v>
+      </c>
+      <c r="AG49" t="b">
         <v>1</v>
       </c>
       <c r="AI49" s="2">
         <v>43831</v>
       </c>
       <c r="AJ49" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="1">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>148</v>
@@ -5460,57 +5460,57 @@
         <v>290</v>
       </c>
       <c r="E50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F50" s="2">
-        <v>43546</v>
+        <v>43240</v>
       </c>
       <c r="G50" t="s">
         <v>404</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="I50" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J50" s="2">
-        <v>43899</v>
+        <v>43879</v>
       </c>
       <c r="K50">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="L50" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="N50">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>199</v>
-      </c>
-      <c r="AA50" t="b">
+        <v>129.25</v>
+      </c>
+      <c r="AE50" t="b">
         <v>1</v>
       </c>
       <c r="AI50" s="2">
-        <v>43899</v>
+        <v>43879</v>
       </c>
       <c r="AJ50" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -5525,31 +5525,31 @@
         <v>306</v>
       </c>
       <c r="F51" s="2">
-        <v>42761</v>
+        <v>42830</v>
       </c>
       <c r="G51" t="s">
         <v>405</v>
       </c>
       <c r="H51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I51" t="s">
         <v>306</v>
       </c>
       <c r="J51" s="2">
-        <v>43381</v>
+        <v>43647</v>
       </c>
       <c r="K51">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L51" s="2">
-        <v>43957</v>
+        <v>43951</v>
       </c>
       <c r="M51">
-        <v>174</v>
+        <v>190.75</v>
       </c>
       <c r="N51">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -5558,21 +5558,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>384</v>
-      </c>
-      <c r="Y51" t="b">
+        <v>374.75</v>
+      </c>
+      <c r="AC51" t="b">
         <v>1</v>
       </c>
       <c r="AI51" s="2">
         <v>43831</v>
       </c>
       <c r="AJ51" s="2">
-        <v>43957</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="1">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -5587,7 +5587,7 @@
         <v>306</v>
       </c>
       <c r="F52" s="2">
-        <v>42743</v>
+        <v>43546</v>
       </c>
       <c r="G52" t="s">
         <v>406</v>
@@ -5599,42 +5599,42 @@
         <v>306</v>
       </c>
       <c r="J52" s="2">
-        <v>43850</v>
+        <v>43899</v>
       </c>
       <c r="K52">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="L52" s="2">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q52">
-        <v>172</v>
-      </c>
-      <c r="Y52" t="b">
+        <v>199</v>
+      </c>
+      <c r="AA52" t="b">
         <v>1</v>
       </c>
       <c r="AI52" s="2">
-        <v>43850</v>
+        <v>43899</v>
       </c>
       <c r="AJ52" s="2">
-        <v>43957</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="53" spans="1:36">
       <c r="A53" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -5649,7 +5649,7 @@
         <v>307</v>
       </c>
       <c r="F53" s="2">
-        <v>43091</v>
+        <v>42761</v>
       </c>
       <c r="G53" t="s">
         <v>407</v>
@@ -5661,37 +5661,37 @@
         <v>307</v>
       </c>
       <c r="J53" s="2">
-        <v>43647</v>
+        <v>43381</v>
       </c>
       <c r="K53">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="L53" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
       <c r="M53">
-        <v>888</v>
+        <v>174</v>
       </c>
       <c r="N53">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>97.75</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1249.75</v>
-      </c>
-      <c r="Z53" t="b">
+        <v>384</v>
+      </c>
+      <c r="Y53" t="b">
         <v>1</v>
       </c>
       <c r="AI53" s="2">
         <v>43831</v>
       </c>
       <c r="AJ53" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -5711,46 +5711,46 @@
         <v>307</v>
       </c>
       <c r="F54" s="2">
-        <v>42905</v>
+        <v>42743</v>
       </c>
       <c r="G54" t="s">
         <v>408</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="I54" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="J54" s="2">
-        <v>43166</v>
+        <v>43850</v>
       </c>
       <c r="K54">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="L54" s="2">
         <v>43957</v>
       </c>
       <c r="M54">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="N54">
-        <v>262.5</v>
+        <v>104</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>808.5</v>
-      </c>
-      <c r="AG54" t="b">
+        <v>172</v>
+      </c>
+      <c r="Y54" t="b">
         <v>1</v>
       </c>
       <c r="AI54" s="2">
-        <v>43831</v>
+        <v>43850</v>
       </c>
       <c r="AJ54" s="2">
         <v>43957</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
@@ -5773,7 +5773,7 @@
         <v>308</v>
       </c>
       <c r="F55" s="2">
-        <v>43087</v>
+        <v>43043</v>
       </c>
       <c r="G55" t="s">
         <v>409</v>
@@ -5782,31 +5782,31 @@
         <v>582</v>
       </c>
       <c r="I55" t="s">
-        <v>308</v>
+        <v>646</v>
       </c>
       <c r="J55" s="2">
-        <v>43545</v>
+        <v>43724</v>
       </c>
       <c r="K55">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="L55" s="2">
-        <v>44106</v>
+        <v>44196</v>
       </c>
       <c r="M55">
-        <v>674</v>
+        <v>768.5</v>
       </c>
       <c r="N55">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>125.25</v>
+        <v>69</v>
       </c>
       <c r="Q55">
-        <v>1057.25</v>
+        <v>1067.5</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -5815,12 +5815,12 @@
         <v>43831</v>
       </c>
       <c r="AJ55" s="2">
-        <v>44106</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
@@ -5835,7 +5835,7 @@
         <v>308</v>
       </c>
       <c r="F56" s="2">
-        <v>43489</v>
+        <v>43323</v>
       </c>
       <c r="G56" t="s">
         <v>410</v>
@@ -5844,22 +5844,22 @@
         <v>583</v>
       </c>
       <c r="I56" t="s">
-        <v>308</v>
+        <v>646</v>
       </c>
       <c r="J56" s="2">
-        <v>43801</v>
+        <v>44144</v>
       </c>
       <c r="K56">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L56" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
       <c r="M56">
-        <v>117.25</v>
+        <v>89.5</v>
       </c>
       <c r="N56">
-        <v>104.5</v>
+        <v>27.5</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -5868,21 +5868,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>221.75</v>
-      </c>
-      <c r="AC56" t="b">
+        <v>117</v>
+      </c>
+      <c r="AF56" t="b">
         <v>1</v>
       </c>
       <c r="AI56" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ56" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
@@ -5897,7 +5897,7 @@
         <v>309</v>
       </c>
       <c r="F57" s="2">
-        <v>43043</v>
+        <v>43087</v>
       </c>
       <c r="G57" t="s">
         <v>411</v>
@@ -5906,31 +5906,31 @@
         <v>584</v>
       </c>
       <c r="I57" t="s">
-        <v>646</v>
+        <v>309</v>
       </c>
       <c r="J57" s="2">
-        <v>43724</v>
+        <v>43545</v>
       </c>
       <c r="K57">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="L57" s="2">
-        <v>44196</v>
+        <v>44106</v>
       </c>
       <c r="M57">
-        <v>768.5</v>
+        <v>674</v>
       </c>
       <c r="N57">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>69</v>
+        <v>125.25</v>
       </c>
       <c r="Q57">
-        <v>1067.5</v>
+        <v>1057.25</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -5939,12 +5939,12 @@
         <v>43831</v>
       </c>
       <c r="AJ57" s="2">
-        <v>44196</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
@@ -5959,7 +5959,7 @@
         <v>309</v>
       </c>
       <c r="F58" s="2">
-        <v>43323</v>
+        <v>43489</v>
       </c>
       <c r="G58" t="s">
         <v>412</v>
@@ -5968,22 +5968,22 @@
         <v>585</v>
       </c>
       <c r="I58" t="s">
-        <v>646</v>
+        <v>309</v>
       </c>
       <c r="J58" s="2">
-        <v>44144</v>
+        <v>43801</v>
       </c>
       <c r="K58">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L58" s="2">
-        <v>44196</v>
+        <v>43931</v>
       </c>
       <c r="M58">
-        <v>89.5</v>
+        <v>117.25</v>
       </c>
       <c r="N58">
-        <v>27.5</v>
+        <v>104.5</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5992,16 +5992,16 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>117</v>
-      </c>
-      <c r="AF58" t="b">
+        <v>221.75</v>
+      </c>
+      <c r="AC58" t="b">
         <v>1</v>
       </c>
       <c r="AI58" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ58" s="2">
-        <v>44196</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -6092,10 +6092,10 @@
         <v>414</v>
       </c>
       <c r="H60" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J60" s="2">
         <v>43276</v>
@@ -9892,10 +9892,10 @@
         <v>467</v>
       </c>
       <c r="H121" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J121" s="2">
         <v>43353</v>
@@ -9954,7 +9954,7 @@
         <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I122" t="s">
         <v>645</v>
@@ -10078,7 +10078,7 @@
         <v>470</v>
       </c>
       <c r="H124" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="I124" t="s">
         <v>325</v>
@@ -10326,7 +10326,7 @@
         <v>474</v>
       </c>
       <c r="H128" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I128" t="s">
         <v>325</v>
@@ -10391,7 +10391,7 @@
         <v>475</v>
       </c>
       <c r="H129" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I129" t="s">
         <v>646</v>
@@ -10453,7 +10453,7 @@
         <v>476</v>
       </c>
       <c r="H130" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="I130" t="s">
         <v>325</v>
@@ -10577,7 +10577,7 @@
         <v>478</v>
       </c>
       <c r="H132" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="I132" t="s">
         <v>326</v>
@@ -10642,7 +10642,7 @@
         <v>617</v>
       </c>
       <c r="I133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J133" s="2">
         <v>43080</v>
@@ -11014,7 +11014,7 @@
         <v>485</v>
       </c>
       <c r="H139" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="I139" t="s">
         <v>325</v>
@@ -12570,7 +12570,7 @@
         <v>510</v>
       </c>
       <c r="H164" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I164" t="s">
         <v>646</v>
@@ -12632,7 +12632,7 @@
         <v>511</v>
       </c>
       <c r="H165" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I165" t="s">
         <v>646</v>
@@ -13379,7 +13379,7 @@
         <v>521</v>
       </c>
       <c r="H177" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I177" t="s">
         <v>645</v>
@@ -14392,7 +14392,7 @@
         <v>639</v>
       </c>
       <c r="I193" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J193" s="2">
         <v>43483</v>
@@ -14430,7 +14430,7 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
         <v>97</v>
@@ -14445,60 +14445,63 @@
         <v>353</v>
       </c>
       <c r="F194" s="2">
-        <v>42943</v>
+        <v>42638</v>
       </c>
       <c r="G194" t="s">
         <v>534</v>
       </c>
       <c r="H194" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I194" t="s">
         <v>353</v>
       </c>
       <c r="J194" s="2">
-        <v>43587</v>
+        <v>43336</v>
       </c>
       <c r="K194">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="L194" s="2">
-        <v>44091</v>
+        <v>43937</v>
       </c>
       <c r="M194">
-        <v>425.75</v>
+        <v>127.5</v>
       </c>
       <c r="N194">
-        <v>122.5</v>
+        <v>109.5</v>
       </c>
       <c r="O194">
         <v>0</v>
       </c>
       <c r="P194">
-        <v>-18.5</v>
+        <v>92.25</v>
       </c>
       <c r="Q194">
-        <v>529.75</v>
-      </c>
-      <c r="Z194" t="b">
+        <v>329.25</v>
+      </c>
+      <c r="Y194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC194" t="b">
         <v>1</v>
       </c>
       <c r="AI194" s="2">
         <v>43831</v>
       </c>
       <c r="AJ194" s="2">
-        <v>44091</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
         <v>97</v>
       </c>
       <c r="C195" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D195" t="s">
         <v>290</v>
@@ -14507,119 +14510,116 @@
         <v>353</v>
       </c>
       <c r="F195" s="2">
-        <v>43238</v>
+        <v>42638</v>
       </c>
       <c r="G195" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H195" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I195" t="s">
         <v>353</v>
       </c>
       <c r="J195" s="2">
-        <v>43594</v>
+        <v>44025</v>
       </c>
       <c r="K195">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="L195" s="2">
-        <v>43957</v>
+        <v>44084</v>
       </c>
       <c r="M195">
-        <v>169.25</v>
+        <v>128.25</v>
       </c>
       <c r="N195">
-        <v>229.5</v>
+        <v>0</v>
       </c>
       <c r="O195">
         <v>0</v>
       </c>
       <c r="P195">
-        <v>280.5</v>
+        <v>0</v>
       </c>
       <c r="Q195">
-        <v>679.25</v>
-      </c>
-      <c r="AG195" t="b">
+        <v>128.25</v>
+      </c>
+      <c r="Y195" t="b">
         <v>1</v>
       </c>
       <c r="AI195" s="2">
-        <v>43831</v>
+        <v>44025</v>
       </c>
       <c r="AJ195" s="2">
-        <v>43957</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="196" spans="1:36">
       <c r="A196" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C196" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D196" t="s">
         <v>290</v>
       </c>
       <c r="E196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F196" s="2">
-        <v>42638</v>
+        <v>42753</v>
       </c>
       <c r="G196" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H196" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="I196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J196" s="2">
-        <v>43336</v>
+        <v>43227</v>
       </c>
       <c r="K196">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="L196" s="2">
-        <v>43937</v>
+        <v>44071</v>
       </c>
       <c r="M196">
-        <v>127.5</v>
+        <v>392</v>
       </c>
       <c r="N196">
-        <v>109.5</v>
+        <v>104</v>
       </c>
       <c r="O196">
         <v>0</v>
       </c>
       <c r="P196">
-        <v>92.25</v>
+        <v>16.5</v>
       </c>
       <c r="Q196">
-        <v>329.25</v>
+        <v>512.5</v>
       </c>
       <c r="Y196" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC196" t="b">
         <v>1</v>
       </c>
       <c r="AI196" s="2">
         <v>43831</v>
       </c>
       <c r="AJ196" s="2">
-        <v>43937</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="197" spans="1:36">
       <c r="A197" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
         <v>98</v>
@@ -14634,54 +14634,54 @@
         <v>354</v>
       </c>
       <c r="F197" s="2">
-        <v>42638</v>
+        <v>42943</v>
       </c>
       <c r="G197" t="s">
         <v>536</v>
       </c>
       <c r="H197" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I197" t="s">
         <v>354</v>
       </c>
       <c r="J197" s="2">
-        <v>44025</v>
+        <v>43587</v>
       </c>
       <c r="K197">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="L197" s="2">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="M197">
-        <v>128.25</v>
+        <v>425.75</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="O197">
         <v>0</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="Q197">
-        <v>128.25</v>
-      </c>
-      <c r="Y197" t="b">
+        <v>529.75</v>
+      </c>
+      <c r="Z197" t="b">
         <v>1</v>
       </c>
       <c r="AI197" s="2">
-        <v>44025</v>
+        <v>43831</v>
       </c>
       <c r="AJ197" s="2">
-        <v>44084</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B198" t="s">
         <v>98</v>
@@ -14696,49 +14696,49 @@
         <v>354</v>
       </c>
       <c r="F198" s="2">
-        <v>42753</v>
+        <v>43238</v>
       </c>
       <c r="G198" t="s">
         <v>537</v>
       </c>
       <c r="H198" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="I198" t="s">
         <v>354</v>
       </c>
       <c r="J198" s="2">
-        <v>43227</v>
+        <v>43594</v>
       </c>
       <c r="K198">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="L198" s="2">
-        <v>44071</v>
+        <v>43957</v>
       </c>
       <c r="M198">
-        <v>392</v>
+        <v>169.25</v>
       </c>
       <c r="N198">
-        <v>104</v>
+        <v>229.5</v>
       </c>
       <c r="O198">
         <v>0</v>
       </c>
       <c r="P198">
-        <v>16.5</v>
+        <v>280.5</v>
       </c>
       <c r="Q198">
-        <v>512.5</v>
-      </c>
-      <c r="Y198" t="b">
+        <v>679.25</v>
+      </c>
+      <c r="AG198" t="b">
         <v>1</v>
       </c>
       <c r="AI198" s="2">
         <v>43831</v>
       </c>
       <c r="AJ198" s="2">
-        <v>44071</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="199" spans="1:36">
@@ -14764,10 +14764,10 @@
         <v>538</v>
       </c>
       <c r="H199" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="I199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J199" s="2">
         <v>43809</v>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -150,12 +150,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Bruneck.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Deutschnofen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Burgstall.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Deutschnofen.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Eppan.xlsx</t>
   </si>
   <si>
@@ -168,24 +168,24 @@
     <t>Erklärung Gemeinden Jahr 2020 Graun.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Gsies.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Hafling.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Gsies.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Kaltern.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Karneid.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
   </si>
   <si>
@@ -195,21 +195,21 @@
     <t>Erklärung Gemeinden Jahr 2020 Latsch.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Marling.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Margreid.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Mals i. V..xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Margreid.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Marling.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Mölten.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Meran.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Mölten.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Moos In Passeier.xlsx</t>
   </si>
   <si>
@@ -267,30 +267,30 @@
     <t>Erklärung Gemeinden Jahr 2020 Sand in Taufers.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Schnals.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 St. Leonhard in Passeier.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 St. Lorenzen.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Schlanders.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Sarntal.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Schenna.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Schlanders.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Schnals.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 St. Leonhard in Passeier.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 St. Lorenzen.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 St. Pankraz Ulten.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 St. Martin In Passeier.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 St. Pankraz Ulten.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Taufers im Münstertal.xlsx</t>
   </si>
   <si>
@@ -321,12 +321,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Vöran.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Vöran.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
   </si>
   <si>
@@ -414,12 +414,12 @@
     <t>Zingerle Amaja</t>
   </si>
   <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
     <t>Vent Ludwig</t>
   </si>
   <si>
-    <t>Werner Emma</t>
-  </si>
-  <si>
     <t>Diana Jan</t>
   </si>
   <si>
@@ -453,18 +453,18 @@
     <t>Edobor Evidence</t>
   </si>
   <si>
+    <t>Haller Toni</t>
+  </si>
+  <si>
+    <t>Seiwald  Silas</t>
+  </si>
+  <si>
     <t>Eschgfaeller Marie</t>
   </si>
   <si>
     <t>Messner  Lian</t>
   </si>
   <si>
-    <t>Haller Toni</t>
-  </si>
-  <si>
-    <t>Seiwald  Silas</t>
-  </si>
-  <si>
     <t>Dragan Emanuela</t>
   </si>
   <si>
@@ -483,18 +483,18 @@
     <t>Rieder Fabian</t>
   </si>
   <si>
+    <t>Gostner Noah</t>
+  </si>
+  <si>
+    <t>Mulser Lenny</t>
+  </si>
+  <si>
     <t>Hochgruber Raphael</t>
   </si>
   <si>
     <t>Weger Mathe Elisabeth</t>
   </si>
   <si>
-    <t>Gostner Noah</t>
-  </si>
-  <si>
-    <t>Mulser Lenny</t>
-  </si>
-  <si>
     <t>Bekoe Lucia</t>
   </si>
   <si>
@@ -525,6 +525,24 @@
     <t>Linser Finn</t>
   </si>
   <si>
+    <t>Grandioso Mattia</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>Strobl Jonathan</t>
+  </si>
+  <si>
+    <t>Gruber Damian</t>
+  </si>
+  <si>
+    <t>Tonidandel Martin</t>
+  </si>
+  <si>
     <t>Adam Madleen</t>
   </si>
   <si>
@@ -534,22 +552,10 @@
     <t>Punter  Emil</t>
   </si>
   <si>
-    <t>Gruber Damian</t>
-  </si>
-  <si>
-    <t>Tonidandel Martin</t>
-  </si>
-  <si>
-    <t>Grandioso Mattia</t>
-  </si>
-  <si>
-    <t>Ladurner Moritz</t>
-  </si>
-  <si>
-    <t>Matzoll Rene</t>
-  </si>
-  <si>
-    <t>Strobl Jonathan</t>
+    <t>Gruber  Emil</t>
+  </si>
+  <si>
+    <t>Thaler Leia</t>
   </si>
   <si>
     <t>Agostinetto Matti</t>
@@ -618,12 +624,6 @@
     <t>Vassanelli Noah</t>
   </si>
   <si>
-    <t>Gruber  Emil</t>
-  </si>
-  <si>
-    <t>Thaler Leia</t>
-  </si>
-  <si>
     <t>Gufler Lina</t>
   </si>
   <si>
@@ -756,6 +756,30 @@
     <t>Niederkofler Josef</t>
   </si>
   <si>
+    <t>Rainer Sina</t>
+  </si>
+  <si>
+    <t>Woerndle Paul</t>
+  </si>
+  <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>Huber  David</t>
+  </si>
+  <si>
+    <t>Moosbrugger Theresa</t>
+  </si>
+  <si>
+    <t>Doda Denis</t>
+  </si>
+  <si>
+    <t>Thoman Aimar Amalia</t>
+  </si>
+  <si>
+    <t>Trafoier Alex</t>
+  </si>
+  <si>
     <t>Desaler Viktoria</t>
   </si>
   <si>
@@ -768,39 +792,15 @@
     <t>Pföstl  Philipp</t>
   </si>
   <si>
-    <t>Doda Denis</t>
-  </si>
-  <si>
-    <t>Thoman Aimar Amalia</t>
-  </si>
-  <si>
-    <t>Trafoier Alex</t>
-  </si>
-  <si>
-    <t>Rainer Sina</t>
-  </si>
-  <si>
-    <t>Woerndle Paul</t>
-  </si>
-  <si>
-    <t>Gumpold Marius</t>
-  </si>
-  <si>
-    <t>Huber  David</t>
-  </si>
-  <si>
-    <t>Moosbrugger Theresa</t>
+    <t>Matzoll Simon</t>
+  </si>
+  <si>
+    <t>Piscopiello Anton</t>
   </si>
   <si>
     <t>Kofler Andreas</t>
   </si>
   <si>
-    <t>Matzoll Simon</t>
-  </si>
-  <si>
-    <t>Piscopiello Anton</t>
-  </si>
-  <si>
     <t>Malloth Daniel</t>
   </si>
   <si>
@@ -870,15 +870,15 @@
     <t>Obexer Elias</t>
   </si>
   <si>
+    <t>Innerhofer Moritz</t>
+  </si>
+  <si>
     <t>Singer  Theresa</t>
   </si>
   <si>
     <t>Villgrattner Jonas</t>
   </si>
   <si>
-    <t>Innerhofer Moritz</t>
-  </si>
-  <si>
     <t>Dejori Pia</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>Bruneck</t>
   </si>
   <si>
+    <t>Deutschnofen</t>
+  </si>
+  <si>
     <t>Burgstall</t>
   </si>
   <si>
-    <t>Deutschnofen</t>
-  </si>
-  <si>
     <t>Eppan</t>
   </si>
   <si>
@@ -936,24 +936,24 @@
     <t>Graun im Vinschgau</t>
   </si>
   <si>
+    <t>Gsies</t>
+  </si>
+  <si>
     <t>Hafling</t>
   </si>
   <si>
-    <t>Gsies</t>
-  </si>
-  <si>
     <t>Kaltern</t>
   </si>
   <si>
     <t>Karneid</t>
   </si>
   <si>
+    <t>Kastelruth</t>
+  </si>
+  <si>
     <t>Kiens</t>
   </si>
   <si>
-    <t>Kastelruth</t>
-  </si>
-  <si>
     <t>Klausen</t>
   </si>
   <si>
@@ -963,21 +963,21 @@
     <t>Latsch</t>
   </si>
   <si>
+    <t>Marling</t>
+  </si>
+  <si>
+    <t>Margreid</t>
+  </si>
+  <si>
     <t>Mals i. V.</t>
   </si>
   <si>
-    <t>Margreid</t>
-  </si>
-  <si>
-    <t>Marling</t>
+    <t>Moelten</t>
   </si>
   <si>
     <t>Meran</t>
   </si>
   <si>
-    <t>Moelten</t>
-  </si>
-  <si>
     <t>Moos in Passeier</t>
   </si>
   <si>
@@ -1035,30 +1035,30 @@
     <t>Sand in Taufers</t>
   </si>
   <si>
+    <t>Schnals</t>
+  </si>
+  <si>
+    <t>St. Leonhard in Passeier</t>
+  </si>
+  <si>
+    <t>St. Lorenzen</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
     <t>Sarntal</t>
   </si>
   <si>
     <t>Schenna</t>
   </si>
   <si>
-    <t>Schlanders</t>
-  </si>
-  <si>
-    <t>Schnals</t>
-  </si>
-  <si>
-    <t>St. Leonhard in Passeier</t>
-  </si>
-  <si>
-    <t>St. Lorenzen</t>
+    <t>St. Pankraz Ulten</t>
   </si>
   <si>
     <t>St. Martin in Passeier</t>
   </si>
   <si>
-    <t>St. Pankraz Ulten</t>
-  </si>
-  <si>
     <t>Taufers i. M.</t>
   </si>
   <si>
@@ -1089,12 +1089,12 @@
     <t>Villnöss</t>
   </si>
   <si>
+    <t>Voeran</t>
+  </si>
+  <si>
     <t>Völs am Schlern</t>
   </si>
   <si>
-    <t>Voeran</t>
-  </si>
-  <si>
     <t>Welschnofen</t>
   </si>
   <si>
@@ -1182,12 +1182,12 @@
     <t>ZNGMJA18H56B220I</t>
   </si>
   <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
     <t>VNTLWG18P17F132O</t>
   </si>
   <si>
-    <t>WRNMME17T67A952M</t>
-  </si>
-  <si>
     <t>DNIJNA19L25A952X</t>
   </si>
   <si>
@@ -1221,18 +1221,18 @@
     <t>DBRVNC19L59A952Z</t>
   </si>
   <si>
+    <t>HLLTNO16T14B220U</t>
+  </si>
+  <si>
+    <t>SWLSLS16S08B220U</t>
+  </si>
+  <si>
     <t>SCHMRA17T62A952K</t>
   </si>
   <si>
     <t>MSSLNI17H19F132Q</t>
   </si>
   <si>
-    <t>HLLTNO16T14B220U</t>
-  </si>
-  <si>
-    <t>SWLSLS16S08B220U</t>
-  </si>
-  <si>
     <t>DRGMNL18H67A952F</t>
   </si>
   <si>
@@ -1251,18 +1251,18 @@
     <t>RDRFBN17A08B160U</t>
   </si>
   <si>
+    <t>GSTNHO17T18B160K</t>
+  </si>
+  <si>
+    <t>MLSLNY19A24B160V</t>
+  </si>
+  <si>
     <t>HCHRHL17S04B220O</t>
   </si>
   <si>
     <t>WGRMHL18M51B220M</t>
   </si>
   <si>
-    <t>GSTNHO17T18B160K</t>
-  </si>
-  <si>
-    <t>MLSLNY19A24B160V</t>
-  </si>
-  <si>
     <t>BKELCU17R50A952D</t>
   </si>
   <si>
@@ -1293,6 +1293,24 @@
     <t>LNSFNN18S04I729O</t>
   </si>
   <si>
+    <t>GRNMTT19A06F132F</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>STRJTH17P13F132W</t>
+  </si>
+  <si>
+    <t>GRBDMN17E25A952Y</t>
+  </si>
+  <si>
+    <t>TNDMTN17M30A952D</t>
+  </si>
+  <si>
     <t>DMAMLN17S50I729S</t>
   </si>
   <si>
@@ -1302,22 +1320,10 @@
     <t>PNTMLE17H12A952H</t>
   </si>
   <si>
-    <t>GRBDMN17E25A952Y</t>
-  </si>
-  <si>
-    <t>TNDMTN17M30A952D</t>
-  </si>
-  <si>
-    <t>GRNMTT19A06F132F</t>
-  </si>
-  <si>
-    <t>LDRMTZ17B09F132D</t>
-  </si>
-  <si>
-    <t>MTZRNE17C30F132A</t>
-  </si>
-  <si>
-    <t>STRJTH17P13F132W</t>
+    <t>GRBMLE16T12F132N</t>
+  </si>
+  <si>
+    <t>THLLEI19A68F132X</t>
   </si>
   <si>
     <t>GSTMTT20B09A952T</t>
@@ -1386,12 +1392,6 @@
     <t>VSSNHO16R13F132P</t>
   </si>
   <si>
-    <t>GRBMLE16T12F132N</t>
-  </si>
-  <si>
-    <t>THLLEI19A68F132X</t>
-  </si>
-  <si>
     <t>GFLLNI18L57F132G</t>
   </si>
   <si>
@@ -1524,6 +1524,30 @@
     <t>NDRJSF17A20B220Z</t>
   </si>
   <si>
+    <t>RNRSNI18D46I729B</t>
+  </si>
+  <si>
+    <t>WRNPLA17T13I729Z</t>
+  </si>
+  <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>HBRDVD16S18B220L</t>
+  </si>
+  <si>
+    <t>MSBTRS17B42Z102X</t>
+  </si>
+  <si>
+    <t>DDODNS17L05I729E</t>
+  </si>
+  <si>
+    <t>THMMLA17T69I729V</t>
+  </si>
+  <si>
+    <t>TRFLXA17S27I729K</t>
+  </si>
+  <si>
     <t>DSLVTR17A51A952V</t>
   </si>
   <si>
@@ -1536,39 +1560,15 @@
     <t>PFSPLP17B08F132P</t>
   </si>
   <si>
-    <t>DDODNS17L05I729E</t>
-  </si>
-  <si>
-    <t>THMMLA17T69I729V</t>
-  </si>
-  <si>
-    <t>TRFLXA17S27I729K</t>
-  </si>
-  <si>
-    <t>RNRSNI18D46I729B</t>
-  </si>
-  <si>
-    <t>WRNPLA17T13I729Z</t>
-  </si>
-  <si>
-    <t>GMPMRS17M28F132X</t>
-  </si>
-  <si>
-    <t>HBRDVD16S18B220L</t>
-  </si>
-  <si>
-    <t>MSBTRS17B42Z102X</t>
+    <t>MTZSMN16T01F132M</t>
+  </si>
+  <si>
+    <t>PSCNTN17L15F132A</t>
   </si>
   <si>
     <t>KFLNRS17S23F132N</t>
   </si>
   <si>
-    <t>MTZSMN16T01F132M</t>
-  </si>
-  <si>
-    <t>PSCNTN17L15F132A</t>
-  </si>
-  <si>
     <t>MLLDNL17L10I729Y</t>
   </si>
   <si>
@@ -1638,15 +1638,15 @@
     <t>BXRLSE18E18B160Z</t>
   </si>
   <si>
+    <t>NNRMTZ17H13F132H</t>
+  </si>
+  <si>
     <t>SNGTRS17C61F132M</t>
   </si>
   <si>
     <t>VLLJNS17A09B160F</t>
   </si>
   <si>
-    <t>NNRMTZ17H13F132H</t>
-  </si>
-  <si>
     <t>DJRPIA17A67A952Q</t>
   </si>
   <si>
@@ -1749,15 +1749,15 @@
     <t>Oswald Maria Pia</t>
   </si>
   <si>
+    <t>Kargruber  Maria</t>
+  </si>
+  <si>
+    <t>Auer Petra</t>
+  </si>
+  <si>
     <t>Plattner Martina</t>
   </si>
   <si>
-    <t>Kargruber  Maria</t>
-  </si>
-  <si>
-    <t>Auer Petra</t>
-  </si>
-  <si>
     <t>Peer Petra</t>
   </si>
   <si>
@@ -1770,18 +1770,18 @@
     <t>Covi Sibylle</t>
   </si>
   <si>
+    <t>Bernard  Nadine</t>
+  </si>
+  <si>
+    <t>Silbernagl  Katharina</t>
+  </si>
+  <si>
     <t>Leiter Manuela</t>
   </si>
   <si>
     <t>Tasser Margit</t>
   </si>
   <si>
-    <t>Bernard  Nadine</t>
-  </si>
-  <si>
-    <t>Silbernagl  Katharina</t>
-  </si>
-  <si>
     <t>Duchova Dana</t>
   </si>
   <si>
@@ -1803,16 +1803,19 @@
     <t>Prantl Stefanie</t>
   </si>
   <si>
+    <t>Prantl  Hildburg</t>
+  </si>
+  <si>
+    <t>Leiter  Julia</t>
+  </si>
+  <si>
+    <t>Alber Karolina</t>
+  </si>
+  <si>
     <t>Weisenhorn Annamaria</t>
   </si>
   <si>
-    <t>Prantl  Hildburg</t>
-  </si>
-  <si>
-    <t>Leiter  Julia</t>
-  </si>
-  <si>
-    <t>Alber Karolina</t>
+    <t>Duregger Evi</t>
   </si>
   <si>
     <t>Kienzl Martina Rosa</t>
@@ -1845,9 +1848,6 @@
     <t>Schwalt Kathrin</t>
   </si>
   <si>
-    <t>Duregger Evi</t>
-  </si>
-  <si>
     <t>Trocker Christine</t>
   </si>
   <si>
@@ -1905,6 +1905,12 @@
     <t>Berger Michaela</t>
   </si>
   <si>
+    <t>Graiss Lisa</t>
+  </si>
+  <si>
+    <t>Stecher Romina</t>
+  </si>
+  <si>
     <t>Gufler Petra</t>
   </si>
   <si>
@@ -1914,16 +1920,10 @@
     <t>Mittelberger Maria</t>
   </si>
   <si>
-    <t>Stecher Romina</t>
-  </si>
-  <si>
-    <t>Graiss Lisa</t>
+    <t>Zöschg Gertrud</t>
   </si>
   <si>
     <t>Schweigl Simone</t>
-  </si>
-  <si>
-    <t>Zöschg Gertrud</t>
   </si>
   <si>
     <t>Lunger Alexandra</t>
@@ -2794,7 +2794,7 @@
         <v>549</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J7" s="2">
         <v>43598</v>
@@ -3107,7 +3107,7 @@
         <v>553</v>
       </c>
       <c r="I12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J12" s="2">
         <v>44138</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -4214,49 +4214,46 @@
         <v>298</v>
       </c>
       <c r="F30" s="2">
-        <v>43360</v>
+        <v>43096</v>
       </c>
       <c r="G30" t="s">
         <v>386</v>
       </c>
       <c r="H30" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J30" s="2">
-        <v>43892</v>
+        <v>44075</v>
       </c>
       <c r="K30">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="L30" s="2">
         <v>44196</v>
       </c>
       <c r="M30">
-        <v>480.5</v>
+        <v>213</v>
       </c>
       <c r="N30">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>692.5</v>
-      </c>
-      <c r="AB30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="b">
+        <v>229</v>
+      </c>
+      <c r="Z30" t="b">
         <v>1</v>
       </c>
       <c r="AI30" s="2">
-        <v>43892</v>
+        <v>44075</v>
       </c>
       <c r="AJ30" s="2">
         <v>44196</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -4279,46 +4276,49 @@
         <v>299</v>
       </c>
       <c r="F31" s="2">
-        <v>43096</v>
+        <v>43360</v>
       </c>
       <c r="G31" t="s">
         <v>387</v>
       </c>
       <c r="H31" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="J31" s="2">
-        <v>44075</v>
+        <v>43892</v>
       </c>
       <c r="K31">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="L31" s="2">
         <v>44196</v>
       </c>
       <c r="M31">
-        <v>213</v>
+        <v>480.5</v>
       </c>
       <c r="N31">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q31">
-        <v>229</v>
-      </c>
-      <c r="Z31" t="b">
+        <v>692.5</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="b">
         <v>1</v>
       </c>
       <c r="AI31" s="2">
-        <v>44075</v>
+        <v>43892</v>
       </c>
       <c r="AJ31" s="2">
         <v>44196</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
@@ -5088,7 +5088,7 @@
         <v>304</v>
       </c>
       <c r="F44" s="2">
-        <v>43091</v>
+        <v>42718</v>
       </c>
       <c r="G44" t="s">
         <v>399</v>
@@ -5100,48 +5100,48 @@
         <v>304</v>
       </c>
       <c r="J44" s="2">
-        <v>43647</v>
+        <v>44018</v>
       </c>
       <c r="K44">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="L44" s="2">
-        <v>44196</v>
+        <v>44048</v>
       </c>
       <c r="M44">
-        <v>888</v>
+        <v>105</v>
       </c>
       <c r="N44">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>97.75</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1249.75</v>
-      </c>
-      <c r="Z44" t="b">
+        <v>105</v>
+      </c>
+      <c r="Y44" t="b">
         <v>1</v>
       </c>
       <c r="AI44" s="2">
-        <v>43831</v>
+        <v>44018</v>
       </c>
       <c r="AJ44" s="2">
-        <v>44196</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
         <v>290</v>
@@ -5150,116 +5150,119 @@
         <v>304</v>
       </c>
       <c r="F45" s="2">
-        <v>42905</v>
+        <v>42718</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J45" s="2">
-        <v>43166</v>
+        <v>43558</v>
       </c>
       <c r="K45">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L45" s="2">
-        <v>43957</v>
+        <v>43945</v>
       </c>
       <c r="M45">
-        <v>186</v>
+        <v>130.5</v>
       </c>
       <c r="N45">
-        <v>262.5</v>
+        <v>189</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="Q45">
-        <v>808.5</v>
-      </c>
-      <c r="AG45" t="b">
+        <v>559.5</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="b">
         <v>1</v>
       </c>
       <c r="AI45" s="2">
         <v>43831</v>
       </c>
       <c r="AJ45" s="2">
-        <v>43957</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
         <v>290</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F46" s="2">
-        <v>42718</v>
+        <v>42682</v>
       </c>
       <c r="G46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H46" t="s">
         <v>576</v>
       </c>
       <c r="I46" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="J46" s="2">
-        <v>44018</v>
+        <v>43650</v>
       </c>
       <c r="K46">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="L46" s="2">
-        <v>44048</v>
+        <v>44077</v>
       </c>
       <c r="M46">
-        <v>105</v>
+        <v>598.5</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>237.25</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>72.75</v>
       </c>
       <c r="Q46">
-        <v>105</v>
+        <v>908.5</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
       </c>
       <c r="AI46" s="2">
-        <v>44018</v>
+        <v>43831</v>
       </c>
       <c r="AJ46" s="2">
-        <v>44048</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -5274,57 +5277,54 @@
         <v>305</v>
       </c>
       <c r="F47" s="2">
-        <v>42718</v>
+        <v>43091</v>
       </c>
       <c r="G47" t="s">
         <v>401</v>
       </c>
       <c r="H47" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I47" t="s">
         <v>305</v>
       </c>
       <c r="J47" s="2">
-        <v>43558</v>
+        <v>43647</v>
       </c>
       <c r="K47">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="L47" s="2">
-        <v>43945</v>
+        <v>44196</v>
       </c>
       <c r="M47">
-        <v>130.5</v>
+        <v>888</v>
       </c>
       <c r="N47">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>240</v>
+        <v>97.75</v>
       </c>
       <c r="Q47">
-        <v>559.5</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC47" t="b">
+        <v>1249.75</v>
+      </c>
+      <c r="Z47" t="b">
         <v>1</v>
       </c>
       <c r="AI47" s="2">
         <v>43831</v>
       </c>
       <c r="AJ47" s="2">
-        <v>43945</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="48" spans="1:36">
       <c r="A48" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -5339,49 +5339,49 @@
         <v>305</v>
       </c>
       <c r="F48" s="2">
-        <v>42682</v>
+        <v>42905</v>
       </c>
       <c r="G48" t="s">
         <v>402</v>
       </c>
       <c r="H48" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="J48" s="2">
-        <v>43650</v>
+        <v>43166</v>
       </c>
       <c r="K48">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="L48" s="2">
-        <v>44077</v>
+        <v>43957</v>
       </c>
       <c r="M48">
-        <v>598.5</v>
+        <v>186</v>
       </c>
       <c r="N48">
-        <v>237.25</v>
+        <v>262.5</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>72.75</v>
+        <v>360</v>
       </c>
       <c r="Q48">
-        <v>908.5</v>
-      </c>
-      <c r="Y48" t="b">
+        <v>808.5</v>
+      </c>
+      <c r="AG48" t="b">
         <v>1</v>
       </c>
       <c r="AI48" s="2">
         <v>43831</v>
       </c>
       <c r="AJ48" s="2">
-        <v>44077</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5758,7 +5758,7 @@
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
@@ -5773,7 +5773,7 @@
         <v>308</v>
       </c>
       <c r="F55" s="2">
-        <v>43043</v>
+        <v>43087</v>
       </c>
       <c r="G55" t="s">
         <v>409</v>
@@ -5782,31 +5782,31 @@
         <v>582</v>
       </c>
       <c r="I55" t="s">
-        <v>646</v>
+        <v>308</v>
       </c>
       <c r="J55" s="2">
-        <v>43724</v>
+        <v>43545</v>
       </c>
       <c r="K55">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="L55" s="2">
-        <v>44196</v>
+        <v>44106</v>
       </c>
       <c r="M55">
-        <v>768.5</v>
+        <v>674</v>
       </c>
       <c r="N55">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>69</v>
+        <v>125.25</v>
       </c>
       <c r="Q55">
-        <v>1067.5</v>
+        <v>1057.25</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -5815,12 +5815,12 @@
         <v>43831</v>
       </c>
       <c r="AJ55" s="2">
-        <v>44196</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
@@ -5835,7 +5835,7 @@
         <v>308</v>
       </c>
       <c r="F56" s="2">
-        <v>43323</v>
+        <v>43489</v>
       </c>
       <c r="G56" t="s">
         <v>410</v>
@@ -5844,22 +5844,22 @@
         <v>583</v>
       </c>
       <c r="I56" t="s">
-        <v>646</v>
+        <v>308</v>
       </c>
       <c r="J56" s="2">
-        <v>44144</v>
+        <v>43801</v>
       </c>
       <c r="K56">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L56" s="2">
-        <v>44196</v>
+        <v>43931</v>
       </c>
       <c r="M56">
-        <v>89.5</v>
+        <v>117.25</v>
       </c>
       <c r="N56">
-        <v>27.5</v>
+        <v>104.5</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -5868,21 +5868,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>117</v>
-      </c>
-      <c r="AF56" t="b">
+        <v>221.75</v>
+      </c>
+      <c r="AC56" t="b">
         <v>1</v>
       </c>
       <c r="AI56" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ56" s="2">
-        <v>44196</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
@@ -5897,7 +5897,7 @@
         <v>309</v>
       </c>
       <c r="F57" s="2">
-        <v>43087</v>
+        <v>43043</v>
       </c>
       <c r="G57" t="s">
         <v>411</v>
@@ -5906,31 +5906,31 @@
         <v>584</v>
       </c>
       <c r="I57" t="s">
-        <v>309</v>
+        <v>646</v>
       </c>
       <c r="J57" s="2">
-        <v>43545</v>
+        <v>43724</v>
       </c>
       <c r="K57">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="L57" s="2">
-        <v>44106</v>
+        <v>44196</v>
       </c>
       <c r="M57">
-        <v>674</v>
+        <v>768.5</v>
       </c>
       <c r="N57">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>125.25</v>
+        <v>69</v>
       </c>
       <c r="Q57">
-        <v>1057.25</v>
+        <v>1067.5</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -5939,12 +5939,12 @@
         <v>43831</v>
       </c>
       <c r="AJ57" s="2">
-        <v>44106</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
@@ -5959,7 +5959,7 @@
         <v>309</v>
       </c>
       <c r="F58" s="2">
-        <v>43489</v>
+        <v>43323</v>
       </c>
       <c r="G58" t="s">
         <v>412</v>
@@ -5968,22 +5968,22 @@
         <v>585</v>
       </c>
       <c r="I58" t="s">
-        <v>309</v>
+        <v>646</v>
       </c>
       <c r="J58" s="2">
-        <v>43801</v>
+        <v>44144</v>
       </c>
       <c r="K58">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L58" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
       <c r="M58">
-        <v>117.25</v>
+        <v>89.5</v>
       </c>
       <c r="N58">
-        <v>104.5</v>
+        <v>27.5</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5992,16 +5992,16 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>221.75</v>
-      </c>
-      <c r="AC58" t="b">
+        <v>117</v>
+      </c>
+      <c r="AF58" t="b">
         <v>1</v>
       </c>
       <c r="AI58" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ58" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -6343,7 +6343,7 @@
         <v>590</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J64" s="2">
         <v>43374</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>57</v>
@@ -6771,7 +6771,7 @@
         <v>313</v>
       </c>
       <c r="F71" s="2">
-        <v>43049</v>
+        <v>43471</v>
       </c>
       <c r="G71" t="s">
         <v>423</v>
@@ -6780,22 +6780,22 @@
         <v>593</v>
       </c>
       <c r="I71" t="s">
-        <v>644</v>
+        <v>317</v>
       </c>
       <c r="J71" s="2">
-        <v>43739</v>
+        <v>44088</v>
       </c>
       <c r="K71">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="L71" s="2">
-        <v>43948</v>
+        <v>44092</v>
       </c>
       <c r="M71">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N71">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -6804,21 +6804,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>202.5</v>
-      </c>
-      <c r="AC71" t="b">
+        <v>24</v>
+      </c>
+      <c r="AG71" t="b">
         <v>1</v>
       </c>
       <c r="AI71" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AJ71" s="2">
-        <v>43948</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
         <v>57</v>
@@ -6833,57 +6833,54 @@
         <v>313</v>
       </c>
       <c r="F72" s="2">
-        <v>42898</v>
+        <v>42775</v>
       </c>
       <c r="G72" t="s">
         <v>424</v>
       </c>
       <c r="H72" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I72" t="s">
-        <v>644</v>
+        <v>313</v>
       </c>
       <c r="J72" s="2">
-        <v>43893</v>
+        <v>43476</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="L72" s="2">
-        <v>43903</v>
+        <v>44097</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>606.25</v>
       </c>
       <c r="N72">
-        <v>18</v>
+        <v>243.75</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>130.25</v>
       </c>
       <c r="Q72">
-        <v>24</v>
-      </c>
-      <c r="AC72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE72" t="b">
+        <v>980.25</v>
+      </c>
+      <c r="Y72" t="b">
         <v>1</v>
       </c>
       <c r="AI72" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ72" s="2">
-        <v>43903</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
         <v>57</v>
@@ -6898,60 +6895,57 @@
         <v>313</v>
       </c>
       <c r="F73" s="2">
-        <v>42898</v>
+        <v>42824</v>
       </c>
       <c r="G73" t="s">
         <v>425</v>
       </c>
       <c r="H73" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I73" t="s">
-        <v>644</v>
+        <v>317</v>
       </c>
       <c r="J73" s="2">
-        <v>43893</v>
+        <v>43678</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="L73" s="2">
-        <v>43903</v>
+        <v>44134</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>559</v>
       </c>
       <c r="N73">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q73">
-        <v>24</v>
-      </c>
-      <c r="AC73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE73" t="b">
+        <v>684</v>
+      </c>
+      <c r="Z73" t="b">
         <v>1</v>
       </c>
       <c r="AI73" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ73" s="2">
-        <v>43903</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>170</v>
@@ -6960,22 +6954,22 @@
         <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F74" s="2">
-        <v>42880</v>
+        <v>42991</v>
       </c>
       <c r="G74" t="s">
         <v>426</v>
       </c>
       <c r="H74" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="I74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J74" s="2">
-        <v>43741</v>
+        <v>43388</v>
       </c>
       <c r="K74">
         <v>120</v>
@@ -6984,10 +6978,10 @@
         <v>43951</v>
       </c>
       <c r="M74">
-        <v>66</v>
+        <v>126.5</v>
       </c>
       <c r="N74">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -6996,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>162</v>
+        <v>241.5</v>
       </c>
       <c r="AC74" t="b">
         <v>1</v>
@@ -7010,7 +7004,7 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>58</v>
@@ -7025,7 +7019,7 @@
         <v>314</v>
       </c>
       <c r="F75" s="2">
-        <v>42977</v>
+        <v>42880</v>
       </c>
       <c r="G75" t="s">
         <v>427</v>
@@ -7037,19 +7031,19 @@
         <v>314</v>
       </c>
       <c r="J75" s="2">
-        <v>43801</v>
+        <v>43741</v>
       </c>
       <c r="K75">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L75" s="2">
-        <v>43941</v>
+        <v>43951</v>
       </c>
       <c r="M75">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="N75">
-        <v>82.5</v>
+        <v>96</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -7058,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>198.5</v>
+        <v>162</v>
       </c>
       <c r="AC75" t="b">
         <v>1</v>
@@ -7067,15 +7061,15 @@
         <v>43831</v>
       </c>
       <c r="AJ75" s="2">
-        <v>43941</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>172</v>
@@ -7084,34 +7078,34 @@
         <v>290</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F76" s="2">
-        <v>43471</v>
+        <v>42977</v>
       </c>
       <c r="G76" t="s">
         <v>428</v>
       </c>
       <c r="H76" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="I76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J76" s="2">
-        <v>44088</v>
+        <v>43801</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="L76" s="2">
-        <v>44092</v>
+        <v>43941</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -7120,21 +7114,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>24</v>
-      </c>
-      <c r="AG76" t="b">
+        <v>198.5</v>
+      </c>
+      <c r="AC76" t="b">
         <v>1</v>
       </c>
       <c r="AI76" s="2">
-        <v>44088</v>
+        <v>43831</v>
       </c>
       <c r="AJ76" s="2">
-        <v>44092</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>59</v>
@@ -7149,54 +7143,54 @@
         <v>315</v>
       </c>
       <c r="F77" s="2">
-        <v>42775</v>
+        <v>43049</v>
       </c>
       <c r="G77" t="s">
         <v>429</v>
       </c>
       <c r="H77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I77" t="s">
-        <v>315</v>
+        <v>644</v>
       </c>
       <c r="J77" s="2">
-        <v>43476</v>
+        <v>43739</v>
       </c>
       <c r="K77">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="L77" s="2">
-        <v>44097</v>
+        <v>43948</v>
       </c>
       <c r="M77">
-        <v>606.25</v>
+        <v>108</v>
       </c>
       <c r="N77">
-        <v>243.75</v>
+        <v>94.5</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>130.25</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>980.25</v>
-      </c>
-      <c r="Y77" t="b">
+        <v>202.5</v>
+      </c>
+      <c r="AC77" t="b">
         <v>1</v>
       </c>
       <c r="AI77" s="2">
         <v>43831</v>
       </c>
       <c r="AJ77" s="2">
-        <v>44097</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -7211,7 +7205,7 @@
         <v>315</v>
       </c>
       <c r="F78" s="2">
-        <v>42824</v>
+        <v>42898</v>
       </c>
       <c r="G78" t="s">
         <v>430</v>
@@ -7220,45 +7214,48 @@
         <v>596</v>
       </c>
       <c r="I78" t="s">
-        <v>316</v>
+        <v>644</v>
       </c>
       <c r="J78" s="2">
-        <v>43678</v>
+        <v>43893</v>
       </c>
       <c r="K78">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="L78" s="2">
-        <v>44134</v>
+        <v>43903</v>
       </c>
       <c r="M78">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>684</v>
-      </c>
-      <c r="Z78" t="b">
+        <v>24</v>
+      </c>
+      <c r="AC78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE78" t="b">
         <v>1</v>
       </c>
       <c r="AI78" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ78" s="2">
-        <v>44134</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
@@ -7273,31 +7270,31 @@
         <v>315</v>
       </c>
       <c r="F79" s="2">
-        <v>42991</v>
+        <v>42898</v>
       </c>
       <c r="G79" t="s">
         <v>431</v>
       </c>
       <c r="H79" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I79" t="s">
-        <v>315</v>
+        <v>644</v>
       </c>
       <c r="J79" s="2">
-        <v>43388</v>
+        <v>43893</v>
       </c>
       <c r="K79">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="L79" s="2">
-        <v>43951</v>
+        <v>43903</v>
       </c>
       <c r="M79">
-        <v>126.5</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -7306,21 +7303,24 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>241.5</v>
+        <v>24</v>
       </c>
       <c r="AC79" t="b">
         <v>1</v>
       </c>
+      <c r="AE79" t="b">
+        <v>1</v>
+      </c>
       <c r="AI79" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ79" s="2">
-        <v>43951</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
@@ -7335,7 +7335,7 @@
         <v>316</v>
       </c>
       <c r="F80" s="2">
-        <v>43870</v>
+        <v>42716</v>
       </c>
       <c r="G80" t="s">
         <v>432</v>
@@ -7344,45 +7344,45 @@
         <v>597</v>
       </c>
       <c r="I80" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="J80" s="2">
-        <v>44130</v>
+        <v>43132</v>
       </c>
       <c r="K80">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="L80" s="2">
-        <v>44196</v>
+        <v>44081</v>
       </c>
       <c r="M80">
-        <v>63</v>
+        <v>270.5</v>
       </c>
       <c r="N80">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q80">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="b">
+        <v>392</v>
+      </c>
+      <c r="Y80" t="b">
         <v>1</v>
       </c>
       <c r="AI80" s="2">
-        <v>44130</v>
+        <v>43831</v>
       </c>
       <c r="AJ80" s="2">
-        <v>44196</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
@@ -7397,57 +7397,57 @@
         <v>316</v>
       </c>
       <c r="F81" s="2">
-        <v>42772</v>
+        <v>43493</v>
       </c>
       <c r="G81" t="s">
         <v>433</v>
       </c>
       <c r="H81" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="I81" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="J81" s="2">
-        <v>43010</v>
+        <v>43878</v>
       </c>
       <c r="K81">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="L81" s="2">
-        <v>44070</v>
+        <v>44196</v>
       </c>
       <c r="M81">
-        <v>345.75</v>
+        <v>702.25</v>
       </c>
       <c r="N81">
-        <v>178.5</v>
+        <v>201.5</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>115.5</v>
+        <v>-13</v>
       </c>
       <c r="Q81">
-        <v>639.75</v>
-      </c>
-      <c r="Y81" t="b">
+        <v>890.75</v>
+      </c>
+      <c r="AE81" t="b">
         <v>1</v>
       </c>
       <c r="AI81" s="2">
-        <v>43831</v>
+        <v>43878</v>
       </c>
       <c r="AJ81" s="2">
-        <v>44070</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
         <v>178</v>
@@ -7456,34 +7456,34 @@
         <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F82" s="2">
-        <v>43240</v>
+        <v>43870</v>
       </c>
       <c r="G82" t="s">
         <v>434</v>
       </c>
       <c r="H82" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I82" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J82" s="2">
-        <v>43874</v>
+        <v>44130</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="L82" s="2">
-        <v>43875</v>
+        <v>44196</v>
       </c>
       <c r="M82">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -7492,122 +7492,122 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>11</v>
-      </c>
-      <c r="AG82" t="b">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="b">
         <v>1</v>
       </c>
       <c r="AI82" s="2">
-        <v>43874</v>
+        <v>44130</v>
       </c>
       <c r="AJ82" s="2">
-        <v>43875</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
         <v>290</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F83" s="2">
-        <v>43240</v>
+        <v>42772</v>
       </c>
       <c r="G83" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H83" t="s">
         <v>598</v>
       </c>
       <c r="I83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J83" s="2">
-        <v>43542</v>
+        <v>43010</v>
       </c>
       <c r="K83">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="L83" s="2">
-        <v>43908</v>
+        <v>44070</v>
       </c>
       <c r="M83">
-        <v>122.5</v>
+        <v>345.75</v>
       </c>
       <c r="N83">
-        <v>60.5</v>
+        <v>178.5</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="Q83">
-        <v>183</v>
-      </c>
-      <c r="AC83" t="b">
+        <v>639.75</v>
+      </c>
+      <c r="Y83" t="b">
         <v>1</v>
       </c>
       <c r="AI83" s="2">
         <v>43831</v>
       </c>
       <c r="AJ83" s="2">
-        <v>43908</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
         <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F84" s="2">
-        <v>43605</v>
+        <v>43240</v>
       </c>
       <c r="G84" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H84" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J84" s="2">
-        <v>44144</v>
+        <v>43874</v>
       </c>
       <c r="K84">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="L84" s="2">
-        <v>44196</v>
+        <v>43875</v>
       </c>
       <c r="M84">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="N84">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -7616,24 +7616,24 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>80</v>
-      </c>
-      <c r="AF84" t="b">
+        <v>11</v>
+      </c>
+      <c r="AG84" t="b">
         <v>1</v>
       </c>
       <c r="AI84" s="2">
-        <v>44144</v>
+        <v>43874</v>
       </c>
       <c r="AJ84" s="2">
-        <v>44196</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
         <v>180</v>
@@ -7642,34 +7642,34 @@
         <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F85" s="2">
-        <v>42875</v>
+        <v>43240</v>
       </c>
       <c r="G85" t="s">
         <v>436</v>
       </c>
       <c r="H85" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="I85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J85" s="2">
-        <v>44013</v>
+        <v>43542</v>
       </c>
       <c r="K85">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L85" s="2">
-        <v>44092</v>
+        <v>43908</v>
       </c>
       <c r="M85">
-        <v>241.5</v>
+        <v>122.5</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -7678,24 +7678,24 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>241.5</v>
-      </c>
-      <c r="Z85" t="b">
+        <v>183</v>
+      </c>
+      <c r="AC85" t="b">
         <v>1</v>
       </c>
       <c r="AI85" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AJ85" s="2">
-        <v>44092</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="1">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
         <v>181</v>
@@ -7704,60 +7704,60 @@
         <v>290</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F86" s="2">
-        <v>42717</v>
+        <v>43605</v>
       </c>
       <c r="G86" t="s">
         <v>437</v>
       </c>
       <c r="H86" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J86" s="2">
-        <v>42996</v>
+        <v>44144</v>
       </c>
       <c r="K86">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="L86" s="2">
-        <v>44049</v>
+        <v>44196</v>
       </c>
       <c r="M86">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="N86">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>592</v>
-      </c>
-      <c r="Y86" t="b">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="b">
         <v>1</v>
       </c>
       <c r="AI86" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ86" s="2">
-        <v>44049</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="1">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
         <v>61</v>
-      </c>
-      <c r="B87" t="s">
-        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>182</v>
@@ -7766,31 +7766,31 @@
         <v>290</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F87" s="2">
-        <v>43126</v>
+        <v>42875</v>
       </c>
       <c r="G87" t="s">
         <v>438</v>
       </c>
       <c r="H87" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="I87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J87" s="2">
-        <v>44074</v>
+        <v>44013</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L87" s="2">
-        <v>44076</v>
+        <v>44092</v>
       </c>
       <c r="M87">
-        <v>16</v>
+        <v>241.5</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -7802,24 +7802,24 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>16</v>
-      </c>
-      <c r="AG87" t="b">
+        <v>241.5</v>
+      </c>
+      <c r="Z87" t="b">
         <v>1</v>
       </c>
       <c r="AI87" s="2">
-        <v>44074</v>
+        <v>44013</v>
       </c>
       <c r="AJ87" s="2">
-        <v>44076</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
         <v>183</v>
@@ -7828,63 +7828,60 @@
         <v>290</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F88" s="2">
-        <v>43308</v>
+        <v>42717</v>
       </c>
       <c r="G88" t="s">
         <v>439</v>
       </c>
       <c r="H88" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I88" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J88" s="2">
-        <v>43881</v>
+        <v>42996</v>
       </c>
       <c r="K88">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="L88" s="2">
-        <v>44196</v>
+        <v>44049</v>
       </c>
       <c r="M88">
-        <v>600.5</v>
+        <v>231</v>
       </c>
       <c r="N88">
-        <v>286.5</v>
+        <v>175</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>198.5</v>
+        <v>186</v>
       </c>
       <c r="Q88">
-        <v>1085.5</v>
-      </c>
-      <c r="AB88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE88" t="b">
+        <v>592</v>
+      </c>
+      <c r="Y88" t="b">
         <v>1</v>
       </c>
       <c r="AI88" s="2">
-        <v>43881</v>
+        <v>43831</v>
       </c>
       <c r="AJ88" s="2">
-        <v>44196</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="1">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
         <v>184</v>
@@ -7893,60 +7890,60 @@
         <v>290</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F89" s="2">
-        <v>43068</v>
+        <v>43126</v>
       </c>
       <c r="G89" t="s">
         <v>440</v>
       </c>
       <c r="H89" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I89" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J89" s="2">
-        <v>43718</v>
+        <v>44074</v>
       </c>
       <c r="K89">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="L89" s="2">
-        <v>44196</v>
+        <v>44076</v>
       </c>
       <c r="M89">
-        <v>592.5</v>
+        <v>16</v>
       </c>
       <c r="N89">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>862.5</v>
-      </c>
-      <c r="Z89" t="b">
+        <v>16</v>
+      </c>
+      <c r="AG89" t="b">
         <v>1</v>
       </c>
       <c r="AI89" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AJ89" s="2">
-        <v>44196</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
         <v>185</v>
@@ -7955,49 +7952,52 @@
         <v>290</v>
       </c>
       <c r="E90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F90" s="2">
-        <v>42914</v>
+        <v>43308</v>
       </c>
       <c r="G90" t="s">
         <v>441</v>
       </c>
       <c r="H90" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="I90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J90" s="2">
-        <v>44145</v>
+        <v>43881</v>
       </c>
       <c r="K90">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="L90" s="2">
         <v>44196</v>
       </c>
       <c r="M90">
-        <v>230.5</v>
+        <v>600.5</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>286.5</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>198.5</v>
       </c>
       <c r="Q90">
-        <v>230.5</v>
-      </c>
-      <c r="Z90" t="b">
+        <v>1085.5</v>
+      </c>
+      <c r="AB90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE90" t="b">
         <v>1</v>
       </c>
       <c r="AI90" s="2">
-        <v>44145</v>
+        <v>43881</v>
       </c>
       <c r="AJ90" s="2">
         <v>44196</v>
@@ -8005,55 +8005,55 @@
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D91" t="s">
         <v>290</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F91" s="2">
-        <v>42914</v>
+        <v>43068</v>
       </c>
       <c r="G91" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H91" t="s">
         <v>603</v>
       </c>
       <c r="I91" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J91" s="2">
-        <v>43587</v>
+        <v>43718</v>
       </c>
       <c r="K91">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="L91" s="2">
-        <v>44134</v>
+        <v>44196</v>
       </c>
       <c r="M91">
-        <v>815</v>
+        <v>592.5</v>
       </c>
       <c r="N91">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Q91">
-        <v>1093</v>
+        <v>862.5</v>
       </c>
       <c r="Z91" t="b">
         <v>1</v>
@@ -8062,48 +8062,48 @@
         <v>43831</v>
       </c>
       <c r="AJ91" s="2">
-        <v>44134</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="1">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
         <v>290</v>
       </c>
       <c r="E92" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F92" s="2">
-        <v>42861</v>
+        <v>42914</v>
       </c>
       <c r="G92" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H92" t="s">
-        <v>602</v>
+        <v>549</v>
       </c>
       <c r="I92" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J92" s="2">
-        <v>43409</v>
+        <v>44145</v>
       </c>
       <c r="K92">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="L92" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="M92">
-        <v>138</v>
+        <v>230.5</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -8115,24 +8115,24 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>138</v>
+        <v>230.5</v>
       </c>
       <c r="Z92" t="b">
         <v>1</v>
       </c>
       <c r="AI92" s="2">
-        <v>43831</v>
+        <v>44145</v>
       </c>
       <c r="AJ92" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
         <v>187</v>
@@ -8141,60 +8141,60 @@
         <v>290</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F93" s="2">
-        <v>43215</v>
+        <v>42914</v>
       </c>
       <c r="G93" t="s">
         <v>443</v>
       </c>
       <c r="H93" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I93" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J93" s="2">
-        <v>43479</v>
+        <v>43587</v>
       </c>
       <c r="K93">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="L93" s="2">
-        <v>43957</v>
+        <v>44134</v>
       </c>
       <c r="M93">
-        <v>139.5</v>
+        <v>815</v>
       </c>
       <c r="N93">
-        <v>387</v>
+        <v>241</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="Q93">
-        <v>904.5</v>
-      </c>
-      <c r="AG93" t="b">
+        <v>1093</v>
+      </c>
+      <c r="Z93" t="b">
         <v>1</v>
       </c>
       <c r="AI93" s="2">
         <v>43831</v>
       </c>
       <c r="AJ93" s="2">
-        <v>43957</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="1">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
         <v>188</v>
@@ -8203,31 +8203,31 @@
         <v>290</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F94" s="2">
-        <v>42750</v>
+        <v>42861</v>
       </c>
       <c r="G94" t="s">
         <v>444</v>
       </c>
       <c r="H94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I94" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J94" s="2">
-        <v>44013</v>
+        <v>43409</v>
       </c>
       <c r="K94">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="L94" s="2">
-        <v>44078</v>
+        <v>44104</v>
       </c>
       <c r="M94">
-        <v>148.5</v>
+        <v>138</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -8239,187 +8239,184 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>148.5</v>
-      </c>
-      <c r="Y94" t="b">
+        <v>138</v>
+      </c>
+      <c r="Z94" t="b">
         <v>1</v>
       </c>
       <c r="AI94" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AJ94" s="2">
-        <v>44078</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="1">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D95" t="s">
         <v>290</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F95" s="2">
-        <v>42750</v>
+        <v>43215</v>
       </c>
       <c r="G95" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H95" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J95" s="2">
-        <v>43041</v>
+        <v>43479</v>
       </c>
       <c r="K95">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L95" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="M95">
-        <v>180.25</v>
+        <v>139.5</v>
       </c>
       <c r="N95">
-        <v>203.25</v>
+        <v>387</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="Q95">
-        <v>383.5</v>
-      </c>
-      <c r="Y95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC95" t="b">
+        <v>904.5</v>
+      </c>
+      <c r="AG95" t="b">
         <v>1</v>
       </c>
       <c r="AI95" s="2">
         <v>43831</v>
       </c>
       <c r="AJ95" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
         <v>290</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F96" s="2">
-        <v>42699</v>
+        <v>42750</v>
       </c>
       <c r="G96" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H96" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J96" s="2">
-        <v>43346</v>
+        <v>44013</v>
       </c>
       <c r="K96">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="L96" s="2">
-        <v>44085</v>
+        <v>44078</v>
       </c>
       <c r="M96">
-        <v>696.25</v>
+        <v>148.5</v>
       </c>
       <c r="N96">
-        <v>329.25</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>203.5</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1229</v>
+        <v>148.5</v>
       </c>
       <c r="Y96" t="b">
         <v>1</v>
       </c>
       <c r="AI96" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="AJ96" s="2">
-        <v>44085</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
         <v>290</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F97" s="2">
-        <v>42699</v>
+        <v>42750</v>
       </c>
       <c r="G97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H97" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="I97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J97" s="2">
-        <v>44074</v>
+        <v>43041</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="L97" s="2">
-        <v>44078</v>
+        <v>43951</v>
       </c>
       <c r="M97">
-        <v>37</v>
+        <v>180.25</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>203.25</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -8428,89 +8425,89 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>383.5</v>
       </c>
       <c r="Y97" t="b">
         <v>1</v>
       </c>
-      <c r="AG97" t="b">
+      <c r="AC97" t="b">
         <v>1</v>
       </c>
       <c r="AI97" s="2">
-        <v>44074</v>
+        <v>43831</v>
       </c>
       <c r="AJ97" s="2">
-        <v>44078</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="1">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
         <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F98" s="2">
-        <v>43081</v>
+        <v>42699</v>
       </c>
       <c r="G98" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H98" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="I98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J98" s="2">
-        <v>43360</v>
+        <v>43346</v>
       </c>
       <c r="K98">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="L98" s="2">
-        <v>44196</v>
+        <v>44085</v>
       </c>
       <c r="M98">
-        <v>1357</v>
+        <v>696.25</v>
       </c>
       <c r="N98">
-        <v>349</v>
+        <v>329.25</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>10.5</v>
+        <v>203.5</v>
       </c>
       <c r="Q98">
-        <v>1716.5</v>
-      </c>
-      <c r="Z98" t="b">
+        <v>1229</v>
+      </c>
+      <c r="Y98" t="b">
         <v>1</v>
       </c>
       <c r="AI98" s="2">
         <v>43831</v>
       </c>
       <c r="AJ98" s="2">
-        <v>44196</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="1">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
@@ -8519,34 +8516,34 @@
         <v>290</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F99" s="2">
-        <v>43305</v>
+        <v>42699</v>
       </c>
       <c r="G99" t="s">
         <v>447</v>
       </c>
       <c r="H99" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="I99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J99" s="2">
-        <v>43745</v>
+        <v>44074</v>
       </c>
       <c r="K99">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="L99" s="2">
-        <v>43921</v>
+        <v>44078</v>
       </c>
       <c r="M99">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="N99">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -8555,24 +8552,27 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>301</v>
-      </c>
-      <c r="AC99" t="b">
+        <v>37</v>
+      </c>
+      <c r="Y99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG99" t="b">
         <v>1</v>
       </c>
       <c r="AI99" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AJ99" s="2">
-        <v>43921</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="1">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
         <v>192</v>
@@ -8581,43 +8581,43 @@
         <v>290</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F100" s="2">
-        <v>42849</v>
+        <v>43081</v>
       </c>
       <c r="G100" t="s">
         <v>448</v>
       </c>
       <c r="H100" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J100" s="2">
-        <v>43284</v>
+        <v>43360</v>
       </c>
       <c r="K100">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="L100" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="M100">
-        <v>389</v>
+        <v>1357</v>
       </c>
       <c r="N100">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>-6.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q100">
-        <v>512.5</v>
+        <v>1716.5</v>
       </c>
       <c r="Z100" t="b">
         <v>1</v>
@@ -8626,15 +8626,15 @@
         <v>43831</v>
       </c>
       <c r="AJ100" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="1">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
         <v>193</v>
@@ -8643,60 +8643,60 @@
         <v>290</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F101" s="2">
-        <v>42868</v>
+        <v>43305</v>
       </c>
       <c r="G101" t="s">
         <v>449</v>
       </c>
       <c r="H101" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="I101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J101" s="2">
-        <v>43283</v>
+        <v>43745</v>
       </c>
       <c r="K101">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="L101" s="2">
-        <v>44096</v>
+        <v>43921</v>
       </c>
       <c r="M101">
-        <v>445</v>
+        <v>196</v>
       </c>
       <c r="N101">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>655</v>
-      </c>
-      <c r="Z101" t="b">
+        <v>301</v>
+      </c>
+      <c r="AC101" t="b">
         <v>1</v>
       </c>
       <c r="AI101" s="2">
         <v>43831</v>
       </c>
       <c r="AJ101" s="2">
-        <v>44096</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="1">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
         <v>194</v>
@@ -8705,60 +8705,60 @@
         <v>290</v>
       </c>
       <c r="E102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F102" s="2">
-        <v>42780</v>
+        <v>42849</v>
       </c>
       <c r="G102" t="s">
         <v>450</v>
       </c>
       <c r="H102" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J102" s="2">
-        <v>43132</v>
+        <v>43284</v>
       </c>
       <c r="K102">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L102" s="2">
-        <v>44085</v>
+        <v>44104</v>
       </c>
       <c r="M102">
-        <v>535</v>
+        <v>389</v>
       </c>
       <c r="N102">
-        <v>252.5</v>
+        <v>130</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>159</v>
+        <v>-6.5</v>
       </c>
       <c r="Q102">
-        <v>946.5</v>
-      </c>
-      <c r="Y102" t="b">
+        <v>512.5</v>
+      </c>
+      <c r="Z102" t="b">
         <v>1</v>
       </c>
       <c r="AI102" s="2">
         <v>43831</v>
       </c>
       <c r="AJ102" s="2">
-        <v>44085</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="1">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
         <v>195</v>
@@ -8767,60 +8767,60 @@
         <v>290</v>
       </c>
       <c r="E103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F103" s="2">
-        <v>43132</v>
+        <v>42868</v>
       </c>
       <c r="G103" t="s">
         <v>451</v>
       </c>
       <c r="H103" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="I103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J103" s="2">
-        <v>43864</v>
+        <v>43283</v>
       </c>
       <c r="K103">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="L103" s="2">
-        <v>43951</v>
+        <v>44096</v>
       </c>
       <c r="M103">
-        <v>15.5</v>
+        <v>445</v>
       </c>
       <c r="N103">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q103">
-        <v>110.5</v>
-      </c>
-      <c r="AC103" t="b">
+        <v>655</v>
+      </c>
+      <c r="Z103" t="b">
         <v>1</v>
       </c>
       <c r="AI103" s="2">
-        <v>43864</v>
+        <v>43831</v>
       </c>
       <c r="AJ103" s="2">
-        <v>43951</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="1">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" t="s">
         <v>196</v>
@@ -8829,10 +8829,10 @@
         <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F104" s="2">
-        <v>43147</v>
+        <v>42780</v>
       </c>
       <c r="G104" t="s">
         <v>452</v>
@@ -8841,48 +8841,48 @@
         <v>605</v>
       </c>
       <c r="I104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J104" s="2">
-        <v>43475</v>
+        <v>43132</v>
       </c>
       <c r="K104">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="L104" s="2">
-        <v>43921</v>
+        <v>44085</v>
       </c>
       <c r="M104">
-        <v>150.75</v>
+        <v>535</v>
       </c>
       <c r="N104">
-        <v>75</v>
+        <v>252.5</v>
       </c>
       <c r="O104">
         <v>0</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="Q104">
-        <v>225.75</v>
-      </c>
-      <c r="AC104" t="b">
+        <v>946.5</v>
+      </c>
+      <c r="Y104" t="b">
         <v>1</v>
       </c>
       <c r="AI104" s="2">
         <v>43831</v>
       </c>
       <c r="AJ104" s="2">
-        <v>43921</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="1">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
         <v>197</v>
@@ -8891,57 +8891,57 @@
         <v>290</v>
       </c>
       <c r="E105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F105" s="2">
-        <v>42656</v>
+        <v>43132</v>
       </c>
       <c r="G105" t="s">
         <v>453</v>
       </c>
       <c r="H105" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="I105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J105" s="2">
-        <v>42935</v>
+        <v>43864</v>
       </c>
       <c r="K105">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="L105" s="2">
-        <v>44077</v>
+        <v>43951</v>
       </c>
       <c r="M105">
-        <v>256</v>
+        <v>15.5</v>
       </c>
       <c r="N105">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>608</v>
-      </c>
-      <c r="Y105" t="b">
+        <v>110.5</v>
+      </c>
+      <c r="AC105" t="b">
         <v>1</v>
       </c>
       <c r="AI105" s="2">
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="AJ105" s="2">
-        <v>44077</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="1">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
         <v>61</v>
@@ -8956,54 +8956,54 @@
         <v>317</v>
       </c>
       <c r="F106" s="2">
-        <v>42716</v>
+        <v>43147</v>
       </c>
       <c r="G106" t="s">
         <v>454</v>
       </c>
       <c r="H106" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I106" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="J106" s="2">
-        <v>43132</v>
+        <v>43475</v>
       </c>
       <c r="K106">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="L106" s="2">
-        <v>44081</v>
+        <v>43921</v>
       </c>
       <c r="M106">
-        <v>270.5</v>
+        <v>150.75</v>
       </c>
       <c r="N106">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>392</v>
-      </c>
-      <c r="Y106" t="b">
+        <v>225.75</v>
+      </c>
+      <c r="AC106" t="b">
         <v>1</v>
       </c>
       <c r="AI106" s="2">
         <v>43831</v>
       </c>
       <c r="AJ106" s="2">
-        <v>44081</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="1">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
         <v>61</v>
@@ -9018,49 +9018,49 @@
         <v>317</v>
       </c>
       <c r="F107" s="2">
-        <v>43493</v>
+        <v>42656</v>
       </c>
       <c r="G107" t="s">
         <v>455</v>
       </c>
       <c r="H107" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="I107" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="J107" s="2">
-        <v>43878</v>
+        <v>42935</v>
       </c>
       <c r="K107">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="L107" s="2">
-        <v>44196</v>
+        <v>44077</v>
       </c>
       <c r="M107">
-        <v>702.25</v>
+        <v>256</v>
       </c>
       <c r="N107">
-        <v>201.5</v>
+        <v>172</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
-        <v>-13</v>
+        <v>180</v>
       </c>
       <c r="Q107">
-        <v>890.75</v>
-      </c>
-      <c r="AE107" t="b">
+        <v>608</v>
+      </c>
+      <c r="Y107" t="b">
         <v>1</v>
       </c>
       <c r="AI107" s="2">
-        <v>43878</v>
+        <v>43831</v>
       </c>
       <c r="AJ107" s="2">
-        <v>44196</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="108" spans="1:36">
@@ -9771,7 +9771,7 @@
         <v>613</v>
       </c>
       <c r="I119" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J119" s="2">
         <v>44144</v>
@@ -10202,10 +10202,10 @@
         <v>472</v>
       </c>
       <c r="H126" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I126" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J126" s="2">
         <v>43864</v>
@@ -10264,10 +10264,10 @@
         <v>473</v>
       </c>
       <c r="H127" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I127" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J127" s="2">
         <v>43864</v>
@@ -10326,7 +10326,7 @@
         <v>474</v>
       </c>
       <c r="H128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I128" t="s">
         <v>325</v>
@@ -10391,7 +10391,7 @@
         <v>475</v>
       </c>
       <c r="H129" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I129" t="s">
         <v>646</v>
@@ -10887,7 +10887,7 @@
         <v>483</v>
       </c>
       <c r="H137" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I137" t="s">
         <v>644</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
         <v>81</v>
@@ -11941,7 +11941,7 @@
         <v>337</v>
       </c>
       <c r="F154" s="2">
-        <v>42746</v>
+        <v>43196</v>
       </c>
       <c r="G154" t="s">
         <v>500</v>
@@ -11953,42 +11953,42 @@
         <v>337</v>
       </c>
       <c r="J154" s="2">
-        <v>43437</v>
+        <v>43850</v>
       </c>
       <c r="K154">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="L154" s="2">
-        <v>43993</v>
+        <v>43951</v>
       </c>
       <c r="M154">
-        <v>242.75</v>
+        <v>76.5</v>
       </c>
       <c r="N154">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q154">
-        <v>476.75</v>
-      </c>
-      <c r="Y154" t="b">
+        <v>204.5</v>
+      </c>
+      <c r="AC154" t="b">
         <v>1</v>
       </c>
       <c r="AI154" s="2">
-        <v>43831</v>
+        <v>43850</v>
       </c>
       <c r="AJ154" s="2">
-        <v>43993</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B155" t="s">
         <v>81</v>
@@ -12003,31 +12003,31 @@
         <v>337</v>
       </c>
       <c r="F155" s="2">
-        <v>43050</v>
+        <v>43082</v>
       </c>
       <c r="G155" t="s">
         <v>501</v>
       </c>
       <c r="H155" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I155" t="s">
         <v>337</v>
       </c>
       <c r="J155" s="2">
-        <v>43913</v>
+        <v>44137</v>
       </c>
       <c r="K155">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="L155" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N155">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -12036,16 +12036,19 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
-      </c>
-      <c r="AC155" t="b">
+        <v>80</v>
+      </c>
+      <c r="Z155" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF155" t="b">
         <v>1</v>
       </c>
       <c r="AI155" s="2">
-        <v>43913</v>
+        <v>44137</v>
       </c>
       <c r="AJ155" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="156" spans="1:36">
@@ -12065,46 +12068,46 @@
         <v>338</v>
       </c>
       <c r="F156" s="2">
-        <v>43506</v>
+        <v>42975</v>
       </c>
       <c r="G156" t="s">
         <v>502</v>
       </c>
       <c r="H156" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="I156" t="s">
-        <v>338</v>
+        <v>650</v>
       </c>
       <c r="J156" s="2">
-        <v>43906</v>
+        <v>44166</v>
       </c>
       <c r="K156">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="L156" s="2">
         <v>44196</v>
       </c>
       <c r="M156">
-        <v>443.5</v>
+        <v>69</v>
       </c>
       <c r="N156">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="O156">
         <v>0</v>
       </c>
       <c r="P156">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="Q156">
-        <v>746.5</v>
-      </c>
-      <c r="AA156" t="b">
+        <v>69</v>
+      </c>
+      <c r="Z156" t="b">
         <v>1</v>
       </c>
       <c r="AI156" s="2">
-        <v>43906</v>
+        <v>44166</v>
       </c>
       <c r="AJ156" s="2">
         <v>44196</v>
@@ -12112,10 +12115,10 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C157" t="s">
         <v>247</v>
@@ -12124,43 +12127,43 @@
         <v>290</v>
       </c>
       <c r="E157" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F157" s="2">
-        <v>42774</v>
+        <v>42692</v>
       </c>
       <c r="G157" t="s">
         <v>503</v>
       </c>
       <c r="H157" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="I157" t="s">
-        <v>338</v>
+        <v>646</v>
       </c>
       <c r="J157" s="2">
-        <v>43136</v>
+        <v>43360</v>
       </c>
       <c r="K157">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="L157" s="2">
-        <v>44103</v>
+        <v>44074</v>
       </c>
       <c r="M157">
-        <v>394.5</v>
+        <v>418.75</v>
       </c>
       <c r="N157">
-        <v>129</v>
+        <v>143.5</v>
       </c>
       <c r="O157">
         <v>0</v>
       </c>
       <c r="P157">
-        <v>19.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q157">
-        <v>543</v>
+        <v>561.75</v>
       </c>
       <c r="Y157" t="b">
         <v>1</v>
@@ -12169,12 +12172,12 @@
         <v>43831</v>
       </c>
       <c r="AJ157" s="2">
-        <v>44103</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="158" spans="1:36">
       <c r="A158" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
         <v>83</v>
@@ -12189,57 +12192,57 @@
         <v>339</v>
       </c>
       <c r="F158" s="2">
-        <v>42921</v>
+        <v>42768</v>
       </c>
       <c r="G158" t="s">
         <v>504</v>
       </c>
       <c r="H158" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="I158" t="s">
-        <v>339</v>
+        <v>646</v>
       </c>
       <c r="J158" s="2">
-        <v>43179</v>
+        <v>43535</v>
       </c>
       <c r="K158">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="L158" s="2">
-        <v>44092</v>
+        <v>44049</v>
       </c>
       <c r="M158">
-        <v>528</v>
+        <v>200.75</v>
       </c>
       <c r="N158">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="O158">
         <v>0</v>
       </c>
       <c r="P158">
-        <v>205.5</v>
+        <v>51.5</v>
       </c>
       <c r="Q158">
-        <v>1013.5</v>
-      </c>
-      <c r="Z158" t="b">
+        <v>356.25</v>
+      </c>
+      <c r="Y158" t="b">
         <v>1</v>
       </c>
       <c r="AI158" s="2">
         <v>43831</v>
       </c>
       <c r="AJ158" s="2">
-        <v>44092</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
         <v>249</v>
@@ -12248,10 +12251,10 @@
         <v>290</v>
       </c>
       <c r="E159" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F159" s="2">
-        <v>43098</v>
+        <v>42921</v>
       </c>
       <c r="G159" t="s">
         <v>505</v>
@@ -12260,31 +12263,31 @@
         <v>553</v>
       </c>
       <c r="I159" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J159" s="2">
-        <v>43319</v>
+        <v>43179</v>
       </c>
       <c r="K159">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L159" s="2">
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="M159">
-        <v>471.25</v>
+        <v>528</v>
       </c>
       <c r="N159">
-        <v>227.5</v>
+        <v>280</v>
       </c>
       <c r="O159">
         <v>0</v>
       </c>
       <c r="P159">
-        <v>148.5</v>
+        <v>205.5</v>
       </c>
       <c r="Q159">
-        <v>847.25</v>
+        <v>1013.5</v>
       </c>
       <c r="Z159" t="b">
         <v>1</v>
@@ -12293,15 +12296,15 @@
         <v>43831</v>
       </c>
       <c r="AJ159" s="2">
-        <v>44090</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
         <v>250</v>
@@ -12310,43 +12313,43 @@
         <v>290</v>
       </c>
       <c r="E160" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F160" s="2">
-        <v>43066</v>
+        <v>43098</v>
       </c>
       <c r="G160" t="s">
         <v>506</v>
       </c>
       <c r="H160" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
       <c r="I160" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J160" s="2">
-        <v>43556</v>
+        <v>43319</v>
       </c>
       <c r="K160">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L160" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="M160">
-        <v>425</v>
+        <v>471.25</v>
       </c>
       <c r="N160">
-        <v>170</v>
+        <v>227.5</v>
       </c>
       <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
-        <v>-90</v>
+        <v>148.5</v>
       </c>
       <c r="Q160">
-        <v>505</v>
+        <v>847.25</v>
       </c>
       <c r="Z160" t="b">
         <v>1</v>
@@ -12355,12 +12358,12 @@
         <v>43831</v>
       </c>
       <c r="AJ160" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="161" spans="1:36">
       <c r="A161" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B161" t="s">
         <v>84</v>
@@ -12375,57 +12378,57 @@
         <v>340</v>
       </c>
       <c r="F161" s="2">
-        <v>43196</v>
+        <v>43066</v>
       </c>
       <c r="G161" t="s">
         <v>507</v>
       </c>
       <c r="H161" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I161" t="s">
         <v>340</v>
       </c>
       <c r="J161" s="2">
-        <v>43850</v>
+        <v>43556</v>
       </c>
       <c r="K161">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="L161" s="2">
-        <v>43951</v>
+        <v>44091</v>
       </c>
       <c r="M161">
-        <v>76.5</v>
+        <v>425</v>
       </c>
       <c r="N161">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="O161">
         <v>0</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="Q161">
-        <v>204.5</v>
-      </c>
-      <c r="AC161" t="b">
+        <v>505</v>
+      </c>
+      <c r="Z161" t="b">
         <v>1</v>
       </c>
       <c r="AI161" s="2">
-        <v>43850</v>
+        <v>43831</v>
       </c>
       <c r="AJ161" s="2">
-        <v>43951</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="162" spans="1:36">
       <c r="A162" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C162" t="s">
         <v>252</v>
@@ -12434,60 +12437,57 @@
         <v>290</v>
       </c>
       <c r="E162" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F162" s="2">
-        <v>43082</v>
+        <v>42746</v>
       </c>
       <c r="G162" t="s">
         <v>508</v>
       </c>
       <c r="H162" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I162" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J162" s="2">
-        <v>44137</v>
+        <v>43437</v>
       </c>
       <c r="K162">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="L162" s="2">
-        <v>44196</v>
+        <v>43993</v>
       </c>
       <c r="M162">
-        <v>62</v>
+        <v>242.75</v>
       </c>
       <c r="N162">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="O162">
         <v>0</v>
       </c>
       <c r="P162">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q162">
-        <v>80</v>
-      </c>
-      <c r="Z162" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF162" t="b">
+        <v>476.75</v>
+      </c>
+      <c r="Y162" t="b">
         <v>1</v>
       </c>
       <c r="AI162" s="2">
-        <v>44137</v>
+        <v>43831</v>
       </c>
       <c r="AJ162" s="2">
-        <v>44196</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="163" spans="1:36">
       <c r="A163" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B163" t="s">
         <v>85</v>
@@ -12502,31 +12502,31 @@
         <v>341</v>
       </c>
       <c r="F163" s="2">
-        <v>42975</v>
+        <v>43050</v>
       </c>
       <c r="G163" t="s">
         <v>509</v>
       </c>
       <c r="H163" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="I163" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="J163" s="2">
-        <v>44166</v>
+        <v>43913</v>
       </c>
       <c r="K163">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L163" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
       <c r="M163">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N163">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -12535,21 +12535,21 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>69</v>
-      </c>
-      <c r="Z163" t="b">
+        <v>57</v>
+      </c>
+      <c r="AC163" t="b">
         <v>1</v>
       </c>
       <c r="AI163" s="2">
-        <v>44166</v>
+        <v>43913</v>
       </c>
       <c r="AJ163" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="164" spans="1:36">
       <c r="A164" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
         <v>86</v>
@@ -12564,49 +12564,49 @@
         <v>342</v>
       </c>
       <c r="F164" s="2">
-        <v>42692</v>
+        <v>43506</v>
       </c>
       <c r="G164" t="s">
         <v>510</v>
       </c>
       <c r="H164" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="I164" t="s">
-        <v>646</v>
+        <v>342</v>
       </c>
       <c r="J164" s="2">
-        <v>43360</v>
+        <v>43906</v>
       </c>
       <c r="K164">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="L164" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="M164">
-        <v>418.75</v>
+        <v>443.5</v>
       </c>
       <c r="N164">
-        <v>143.5</v>
+        <v>139</v>
       </c>
       <c r="O164">
         <v>0</v>
       </c>
       <c r="P164">
-        <v>-0.5</v>
+        <v>164</v>
       </c>
       <c r="Q164">
-        <v>561.75</v>
-      </c>
-      <c r="Y164" t="b">
+        <v>746.5</v>
+      </c>
+      <c r="AA164" t="b">
         <v>1</v>
       </c>
       <c r="AI164" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AJ164" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="165" spans="1:36">
@@ -12626,40 +12626,40 @@
         <v>342</v>
       </c>
       <c r="F165" s="2">
-        <v>42768</v>
+        <v>42774</v>
       </c>
       <c r="G165" t="s">
         <v>511</v>
       </c>
       <c r="H165" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="I165" t="s">
-        <v>646</v>
+        <v>342</v>
       </c>
       <c r="J165" s="2">
-        <v>43535</v>
+        <v>43136</v>
       </c>
       <c r="K165">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="L165" s="2">
-        <v>44049</v>
+        <v>44103</v>
       </c>
       <c r="M165">
-        <v>200.75</v>
+        <v>394.5</v>
       </c>
       <c r="N165">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="O165">
         <v>0</v>
       </c>
       <c r="P165">
-        <v>51.5</v>
+        <v>19.5</v>
       </c>
       <c r="Q165">
-        <v>356.25</v>
+        <v>543</v>
       </c>
       <c r="Y165" t="b">
         <v>1</v>
@@ -12668,12 +12668,12 @@
         <v>43831</v>
       </c>
       <c r="AJ165" s="2">
-        <v>44049</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="166" spans="1:36">
       <c r="A166" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
         <v>87</v>
@@ -12688,7 +12688,7 @@
         <v>343</v>
       </c>
       <c r="F166" s="2">
-        <v>43062</v>
+        <v>42705</v>
       </c>
       <c r="G166" t="s">
         <v>512</v>
@@ -12697,22 +12697,22 @@
         <v>632</v>
       </c>
       <c r="I166" t="s">
-        <v>651</v>
+        <v>343</v>
       </c>
       <c r="J166" s="2">
-        <v>44083</v>
+        <v>43703</v>
       </c>
       <c r="K166">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="L166" s="2">
-        <v>44196</v>
+        <v>43882</v>
       </c>
       <c r="M166">
-        <v>200</v>
+        <v>122.5</v>
       </c>
       <c r="N166">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -12721,24 +12721,24 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>213.75</v>
-      </c>
-      <c r="Z166" t="b">
+        <v>122.5</v>
+      </c>
+      <c r="Y166" t="b">
         <v>1</v>
       </c>
       <c r="AI166" s="2">
-        <v>44083</v>
+        <v>43831</v>
       </c>
       <c r="AJ166" s="2">
-        <v>44196</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="167" spans="1:36">
       <c r="A167" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
         <v>257</v>
@@ -12747,34 +12747,34 @@
         <v>290</v>
       </c>
       <c r="E167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F167" s="2">
-        <v>42705</v>
+        <v>42931</v>
       </c>
       <c r="G167" t="s">
         <v>513</v>
       </c>
       <c r="H167" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J167" s="2">
-        <v>43703</v>
+        <v>43773</v>
       </c>
       <c r="K167">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="L167" s="2">
-        <v>43882</v>
+        <v>43950</v>
       </c>
       <c r="M167">
-        <v>122.5</v>
+        <v>102</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -12783,21 +12783,21 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>122.5</v>
-      </c>
-      <c r="Y167" t="b">
+        <v>198</v>
+      </c>
+      <c r="AC167" t="b">
         <v>1</v>
       </c>
       <c r="AI167" s="2">
         <v>43831</v>
       </c>
       <c r="AJ167" s="2">
-        <v>43882</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="168" spans="1:36">
       <c r="A168" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
         <v>88</v>
@@ -12812,7 +12812,7 @@
         <v>344</v>
       </c>
       <c r="F168" s="2">
-        <v>42931</v>
+        <v>43062</v>
       </c>
       <c r="G168" t="s">
         <v>514</v>
@@ -12821,22 +12821,22 @@
         <v>633</v>
       </c>
       <c r="I168" t="s">
-        <v>344</v>
+        <v>651</v>
       </c>
       <c r="J168" s="2">
-        <v>43773</v>
+        <v>44083</v>
       </c>
       <c r="K168">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L168" s="2">
-        <v>43950</v>
+        <v>44196</v>
       </c>
       <c r="M168">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="N168">
-        <v>96</v>
+        <v>13.75</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -12845,16 +12845,16 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>198</v>
-      </c>
-      <c r="AC168" t="b">
+        <v>213.75</v>
+      </c>
+      <c r="Z168" t="b">
         <v>1</v>
       </c>
       <c r="AI168" s="2">
-        <v>43831</v>
+        <v>44083</v>
       </c>
       <c r="AJ168" s="2">
-        <v>43950</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="169" spans="1:36">
@@ -12880,7 +12880,7 @@
         <v>515</v>
       </c>
       <c r="H169" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I169" t="s">
         <v>644</v>
@@ -13193,10 +13193,10 @@
         <v>520</v>
       </c>
       <c r="H174" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J174" s="2">
         <v>43893</v>
@@ -14008,7 +14008,7 @@
         <v>636</v>
       </c>
       <c r="I187" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J187" s="2">
         <v>43872</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="199" spans="1:36">
       <c r="A199" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
         <v>99</v>
@@ -14758,31 +14758,31 @@
         <v>355</v>
       </c>
       <c r="F199" s="2">
-        <v>42815</v>
+        <v>42899</v>
       </c>
       <c r="G199" t="s">
         <v>538</v>
       </c>
       <c r="H199" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="I199" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="J199" s="2">
-        <v>43809</v>
+        <v>43710</v>
       </c>
       <c r="K199">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="L199" s="2">
-        <v>43931</v>
+        <v>43950</v>
       </c>
       <c r="M199">
-        <v>92.5</v>
+        <v>96.75</v>
       </c>
       <c r="N199">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>164.5</v>
+        <v>188.75</v>
       </c>
       <c r="AC199" t="b">
         <v>1</v>
@@ -14800,15 +14800,15 @@
         <v>43831</v>
       </c>
       <c r="AJ199" s="2">
-        <v>43931</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C200" t="s">
         <v>283</v>
@@ -14817,34 +14817,34 @@
         <v>290</v>
       </c>
       <c r="E200" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F200" s="2">
-        <v>42744</v>
+        <v>42815</v>
       </c>
       <c r="G200" t="s">
         <v>539</v>
       </c>
       <c r="H200" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="I200" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="J200" s="2">
-        <v>44056</v>
+        <v>43809</v>
       </c>
       <c r="K200">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="L200" s="2">
-        <v>44085</v>
+        <v>43931</v>
       </c>
       <c r="M200">
-        <v>76</v>
+        <v>92.5</v>
       </c>
       <c r="N200">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -14853,21 +14853,21 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>76</v>
-      </c>
-      <c r="Y200" t="b">
+        <v>164.5</v>
+      </c>
+      <c r="AC200" t="b">
         <v>1</v>
       </c>
       <c r="AI200" s="2">
-        <v>44056</v>
+        <v>43831</v>
       </c>
       <c r="AJ200" s="2">
-        <v>44085</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="201" spans="1:36">
       <c r="A201" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
         <v>100</v>
@@ -14882,31 +14882,31 @@
         <v>356</v>
       </c>
       <c r="F201" s="2">
-        <v>42899</v>
+        <v>42744</v>
       </c>
       <c r="G201" t="s">
         <v>540</v>
       </c>
       <c r="H201" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="I201" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J201" s="2">
-        <v>43710</v>
+        <v>44056</v>
       </c>
       <c r="K201">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="L201" s="2">
-        <v>43950</v>
+        <v>44085</v>
       </c>
       <c r="M201">
-        <v>96.75</v>
+        <v>76</v>
       </c>
       <c r="N201">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -14915,16 +14915,16 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>188.75</v>
-      </c>
-      <c r="AC201" t="b">
+        <v>76</v>
+      </c>
+      <c r="Y201" t="b">
         <v>1</v>
       </c>
       <c r="AI201" s="2">
-        <v>43831</v>
+        <v>44056</v>
       </c>
       <c r="AJ201" s="2">
-        <v>43950</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="202" spans="1:36">

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -150,18 +150,18 @@
     <t>Erklärung Gemeinden Jahr 2020 Bruneck.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Burgstall.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Deutschnofen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Eppan.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Feldthurns.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Deutschnofen.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Burgstall.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Gargazon.xlsx</t>
   </si>
   <si>
@@ -174,12 +174,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Hafling.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Kaltern.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Karneid.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Kaltern.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
   </si>
   <si>
@@ -210,46 +210,52 @@
     <t>Erklärung Gemeinden Jahr 2020 Mölten.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Moos In Passeier.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Mühlbach.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Moos In Passeier.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Naturns.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Natz Schabs.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Neumarkt.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Olang.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Partschings.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Pfatten.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Pfalzen.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Percha.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Neumarkt.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Olang.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Natz Schabs.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Pfalzen.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Pfatten.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Pfitsch.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Prad a.Stj..xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Partschings.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Naturns.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Prettau.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Rasen-Antholz.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Rasen-Antholz.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Ritten.xlsx</t>
@@ -258,78 +264,72 @@
     <t>Erklärung Gemeinden Jahr 2020 Salurn.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Prettau.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Sand in Taufers.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Schenna.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Sarntal.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Schlanders.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Schenna.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Schnals.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 St. Leonhard in Passeier.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Tirol.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Terlan.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Villanders.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Tramin.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 St. Martin In Passeier.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 St. Lorenzen.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Taufers im Münstertal.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Tiers.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Ulten.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Tscherms.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Vöran.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 St. Pankraz Ulten.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 St. Leonhard in Passeier.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Taufers im Münstertal.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Terlan.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Tiers.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Tirol.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Tramin.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Tscherms.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ulten.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Villanders.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Vöran.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
-  </si>
-  <si>
     <t>Ajardi Josef</t>
   </si>
   <si>
@@ -414,6 +414,12 @@
     <t>Zingerle Amaja</t>
   </si>
   <si>
+    <t>Vent Ludwig</t>
+  </si>
+  <si>
+    <t>Werner Emma</t>
+  </si>
+  <si>
     <t>Diana Jan</t>
   </si>
   <si>
@@ -438,12 +444,6 @@
     <t>Inderst Paul</t>
   </si>
   <si>
-    <t>Werner Emma</t>
-  </si>
-  <si>
-    <t>Vent Ludwig</t>
-  </si>
-  <si>
     <t>Hauser  Jakob</t>
   </si>
   <si>
@@ -465,24 +465,24 @@
     <t>Messner  Lian</t>
   </si>
   <si>
+    <t>Dragan Emanuela</t>
+  </si>
+  <si>
+    <t>Hafner Paul</t>
+  </si>
+  <si>
+    <t>Nicolussi Leck Alexander</t>
+  </si>
+  <si>
+    <t>Sinn Sebastian</t>
+  </si>
+  <si>
     <t>Bozzano Pietro</t>
   </si>
   <si>
     <t>Rieder Fabian</t>
   </si>
   <si>
-    <t>Dragan Emanuela</t>
-  </si>
-  <si>
-    <t>Hafner Paul</t>
-  </si>
-  <si>
-    <t>Nicolussi Leck Alexander</t>
-  </si>
-  <si>
-    <t>Sinn Sebastian</t>
-  </si>
-  <si>
     <t>Gostner Noah</t>
   </si>
   <si>
@@ -624,88 +624,94 @@
     <t>Thaler Leia</t>
   </si>
   <si>
+    <t>Gufler Lina</t>
+  </si>
+  <si>
     <t>Lechner Mira</t>
   </si>
   <si>
     <t>Marek Ivan</t>
   </si>
   <si>
-    <t>Gufler Lina</t>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>Garber Max</t>
+  </si>
+  <si>
+    <t>Gstrein Lea</t>
+  </si>
+  <si>
+    <t>Ormai Greta</t>
+  </si>
+  <si>
+    <t>Przybysz Nicole</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>Peintner  Olivia</t>
+  </si>
+  <si>
+    <t>Ciaghi Maximilian</t>
+  </si>
+  <si>
+    <t>Pürgstaller Alina</t>
+  </si>
+  <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>Gasser Anna</t>
+  </si>
+  <si>
+    <t>Moser Julian</t>
+  </si>
+  <si>
+    <t>Volante Vittorio</t>
+  </si>
+  <si>
+    <t>Ellecosta Emely</t>
+  </si>
+  <si>
+    <t>Oberhollenzer Ben</t>
+  </si>
+  <si>
+    <t>Priller  Yara</t>
+  </si>
+  <si>
+    <t>Rainer Frieda</t>
+  </si>
+  <si>
+    <t>Sevcikova  Nadia</t>
+  </si>
+  <si>
+    <t>Weger Toni</t>
   </si>
   <si>
     <t>Premstaller Emmi</t>
   </si>
   <si>
-    <t>Ciaghi Maximilian</t>
-  </si>
-  <si>
-    <t>Pürgstaller Alina</t>
-  </si>
-  <si>
-    <t>Winkler Paula</t>
-  </si>
-  <si>
-    <t>Battaglia Mattia</t>
-  </si>
-  <si>
-    <t>Peintner  Olivia</t>
-  </si>
-  <si>
-    <t>Ellecosta Emely</t>
-  </si>
-  <si>
-    <t>Oberhollenzer Ben</t>
-  </si>
-  <si>
-    <t>Priller  Yara</t>
-  </si>
-  <si>
-    <t>Rainer Frieda</t>
-  </si>
-  <si>
-    <t>Sevcikova  Nadia</t>
-  </si>
-  <si>
-    <t>Weger Toni</t>
-  </si>
-  <si>
-    <t>Volante Vittorio</t>
-  </si>
-  <si>
     <t>Bacher Emil</t>
   </si>
   <si>
     <t>Ennemoser  Ella</t>
   </si>
   <si>
-    <t>Abler Sophie</t>
-  </si>
-  <si>
-    <t>Gasser Anna</t>
-  </si>
-  <si>
-    <t>Moser Julian</t>
-  </si>
-  <si>
-    <t>Blaas Jakob</t>
-  </si>
-  <si>
-    <t>Burger Linnea</t>
-  </si>
-  <si>
-    <t>Garber Max</t>
-  </si>
-  <si>
-    <t>Gstrein Lea</t>
-  </si>
-  <si>
-    <t>Ormai Greta</t>
-  </si>
-  <si>
-    <t>Przybysz Nicole</t>
-  </si>
-  <si>
-    <t>Schnitzer Lia</t>
+    <t>Griessmair Jonas</t>
+  </si>
+  <si>
+    <t>Taschler  Anton</t>
   </si>
   <si>
     <t>Fiechter Emil</t>
@@ -720,7 +726,10 @@
     <t>Walter Moritz</t>
   </si>
   <si>
-    <t>Taschler  Anton</t>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
   </si>
   <si>
     <t>Godstime Alex Lukas</t>
@@ -735,15 +744,6 @@
     <t>Covazzi Julia</t>
   </si>
   <si>
-    <t>Griessmair Jonas</t>
-  </si>
-  <si>
-    <t>Gruber  Karolina</t>
-  </si>
-  <si>
-    <t>Pichler Simon</t>
-  </si>
-  <si>
     <t>Ausserhofer Matthias</t>
   </si>
   <si>
@@ -756,6 +756,12 @@
     <t>Niederkofler Josef</t>
   </si>
   <si>
+    <t>Illmer Rafael</t>
+  </si>
+  <si>
+    <t>Pföstl  Philipp</t>
+  </si>
+  <si>
     <t>Desaler Viktoria</t>
   </si>
   <si>
@@ -771,18 +777,33 @@
     <t>Trafoier Alex</t>
   </si>
   <si>
-    <t>Illmer Rafael</t>
-  </si>
-  <si>
-    <t>Pföstl  Philipp</t>
-  </si>
-  <si>
     <t>Rainer Sina</t>
   </si>
   <si>
     <t>Woerndle Paul</t>
   </si>
   <si>
+    <t>Gumpold Marius</t>
+  </si>
+  <si>
+    <t>Prantl Rosa</t>
+  </si>
+  <si>
+    <t>Thaler Elias</t>
+  </si>
+  <si>
+    <t>Delueg Ida</t>
+  </si>
+  <si>
+    <t>Tomoiaga Ema Miriam</t>
+  </si>
+  <si>
+    <t>Von Call Dylan</t>
+  </si>
+  <si>
+    <t>Zelger Samuel</t>
+  </si>
+  <si>
     <t>Kofler Andreas</t>
   </si>
   <si>
@@ -792,105 +813,84 @@
     <t>Moosbrugger Theresa</t>
   </si>
   <si>
+    <t>Singer  Theresa</t>
+  </si>
+  <si>
+    <t>Villgrattner Jonas</t>
+  </si>
+  <si>
+    <t>Malloth Daniel</t>
+  </si>
+  <si>
+    <t>Lunger Ida</t>
+  </si>
+  <si>
+    <t>Mentzel Katharina</t>
+  </si>
+  <si>
+    <t>Rieder  Isabel</t>
+  </si>
+  <si>
+    <t>Gamper Klaus</t>
+  </si>
+  <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
+    <t>Karlegger Svenja Heidrun</t>
+  </si>
+  <si>
+    <t>Pircher Hannes</t>
+  </si>
+  <si>
+    <t>Trafojer Jakob</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>Obexer Elias</t>
+  </si>
+  <si>
+    <t>Innerhofer Moritz</t>
+  </si>
+  <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
     <t>Matzoll Simon</t>
   </si>
   <si>
     <t>Piscopiello Anton</t>
   </si>
   <si>
-    <t>Gumpold Marius</t>
-  </si>
-  <si>
-    <t>Malloth Daniel</t>
-  </si>
-  <si>
-    <t>Thaler Elias</t>
-  </si>
-  <si>
-    <t>Lunger Ida</t>
-  </si>
-  <si>
-    <t>Mentzel Katharina</t>
-  </si>
-  <si>
-    <t>Rieder  Isabel</t>
-  </si>
-  <si>
-    <t>Prantl Rosa</t>
-  </si>
-  <si>
-    <t>Tomoiaga Ema Miriam</t>
-  </si>
-  <si>
-    <t>Von Call Dylan</t>
-  </si>
-  <si>
-    <t>Zelger Samuel</t>
-  </si>
-  <si>
-    <t>Niederstaetter Leni</t>
-  </si>
-  <si>
-    <t>Niederstaetter Toni</t>
-  </si>
-  <si>
-    <t>Pircher Paul</t>
-  </si>
-  <si>
-    <t>Scheibenhoffer Alexander</t>
-  </si>
-  <si>
-    <t>Gamper Klaus</t>
-  </si>
-  <si>
-    <t>Gamper Martha</t>
-  </si>
-  <si>
-    <t>Karlegger Svenja Heidrun</t>
-  </si>
-  <si>
-    <t>Pircher Hannes</t>
-  </si>
-  <si>
-    <t>Trafojer Jakob</t>
-  </si>
-  <si>
-    <t>Delueg Ida</t>
-  </si>
-  <si>
-    <t>Mayer Fabienne</t>
-  </si>
-  <si>
-    <t>Obexer Elias</t>
-  </si>
-  <si>
-    <t>Mor  Nadyn</t>
-  </si>
-  <si>
-    <t>Ploner  Simon</t>
-  </si>
-  <si>
-    <t>Innerhofer Moritz</t>
-  </si>
-  <si>
-    <t>Singer  Theresa</t>
-  </si>
-  <si>
-    <t>Villgrattner Jonas</t>
-  </si>
-  <si>
-    <t>Dejori Pia</t>
-  </si>
-  <si>
-    <t>Kircher  Lena</t>
-  </si>
-  <si>
-    <t>Kohler Mali</t>
-  </si>
-  <si>
-    <t>Vieider Stina Marie</t>
-  </si>
-  <si>
     <t>Sozialgenossenschaft Mit Bäuerinnen Lernen Wachsen Leben</t>
   </si>
   <si>
@@ -918,18 +918,18 @@
     <t>Bruneck</t>
   </si>
   <si>
+    <t>Burgstall</t>
+  </si>
+  <si>
+    <t>Deutschnofen</t>
+  </si>
+  <si>
     <t>Eppan</t>
   </si>
   <si>
     <t>Feldthurns</t>
   </si>
   <si>
-    <t>Deutschnofen</t>
-  </si>
-  <si>
-    <t>Burgstall</t>
-  </si>
-  <si>
     <t>Gargazon</t>
   </si>
   <si>
@@ -942,12 +942,12 @@
     <t>Hafling</t>
   </si>
   <si>
+    <t>Kaltern</t>
+  </si>
+  <si>
     <t>Karneid</t>
   </si>
   <si>
-    <t>Kaltern</t>
-  </si>
-  <si>
     <t>Kastelruth</t>
   </si>
   <si>
@@ -978,46 +978,52 @@
     <t>Moelten</t>
   </si>
   <si>
+    <t>Moos in Passeier</t>
+  </si>
+  <si>
     <t>Mühlbach</t>
   </si>
   <si>
-    <t>Moos in Passeier</t>
+    <t>Naturns</t>
+  </si>
+  <si>
+    <t>Natz Schabs</t>
+  </si>
+  <si>
+    <t>Neumarkt</t>
+  </si>
+  <si>
+    <t>Olang</t>
+  </si>
+  <si>
+    <t>Partschins</t>
+  </si>
+  <si>
+    <t>Pfatten</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
   </si>
   <si>
     <t>Percha</t>
   </si>
   <si>
-    <t>Neumarkt</t>
-  </si>
-  <si>
-    <t>Olang</t>
-  </si>
-  <si>
-    <t>Natz Schabs</t>
-  </si>
-  <si>
-    <t>Pfalzen</t>
-  </si>
-  <si>
-    <t>Pfatten</t>
-  </si>
-  <si>
     <t>Pfitsch</t>
   </si>
   <si>
     <t>Prad a Stj</t>
   </si>
   <si>
-    <t>Partschins</t>
-  </si>
-  <si>
-    <t>Naturns</t>
+    <t>Prettau</t>
+  </si>
+  <si>
+    <t>Rasen/Antholz</t>
   </si>
   <si>
     <t>Ratschings</t>
   </si>
   <si>
-    <t>Rasen/Antholz</t>
+    <t>Riffian</t>
   </si>
   <si>
     <t>Ritten</t>
@@ -1026,78 +1032,72 @@
     <t>Salurn</t>
   </si>
   <si>
-    <t>Prettau</t>
-  </si>
-  <si>
-    <t>Riffian</t>
-  </si>
-  <si>
     <t>Sand in Taufers</t>
   </si>
   <si>
+    <t>Schenna</t>
+  </si>
+  <si>
     <t>Sarntal</t>
   </si>
   <si>
     <t>Schlanders</t>
   </si>
   <si>
-    <t>Schenna</t>
-  </si>
-  <si>
     <t>Schnals</t>
   </si>
   <si>
+    <t>St. Leonhard in Passeier</t>
+  </si>
+  <si>
+    <t>Tirol</t>
+  </si>
+  <si>
+    <t>Terlan</t>
+  </si>
+  <si>
+    <t>Villanderes</t>
+  </si>
+  <si>
+    <t>Tramin</t>
+  </si>
+  <si>
     <t>St. Martin in Passeier</t>
   </si>
   <si>
     <t>St. Lorenzen</t>
   </si>
   <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Taufers i. M.</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Ulten</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Vintl</t>
+  </si>
+  <si>
+    <t>Villnöss</t>
+  </si>
+  <si>
+    <t>Voeran</t>
+  </si>
+  <si>
+    <t>Welschnofen</t>
+  </si>
+  <si>
     <t>St. Pankraz Ulten</t>
   </si>
   <si>
-    <t>St. Leonhard in Passeier</t>
-  </si>
-  <si>
-    <t>Taufers i. M.</t>
-  </si>
-  <si>
-    <t>Terlan</t>
-  </si>
-  <si>
-    <t>Tiers</t>
-  </si>
-  <si>
-    <t>Tirol</t>
-  </si>
-  <si>
-    <t>Tramin</t>
-  </si>
-  <si>
-    <t>Tscherms</t>
-  </si>
-  <si>
-    <t>Ulten</t>
-  </si>
-  <si>
-    <t>Villanderes</t>
-  </si>
-  <si>
-    <t>Villnöss</t>
-  </si>
-  <si>
-    <t>Vintl</t>
-  </si>
-  <si>
-    <t>Voeran</t>
-  </si>
-  <si>
-    <t>Völs am Schlern</t>
-  </si>
-  <si>
-    <t>Welschnofen</t>
-  </si>
-  <si>
     <t>JRDJSF19R02B220Y</t>
   </si>
   <si>
@@ -1182,6 +1182,12 @@
     <t>ZNGMJA18H56B220I</t>
   </si>
   <si>
+    <t>VNTLWG18P17F132O</t>
+  </si>
+  <si>
+    <t>WRNMME17T67A952M</t>
+  </si>
+  <si>
     <t>DNIJNA19L25A952X</t>
   </si>
   <si>
@@ -1206,12 +1212,6 @@
     <t>NDRPLA17L11B160S</t>
   </si>
   <si>
-    <t>WRNMME17T67A952M</t>
-  </si>
-  <si>
-    <t>VNTLWG18P17F132O</t>
-  </si>
-  <si>
     <t>HSRJKB17S12A952H</t>
   </si>
   <si>
@@ -1233,24 +1233,24 @@
     <t>MSSLNI17H19F132Q</t>
   </si>
   <si>
+    <t>DRGMNL18H67A952F</t>
+  </si>
+  <si>
+    <t>HFNPLA18E20F132Q</t>
+  </si>
+  <si>
+    <t>NCLLND17D05F132W</t>
+  </si>
+  <si>
+    <t>SNNSST19C22A952Q</t>
+  </si>
+  <si>
     <t>BZZPTR17A26B160X</t>
   </si>
   <si>
     <t>RDRFBN17A08B160U</t>
   </si>
   <si>
-    <t>DRGMNL18H67A952F</t>
-  </si>
-  <si>
-    <t>HFNPLA18E20F132Q</t>
-  </si>
-  <si>
-    <t>NCLLND17D05F132W</t>
-  </si>
-  <si>
-    <t>SNNSST19C22A952Q</t>
-  </si>
-  <si>
     <t>GSTNHO17T18B160K</t>
   </si>
   <si>
@@ -1392,88 +1392,94 @@
     <t>THLLEI19A68F132X</t>
   </si>
   <si>
+    <t>GFLLNI18L57F132G</t>
+  </si>
+  <si>
     <t>LCHMRI17R71B160D</t>
   </si>
   <si>
     <t>MRKVNI17E23B220Q</t>
   </si>
   <si>
-    <t>GFLLNI18L57F132G</t>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>GRBMXA18E04I729N</t>
+  </si>
+  <si>
+    <t>GSTLEA17H61I729P</t>
+  </si>
+  <si>
+    <t>RMOGRT18C43I729G</t>
+  </si>
+  <si>
+    <t>PRZNCL18D50I729L</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>PNTLVO17T67B160N</t>
+  </si>
+  <si>
+    <t>CGHMML18T16A952I</t>
+  </si>
+  <si>
+    <t>PRGLNA18R41F132V</t>
+  </si>
+  <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>GSSNNA18S60I729X</t>
+  </si>
+  <si>
+    <t>MSRJLN18B11F132O</t>
+  </si>
+  <si>
+    <t>VLNVTR17B01A952B</t>
+  </si>
+  <si>
+    <t>LLCMLY17S49B220J</t>
+  </si>
+  <si>
+    <t>BRHBNE17P04B220J</t>
+  </si>
+  <si>
+    <t>PRLYRA17D69B220C</t>
+  </si>
+  <si>
+    <t>RNRFRD19D63B220F</t>
+  </si>
+  <si>
+    <t>SVCNDA17A70B220F</t>
+  </si>
+  <si>
+    <t>WGRTNO17B05B160N</t>
   </si>
   <si>
     <t>PRMMME19P65B220I</t>
   </si>
   <si>
-    <t>CGHMML18T16A952I</t>
-  </si>
-  <si>
-    <t>PRGLNA18R41F132V</t>
-  </si>
-  <si>
-    <t>WNKPLA17R42B220L</t>
-  </si>
-  <si>
-    <t>BTTMTT17P08B160L</t>
-  </si>
-  <si>
-    <t>PNTLVO17T67B160N</t>
-  </si>
-  <si>
-    <t>LLCMLY17S49B220J</t>
-  </si>
-  <si>
-    <t>BRHBNE17P04B220J</t>
-  </si>
-  <si>
-    <t>PRLYRA17D69B220C</t>
-  </si>
-  <si>
-    <t>RNRFRD19D63B220F</t>
-  </si>
-  <si>
-    <t>SVCNDA17A70B220F</t>
-  </si>
-  <si>
-    <t>WGRTNO17B05B160N</t>
-  </si>
-  <si>
-    <t>VLNVTR17B01A952B</t>
-  </si>
-  <si>
     <t>BCHMLE18E15B160A</t>
   </si>
   <si>
     <t>NNMLLE17A60A952M</t>
   </si>
   <si>
-    <t>BLRSPH16T68F132B</t>
-  </si>
-  <si>
-    <t>GSSNNA18S60I729X</t>
-  </si>
-  <si>
-    <t>MSRJLN18B11F132O</t>
-  </si>
-  <si>
-    <t>BLSJKB16R29I729Q</t>
-  </si>
-  <si>
-    <t>BRGLNN18C48I729E</t>
-  </si>
-  <si>
-    <t>GRBMXA18E04I729N</t>
-  </si>
-  <si>
-    <t>GSTLEA17H61I729P</t>
-  </si>
-  <si>
-    <t>RMOGRT18C43I729G</t>
-  </si>
-  <si>
-    <t>PRZNCL18D50I729L</t>
-  </si>
-  <si>
-    <t>SCHLIA18P62F132S</t>
+    <t>GRSJNS17M21B220X</t>
+  </si>
+  <si>
+    <t>TSCNTN17L08B220M</t>
   </si>
   <si>
     <t>FCHMLE17A12B160W</t>
@@ -1488,7 +1494,10 @@
     <t>WLTMTZ16M02M067H</t>
   </si>
   <si>
-    <t>TSCNTN17L08B220M</t>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
   </si>
   <si>
     <t>GDSLLK17D08A952P</t>
@@ -1503,15 +1512,6 @@
     <t>CVZJLU18S41H612E</t>
   </si>
   <si>
-    <t>GRSJNS17M21B220X</t>
-  </si>
-  <si>
-    <t>GRBKLN17A70F132K</t>
-  </si>
-  <si>
-    <t>PCHSMN19L15F132H</t>
-  </si>
-  <si>
     <t>SSRMTH17S09B220Q</t>
   </si>
   <si>
@@ -1524,6 +1524,12 @@
     <t>NDRJSF17A20B220Z</t>
   </si>
   <si>
+    <t>LLMRFL19B10F132U</t>
+  </si>
+  <si>
+    <t>PFSPLP17B08F132P</t>
+  </si>
+  <si>
     <t>DSLVTR17A51A952V</t>
   </si>
   <si>
@@ -1539,18 +1545,33 @@
     <t>TRFLXA17S27I729K</t>
   </si>
   <si>
-    <t>LLMRFL19B10F132U</t>
-  </si>
-  <si>
-    <t>PFSPLP17B08F132P</t>
-  </si>
-  <si>
     <t>RNRSNI18D46I729B</t>
   </si>
   <si>
     <t>WRNPLA17T13I729Z</t>
   </si>
   <si>
+    <t>GMPMRS17M28F132X</t>
+  </si>
+  <si>
+    <t>PRNRSO18B49F132Z</t>
+  </si>
+  <si>
+    <t>THLLSE19M01F132O</t>
+  </si>
+  <si>
+    <t>DLGDIA18A57B160Q</t>
+  </si>
+  <si>
+    <t>TMGMRM19B41A952N</t>
+  </si>
+  <si>
+    <t>VNCDLN19B19A952G</t>
+  </si>
+  <si>
+    <t>ZLGSML18E08F132P</t>
+  </si>
+  <si>
     <t>KFLNRS17S23F132N</t>
   </si>
   <si>
@@ -1560,105 +1581,84 @@
     <t>MSBTRS17B42Z102X</t>
   </si>
   <si>
+    <t>SNGTRS17C61F132M</t>
+  </si>
+  <si>
+    <t>VLLJNS17A09B160F</t>
+  </si>
+  <si>
+    <t>MLLDNL17L10I729Y</t>
+  </si>
+  <si>
+    <t>LNGDIA17S51A952F</t>
+  </si>
+  <si>
+    <t>MNTKHR17A55A952Q</t>
+  </si>
+  <si>
+    <t>RDRSBL16M50A952F</t>
+  </si>
+  <si>
+    <t>GMPKLS16T18F132L</t>
+  </si>
+  <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
+    <t>KRLSNJ18P49I729Y</t>
+  </si>
+  <si>
+    <t>PRCHNS17C08F132K</t>
+  </si>
+  <si>
+    <t>TRFJKB16S22F132Q</t>
+  </si>
+  <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>BXRLSE18E18B160Z</t>
+  </si>
+  <si>
+    <t>NNRMTZ17H13F132H</t>
+  </si>
+  <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
     <t>MTZSMN16T01F132M</t>
   </si>
   <si>
     <t>PSCNTN17L15F132A</t>
   </si>
   <si>
-    <t>GMPMRS17M28F132X</t>
-  </si>
-  <si>
-    <t>MLLDNL17L10I729Y</t>
-  </si>
-  <si>
-    <t>THLLSE19M01F132O</t>
-  </si>
-  <si>
-    <t>LNGDIA17S51A952F</t>
-  </si>
-  <si>
-    <t>MNTKHR17A55A952Q</t>
-  </si>
-  <si>
-    <t>RDRSBL16M50A952F</t>
-  </si>
-  <si>
-    <t>PRNRSO18B49F132Z</t>
-  </si>
-  <si>
-    <t>TMGMRM19B41A952N</t>
-  </si>
-  <si>
-    <t>VNCDLN19B19A952G</t>
-  </si>
-  <si>
-    <t>ZLGSML18E08F132P</t>
-  </si>
-  <si>
-    <t>NDRLNE16T59A952N</t>
-  </si>
-  <si>
-    <t>NDRTNO16T19A952B</t>
-  </si>
-  <si>
-    <t>PRCPLA16S29F132U</t>
-  </si>
-  <si>
-    <t>SCHLND17B12F132N</t>
-  </si>
-  <si>
-    <t>GMPKLS16T18F132L</t>
-  </si>
-  <si>
-    <t>GMPMTH19D47F132J</t>
-  </si>
-  <si>
-    <t>KRLSNJ18P49I729Y</t>
-  </si>
-  <si>
-    <t>PRCHNS17C08F132K</t>
-  </si>
-  <si>
-    <t>TRFJKB16S22F132Q</t>
-  </si>
-  <si>
-    <t>DLGDIA18A57B160Q</t>
-  </si>
-  <si>
-    <t>MYRFNN17L67B160A</t>
-  </si>
-  <si>
-    <t>BXRLSE18E18B160Z</t>
-  </si>
-  <si>
-    <t>MRONYN16P65B160C</t>
-  </si>
-  <si>
-    <t>PLNSMN17A18B220Q</t>
-  </si>
-  <si>
-    <t>NNRMTZ17H13F132H</t>
-  </si>
-  <si>
-    <t>SNGTRS17C61F132M</t>
-  </si>
-  <si>
-    <t>VLLJNS17A09B160F</t>
-  </si>
-  <si>
-    <t>DJRPIA17A67A952Q</t>
-  </si>
-  <si>
-    <t>KRCLNE17B53B160I</t>
-  </si>
-  <si>
-    <t>KHLMLA17A71A952X</t>
-  </si>
-  <si>
-    <t>VDRSNM18M56B160V</t>
-  </si>
-  <si>
     <t>Kirchler Judith</t>
   </si>
   <si>
@@ -1719,6 +1719,9 @@
     <t>Knollseisen  Kathrin</t>
   </si>
   <si>
+    <t>Zelger Sara</t>
+  </si>
+  <si>
     <t>Oberhofer  Kathrin</t>
   </si>
   <si>
@@ -1737,9 +1740,6 @@
     <t>Thaler Petra</t>
   </si>
   <si>
-    <t>Zelger Sara</t>
-  </si>
-  <si>
     <t>Gasser Ingeborg Maria</t>
   </si>
   <si>
@@ -1758,18 +1758,18 @@
     <t>Plattner Martina</t>
   </si>
   <si>
+    <t>Peer Petra</t>
+  </si>
+  <si>
+    <t>Scarduelli Sonia</t>
+  </si>
+  <si>
+    <t>Peterlin Verena</t>
+  </si>
+  <si>
     <t>Covi Sibylle</t>
   </si>
   <si>
-    <t>Peer Petra</t>
-  </si>
-  <si>
-    <t>Scarduelli Sonia</t>
-  </si>
-  <si>
-    <t>Peterlin Verena</t>
-  </si>
-  <si>
     <t>Bernard  Nadine</t>
   </si>
   <si>
@@ -1848,63 +1848,66 @@
     <t>Duregger Evi</t>
   </si>
   <si>
+    <t>Trocker Christine</t>
+  </si>
+  <si>
     <t>Salcher Andrea</t>
   </si>
   <si>
-    <t>Trocker Christine</t>
+    <t>Rabensteiner Maria</t>
+  </si>
+  <si>
+    <t>Blaas Veronika</t>
+  </si>
+  <si>
+    <t>Kofler Naida</t>
+  </si>
+  <si>
+    <t>Pixner Silvia</t>
   </si>
   <si>
     <t>Huber Jessica</t>
   </si>
   <si>
+    <t>Tappeiner Heidemarie</t>
+  </si>
+  <si>
+    <t>Radicchi Daniela</t>
+  </si>
+  <si>
     <t>Winding Helga</t>
   </si>
   <si>
     <t>Volgger Theresia</t>
   </si>
   <si>
-    <t>Radicchi Daniela</t>
-  </si>
-  <si>
     <t>Seehauser Birgit</t>
   </si>
   <si>
-    <t>Tappeiner Heidemarie</t>
-  </si>
-  <si>
-    <t>Rabensteiner Maria</t>
-  </si>
-  <si>
-    <t>Blaas Veronika</t>
-  </si>
-  <si>
-    <t>Kofler Naida</t>
-  </si>
-  <si>
-    <t>Pixner Silvia</t>
+    <t>Kammerlander Verena</t>
   </si>
   <si>
     <t>Oberstaller Agathe</t>
   </si>
   <si>
+    <t>Trientbacher Margit</t>
+  </si>
+  <si>
     <t>Fink Valentina</t>
   </si>
   <si>
     <t>Rossi Sara</t>
   </si>
   <si>
-    <t>Kammerlander Verena</t>
-  </si>
-  <si>
-    <t>Trientbacher Margit</t>
-  </si>
-  <si>
     <t>Rederlechner Angelika</t>
   </si>
   <si>
     <t>Berger Michaela</t>
   </si>
   <si>
+    <t>Mittelberger Maria</t>
+  </si>
+  <si>
     <t>Gufler Petra</t>
   </si>
   <si>
@@ -1914,42 +1917,39 @@
     <t>Stecher Romina</t>
   </si>
   <si>
-    <t>Mittelberger Maria</t>
-  </si>
-  <si>
     <t>Graiss Lisa</t>
   </si>
   <si>
+    <t>Aukenthaler Roswitha</t>
+  </si>
+  <si>
     <t>Schweigl Simone</t>
   </si>
   <si>
+    <t>Lunger Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zöschg Rita </t>
+  </si>
+  <si>
+    <t>Unterholzner  Vera</t>
+  </si>
+  <si>
+    <t>Wolf Alexandra</t>
+  </si>
+  <si>
+    <t>Hofer Carina</t>
+  </si>
+  <si>
+    <t>Huber Barbara</t>
+  </si>
+  <si>
+    <t>Kompatscher  Sarah</t>
+  </si>
+  <si>
     <t>Zöschg Gertrud</t>
   </si>
   <si>
-    <t>Lunger Alexandra</t>
-  </si>
-  <si>
-    <t>Wolf Alexandra</t>
-  </si>
-  <si>
-    <t>Hofer Carina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zöschg Rita </t>
-  </si>
-  <si>
-    <t>Unterholzner  Vera</t>
-  </si>
-  <si>
-    <t>Aukenthaler Roswitha</t>
-  </si>
-  <si>
-    <t>Huber Barbara</t>
-  </si>
-  <si>
-    <t>Kompatscher  Sarah</t>
-  </si>
-  <si>
     <t>St. Peter In Ahrntal</t>
   </si>
   <si>
@@ -1974,10 +1974,10 @@
     <t>St. Leonhard i.P.</t>
   </si>
   <si>
+    <t>St. Leonhard in P.</t>
+  </si>
+  <si>
     <t>St. Martin In P.</t>
-  </si>
-  <si>
-    <t>St. Leonhard in P.</t>
   </si>
 </sst>
 </file>
@@ -3107,7 +3107,7 @@
         <v>553</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J12" s="2">
         <v>44138</v>
@@ -3169,7 +3169,7 @@
         <v>554</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J13" s="2">
         <v>43710</v>
@@ -3479,7 +3479,7 @@
         <v>557</v>
       </c>
       <c r="I18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J18" s="2">
         <v>43313</v>
@@ -3851,7 +3851,7 @@
         <v>562</v>
       </c>
       <c r="I24" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="J24" s="2">
         <v>43473</v>
@@ -4099,7 +4099,7 @@
         <v>563</v>
       </c>
       <c r="I28" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J28" s="2">
         <v>43894</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -4214,57 +4214,60 @@
         <v>298</v>
       </c>
       <c r="F30" s="2">
-        <v>43671</v>
+        <v>43360</v>
       </c>
       <c r="G30" t="s">
         <v>386</v>
       </c>
       <c r="H30" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J30" s="2">
-        <v>44116</v>
+        <v>43892</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="L30" s="2">
-        <v>44118</v>
+        <v>44196</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>480.5</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q30">
-        <v>21</v>
-      </c>
-      <c r="AG30" t="b">
+        <v>692.5</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="b">
         <v>1</v>
       </c>
       <c r="AI30" s="2">
-        <v>44116</v>
+        <v>43892</v>
       </c>
       <c r="AJ30" s="2">
-        <v>44118</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
@@ -4273,10 +4276,10 @@
         <v>290</v>
       </c>
       <c r="E31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F31" s="2">
-        <v>43870</v>
+        <v>43096</v>
       </c>
       <c r="G31" t="s">
         <v>387</v>
@@ -4285,22 +4288,22 @@
         <v>565</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="J31" s="2">
-        <v>44144</v>
+        <v>44075</v>
       </c>
       <c r="K31">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="L31" s="2">
         <v>44196</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4309,13 +4312,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>66</v>
-      </c>
-      <c r="AF31" t="b">
+        <v>229</v>
+      </c>
+      <c r="Z31" t="b">
         <v>1</v>
       </c>
       <c r="AI31" s="2">
-        <v>44144</v>
+        <v>44075</v>
       </c>
       <c r="AJ31" s="2">
         <v>44196</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>132</v>
@@ -4335,10 +4338,10 @@
         <v>290</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F32" s="2">
-        <v>43069</v>
+        <v>43671</v>
       </c>
       <c r="G32" t="s">
         <v>388</v>
@@ -4347,48 +4350,48 @@
         <v>566</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J32" s="2">
-        <v>43678</v>
+        <v>44116</v>
       </c>
       <c r="K32">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="L32" s="2">
-        <v>44092</v>
+        <v>44118</v>
       </c>
       <c r="M32">
-        <v>825.75</v>
+        <v>21</v>
       </c>
       <c r="N32">
-        <v>363.5</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>105.25</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1294.5</v>
-      </c>
-      <c r="Z32" t="b">
+        <v>21</v>
+      </c>
+      <c r="AG32" t="b">
         <v>1</v>
       </c>
       <c r="AI32" s="2">
-        <v>43831</v>
+        <v>44116</v>
       </c>
       <c r="AJ32" s="2">
-        <v>44092</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -4397,34 +4400,34 @@
         <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F33" s="2">
-        <v>43629</v>
+        <v>43870</v>
       </c>
       <c r="G33" t="s">
         <v>389</v>
       </c>
       <c r="H33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J33" s="2">
-        <v>43906</v>
+        <v>44144</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="L33" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4433,24 +4436,24 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
-      </c>
-      <c r="AC33" t="b">
+        <v>66</v>
+      </c>
+      <c r="AF33" t="b">
         <v>1</v>
       </c>
       <c r="AI33" s="2">
-        <v>43906</v>
+        <v>44144</v>
       </c>
       <c r="AJ33" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>134</v>
@@ -4459,176 +4462,173 @@
         <v>290</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F34" s="2">
-        <v>43307</v>
+        <v>43069</v>
       </c>
       <c r="G34" t="s">
         <v>390</v>
       </c>
       <c r="H34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J34" s="2">
-        <v>43739</v>
+        <v>43678</v>
       </c>
       <c r="K34">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="L34" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
       <c r="M34">
-        <v>685.5</v>
+        <v>825.75</v>
       </c>
       <c r="N34">
-        <v>161</v>
+        <v>363.5</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>79.25</v>
+        <v>105.25</v>
       </c>
       <c r="Q34">
-        <v>925.75</v>
-      </c>
-      <c r="AH34" t="b">
+        <v>1294.5</v>
+      </c>
+      <c r="Z34" t="b">
         <v>1</v>
       </c>
       <c r="AI34" s="2">
         <v>43831</v>
       </c>
       <c r="AJ34" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
         <v>290</v>
       </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F35" s="2">
-        <v>43307</v>
+        <v>43629</v>
       </c>
       <c r="G35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J35" s="2">
-        <v>43655</v>
+        <v>43906</v>
       </c>
       <c r="K35">
-        <v>365</v>
+        <v>15</v>
       </c>
       <c r="L35" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="M35">
-        <v>911.5</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>129.75</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1203.25</v>
-      </c>
-      <c r="AH35" t="b">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="b">
         <v>1</v>
       </c>
       <c r="AI35" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AJ35" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
         <v>290</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F36" s="2">
-        <v>43101</v>
+        <v>43307</v>
       </c>
       <c r="G36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H36" t="s">
         <v>569</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J36" s="2">
-        <v>43892</v>
+        <v>43739</v>
       </c>
       <c r="K36">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="L36" s="2">
         <v>44196</v>
       </c>
       <c r="M36">
-        <v>358.75</v>
+        <v>685.5</v>
       </c>
       <c r="N36">
-        <v>141.5</v>
+        <v>161</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>56.5</v>
+        <v>79.25</v>
       </c>
       <c r="Q36">
-        <v>556.75</v>
-      </c>
-      <c r="AB36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="b">
+        <v>925.75</v>
+      </c>
+      <c r="AH36" t="b">
         <v>1</v>
       </c>
       <c r="AI36" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ36" s="2">
         <v>44196</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
@@ -4648,10 +4648,10 @@
         <v>290</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F37" s="2">
-        <v>43451</v>
+        <v>43307</v>
       </c>
       <c r="G37" t="s">
         <v>392</v>
@@ -4660,48 +4660,48 @@
         <v>570</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J37" s="2">
-        <v>43823</v>
+        <v>43655</v>
       </c>
       <c r="K37">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="L37" s="2">
-        <v>43910</v>
+        <v>44196</v>
       </c>
       <c r="M37">
-        <v>114.75</v>
+        <v>911.5</v>
       </c>
       <c r="N37">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>129.75</v>
       </c>
       <c r="Q37">
-        <v>142.75</v>
-      </c>
-      <c r="AC37" t="b">
+        <v>1203.25</v>
+      </c>
+      <c r="AH37" t="b">
         <v>1</v>
       </c>
       <c r="AI37" s="2">
         <v>43831</v>
       </c>
       <c r="AJ37" s="2">
-        <v>43910</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>137</v>
@@ -4710,10 +4710,10 @@
         <v>290</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F38" s="2">
-        <v>42927</v>
+        <v>43101</v>
       </c>
       <c r="G38" t="s">
         <v>393</v>
@@ -4722,48 +4722,51 @@
         <v>570</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J38" s="2">
-        <v>43823</v>
+        <v>43892</v>
       </c>
       <c r="K38">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="L38" s="2">
-        <v>43910</v>
+        <v>44196</v>
       </c>
       <c r="M38">
-        <v>114.75</v>
+        <v>358.75</v>
       </c>
       <c r="N38">
-        <v>28</v>
+        <v>141.5</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="Q38">
-        <v>142.75</v>
-      </c>
-      <c r="AC38" t="b">
+        <v>556.75</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="b">
         <v>1</v>
       </c>
       <c r="AI38" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AJ38" s="2">
-        <v>43910</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>138</v>
@@ -4772,10 +4775,10 @@
         <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F39" s="2">
-        <v>43096</v>
+        <v>43451</v>
       </c>
       <c r="G39" t="s">
         <v>394</v>
@@ -4784,22 +4787,22 @@
         <v>571</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="J39" s="2">
-        <v>44075</v>
+        <v>43823</v>
       </c>
       <c r="K39">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="L39" s="2">
-        <v>44196</v>
+        <v>43910</v>
       </c>
       <c r="M39">
-        <v>213</v>
+        <v>114.75</v>
       </c>
       <c r="N39">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -4808,21 +4811,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>229</v>
-      </c>
-      <c r="Z39" t="b">
+        <v>142.75</v>
+      </c>
+      <c r="AC39" t="b">
         <v>1</v>
       </c>
       <c r="AI39" s="2">
-        <v>44075</v>
+        <v>43831</v>
       </c>
       <c r="AJ39" s="2">
-        <v>44196</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="40" spans="1:36">
       <c r="A40" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -4837,52 +4840,49 @@
         <v>301</v>
       </c>
       <c r="F40" s="2">
-        <v>43360</v>
+        <v>42927</v>
       </c>
       <c r="G40" t="s">
         <v>395</v>
       </c>
       <c r="H40" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="I40" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="J40" s="2">
-        <v>43892</v>
+        <v>43823</v>
       </c>
       <c r="K40">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="L40" s="2">
-        <v>44196</v>
+        <v>43910</v>
       </c>
       <c r="M40">
-        <v>480.5</v>
+        <v>114.75</v>
       </c>
       <c r="N40">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>692.5</v>
-      </c>
-      <c r="AB40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="b">
+        <v>142.75</v>
+      </c>
+      <c r="AC40" t="b">
         <v>1</v>
       </c>
       <c r="AI40" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ40" s="2">
-        <v>44196</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -5224,7 +5224,7 @@
         <v>576</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="J46" s="2">
         <v>43650</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -5401,7 +5401,7 @@
         <v>306</v>
       </c>
       <c r="F49" s="2">
-        <v>42761</v>
+        <v>43278</v>
       </c>
       <c r="G49" t="s">
         <v>403</v>
@@ -5410,10 +5410,10 @@
         <v>578</v>
       </c>
       <c r="I49" t="s">
-        <v>306</v>
+        <v>645</v>
       </c>
       <c r="J49" s="2">
-        <v>43381</v>
+        <v>43711</v>
       </c>
       <c r="K49">
         <v>126</v>
@@ -5422,21 +5422,21 @@
         <v>43957</v>
       </c>
       <c r="M49">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="N49">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q49">
-        <v>384</v>
-      </c>
-      <c r="Y49" t="b">
+        <v>783</v>
+      </c>
+      <c r="AG49" t="b">
         <v>1</v>
       </c>
       <c r="AI49" s="2">
@@ -5448,7 +5448,7 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -5463,31 +5463,31 @@
         <v>306</v>
       </c>
       <c r="F50" s="2">
-        <v>42743</v>
+        <v>43240</v>
       </c>
       <c r="G50" t="s">
         <v>404</v>
       </c>
       <c r="H50" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="I50" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J50" s="2">
-        <v>43850</v>
+        <v>43879</v>
       </c>
       <c r="K50">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L50" s="2">
         <v>43957</v>
       </c>
       <c r="M50">
-        <v>68</v>
+        <v>12.25</v>
       </c>
       <c r="N50">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -5496,13 +5496,13 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>172</v>
-      </c>
-      <c r="Y50" t="b">
+        <v>129.25</v>
+      </c>
+      <c r="AE50" t="b">
         <v>1</v>
       </c>
       <c r="AI50" s="2">
-        <v>43850</v>
+        <v>43879</v>
       </c>
       <c r="AJ50" s="2">
         <v>43957</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>149</v>
@@ -5522,10 +5522,10 @@
         <v>290</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F51" s="2">
-        <v>43278</v>
+        <v>42830</v>
       </c>
       <c r="G51" t="s">
         <v>405</v>
@@ -5534,48 +5534,48 @@
         <v>579</v>
       </c>
       <c r="I51" t="s">
-        <v>645</v>
+        <v>306</v>
       </c>
       <c r="J51" s="2">
-        <v>43711</v>
+        <v>43647</v>
       </c>
       <c r="K51">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L51" s="2">
-        <v>43957</v>
+        <v>43951</v>
       </c>
       <c r="M51">
-        <v>123</v>
+        <v>190.75</v>
       </c>
       <c r="N51">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>783</v>
-      </c>
-      <c r="AG51" t="b">
+        <v>374.75</v>
+      </c>
+      <c r="AC51" t="b">
         <v>1</v>
       </c>
       <c r="AI51" s="2">
         <v>43831</v>
       </c>
       <c r="AJ51" s="2">
-        <v>43957</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>150</v>
@@ -5584,57 +5584,57 @@
         <v>290</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F52" s="2">
-        <v>43240</v>
+        <v>43546</v>
       </c>
       <c r="G52" t="s">
         <v>406</v>
       </c>
       <c r="H52" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="J52" s="2">
-        <v>43879</v>
+        <v>43899</v>
       </c>
       <c r="K52">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="L52" s="2">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="M52">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q52">
-        <v>129.25</v>
-      </c>
-      <c r="AE52" t="b">
+        <v>199</v>
+      </c>
+      <c r="AA52" t="b">
         <v>1</v>
       </c>
       <c r="AI52" s="2">
-        <v>43879</v>
+        <v>43899</v>
       </c>
       <c r="AJ52" s="2">
-        <v>43957</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="53" spans="1:36">
       <c r="A53" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -5649,31 +5649,31 @@
         <v>307</v>
       </c>
       <c r="F53" s="2">
-        <v>42830</v>
+        <v>42761</v>
       </c>
       <c r="G53" t="s">
         <v>407</v>
       </c>
       <c r="H53" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I53" t="s">
         <v>307</v>
       </c>
       <c r="J53" s="2">
-        <v>43647</v>
+        <v>43381</v>
       </c>
       <c r="K53">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L53" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="M53">
-        <v>190.75</v>
+        <v>174</v>
       </c>
       <c r="N53">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5682,21 +5682,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>374.75</v>
-      </c>
-      <c r="AC53" t="b">
+        <v>384</v>
+      </c>
+      <c r="Y53" t="b">
         <v>1</v>
       </c>
       <c r="AI53" s="2">
         <v>43831</v>
       </c>
       <c r="AJ53" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="54" spans="1:36">
       <c r="A54" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -5711,7 +5711,7 @@
         <v>307</v>
       </c>
       <c r="F54" s="2">
-        <v>43546</v>
+        <v>42743</v>
       </c>
       <c r="G54" t="s">
         <v>408</v>
@@ -5723,37 +5723,37 @@
         <v>307</v>
       </c>
       <c r="J54" s="2">
-        <v>43899</v>
+        <v>43850</v>
       </c>
       <c r="K54">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="L54" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N54">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>199</v>
-      </c>
-      <c r="AA54" t="b">
+        <v>172</v>
+      </c>
+      <c r="Y54" t="b">
         <v>1</v>
       </c>
       <c r="AI54" s="2">
-        <v>43899</v>
+        <v>43850</v>
       </c>
       <c r="AJ54" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6343,7 +6343,7 @@
         <v>590</v>
       </c>
       <c r="I64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J64" s="2">
         <v>43374</v>
@@ -9027,7 +9027,7 @@
         <v>554</v>
       </c>
       <c r="I107" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J107" s="2">
         <v>43878</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>62</v>
@@ -9080,7 +9080,7 @@
         <v>318</v>
       </c>
       <c r="F108" s="2">
-        <v>43039</v>
+        <v>43298</v>
       </c>
       <c r="G108" t="s">
         <v>456</v>
@@ -9089,37 +9089,37 @@
         <v>608</v>
       </c>
       <c r="I108" t="s">
-        <v>318</v>
+        <v>649</v>
       </c>
       <c r="J108" s="2">
-        <v>43500</v>
+        <v>43895</v>
       </c>
       <c r="K108">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="L108" s="2">
         <v>43957</v>
       </c>
       <c r="M108">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>301</v>
+        <v>149</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
-        <v>249.5</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>858.5</v>
-      </c>
-      <c r="AG108" t="b">
+        <v>149</v>
+      </c>
+      <c r="AE108" t="b">
         <v>1</v>
       </c>
       <c r="AI108" s="2">
-        <v>43831</v>
+        <v>43895</v>
       </c>
       <c r="AJ108" s="2">
         <v>43957</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
         <v>201</v>
@@ -9139,57 +9139,57 @@
         <v>290</v>
       </c>
       <c r="E109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F109" s="2">
-        <v>42878</v>
+        <v>43039</v>
       </c>
       <c r="G109" t="s">
         <v>457</v>
       </c>
       <c r="H109" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J109" s="2">
-        <v>43731</v>
+        <v>43500</v>
       </c>
       <c r="K109">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L109" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="M109">
-        <v>143.25</v>
+        <v>308</v>
       </c>
       <c r="N109">
-        <v>124.25</v>
+        <v>301</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>249.5</v>
       </c>
       <c r="Q109">
-        <v>267.5</v>
-      </c>
-      <c r="AC109" t="b">
+        <v>858.5</v>
+      </c>
+      <c r="AG109" t="b">
         <v>1</v>
       </c>
       <c r="AI109" s="2">
         <v>43831</v>
       </c>
       <c r="AJ109" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -9204,7 +9204,7 @@
         <v>319</v>
       </c>
       <c r="F110" s="2">
-        <v>43298</v>
+        <v>42878</v>
       </c>
       <c r="G110" t="s">
         <v>458</v>
@@ -9213,22 +9213,22 @@
         <v>609</v>
       </c>
       <c r="I110" t="s">
-        <v>649</v>
+        <v>319</v>
       </c>
       <c r="J110" s="2">
-        <v>43895</v>
+        <v>43731</v>
       </c>
       <c r="K110">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="L110" s="2">
-        <v>43957</v>
+        <v>43951</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>143.25</v>
       </c>
       <c r="N110">
-        <v>149</v>
+        <v>124.25</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -9237,21 +9237,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>149</v>
-      </c>
-      <c r="AE110" t="b">
+        <v>267.5</v>
+      </c>
+      <c r="AC110" t="b">
         <v>1</v>
       </c>
       <c r="AI110" s="2">
-        <v>43895</v>
+        <v>43831</v>
       </c>
       <c r="AJ110" s="2">
-        <v>43957</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
         <v>64</v>
@@ -9266,282 +9266,279 @@
         <v>320</v>
       </c>
       <c r="F111" s="2">
-        <v>43733</v>
+        <v>42672</v>
       </c>
       <c r="G111" t="s">
         <v>459</v>
       </c>
       <c r="H111" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="I111" t="s">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="J111" s="2">
-        <v>43889</v>
+        <v>43850</v>
       </c>
       <c r="K111">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L111" s="2">
-        <v>43957</v>
+        <v>43861</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>48.75</v>
       </c>
       <c r="N111">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="O111">
         <v>0</v>
       </c>
       <c r="P111">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>272</v>
-      </c>
-      <c r="AB111" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE111" t="b">
+        <v>48.75</v>
+      </c>
+      <c r="Y111" t="b">
         <v>1</v>
       </c>
       <c r="AI111" s="2">
-        <v>43889</v>
+        <v>43850</v>
       </c>
       <c r="AJ111" s="2">
-        <v>43957</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D112" t="s">
         <v>290</v>
       </c>
       <c r="E112" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F112" s="2">
-        <v>43450</v>
+        <v>42672</v>
       </c>
       <c r="G112" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="I112" t="s">
-        <v>645</v>
+        <v>320</v>
       </c>
       <c r="J112" s="2">
-        <v>44172</v>
+        <v>42957</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="L112" s="2">
-        <v>44172</v>
+        <v>44089</v>
       </c>
       <c r="M112">
-        <v>7.75</v>
+        <v>498</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="O112">
         <v>0</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="Q112">
-        <v>7.75</v>
-      </c>
-      <c r="AG112" t="b">
+        <v>526</v>
+      </c>
+      <c r="Y112" t="b">
         <v>1</v>
       </c>
       <c r="AI112" s="2">
-        <v>44172</v>
+        <v>43831</v>
       </c>
       <c r="AJ112" s="2">
-        <v>44172</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D113" t="s">
         <v>290</v>
       </c>
       <c r="E113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F113" s="2">
-        <v>43374</v>
+        <v>43167</v>
       </c>
       <c r="G113" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H113" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I113" t="s">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="J113" s="2">
-        <v>43683</v>
+        <v>44187</v>
       </c>
       <c r="K113">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L113" s="2">
-        <v>43957</v>
+        <v>44187</v>
       </c>
       <c r="M113">
-        <v>175.75</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>204.25</v>
+        <v>0</v>
       </c>
       <c r="O113">
         <v>0</v>
       </c>
       <c r="P113">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>665</v>
+        <v>5</v>
       </c>
       <c r="AG113" t="b">
         <v>1</v>
       </c>
       <c r="AI113" s="2">
-        <v>43831</v>
+        <v>44187</v>
       </c>
       <c r="AJ113" s="2">
-        <v>43957</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D114" t="s">
         <v>290</v>
       </c>
       <c r="E114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F114" s="2">
-        <v>43010</v>
+        <v>43224</v>
       </c>
       <c r="G114" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H114" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="I114" t="s">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="J114" s="2">
-        <v>43761</v>
+        <v>44088</v>
       </c>
       <c r="K114">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="L114" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
       <c r="M114">
-        <v>601</v>
+        <v>23.5</v>
       </c>
       <c r="N114">
-        <v>175.25</v>
+        <v>0</v>
       </c>
       <c r="O114">
         <v>0</v>
       </c>
       <c r="P114">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>902.25</v>
-      </c>
-      <c r="Z114" t="b">
+        <v>23.5</v>
+      </c>
+      <c r="AG114" t="b">
         <v>1</v>
       </c>
       <c r="AI114" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AJ114" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
         <v>290</v>
       </c>
       <c r="E115" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F115" s="2">
-        <v>42986</v>
+        <v>42907</v>
       </c>
       <c r="G115" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H115" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="I115" t="s">
-        <v>318</v>
+        <v>648</v>
       </c>
       <c r="J115" s="2">
-        <v>43881</v>
+        <v>43872</v>
       </c>
       <c r="K115">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="L115" s="2">
-        <v>43957</v>
+        <v>43873</v>
       </c>
       <c r="M115">
-        <v>24.75</v>
+        <v>5.75</v>
       </c>
       <c r="N115">
-        <v>247.25</v>
+        <v>0</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -9550,60 +9547,60 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>272</v>
-      </c>
-      <c r="AE115" t="b">
+        <v>5.75</v>
+      </c>
+      <c r="AG115" t="b">
         <v>1</v>
       </c>
       <c r="AI115" s="2">
-        <v>43881</v>
+        <v>43872</v>
       </c>
       <c r="AJ115" s="2">
-        <v>43957</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="1">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" t="s">
+        <v>320</v>
+      </c>
+      <c r="F116" s="2">
+        <v>43162</v>
+      </c>
+      <c r="G116" t="s">
+        <v>463</v>
+      </c>
+      <c r="H116" t="s">
+        <v>612</v>
+      </c>
+      <c r="I116" t="s">
+        <v>320</v>
+      </c>
+      <c r="J116" s="2">
+        <v>44095</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="2">
+        <v>44096</v>
+      </c>
+      <c r="M116">
         <v>11</v>
       </c>
-      <c r="B116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" t="s">
-        <v>208</v>
-      </c>
-      <c r="D116" t="s">
-        <v>290</v>
-      </c>
-      <c r="E116" t="s">
-        <v>323</v>
-      </c>
-      <c r="F116" s="2">
-        <v>43096</v>
-      </c>
-      <c r="G116" t="s">
-        <v>464</v>
-      </c>
-      <c r="H116" t="s">
-        <v>555</v>
-      </c>
-      <c r="I116" t="s">
-        <v>296</v>
-      </c>
-      <c r="J116" s="2">
-        <v>43353</v>
-      </c>
-      <c r="K116">
-        <v>90</v>
-      </c>
-      <c r="L116" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M116">
-        <v>103.5</v>
-      </c>
       <c r="N116">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -9612,199 +9609,199 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>158.5</v>
-      </c>
-      <c r="AC116" t="b">
+        <v>11</v>
+      </c>
+      <c r="AG116" t="b">
         <v>1</v>
       </c>
       <c r="AI116" s="2">
-        <v>43831</v>
+        <v>44095</v>
       </c>
       <c r="AJ116" s="2">
-        <v>43921</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D117" t="s">
         <v>290</v>
       </c>
       <c r="E117" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F117" s="2">
-        <v>43048</v>
+        <v>43162</v>
       </c>
       <c r="G117" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H117" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="I117" t="s">
-        <v>646</v>
+        <v>320</v>
       </c>
       <c r="J117" s="2">
-        <v>43591</v>
+        <v>44159</v>
       </c>
       <c r="K117">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="L117" s="2">
-        <v>44196</v>
+        <v>44162</v>
       </c>
       <c r="M117">
-        <v>487.25</v>
+        <v>22.5</v>
       </c>
       <c r="N117">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="O117">
         <v>0</v>
       </c>
       <c r="P117">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>576.5</v>
-      </c>
-      <c r="Z117" t="b">
+        <v>22.5</v>
+      </c>
+      <c r="AG117" t="b">
         <v>1</v>
       </c>
       <c r="AI117" s="2">
-        <v>43831</v>
+        <v>44159</v>
       </c>
       <c r="AJ117" s="2">
-        <v>44196</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D118" t="s">
         <v>290</v>
       </c>
       <c r="E118" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F118" s="2">
-        <v>42982</v>
+        <v>43200</v>
       </c>
       <c r="G118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H118" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="I118" t="s">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="J118" s="2">
-        <v>43348</v>
+        <v>44095</v>
       </c>
       <c r="K118">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="L118" s="2">
-        <v>44196</v>
+        <v>44096</v>
       </c>
       <c r="M118">
-        <v>935</v>
+        <v>9</v>
       </c>
       <c r="N118">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O118">
         <v>0</v>
       </c>
       <c r="P118">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>1103</v>
-      </c>
-      <c r="Z118" t="b">
+        <v>9</v>
+      </c>
+      <c r="AG118" t="b">
         <v>1</v>
       </c>
       <c r="AI118" s="2">
-        <v>43831</v>
+        <v>44095</v>
       </c>
       <c r="AJ118" s="2">
-        <v>44196</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="1">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D119" t="s">
         <v>290</v>
       </c>
       <c r="E119" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F119" s="2">
-        <v>42854</v>
+        <v>43365</v>
       </c>
       <c r="G119" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H119" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="J119" s="2">
-        <v>43283</v>
+        <v>44144</v>
       </c>
       <c r="K119">
-        <v>365</v>
+        <v>52</v>
       </c>
       <c r="L119" s="2">
         <v>44196</v>
       </c>
       <c r="M119">
-        <v>409.5</v>
+        <v>92</v>
       </c>
       <c r="N119">
-        <v>125</v>
+        <v>27.5</v>
       </c>
       <c r="O119">
         <v>0</v>
       </c>
       <c r="P119">
-        <v>65.5</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>600</v>
-      </c>
-      <c r="Z119" t="b">
+        <v>119.5</v>
+      </c>
+      <c r="AF119" t="b">
         <v>1</v>
       </c>
       <c r="AI119" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ119" s="2">
         <v>44196</v>
@@ -9812,46 +9809,46 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D120" t="s">
         <v>290</v>
       </c>
       <c r="E120" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F120" s="2">
-        <v>43578</v>
+        <v>42986</v>
       </c>
       <c r="G120" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H120" t="s">
-        <v>563</v>
+        <v>609</v>
       </c>
       <c r="I120" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J120" s="2">
-        <v>43871</v>
+        <v>43881</v>
       </c>
       <c r="K120">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="L120" s="2">
-        <v>43921</v>
+        <v>43957</v>
       </c>
       <c r="M120">
-        <v>81.5</v>
+        <v>24.75</v>
       </c>
       <c r="N120">
-        <v>84</v>
+        <v>247.25</v>
       </c>
       <c r="O120">
         <v>0</v>
@@ -9860,60 +9857,60 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>165.5</v>
-      </c>
-      <c r="AC120" t="b">
+        <v>272</v>
+      </c>
+      <c r="AE120" t="b">
         <v>1</v>
       </c>
       <c r="AI120" s="2">
-        <v>43871</v>
+        <v>43881</v>
       </c>
       <c r="AJ120" s="2">
-        <v>43921</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
         <v>290</v>
       </c>
       <c r="E121" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F121" s="2">
-        <v>42765</v>
+        <v>43096</v>
       </c>
       <c r="G121" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H121" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="I121" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="J121" s="2">
-        <v>43080</v>
+        <v>43353</v>
       </c>
       <c r="K121">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="L121" s="2">
-        <v>43957</v>
+        <v>43921</v>
       </c>
       <c r="M121">
-        <v>336</v>
+        <v>103.5</v>
       </c>
       <c r="N121">
-        <v>275.5</v>
+        <v>55</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -9922,78 +9919,78 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>611.5</v>
-      </c>
-      <c r="Y121" t="b">
+        <v>158.5</v>
+      </c>
+      <c r="AC121" t="b">
         <v>1</v>
       </c>
       <c r="AI121" s="2">
         <v>43831</v>
       </c>
       <c r="AJ121" s="2">
-        <v>43957</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
         <v>290</v>
       </c>
       <c r="E122" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F122" s="2">
-        <v>42771</v>
+        <v>43450</v>
       </c>
       <c r="G122" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="I122" t="s">
-        <v>324</v>
+        <v>645</v>
       </c>
       <c r="J122" s="2">
-        <v>43647</v>
+        <v>44172</v>
       </c>
       <c r="K122">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L122" s="2">
-        <v>44060</v>
+        <v>44172</v>
       </c>
       <c r="M122">
-        <v>217</v>
+        <v>7.75</v>
       </c>
       <c r="N122">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O122">
         <v>0</v>
       </c>
       <c r="P122">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>385</v>
-      </c>
-      <c r="Y122" t="b">
+        <v>7.75</v>
+      </c>
+      <c r="AG122" t="b">
         <v>1</v>
       </c>
       <c r="AI122" s="2">
-        <v>43831</v>
+        <v>44172</v>
       </c>
       <c r="AJ122" s="2">
-        <v>44060</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="123" spans="1:36">
@@ -10001,31 +9998,31 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D123" t="s">
         <v>290</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F123" s="2">
-        <v>42767</v>
+        <v>43374</v>
       </c>
       <c r="G123" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H123" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I123" t="s">
         <v>325</v>
       </c>
       <c r="J123" s="2">
-        <v>43290</v>
+        <v>43683</v>
       </c>
       <c r="K123">
         <v>126</v>
@@ -10034,21 +10031,21 @@
         <v>43957</v>
       </c>
       <c r="M123">
-        <v>228</v>
+        <v>175.75</v>
       </c>
       <c r="N123">
-        <v>258</v>
+        <v>204.25</v>
       </c>
       <c r="O123">
         <v>0</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="Q123">
-        <v>486</v>
-      </c>
-      <c r="Y123" t="b">
+        <v>665</v>
+      </c>
+      <c r="AG123" t="b">
         <v>1</v>
       </c>
       <c r="AI123" s="2">
@@ -10063,211 +10060,208 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D124" t="s">
         <v>290</v>
       </c>
       <c r="E124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F124" s="2">
-        <v>43235</v>
+        <v>43010</v>
       </c>
       <c r="G124" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H124" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="I124" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J124" s="2">
-        <v>43773</v>
+        <v>43761</v>
       </c>
       <c r="K124">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="L124" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M124">
-        <v>68</v>
+        <v>601</v>
       </c>
       <c r="N124">
-        <v>48</v>
+        <v>175.25</v>
       </c>
       <c r="O124">
         <v>0</v>
       </c>
       <c r="P124">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q124">
-        <v>116</v>
-      </c>
-      <c r="AC124" t="b">
+        <v>902.25</v>
+      </c>
+      <c r="Z124" t="b">
         <v>1</v>
       </c>
       <c r="AI124" s="2">
         <v>43831</v>
       </c>
       <c r="AJ124" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D125" t="s">
         <v>290</v>
       </c>
       <c r="E125" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F125" s="2">
-        <v>42755</v>
+        <v>42732</v>
       </c>
       <c r="G125" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H125" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="I125" t="s">
-        <v>644</v>
+        <v>324</v>
       </c>
       <c r="J125" s="2">
-        <v>43661</v>
+        <v>42979</v>
       </c>
       <c r="K125">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="L125" s="2">
-        <v>43951</v>
+        <v>44134</v>
       </c>
       <c r="M125">
-        <v>152.5</v>
+        <v>427.5</v>
       </c>
       <c r="N125">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="Q125">
-        <v>326.5</v>
+        <v>733</v>
       </c>
       <c r="Y125" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC125" t="b">
         <v>1</v>
       </c>
       <c r="AI125" s="2">
         <v>43831</v>
       </c>
       <c r="AJ125" s="2">
-        <v>43951</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
         <v>290</v>
       </c>
       <c r="E126" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F126" s="2">
-        <v>42732</v>
+        <v>43424</v>
       </c>
       <c r="G126" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H126" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="I126" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J126" s="2">
-        <v>42979</v>
+        <v>43864</v>
       </c>
       <c r="K126">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="L126" s="2">
-        <v>44134</v>
+        <v>43903</v>
       </c>
       <c r="M126">
-        <v>427.5</v>
+        <v>90</v>
       </c>
       <c r="N126">
-        <v>169</v>
+        <v>31.5</v>
       </c>
       <c r="O126">
         <v>0</v>
       </c>
       <c r="P126">
-        <v>136.5</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>733</v>
-      </c>
-      <c r="Y126" t="b">
+        <v>121.5</v>
+      </c>
+      <c r="AC126" t="b">
         <v>1</v>
       </c>
       <c r="AI126" s="2">
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="AJ126" s="2">
-        <v>44134</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
         <v>290</v>
       </c>
       <c r="E127" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F127" s="2">
-        <v>43424</v>
+        <v>43142</v>
       </c>
       <c r="G127" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H127" t="s">
         <v>603</v>
@@ -10285,10 +10279,10 @@
         <v>43903</v>
       </c>
       <c r="M127">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N127">
-        <v>31.5</v>
+        <v>42</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -10297,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>121.5</v>
+        <v>144</v>
       </c>
       <c r="AC127" t="b">
         <v>1</v>
@@ -10311,46 +10305,46 @@
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
         <v>290</v>
       </c>
       <c r="E128" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F128" s="2">
-        <v>43142</v>
+        <v>42767</v>
       </c>
       <c r="G128" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H128" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I128" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J128" s="2">
-        <v>43864</v>
+        <v>43290</v>
       </c>
       <c r="K128">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="L128" s="2">
-        <v>43903</v>
+        <v>43957</v>
       </c>
       <c r="M128">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="N128">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -10359,246 +10353,246 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>144</v>
-      </c>
-      <c r="AC128" t="b">
+        <v>486</v>
+      </c>
+      <c r="Y128" t="b">
         <v>1</v>
       </c>
       <c r="AI128" s="2">
-        <v>43864</v>
+        <v>43831</v>
       </c>
       <c r="AJ128" s="2">
-        <v>43903</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C129" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D129" t="s">
         <v>290</v>
       </c>
       <c r="E129" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F129" s="2">
-        <v>42672</v>
+        <v>43048</v>
       </c>
       <c r="G129" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H129" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="I129" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J129" s="2">
-        <v>43850</v>
+        <v>43591</v>
       </c>
       <c r="K129">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="L129" s="2">
-        <v>43861</v>
+        <v>44196</v>
       </c>
       <c r="M129">
-        <v>48.75</v>
+        <v>487.25</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="O129">
         <v>0</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Q129">
-        <v>48.75</v>
-      </c>
-      <c r="Y129" t="b">
+        <v>576.5</v>
+      </c>
+      <c r="Z129" t="b">
         <v>1</v>
       </c>
       <c r="AI129" s="2">
-        <v>43850</v>
+        <v>43831</v>
       </c>
       <c r="AJ129" s="2">
-        <v>43861</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="1">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" t="s">
+        <v>290</v>
+      </c>
+      <c r="E130" t="s">
+        <v>326</v>
+      </c>
+      <c r="F130" s="2">
+        <v>42982</v>
+      </c>
+      <c r="G130" t="s">
+        <v>476</v>
+      </c>
+      <c r="H130" t="s">
+        <v>562</v>
+      </c>
+      <c r="I130" t="s">
+        <v>327</v>
+      </c>
+      <c r="J130" s="2">
+        <v>43348</v>
+      </c>
+      <c r="K130">
+        <v>365</v>
+      </c>
+      <c r="L130" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M130">
+        <v>935</v>
+      </c>
+      <c r="N130">
+        <v>156</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
         <v>12</v>
       </c>
-      <c r="B130" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" t="s">
-        <v>290</v>
-      </c>
-      <c r="E130" t="s">
-        <v>329</v>
-      </c>
-      <c r="F130" s="2">
-        <v>42672</v>
-      </c>
-      <c r="G130" t="s">
-        <v>477</v>
-      </c>
-      <c r="H130" t="s">
-        <v>616</v>
-      </c>
-      <c r="I130" t="s">
-        <v>329</v>
-      </c>
-      <c r="J130" s="2">
-        <v>42957</v>
-      </c>
-      <c r="K130">
-        <v>258</v>
-      </c>
-      <c r="L130" s="2">
-        <v>44089</v>
-      </c>
-      <c r="M130">
-        <v>498</v>
-      </c>
-      <c r="N130">
-        <v>117</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <v>-89</v>
-      </c>
       <c r="Q130">
-        <v>526</v>
-      </c>
-      <c r="Y130" t="b">
+        <v>1103</v>
+      </c>
+      <c r="Z130" t="b">
         <v>1</v>
       </c>
       <c r="AI130" s="2">
         <v>43831</v>
       </c>
       <c r="AJ130" s="2">
-        <v>44089</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D131" t="s">
         <v>290</v>
       </c>
       <c r="E131" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F131" s="2">
-        <v>43167</v>
+        <v>42854</v>
       </c>
       <c r="G131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H131" t="s">
         <v>617</v>
       </c>
       <c r="I131" t="s">
-        <v>648</v>
+        <v>326</v>
       </c>
       <c r="J131" s="2">
-        <v>44187</v>
+        <v>43283</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="L131" s="2">
-        <v>44187</v>
+        <v>44196</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>409.5</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O131">
         <v>0</v>
       </c>
       <c r="P131">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="Q131">
-        <v>5</v>
-      </c>
-      <c r="AG131" t="b">
+        <v>600</v>
+      </c>
+      <c r="Z131" t="b">
         <v>1</v>
       </c>
       <c r="AI131" s="2">
-        <v>44187</v>
+        <v>43831</v>
       </c>
       <c r="AJ131" s="2">
-        <v>44187</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D132" t="s">
         <v>290</v>
       </c>
       <c r="E132" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F132" s="2">
-        <v>43224</v>
+        <v>43578</v>
       </c>
       <c r="G132" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H132" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="I132" t="s">
-        <v>648</v>
+        <v>326</v>
       </c>
       <c r="J132" s="2">
-        <v>44088</v>
+        <v>43871</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="L132" s="2">
-        <v>44092</v>
+        <v>43921</v>
       </c>
       <c r="M132">
-        <v>23.5</v>
+        <v>81.5</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -10607,60 +10601,60 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>23.5</v>
-      </c>
-      <c r="AG132" t="b">
+        <v>165.5</v>
+      </c>
+      <c r="AC132" t="b">
         <v>1</v>
       </c>
       <c r="AI132" s="2">
-        <v>44088</v>
+        <v>43871</v>
       </c>
       <c r="AJ132" s="2">
-        <v>44092</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D133" t="s">
         <v>290</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F133" s="2">
-        <v>42907</v>
+        <v>42765</v>
       </c>
       <c r="G133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H133" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I133" t="s">
-        <v>648</v>
+        <v>353</v>
       </c>
       <c r="J133" s="2">
-        <v>43872</v>
+        <v>43080</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="L133" s="2">
-        <v>43873</v>
+        <v>43957</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>336</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>275.5</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -10669,86 +10663,86 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>5.75</v>
-      </c>
-      <c r="AG133" t="b">
+        <v>611.5</v>
+      </c>
+      <c r="Y133" t="b">
         <v>1</v>
       </c>
       <c r="AI133" s="2">
-        <v>43872</v>
+        <v>43831</v>
       </c>
       <c r="AJ133" s="2">
-        <v>43873</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B134" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" t="s">
         <v>290</v>
       </c>
       <c r="E134" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F134" s="2">
-        <v>43162</v>
+        <v>42771</v>
       </c>
       <c r="G134" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H134" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I134" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J134" s="2">
-        <v>44095</v>
+        <v>43647</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="L134" s="2">
-        <v>44096</v>
+        <v>44060</v>
       </c>
       <c r="M134">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O134">
         <v>0</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q134">
-        <v>11</v>
-      </c>
-      <c r="AG134" t="b">
+        <v>385</v>
+      </c>
+      <c r="Y134" t="b">
         <v>1</v>
       </c>
       <c r="AI134" s="2">
-        <v>44095</v>
+        <v>43831</v>
       </c>
       <c r="AJ134" s="2">
-        <v>44096</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C135" t="s">
         <v>225</v>
@@ -10757,60 +10751,63 @@
         <v>290</v>
       </c>
       <c r="E135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F135" s="2">
-        <v>43162</v>
+        <v>43733</v>
       </c>
       <c r="G135" t="s">
         <v>481</v>
       </c>
       <c r="H135" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="I135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J135" s="2">
-        <v>44159</v>
+        <v>43889</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="L135" s="2">
-        <v>44162</v>
+        <v>43957</v>
       </c>
       <c r="M135">
-        <v>22.5</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="O135">
         <v>0</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="Q135">
-        <v>22.5</v>
-      </c>
-      <c r="AG135" t="b">
+        <v>272</v>
+      </c>
+      <c r="AB135" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE135" t="b">
         <v>1</v>
       </c>
       <c r="AI135" s="2">
-        <v>44159</v>
+        <v>43889</v>
       </c>
       <c r="AJ135" s="2">
-        <v>44162</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="1">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C136" t="s">
         <v>226</v>
@@ -10819,34 +10816,34 @@
         <v>290</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F136" s="2">
-        <v>43200</v>
+        <v>43235</v>
       </c>
       <c r="G136" t="s">
         <v>482</v>
       </c>
       <c r="H136" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="I136" t="s">
-        <v>648</v>
+        <v>328</v>
       </c>
       <c r="J136" s="2">
-        <v>44095</v>
+        <v>43773</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="L136" s="2">
-        <v>44096</v>
+        <v>43921</v>
       </c>
       <c r="M136">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -10855,21 +10852,21 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>9</v>
-      </c>
-      <c r="AG136" t="b">
+        <v>116</v>
+      </c>
+      <c r="AC136" t="b">
         <v>1</v>
       </c>
       <c r="AI136" s="2">
-        <v>44095</v>
+        <v>43831</v>
       </c>
       <c r="AJ136" s="2">
-        <v>44096</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="1">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
         <v>73</v>
@@ -10884,31 +10881,31 @@
         <v>329</v>
       </c>
       <c r="F137" s="2">
-        <v>43365</v>
+        <v>42755</v>
       </c>
       <c r="G137" t="s">
         <v>483</v>
       </c>
       <c r="H137" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="I137" t="s">
-        <v>344</v>
+        <v>644</v>
       </c>
       <c r="J137" s="2">
-        <v>44144</v>
+        <v>43661</v>
       </c>
       <c r="K137">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="L137" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
       <c r="M137">
-        <v>92</v>
+        <v>152.5</v>
       </c>
       <c r="N137">
-        <v>27.5</v>
+        <v>174</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -10917,16 +10914,19 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>119.5</v>
-      </c>
-      <c r="AF137" t="b">
+        <v>326.5</v>
+      </c>
+      <c r="Y137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC137" t="b">
         <v>1</v>
       </c>
       <c r="AI137" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ137" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="138" spans="1:36">
@@ -10946,57 +10946,57 @@
         <v>330</v>
       </c>
       <c r="F138" s="2">
-        <v>42747</v>
+        <v>42968</v>
       </c>
       <c r="G138" t="s">
         <v>484</v>
       </c>
       <c r="H138" t="s">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="I138" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="J138" s="2">
-        <v>43833</v>
+        <v>43871</v>
       </c>
       <c r="K138">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="L138" s="2">
-        <v>44083</v>
+        <v>43950</v>
       </c>
       <c r="M138">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="N138">
-        <v>124.5</v>
+        <v>90</v>
       </c>
       <c r="O138">
         <v>0</v>
       </c>
       <c r="P138">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>498</v>
-      </c>
-      <c r="Y138" t="b">
+        <v>102</v>
+      </c>
+      <c r="AC138" t="b">
         <v>1</v>
       </c>
       <c r="AI138" s="2">
-        <v>43833</v>
+        <v>43871</v>
       </c>
       <c r="AJ138" s="2">
-        <v>44083</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="139" spans="1:36">
       <c r="A139" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C139" t="s">
         <v>229</v>
@@ -11005,49 +11005,49 @@
         <v>290</v>
       </c>
       <c r="E139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F139" s="2">
-        <v>43525</v>
+        <v>42924</v>
       </c>
       <c r="G139" t="s">
         <v>485</v>
       </c>
       <c r="H139" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I139" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J139" s="2">
-        <v>43913</v>
+        <v>43276</v>
       </c>
       <c r="K139">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="L139" s="2">
         <v>44196</v>
       </c>
       <c r="M139">
-        <v>544.5</v>
+        <v>780.5</v>
       </c>
       <c r="N139">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="O139">
         <v>0</v>
       </c>
       <c r="P139">
-        <v>25</v>
+        <v>94.75</v>
       </c>
       <c r="Q139">
-        <v>576.5</v>
-      </c>
-      <c r="AA139" t="b">
+        <v>1107.25</v>
+      </c>
+      <c r="Z139" t="b">
         <v>1</v>
       </c>
       <c r="AI139" s="2">
-        <v>43913</v>
+        <v>43831</v>
       </c>
       <c r="AJ139" s="2">
         <v>44196</v>
@@ -11055,10 +11055,10 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C140" t="s">
         <v>230</v>
@@ -11067,60 +11067,60 @@
         <v>290</v>
       </c>
       <c r="E140" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F140" s="2">
-        <v>43596</v>
+        <v>42747</v>
       </c>
       <c r="G140" t="s">
         <v>486</v>
       </c>
       <c r="H140" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I140" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J140" s="2">
-        <v>43906</v>
+        <v>43833</v>
       </c>
       <c r="K140">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="L140" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
       <c r="M140">
-        <v>521.75</v>
+        <v>272</v>
       </c>
       <c r="N140">
-        <v>20.75</v>
+        <v>124.5</v>
       </c>
       <c r="O140">
         <v>0</v>
       </c>
       <c r="P140">
-        <v>23.75</v>
+        <v>101.5</v>
       </c>
       <c r="Q140">
-        <v>566.25</v>
-      </c>
-      <c r="AA140" t="b">
+        <v>498</v>
+      </c>
+      <c r="Y140" t="b">
         <v>1</v>
       </c>
       <c r="AI140" s="2">
-        <v>43906</v>
+        <v>43833</v>
       </c>
       <c r="AJ140" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="141" spans="1:36">
       <c r="A141" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C141" t="s">
         <v>231</v>
@@ -11129,60 +11129,60 @@
         <v>290</v>
       </c>
       <c r="E141" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F141" s="2">
-        <v>42584</v>
+        <v>43525</v>
       </c>
       <c r="G141" t="s">
         <v>487</v>
       </c>
       <c r="H141" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="I141" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J141" s="2">
-        <v>43070</v>
+        <v>43913</v>
       </c>
       <c r="K141">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="L141" s="2">
-        <v>44015</v>
+        <v>44196</v>
       </c>
       <c r="M141">
-        <v>470.75</v>
+        <v>544.5</v>
       </c>
       <c r="N141">
-        <v>268.5</v>
+        <v>7</v>
       </c>
       <c r="O141">
         <v>0</v>
       </c>
       <c r="P141">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="Q141">
-        <v>788.25</v>
-      </c>
-      <c r="Y141" t="b">
+        <v>576.5</v>
+      </c>
+      <c r="AA141" t="b">
         <v>1</v>
       </c>
       <c r="AI141" s="2">
-        <v>43831</v>
+        <v>43913</v>
       </c>
       <c r="AJ141" s="2">
-        <v>44015</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C142" t="s">
         <v>232</v>
@@ -11191,49 +11191,49 @@
         <v>290</v>
       </c>
       <c r="E142" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F142" s="2">
-        <v>42924</v>
+        <v>43596</v>
       </c>
       <c r="G142" t="s">
         <v>488</v>
       </c>
       <c r="H142" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="I142" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J142" s="2">
-        <v>43276</v>
+        <v>43906</v>
       </c>
       <c r="K142">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="L142" s="2">
         <v>44196</v>
       </c>
       <c r="M142">
-        <v>780.5</v>
+        <v>521.75</v>
       </c>
       <c r="N142">
-        <v>232</v>
+        <v>20.75</v>
       </c>
       <c r="O142">
         <v>0</v>
       </c>
       <c r="P142">
-        <v>94.75</v>
+        <v>23.75</v>
       </c>
       <c r="Q142">
-        <v>1107.25</v>
-      </c>
-      <c r="Z142" t="b">
+        <v>566.25</v>
+      </c>
+      <c r="AA142" t="b">
         <v>1</v>
       </c>
       <c r="AI142" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AJ142" s="2">
         <v>44196</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
         <v>76</v>
@@ -11256,7 +11256,7 @@
         <v>332</v>
       </c>
       <c r="F143" s="2">
-        <v>42833</v>
+        <v>42584</v>
       </c>
       <c r="G143" t="s">
         <v>489</v>
@@ -11265,48 +11265,48 @@
         <v>621</v>
       </c>
       <c r="I143" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J143" s="2">
-        <v>43701</v>
+        <v>43070</v>
       </c>
       <c r="K143">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="L143" s="2">
-        <v>43921</v>
+        <v>44015</v>
       </c>
       <c r="M143">
-        <v>299.25</v>
+        <v>470.75</v>
       </c>
       <c r="N143">
-        <v>135</v>
+        <v>268.5</v>
       </c>
       <c r="O143">
         <v>0</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q143">
-        <v>434.25</v>
-      </c>
-      <c r="AC143" t="b">
+        <v>788.25</v>
+      </c>
+      <c r="Y143" t="b">
         <v>1</v>
       </c>
       <c r="AI143" s="2">
         <v>43831</v>
       </c>
       <c r="AJ143" s="2">
-        <v>43921</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="144" spans="1:36">
       <c r="A144" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
         <v>234</v>
@@ -11315,60 +11315,60 @@
         <v>290</v>
       </c>
       <c r="E144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F144" s="2">
-        <v>43505</v>
+        <v>42765</v>
       </c>
       <c r="G144" t="s">
         <v>490</v>
       </c>
       <c r="H144" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J144" s="2">
-        <v>43839</v>
+        <v>43160</v>
       </c>
       <c r="K144">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="L144" s="2">
-        <v>43921</v>
+        <v>44078</v>
       </c>
       <c r="M144">
-        <v>182.5</v>
+        <v>429.75</v>
       </c>
       <c r="N144">
-        <v>84</v>
+        <v>193.5</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="Q144">
-        <v>266.5</v>
-      </c>
-      <c r="AC144" t="b">
+        <v>656.5</v>
+      </c>
+      <c r="Y144" t="b">
         <v>1</v>
       </c>
       <c r="AI144" s="2">
-        <v>43839</v>
+        <v>43831</v>
       </c>
       <c r="AJ144" s="2">
-        <v>43921</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
         <v>235</v>
@@ -11377,60 +11377,63 @@
         <v>290</v>
       </c>
       <c r="E145" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F145" s="2">
-        <v>43489</v>
+        <v>43661</v>
       </c>
       <c r="G145" t="s">
         <v>491</v>
       </c>
       <c r="H145" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I145" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J145" s="2">
-        <v>43746</v>
+        <v>43893</v>
       </c>
       <c r="K145">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="L145" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M145">
-        <v>283.5</v>
+        <v>360.5</v>
       </c>
       <c r="N145">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="O145">
         <v>0</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>207.25</v>
       </c>
       <c r="Q145">
-        <v>418.5</v>
-      </c>
-      <c r="AC145" t="b">
+        <v>735.75</v>
+      </c>
+      <c r="AB145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE145" t="b">
         <v>1</v>
       </c>
       <c r="AI145" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ145" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C146" t="s">
         <v>236</v>
@@ -11439,57 +11442,57 @@
         <v>290</v>
       </c>
       <c r="E146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F146" s="2">
-        <v>43405</v>
+        <v>42833</v>
       </c>
       <c r="G146" t="s">
         <v>492</v>
       </c>
       <c r="H146" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J146" s="2">
-        <v>43710</v>
+        <v>43701</v>
       </c>
       <c r="K146">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="L146" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="M146">
-        <v>1454.5</v>
+        <v>299.25</v>
       </c>
       <c r="N146">
-        <v>465.5</v>
+        <v>135</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>2107</v>
-      </c>
-      <c r="AG146" t="b">
+        <v>434.25</v>
+      </c>
+      <c r="AC146" t="b">
         <v>1</v>
       </c>
       <c r="AI146" s="2">
         <v>43831</v>
       </c>
       <c r="AJ146" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
         <v>78</v>
@@ -11504,7 +11507,7 @@
         <v>334</v>
       </c>
       <c r="F147" s="2">
-        <v>42968</v>
+        <v>43505</v>
       </c>
       <c r="G147" t="s">
         <v>493</v>
@@ -11513,22 +11516,22 @@
         <v>623</v>
       </c>
       <c r="I147" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="J147" s="2">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="K147">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L147" s="2">
-        <v>43950</v>
+        <v>43921</v>
       </c>
       <c r="M147">
-        <v>12</v>
+        <v>182.5</v>
       </c>
       <c r="N147">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -11537,24 +11540,24 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>102</v>
+        <v>266.5</v>
       </c>
       <c r="AC147" t="b">
         <v>1</v>
       </c>
       <c r="AI147" s="2">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="AJ147" s="2">
-        <v>43950</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C148" t="s">
         <v>238</v>
@@ -11563,57 +11566,57 @@
         <v>290</v>
       </c>
       <c r="E148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F148" s="2">
-        <v>42765</v>
+        <v>43489</v>
       </c>
       <c r="G148" t="s">
         <v>494</v>
       </c>
       <c r="H148" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J148" s="2">
-        <v>43160</v>
+        <v>43746</v>
       </c>
       <c r="K148">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="L148" s="2">
-        <v>44078</v>
+        <v>43921</v>
       </c>
       <c r="M148">
-        <v>429.75</v>
+        <v>283.5</v>
       </c>
       <c r="N148">
-        <v>193.5</v>
+        <v>135</v>
       </c>
       <c r="O148">
         <v>0</v>
       </c>
       <c r="P148">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <v>656.5</v>
-      </c>
-      <c r="Y148" t="b">
+        <v>418.5</v>
+      </c>
+      <c r="AC148" t="b">
         <v>1</v>
       </c>
       <c r="AI148" s="2">
         <v>43831</v>
       </c>
       <c r="AJ148" s="2">
-        <v>44078</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>79</v>
@@ -11628,7 +11631,7 @@
         <v>335</v>
       </c>
       <c r="F149" s="2">
-        <v>43661</v>
+        <v>43405</v>
       </c>
       <c r="G149" t="s">
         <v>495</v>
@@ -11640,37 +11643,34 @@
         <v>335</v>
       </c>
       <c r="J149" s="2">
-        <v>43893</v>
+        <v>43710</v>
       </c>
       <c r="K149">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="L149" s="2">
         <v>44196</v>
       </c>
       <c r="M149">
-        <v>360.5</v>
+        <v>1454.5</v>
       </c>
       <c r="N149">
-        <v>168</v>
+        <v>465.5</v>
       </c>
       <c r="O149">
         <v>0</v>
       </c>
       <c r="P149">
-        <v>207.25</v>
+        <v>187</v>
       </c>
       <c r="Q149">
-        <v>735.75</v>
-      </c>
-      <c r="AB149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE149" t="b">
+        <v>2107</v>
+      </c>
+      <c r="AG149" t="b">
         <v>1</v>
       </c>
       <c r="AI149" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ149" s="2">
         <v>44196</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
         <v>81</v>
@@ -11941,7 +11941,7 @@
         <v>337</v>
       </c>
       <c r="F154" s="2">
-        <v>42746</v>
+        <v>43506</v>
       </c>
       <c r="G154" t="s">
         <v>500</v>
@@ -11953,42 +11953,42 @@
         <v>337</v>
       </c>
       <c r="J154" s="2">
-        <v>43437</v>
+        <v>43906</v>
       </c>
       <c r="K154">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="L154" s="2">
-        <v>43993</v>
+        <v>44196</v>
       </c>
       <c r="M154">
-        <v>242.75</v>
+        <v>443.5</v>
       </c>
       <c r="N154">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="Q154">
-        <v>476.75</v>
-      </c>
-      <c r="Y154" t="b">
+        <v>746.5</v>
+      </c>
+      <c r="AA154" t="b">
         <v>1</v>
       </c>
       <c r="AI154" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AJ154" s="2">
-        <v>43993</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B155" t="s">
         <v>81</v>
@@ -12003,54 +12003,54 @@
         <v>337</v>
       </c>
       <c r="F155" s="2">
-        <v>43050</v>
+        <v>42774</v>
       </c>
       <c r="G155" t="s">
         <v>501</v>
       </c>
       <c r="H155" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="I155" t="s">
         <v>337</v>
       </c>
       <c r="J155" s="2">
-        <v>43913</v>
+        <v>43136</v>
       </c>
       <c r="K155">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="L155" s="2">
-        <v>43951</v>
+        <v>44103</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>394.5</v>
       </c>
       <c r="N155">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="O155">
         <v>0</v>
       </c>
       <c r="P155">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Q155">
-        <v>57</v>
-      </c>
-      <c r="AC155" t="b">
+        <v>543</v>
+      </c>
+      <c r="Y155" t="b">
         <v>1</v>
       </c>
       <c r="AI155" s="2">
-        <v>43913</v>
+        <v>43831</v>
       </c>
       <c r="AJ155" s="2">
-        <v>43951</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
         <v>82</v>
@@ -12065,54 +12065,54 @@
         <v>338</v>
       </c>
       <c r="F156" s="2">
-        <v>42921</v>
+        <v>42746</v>
       </c>
       <c r="G156" t="s">
         <v>502</v>
       </c>
       <c r="H156" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="I156" t="s">
         <v>338</v>
       </c>
       <c r="J156" s="2">
-        <v>43179</v>
+        <v>43437</v>
       </c>
       <c r="K156">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="L156" s="2">
-        <v>44092</v>
+        <v>43993</v>
       </c>
       <c r="M156">
-        <v>528</v>
+        <v>242.75</v>
       </c>
       <c r="N156">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="O156">
         <v>0</v>
       </c>
       <c r="P156">
-        <v>205.5</v>
+        <v>45</v>
       </c>
       <c r="Q156">
-        <v>1013.5</v>
-      </c>
-      <c r="Z156" t="b">
+        <v>476.75</v>
+      </c>
+      <c r="Y156" t="b">
         <v>1</v>
       </c>
       <c r="AI156" s="2">
         <v>43831</v>
       </c>
       <c r="AJ156" s="2">
-        <v>44092</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B157" t="s">
         <v>82</v>
@@ -12127,57 +12127,57 @@
         <v>338</v>
       </c>
       <c r="F157" s="2">
-        <v>43098</v>
+        <v>43050</v>
       </c>
       <c r="G157" t="s">
         <v>503</v>
       </c>
       <c r="H157" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="I157" t="s">
         <v>338</v>
       </c>
       <c r="J157" s="2">
-        <v>43319</v>
+        <v>43913</v>
       </c>
       <c r="K157">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="L157" s="2">
-        <v>44090</v>
+        <v>43951</v>
       </c>
       <c r="M157">
-        <v>471.25</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>227.5</v>
+        <v>57</v>
       </c>
       <c r="O157">
         <v>0</v>
       </c>
       <c r="P157">
-        <v>148.5</v>
+        <v>0</v>
       </c>
       <c r="Q157">
-        <v>847.25</v>
-      </c>
-      <c r="Z157" t="b">
+        <v>57</v>
+      </c>
+      <c r="AC157" t="b">
         <v>1</v>
       </c>
       <c r="AI157" s="2">
-        <v>43831</v>
+        <v>43913</v>
       </c>
       <c r="AJ157" s="2">
-        <v>44090</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="158" spans="1:36">
       <c r="A158" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
         <v>248</v>
@@ -12186,43 +12186,43 @@
         <v>290</v>
       </c>
       <c r="E158" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F158" s="2">
-        <v>43066</v>
+        <v>42921</v>
       </c>
       <c r="G158" t="s">
         <v>504</v>
       </c>
       <c r="H158" t="s">
-        <v>629</v>
+        <v>553</v>
       </c>
       <c r="I158" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J158" s="2">
-        <v>43556</v>
+        <v>43179</v>
       </c>
       <c r="K158">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L158" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M158">
-        <v>425</v>
+        <v>528</v>
       </c>
       <c r="N158">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="O158">
         <v>0</v>
       </c>
       <c r="P158">
-        <v>-90</v>
+        <v>205.5</v>
       </c>
       <c r="Q158">
-        <v>505</v>
+        <v>1013.5</v>
       </c>
       <c r="Z158" t="b">
         <v>1</v>
@@ -12231,12 +12231,12 @@
         <v>43831</v>
       </c>
       <c r="AJ158" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
         <v>83</v>
@@ -12251,54 +12251,54 @@
         <v>339</v>
       </c>
       <c r="F159" s="2">
-        <v>43506</v>
+        <v>43098</v>
       </c>
       <c r="G159" t="s">
         <v>505</v>
       </c>
       <c r="H159" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
       <c r="I159" t="s">
         <v>339</v>
       </c>
       <c r="J159" s="2">
-        <v>43906</v>
+        <v>43319</v>
       </c>
       <c r="K159">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="L159" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
       <c r="M159">
-        <v>443.5</v>
+        <v>471.25</v>
       </c>
       <c r="N159">
-        <v>139</v>
+        <v>227.5</v>
       </c>
       <c r="O159">
         <v>0</v>
       </c>
       <c r="P159">
-        <v>164</v>
+        <v>148.5</v>
       </c>
       <c r="Q159">
-        <v>746.5</v>
-      </c>
-      <c r="AA159" t="b">
+        <v>847.25</v>
+      </c>
+      <c r="Z159" t="b">
         <v>1</v>
       </c>
       <c r="AI159" s="2">
-        <v>43906</v>
+        <v>43831</v>
       </c>
       <c r="AJ159" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B160" t="s">
         <v>83</v>
@@ -12313,49 +12313,49 @@
         <v>339</v>
       </c>
       <c r="F160" s="2">
-        <v>42774</v>
+        <v>43066</v>
       </c>
       <c r="G160" t="s">
         <v>506</v>
       </c>
       <c r="H160" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="I160" t="s">
         <v>339</v>
       </c>
       <c r="J160" s="2">
-        <v>43136</v>
+        <v>43556</v>
       </c>
       <c r="K160">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L160" s="2">
-        <v>44103</v>
+        <v>44091</v>
       </c>
       <c r="M160">
-        <v>394.5</v>
+        <v>425</v>
       </c>
       <c r="N160">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
-        <v>19.5</v>
+        <v>-90</v>
       </c>
       <c r="Q160">
-        <v>543</v>
-      </c>
-      <c r="Y160" t="b">
+        <v>505</v>
+      </c>
+      <c r="Z160" t="b">
         <v>1</v>
       </c>
       <c r="AI160" s="2">
         <v>43831</v>
       </c>
       <c r="AJ160" s="2">
-        <v>44103</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="161" spans="1:36">
@@ -12487,7 +12487,7 @@
     </row>
     <row r="163" spans="1:36">
       <c r="A163" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
         <v>85</v>
@@ -12502,31 +12502,31 @@
         <v>341</v>
       </c>
       <c r="F163" s="2">
-        <v>43062</v>
+        <v>42975</v>
       </c>
       <c r="G163" t="s">
         <v>509</v>
       </c>
       <c r="H163" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="I163" t="s">
         <v>650</v>
       </c>
       <c r="J163" s="2">
-        <v>44083</v>
+        <v>44166</v>
       </c>
       <c r="K163">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="L163" s="2">
         <v>44196</v>
       </c>
       <c r="M163">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="N163">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -12535,13 +12535,13 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>213.75</v>
+        <v>69</v>
       </c>
       <c r="Z163" t="b">
         <v>1</v>
       </c>
       <c r="AI163" s="2">
-        <v>44083</v>
+        <v>44166</v>
       </c>
       <c r="AJ163" s="2">
         <v>44196</v>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="164" spans="1:36">
       <c r="A164" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
         <v>86</v>
@@ -12564,49 +12564,49 @@
         <v>342</v>
       </c>
       <c r="F164" s="2">
-        <v>42692</v>
+        <v>43140</v>
       </c>
       <c r="G164" t="s">
         <v>510</v>
       </c>
       <c r="H164" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="I164" t="s">
-        <v>646</v>
+        <v>316</v>
       </c>
       <c r="J164" s="2">
-        <v>43360</v>
+        <v>43893</v>
       </c>
       <c r="K164">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="L164" s="2">
-        <v>44074</v>
+        <v>43957</v>
       </c>
       <c r="M164">
-        <v>418.75</v>
+        <v>6.25</v>
       </c>
       <c r="N164">
-        <v>143.5</v>
+        <v>112.5</v>
       </c>
       <c r="O164">
         <v>0</v>
       </c>
       <c r="P164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q164">
-        <v>561.75</v>
-      </c>
-      <c r="Y164" t="b">
+        <v>118.75</v>
+      </c>
+      <c r="AE164" t="b">
         <v>1</v>
       </c>
       <c r="AI164" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ164" s="2">
-        <v>44074</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="165" spans="1:36">
@@ -12614,7 +12614,7 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C165" t="s">
         <v>255</v>
@@ -12623,60 +12623,60 @@
         <v>290</v>
       </c>
       <c r="E165" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F165" s="2">
-        <v>42768</v>
+        <v>43678</v>
       </c>
       <c r="G165" t="s">
         <v>511</v>
       </c>
       <c r="H165" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="I165" t="s">
-        <v>646</v>
+        <v>293</v>
       </c>
       <c r="J165" s="2">
-        <v>43535</v>
+        <v>43837</v>
       </c>
       <c r="K165">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="L165" s="2">
-        <v>44049</v>
+        <v>43957</v>
       </c>
       <c r="M165">
-        <v>200.75</v>
+        <v>248.75</v>
       </c>
       <c r="N165">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="O165">
         <v>0</v>
       </c>
       <c r="P165">
-        <v>51.5</v>
+        <v>127</v>
       </c>
       <c r="Q165">
-        <v>356.25</v>
-      </c>
-      <c r="Y165" t="b">
+        <v>685.75</v>
+      </c>
+      <c r="AG165" t="b">
         <v>1</v>
       </c>
       <c r="AI165" s="2">
-        <v>43831</v>
+        <v>43837</v>
       </c>
       <c r="AJ165" s="2">
-        <v>44049</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="166" spans="1:36">
       <c r="A166" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C166" t="s">
         <v>256</v>
@@ -12685,34 +12685,34 @@
         <v>290</v>
       </c>
       <c r="E166" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F166" s="2">
-        <v>42705</v>
+        <v>43117</v>
       </c>
       <c r="G166" t="s">
         <v>512</v>
       </c>
       <c r="H166" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I166" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="J166" s="2">
-        <v>43703</v>
+        <v>43483</v>
       </c>
       <c r="K166">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="L166" s="2">
-        <v>43882</v>
+        <v>43945</v>
       </c>
       <c r="M166">
-        <v>122.5</v>
+        <v>134.25</v>
       </c>
       <c r="N166">
-        <v>0</v>
+        <v>129.5</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -12721,24 +12721,24 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>122.5</v>
-      </c>
-      <c r="Y166" t="b">
+        <v>263.75</v>
+      </c>
+      <c r="AC166" t="b">
         <v>1</v>
       </c>
       <c r="AI166" s="2">
         <v>43831</v>
       </c>
       <c r="AJ166" s="2">
-        <v>43882</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="167" spans="1:36">
       <c r="A167" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C167" t="s">
         <v>257</v>
@@ -12747,34 +12747,34 @@
         <v>290</v>
       </c>
       <c r="E167" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F167" s="2">
-        <v>42931</v>
+        <v>43497</v>
       </c>
       <c r="G167" t="s">
         <v>513</v>
       </c>
       <c r="H167" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="I167" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="J167" s="2">
-        <v>43773</v>
+        <v>44060</v>
       </c>
       <c r="K167">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="L167" s="2">
-        <v>43950</v>
+        <v>44071</v>
       </c>
       <c r="M167">
-        <v>102</v>
+        <v>71.5</v>
       </c>
       <c r="N167">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -12783,57 +12783,57 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>198</v>
-      </c>
-      <c r="AC167" t="b">
+        <v>71.5</v>
+      </c>
+      <c r="AG167" t="b">
         <v>1</v>
       </c>
       <c r="AI167" s="2">
-        <v>43831</v>
+        <v>44060</v>
       </c>
       <c r="AJ167" s="2">
-        <v>43950</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="168" spans="1:36">
       <c r="A168" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D168" t="s">
         <v>290</v>
       </c>
       <c r="E168" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F168" s="2">
-        <v>42975</v>
+        <v>43497</v>
       </c>
       <c r="G168" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H168" t="s">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="I168" t="s">
-        <v>651</v>
+        <v>314</v>
       </c>
       <c r="J168" s="2">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="K168">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L168" s="2">
-        <v>44196</v>
+        <v>44162</v>
       </c>
       <c r="M168">
-        <v>69</v>
+        <v>26.5</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -12845,27 +12845,27 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>69</v>
-      </c>
-      <c r="Z168" t="b">
+        <v>26.5</v>
+      </c>
+      <c r="AG168" t="b">
         <v>1</v>
       </c>
       <c r="AI168" s="2">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="AJ168" s="2">
-        <v>44196</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="169" spans="1:36">
       <c r="A169" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
         <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D169" t="s">
         <v>290</v>
@@ -12874,111 +12874,108 @@
         <v>345</v>
       </c>
       <c r="F169" s="2">
-        <v>42926</v>
+        <v>43497</v>
       </c>
       <c r="G169" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H169" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="I169" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J169" s="2">
-        <v>43874</v>
+        <v>43832</v>
       </c>
       <c r="K169">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="L169" s="2">
-        <v>44057</v>
+        <v>43957</v>
       </c>
       <c r="M169">
-        <v>170</v>
+        <v>189.75</v>
       </c>
       <c r="N169">
-        <v>168.5</v>
+        <v>270.5</v>
       </c>
       <c r="O169">
         <v>0</v>
       </c>
       <c r="P169">
-        <v>131.5</v>
+        <v>332.5</v>
       </c>
       <c r="Q169">
-        <v>470</v>
-      </c>
-      <c r="AB169" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE169" t="b">
+        <v>792.75</v>
+      </c>
+      <c r="AG169" t="b">
         <v>1</v>
       </c>
       <c r="AI169" s="2">
-        <v>43874</v>
+        <v>43832</v>
       </c>
       <c r="AJ169" s="2">
-        <v>44057</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="170" spans="1:36">
       <c r="A170" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C170" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D170" t="s">
         <v>290</v>
       </c>
       <c r="E170" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F170" s="2">
-        <v>43678</v>
+        <v>43515</v>
       </c>
       <c r="G170" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H170" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="I170" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="J170" s="2">
-        <v>43837</v>
+        <v>43794</v>
       </c>
       <c r="K170">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L170" s="2">
         <v>43957</v>
       </c>
       <c r="M170">
-        <v>248.75</v>
+        <v>173.5</v>
       </c>
       <c r="N170">
-        <v>310</v>
+        <v>279.5</v>
       </c>
       <c r="O170">
         <v>0</v>
       </c>
       <c r="P170">
-        <v>127</v>
+        <v>364.5</v>
       </c>
       <c r="Q170">
-        <v>685.75</v>
+        <v>817.5</v>
       </c>
       <c r="AG170" t="b">
         <v>1</v>
       </c>
       <c r="AI170" s="2">
-        <v>43837</v>
+        <v>43831</v>
       </c>
       <c r="AJ170" s="2">
         <v>43957</v>
@@ -12986,108 +12983,108 @@
     </row>
     <row r="171" spans="1:36">
       <c r="A171" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C171" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D171" t="s">
         <v>290</v>
       </c>
       <c r="E171" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F171" s="2">
-        <v>43050</v>
+        <v>43228</v>
       </c>
       <c r="G171" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H171" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="I171" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="J171" s="2">
-        <v>43346</v>
+        <v>44078</v>
       </c>
       <c r="K171">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="L171" s="2">
-        <v>44098</v>
+        <v>44078</v>
       </c>
       <c r="M171">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="N171">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="O171">
         <v>0</v>
       </c>
       <c r="P171">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="Q171">
-        <v>466.5</v>
-      </c>
-      <c r="Z171" t="b">
+        <v>8</v>
+      </c>
+      <c r="AG171" t="b">
         <v>1</v>
       </c>
       <c r="AI171" s="2">
-        <v>43831</v>
+        <v>44078</v>
       </c>
       <c r="AJ171" s="2">
-        <v>44098</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="172" spans="1:36">
       <c r="A172" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C172" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D172" t="s">
         <v>290</v>
       </c>
       <c r="E172" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F172" s="2">
-        <v>42750</v>
+        <v>43228</v>
       </c>
       <c r="G172" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H172" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="I172" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="J172" s="2">
-        <v>43510</v>
+        <v>44064</v>
       </c>
       <c r="K172">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L172" s="2">
-        <v>43957</v>
+        <v>44064</v>
       </c>
       <c r="M172">
-        <v>189.5</v>
+        <v>7</v>
       </c>
       <c r="N172">
-        <v>202.5</v>
+        <v>0</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -13096,57 +13093,57 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>392</v>
-      </c>
-      <c r="Y172" t="b">
+        <v>7</v>
+      </c>
+      <c r="AG172" t="b">
         <v>1</v>
       </c>
       <c r="AI172" s="2">
-        <v>43831</v>
+        <v>44064</v>
       </c>
       <c r="AJ172" s="2">
-        <v>43957</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="173" spans="1:36">
       <c r="A173" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C173" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D173" t="s">
         <v>290</v>
       </c>
       <c r="E173" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F173" s="2">
-        <v>42592</v>
+        <v>43228</v>
       </c>
       <c r="G173" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H173" t="s">
-        <v>634</v>
+        <v>551</v>
       </c>
       <c r="I173" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="J173" s="2">
-        <v>43409</v>
+        <v>43892</v>
       </c>
       <c r="K173">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L173" s="2">
-        <v>43847</v>
+        <v>43894</v>
       </c>
       <c r="M173">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -13158,60 +13155,60 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>32.5</v>
-      </c>
-      <c r="Y173" t="b">
+        <v>15</v>
+      </c>
+      <c r="AG173" t="b">
         <v>1</v>
       </c>
       <c r="AI173" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AJ173" s="2">
-        <v>43847</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="174" spans="1:36">
       <c r="A174" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C174" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D174" t="s">
         <v>290</v>
       </c>
       <c r="E174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F174" s="2">
-        <v>43140</v>
+        <v>43062</v>
       </c>
       <c r="G174" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H174" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="I174" t="s">
-        <v>316</v>
+        <v>651</v>
       </c>
       <c r="J174" s="2">
-        <v>43893</v>
+        <v>44083</v>
       </c>
       <c r="K174">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="L174" s="2">
-        <v>43957</v>
+        <v>44196</v>
       </c>
       <c r="M174">
-        <v>6.25</v>
+        <v>200</v>
       </c>
       <c r="N174">
-        <v>112.5</v>
+        <v>13.75</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -13220,275 +13217,275 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>118.75</v>
-      </c>
-      <c r="AE174" t="b">
+        <v>213.75</v>
+      </c>
+      <c r="Z174" t="b">
         <v>1</v>
       </c>
       <c r="AI174" s="2">
-        <v>43893</v>
+        <v>44083</v>
       </c>
       <c r="AJ174" s="2">
-        <v>43957</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="175" spans="1:36">
       <c r="A175" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C175" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D175" t="s">
         <v>290</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" s="2">
-        <v>43497</v>
+        <v>42692</v>
       </c>
       <c r="G175" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H175" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="I175" t="s">
-        <v>298</v>
+        <v>646</v>
       </c>
       <c r="J175" s="2">
-        <v>44060</v>
+        <v>43360</v>
       </c>
       <c r="K175">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="L175" s="2">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="M175">
-        <v>71.5</v>
+        <v>418.75</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>143.5</v>
       </c>
       <c r="O175">
         <v>0</v>
       </c>
       <c r="P175">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q175">
-        <v>71.5</v>
-      </c>
-      <c r="AG175" t="b">
+        <v>561.75</v>
+      </c>
+      <c r="Y175" t="b">
         <v>1</v>
       </c>
       <c r="AI175" s="2">
-        <v>44060</v>
+        <v>43831</v>
       </c>
       <c r="AJ175" s="2">
-        <v>44071</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="176" spans="1:36">
       <c r="A176" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C176" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D176" t="s">
         <v>290</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" s="2">
-        <v>43497</v>
+        <v>42768</v>
       </c>
       <c r="G176" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H176" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="I176" t="s">
-        <v>314</v>
+        <v>646</v>
       </c>
       <c r="J176" s="2">
-        <v>44160</v>
+        <v>43535</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="L176" s="2">
-        <v>44162</v>
+        <v>44049</v>
       </c>
       <c r="M176">
-        <v>26.5</v>
+        <v>200.75</v>
       </c>
       <c r="N176">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O176">
         <v>0</v>
       </c>
       <c r="P176">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="Q176">
-        <v>26.5</v>
-      </c>
-      <c r="AG176" t="b">
+        <v>356.25</v>
+      </c>
+      <c r="Y176" t="b">
         <v>1</v>
       </c>
       <c r="AI176" s="2">
-        <v>44160</v>
+        <v>43831</v>
       </c>
       <c r="AJ176" s="2">
-        <v>44162</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="177" spans="1:36">
       <c r="A177" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C177" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D177" t="s">
         <v>290</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F177" s="2">
-        <v>43497</v>
+        <v>42815</v>
       </c>
       <c r="G177" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H177" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I177" t="s">
-        <v>645</v>
+        <v>308</v>
       </c>
       <c r="J177" s="2">
-        <v>43832</v>
+        <v>43809</v>
       </c>
       <c r="K177">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L177" s="2">
-        <v>43957</v>
+        <v>43931</v>
       </c>
       <c r="M177">
-        <v>189.75</v>
+        <v>92.5</v>
       </c>
       <c r="N177">
-        <v>270.5</v>
+        <v>72</v>
       </c>
       <c r="O177">
         <v>0</v>
       </c>
       <c r="P177">
-        <v>332.5</v>
+        <v>0</v>
       </c>
       <c r="Q177">
-        <v>792.75</v>
-      </c>
-      <c r="AG177" t="b">
+        <v>164.5</v>
+      </c>
+      <c r="AC177" t="b">
         <v>1</v>
       </c>
       <c r="AI177" s="2">
-        <v>43832</v>
+        <v>43831</v>
       </c>
       <c r="AJ177" s="2">
-        <v>43957</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="178" spans="1:36">
       <c r="A178" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C178" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D178" t="s">
         <v>290</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F178" s="2">
-        <v>43515</v>
+        <v>42744</v>
       </c>
       <c r="G178" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H178" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="I178" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="J178" s="2">
-        <v>43794</v>
+        <v>44056</v>
       </c>
       <c r="K178">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="L178" s="2">
-        <v>43957</v>
+        <v>44085</v>
       </c>
       <c r="M178">
-        <v>173.5</v>
+        <v>76</v>
       </c>
       <c r="N178">
-        <v>279.5</v>
+        <v>0</v>
       </c>
       <c r="O178">
         <v>0</v>
       </c>
       <c r="P178">
-        <v>364.5</v>
+        <v>0</v>
       </c>
       <c r="Q178">
-        <v>817.5</v>
-      </c>
-      <c r="AG178" t="b">
+        <v>76</v>
+      </c>
+      <c r="Y178" t="b">
         <v>1</v>
       </c>
       <c r="AI178" s="2">
-        <v>43831</v>
+        <v>44056</v>
       </c>
       <c r="AJ178" s="2">
-        <v>43957</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="179" spans="1:36">
       <c r="A179" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
         <v>93</v>
       </c>
       <c r="C179" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D179" t="s">
         <v>290</v>
@@ -13497,119 +13494,122 @@
         <v>349</v>
       </c>
       <c r="F179" s="2">
-        <v>43228</v>
+        <v>42926</v>
       </c>
       <c r="G179" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H179" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="I179" t="s">
-        <v>298</v>
+        <v>644</v>
       </c>
       <c r="J179" s="2">
-        <v>44078</v>
+        <v>43874</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="L179" s="2">
-        <v>44078</v>
+        <v>44057</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="N179">
-        <v>0</v>
+        <v>168.5</v>
       </c>
       <c r="O179">
         <v>0</v>
       </c>
       <c r="P179">
-        <v>0</v>
+        <v>131.5</v>
       </c>
       <c r="Q179">
-        <v>8</v>
-      </c>
-      <c r="AG179" t="b">
+        <v>470</v>
+      </c>
+      <c r="AB179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE179" t="b">
         <v>1</v>
       </c>
       <c r="AI179" s="2">
-        <v>44078</v>
+        <v>43874</v>
       </c>
       <c r="AJ179" s="2">
-        <v>44078</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="180" spans="1:36">
       <c r="A180" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C180" t="s">
+        <v>266</v>
+      </c>
+      <c r="D180" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" s="2">
+        <v>43050</v>
+      </c>
+      <c r="G180" t="s">
+        <v>522</v>
+      </c>
+      <c r="H180" t="s">
+        <v>634</v>
+      </c>
+      <c r="I180" t="s">
+        <v>350</v>
+      </c>
+      <c r="J180" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K180">
         <v>267</v>
       </c>
-      <c r="D180" t="s">
-        <v>290</v>
-      </c>
-      <c r="E180" t="s">
-        <v>349</v>
-      </c>
-      <c r="F180" s="2">
-        <v>43228</v>
-      </c>
-      <c r="G180" t="s">
-        <v>523</v>
-      </c>
-      <c r="H180" t="s">
-        <v>566</v>
-      </c>
-      <c r="I180" t="s">
-        <v>298</v>
-      </c>
-      <c r="J180" s="2">
-        <v>44064</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
       <c r="L180" s="2">
-        <v>44064</v>
+        <v>44098</v>
       </c>
       <c r="M180">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="N180">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="O180">
         <v>0</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="Q180">
-        <v>7</v>
-      </c>
-      <c r="AG180" t="b">
+        <v>466.5</v>
+      </c>
+      <c r="Z180" t="b">
         <v>1</v>
       </c>
       <c r="AI180" s="2">
-        <v>44064</v>
+        <v>43831</v>
       </c>
       <c r="AJ180" s="2">
-        <v>44064</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="181" spans="1:36">
       <c r="A181" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C181" t="s">
         <v>267</v>
@@ -13618,34 +13618,34 @@
         <v>290</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F181" s="2">
-        <v>43228</v>
+        <v>42750</v>
       </c>
       <c r="G181" t="s">
         <v>523</v>
       </c>
       <c r="H181" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
       <c r="I181" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J181" s="2">
-        <v>43892</v>
+        <v>43510</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="L181" s="2">
-        <v>43894</v>
+        <v>43957</v>
       </c>
       <c r="M181">
-        <v>15</v>
+        <v>189.5</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>202.5</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -13654,21 +13654,21 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>15</v>
-      </c>
-      <c r="AG181" t="b">
+        <v>392</v>
+      </c>
+      <c r="Y181" t="b">
         <v>1</v>
       </c>
       <c r="AI181" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ181" s="2">
-        <v>43894</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="182" spans="1:36">
       <c r="A182" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
         <v>94</v>
@@ -13683,40 +13683,40 @@
         <v>350</v>
       </c>
       <c r="F182" s="2">
-        <v>42723</v>
+        <v>42592</v>
       </c>
       <c r="G182" t="s">
         <v>524</v>
       </c>
       <c r="H182" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I182" t="s">
         <v>350</v>
       </c>
       <c r="J182" s="2">
-        <v>43587</v>
+        <v>43409</v>
       </c>
       <c r="K182">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="L182" s="2">
-        <v>43957</v>
+        <v>43847</v>
       </c>
       <c r="M182">
-        <v>87.5</v>
+        <v>32.5</v>
       </c>
       <c r="N182">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O182">
         <v>0</v>
       </c>
       <c r="P182">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q182">
-        <v>235.5</v>
+        <v>32.5</v>
       </c>
       <c r="Y182" t="b">
         <v>1</v>
@@ -13725,388 +13725,391 @@
         <v>43831</v>
       </c>
       <c r="AJ182" s="2">
-        <v>43957</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="183" spans="1:36">
       <c r="A183" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D183" t="s">
         <v>290</v>
       </c>
       <c r="E183" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F183" s="2">
-        <v>42723</v>
+        <v>42722</v>
       </c>
       <c r="G183" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H183" t="s">
         <v>635</v>
       </c>
       <c r="I183" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J183" s="2">
-        <v>43985</v>
+        <v>43879</v>
       </c>
       <c r="K183">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L183" s="2">
-        <v>44077</v>
+        <v>43956</v>
       </c>
       <c r="M183">
-        <v>113.5</v>
+        <v>25.5</v>
       </c>
       <c r="N183">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="O183">
         <v>0</v>
       </c>
       <c r="P183">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="Q183">
-        <v>138</v>
+        <v>281.5</v>
       </c>
       <c r="Y183" t="b">
         <v>1</v>
       </c>
-      <c r="AA183" t="b">
+      <c r="AE183" t="b">
         <v>1</v>
       </c>
       <c r="AI183" s="2">
-        <v>43985</v>
+        <v>43879</v>
       </c>
       <c r="AJ183" s="2">
-        <v>44077</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="184" spans="1:36">
       <c r="A184" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D184" t="s">
         <v>290</v>
       </c>
       <c r="E184" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F184" s="2">
-        <v>42723</v>
+        <v>43562</v>
       </c>
       <c r="G184" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H184" t="s">
         <v>635</v>
       </c>
       <c r="I184" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J184" s="2">
-        <v>43587</v>
+        <v>43879</v>
       </c>
       <c r="K184">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="L184" s="2">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="M184">
-        <v>87.5</v>
+        <v>20.5</v>
       </c>
       <c r="N184">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="O184">
         <v>0</v>
       </c>
       <c r="P184">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="Q184">
-        <v>235.5</v>
-      </c>
-      <c r="Y184" t="b">
+        <v>658.5</v>
+      </c>
+      <c r="AB184" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE184" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG184" t="b">
         <v>1</v>
       </c>
       <c r="AI184" s="2">
-        <v>43831</v>
+        <v>43879</v>
       </c>
       <c r="AJ184" s="2">
-        <v>43957</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="185" spans="1:36">
       <c r="A185" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D185" t="s">
         <v>290</v>
       </c>
       <c r="E185" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F185" s="2">
-        <v>42723</v>
+        <v>43352</v>
       </c>
       <c r="G185" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H185" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I185" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J185" s="2">
-        <v>43985</v>
+        <v>43892</v>
       </c>
       <c r="K185">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="L185" s="2">
-        <v>44077</v>
+        <v>44118</v>
       </c>
       <c r="M185">
-        <v>113.5</v>
+        <v>211.25</v>
       </c>
       <c r="N185">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="O185">
         <v>0</v>
       </c>
       <c r="P185">
-        <v>24.5</v>
+        <v>65.25</v>
       </c>
       <c r="Q185">
-        <v>138</v>
-      </c>
-      <c r="Y185" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA185" t="b">
+        <v>378.5</v>
+      </c>
+      <c r="AB185" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE185" t="b">
         <v>1</v>
       </c>
       <c r="AI185" s="2">
-        <v>43985</v>
+        <v>43892</v>
       </c>
       <c r="AJ185" s="2">
-        <v>44077</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="186" spans="1:36">
       <c r="A186" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D186" t="s">
         <v>290</v>
       </c>
       <c r="E186" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F186" s="2">
-        <v>42703</v>
+        <v>42802</v>
       </c>
       <c r="G186" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H186" t="s">
         <v>635</v>
       </c>
       <c r="I186" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J186" s="2">
-        <v>42954</v>
+        <v>43600</v>
       </c>
       <c r="K186">
-        <v>210</v>
+        <v>365</v>
       </c>
       <c r="L186" s="2">
-        <v>44041</v>
+        <v>44196</v>
       </c>
       <c r="M186">
-        <v>301.5</v>
+        <v>833</v>
       </c>
       <c r="N186">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="O186">
         <v>0</v>
       </c>
       <c r="P186">
-        <v>160</v>
+        <v>-38</v>
       </c>
       <c r="Q186">
-        <v>665.5</v>
-      </c>
-      <c r="Y186" t="b">
+        <v>951</v>
+      </c>
+      <c r="Z186" t="b">
         <v>1</v>
       </c>
       <c r="AI186" s="2">
         <v>43831</v>
       </c>
       <c r="AJ186" s="2">
-        <v>44041</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="187" spans="1:36">
       <c r="A187" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C187" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D187" t="s">
         <v>290</v>
       </c>
       <c r="E187" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F187" s="2">
-        <v>42778</v>
+        <v>42696</v>
       </c>
       <c r="G187" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H187" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I187" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J187" s="2">
-        <v>43872</v>
+        <v>43622</v>
       </c>
       <c r="K187">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L187" s="2">
-        <v>44089</v>
+        <v>44077</v>
       </c>
       <c r="M187">
-        <v>350.5</v>
+        <v>395.5</v>
       </c>
       <c r="N187">
-        <v>210</v>
+        <v>129.5</v>
       </c>
       <c r="O187">
         <v>0</v>
       </c>
       <c r="P187">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="Q187">
-        <v>560.5</v>
+        <v>481</v>
       </c>
       <c r="Y187" t="b">
         <v>1</v>
       </c>
       <c r="AI187" s="2">
-        <v>43872</v>
+        <v>43831</v>
       </c>
       <c r="AJ187" s="2">
-        <v>44089</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="188" spans="1:36">
       <c r="A188" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C188" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D188" t="s">
         <v>290</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F188" s="2">
-        <v>42722</v>
+        <v>42723</v>
       </c>
       <c r="G188" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H188" t="s">
         <v>637</v>
       </c>
       <c r="I188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J188" s="2">
-        <v>43879</v>
+        <v>43587</v>
       </c>
       <c r="K188">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="L188" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="M188">
-        <v>25.5</v>
+        <v>87.5</v>
       </c>
       <c r="N188">
-        <v>256</v>
+        <v>108</v>
       </c>
       <c r="O188">
         <v>0</v>
       </c>
       <c r="P188">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q188">
-        <v>281.5</v>
+        <v>235.5</v>
       </c>
       <c r="Y188" t="b">
         <v>1</v>
       </c>
-      <c r="AE188" t="b">
-        <v>1</v>
-      </c>
       <c r="AI188" s="2">
-        <v>43879</v>
+        <v>43831</v>
       </c>
       <c r="AJ188" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="189" spans="1:36">
@@ -14114,140 +14117,134 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C189" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D189" t="s">
         <v>290</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F189" s="2">
-        <v>43562</v>
+        <v>42723</v>
       </c>
       <c r="G189" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H189" t="s">
         <v>637</v>
       </c>
       <c r="I189" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J189" s="2">
-        <v>43879</v>
+        <v>43985</v>
       </c>
       <c r="K189">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L189" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
       <c r="M189">
-        <v>20.5</v>
+        <v>113.5</v>
       </c>
       <c r="N189">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="O189">
         <v>0</v>
       </c>
       <c r="P189">
-        <v>382</v>
+        <v>24.5</v>
       </c>
       <c r="Q189">
-        <v>658.5</v>
-      </c>
-      <c r="AB189" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE189" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG189" t="b">
+        <v>138</v>
+      </c>
+      <c r="Y189" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA189" t="b">
         <v>1</v>
       </c>
       <c r="AI189" s="2">
-        <v>43879</v>
+        <v>43985</v>
       </c>
       <c r="AJ189" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="190" spans="1:36">
       <c r="A190" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C190" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D190" t="s">
         <v>290</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F190" s="2">
-        <v>43352</v>
+        <v>42723</v>
       </c>
       <c r="G190" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H190" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I190" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J190" s="2">
-        <v>43892</v>
+        <v>43587</v>
       </c>
       <c r="K190">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="L190" s="2">
-        <v>44118</v>
+        <v>43957</v>
       </c>
       <c r="M190">
-        <v>211.25</v>
+        <v>87.5</v>
       </c>
       <c r="N190">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O190">
         <v>0</v>
       </c>
       <c r="P190">
-        <v>65.25</v>
+        <v>40</v>
       </c>
       <c r="Q190">
-        <v>378.5</v>
-      </c>
-      <c r="AB190" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE190" t="b">
+        <v>235.5</v>
+      </c>
+      <c r="Y190" t="b">
         <v>1</v>
       </c>
       <c r="AI190" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ190" s="2">
-        <v>44118</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="191" spans="1:36">
       <c r="A191" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C191" t="s">
         <v>275</v>
@@ -14256,10 +14253,10 @@
         <v>290</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F191" s="2">
-        <v>42802</v>
+        <v>42723</v>
       </c>
       <c r="G191" t="s">
         <v>531</v>
@@ -14268,48 +14265,51 @@
         <v>637</v>
       </c>
       <c r="I191" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J191" s="2">
-        <v>43600</v>
+        <v>43985</v>
       </c>
       <c r="K191">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="L191" s="2">
-        <v>44196</v>
+        <v>44077</v>
       </c>
       <c r="M191">
-        <v>833</v>
+        <v>113.5</v>
       </c>
       <c r="N191">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O191">
         <v>0</v>
       </c>
       <c r="P191">
-        <v>-38</v>
+        <v>24.5</v>
       </c>
       <c r="Q191">
-        <v>951</v>
-      </c>
-      <c r="Z191" t="b">
+        <v>138</v>
+      </c>
+      <c r="Y191" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA191" t="b">
         <v>1</v>
       </c>
       <c r="AI191" s="2">
-        <v>43831</v>
+        <v>43985</v>
       </c>
       <c r="AJ191" s="2">
-        <v>44196</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="192" spans="1:36">
       <c r="A192" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C192" t="s">
         <v>276</v>
@@ -14318,10 +14318,10 @@
         <v>290</v>
       </c>
       <c r="E192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F192" s="2">
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="G192" t="s">
         <v>532</v>
@@ -14330,31 +14330,31 @@
         <v>637</v>
       </c>
       <c r="I192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J192" s="2">
-        <v>43622</v>
+        <v>42954</v>
       </c>
       <c r="K192">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="L192" s="2">
-        <v>44077</v>
+        <v>44041</v>
       </c>
       <c r="M192">
-        <v>395.5</v>
+        <v>301.5</v>
       </c>
       <c r="N192">
-        <v>129.5</v>
+        <v>204</v>
       </c>
       <c r="O192">
         <v>0</v>
       </c>
       <c r="P192">
-        <v>-44</v>
+        <v>160</v>
       </c>
       <c r="Q192">
-        <v>481</v>
+        <v>665.5</v>
       </c>
       <c r="Y192" t="b">
         <v>1</v>
@@ -14363,12 +14363,12 @@
         <v>43831</v>
       </c>
       <c r="AJ192" s="2">
-        <v>44077</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="193" spans="1:36">
       <c r="A193" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B193" t="s">
         <v>96</v>
@@ -14383,31 +14383,31 @@
         <v>352</v>
       </c>
       <c r="F193" s="2">
-        <v>43117</v>
+        <v>42778</v>
       </c>
       <c r="G193" t="s">
         <v>533</v>
       </c>
       <c r="H193" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I193" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="J193" s="2">
-        <v>43483</v>
+        <v>43872</v>
       </c>
       <c r="K193">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="L193" s="2">
-        <v>43945</v>
+        <v>44089</v>
       </c>
       <c r="M193">
-        <v>134.25</v>
+        <v>350.5</v>
       </c>
       <c r="N193">
-        <v>129.5</v>
+        <v>210</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -14416,21 +14416,21 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>263.75</v>
-      </c>
-      <c r="AC193" t="b">
+        <v>560.5</v>
+      </c>
+      <c r="Y193" t="b">
         <v>1</v>
       </c>
       <c r="AI193" s="2">
-        <v>43831</v>
+        <v>43872</v>
       </c>
       <c r="AJ193" s="2">
-        <v>43945</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
         <v>97</v>
@@ -14445,7 +14445,7 @@
         <v>353</v>
       </c>
       <c r="F194" s="2">
-        <v>42943</v>
+        <v>42638</v>
       </c>
       <c r="G194" t="s">
         <v>534</v>
@@ -14457,48 +14457,51 @@
         <v>353</v>
       </c>
       <c r="J194" s="2">
-        <v>43587</v>
+        <v>43336</v>
       </c>
       <c r="K194">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="L194" s="2">
-        <v>44091</v>
+        <v>43937</v>
       </c>
       <c r="M194">
-        <v>425.75</v>
+        <v>127.5</v>
       </c>
       <c r="N194">
-        <v>122.5</v>
+        <v>109.5</v>
       </c>
       <c r="O194">
         <v>0</v>
       </c>
       <c r="P194">
-        <v>-18.5</v>
+        <v>92.25</v>
       </c>
       <c r="Q194">
-        <v>529.75</v>
-      </c>
-      <c r="Z194" t="b">
+        <v>329.25</v>
+      </c>
+      <c r="Y194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC194" t="b">
         <v>1</v>
       </c>
       <c r="AI194" s="2">
         <v>43831</v>
       </c>
       <c r="AJ194" s="2">
-        <v>44091</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
         <v>97</v>
       </c>
       <c r="C195" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D195" t="s">
         <v>290</v>
@@ -14507,10 +14510,10 @@
         <v>353</v>
       </c>
       <c r="F195" s="2">
-        <v>43238</v>
+        <v>42638</v>
       </c>
       <c r="G195" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H195" t="s">
         <v>639</v>
@@ -14519,107 +14522,104 @@
         <v>353</v>
       </c>
       <c r="J195" s="2">
-        <v>43594</v>
+        <v>44025</v>
       </c>
       <c r="K195">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="L195" s="2">
-        <v>43957</v>
+        <v>44084</v>
       </c>
       <c r="M195">
-        <v>169.25</v>
+        <v>128.25</v>
       </c>
       <c r="N195">
-        <v>229.5</v>
+        <v>0</v>
       </c>
       <c r="O195">
         <v>0</v>
       </c>
       <c r="P195">
-        <v>280.5</v>
+        <v>0</v>
       </c>
       <c r="Q195">
-        <v>679.25</v>
-      </c>
-      <c r="AG195" t="b">
+        <v>128.25</v>
+      </c>
+      <c r="Y195" t="b">
         <v>1</v>
       </c>
       <c r="AI195" s="2">
-        <v>43831</v>
+        <v>44025</v>
       </c>
       <c r="AJ195" s="2">
-        <v>43957</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="196" spans="1:36">
       <c r="A196" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C196" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D196" t="s">
         <v>290</v>
       </c>
       <c r="E196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F196" s="2">
-        <v>42638</v>
+        <v>42753</v>
       </c>
       <c r="G196" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H196" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="I196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J196" s="2">
-        <v>43336</v>
+        <v>43227</v>
       </c>
       <c r="K196">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="L196" s="2">
-        <v>43937</v>
+        <v>44071</v>
       </c>
       <c r="M196">
-        <v>127.5</v>
+        <v>392</v>
       </c>
       <c r="N196">
-        <v>109.5</v>
+        <v>104</v>
       </c>
       <c r="O196">
         <v>0</v>
       </c>
       <c r="P196">
-        <v>92.25</v>
+        <v>16.5</v>
       </c>
       <c r="Q196">
-        <v>329.25</v>
+        <v>512.5</v>
       </c>
       <c r="Y196" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC196" t="b">
         <v>1</v>
       </c>
       <c r="AI196" s="2">
         <v>43831</v>
       </c>
       <c r="AJ196" s="2">
-        <v>43937</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="197" spans="1:36">
       <c r="A197" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
         <v>98</v>
@@ -14634,54 +14634,54 @@
         <v>354</v>
       </c>
       <c r="F197" s="2">
-        <v>42638</v>
+        <v>42943</v>
       </c>
       <c r="G197" t="s">
         <v>536</v>
       </c>
       <c r="H197" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="I197" t="s">
         <v>354</v>
       </c>
       <c r="J197" s="2">
-        <v>44025</v>
+        <v>43587</v>
       </c>
       <c r="K197">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="L197" s="2">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="M197">
-        <v>128.25</v>
+        <v>425.75</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="O197">
         <v>0</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="Q197">
-        <v>128.25</v>
-      </c>
-      <c r="Y197" t="b">
+        <v>529.75</v>
+      </c>
+      <c r="Z197" t="b">
         <v>1</v>
       </c>
       <c r="AI197" s="2">
-        <v>44025</v>
+        <v>43831</v>
       </c>
       <c r="AJ197" s="2">
-        <v>44084</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B198" t="s">
         <v>98</v>
@@ -14696,49 +14696,49 @@
         <v>354</v>
       </c>
       <c r="F198" s="2">
-        <v>42753</v>
+        <v>43238</v>
       </c>
       <c r="G198" t="s">
         <v>537</v>
       </c>
       <c r="H198" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="I198" t="s">
         <v>354</v>
       </c>
       <c r="J198" s="2">
-        <v>43227</v>
+        <v>43594</v>
       </c>
       <c r="K198">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="L198" s="2">
-        <v>44071</v>
+        <v>43957</v>
       </c>
       <c r="M198">
-        <v>392</v>
+        <v>169.25</v>
       </c>
       <c r="N198">
-        <v>104</v>
+        <v>229.5</v>
       </c>
       <c r="O198">
         <v>0</v>
       </c>
       <c r="P198">
-        <v>16.5</v>
+        <v>280.5</v>
       </c>
       <c r="Q198">
-        <v>512.5</v>
-      </c>
-      <c r="Y198" t="b">
+        <v>679.25</v>
+      </c>
+      <c r="AG198" t="b">
         <v>1</v>
       </c>
       <c r="AI198" s="2">
         <v>43831</v>
       </c>
       <c r="AJ198" s="2">
-        <v>44071</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="199" spans="1:36">
@@ -14805,7 +14805,7 @@
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
         <v>100</v>
@@ -14820,49 +14820,49 @@
         <v>356</v>
       </c>
       <c r="F200" s="2">
-        <v>42815</v>
+        <v>42762</v>
       </c>
       <c r="G200" t="s">
         <v>539</v>
       </c>
       <c r="H200" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="I200" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="J200" s="2">
-        <v>43809</v>
+        <v>43409</v>
       </c>
       <c r="K200">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="L200" s="2">
-        <v>43931</v>
+        <v>44091</v>
       </c>
       <c r="M200">
-        <v>92.5</v>
+        <v>308.25</v>
       </c>
       <c r="N200">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="O200">
         <v>0</v>
       </c>
       <c r="P200">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q200">
-        <v>164.5</v>
-      </c>
-      <c r="AC200" t="b">
+        <v>481.25</v>
+      </c>
+      <c r="Y200" t="b">
         <v>1</v>
       </c>
       <c r="AI200" s="2">
         <v>43831</v>
       </c>
       <c r="AJ200" s="2">
-        <v>43931</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="201" spans="1:36">
@@ -14882,57 +14882,57 @@
         <v>356</v>
       </c>
       <c r="F201" s="2">
-        <v>42744</v>
+        <v>42779</v>
       </c>
       <c r="G201" t="s">
         <v>540</v>
       </c>
       <c r="H201" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="I201" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="J201" s="2">
-        <v>44056</v>
+        <v>43277</v>
       </c>
       <c r="K201">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="L201" s="2">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="M201">
-        <v>76</v>
+        <v>989.75</v>
       </c>
       <c r="N201">
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="O201">
         <v>0</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="Q201">
-        <v>76</v>
+        <v>1193.25</v>
       </c>
       <c r="Y201" t="b">
         <v>1</v>
       </c>
       <c r="AI201" s="2">
-        <v>44056</v>
+        <v>43831</v>
       </c>
       <c r="AJ201" s="2">
-        <v>44085</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="202" spans="1:36">
       <c r="A202" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C202" t="s">
         <v>285</v>
@@ -14941,60 +14941,63 @@
         <v>290</v>
       </c>
       <c r="E202" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F202" s="2">
-        <v>42762</v>
+        <v>42766</v>
       </c>
       <c r="G202" t="s">
         <v>541</v>
       </c>
       <c r="H202" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I202" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J202" s="2">
-        <v>43409</v>
+        <v>43451</v>
       </c>
       <c r="K202">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L202" s="2">
-        <v>44091</v>
+        <v>43931</v>
       </c>
       <c r="M202">
-        <v>308.25</v>
+        <v>129</v>
       </c>
       <c r="N202">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O202">
         <v>0</v>
       </c>
       <c r="P202">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q202">
-        <v>481.25</v>
+        <v>206</v>
       </c>
       <c r="Y202" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC202" t="b">
         <v>1</v>
       </c>
       <c r="AI202" s="2">
         <v>43831</v>
       </c>
       <c r="AJ202" s="2">
-        <v>44091</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="203" spans="1:36">
       <c r="A203" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C203" t="s">
         <v>286</v>
@@ -15003,57 +15006,57 @@
         <v>290</v>
       </c>
       <c r="E203" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F203" s="2">
-        <v>42779</v>
+        <v>43328</v>
       </c>
       <c r="G203" t="s">
         <v>542</v>
       </c>
       <c r="H203" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I203" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J203" s="2">
-        <v>43277</v>
+        <v>44131</v>
       </c>
       <c r="K203">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="L203" s="2">
-        <v>44088</v>
+        <v>44196</v>
       </c>
       <c r="M203">
-        <v>989.75</v>
+        <v>72</v>
       </c>
       <c r="N203">
-        <v>280.5</v>
+        <v>12</v>
       </c>
       <c r="O203">
         <v>0</v>
       </c>
       <c r="P203">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="Q203">
-        <v>1193.25</v>
-      </c>
-      <c r="Y203" t="b">
+        <v>84</v>
+      </c>
+      <c r="AF203" t="b">
         <v>1</v>
       </c>
       <c r="AI203" s="2">
-        <v>43831</v>
+        <v>44131</v>
       </c>
       <c r="AJ203" s="2">
-        <v>44088</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="204" spans="1:36">
       <c r="A204" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B204" t="s">
         <v>101</v>
@@ -15068,7 +15071,7 @@
         <v>357</v>
       </c>
       <c r="F204" s="2">
-        <v>42766</v>
+        <v>42705</v>
       </c>
       <c r="G204" t="s">
         <v>543</v>
@@ -15080,19 +15083,19 @@
         <v>357</v>
       </c>
       <c r="J204" s="2">
-        <v>43451</v>
+        <v>43703</v>
       </c>
       <c r="K204">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L204" s="2">
-        <v>43931</v>
+        <v>43882</v>
       </c>
       <c r="M204">
-        <v>129</v>
+        <v>122.5</v>
       </c>
       <c r="N204">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -15101,24 +15104,21 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>206</v>
+        <v>122.5</v>
       </c>
       <c r="Y204" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC204" t="b">
         <v>1</v>
       </c>
       <c r="AI204" s="2">
         <v>43831</v>
       </c>
       <c r="AJ204" s="2">
-        <v>43931</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="205" spans="1:36">
       <c r="A205" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
         <v>101</v>
@@ -15133,7 +15133,7 @@
         <v>357</v>
       </c>
       <c r="F205" s="2">
-        <v>43328</v>
+        <v>42931</v>
       </c>
       <c r="G205" t="s">
         <v>544</v>
@@ -15145,19 +15145,19 @@
         <v>357</v>
       </c>
       <c r="J205" s="2">
-        <v>44131</v>
+        <v>43773</v>
       </c>
       <c r="K205">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="L205" s="2">
-        <v>44196</v>
+        <v>43950</v>
       </c>
       <c r="M205">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="N205">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -15166,16 +15166,16 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>84</v>
-      </c>
-      <c r="AF205" t="b">
+        <v>198</v>
+      </c>
+      <c r="AC205" t="b">
         <v>1</v>
       </c>
       <c r="AI205" s="2">
-        <v>44131</v>
+        <v>43831</v>
       </c>
       <c r="AJ205" s="2">
-        <v>44196</v>
+        <v>43950</v>
       </c>
     </row>
   </sheetData>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -129,15 +129,15 @@
     <t>fineNorm</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Algund.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Andrian.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Ahrntal.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Algund.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Andrian.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Auer.xlsx</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Lana.xlsx</t>
   </si>
   <si>
@@ -249,12 +249,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Prettau.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Rasen-Antholz.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Rasen-Antholz.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
   </si>
   <si>
@@ -330,30 +330,30 @@
     <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
   </si>
   <si>
+    <t>Bertagnolli Julius</t>
+  </si>
+  <si>
+    <t>Gruber Emma</t>
+  </si>
+  <si>
+    <t>Hölzl Felicia Victoria</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>Mair Leo</t>
+  </si>
+  <si>
+    <t>Schwienbacher Magdalena</t>
+  </si>
+  <si>
     <t>Ajardi Josef</t>
   </si>
   <si>
     <t>Ruiu Nina</t>
   </si>
   <si>
-    <t>Bertagnolli Julius</t>
-  </si>
-  <si>
-    <t>Gruber Emma</t>
-  </si>
-  <si>
-    <t>Hölzl Felicia Victoria</t>
-  </si>
-  <si>
-    <t>Maturilli Anna Maria</t>
-  </si>
-  <si>
-    <t>Mair Leo</t>
-  </si>
-  <si>
-    <t>Schwienbacher Magdalena</t>
-  </si>
-  <si>
     <t>Billi Lorenzo</t>
   </si>
   <si>
@@ -492,18 +492,18 @@
     <t>Mulser Lenny</t>
   </si>
   <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
     <t>Hochgruber Raphael</t>
   </si>
   <si>
     <t>Weger Mathe Elisabeth</t>
   </si>
   <si>
-    <t>Bekoe Lucia</t>
-  </si>
-  <si>
-    <t>Frei Gasser Mia</t>
-  </si>
-  <si>
     <t>D´Altri Stella</t>
   </si>
   <si>
@@ -717,6 +717,9 @@
     <t>Griessmair Jonas</t>
   </si>
   <si>
+    <t>Taschler  Anton</t>
+  </si>
+  <si>
     <t>Fiechter Emil</t>
   </si>
   <si>
@@ -729,9 +732,6 @@
     <t>Walter Moritz</t>
   </si>
   <si>
-    <t>Taschler  Anton</t>
-  </si>
-  <si>
     <t>Gruber  Karolina</t>
   </si>
   <si>
@@ -897,21 +897,21 @@
     <t>Vieider Stina Marie</t>
   </si>
   <si>
+    <t>Sozialgenossenschaft Mit Bäuerinnen Lernen-Wachsen-Leben</t>
+  </si>
+  <si>
     <t>Sozialgenossenschaft Mit Bäuerinnen Lernen Wachsen Leben</t>
   </si>
   <si>
-    <t>Sozialgenossenschaft Mit Bäuerinnen Lernen-Wachsen-Leben</t>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Andrian</t>
   </si>
   <si>
     <t>Ahrntal</t>
   </si>
   <si>
-    <t>Algund</t>
-  </si>
-  <si>
-    <t>Andrian</t>
-  </si>
-  <si>
     <t>Auer</t>
   </si>
   <si>
@@ -957,12 +957,12 @@
     <t>Kastelruth</t>
   </si>
   <si>
+    <t>Klausen</t>
+  </si>
+  <si>
     <t>Kiens</t>
   </si>
   <si>
-    <t>Klausen</t>
-  </si>
-  <si>
     <t>Lana</t>
   </si>
   <si>
@@ -1023,12 +1023,12 @@
     <t>Prettau</t>
   </si>
   <si>
+    <t>Rasen/Antholz</t>
+  </si>
+  <si>
     <t>Ratschings</t>
   </si>
   <si>
-    <t>Rasen/Antholz</t>
-  </si>
-  <si>
     <t>Riffian</t>
   </si>
   <si>
@@ -1104,30 +1104,30 @@
     <t>Welschnofen</t>
   </si>
   <si>
+    <t>BRTJLS17M10I729H</t>
+  </si>
+  <si>
+    <t>GRBMME18E67F132P</t>
+  </si>
+  <si>
+    <t>HLZFCV17S56F132E</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>MRALEO17L11F132R</t>
+  </si>
+  <si>
+    <t>SCHMDL17M50F132B</t>
+  </si>
+  <si>
     <t>JRDJSF19R02B220Y</t>
   </si>
   <si>
     <t>RUINNI17C65B220Y</t>
   </si>
   <si>
-    <t>BRTJLS17M10I729H</t>
-  </si>
-  <si>
-    <t>GRBMME18E67F132P</t>
-  </si>
-  <si>
-    <t>HLZFCV17S56F132E</t>
-  </si>
-  <si>
-    <t>MTRNMR17H63F132N</t>
-  </si>
-  <si>
-    <t>MRALEO17L11F132R</t>
-  </si>
-  <si>
-    <t>SCHMDL17M50F132B</t>
-  </si>
-  <si>
     <t>BLLLNZ20B12A952J</t>
   </si>
   <si>
@@ -1266,18 +1266,18 @@
     <t>MLSLNY19A24B160V</t>
   </si>
   <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
     <t>HCHRHL17S04B220O</t>
   </si>
   <si>
     <t>WGRMHL18M51B220M</t>
   </si>
   <si>
-    <t>BKELCU17R50A952D</t>
-  </si>
-  <si>
-    <t>FRGMIA17C65B160L</t>
-  </si>
-  <si>
     <t>DLTSLL19B61A944K</t>
   </si>
   <si>
@@ -1491,6 +1491,9 @@
     <t>GRSJNS17M21B220X</t>
   </si>
   <si>
+    <t>TSCNTN17L08B220M</t>
+  </si>
+  <si>
     <t>FCHMLE17A12B160W</t>
   </si>
   <si>
@@ -1503,9 +1506,6 @@
     <t>WLTMTZ16M02M067H</t>
   </si>
   <si>
-    <t>TSCNTN17L08B220M</t>
-  </si>
-  <si>
     <t>GRBKLN17A70F132K</t>
   </si>
   <si>
@@ -1671,24 +1671,24 @@
     <t>VDRSNM18M56B160V</t>
   </si>
   <si>
+    <t>Troger Moser Anna</t>
+  </si>
+  <si>
+    <t>Willibald Maria Anna</t>
+  </si>
+  <si>
+    <t>De Arruda Ruth</t>
+  </si>
+  <si>
+    <t>Werth Petra</t>
+  </si>
+  <si>
     <t>Kirchler Judith</t>
   </si>
   <si>
     <t>Kirchler Irmgard</t>
   </si>
   <si>
-    <t>Troger Moser Anna</t>
-  </si>
-  <si>
-    <t>Willibald Maria Anna</t>
-  </si>
-  <si>
-    <t>De Arruda Ruth</t>
-  </si>
-  <si>
-    <t>Werth Petra</t>
-  </si>
-  <si>
     <t>Huber Melanie</t>
   </si>
   <si>
@@ -1788,15 +1788,15 @@
     <t>Silbernagl  Katharina</t>
   </si>
   <si>
+    <t>Duchova Dana</t>
+  </si>
+  <si>
     <t>Leiter Manuela</t>
   </si>
   <si>
     <t>Tasser Margit</t>
   </si>
   <si>
-    <t>Duchova Dana</t>
-  </si>
-  <si>
     <t>Andergassen Ruth</t>
   </si>
   <si>
@@ -1974,10 +1974,10 @@
     <t>Kurtatsch</t>
   </si>
   <si>
+    <t>Lajen</t>
+  </si>
+  <si>
     <t>St.Lorenzen</t>
-  </si>
-  <si>
-    <t>Lajen</t>
   </si>
   <si>
     <t>Kastelbell/Tschars</t>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -2481,7 +2481,7 @@
         <v>293</v>
       </c>
       <c r="F2" s="2">
-        <v>43740</v>
+        <v>42957</v>
       </c>
       <c r="G2" t="s">
         <v>360</v>
@@ -2490,48 +2490,45 @@
         <v>549</v>
       </c>
       <c r="I2" t="s">
-        <v>646</v>
+        <v>293</v>
       </c>
       <c r="J2" s="2">
-        <v>43885</v>
+        <v>43910</v>
       </c>
       <c r="K2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
       <c r="M2">
-        <v>641.5</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>194.5</v>
+        <v>73</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>886.75</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="b">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="b">
         <v>1</v>
       </c>
       <c r="AI2" s="2">
-        <v>43885</v>
+        <v>43910</v>
       </c>
       <c r="AJ2" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -2546,131 +2543,134 @@
         <v>293</v>
       </c>
       <c r="F3" s="2">
-        <v>42819</v>
+        <v>43247</v>
       </c>
       <c r="G3" t="s">
         <v>361</v>
       </c>
       <c r="H3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I3" t="s">
         <v>293</v>
       </c>
       <c r="J3" s="2">
-        <v>43160</v>
+        <v>43892</v>
       </c>
       <c r="K3">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="L3" s="2">
-        <v>44117</v>
+        <v>44196</v>
       </c>
       <c r="M3">
-        <v>554.75</v>
+        <v>753.5</v>
       </c>
       <c r="N3">
-        <v>176.5</v>
+        <v>267</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>54.5</v>
+        <v>96.5</v>
       </c>
       <c r="Q3">
-        <v>785.75</v>
-      </c>
-      <c r="Z3" t="b">
+        <v>1117</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="b">
         <v>1</v>
       </c>
       <c r="AI3" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AJ3" s="2">
-        <v>44117</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="2">
-        <v>42957</v>
+        <v>43055</v>
       </c>
       <c r="G4" t="s">
         <v>362</v>
       </c>
       <c r="H4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J4" s="2">
-        <v>43910</v>
+        <v>43738</v>
       </c>
       <c r="K4">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="L4" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>716.5</v>
       </c>
       <c r="N4">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="Q4">
-        <v>73</v>
-      </c>
-      <c r="AC4" t="b">
+        <v>1056</v>
+      </c>
+      <c r="Z4" t="b">
         <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>43910</v>
+        <v>43831</v>
       </c>
       <c r="AJ4" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="2">
-        <v>43247</v>
+        <v>42909</v>
       </c>
       <c r="G5" t="s">
         <v>363</v>
@@ -2679,48 +2679,45 @@
         <v>551</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="J5" s="2">
-        <v>43892</v>
+        <v>43598</v>
       </c>
       <c r="K5">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="L5" s="2">
-        <v>44196</v>
+        <v>44098</v>
       </c>
       <c r="M5">
-        <v>753.5</v>
+        <v>427</v>
       </c>
       <c r="N5">
-        <v>267</v>
+        <v>237.5</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>96.5</v>
+        <v>-70</v>
       </c>
       <c r="Q5">
-        <v>1117</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="b">
+        <v>594.5</v>
+      </c>
+      <c r="Z5" t="b">
         <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ5" s="2">
-        <v>44196</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -2729,13 +2726,13 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
         <v>294</v>
       </c>
       <c r="F6" s="2">
-        <v>43055</v>
+        <v>42927</v>
       </c>
       <c r="G6" t="s">
         <v>364</v>
@@ -2747,42 +2744,42 @@
         <v>294</v>
       </c>
       <c r="J6" s="2">
-        <v>43738</v>
+        <v>43514</v>
       </c>
       <c r="K6">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="L6" s="2">
-        <v>44196</v>
+        <v>43936</v>
       </c>
       <c r="M6">
-        <v>716.5</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>119.5</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1056</v>
-      </c>
-      <c r="Z6" t="b">
+        <v>151</v>
+      </c>
+      <c r="AC6" t="b">
         <v>1</v>
       </c>
       <c r="AI6" s="2">
         <v>43831</v>
       </c>
       <c r="AJ6" s="2">
-        <v>44196</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -2791,60 +2788,60 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
         <v>294</v>
       </c>
       <c r="F7" s="2">
-        <v>42909</v>
+        <v>42957</v>
       </c>
       <c r="G7" t="s">
         <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="J7" s="2">
-        <v>43598</v>
+        <v>43710</v>
       </c>
       <c r="K7">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2">
-        <v>44098</v>
+        <v>43930</v>
       </c>
       <c r="M7">
-        <v>427</v>
+        <v>94.5</v>
       </c>
       <c r="N7">
-        <v>237.5</v>
+        <v>72</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>594.5</v>
-      </c>
-      <c r="Z7" t="b">
+        <v>166.5</v>
+      </c>
+      <c r="AC7" t="b">
         <v>1</v>
       </c>
       <c r="AI7" s="2">
         <v>43831</v>
       </c>
       <c r="AJ7" s="2">
-        <v>44098</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2859,54 +2856,57 @@
         <v>295</v>
       </c>
       <c r="F8" s="2">
-        <v>42927</v>
+        <v>43740</v>
       </c>
       <c r="G8" t="s">
         <v>366</v>
       </c>
       <c r="H8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I8" t="s">
-        <v>295</v>
+        <v>646</v>
       </c>
       <c r="J8" s="2">
-        <v>43514</v>
+        <v>43885</v>
       </c>
       <c r="K8">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="L8" s="2">
-        <v>43936</v>
+        <v>44196</v>
       </c>
       <c r="M8">
-        <v>83</v>
+        <v>641.5</v>
       </c>
       <c r="N8">
-        <v>68</v>
+        <v>194.5</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>50.75</v>
       </c>
       <c r="Q8">
-        <v>151</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>886.75</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
         <v>1</v>
       </c>
       <c r="AI8" s="2">
-        <v>43831</v>
+        <v>43885</v>
       </c>
       <c r="AJ8" s="2">
-        <v>43936</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2921,7 +2921,7 @@
         <v>295</v>
       </c>
       <c r="F9" s="2">
-        <v>42957</v>
+        <v>42819</v>
       </c>
       <c r="G9" t="s">
         <v>367</v>
@@ -2933,37 +2933,37 @@
         <v>295</v>
       </c>
       <c r="J9" s="2">
-        <v>43710</v>
+        <v>43160</v>
       </c>
       <c r="K9">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="L9" s="2">
-        <v>43930</v>
+        <v>44117</v>
       </c>
       <c r="M9">
-        <v>94.5</v>
+        <v>554.75</v>
       </c>
       <c r="N9">
-        <v>72</v>
+        <v>176.5</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="Q9">
-        <v>166.5</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>785.75</v>
+      </c>
+      <c r="Z9" t="b">
         <v>1</v>
       </c>
       <c r="AI9" s="2">
         <v>43831</v>
       </c>
       <c r="AJ9" s="2">
-        <v>43930</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2977,7 +2977,7 @@
         <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
         <v>296</v>
@@ -3039,7 +3039,7 @@
         <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
         <v>297</v>
@@ -3104,7 +3104,7 @@
         <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
         <v>297</v>
@@ -3166,7 +3166,7 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" t="s">
         <v>297</v>
@@ -3228,7 +3228,7 @@
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" t="s">
         <v>297</v>
@@ -3290,7 +3290,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" t="s">
         <v>298</v>
@@ -3352,7 +3352,7 @@
         <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" t="s">
         <v>298</v>
@@ -3414,7 +3414,7 @@
         <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E17" t="s">
         <v>298</v>
@@ -3476,7 +3476,7 @@
         <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" t="s">
         <v>298</v>
@@ -3538,7 +3538,7 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
         <v>298</v>
@@ -3600,7 +3600,7 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -3662,7 +3662,7 @@
         <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E21" t="s">
         <v>298</v>
@@ -3724,7 +3724,7 @@
         <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E22" t="s">
         <v>298</v>
@@ -3786,7 +3786,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
         <v>298</v>
@@ -3848,7 +3848,7 @@
         <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E24" t="s">
         <v>298</v>
@@ -3910,7 +3910,7 @@
         <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" t="s">
         <v>299</v>
@@ -3972,7 +3972,7 @@
         <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E26" t="s">
         <v>299</v>
@@ -4034,7 +4034,7 @@
         <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E27" t="s">
         <v>299</v>
@@ -4096,7 +4096,7 @@
         <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
         <v>299</v>
@@ -4158,7 +4158,7 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E29" t="s">
         <v>299</v>
@@ -4220,7 +4220,7 @@
         <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E30" t="s">
         <v>299</v>
@@ -4282,7 +4282,7 @@
         <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
         <v>299</v>
@@ -4344,7 +4344,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E32" t="s">
         <v>299</v>
@@ -4406,7 +4406,7 @@
         <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
         <v>300</v>
@@ -4418,10 +4418,10 @@
         <v>389</v>
       </c>
       <c r="H33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" s="2">
         <v>43892</v>
@@ -4471,7 +4471,7 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E34" t="s">
         <v>301</v>
@@ -4533,7 +4533,7 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
         <v>302</v>
@@ -4595,7 +4595,7 @@
         <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E36" t="s">
         <v>302</v>
@@ -4657,7 +4657,7 @@
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E37" t="s">
         <v>302</v>
@@ -4719,7 +4719,7 @@
         <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
         <v>302</v>
@@ -4781,7 +4781,7 @@
         <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E39" t="s">
         <v>303</v>
@@ -4843,7 +4843,7 @@
         <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
         <v>303</v>
@@ -4905,7 +4905,7 @@
         <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
         <v>303</v>
@@ -4970,7 +4970,7 @@
         <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
         <v>303</v>
@@ -4985,7 +4985,7 @@
         <v>575</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J42" s="2">
         <v>43823</v>
@@ -5032,7 +5032,7 @@
         <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E43" t="s">
         <v>303</v>
@@ -5047,7 +5047,7 @@
         <v>575</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J43" s="2">
         <v>43823</v>
@@ -5094,7 +5094,7 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E44" t="s">
         <v>304</v>
@@ -5156,7 +5156,7 @@
         <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E45" t="s">
         <v>304</v>
@@ -5218,7 +5218,7 @@
         <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E46" t="s">
         <v>305</v>
@@ -5280,7 +5280,7 @@
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" t="s">
         <v>306</v>
@@ -5342,7 +5342,7 @@
         <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E48" t="s">
         <v>306</v>
@@ -5407,7 +5407,7 @@
         <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
         <v>306</v>
@@ -5469,7 +5469,7 @@
         <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E50" t="s">
         <v>307</v>
@@ -5531,7 +5531,7 @@
         <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E51" t="s">
         <v>307</v>
@@ -5593,7 +5593,7 @@
         <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E52" t="s">
         <v>308</v>
@@ -5655,7 +5655,7 @@
         <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E53" t="s">
         <v>308</v>
@@ -5717,7 +5717,7 @@
         <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
         <v>308</v>
@@ -5779,7 +5779,7 @@
         <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E55" t="s">
         <v>308</v>
@@ -5841,7 +5841,7 @@
         <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
         <v>309</v>
@@ -5903,7 +5903,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E57" t="s">
         <v>309</v>
@@ -5965,7 +5965,7 @@
         <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
         <v>310</v>
@@ -6027,7 +6027,7 @@
         <v>155</v>
       </c>
       <c r="D59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E59" t="s">
         <v>310</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -6089,13 +6089,13 @@
         <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
         <v>311</v>
       </c>
       <c r="F60" s="2">
-        <v>43043</v>
+        <v>43018</v>
       </c>
       <c r="G60" t="s">
         <v>414</v>
@@ -6107,42 +6107,45 @@
         <v>650</v>
       </c>
       <c r="J60" s="2">
-        <v>43724</v>
+        <v>43848</v>
       </c>
       <c r="K60">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="L60" s="2">
-        <v>44196</v>
+        <v>44100</v>
       </c>
       <c r="M60">
-        <v>768.5</v>
+        <v>886</v>
       </c>
       <c r="N60">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q60">
-        <v>1067.5</v>
+        <v>1350</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
       </c>
+      <c r="AG60" t="b">
+        <v>1</v>
+      </c>
       <c r="AI60" s="2">
-        <v>43831</v>
+        <v>43848</v>
       </c>
       <c r="AJ60" s="2">
-        <v>44196</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>53</v>
@@ -6151,60 +6154,60 @@
         <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E61" t="s">
         <v>311</v>
       </c>
       <c r="F61" s="2">
-        <v>43323</v>
+        <v>42819</v>
       </c>
       <c r="G61" t="s">
         <v>415</v>
       </c>
       <c r="H61" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="I61" t="s">
-        <v>650</v>
+        <v>298</v>
       </c>
       <c r="J61" s="2">
-        <v>44144</v>
+        <v>43276</v>
       </c>
       <c r="K61">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="L61" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
       <c r="M61">
-        <v>89.5</v>
+        <v>450</v>
       </c>
       <c r="N61">
-        <v>27.5</v>
+        <v>180</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q61">
-        <v>117</v>
-      </c>
-      <c r="AF61" t="b">
+        <v>710</v>
+      </c>
+      <c r="Z61" t="b">
         <v>1</v>
       </c>
       <c r="AI61" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ61" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
         <v>54</v>
@@ -6213,63 +6216,60 @@
         <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E62" t="s">
         <v>312</v>
       </c>
       <c r="F62" s="2">
-        <v>43018</v>
+        <v>43043</v>
       </c>
       <c r="G62" t="s">
         <v>416</v>
       </c>
       <c r="H62" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I62" t="s">
         <v>651</v>
       </c>
       <c r="J62" s="2">
-        <v>43848</v>
+        <v>43724</v>
       </c>
       <c r="K62">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="L62" s="2">
-        <v>44100</v>
+        <v>44196</v>
       </c>
       <c r="M62">
-        <v>886</v>
+        <v>768.5</v>
       </c>
       <c r="N62">
-        <v>414</v>
+        <v>230</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Q62">
-        <v>1350</v>
+        <v>1067.5</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
       </c>
-      <c r="AG62" t="b">
-        <v>1</v>
-      </c>
       <c r="AI62" s="2">
-        <v>43848</v>
+        <v>43831</v>
       </c>
       <c r="AJ62" s="2">
-        <v>44100</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
         <v>54</v>
@@ -6278,55 +6278,55 @@
         <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
         <v>312</v>
       </c>
       <c r="F63" s="2">
-        <v>42819</v>
+        <v>43323</v>
       </c>
       <c r="G63" t="s">
         <v>417</v>
       </c>
       <c r="H63" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>651</v>
       </c>
       <c r="J63" s="2">
-        <v>43276</v>
+        <v>44144</v>
       </c>
       <c r="K63">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="L63" s="2">
-        <v>44090</v>
+        <v>44196</v>
       </c>
       <c r="M63">
-        <v>450</v>
+        <v>89.5</v>
       </c>
       <c r="N63">
-        <v>180</v>
+        <v>27.5</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>710</v>
-      </c>
-      <c r="Z63" t="b">
+        <v>117</v>
+      </c>
+      <c r="AF63" t="b">
         <v>1</v>
       </c>
       <c r="AI63" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ63" s="2">
-        <v>44090</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="64" spans="1:36">
@@ -6340,7 +6340,7 @@
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
         <v>313</v>
@@ -6402,7 +6402,7 @@
         <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E65" t="s">
         <v>313</v>
@@ -6464,7 +6464,7 @@
         <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
         <v>313</v>
@@ -6526,7 +6526,7 @@
         <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E67" t="s">
         <v>313</v>
@@ -6588,7 +6588,7 @@
         <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E68" t="s">
         <v>313</v>
@@ -6650,7 +6650,7 @@
         <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E69" t="s">
         <v>313</v>
@@ -6662,10 +6662,10 @@
         <v>423</v>
       </c>
       <c r="H69" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J69" s="2">
         <v>43892</v>
@@ -6715,7 +6715,7 @@
         <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
         <v>313</v>
@@ -6777,7 +6777,7 @@
         <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E71" t="s">
         <v>314</v>
@@ -6839,7 +6839,7 @@
         <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
         <v>314</v>
@@ -6901,7 +6901,7 @@
         <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
         <v>314</v>
@@ -6963,7 +6963,7 @@
         <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
         <v>315</v>
@@ -7025,7 +7025,7 @@
         <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E75" t="s">
         <v>315</v>
@@ -7090,7 +7090,7 @@
         <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
         <v>315</v>
@@ -7155,7 +7155,7 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
         <v>316</v>
@@ -7217,7 +7217,7 @@
         <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
         <v>316</v>
@@ -7279,7 +7279,7 @@
         <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
         <v>317</v>
@@ -7341,7 +7341,7 @@
         <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
         <v>317</v>
@@ -7403,7 +7403,7 @@
         <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
         <v>317</v>
@@ -7465,7 +7465,7 @@
         <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s">
         <v>317</v>
@@ -7527,7 +7527,7 @@
         <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
         <v>318</v>
@@ -7589,7 +7589,7 @@
         <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E84" t="s">
         <v>318</v>
@@ -7651,7 +7651,7 @@
         <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
         <v>318</v>
@@ -7713,7 +7713,7 @@
         <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
         <v>318</v>
@@ -7775,7 +7775,7 @@
         <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
         <v>318</v>
@@ -7837,7 +7837,7 @@
         <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
         <v>318</v>
@@ -7899,7 +7899,7 @@
         <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
         <v>318</v>
@@ -7964,7 +7964,7 @@
         <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
         <v>318</v>
@@ -8026,7 +8026,7 @@
         <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E91" t="s">
         <v>318</v>
@@ -8091,7 +8091,7 @@
         <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E92" t="s">
         <v>318</v>
@@ -8153,7 +8153,7 @@
         <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E93" t="s">
         <v>318</v>
@@ -8165,7 +8165,7 @@
         <v>444</v>
       </c>
       <c r="H93" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I93" t="s">
         <v>318</v>
@@ -8215,7 +8215,7 @@
         <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E94" t="s">
         <v>318</v>
@@ -8277,7 +8277,7 @@
         <v>187</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E95" t="s">
         <v>318</v>
@@ -8339,7 +8339,7 @@
         <v>188</v>
       </c>
       <c r="D96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
         <v>318</v>
@@ -8401,7 +8401,7 @@
         <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E97" t="s">
         <v>318</v>
@@ -8463,7 +8463,7 @@
         <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E98" t="s">
         <v>318</v>
@@ -8525,7 +8525,7 @@
         <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E99" t="s">
         <v>318</v>
@@ -8590,7 +8590,7 @@
         <v>191</v>
       </c>
       <c r="D100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E100" t="s">
         <v>318</v>
@@ -8652,7 +8652,7 @@
         <v>191</v>
       </c>
       <c r="D101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
         <v>318</v>
@@ -8717,7 +8717,7 @@
         <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E102" t="s">
         <v>318</v>
@@ -8779,7 +8779,7 @@
         <v>193</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E103" t="s">
         <v>318</v>
@@ -8841,7 +8841,7 @@
         <v>194</v>
       </c>
       <c r="D104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
         <v>318</v>
@@ -8903,7 +8903,7 @@
         <v>195</v>
       </c>
       <c r="D105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
         <v>318</v>
@@ -8965,7 +8965,7 @@
         <v>196</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E106" t="s">
         <v>318</v>
@@ -9027,7 +9027,7 @@
         <v>197</v>
       </c>
       <c r="D107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E107" t="s">
         <v>318</v>
@@ -9089,7 +9089,7 @@
         <v>198</v>
       </c>
       <c r="D108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E108" t="s">
         <v>318</v>
@@ -9151,7 +9151,7 @@
         <v>199</v>
       </c>
       <c r="D109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
         <v>318</v>
@@ -9213,7 +9213,7 @@
         <v>200</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E110" t="s">
         <v>319</v>
@@ -9275,7 +9275,7 @@
         <v>201</v>
       </c>
       <c r="D111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E111" t="s">
         <v>319</v>
@@ -9337,7 +9337,7 @@
         <v>202</v>
       </c>
       <c r="D112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E112" t="s">
         <v>320</v>
@@ -9399,7 +9399,7 @@
         <v>203</v>
       </c>
       <c r="D113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s">
         <v>321</v>
@@ -9461,7 +9461,7 @@
         <v>204</v>
       </c>
       <c r="D114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E114" t="s">
         <v>321</v>
@@ -9523,7 +9523,7 @@
         <v>205</v>
       </c>
       <c r="D115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E115" t="s">
         <v>322</v>
@@ -9585,7 +9585,7 @@
         <v>205</v>
       </c>
       <c r="D116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E116" t="s">
         <v>322</v>
@@ -9647,7 +9647,7 @@
         <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E117" t="s">
         <v>322</v>
@@ -9709,7 +9709,7 @@
         <v>207</v>
       </c>
       <c r="D118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E118" t="s">
         <v>322</v>
@@ -9771,7 +9771,7 @@
         <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E119" t="s">
         <v>322</v>
@@ -9833,7 +9833,7 @@
         <v>209</v>
       </c>
       <c r="D120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
         <v>322</v>
@@ -9895,7 +9895,7 @@
         <v>209</v>
       </c>
       <c r="D121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E121" t="s">
         <v>322</v>
@@ -9957,7 +9957,7 @@
         <v>210</v>
       </c>
       <c r="D122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E122" t="s">
         <v>322</v>
@@ -10019,7 +10019,7 @@
         <v>211</v>
       </c>
       <c r="D123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E123" t="s">
         <v>322</v>
@@ -10081,7 +10081,7 @@
         <v>212</v>
       </c>
       <c r="D124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E124" t="s">
         <v>323</v>
@@ -10143,7 +10143,7 @@
         <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E125" t="s">
         <v>323</v>
@@ -10205,7 +10205,7 @@
         <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E126" t="s">
         <v>324</v>
@@ -10267,7 +10267,7 @@
         <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E127" t="s">
         <v>324</v>
@@ -10329,7 +10329,7 @@
         <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E128" t="s">
         <v>325</v>
@@ -10391,7 +10391,7 @@
         <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E129" t="s">
         <v>326</v>
@@ -10453,7 +10453,7 @@
         <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E130" t="s">
         <v>326</v>
@@ -10515,7 +10515,7 @@
         <v>219</v>
       </c>
       <c r="D131" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E131" t="s">
         <v>326</v>
@@ -10577,7 +10577,7 @@
         <v>220</v>
       </c>
       <c r="D132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E132" t="s">
         <v>327</v>
@@ -10642,7 +10642,7 @@
         <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E133" t="s">
         <v>328</v>
@@ -10654,10 +10654,10 @@
         <v>479</v>
       </c>
       <c r="H133" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I133" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J133" s="2">
         <v>43591</v>
@@ -10704,7 +10704,7 @@
         <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E134" t="s">
         <v>328</v>
@@ -10766,7 +10766,7 @@
         <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E135" t="s">
         <v>328</v>
@@ -10828,7 +10828,7 @@
         <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E136" t="s">
         <v>328</v>
@@ -10890,7 +10890,7 @@
         <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E137" t="s">
         <v>328</v>
@@ -10952,7 +10952,7 @@
         <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E138" t="s">
         <v>328</v>
@@ -11014,7 +11014,7 @@
         <v>227</v>
       </c>
       <c r="D139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E139" t="s">
         <v>329</v>
@@ -11076,7 +11076,7 @@
         <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E140" t="s">
         <v>330</v>
@@ -11138,7 +11138,7 @@
         <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E141" t="s">
         <v>331</v>
@@ -11203,7 +11203,7 @@
         <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E142" t="s">
         <v>332</v>
@@ -11218,7 +11218,7 @@
         <v>625</v>
       </c>
       <c r="I142" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J142" s="2">
         <v>43871</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B143" t="s">
         <v>75</v>
@@ -11265,75 +11265,75 @@
         <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E143" t="s">
         <v>333</v>
       </c>
       <c r="F143" s="2">
-        <v>42747</v>
+        <v>42924</v>
       </c>
       <c r="G143" t="s">
         <v>489</v>
       </c>
       <c r="H143" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I143" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J143" s="2">
-        <v>43833</v>
+        <v>43276</v>
       </c>
       <c r="K143">
-        <v>250</v>
+        <v>365</v>
       </c>
       <c r="L143" s="2">
-        <v>44083</v>
+        <v>44196</v>
       </c>
       <c r="M143">
-        <v>272</v>
+        <v>780.5</v>
       </c>
       <c r="N143">
-        <v>124.5</v>
+        <v>232</v>
       </c>
       <c r="O143">
         <v>0</v>
       </c>
       <c r="P143">
-        <v>101.5</v>
+        <v>94.75</v>
       </c>
       <c r="Q143">
-        <v>498</v>
-      </c>
-      <c r="Y143" t="b">
+        <v>1107.25</v>
+      </c>
+      <c r="Z143" t="b">
         <v>1</v>
       </c>
       <c r="AI143" s="2">
-        <v>43833</v>
+        <v>43831</v>
       </c>
       <c r="AJ143" s="2">
-        <v>44083</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="144" spans="1:36">
       <c r="A144" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
       </c>
       <c r="D144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E144" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F144" s="2">
-        <v>43525</v>
+        <v>42747</v>
       </c>
       <c r="G144" t="s">
         <v>490</v>
@@ -11342,60 +11342,60 @@
         <v>575</v>
       </c>
       <c r="I144" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J144" s="2">
-        <v>43913</v>
+        <v>43833</v>
       </c>
       <c r="K144">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="L144" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
       <c r="M144">
-        <v>544.5</v>
+        <v>272</v>
       </c>
       <c r="N144">
-        <v>7</v>
+        <v>124.5</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
       <c r="P144">
-        <v>25</v>
+        <v>101.5</v>
       </c>
       <c r="Q144">
-        <v>576.5</v>
-      </c>
-      <c r="AA144" t="b">
+        <v>498</v>
+      </c>
+      <c r="Y144" t="b">
         <v>1</v>
       </c>
       <c r="AI144" s="2">
-        <v>43913</v>
+        <v>43833</v>
       </c>
       <c r="AJ144" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F145" s="2">
-        <v>43596</v>
+        <v>43525</v>
       </c>
       <c r="G145" t="s">
         <v>491</v>
@@ -11404,37 +11404,37 @@
         <v>575</v>
       </c>
       <c r="I145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J145" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="K145">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L145" s="2">
         <v>44196</v>
       </c>
       <c r="M145">
-        <v>521.75</v>
+        <v>544.5</v>
       </c>
       <c r="N145">
-        <v>20.75</v>
+        <v>7</v>
       </c>
       <c r="O145">
         <v>0</v>
       </c>
       <c r="P145">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="Q145">
-        <v>566.25</v>
+        <v>576.5</v>
       </c>
       <c r="AA145" t="b">
         <v>1</v>
       </c>
       <c r="AI145" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="AJ145" s="2">
         <v>44196</v>
@@ -11442,69 +11442,69 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C146" t="s">
         <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F146" s="2">
-        <v>42584</v>
+        <v>43596</v>
       </c>
       <c r="G146" t="s">
         <v>492</v>
       </c>
       <c r="H146" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="I146" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J146" s="2">
-        <v>43070</v>
+        <v>43906</v>
       </c>
       <c r="K146">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="L146" s="2">
-        <v>44015</v>
+        <v>44196</v>
       </c>
       <c r="M146">
-        <v>470.75</v>
+        <v>521.75</v>
       </c>
       <c r="N146">
-        <v>268.5</v>
+        <v>20.75</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>49</v>
+        <v>23.75</v>
       </c>
       <c r="Q146">
-        <v>788.25</v>
-      </c>
-      <c r="Y146" t="b">
+        <v>566.25</v>
+      </c>
+      <c r="AA146" t="b">
         <v>1</v>
       </c>
       <c r="AI146" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AJ146" s="2">
-        <v>44015</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
         <v>76</v>
@@ -11513,55 +11513,55 @@
         <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E147" t="s">
         <v>334</v>
       </c>
       <c r="F147" s="2">
-        <v>42924</v>
+        <v>42584</v>
       </c>
       <c r="G147" t="s">
         <v>493</v>
       </c>
       <c r="H147" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="I147" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J147" s="2">
-        <v>43276</v>
+        <v>43070</v>
       </c>
       <c r="K147">
-        <v>365</v>
+        <v>184</v>
       </c>
       <c r="L147" s="2">
-        <v>44196</v>
+        <v>44015</v>
       </c>
       <c r="M147">
-        <v>780.5</v>
+        <v>470.75</v>
       </c>
       <c r="N147">
-        <v>232</v>
+        <v>268.5</v>
       </c>
       <c r="O147">
         <v>0</v>
       </c>
       <c r="P147">
-        <v>94.75</v>
+        <v>49</v>
       </c>
       <c r="Q147">
-        <v>1107.25</v>
-      </c>
-      <c r="Z147" t="b">
+        <v>788.25</v>
+      </c>
+      <c r="Y147" t="b">
         <v>1</v>
       </c>
       <c r="AI147" s="2">
         <v>43831</v>
       </c>
       <c r="AJ147" s="2">
-        <v>44196</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="148" spans="1:36">
@@ -11575,7 +11575,7 @@
         <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E148" t="s">
         <v>335</v>
@@ -11637,7 +11637,7 @@
         <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E149" t="s">
         <v>335</v>
@@ -11702,7 +11702,7 @@
         <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E150" t="s">
         <v>336</v>
@@ -11764,7 +11764,7 @@
         <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E151" t="s">
         <v>336</v>
@@ -11826,7 +11826,7 @@
         <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E152" t="s">
         <v>336</v>
@@ -11888,7 +11888,7 @@
         <v>241</v>
       </c>
       <c r="D153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E153" t="s">
         <v>337</v>
@@ -11950,7 +11950,7 @@
         <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E154" t="s">
         <v>338</v>
@@ -12012,7 +12012,7 @@
         <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E155" t="s">
         <v>338</v>
@@ -12074,7 +12074,7 @@
         <v>244</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E156" t="s">
         <v>338</v>
@@ -12136,7 +12136,7 @@
         <v>245</v>
       </c>
       <c r="D157" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E157" t="s">
         <v>338</v>
@@ -12198,7 +12198,7 @@
         <v>246</v>
       </c>
       <c r="D158" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E158" t="s">
         <v>339</v>
@@ -12260,7 +12260,7 @@
         <v>247</v>
       </c>
       <c r="D159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E159" t="s">
         <v>339</v>
@@ -12322,7 +12322,7 @@
         <v>248</v>
       </c>
       <c r="D160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E160" t="s">
         <v>340</v>
@@ -12384,7 +12384,7 @@
         <v>249</v>
       </c>
       <c r="D161" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E161" t="s">
         <v>340</v>
@@ -12446,7 +12446,7 @@
         <v>250</v>
       </c>
       <c r="D162" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E162" t="s">
         <v>341</v>
@@ -12508,7 +12508,7 @@
         <v>251</v>
       </c>
       <c r="D163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E163" t="s">
         <v>341</v>
@@ -12570,7 +12570,7 @@
         <v>252</v>
       </c>
       <c r="D164" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E164" t="s">
         <v>341</v>
@@ -12632,7 +12632,7 @@
         <v>253</v>
       </c>
       <c r="D165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E165" t="s">
         <v>342</v>
@@ -12694,7 +12694,7 @@
         <v>254</v>
       </c>
       <c r="D166" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E166" t="s">
         <v>342</v>
@@ -12759,7 +12759,7 @@
         <v>255</v>
       </c>
       <c r="D167" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E167" t="s">
         <v>343</v>
@@ -12821,7 +12821,7 @@
         <v>256</v>
       </c>
       <c r="D168" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E168" t="s">
         <v>344</v>
@@ -12833,10 +12833,10 @@
         <v>514</v>
       </c>
       <c r="H168" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I168" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J168" s="2">
         <v>43360</v>
@@ -12883,7 +12883,7 @@
         <v>257</v>
       </c>
       <c r="D169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E169" t="s">
         <v>344</v>
@@ -12895,10 +12895,10 @@
         <v>515</v>
       </c>
       <c r="H169" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I169" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J169" s="2">
         <v>43535</v>
@@ -12945,7 +12945,7 @@
         <v>258</v>
       </c>
       <c r="D170" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E170" t="s">
         <v>345</v>
@@ -13007,7 +13007,7 @@
         <v>259</v>
       </c>
       <c r="D171" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E171" t="s">
         <v>346</v>
@@ -13069,7 +13069,7 @@
         <v>260</v>
       </c>
       <c r="D172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E172" t="s">
         <v>346</v>
@@ -13131,7 +13131,7 @@
         <v>261</v>
       </c>
       <c r="D173" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E173" t="s">
         <v>347</v>
@@ -13196,7 +13196,7 @@
         <v>262</v>
       </c>
       <c r="D174" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E174" t="s">
         <v>348</v>
@@ -13208,10 +13208,10 @@
         <v>520</v>
       </c>
       <c r="H174" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J174" s="2">
         <v>43837</v>
@@ -13258,7 +13258,7 @@
         <v>263</v>
       </c>
       <c r="D175" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E175" t="s">
         <v>349</v>
@@ -13320,7 +13320,7 @@
         <v>264</v>
       </c>
       <c r="D176" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E176" t="s">
         <v>349</v>
@@ -13382,7 +13382,7 @@
         <v>265</v>
       </c>
       <c r="D177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E177" t="s">
         <v>349</v>
@@ -13444,7 +13444,7 @@
         <v>266</v>
       </c>
       <c r="D178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E178" t="s">
         <v>350</v>
@@ -13506,7 +13506,7 @@
         <v>267</v>
       </c>
       <c r="D179" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E179" t="s">
         <v>351</v>
@@ -13568,7 +13568,7 @@
         <v>267</v>
       </c>
       <c r="D180" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E180" t="s">
         <v>351</v>
@@ -13630,7 +13630,7 @@
         <v>267</v>
       </c>
       <c r="D181" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E181" t="s">
         <v>351</v>
@@ -13692,7 +13692,7 @@
         <v>268</v>
       </c>
       <c r="D182" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E182" t="s">
         <v>351</v>
@@ -13754,7 +13754,7 @@
         <v>269</v>
       </c>
       <c r="D183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E183" t="s">
         <v>351</v>
@@ -13816,7 +13816,7 @@
         <v>269</v>
       </c>
       <c r="D184" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E184" t="s">
         <v>351</v>
@@ -13878,7 +13878,7 @@
         <v>269</v>
       </c>
       <c r="D185" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E185" t="s">
         <v>351</v>
@@ -13940,7 +13940,7 @@
         <v>270</v>
       </c>
       <c r="D186" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E186" t="s">
         <v>352</v>
@@ -14002,7 +14002,7 @@
         <v>270</v>
       </c>
       <c r="D187" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E187" t="s">
         <v>352</v>
@@ -14067,7 +14067,7 @@
         <v>271</v>
       </c>
       <c r="D188" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E188" t="s">
         <v>352</v>
@@ -14129,7 +14129,7 @@
         <v>271</v>
       </c>
       <c r="D189" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E189" t="s">
         <v>352</v>
@@ -14194,7 +14194,7 @@
         <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E190" t="s">
         <v>352</v>
@@ -14256,7 +14256,7 @@
         <v>273</v>
       </c>
       <c r="D191" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E191" t="s">
         <v>352</v>
@@ -14318,7 +14318,7 @@
         <v>274</v>
       </c>
       <c r="D192" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E192" t="s">
         <v>353</v>
@@ -14383,7 +14383,7 @@
         <v>275</v>
       </c>
       <c r="D193" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E193" t="s">
         <v>353</v>
@@ -14451,7 +14451,7 @@
         <v>276</v>
       </c>
       <c r="D194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E194" t="s">
         <v>353</v>
@@ -14516,7 +14516,7 @@
         <v>277</v>
       </c>
       <c r="D195" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E195" t="s">
         <v>353</v>
@@ -14578,7 +14578,7 @@
         <v>278</v>
       </c>
       <c r="D196" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E196" t="s">
         <v>353</v>
@@ -14640,7 +14640,7 @@
         <v>279</v>
       </c>
       <c r="D197" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E197" t="s">
         <v>354</v>
@@ -14702,7 +14702,7 @@
         <v>280</v>
       </c>
       <c r="D198" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E198" t="s">
         <v>355</v>
@@ -14764,7 +14764,7 @@
         <v>281</v>
       </c>
       <c r="D199" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E199" t="s">
         <v>355</v>
@@ -14826,7 +14826,7 @@
         <v>282</v>
       </c>
       <c r="D200" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E200" t="s">
         <v>356</v>
@@ -14891,7 +14891,7 @@
         <v>282</v>
       </c>
       <c r="D201" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E201" t="s">
         <v>356</v>
@@ -14953,7 +14953,7 @@
         <v>283</v>
       </c>
       <c r="D202" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E202" t="s">
         <v>356</v>
@@ -15015,7 +15015,7 @@
         <v>284</v>
       </c>
       <c r="D203" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E203" t="s">
         <v>357</v>
@@ -15077,7 +15077,7 @@
         <v>285</v>
       </c>
       <c r="D204" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E204" t="s">
         <v>357</v>
@@ -15139,7 +15139,7 @@
         <v>286</v>
       </c>
       <c r="D205" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E205" t="s">
         <v>358</v>
@@ -15201,7 +15201,7 @@
         <v>287</v>
       </c>
       <c r="D206" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E206" t="s">
         <v>359</v>
@@ -15263,7 +15263,7 @@
         <v>288</v>
       </c>
       <c r="D207" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E207" t="s">
         <v>359</v>
@@ -15325,7 +15325,7 @@
         <v>289</v>
       </c>
       <c r="D208" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E208" t="s">
         <v>359</v>
@@ -15390,7 +15390,7 @@
         <v>290</v>
       </c>
       <c r="D209" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E209" t="s">
         <v>359</v>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -129,15 +129,15 @@
     <t>fineNorm</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Ahrntal.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Algund.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Andrian.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ahrntal.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Auer.xlsx</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Lana.xlsx</t>
   </si>
   <si>
@@ -330,6 +330,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
   </si>
   <si>
+    <t>Ajardi Josef</t>
+  </si>
+  <si>
+    <t>Ruiu Nina</t>
+  </si>
+  <si>
     <t>Bertagnolli Julius</t>
   </si>
   <si>
@@ -348,12 +354,6 @@
     <t>Schwienbacher Magdalena</t>
   </si>
   <si>
-    <t>Ajardi Josef</t>
-  </si>
-  <si>
-    <t>Ruiu Nina</t>
-  </si>
-  <si>
     <t>Billi Lorenzo</t>
   </si>
   <si>
@@ -492,18 +492,18 @@
     <t>Mulser Lenny</t>
   </si>
   <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
     <t>Bekoe Lucia</t>
   </si>
   <si>
     <t>Frei Gasser Mia</t>
   </si>
   <si>
-    <t>Hochgruber Raphael</t>
-  </si>
-  <si>
-    <t>Weger Mathe Elisabeth</t>
-  </si>
-  <si>
     <t>D´Altri Stella</t>
   </si>
   <si>
@@ -897,10 +897,13 @@
     <t>Vieider Stina Marie</t>
   </si>
   <si>
+    <t>Sozialgenossenschaft Mit Bäuerinnen Lernen Wachsen Leben</t>
+  </si>
+  <si>
     <t>Sozialgenossenschaft Mit Bäuerinnen Lernen-Wachsen-Leben</t>
   </si>
   <si>
-    <t>Sozialgenossenschaft Mit Bäuerinnen Lernen Wachsen Leben</t>
+    <t>Ahrntal</t>
   </si>
   <si>
     <t>Algund</t>
@@ -909,9 +912,6 @@
     <t>Andrian</t>
   </si>
   <si>
-    <t>Ahrntal</t>
-  </si>
-  <si>
     <t>Auer</t>
   </si>
   <si>
@@ -957,12 +957,12 @@
     <t>Kastelruth</t>
   </si>
   <si>
+    <t>Kiens</t>
+  </si>
+  <si>
     <t>Klausen</t>
   </si>
   <si>
-    <t>Kiens</t>
-  </si>
-  <si>
     <t>Lana</t>
   </si>
   <si>
@@ -1104,6 +1104,12 @@
     <t>Welschnofen</t>
   </si>
   <si>
+    <t>JRDJSF19R02B220Y</t>
+  </si>
+  <si>
+    <t>RUINNI17C65B220Y</t>
+  </si>
+  <si>
     <t>BRTJLS17M10I729H</t>
   </si>
   <si>
@@ -1122,12 +1128,6 @@
     <t>SCHMDL17M50F132B</t>
   </si>
   <si>
-    <t>JRDJSF19R02B220Y</t>
-  </si>
-  <si>
-    <t>RUINNI17C65B220Y</t>
-  </si>
-  <si>
     <t>BLLLNZ20B12A952J</t>
   </si>
   <si>
@@ -1266,18 +1266,18 @@
     <t>MLSLNY19A24B160V</t>
   </si>
   <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
     <t>BKELCU17R50A952D</t>
   </si>
   <si>
     <t>FRGMIA17C65B160L</t>
   </si>
   <si>
-    <t>HCHRHL17S04B220O</t>
-  </si>
-  <si>
-    <t>WGRMHL18M51B220M</t>
-  </si>
-  <si>
     <t>DLTSLL19B61A944K</t>
   </si>
   <si>
@@ -1671,6 +1671,12 @@
     <t>VDRSNM18M56B160V</t>
   </si>
   <si>
+    <t>Kirchler Judith</t>
+  </si>
+  <si>
+    <t>Kirchler Irmgard</t>
+  </si>
+  <si>
     <t>Troger Moser Anna</t>
   </si>
   <si>
@@ -1683,12 +1689,6 @@
     <t>Werth Petra</t>
   </si>
   <si>
-    <t>Kirchler Judith</t>
-  </si>
-  <si>
-    <t>Kirchler Irmgard</t>
-  </si>
-  <si>
     <t>Huber Melanie</t>
   </si>
   <si>
@@ -1788,15 +1788,15 @@
     <t>Silbernagl  Katharina</t>
   </si>
   <si>
+    <t>Leiter Manuela</t>
+  </si>
+  <si>
+    <t>Tasser Margit</t>
+  </si>
+  <si>
     <t>Duchova Dana</t>
   </si>
   <si>
-    <t>Leiter Manuela</t>
-  </si>
-  <si>
-    <t>Tasser Margit</t>
-  </si>
-  <si>
     <t>Andergassen Ruth</t>
   </si>
   <si>
@@ -1974,10 +1974,10 @@
     <t>Kurtatsch</t>
   </si>
   <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
     <t>Lajen</t>
-  </si>
-  <si>
-    <t>St.Lorenzen</t>
   </si>
   <si>
     <t>Kastelbell/Tschars</t>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -2481,7 +2481,7 @@
         <v>293</v>
       </c>
       <c r="F2" s="2">
-        <v>42957</v>
+        <v>43740</v>
       </c>
       <c r="G2" t="s">
         <v>360</v>
@@ -2490,45 +2490,48 @@
         <v>549</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
+        <v>646</v>
       </c>
       <c r="J2" s="2">
-        <v>43910</v>
+        <v>43885</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="L2" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>641.5</v>
       </c>
       <c r="N2">
-        <v>73</v>
+        <v>194.5</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>50.75</v>
       </c>
       <c r="Q2">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="b">
+        <v>886.75</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="b">
         <v>1</v>
       </c>
       <c r="AI2" s="2">
-        <v>43910</v>
+        <v>43885</v>
       </c>
       <c r="AJ2" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -2543,134 +2546,131 @@
         <v>293</v>
       </c>
       <c r="F3" s="2">
-        <v>43247</v>
+        <v>42819</v>
       </c>
       <c r="G3" t="s">
         <v>361</v>
       </c>
       <c r="H3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I3" t="s">
         <v>293</v>
       </c>
       <c r="J3" s="2">
-        <v>43892</v>
+        <v>43160</v>
       </c>
       <c r="K3">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="L3" s="2">
-        <v>44196</v>
+        <v>44117</v>
       </c>
       <c r="M3">
-        <v>753.5</v>
+        <v>554.75</v>
       </c>
       <c r="N3">
-        <v>267</v>
+        <v>176.5</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>96.5</v>
+        <v>54.5</v>
       </c>
       <c r="Q3">
-        <v>1117</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="b">
+        <v>785.75</v>
+      </c>
+      <c r="Z3" t="b">
         <v>1</v>
       </c>
       <c r="AI3" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ3" s="2">
-        <v>44196</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" s="2">
-        <v>43055</v>
+        <v>42957</v>
       </c>
       <c r="G4" t="s">
         <v>362</v>
       </c>
       <c r="H4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J4" s="2">
-        <v>43738</v>
+        <v>43910</v>
       </c>
       <c r="K4">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
       <c r="M4">
-        <v>716.5</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>119.5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1056</v>
-      </c>
-      <c r="Z4" t="b">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="b">
         <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>43831</v>
+        <v>43910</v>
       </c>
       <c r="AJ4" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" s="2">
-        <v>42909</v>
+        <v>43247</v>
       </c>
       <c r="G5" t="s">
         <v>363</v>
@@ -2679,45 +2679,48 @@
         <v>551</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="J5" s="2">
-        <v>43598</v>
+        <v>43892</v>
       </c>
       <c r="K5">
+        <v>304</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M5">
+        <v>753.5</v>
+      </c>
+      <c r="N5">
         <v>267</v>
       </c>
-      <c r="L5" s="2">
-        <v>44098</v>
-      </c>
-      <c r="M5">
-        <v>427</v>
-      </c>
-      <c r="N5">
-        <v>237.5</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>-70</v>
+        <v>96.5</v>
       </c>
       <c r="Q5">
-        <v>594.5</v>
-      </c>
-      <c r="Z5" t="b">
+        <v>1117</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
         <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AJ5" s="2">
-        <v>44098</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -2726,13 +2729,13 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
         <v>294</v>
       </c>
       <c r="F6" s="2">
-        <v>42927</v>
+        <v>43055</v>
       </c>
       <c r="G6" t="s">
         <v>364</v>
@@ -2744,42 +2747,42 @@
         <v>294</v>
       </c>
       <c r="J6" s="2">
-        <v>43514</v>
+        <v>43738</v>
       </c>
       <c r="K6">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="L6" s="2">
-        <v>43936</v>
+        <v>44196</v>
       </c>
       <c r="M6">
-        <v>83</v>
+        <v>716.5</v>
       </c>
       <c r="N6">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="Q6">
-        <v>151</v>
-      </c>
-      <c r="AC6" t="b">
+        <v>1056</v>
+      </c>
+      <c r="Z6" t="b">
         <v>1</v>
       </c>
       <c r="AI6" s="2">
         <v>43831</v>
       </c>
       <c r="AJ6" s="2">
-        <v>43936</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -2788,60 +2791,60 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
         <v>294</v>
       </c>
       <c r="F7" s="2">
-        <v>42957</v>
+        <v>42909</v>
       </c>
       <c r="G7" t="s">
         <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="J7" s="2">
-        <v>43710</v>
+        <v>43598</v>
       </c>
       <c r="K7">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="L7" s="2">
-        <v>43930</v>
+        <v>44098</v>
       </c>
       <c r="M7">
-        <v>94.5</v>
+        <v>427</v>
       </c>
       <c r="N7">
-        <v>72</v>
+        <v>237.5</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Q7">
-        <v>166.5</v>
-      </c>
-      <c r="AC7" t="b">
+        <v>594.5</v>
+      </c>
+      <c r="Z7" t="b">
         <v>1</v>
       </c>
       <c r="AI7" s="2">
         <v>43831</v>
       </c>
       <c r="AJ7" s="2">
-        <v>43930</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2856,57 +2859,54 @@
         <v>295</v>
       </c>
       <c r="F8" s="2">
-        <v>43740</v>
+        <v>42927</v>
       </c>
       <c r="G8" t="s">
         <v>366</v>
       </c>
       <c r="H8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I8" t="s">
-        <v>646</v>
+        <v>295</v>
       </c>
       <c r="J8" s="2">
-        <v>43885</v>
+        <v>43514</v>
       </c>
       <c r="K8">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="L8" s="2">
-        <v>44196</v>
+        <v>43936</v>
       </c>
       <c r="M8">
-        <v>641.5</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>194.5</v>
+        <v>68</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>886.75</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="b">
+        <v>151</v>
+      </c>
+      <c r="AC8" t="b">
         <v>1</v>
       </c>
       <c r="AI8" s="2">
-        <v>43885</v>
+        <v>43831</v>
       </c>
       <c r="AJ8" s="2">
-        <v>44196</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2921,7 +2921,7 @@
         <v>295</v>
       </c>
       <c r="F9" s="2">
-        <v>42819</v>
+        <v>42957</v>
       </c>
       <c r="G9" t="s">
         <v>367</v>
@@ -2933,37 +2933,37 @@
         <v>295</v>
       </c>
       <c r="J9" s="2">
-        <v>43160</v>
+        <v>43710</v>
       </c>
       <c r="K9">
-        <v>286</v>
+        <v>99</v>
       </c>
       <c r="L9" s="2">
-        <v>44117</v>
+        <v>43930</v>
       </c>
       <c r="M9">
-        <v>554.75</v>
+        <v>94.5</v>
       </c>
       <c r="N9">
-        <v>176.5</v>
+        <v>72</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>54.5</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>785.75</v>
-      </c>
-      <c r="Z9" t="b">
+        <v>166.5</v>
+      </c>
+      <c r="AC9" t="b">
         <v>1</v>
       </c>
       <c r="AI9" s="2">
         <v>43831</v>
       </c>
       <c r="AJ9" s="2">
-        <v>44117</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2977,7 +2977,7 @@
         <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
         <v>296</v>
@@ -3039,7 +3039,7 @@
         <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
         <v>297</v>
@@ -3104,7 +3104,7 @@
         <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
         <v>297</v>
@@ -3166,7 +3166,7 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
         <v>297</v>
@@ -3228,7 +3228,7 @@
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
         <v>297</v>
@@ -3290,7 +3290,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E15" t="s">
         <v>298</v>
@@ -3352,7 +3352,7 @@
         <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
         <v>298</v>
@@ -3414,7 +3414,7 @@
         <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E17" t="s">
         <v>298</v>
@@ -3476,7 +3476,7 @@
         <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s">
         <v>298</v>
@@ -3538,7 +3538,7 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
         <v>298</v>
@@ -3600,7 +3600,7 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -3662,7 +3662,7 @@
         <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E21" t="s">
         <v>298</v>
@@ -3724,7 +3724,7 @@
         <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
         <v>298</v>
@@ -3786,7 +3786,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E23" t="s">
         <v>298</v>
@@ -3848,7 +3848,7 @@
         <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E24" t="s">
         <v>298</v>
@@ -3910,7 +3910,7 @@
         <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
         <v>299</v>
@@ -3972,7 +3972,7 @@
         <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E26" t="s">
         <v>299</v>
@@ -4034,7 +4034,7 @@
         <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
         <v>299</v>
@@ -4096,7 +4096,7 @@
         <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E28" t="s">
         <v>299</v>
@@ -4158,7 +4158,7 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E29" t="s">
         <v>299</v>
@@ -4220,7 +4220,7 @@
         <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E30" t="s">
         <v>299</v>
@@ -4282,7 +4282,7 @@
         <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E31" t="s">
         <v>299</v>
@@ -4344,7 +4344,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E32" t="s">
         <v>299</v>
@@ -4406,7 +4406,7 @@
         <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E33" t="s">
         <v>300</v>
@@ -4418,10 +4418,10 @@
         <v>389</v>
       </c>
       <c r="H33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J33" s="2">
         <v>43892</v>
@@ -4471,7 +4471,7 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
         <v>301</v>
@@ -4533,7 +4533,7 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E35" t="s">
         <v>302</v>
@@ -4595,7 +4595,7 @@
         <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E36" t="s">
         <v>302</v>
@@ -4657,7 +4657,7 @@
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E37" t="s">
         <v>302</v>
@@ -4719,7 +4719,7 @@
         <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E38" t="s">
         <v>302</v>
@@ -4781,7 +4781,7 @@
         <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E39" t="s">
         <v>303</v>
@@ -4843,7 +4843,7 @@
         <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E40" t="s">
         <v>303</v>
@@ -4905,7 +4905,7 @@
         <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
         <v>303</v>
@@ -4970,7 +4970,7 @@
         <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E42" t="s">
         <v>303</v>
@@ -5032,7 +5032,7 @@
         <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
         <v>303</v>
@@ -5094,7 +5094,7 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E44" t="s">
         <v>304</v>
@@ -5156,7 +5156,7 @@
         <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E45" t="s">
         <v>304</v>
@@ -5218,7 +5218,7 @@
         <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E46" t="s">
         <v>305</v>
@@ -5280,7 +5280,7 @@
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E47" t="s">
         <v>306</v>
@@ -5342,7 +5342,7 @@
         <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E48" t="s">
         <v>306</v>
@@ -5407,7 +5407,7 @@
         <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
         <v>306</v>
@@ -5469,7 +5469,7 @@
         <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E50" t="s">
         <v>307</v>
@@ -5531,7 +5531,7 @@
         <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
         <v>307</v>
@@ -5593,7 +5593,7 @@
         <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E52" t="s">
         <v>308</v>
@@ -5655,7 +5655,7 @@
         <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E53" t="s">
         <v>308</v>
@@ -5717,7 +5717,7 @@
         <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E54" t="s">
         <v>308</v>
@@ -5779,7 +5779,7 @@
         <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E55" t="s">
         <v>308</v>
@@ -5841,7 +5841,7 @@
         <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E56" t="s">
         <v>309</v>
@@ -5903,7 +5903,7 @@
         <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
         <v>309</v>
@@ -5965,7 +5965,7 @@
         <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E58" t="s">
         <v>310</v>
@@ -6027,7 +6027,7 @@
         <v>155</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E59" t="s">
         <v>310</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -6089,13 +6089,13 @@
         <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
         <v>311</v>
       </c>
       <c r="F60" s="2">
-        <v>43018</v>
+        <v>43043</v>
       </c>
       <c r="G60" t="s">
         <v>414</v>
@@ -6107,45 +6107,42 @@
         <v>650</v>
       </c>
       <c r="J60" s="2">
-        <v>43848</v>
+        <v>43724</v>
       </c>
       <c r="K60">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="L60" s="2">
-        <v>44100</v>
+        <v>44196</v>
       </c>
       <c r="M60">
-        <v>886</v>
+        <v>768.5</v>
       </c>
       <c r="N60">
-        <v>414</v>
+        <v>230</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Q60">
-        <v>1350</v>
+        <v>1067.5</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
       </c>
-      <c r="AG60" t="b">
-        <v>1</v>
-      </c>
       <c r="AI60" s="2">
-        <v>43848</v>
+        <v>43831</v>
       </c>
       <c r="AJ60" s="2">
-        <v>44100</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
         <v>53</v>
@@ -6154,60 +6151,60 @@
         <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E61" t="s">
         <v>311</v>
       </c>
       <c r="F61" s="2">
-        <v>42819</v>
+        <v>43323</v>
       </c>
       <c r="G61" t="s">
         <v>415</v>
       </c>
       <c r="H61" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="I61" t="s">
-        <v>298</v>
+        <v>650</v>
       </c>
       <c r="J61" s="2">
-        <v>43276</v>
+        <v>44144</v>
       </c>
       <c r="K61">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="L61" s="2">
-        <v>44090</v>
+        <v>44196</v>
       </c>
       <c r="M61">
-        <v>450</v>
+        <v>89.5</v>
       </c>
       <c r="N61">
-        <v>180</v>
+        <v>27.5</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>710</v>
-      </c>
-      <c r="Z61" t="b">
+        <v>117</v>
+      </c>
+      <c r="AF61" t="b">
         <v>1</v>
       </c>
       <c r="AI61" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ61" s="2">
-        <v>44090</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>54</v>
@@ -6216,60 +6213,63 @@
         <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E62" t="s">
         <v>312</v>
       </c>
       <c r="F62" s="2">
-        <v>43043</v>
+        <v>43018</v>
       </c>
       <c r="G62" t="s">
         <v>416</v>
       </c>
       <c r="H62" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I62" t="s">
         <v>651</v>
       </c>
       <c r="J62" s="2">
-        <v>43724</v>
+        <v>43848</v>
       </c>
       <c r="K62">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="L62" s="2">
-        <v>44196</v>
+        <v>44100</v>
       </c>
       <c r="M62">
-        <v>768.5</v>
+        <v>886</v>
       </c>
       <c r="N62">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q62">
-        <v>1067.5</v>
+        <v>1350</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
       </c>
+      <c r="AG62" t="b">
+        <v>1</v>
+      </c>
       <c r="AI62" s="2">
-        <v>43831</v>
+        <v>43848</v>
       </c>
       <c r="AJ62" s="2">
-        <v>44196</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>54</v>
@@ -6278,55 +6278,55 @@
         <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E63" t="s">
         <v>312</v>
       </c>
       <c r="F63" s="2">
-        <v>43323</v>
+        <v>42819</v>
       </c>
       <c r="G63" t="s">
         <v>417</v>
       </c>
       <c r="H63" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="I63" t="s">
-        <v>651</v>
+        <v>298</v>
       </c>
       <c r="J63" s="2">
-        <v>44144</v>
+        <v>43276</v>
       </c>
       <c r="K63">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="L63" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
       <c r="M63">
-        <v>89.5</v>
+        <v>450</v>
       </c>
       <c r="N63">
-        <v>27.5</v>
+        <v>180</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q63">
-        <v>117</v>
-      </c>
-      <c r="AF63" t="b">
+        <v>710</v>
+      </c>
+      <c r="Z63" t="b">
         <v>1</v>
       </c>
       <c r="AI63" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ63" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="64" spans="1:36">
@@ -6340,7 +6340,7 @@
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
         <v>313</v>
@@ -6402,7 +6402,7 @@
         <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
         <v>313</v>
@@ -6464,7 +6464,7 @@
         <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E66" t="s">
         <v>313</v>
@@ -6526,7 +6526,7 @@
         <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E67" t="s">
         <v>313</v>
@@ -6588,7 +6588,7 @@
         <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E68" t="s">
         <v>313</v>
@@ -6650,7 +6650,7 @@
         <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
         <v>313</v>
@@ -6662,10 +6662,10 @@
         <v>423</v>
       </c>
       <c r="H69" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J69" s="2">
         <v>43892</v>
@@ -6715,7 +6715,7 @@
         <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E70" t="s">
         <v>313</v>
@@ -6777,7 +6777,7 @@
         <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E71" t="s">
         <v>314</v>
@@ -6839,7 +6839,7 @@
         <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
         <v>314</v>
@@ -6901,7 +6901,7 @@
         <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
         <v>314</v>
@@ -6963,7 +6963,7 @@
         <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E74" t="s">
         <v>315</v>
@@ -7025,7 +7025,7 @@
         <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E75" t="s">
         <v>315</v>
@@ -7090,7 +7090,7 @@
         <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
         <v>315</v>
@@ -7155,7 +7155,7 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E77" t="s">
         <v>316</v>
@@ -7217,7 +7217,7 @@
         <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E78" t="s">
         <v>316</v>
@@ -7279,7 +7279,7 @@
         <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E79" t="s">
         <v>317</v>
@@ -7341,7 +7341,7 @@
         <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
         <v>317</v>
@@ -7403,7 +7403,7 @@
         <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E81" t="s">
         <v>317</v>
@@ -7465,7 +7465,7 @@
         <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E82" t="s">
         <v>317</v>
@@ -7527,7 +7527,7 @@
         <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E83" t="s">
         <v>318</v>
@@ -7589,7 +7589,7 @@
         <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
         <v>318</v>
@@ -7651,7 +7651,7 @@
         <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E85" t="s">
         <v>318</v>
@@ -7713,7 +7713,7 @@
         <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
         <v>318</v>
@@ -7775,7 +7775,7 @@
         <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
         <v>318</v>
@@ -7837,7 +7837,7 @@
         <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E88" t="s">
         <v>318</v>
@@ -7899,7 +7899,7 @@
         <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E89" t="s">
         <v>318</v>
@@ -7964,7 +7964,7 @@
         <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E90" t="s">
         <v>318</v>
@@ -8026,7 +8026,7 @@
         <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
         <v>318</v>
@@ -8091,7 +8091,7 @@
         <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E92" t="s">
         <v>318</v>
@@ -8153,7 +8153,7 @@
         <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E93" t="s">
         <v>318</v>
@@ -8165,7 +8165,7 @@
         <v>444</v>
       </c>
       <c r="H93" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I93" t="s">
         <v>318</v>
@@ -8215,7 +8215,7 @@
         <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E94" t="s">
         <v>318</v>
@@ -8277,7 +8277,7 @@
         <v>187</v>
       </c>
       <c r="D95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E95" t="s">
         <v>318</v>
@@ -8339,7 +8339,7 @@
         <v>188</v>
       </c>
       <c r="D96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E96" t="s">
         <v>318</v>
@@ -8401,7 +8401,7 @@
         <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E97" t="s">
         <v>318</v>
@@ -8463,7 +8463,7 @@
         <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E98" t="s">
         <v>318</v>
@@ -8525,7 +8525,7 @@
         <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E99" t="s">
         <v>318</v>
@@ -8590,7 +8590,7 @@
         <v>191</v>
       </c>
       <c r="D100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
         <v>318</v>
@@ -8652,7 +8652,7 @@
         <v>191</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E101" t="s">
         <v>318</v>
@@ -8717,7 +8717,7 @@
         <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E102" t="s">
         <v>318</v>
@@ -8779,7 +8779,7 @@
         <v>193</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E103" t="s">
         <v>318</v>
@@ -8841,7 +8841,7 @@
         <v>194</v>
       </c>
       <c r="D104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E104" t="s">
         <v>318</v>
@@ -8903,7 +8903,7 @@
         <v>195</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E105" t="s">
         <v>318</v>
@@ -8965,7 +8965,7 @@
         <v>196</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E106" t="s">
         <v>318</v>
@@ -9027,7 +9027,7 @@
         <v>197</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
         <v>318</v>
@@ -9089,7 +9089,7 @@
         <v>198</v>
       </c>
       <c r="D108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E108" t="s">
         <v>318</v>
@@ -9151,7 +9151,7 @@
         <v>199</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E109" t="s">
         <v>318</v>
@@ -9213,7 +9213,7 @@
         <v>200</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E110" t="s">
         <v>319</v>
@@ -9275,7 +9275,7 @@
         <v>201</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E111" t="s">
         <v>319</v>
@@ -9337,7 +9337,7 @@
         <v>202</v>
       </c>
       <c r="D112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E112" t="s">
         <v>320</v>
@@ -9399,7 +9399,7 @@
         <v>203</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E113" t="s">
         <v>321</v>
@@ -9461,7 +9461,7 @@
         <v>204</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E114" t="s">
         <v>321</v>
@@ -9523,7 +9523,7 @@
         <v>205</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E115" t="s">
         <v>322</v>
@@ -9585,7 +9585,7 @@
         <v>205</v>
       </c>
       <c r="D116" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E116" t="s">
         <v>322</v>
@@ -9647,7 +9647,7 @@
         <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E117" t="s">
         <v>322</v>
@@ -9709,7 +9709,7 @@
         <v>207</v>
       </c>
       <c r="D118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E118" t="s">
         <v>322</v>
@@ -9771,7 +9771,7 @@
         <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E119" t="s">
         <v>322</v>
@@ -9833,7 +9833,7 @@
         <v>209</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E120" t="s">
         <v>322</v>
@@ -9895,7 +9895,7 @@
         <v>209</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E121" t="s">
         <v>322</v>
@@ -9957,7 +9957,7 @@
         <v>210</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E122" t="s">
         <v>322</v>
@@ -10019,7 +10019,7 @@
         <v>211</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E123" t="s">
         <v>322</v>
@@ -10081,7 +10081,7 @@
         <v>212</v>
       </c>
       <c r="D124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E124" t="s">
         <v>323</v>
@@ -10143,7 +10143,7 @@
         <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E125" t="s">
         <v>323</v>
@@ -10205,7 +10205,7 @@
         <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E126" t="s">
         <v>324</v>
@@ -10267,7 +10267,7 @@
         <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E127" t="s">
         <v>324</v>
@@ -10329,7 +10329,7 @@
         <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E128" t="s">
         <v>325</v>
@@ -10391,7 +10391,7 @@
         <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E129" t="s">
         <v>326</v>
@@ -10453,7 +10453,7 @@
         <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E130" t="s">
         <v>326</v>
@@ -10515,7 +10515,7 @@
         <v>219</v>
       </c>
       <c r="D131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E131" t="s">
         <v>326</v>
@@ -10577,7 +10577,7 @@
         <v>220</v>
       </c>
       <c r="D132" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E132" t="s">
         <v>327</v>
@@ -10642,7 +10642,7 @@
         <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E133" t="s">
         <v>328</v>
@@ -10654,10 +10654,10 @@
         <v>479</v>
       </c>
       <c r="H133" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I133" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J133" s="2">
         <v>43591</v>
@@ -10704,7 +10704,7 @@
         <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E134" t="s">
         <v>328</v>
@@ -10766,7 +10766,7 @@
         <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E135" t="s">
         <v>328</v>
@@ -10828,7 +10828,7 @@
         <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E136" t="s">
         <v>328</v>
@@ -10890,7 +10890,7 @@
         <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E137" t="s">
         <v>328</v>
@@ -10952,7 +10952,7 @@
         <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E138" t="s">
         <v>328</v>
@@ -11014,7 +11014,7 @@
         <v>227</v>
       </c>
       <c r="D139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E139" t="s">
         <v>329</v>
@@ -11076,7 +11076,7 @@
         <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E140" t="s">
         <v>330</v>
@@ -11138,7 +11138,7 @@
         <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E141" t="s">
         <v>331</v>
@@ -11203,7 +11203,7 @@
         <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E142" t="s">
         <v>332</v>
@@ -11218,7 +11218,7 @@
         <v>625</v>
       </c>
       <c r="I142" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J142" s="2">
         <v>43871</v>
@@ -11265,7 +11265,7 @@
         <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E143" t="s">
         <v>333</v>
@@ -11327,7 +11327,7 @@
         <v>232</v>
       </c>
       <c r="D144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E144" t="s">
         <v>334</v>
@@ -11389,7 +11389,7 @@
         <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E145" t="s">
         <v>334</v>
@@ -11451,7 +11451,7 @@
         <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E146" t="s">
         <v>334</v>
@@ -11513,7 +11513,7 @@
         <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E147" t="s">
         <v>334</v>
@@ -11575,7 +11575,7 @@
         <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E148" t="s">
         <v>335</v>
@@ -11637,7 +11637,7 @@
         <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E149" t="s">
         <v>335</v>
@@ -11702,7 +11702,7 @@
         <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E150" t="s">
         <v>336</v>
@@ -11764,7 +11764,7 @@
         <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E151" t="s">
         <v>336</v>
@@ -11826,7 +11826,7 @@
         <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E152" t="s">
         <v>336</v>
@@ -11888,7 +11888,7 @@
         <v>241</v>
       </c>
       <c r="D153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E153" t="s">
         <v>337</v>
@@ -11950,7 +11950,7 @@
         <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E154" t="s">
         <v>338</v>
@@ -12012,7 +12012,7 @@
         <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E155" t="s">
         <v>338</v>
@@ -12074,7 +12074,7 @@
         <v>244</v>
       </c>
       <c r="D156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E156" t="s">
         <v>338</v>
@@ -12136,7 +12136,7 @@
         <v>245</v>
       </c>
       <c r="D157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E157" t="s">
         <v>338</v>
@@ -12198,7 +12198,7 @@
         <v>246</v>
       </c>
       <c r="D158" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E158" t="s">
         <v>339</v>
@@ -12260,7 +12260,7 @@
         <v>247</v>
       </c>
       <c r="D159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E159" t="s">
         <v>339</v>
@@ -12322,7 +12322,7 @@
         <v>248</v>
       </c>
       <c r="D160" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E160" t="s">
         <v>340</v>
@@ -12384,7 +12384,7 @@
         <v>249</v>
       </c>
       <c r="D161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E161" t="s">
         <v>340</v>
@@ -12446,7 +12446,7 @@
         <v>250</v>
       </c>
       <c r="D162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E162" t="s">
         <v>341</v>
@@ -12508,7 +12508,7 @@
         <v>251</v>
       </c>
       <c r="D163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E163" t="s">
         <v>341</v>
@@ -12570,7 +12570,7 @@
         <v>252</v>
       </c>
       <c r="D164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E164" t="s">
         <v>341</v>
@@ -12632,7 +12632,7 @@
         <v>253</v>
       </c>
       <c r="D165" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E165" t="s">
         <v>342</v>
@@ -12694,7 +12694,7 @@
         <v>254</v>
       </c>
       <c r="D166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E166" t="s">
         <v>342</v>
@@ -12759,7 +12759,7 @@
         <v>255</v>
       </c>
       <c r="D167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E167" t="s">
         <v>343</v>
@@ -12821,7 +12821,7 @@
         <v>256</v>
       </c>
       <c r="D168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E168" t="s">
         <v>344</v>
@@ -12833,10 +12833,10 @@
         <v>514</v>
       </c>
       <c r="H168" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I168" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J168" s="2">
         <v>43360</v>
@@ -12883,7 +12883,7 @@
         <v>257</v>
       </c>
       <c r="D169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E169" t="s">
         <v>344</v>
@@ -12895,10 +12895,10 @@
         <v>515</v>
       </c>
       <c r="H169" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I169" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J169" s="2">
         <v>43535</v>
@@ -12945,7 +12945,7 @@
         <v>258</v>
       </c>
       <c r="D170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E170" t="s">
         <v>345</v>
@@ -13007,7 +13007,7 @@
         <v>259</v>
       </c>
       <c r="D171" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E171" t="s">
         <v>346</v>
@@ -13069,7 +13069,7 @@
         <v>260</v>
       </c>
       <c r="D172" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E172" t="s">
         <v>346</v>
@@ -13131,7 +13131,7 @@
         <v>261</v>
       </c>
       <c r="D173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E173" t="s">
         <v>347</v>
@@ -13196,7 +13196,7 @@
         <v>262</v>
       </c>
       <c r="D174" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E174" t="s">
         <v>348</v>
@@ -13208,10 +13208,10 @@
         <v>520</v>
       </c>
       <c r="H174" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J174" s="2">
         <v>43837</v>
@@ -13258,7 +13258,7 @@
         <v>263</v>
       </c>
       <c r="D175" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E175" t="s">
         <v>349</v>
@@ -13320,7 +13320,7 @@
         <v>264</v>
       </c>
       <c r="D176" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E176" t="s">
         <v>349</v>
@@ -13382,7 +13382,7 @@
         <v>265</v>
       </c>
       <c r="D177" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E177" t="s">
         <v>349</v>
@@ -13444,7 +13444,7 @@
         <v>266</v>
       </c>
       <c r="D178" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E178" t="s">
         <v>350</v>
@@ -13506,7 +13506,7 @@
         <v>267</v>
       </c>
       <c r="D179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E179" t="s">
         <v>351</v>
@@ -13568,7 +13568,7 @@
         <v>267</v>
       </c>
       <c r="D180" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E180" t="s">
         <v>351</v>
@@ -13630,7 +13630,7 @@
         <v>267</v>
       </c>
       <c r="D181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E181" t="s">
         <v>351</v>
@@ -13692,7 +13692,7 @@
         <v>268</v>
       </c>
       <c r="D182" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E182" t="s">
         <v>351</v>
@@ -13754,7 +13754,7 @@
         <v>269</v>
       </c>
       <c r="D183" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E183" t="s">
         <v>351</v>
@@ -13816,7 +13816,7 @@
         <v>269</v>
       </c>
       <c r="D184" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E184" t="s">
         <v>351</v>
@@ -13878,7 +13878,7 @@
         <v>269</v>
       </c>
       <c r="D185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E185" t="s">
         <v>351</v>
@@ -13940,7 +13940,7 @@
         <v>270</v>
       </c>
       <c r="D186" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E186" t="s">
         <v>352</v>
@@ -14002,7 +14002,7 @@
         <v>270</v>
       </c>
       <c r="D187" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E187" t="s">
         <v>352</v>
@@ -14067,7 +14067,7 @@
         <v>271</v>
       </c>
       <c r="D188" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E188" t="s">
         <v>352</v>
@@ -14129,7 +14129,7 @@
         <v>271</v>
       </c>
       <c r="D189" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E189" t="s">
         <v>352</v>
@@ -14194,7 +14194,7 @@
         <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E190" t="s">
         <v>352</v>
@@ -14256,7 +14256,7 @@
         <v>273</v>
       </c>
       <c r="D191" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E191" t="s">
         <v>352</v>
@@ -14318,7 +14318,7 @@
         <v>274</v>
       </c>
       <c r="D192" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E192" t="s">
         <v>353</v>
@@ -14383,7 +14383,7 @@
         <v>275</v>
       </c>
       <c r="D193" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E193" t="s">
         <v>353</v>
@@ -14451,7 +14451,7 @@
         <v>276</v>
       </c>
       <c r="D194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E194" t="s">
         <v>353</v>
@@ -14516,7 +14516,7 @@
         <v>277</v>
       </c>
       <c r="D195" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E195" t="s">
         <v>353</v>
@@ -14578,7 +14578,7 @@
         <v>278</v>
       </c>
       <c r="D196" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E196" t="s">
         <v>353</v>
@@ -14640,7 +14640,7 @@
         <v>279</v>
       </c>
       <c r="D197" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E197" t="s">
         <v>354</v>
@@ -14702,7 +14702,7 @@
         <v>280</v>
       </c>
       <c r="D198" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E198" t="s">
         <v>355</v>
@@ -14764,7 +14764,7 @@
         <v>281</v>
       </c>
       <c r="D199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E199" t="s">
         <v>355</v>
@@ -14826,7 +14826,7 @@
         <v>282</v>
       </c>
       <c r="D200" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E200" t="s">
         <v>356</v>
@@ -14891,7 +14891,7 @@
         <v>282</v>
       </c>
       <c r="D201" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E201" t="s">
         <v>356</v>
@@ -14953,7 +14953,7 @@
         <v>283</v>
       </c>
       <c r="D202" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E202" t="s">
         <v>356</v>
@@ -15015,7 +15015,7 @@
         <v>284</v>
       </c>
       <c r="D203" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E203" t="s">
         <v>357</v>
@@ -15077,7 +15077,7 @@
         <v>285</v>
       </c>
       <c r="D204" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E204" t="s">
         <v>357</v>
@@ -15139,7 +15139,7 @@
         <v>286</v>
       </c>
       <c r="D205" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E205" t="s">
         <v>358</v>
@@ -15201,7 +15201,7 @@
         <v>287</v>
       </c>
       <c r="D206" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E206" t="s">
         <v>359</v>
@@ -15263,7 +15263,7 @@
         <v>288</v>
       </c>
       <c r="D207" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E207" t="s">
         <v>359</v>
@@ -15325,7 +15325,7 @@
         <v>289</v>
       </c>
       <c r="D208" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E208" t="s">
         <v>359</v>
@@ -15390,7 +15390,7 @@
         <v>290</v>
       </c>
       <c r="D209" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E209" t="s">
         <v>359</v>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -201,36 +201,36 @@
     <t>Erklärung Gemeinden Jahr 2020 Margreid.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Meran.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Marling.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Meran.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Mölten.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Moos In Passeier.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Naturns.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Mühlbach.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Naturns.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Natz Schabs.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Olang.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Partschings.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Neumarkt.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Olang.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Partschings.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Percha.xlsx</t>
   </si>
   <si>
@@ -249,18 +249,18 @@
     <t>Erklärung Gemeinden Jahr 2020 Prettau.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Ritten.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Rasen-Antholz.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ritten.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Salurn.xlsx</t>
   </si>
   <si>
@@ -315,12 +315,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Villanders.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
   </si>
   <si>
@@ -543,6 +543,75 @@
     <t>Tonidandel Martin</t>
   </si>
   <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>Angeli Zelda</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>Drahorad Mia</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>Palmieri Alice</t>
+  </si>
+  <si>
+    <t>Patzelt Hilda</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>Sauter Noah</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>Trafoier Aaron</t>
+  </si>
+  <si>
+    <t>Uyi Edemayo Divine</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
     <t>Grandioso Mattia</t>
   </si>
   <si>
@@ -555,75 +624,6 @@
     <t>Strobl Jonathan</t>
   </si>
   <si>
-    <t>Agostinetto Matti</t>
-  </si>
-  <si>
-    <t>Agostinetto  Levi</t>
-  </si>
-  <si>
-    <t>Angeli Zelda</t>
-  </si>
-  <si>
-    <t>Burger Karin</t>
-  </si>
-  <si>
-    <t>Costa Yasmina</t>
-  </si>
-  <si>
-    <t>Doliana Mia</t>
-  </si>
-  <si>
-    <t>Drahorad Mia</t>
-  </si>
-  <si>
-    <t>Huber Alexander</t>
-  </si>
-  <si>
-    <t>Massei Damian</t>
-  </si>
-  <si>
-    <t>Niederstaetter Leo</t>
-  </si>
-  <si>
-    <t>Orlando Amy</t>
-  </si>
-  <si>
-    <t>Palmieri Alice</t>
-  </si>
-  <si>
-    <t>Patzelt Hilda</t>
-  </si>
-  <si>
-    <t>Perillo Zwink Noah Leon</t>
-  </si>
-  <si>
-    <t>Pfattner  Jonas</t>
-  </si>
-  <si>
-    <t>Prevedello  Timo</t>
-  </si>
-  <si>
-    <t>Sauter Noah</t>
-  </si>
-  <si>
-    <t>Scano Nicole</t>
-  </si>
-  <si>
-    <t>Stanzel Amira</t>
-  </si>
-  <si>
-    <t>Stragenegg Krieg Paul</t>
-  </si>
-  <si>
-    <t>Trafoier Aaron</t>
-  </si>
-  <si>
-    <t>Uyi Edemayo Divine</t>
-  </si>
-  <si>
-    <t>Vassanelli Noah</t>
-  </si>
-  <si>
     <t>Gruber  Emil</t>
   </si>
   <si>
@@ -633,57 +633,57 @@
     <t>Gufler Lina</t>
   </si>
   <si>
+    <t>Blaas Jakob</t>
+  </si>
+  <si>
+    <t>Burger Linnea</t>
+  </si>
+  <si>
+    <t>Garber Max</t>
+  </si>
+  <si>
+    <t>Gstrein Lea</t>
+  </si>
+  <si>
+    <t>Ormai Greta</t>
+  </si>
+  <si>
+    <t>Przybysz Nicole</t>
+  </si>
+  <si>
+    <t>Schnitzer Lia</t>
+  </si>
+  <si>
     <t>Lechner Mira</t>
   </si>
   <si>
     <t>Marek Ivan</t>
   </si>
   <si>
-    <t>Blaas Jakob</t>
-  </si>
-  <si>
-    <t>Burger Linnea</t>
-  </si>
-  <si>
-    <t>Garber Max</t>
-  </si>
-  <si>
-    <t>Gstrein Lea</t>
-  </si>
-  <si>
-    <t>Ormai Greta</t>
-  </si>
-  <si>
-    <t>Przybysz Nicole</t>
-  </si>
-  <si>
-    <t>Schnitzer Lia</t>
-  </si>
-  <si>
     <t>Battaglia Mattia</t>
   </si>
   <si>
     <t>Peintner  Olivia</t>
   </si>
   <si>
+    <t>Winkler Paula</t>
+  </si>
+  <si>
+    <t>Abler Sophie</t>
+  </si>
+  <si>
+    <t>Gasser Anna</t>
+  </si>
+  <si>
+    <t>Moser Julian</t>
+  </si>
+  <si>
     <t>Ciaghi Maximilian</t>
   </si>
   <si>
     <t>Pürgstaller Alina</t>
   </si>
   <si>
-    <t>Winkler Paula</t>
-  </si>
-  <si>
-    <t>Abler Sophie</t>
-  </si>
-  <si>
-    <t>Gasser Anna</t>
-  </si>
-  <si>
-    <t>Moser Julian</t>
-  </si>
-  <si>
     <t>Premstaller Emmi</t>
   </si>
   <si>
@@ -717,36 +717,36 @@
     <t>Griessmair Jonas</t>
   </si>
   <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
+    <t>Godstime Alex Lukas</t>
+  </si>
+  <si>
+    <t>Mussner Alex</t>
+  </si>
+  <si>
+    <t>Pitscheider Arthur</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
+  </si>
+  <si>
     <t>Taschler  Anton</t>
   </si>
   <si>
-    <t>Fiechter Emil</t>
-  </si>
-  <si>
-    <t>Pillon Luna</t>
-  </si>
-  <si>
-    <t>Santer Zoey</t>
-  </si>
-  <si>
-    <t>Walter Moritz</t>
-  </si>
-  <si>
-    <t>Gruber  Karolina</t>
-  </si>
-  <si>
-    <t>Pichler Simon</t>
-  </si>
-  <si>
-    <t>Godstime Alex Lukas</t>
-  </si>
-  <si>
-    <t>Mussner Alex</t>
-  </si>
-  <si>
-    <t>Pitscheider Arthur</t>
-  </si>
-  <si>
     <t>Covazzi Julia</t>
   </si>
   <si>
@@ -864,18 +864,18 @@
     <t>Delueg Ida</t>
   </si>
   <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
     <t>Mayer Fabienne</t>
   </si>
   <si>
     <t>Obexer Elias</t>
   </si>
   <si>
-    <t>Mor  Nadyn</t>
-  </si>
-  <si>
-    <t>Ploner  Simon</t>
-  </si>
-  <si>
     <t>Singer  Theresa</t>
   </si>
   <si>
@@ -975,36 +975,36 @@
     <t>Margreid</t>
   </si>
   <si>
+    <t>Meran</t>
+  </si>
+  <si>
     <t>Marling</t>
   </si>
   <si>
-    <t>Meran</t>
-  </si>
-  <si>
     <t>Moelten</t>
   </si>
   <si>
     <t>Moos in Passeier</t>
   </si>
   <si>
+    <t>Naturns</t>
+  </si>
+  <si>
     <t>Mühlbach</t>
   </si>
   <si>
-    <t>Naturns</t>
-  </si>
-  <si>
     <t>Natz Schabs</t>
   </si>
   <si>
+    <t>Olang</t>
+  </si>
+  <si>
+    <t>Partschins</t>
+  </si>
+  <si>
     <t>Neumarkt</t>
   </si>
   <si>
-    <t>Olang</t>
-  </si>
-  <si>
-    <t>Partschins</t>
-  </si>
-  <si>
     <t>Percha</t>
   </si>
   <si>
@@ -1023,18 +1023,18 @@
     <t>Prettau</t>
   </si>
   <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
+    <t>Riffian</t>
+  </si>
+  <si>
     <t>Rasen/Antholz</t>
   </si>
   <si>
-    <t>Ratschings</t>
-  </si>
-  <si>
-    <t>Riffian</t>
-  </si>
-  <si>
-    <t>Ritten</t>
-  </si>
-  <si>
     <t>Salurn</t>
   </si>
   <si>
@@ -1089,12 +1089,12 @@
     <t>Villanderes</t>
   </si>
   <si>
+    <t>Vintl</t>
+  </si>
+  <si>
     <t>Villnöss</t>
   </si>
   <si>
-    <t>Vintl</t>
-  </si>
-  <si>
     <t>Völs am Schlern</t>
   </si>
   <si>
@@ -1317,6 +1317,75 @@
     <t>TNDMTN17M30A952D</t>
   </si>
   <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>NGLZLD18E60F132V</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>DRHMIA18A66F132L</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>PLMLCA18D65F132R</t>
+  </si>
+  <si>
+    <t>PTZHLD18A54Z112J</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>STRNHO18L24F132P</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>TRFRNA18B01F132Y</t>
+  </si>
+  <si>
+    <t>YDMDVN18B56F132I</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
     <t>GRNMTT19A06F132F</t>
   </si>
   <si>
@@ -1329,75 +1398,6 @@
     <t>STRJTH17P13F132W</t>
   </si>
   <si>
-    <t>GSTMTT20B09A952T</t>
-  </si>
-  <si>
-    <t>GSTLVE17B06A952V</t>
-  </si>
-  <si>
-    <t>NGLZLD18E60F132V</t>
-  </si>
-  <si>
-    <t>BRGKRN19E60I729G</t>
-  </si>
-  <si>
-    <t>CSTYMN17E60F132Y</t>
-  </si>
-  <si>
-    <t>DLNMIA16T71A952X</t>
-  </si>
-  <si>
-    <t>DRHMIA18A66F132L</t>
-  </si>
-  <si>
-    <t>HBRLND18L27Z102R</t>
-  </si>
-  <si>
-    <t>MSSDMN17S29Z102Y</t>
-  </si>
-  <si>
-    <t>NDRLEO17H28F132T</t>
-  </si>
-  <si>
-    <t>RLNMYA17E46F132T</t>
-  </si>
-  <si>
-    <t>PLMLCA18D65F132R</t>
-  </si>
-  <si>
-    <t>PTZHLD18A54Z112J</t>
-  </si>
-  <si>
-    <t>PRLNLN17A15F132L</t>
-  </si>
-  <si>
-    <t>PFTJNS16S25A952D</t>
-  </si>
-  <si>
-    <t>PRVTMI17T12F132L</t>
-  </si>
-  <si>
-    <t>STRNHO18L24F132P</t>
-  </si>
-  <si>
-    <t>SCNNCL17D64F132B</t>
-  </si>
-  <si>
-    <t>STNMRA17E53F132I</t>
-  </si>
-  <si>
-    <t>STRPLA17B14F132K</t>
-  </si>
-  <si>
-    <t>TRFRNA18B01F132Y</t>
-  </si>
-  <si>
-    <t>YDMDVN18B56F132I</t>
-  </si>
-  <si>
-    <t>VSSNHO16R13F132P</t>
-  </si>
-  <si>
     <t>GRBMLE16T12F132N</t>
   </si>
   <si>
@@ -1407,57 +1407,57 @@
     <t>GFLLNI18L57F132G</t>
   </si>
   <si>
+    <t>BLSJKB16R29I729Q</t>
+  </si>
+  <si>
+    <t>BRGLNN18C48I729E</t>
+  </si>
+  <si>
+    <t>GRBMXA18E04I729N</t>
+  </si>
+  <si>
+    <t>GSTLEA17H61I729P</t>
+  </si>
+  <si>
+    <t>RMOGRT18C43I729G</t>
+  </si>
+  <si>
+    <t>PRZNCL18D50I729L</t>
+  </si>
+  <si>
+    <t>SCHLIA18P62F132S</t>
+  </si>
+  <si>
     <t>LCHMRI17R71B160D</t>
   </si>
   <si>
     <t>MRKVNI17E23B220Q</t>
   </si>
   <si>
-    <t>BLSJKB16R29I729Q</t>
-  </si>
-  <si>
-    <t>BRGLNN18C48I729E</t>
-  </si>
-  <si>
-    <t>GRBMXA18E04I729N</t>
-  </si>
-  <si>
-    <t>GSTLEA17H61I729P</t>
-  </si>
-  <si>
-    <t>RMOGRT18C43I729G</t>
-  </si>
-  <si>
-    <t>PRZNCL18D50I729L</t>
-  </si>
-  <si>
-    <t>SCHLIA18P62F132S</t>
-  </si>
-  <si>
     <t>BTTMTT17P08B160L</t>
   </si>
   <si>
     <t>PNTLVO17T67B160N</t>
   </si>
   <si>
+    <t>WNKPLA17R42B220L</t>
+  </si>
+  <si>
+    <t>BLRSPH16T68F132B</t>
+  </si>
+  <si>
+    <t>GSSNNA18S60I729X</t>
+  </si>
+  <si>
+    <t>MSRJLN18B11F132O</t>
+  </si>
+  <si>
     <t>CGHMML18T16A952I</t>
   </si>
   <si>
     <t>PRGLNA18R41F132V</t>
   </si>
   <si>
-    <t>WNKPLA17R42B220L</t>
-  </si>
-  <si>
-    <t>BLRSPH16T68F132B</t>
-  </si>
-  <si>
-    <t>GSSNNA18S60I729X</t>
-  </si>
-  <si>
-    <t>MSRJLN18B11F132O</t>
-  </si>
-  <si>
     <t>PRMMME19P65B220I</t>
   </si>
   <si>
@@ -1491,36 +1491,36 @@
     <t>GRSJNS17M21B220X</t>
   </si>
   <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
+    <t>GDSLLK17D08A952P</t>
+  </si>
+  <si>
+    <t>MSSLXA19B09A952P</t>
+  </si>
+  <si>
+    <t>PTSRHR19A24B160K</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
+  </si>
+  <si>
     <t>TSCNTN17L08B220M</t>
   </si>
   <si>
-    <t>FCHMLE17A12B160W</t>
-  </si>
-  <si>
-    <t>PLLLNU19C41B160R</t>
-  </si>
-  <si>
-    <t>SNTZYO19E51B160D</t>
-  </si>
-  <si>
-    <t>WLTMTZ16M02M067H</t>
-  </si>
-  <si>
-    <t>GRBKLN17A70F132K</t>
-  </si>
-  <si>
-    <t>PCHSMN19L15F132H</t>
-  </si>
-  <si>
-    <t>GDSLLK17D08A952P</t>
-  </si>
-  <si>
-    <t>MSSLXA19B09A952P</t>
-  </si>
-  <si>
-    <t>PTSRHR19A24B160K</t>
-  </si>
-  <si>
     <t>CVZJLU18S41H612E</t>
   </si>
   <si>
@@ -1638,18 +1638,18 @@
     <t>DLGDIA18A57B160Q</t>
   </si>
   <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
     <t>MYRFNN17L67B160A</t>
   </si>
   <si>
     <t>BXRLSE18E18B160Z</t>
   </si>
   <si>
-    <t>MRONYN16P65B160C</t>
-  </si>
-  <si>
-    <t>PLNSMN17A18B220Q</t>
-  </si>
-  <si>
     <t>SNGTRS17C61F132M</t>
   </si>
   <si>
@@ -1818,75 +1818,75 @@
     <t>Weisenhorn Annamaria</t>
   </si>
   <si>
+    <t>Kienzl Martina Rosa</t>
+  </si>
+  <si>
     <t>Prantl  Hildburg</t>
   </si>
   <si>
+    <t xml:space="preserve">Borarosova Zaneta </t>
+  </si>
+  <si>
+    <t>Theiner Sylvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radina  Germana </t>
+  </si>
+  <si>
+    <t>Muszala Annekathrin</t>
+  </si>
+  <si>
+    <t>Schwienbacher  Hanna</t>
+  </si>
+  <si>
+    <t>Christanell Elisabeth</t>
+  </si>
+  <si>
+    <t>Mittelberger Maria</t>
+  </si>
+  <si>
+    <t>Corazza Rosemarie</t>
+  </si>
+  <si>
+    <t>Alber Karolina</t>
+  </si>
+  <si>
+    <t>Karoly Adrienn</t>
+  </si>
+  <si>
+    <t>Schwalt Kathrin</t>
+  </si>
+  <si>
     <t>Leiter  Julia</t>
   </si>
   <si>
-    <t>Alber Karolina</t>
-  </si>
-  <si>
-    <t>Kienzl Martina Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borarosova Zaneta </t>
-  </si>
-  <si>
-    <t>Theiner Sylvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radina  Germana </t>
-  </si>
-  <si>
-    <t>Muszala Annekathrin</t>
-  </si>
-  <si>
-    <t>Schwienbacher  Hanna</t>
-  </si>
-  <si>
-    <t>Christanell Elisabeth</t>
-  </si>
-  <si>
-    <t>Mittelberger Maria</t>
-  </si>
-  <si>
-    <t>Corazza Rosemarie</t>
-  </si>
-  <si>
-    <t>Karoly Adrienn</t>
-  </si>
-  <si>
-    <t>Schwalt Kathrin</t>
-  </si>
-  <si>
     <t>Duregger Evi</t>
   </si>
   <si>
     <t>Trocker Christine</t>
   </si>
   <si>
+    <t>Rabensteiner Maria</t>
+  </si>
+  <si>
+    <t>Blaas Veronika</t>
+  </si>
+  <si>
+    <t>Kofler Naida</t>
+  </si>
+  <si>
+    <t>Pixner Silvia</t>
+  </si>
+  <si>
     <t>Salcher Andrea</t>
   </si>
   <si>
-    <t>Rabensteiner Maria</t>
-  </si>
-  <si>
-    <t>Blaas Veronika</t>
-  </si>
-  <si>
-    <t>Kofler Naida</t>
-  </si>
-  <si>
-    <t>Pixner Silvia</t>
+    <t>Tappeiner Heidemarie</t>
   </si>
   <si>
     <t>Huber Jessica</t>
   </si>
   <si>
-    <t>Tappeiner Heidemarie</t>
-  </si>
-  <si>
     <t>Winding Helga</t>
   </si>
   <si>
@@ -1905,10 +1905,10 @@
     <t>Oberstaller Agathe</t>
   </si>
   <si>
+    <t>Fink Valentina</t>
+  </si>
+  <si>
     <t>Trientbacher Margit</t>
-  </si>
-  <si>
-    <t>Fink Valentina</t>
   </si>
   <si>
     <t>Rossi Sara</t>
@@ -2806,7 +2806,7 @@
         <v>553</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J7" s="2">
         <v>43598</v>
@@ -4985,7 +4985,7 @@
         <v>575</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J42" s="2">
         <v>43823</v>
@@ -5047,7 +5047,7 @@
         <v>575</v>
       </c>
       <c r="I43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J43" s="2">
         <v>43823</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
@@ -7285,7 +7285,7 @@
         <v>317</v>
       </c>
       <c r="F79" s="2">
-        <v>43471</v>
+        <v>43870</v>
       </c>
       <c r="G79" t="s">
         <v>431</v>
@@ -7294,22 +7294,22 @@
         <v>598</v>
       </c>
       <c r="I79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J79" s="2">
-        <v>44088</v>
+        <v>44130</v>
       </c>
       <c r="K79">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="L79" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -7318,21 +7318,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>24</v>
-      </c>
-      <c r="AG79" t="b">
+        <v>78</v>
+      </c>
+      <c r="AF79" t="b">
         <v>1</v>
       </c>
       <c r="AI79" s="2">
-        <v>44088</v>
+        <v>44130</v>
       </c>
       <c r="AJ79" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>59</v>
@@ -7347,40 +7347,40 @@
         <v>317</v>
       </c>
       <c r="F80" s="2">
-        <v>42775</v>
+        <v>42772</v>
       </c>
       <c r="G80" t="s">
         <v>432</v>
       </c>
       <c r="H80" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I80" t="s">
         <v>317</v>
       </c>
       <c r="J80" s="2">
-        <v>43476</v>
+        <v>43010</v>
       </c>
       <c r="K80">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L80" s="2">
-        <v>44097</v>
+        <v>44070</v>
       </c>
       <c r="M80">
-        <v>606.25</v>
+        <v>345.75</v>
       </c>
       <c r="N80">
-        <v>243.75</v>
+        <v>178.5</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>130.25</v>
+        <v>115.5</v>
       </c>
       <c r="Q80">
-        <v>980.25</v>
+        <v>639.75</v>
       </c>
       <c r="Y80" t="b">
         <v>1</v>
@@ -7389,12 +7389,12 @@
         <v>43831</v>
       </c>
       <c r="AJ80" s="2">
-        <v>44097</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
@@ -7409,60 +7409,60 @@
         <v>317</v>
       </c>
       <c r="F81" s="2">
-        <v>42824</v>
+        <v>43240</v>
       </c>
       <c r="G81" t="s">
         <v>433</v>
       </c>
       <c r="H81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J81" s="2">
-        <v>43678</v>
+        <v>43874</v>
       </c>
       <c r="K81">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="L81" s="2">
-        <v>44134</v>
+        <v>43875</v>
       </c>
       <c r="M81">
-        <v>559</v>
+        <v>11</v>
       </c>
       <c r="N81">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>684</v>
-      </c>
-      <c r="Z81" t="b">
+        <v>11</v>
+      </c>
+      <c r="AG81" t="b">
         <v>1</v>
       </c>
       <c r="AI81" s="2">
-        <v>43831</v>
+        <v>43874</v>
       </c>
       <c r="AJ81" s="2">
-        <v>44134</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
         <v>292</v>
@@ -7471,31 +7471,31 @@
         <v>317</v>
       </c>
       <c r="F82" s="2">
-        <v>42991</v>
+        <v>43240</v>
       </c>
       <c r="G82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H82" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I82" t="s">
         <v>317</v>
       </c>
       <c r="J82" s="2">
-        <v>43388</v>
+        <v>43542</v>
       </c>
       <c r="K82">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="L82" s="2">
-        <v>43951</v>
+        <v>43908</v>
       </c>
       <c r="M82">
-        <v>126.5</v>
+        <v>122.5</v>
       </c>
       <c r="N82">
-        <v>115</v>
+        <v>60.5</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>241.5</v>
+        <v>183</v>
       </c>
       <c r="AC82" t="b">
         <v>1</v>
@@ -7513,51 +7513,51 @@
         <v>43831</v>
       </c>
       <c r="AJ82" s="2">
-        <v>43951</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
         <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F83" s="2">
-        <v>43870</v>
+        <v>43605</v>
       </c>
       <c r="G83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H83" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J83" s="2">
-        <v>44130</v>
+        <v>44144</v>
       </c>
       <c r="K83">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="L83" s="2">
         <v>44196</v>
       </c>
       <c r="M83">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N83">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -7566,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF83" t="b">
         <v>1</v>
       </c>
       <c r="AI83" s="2">
-        <v>44130</v>
+        <v>44144</v>
       </c>
       <c r="AJ83" s="2">
         <v>44196</v>
@@ -7580,134 +7580,137 @@
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
         <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F84" s="2">
-        <v>42772</v>
+        <v>42875</v>
       </c>
       <c r="G84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H84" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J84" s="2">
-        <v>43010</v>
+        <v>44013</v>
       </c>
       <c r="K84">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="L84" s="2">
-        <v>44070</v>
+        <v>44092</v>
       </c>
       <c r="M84">
-        <v>345.75</v>
+        <v>241.5</v>
       </c>
       <c r="N84">
-        <v>178.5</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84">
-        <v>115.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>639.75</v>
-      </c>
-      <c r="Y84" t="b">
+        <v>241.5</v>
+      </c>
+      <c r="Z84" t="b">
         <v>1</v>
       </c>
       <c r="AI84" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="AJ84" s="2">
-        <v>44070</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="1">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D85" t="s">
         <v>292</v>
       </c>
       <c r="E85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F85" s="2">
-        <v>43240</v>
+        <v>42717</v>
       </c>
       <c r="G85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H85" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="I85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J85" s="2">
-        <v>43874</v>
+        <v>42996</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="L85" s="2">
-        <v>43875</v>
+        <v>44049</v>
       </c>
       <c r="M85">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Q85">
-        <v>11</v>
-      </c>
-      <c r="AG85" t="b">
+        <v>592</v>
+      </c>
+      <c r="S85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y85" t="b">
         <v>1</v>
       </c>
       <c r="AI85" s="2">
-        <v>43874</v>
+        <v>43831</v>
       </c>
       <c r="AJ85" s="2">
-        <v>43875</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="1">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>179</v>
@@ -7716,10 +7719,10 @@
         <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F86" s="2">
-        <v>43240</v>
+        <v>43126</v>
       </c>
       <c r="G86" t="s">
         <v>437</v>
@@ -7728,22 +7731,22 @@
         <v>602</v>
       </c>
       <c r="I86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J86" s="2">
-        <v>43542</v>
+        <v>44074</v>
       </c>
       <c r="K86">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="L86" s="2">
-        <v>43908</v>
+        <v>44076</v>
       </c>
       <c r="M86">
-        <v>122.5</v>
+        <v>16</v>
       </c>
       <c r="N86">
-        <v>60.5</v>
+        <v>0</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -7752,24 +7755,24 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>183</v>
-      </c>
-      <c r="AC86" t="b">
+        <v>16</v>
+      </c>
+      <c r="AG86" t="b">
         <v>1</v>
       </c>
       <c r="AI86" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AJ86" s="2">
-        <v>43908</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="1">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
         <v>180</v>
@@ -7778,49 +7781,52 @@
         <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" s="2">
-        <v>43605</v>
+        <v>43308</v>
       </c>
       <c r="G87" t="s">
         <v>438</v>
       </c>
       <c r="H87" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="I87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J87" s="2">
-        <v>44144</v>
+        <v>43881</v>
       </c>
       <c r="K87">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="L87" s="2">
         <v>44196</v>
       </c>
       <c r="M87">
-        <v>62</v>
+        <v>600.5</v>
       </c>
       <c r="N87">
-        <v>18</v>
+        <v>286.5</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>198.5</v>
       </c>
       <c r="Q87">
-        <v>80</v>
-      </c>
-      <c r="AF87" t="b">
+        <v>1085.5</v>
+      </c>
+      <c r="AB87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE87" t="b">
         <v>1</v>
       </c>
       <c r="AI87" s="2">
-        <v>44144</v>
+        <v>43881</v>
       </c>
       <c r="AJ87" s="2">
         <v>44196</v>
@@ -7828,10 +7834,10 @@
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="1">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
         <v>181</v>
@@ -7840,60 +7846,60 @@
         <v>292</v>
       </c>
       <c r="E88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F88" s="2">
-        <v>42875</v>
+        <v>43068</v>
       </c>
       <c r="G88" t="s">
         <v>439</v>
       </c>
       <c r="H88" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="I88" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J88" s="2">
-        <v>44013</v>
+        <v>43718</v>
       </c>
       <c r="K88">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="L88" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
       <c r="M88">
-        <v>241.5</v>
+        <v>592.5</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q88">
-        <v>241.5</v>
+        <v>862.5</v>
       </c>
       <c r="Z88" t="b">
         <v>1</v>
       </c>
       <c r="AI88" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AJ88" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="1">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
         <v>182</v>
@@ -7902,288 +7908,282 @@
         <v>292</v>
       </c>
       <c r="E89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F89" s="2">
-        <v>42717</v>
+        <v>42914</v>
       </c>
       <c r="G89" t="s">
         <v>440</v>
       </c>
       <c r="H89" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="I89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J89" s="2">
-        <v>42996</v>
+        <v>44145</v>
       </c>
       <c r="K89">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="L89" s="2">
-        <v>44049</v>
+        <v>44196</v>
       </c>
       <c r="M89">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="N89">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>592</v>
-      </c>
-      <c r="S89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y89" t="b">
+        <v>230.5</v>
+      </c>
+      <c r="Z89" t="b">
         <v>1</v>
       </c>
       <c r="AI89" s="2">
-        <v>43831</v>
+        <v>44145</v>
       </c>
       <c r="AJ89" s="2">
-        <v>44049</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="1">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
         <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F90" s="2">
-        <v>43126</v>
+        <v>42914</v>
       </c>
       <c r="G90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H90" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J90" s="2">
-        <v>44074</v>
+        <v>43587</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="L90" s="2">
-        <v>44076</v>
+        <v>44134</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>815</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q90">
-        <v>16</v>
-      </c>
-      <c r="AG90" t="b">
+        <v>1093</v>
+      </c>
+      <c r="Z90" t="b">
         <v>1</v>
       </c>
       <c r="AI90" s="2">
-        <v>44074</v>
+        <v>43831</v>
       </c>
       <c r="AJ90" s="2">
-        <v>44076</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="1">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
         <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F91" s="2">
-        <v>43308</v>
+        <v>42861</v>
       </c>
       <c r="G91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I91" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J91" s="2">
-        <v>43881</v>
+        <v>43409</v>
       </c>
       <c r="K91">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="L91" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="M91">
-        <v>600.5</v>
+        <v>138</v>
       </c>
       <c r="N91">
-        <v>286.5</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>198.5</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1085.5</v>
-      </c>
-      <c r="AB91" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE91" t="b">
+        <v>138</v>
+      </c>
+      <c r="Z91" t="b">
         <v>1</v>
       </c>
       <c r="AI91" s="2">
-        <v>43881</v>
+        <v>43831</v>
       </c>
       <c r="AJ91" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
         <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F92" s="2">
-        <v>43068</v>
+        <v>43215</v>
       </c>
       <c r="G92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H92" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I92" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J92" s="2">
-        <v>43718</v>
+        <v>43479</v>
       </c>
       <c r="K92">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="L92" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
       <c r="M92">
-        <v>592.5</v>
+        <v>139.5</v>
       </c>
       <c r="N92">
-        <v>200</v>
+        <v>387</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
       <c r="P92">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="Q92">
-        <v>862.5</v>
-      </c>
-      <c r="Z92" t="b">
+        <v>904.5</v>
+      </c>
+      <c r="AG92" t="b">
         <v>1</v>
       </c>
       <c r="AI92" s="2">
         <v>43831</v>
       </c>
       <c r="AJ92" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="1">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
+        <v>317</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>443</v>
+      </c>
+      <c r="H93" t="s">
+        <v>606</v>
+      </c>
+      <c r="I93" t="s">
+        <v>340</v>
+      </c>
+      <c r="J93" s="2">
+        <v>44097</v>
+      </c>
+      <c r="K93">
         <v>99</v>
-      </c>
-      <c r="B93" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" t="s">
-        <v>318</v>
-      </c>
-      <c r="F93" s="2">
-        <v>42914</v>
-      </c>
-      <c r="G93" t="s">
-        <v>444</v>
-      </c>
-      <c r="H93" t="s">
-        <v>553</v>
-      </c>
-      <c r="I93" t="s">
-        <v>318</v>
-      </c>
-      <c r="J93" s="2">
-        <v>44145</v>
-      </c>
-      <c r="K93">
-        <v>51</v>
       </c>
       <c r="L93" s="2">
         <v>44196</v>
       </c>
       <c r="M93">
-        <v>230.5</v>
+        <v>288.5</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -8192,13 +8192,13 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>230.5</v>
-      </c>
-      <c r="Z93" t="b">
+        <v>321.5</v>
+      </c>
+      <c r="S93" t="b">
         <v>1</v>
       </c>
       <c r="AI93" s="2">
-        <v>44145</v>
+        <v>44097</v>
       </c>
       <c r="AJ93" s="2">
         <v>44196</v>
@@ -8206,10 +8206,10 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
         <v>186</v>
@@ -8218,10 +8218,10 @@
         <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F94" s="2">
-        <v>42914</v>
+        <v>42750</v>
       </c>
       <c r="G94" t="s">
         <v>444</v>
@@ -8230,84 +8230,84 @@
         <v>607</v>
       </c>
       <c r="I94" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J94" s="2">
-        <v>43587</v>
+        <v>44013</v>
       </c>
       <c r="K94">
-        <v>303</v>
+        <v>65</v>
       </c>
       <c r="L94" s="2">
-        <v>44134</v>
+        <v>44078</v>
       </c>
       <c r="M94">
-        <v>815</v>
+        <v>148.5</v>
       </c>
       <c r="N94">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
       <c r="P94">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1093</v>
-      </c>
-      <c r="Z94" t="b">
+        <v>148.5</v>
+      </c>
+      <c r="Y94" t="b">
         <v>1</v>
       </c>
       <c r="AI94" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="AJ94" s="2">
-        <v>44134</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="1">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D95" t="s">
         <v>292</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F95" s="2">
-        <v>42861</v>
+        <v>42750</v>
       </c>
       <c r="G95" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J95" s="2">
-        <v>43409</v>
+        <v>43041</v>
       </c>
       <c r="K95">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="L95" s="2">
-        <v>44104</v>
+        <v>43951</v>
       </c>
       <c r="M95">
-        <v>138</v>
+        <v>180.25</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>203.25</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -8316,122 +8316,125 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>138</v>
-      </c>
-      <c r="Z95" t="b">
+        <v>383.5</v>
+      </c>
+      <c r="Y95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC95" t="b">
         <v>1</v>
       </c>
       <c r="AI95" s="2">
         <v>43831</v>
       </c>
       <c r="AJ95" s="2">
-        <v>44104</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="1">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
         <v>292</v>
       </c>
       <c r="E96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F96" s="2">
-        <v>43215</v>
+        <v>42699</v>
       </c>
       <c r="G96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H96" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J96" s="2">
-        <v>43479</v>
+        <v>43346</v>
       </c>
       <c r="K96">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="L96" s="2">
-        <v>43957</v>
+        <v>44085</v>
       </c>
       <c r="M96">
-        <v>139.5</v>
+        <v>696.25</v>
       </c>
       <c r="N96">
-        <v>387</v>
+        <v>329.25</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>378</v>
+        <v>203.5</v>
       </c>
       <c r="Q96">
-        <v>904.5</v>
-      </c>
-      <c r="AG96" t="b">
+        <v>1229</v>
+      </c>
+      <c r="Y96" t="b">
         <v>1</v>
       </c>
       <c r="AI96" s="2">
         <v>43831</v>
       </c>
       <c r="AJ96" s="2">
-        <v>43957</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
         <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F97" s="2">
-        <v>43104</v>
+        <v>42699</v>
       </c>
       <c r="G97" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H97" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I97" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="J97" s="2">
-        <v>44097</v>
+        <v>44074</v>
       </c>
       <c r="K97">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="L97" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
       <c r="M97">
-        <v>288.5</v>
+        <v>37</v>
       </c>
       <c r="N97">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -8440,122 +8443,125 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>321.5</v>
-      </c>
-      <c r="S97" t="b">
+        <v>37</v>
+      </c>
+      <c r="Y97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG97" t="b">
         <v>1</v>
       </c>
       <c r="AI97" s="2">
-        <v>44097</v>
+        <v>44074</v>
       </c>
       <c r="AJ97" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="1">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
         <v>292</v>
       </c>
       <c r="E98" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F98" s="2">
-        <v>42750</v>
+        <v>43081</v>
       </c>
       <c r="G98" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H98" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="I98" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J98" s="2">
-        <v>44013</v>
+        <v>43360</v>
       </c>
       <c r="K98">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="L98" s="2">
-        <v>44078</v>
+        <v>44196</v>
       </c>
       <c r="M98">
-        <v>148.5</v>
+        <v>1357</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q98">
-        <v>148.5</v>
-      </c>
-      <c r="Y98" t="b">
+        <v>1716.5</v>
+      </c>
+      <c r="Z98" t="b">
         <v>1</v>
       </c>
       <c r="AI98" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AJ98" s="2">
-        <v>44078</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="1">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
         <v>292</v>
       </c>
       <c r="E99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F99" s="2">
-        <v>42750</v>
+        <v>43305</v>
       </c>
       <c r="G99" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H99" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="I99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J99" s="2">
-        <v>43041</v>
+        <v>43745</v>
       </c>
       <c r="K99">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L99" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="M99">
-        <v>180.25</v>
+        <v>196</v>
       </c>
       <c r="N99">
-        <v>203.25</v>
+        <v>105</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -8564,10 +8570,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>383.5</v>
-      </c>
-      <c r="Y99" t="b">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="AC99" t="b">
         <v>1</v>
@@ -8576,77 +8579,77 @@
         <v>43831</v>
       </c>
       <c r="AJ99" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="1">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
         <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F100" s="2">
-        <v>42699</v>
+        <v>42849</v>
       </c>
       <c r="G100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H100" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J100" s="2">
-        <v>43346</v>
+        <v>43284</v>
       </c>
       <c r="K100">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L100" s="2">
-        <v>44085</v>
+        <v>44104</v>
       </c>
       <c r="M100">
-        <v>696.25</v>
+        <v>389</v>
       </c>
       <c r="N100">
-        <v>329.25</v>
+        <v>130</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>203.5</v>
+        <v>-6.5</v>
       </c>
       <c r="Q100">
-        <v>1229</v>
-      </c>
-      <c r="Y100" t="b">
+        <v>512.5</v>
+      </c>
+      <c r="Z100" t="b">
         <v>1</v>
       </c>
       <c r="AI100" s="2">
         <v>43831</v>
       </c>
       <c r="AJ100" s="2">
-        <v>44085</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="1">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
         <v>191</v>
@@ -8655,63 +8658,60 @@
         <v>292</v>
       </c>
       <c r="E101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F101" s="2">
-        <v>42699</v>
+        <v>42868</v>
       </c>
       <c r="G101" t="s">
         <v>449</v>
       </c>
       <c r="H101" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J101" s="2">
-        <v>44074</v>
+        <v>43283</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="L101" s="2">
-        <v>44078</v>
+        <v>44096</v>
       </c>
       <c r="M101">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q101">
-        <v>37</v>
-      </c>
-      <c r="Y101" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG101" t="b">
+        <v>655</v>
+      </c>
+      <c r="Z101" t="b">
         <v>1</v>
       </c>
       <c r="AI101" s="2">
-        <v>44074</v>
+        <v>43831</v>
       </c>
       <c r="AJ101" s="2">
-        <v>44078</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="1">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
         <v>192</v>
@@ -8720,60 +8720,60 @@
         <v>292</v>
       </c>
       <c r="E102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F102" s="2">
-        <v>43081</v>
+        <v>42780</v>
       </c>
       <c r="G102" t="s">
         <v>450</v>
       </c>
       <c r="H102" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="I102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J102" s="2">
-        <v>43360</v>
+        <v>43132</v>
       </c>
       <c r="K102">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="L102" s="2">
-        <v>44196</v>
+        <v>44085</v>
       </c>
       <c r="M102">
-        <v>1357</v>
+        <v>535</v>
       </c>
       <c r="N102">
-        <v>349</v>
+        <v>252.5</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>10.5</v>
+        <v>159</v>
       </c>
       <c r="Q102">
-        <v>1716.5</v>
-      </c>
-      <c r="Z102" t="b">
+        <v>946.5</v>
+      </c>
+      <c r="Y102" t="b">
         <v>1</v>
       </c>
       <c r="AI102" s="2">
         <v>43831</v>
       </c>
       <c r="AJ102" s="2">
-        <v>44196</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="1">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
         <v>193</v>
@@ -8782,34 +8782,34 @@
         <v>292</v>
       </c>
       <c r="E103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F103" s="2">
-        <v>43305</v>
+        <v>43132</v>
       </c>
       <c r="G103" t="s">
         <v>451</v>
       </c>
       <c r="H103" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="I103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J103" s="2">
-        <v>43745</v>
+        <v>43864</v>
       </c>
       <c r="K103">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L103" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="M103">
-        <v>196</v>
+        <v>15.5</v>
       </c>
       <c r="N103">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -8818,24 +8818,24 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>301</v>
+        <v>110.5</v>
       </c>
       <c r="AC103" t="b">
         <v>1</v>
       </c>
       <c r="AI103" s="2">
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="AJ103" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="1">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
         <v>194</v>
@@ -8844,60 +8844,60 @@
         <v>292</v>
       </c>
       <c r="E104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F104" s="2">
-        <v>42849</v>
+        <v>43147</v>
       </c>
       <c r="G104" t="s">
         <v>452</v>
       </c>
       <c r="H104" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="I104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J104" s="2">
-        <v>43284</v>
+        <v>43475</v>
       </c>
       <c r="K104">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="L104" s="2">
-        <v>44104</v>
+        <v>43921</v>
       </c>
       <c r="M104">
-        <v>389</v>
+        <v>150.75</v>
       </c>
       <c r="N104">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="O104">
         <v>0</v>
       </c>
       <c r="P104">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>512.5</v>
-      </c>
-      <c r="Z104" t="b">
+        <v>225.75</v>
+      </c>
+      <c r="AC104" t="b">
         <v>1</v>
       </c>
       <c r="AI104" s="2">
         <v>43831</v>
       </c>
       <c r="AJ104" s="2">
-        <v>44104</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="1">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
         <v>195</v>
@@ -8906,57 +8906,57 @@
         <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F105" s="2">
-        <v>42868</v>
+        <v>42656</v>
       </c>
       <c r="G105" t="s">
         <v>453</v>
       </c>
       <c r="H105" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="I105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J105" s="2">
-        <v>43283</v>
+        <v>42935</v>
       </c>
       <c r="K105">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L105" s="2">
-        <v>44096</v>
+        <v>44077</v>
       </c>
       <c r="M105">
-        <v>445</v>
+        <v>256</v>
       </c>
       <c r="N105">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="Q105">
-        <v>655</v>
-      </c>
-      <c r="Z105" t="b">
+        <v>608</v>
+      </c>
+      <c r="Y105" t="b">
         <v>1</v>
       </c>
       <c r="AI105" s="2">
         <v>43831</v>
       </c>
       <c r="AJ105" s="2">
-        <v>44096</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="1">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
         <v>60</v>
@@ -8971,54 +8971,54 @@
         <v>318</v>
       </c>
       <c r="F106" s="2">
-        <v>42780</v>
+        <v>43471</v>
       </c>
       <c r="G106" t="s">
         <v>454</v>
       </c>
       <c r="H106" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="I106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J106" s="2">
-        <v>43132</v>
+        <v>44088</v>
       </c>
       <c r="K106">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="L106" s="2">
-        <v>44085</v>
+        <v>44092</v>
       </c>
       <c r="M106">
-        <v>535</v>
+        <v>24</v>
       </c>
       <c r="N106">
-        <v>252.5</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>946.5</v>
-      </c>
-      <c r="Y106" t="b">
+        <v>24</v>
+      </c>
+      <c r="AG106" t="b">
         <v>1</v>
       </c>
       <c r="AI106" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AJ106" s="2">
-        <v>44085</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="1">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
         <v>60</v>
@@ -9033,54 +9033,54 @@
         <v>318</v>
       </c>
       <c r="F107" s="2">
-        <v>43132</v>
+        <v>42775</v>
       </c>
       <c r="G107" t="s">
         <v>455</v>
       </c>
       <c r="H107" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="I107" t="s">
         <v>318</v>
       </c>
       <c r="J107" s="2">
-        <v>43864</v>
+        <v>43476</v>
       </c>
       <c r="K107">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="L107" s="2">
-        <v>43951</v>
+        <v>44097</v>
       </c>
       <c r="M107">
-        <v>15.5</v>
+        <v>606.25</v>
       </c>
       <c r="N107">
-        <v>95</v>
+        <v>243.75</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>130.25</v>
       </c>
       <c r="Q107">
-        <v>110.5</v>
-      </c>
-      <c r="AC107" t="b">
+        <v>980.25</v>
+      </c>
+      <c r="Y107" t="b">
         <v>1</v>
       </c>
       <c r="AI107" s="2">
-        <v>43864</v>
+        <v>43831</v>
       </c>
       <c r="AJ107" s="2">
-        <v>43951</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="1">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
         <v>60</v>
@@ -9095,54 +9095,54 @@
         <v>318</v>
       </c>
       <c r="F108" s="2">
-        <v>43147</v>
+        <v>42824</v>
       </c>
       <c r="G108" t="s">
         <v>456</v>
       </c>
       <c r="H108" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J108" s="2">
-        <v>43475</v>
+        <v>43678</v>
       </c>
       <c r="K108">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="L108" s="2">
-        <v>43921</v>
+        <v>44134</v>
       </c>
       <c r="M108">
-        <v>150.75</v>
+        <v>559</v>
       </c>
       <c r="N108">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q108">
-        <v>225.75</v>
-      </c>
-      <c r="AC108" t="b">
+        <v>684</v>
+      </c>
+      <c r="Z108" t="b">
         <v>1</v>
       </c>
       <c r="AI108" s="2">
         <v>43831</v>
       </c>
       <c r="AJ108" s="2">
-        <v>43921</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="1">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
         <v>60</v>
@@ -9157,7 +9157,7 @@
         <v>318</v>
       </c>
       <c r="F109" s="2">
-        <v>42656</v>
+        <v>42991</v>
       </c>
       <c r="G109" t="s">
         <v>457</v>
@@ -9169,37 +9169,37 @@
         <v>318</v>
       </c>
       <c r="J109" s="2">
-        <v>42935</v>
+        <v>43388</v>
       </c>
       <c r="K109">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="L109" s="2">
-        <v>44077</v>
+        <v>43951</v>
       </c>
       <c r="M109">
-        <v>256</v>
+        <v>126.5</v>
       </c>
       <c r="N109">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>608</v>
-      </c>
-      <c r="Y109" t="b">
+        <v>241.5</v>
+      </c>
+      <c r="AC109" t="b">
         <v>1</v>
       </c>
       <c r="AI109" s="2">
         <v>43831</v>
       </c>
       <c r="AJ109" s="2">
-        <v>44077</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="110" spans="1:36">
@@ -9390,7 +9390,7 @@
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
         <v>63</v>
@@ -9405,60 +9405,60 @@
         <v>321</v>
       </c>
       <c r="F113" s="2">
-        <v>43039</v>
+        <v>42672</v>
       </c>
       <c r="G113" t="s">
         <v>461</v>
       </c>
       <c r="H113" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="I113" t="s">
-        <v>321</v>
+        <v>652</v>
       </c>
       <c r="J113" s="2">
-        <v>43500</v>
+        <v>43850</v>
       </c>
       <c r="K113">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="L113" s="2">
-        <v>43957</v>
+        <v>43861</v>
       </c>
       <c r="M113">
-        <v>308</v>
+        <v>48.75</v>
       </c>
       <c r="N113">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="O113">
         <v>0</v>
       </c>
       <c r="P113">
-        <v>249.5</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>858.5</v>
-      </c>
-      <c r="AG113" t="b">
+        <v>48.75</v>
+      </c>
+      <c r="Y113" t="b">
         <v>1</v>
       </c>
       <c r="AI113" s="2">
-        <v>43831</v>
+        <v>43850</v>
       </c>
       <c r="AJ113" s="2">
-        <v>43957</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>63</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D114" t="s">
         <v>292</v>
@@ -9467,10 +9467,10 @@
         <v>321</v>
       </c>
       <c r="F114" s="2">
-        <v>42878</v>
+        <v>42672</v>
       </c>
       <c r="G114" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H114" t="s">
         <v>614</v>
@@ -9479,78 +9479,78 @@
         <v>321</v>
       </c>
       <c r="J114" s="2">
-        <v>43731</v>
+        <v>42957</v>
       </c>
       <c r="K114">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="L114" s="2">
-        <v>43951</v>
+        <v>44089</v>
       </c>
       <c r="M114">
-        <v>143.25</v>
+        <v>498</v>
       </c>
       <c r="N114">
-        <v>124.25</v>
+        <v>117</v>
       </c>
       <c r="O114">
         <v>0</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="Q114">
-        <v>267.5</v>
-      </c>
-      <c r="AC114" t="b">
+        <v>526</v>
+      </c>
+      <c r="Y114" t="b">
         <v>1</v>
       </c>
       <c r="AI114" s="2">
         <v>43831</v>
       </c>
       <c r="AJ114" s="2">
-        <v>43951</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D115" t="s">
         <v>292</v>
       </c>
       <c r="E115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F115" s="2">
-        <v>42672</v>
+        <v>43167</v>
       </c>
       <c r="G115" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H115" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="I115" t="s">
         <v>652</v>
       </c>
       <c r="J115" s="2">
-        <v>43850</v>
+        <v>44187</v>
       </c>
       <c r="K115">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L115" s="2">
-        <v>43861</v>
+        <v>44187</v>
       </c>
       <c r="M115">
-        <v>48.75</v>
+        <v>5</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -9562,24 +9562,24 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>48.75</v>
-      </c>
-      <c r="Y115" t="b">
+        <v>5</v>
+      </c>
+      <c r="AG115" t="b">
         <v>1</v>
       </c>
       <c r="AI115" s="2">
-        <v>43850</v>
+        <v>44187</v>
       </c>
       <c r="AJ115" s="2">
-        <v>43861</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
         <v>205</v>
@@ -9588,60 +9588,60 @@
         <v>292</v>
       </c>
       <c r="E116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F116" s="2">
-        <v>42672</v>
+        <v>43224</v>
       </c>
       <c r="G116" t="s">
         <v>463</v>
       </c>
       <c r="H116" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="I116" t="s">
-        <v>322</v>
+        <v>652</v>
       </c>
       <c r="J116" s="2">
-        <v>42957</v>
+        <v>44088</v>
       </c>
       <c r="K116">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="L116" s="2">
-        <v>44089</v>
+        <v>44092</v>
       </c>
       <c r="M116">
-        <v>498</v>
+        <v>23.5</v>
       </c>
       <c r="N116">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="O116">
         <v>0</v>
       </c>
       <c r="P116">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>526</v>
-      </c>
-      <c r="Y116" t="b">
+        <v>23.5</v>
+      </c>
+      <c r="AG116" t="b">
         <v>1</v>
       </c>
       <c r="AI116" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AJ116" s="2">
-        <v>44089</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -9650,31 +9650,31 @@
         <v>292</v>
       </c>
       <c r="E117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F117" s="2">
-        <v>43167</v>
+        <v>42907</v>
       </c>
       <c r="G117" t="s">
         <v>464</v>
       </c>
       <c r="H117" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I117" t="s">
         <v>652</v>
       </c>
       <c r="J117" s="2">
-        <v>44187</v>
+        <v>43872</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="2">
-        <v>44187</v>
+        <v>43873</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -9686,24 +9686,24 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="AG117" t="b">
         <v>1</v>
       </c>
       <c r="AI117" s="2">
-        <v>44187</v>
+        <v>43872</v>
       </c>
       <c r="AJ117" s="2">
-        <v>44187</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
@@ -9712,31 +9712,31 @@
         <v>292</v>
       </c>
       <c r="E118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F118" s="2">
-        <v>43224</v>
+        <v>43162</v>
       </c>
       <c r="G118" t="s">
         <v>465</v>
       </c>
       <c r="H118" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="I118" t="s">
-        <v>652</v>
+        <v>321</v>
       </c>
       <c r="J118" s="2">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L118" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
       <c r="M118">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -9748,57 +9748,57 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="AG118" t="b">
         <v>1</v>
       </c>
       <c r="AI118" s="2">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="AJ118" s="2">
-        <v>44092</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D119" t="s">
         <v>292</v>
       </c>
       <c r="E119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F119" s="2">
-        <v>42907</v>
+        <v>43162</v>
       </c>
       <c r="G119" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H119" t="s">
         <v>616</v>
       </c>
       <c r="I119" t="s">
-        <v>652</v>
+        <v>321</v>
       </c>
       <c r="J119" s="2">
-        <v>43872</v>
+        <v>44159</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L119" s="2">
-        <v>43873</v>
+        <v>44162</v>
       </c>
       <c r="M119">
-        <v>5.75</v>
+        <v>22.5</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -9810,45 +9810,45 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>5.75</v>
+        <v>22.5</v>
       </c>
       <c r="AG119" t="b">
         <v>1</v>
       </c>
       <c r="AI119" s="2">
-        <v>43872</v>
+        <v>44159</v>
       </c>
       <c r="AJ119" s="2">
-        <v>43873</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s">
         <v>292</v>
       </c>
       <c r="E120" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F120" s="2">
-        <v>43162</v>
+        <v>43200</v>
       </c>
       <c r="G120" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H120" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="I120" t="s">
-        <v>322</v>
+        <v>652</v>
       </c>
       <c r="J120" s="2">
         <v>44095</v>
@@ -9860,7 +9860,7 @@
         <v>44096</v>
       </c>
       <c r="M120">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG120" t="b">
         <v>1</v>
@@ -9886,10 +9886,10 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
         <v>209</v>
@@ -9898,10 +9898,10 @@
         <v>292</v>
       </c>
       <c r="E121" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F121" s="2">
-        <v>43162</v>
+        <v>43365</v>
       </c>
       <c r="G121" t="s">
         <v>467</v>
@@ -9910,22 +9910,22 @@
         <v>617</v>
       </c>
       <c r="I121" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="J121" s="2">
-        <v>44159</v>
+        <v>44144</v>
       </c>
       <c r="K121">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="L121" s="2">
-        <v>44162</v>
+        <v>44196</v>
       </c>
       <c r="M121">
-        <v>22.5</v>
+        <v>92</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -9934,21 +9934,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>22.5</v>
-      </c>
-      <c r="AG121" t="b">
+        <v>119.5</v>
+      </c>
+      <c r="AF121" t="b">
         <v>1</v>
       </c>
       <c r="AI121" s="2">
-        <v>44159</v>
+        <v>44144</v>
       </c>
       <c r="AJ121" s="2">
-        <v>44162</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
         <v>64</v>
@@ -9963,54 +9963,54 @@
         <v>322</v>
       </c>
       <c r="F122" s="2">
-        <v>43200</v>
+        <v>43039</v>
       </c>
       <c r="G122" t="s">
         <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="I122" t="s">
-        <v>652</v>
+        <v>322</v>
       </c>
       <c r="J122" s="2">
-        <v>44095</v>
+        <v>43500</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="L122" s="2">
-        <v>44096</v>
+        <v>43957</v>
       </c>
       <c r="M122">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="O122">
         <v>0</v>
       </c>
       <c r="P122">
-        <v>0</v>
+        <v>249.5</v>
       </c>
       <c r="Q122">
-        <v>9</v>
+        <v>858.5</v>
       </c>
       <c r="AG122" t="b">
         <v>1</v>
       </c>
       <c r="AI122" s="2">
-        <v>44095</v>
+        <v>43831</v>
       </c>
       <c r="AJ122" s="2">
-        <v>44096</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
         <v>64</v>
@@ -10025,7 +10025,7 @@
         <v>322</v>
       </c>
       <c r="F123" s="2">
-        <v>43365</v>
+        <v>42878</v>
       </c>
       <c r="G123" t="s">
         <v>469</v>
@@ -10034,22 +10034,22 @@
         <v>618</v>
       </c>
       <c r="I123" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="J123" s="2">
-        <v>44144</v>
+        <v>43731</v>
       </c>
       <c r="K123">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="L123" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
       <c r="M123">
-        <v>92</v>
+        <v>143.25</v>
       </c>
       <c r="N123">
-        <v>27.5</v>
+        <v>124.25</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -10058,16 +10058,16 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>119.5</v>
-      </c>
-      <c r="AF123" t="b">
+        <v>267.5</v>
+      </c>
+      <c r="AC123" t="b">
         <v>1</v>
       </c>
       <c r="AI123" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ123" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="124" spans="1:36">
@@ -10093,10 +10093,10 @@
         <v>470</v>
       </c>
       <c r="H124" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I124" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J124" s="2">
         <v>43881</v>
@@ -10211,57 +10211,57 @@
         <v>324</v>
       </c>
       <c r="F126" s="2">
-        <v>43450</v>
+        <v>43010</v>
       </c>
       <c r="G126" t="s">
         <v>472</v>
       </c>
       <c r="H126" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="I126" t="s">
-        <v>649</v>
+        <v>327</v>
       </c>
       <c r="J126" s="2">
-        <v>44172</v>
+        <v>43761</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="L126" s="2">
-        <v>44172</v>
+        <v>44196</v>
       </c>
       <c r="M126">
-        <v>7.75</v>
+        <v>601</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>175.25</v>
       </c>
       <c r="O126">
         <v>0</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q126">
-        <v>7.75</v>
-      </c>
-      <c r="AG126" t="b">
+        <v>902.25</v>
+      </c>
+      <c r="Z126" t="b">
         <v>1</v>
       </c>
       <c r="AI126" s="2">
-        <v>44172</v>
+        <v>43831</v>
       </c>
       <c r="AJ126" s="2">
-        <v>44172</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C127" t="s">
         <v>215</v>
@@ -10270,10 +10270,10 @@
         <v>292</v>
       </c>
       <c r="E127" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F127" s="2">
-        <v>43374</v>
+        <v>42732</v>
       </c>
       <c r="G127" t="s">
         <v>473</v>
@@ -10282,45 +10282,45 @@
         <v>619</v>
       </c>
       <c r="I127" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J127" s="2">
-        <v>43683</v>
+        <v>42979</v>
       </c>
       <c r="K127">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="L127" s="2">
-        <v>43957</v>
+        <v>44134</v>
       </c>
       <c r="M127">
-        <v>175.75</v>
+        <v>427.5</v>
       </c>
       <c r="N127">
-        <v>204.25</v>
+        <v>169</v>
       </c>
       <c r="O127">
         <v>0</v>
       </c>
       <c r="P127">
-        <v>285</v>
+        <v>136.5</v>
       </c>
       <c r="Q127">
-        <v>665</v>
-      </c>
-      <c r="AG127" t="b">
+        <v>733</v>
+      </c>
+      <c r="Y127" t="b">
         <v>1</v>
       </c>
       <c r="AI127" s="2">
         <v>43831</v>
       </c>
       <c r="AJ127" s="2">
-        <v>43957</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
         <v>67</v>
@@ -10335,57 +10335,57 @@
         <v>325</v>
       </c>
       <c r="F128" s="2">
-        <v>43010</v>
+        <v>43424</v>
       </c>
       <c r="G128" t="s">
         <v>474</v>
       </c>
       <c r="H128" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="I128" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J128" s="2">
-        <v>43761</v>
+        <v>43864</v>
       </c>
       <c r="K128">
-        <v>365</v>
+        <v>39</v>
       </c>
       <c r="L128" s="2">
-        <v>44196</v>
+        <v>43903</v>
       </c>
       <c r="M128">
-        <v>601</v>
+        <v>90</v>
       </c>
       <c r="N128">
-        <v>175.25</v>
+        <v>31.5</v>
       </c>
       <c r="O128">
         <v>0</v>
       </c>
       <c r="P128">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>902.25</v>
-      </c>
-      <c r="Z128" t="b">
+        <v>121.5</v>
+      </c>
+      <c r="AC128" t="b">
         <v>1</v>
       </c>
       <c r="AI128" s="2">
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="AJ128" s="2">
-        <v>44196</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
         <v>217</v>
@@ -10394,57 +10394,57 @@
         <v>292</v>
       </c>
       <c r="E129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F129" s="2">
-        <v>42732</v>
+        <v>43142</v>
       </c>
       <c r="G129" t="s">
         <v>475</v>
       </c>
       <c r="H129" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="I129" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J129" s="2">
-        <v>42979</v>
+        <v>43864</v>
       </c>
       <c r="K129">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="L129" s="2">
-        <v>44134</v>
+        <v>43903</v>
       </c>
       <c r="M129">
-        <v>427.5</v>
+        <v>102</v>
       </c>
       <c r="N129">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="O129">
         <v>0</v>
       </c>
       <c r="P129">
-        <v>136.5</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>733</v>
-      </c>
-      <c r="Y129" t="b">
+        <v>144</v>
+      </c>
+      <c r="AC129" t="b">
         <v>1</v>
       </c>
       <c r="AI129" s="2">
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="AJ129" s="2">
-        <v>44134</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
         <v>68</v>
@@ -10459,31 +10459,31 @@
         <v>326</v>
       </c>
       <c r="F130" s="2">
-        <v>43424</v>
+        <v>43450</v>
       </c>
       <c r="G130" t="s">
         <v>476</v>
       </c>
       <c r="H130" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="I130" t="s">
-        <v>318</v>
+        <v>649</v>
       </c>
       <c r="J130" s="2">
-        <v>43864</v>
+        <v>44172</v>
       </c>
       <c r="K130">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L130" s="2">
-        <v>43903</v>
+        <v>44172</v>
       </c>
       <c r="M130">
-        <v>90</v>
+        <v>7.75</v>
       </c>
       <c r="N130">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -10492,21 +10492,21 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>121.5</v>
-      </c>
-      <c r="AC130" t="b">
+        <v>7.75</v>
+      </c>
+      <c r="AG130" t="b">
         <v>1</v>
       </c>
       <c r="AI130" s="2">
-        <v>43864</v>
+        <v>44172</v>
       </c>
       <c r="AJ130" s="2">
-        <v>43903</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
         <v>68</v>
@@ -10521,49 +10521,49 @@
         <v>326</v>
       </c>
       <c r="F131" s="2">
-        <v>43142</v>
+        <v>43374</v>
       </c>
       <c r="G131" t="s">
         <v>477</v>
       </c>
       <c r="H131" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="I131" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="J131" s="2">
-        <v>43864</v>
+        <v>43683</v>
       </c>
       <c r="K131">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="L131" s="2">
-        <v>43903</v>
+        <v>43957</v>
       </c>
       <c r="M131">
-        <v>102</v>
+        <v>175.75</v>
       </c>
       <c r="N131">
-        <v>42</v>
+        <v>204.25</v>
       </c>
       <c r="O131">
         <v>0</v>
       </c>
       <c r="P131">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="Q131">
-        <v>144</v>
-      </c>
-      <c r="AC131" t="b">
+        <v>665</v>
+      </c>
+      <c r="AG131" t="b">
         <v>1</v>
       </c>
       <c r="AI131" s="2">
-        <v>43864</v>
+        <v>43831</v>
       </c>
       <c r="AJ131" s="2">
-        <v>43903</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="132" spans="1:36">
@@ -10905,7 +10905,7 @@
         <v>622</v>
       </c>
       <c r="I137" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J137" s="2">
         <v>43080</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>75</v>
@@ -11271,57 +11271,57 @@
         <v>333</v>
       </c>
       <c r="F143" s="2">
-        <v>42924</v>
+        <v>42747</v>
       </c>
       <c r="G143" t="s">
         <v>489</v>
       </c>
       <c r="H143" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="I143" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="J143" s="2">
-        <v>43276</v>
+        <v>43833</v>
       </c>
       <c r="K143">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="L143" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
       <c r="M143">
-        <v>780.5</v>
+        <v>272</v>
       </c>
       <c r="N143">
-        <v>232</v>
+        <v>124.5</v>
       </c>
       <c r="O143">
         <v>0</v>
       </c>
       <c r="P143">
-        <v>94.75</v>
+        <v>101.5</v>
       </c>
       <c r="Q143">
-        <v>1107.25</v>
-      </c>
-      <c r="Z143" t="b">
+        <v>498</v>
+      </c>
+      <c r="Y143" t="b">
         <v>1</v>
       </c>
       <c r="AI143" s="2">
-        <v>43831</v>
+        <v>43833</v>
       </c>
       <c r="AJ143" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="144" spans="1:36">
       <c r="A144" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
@@ -11330,10 +11330,10 @@
         <v>292</v>
       </c>
       <c r="E144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F144" s="2">
-        <v>42747</v>
+        <v>43525</v>
       </c>
       <c r="G144" t="s">
         <v>490</v>
@@ -11342,48 +11342,48 @@
         <v>575</v>
       </c>
       <c r="I144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J144" s="2">
-        <v>43833</v>
+        <v>43913</v>
       </c>
       <c r="K144">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="L144" s="2">
-        <v>44083</v>
+        <v>44196</v>
       </c>
       <c r="M144">
-        <v>272</v>
+        <v>544.5</v>
       </c>
       <c r="N144">
-        <v>124.5</v>
+        <v>7</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
       <c r="P144">
-        <v>101.5</v>
+        <v>25</v>
       </c>
       <c r="Q144">
-        <v>498</v>
-      </c>
-      <c r="Y144" t="b">
+        <v>576.5</v>
+      </c>
+      <c r="AA144" t="b">
         <v>1</v>
       </c>
       <c r="AI144" s="2">
-        <v>43833</v>
+        <v>43913</v>
       </c>
       <c r="AJ144" s="2">
-        <v>44083</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -11392,10 +11392,10 @@
         <v>292</v>
       </c>
       <c r="E145" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F145" s="2">
-        <v>43525</v>
+        <v>43596</v>
       </c>
       <c r="G145" t="s">
         <v>491</v>
@@ -11404,37 +11404,37 @@
         <v>575</v>
       </c>
       <c r="I145" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J145" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="K145">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L145" s="2">
         <v>44196</v>
       </c>
       <c r="M145">
-        <v>544.5</v>
+        <v>521.75</v>
       </c>
       <c r="N145">
-        <v>7</v>
+        <v>20.75</v>
       </c>
       <c r="O145">
         <v>0</v>
       </c>
       <c r="P145">
-        <v>25</v>
+        <v>23.75</v>
       </c>
       <c r="Q145">
-        <v>576.5</v>
+        <v>566.25</v>
       </c>
       <c r="AA145" t="b">
         <v>1</v>
       </c>
       <c r="AI145" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="AJ145" s="2">
         <v>44196</v>
@@ -11442,10 +11442,10 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
         <v>234</v>
@@ -11454,57 +11454,57 @@
         <v>292</v>
       </c>
       <c r="E146" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F146" s="2">
-        <v>43596</v>
+        <v>42584</v>
       </c>
       <c r="G146" t="s">
         <v>492</v>
       </c>
       <c r="H146" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="I146" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J146" s="2">
-        <v>43906</v>
+        <v>43070</v>
       </c>
       <c r="K146">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="L146" s="2">
-        <v>44196</v>
+        <v>44015</v>
       </c>
       <c r="M146">
-        <v>521.75</v>
+        <v>470.75</v>
       </c>
       <c r="N146">
-        <v>20.75</v>
+        <v>268.5</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>23.75</v>
+        <v>49</v>
       </c>
       <c r="Q146">
-        <v>566.25</v>
-      </c>
-      <c r="AA146" t="b">
+        <v>788.25</v>
+      </c>
+      <c r="Y146" t="b">
         <v>1</v>
       </c>
       <c r="AI146" s="2">
-        <v>43906</v>
+        <v>43831</v>
       </c>
       <c r="AJ146" s="2">
-        <v>44196</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>76</v>
@@ -11519,57 +11519,57 @@
         <v>334</v>
       </c>
       <c r="F147" s="2">
-        <v>42584</v>
+        <v>42833</v>
       </c>
       <c r="G147" t="s">
         <v>493</v>
       </c>
       <c r="H147" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I147" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J147" s="2">
-        <v>43070</v>
+        <v>43701</v>
       </c>
       <c r="K147">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="L147" s="2">
-        <v>44015</v>
+        <v>43921</v>
       </c>
       <c r="M147">
-        <v>470.75</v>
+        <v>299.25</v>
       </c>
       <c r="N147">
-        <v>268.5</v>
+        <v>135</v>
       </c>
       <c r="O147">
         <v>0</v>
       </c>
       <c r="P147">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>788.25</v>
-      </c>
-      <c r="Y147" t="b">
+        <v>434.25</v>
+      </c>
+      <c r="AC147" t="b">
         <v>1</v>
       </c>
       <c r="AI147" s="2">
         <v>43831</v>
       </c>
       <c r="AJ147" s="2">
-        <v>44015</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C148" t="s">
         <v>236</v>
@@ -11578,10 +11578,10 @@
         <v>292</v>
       </c>
       <c r="E148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F148" s="2">
-        <v>42765</v>
+        <v>43505</v>
       </c>
       <c r="G148" t="s">
         <v>494</v>
@@ -11590,48 +11590,48 @@
         <v>627</v>
       </c>
       <c r="I148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J148" s="2">
-        <v>43160</v>
+        <v>43839</v>
       </c>
       <c r="K148">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="L148" s="2">
-        <v>44078</v>
+        <v>43921</v>
       </c>
       <c r="M148">
-        <v>429.75</v>
+        <v>182.5</v>
       </c>
       <c r="N148">
-        <v>193.5</v>
+        <v>84</v>
       </c>
       <c r="O148">
         <v>0</v>
       </c>
       <c r="P148">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <v>656.5</v>
-      </c>
-      <c r="Y148" t="b">
+        <v>266.5</v>
+      </c>
+      <c r="AC148" t="b">
         <v>1</v>
       </c>
       <c r="AI148" s="2">
-        <v>43831</v>
+        <v>43839</v>
       </c>
       <c r="AJ148" s="2">
-        <v>44078</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C149" t="s">
         <v>237</v>
@@ -11640,10 +11640,10 @@
         <v>292</v>
       </c>
       <c r="E149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F149" s="2">
-        <v>43661</v>
+        <v>43489</v>
       </c>
       <c r="G149" t="s">
         <v>495</v>
@@ -11652,51 +11652,48 @@
         <v>627</v>
       </c>
       <c r="I149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J149" s="2">
-        <v>43893</v>
+        <v>43746</v>
       </c>
       <c r="K149">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="L149" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="M149">
-        <v>360.5</v>
+        <v>283.5</v>
       </c>
       <c r="N149">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="O149">
         <v>0</v>
       </c>
       <c r="P149">
-        <v>207.25</v>
+        <v>0</v>
       </c>
       <c r="Q149">
-        <v>735.75</v>
-      </c>
-      <c r="AB149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE149" t="b">
+        <v>418.5</v>
+      </c>
+      <c r="AC149" t="b">
         <v>1</v>
       </c>
       <c r="AI149" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ149" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
         <v>238</v>
@@ -11705,10 +11702,10 @@
         <v>292</v>
       </c>
       <c r="E150" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F150" s="2">
-        <v>42833</v>
+        <v>42765</v>
       </c>
       <c r="G150" t="s">
         <v>496</v>
@@ -11717,48 +11714,48 @@
         <v>628</v>
       </c>
       <c r="I150" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J150" s="2">
-        <v>43701</v>
+        <v>43160</v>
       </c>
       <c r="K150">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="L150" s="2">
-        <v>43921</v>
+        <v>44078</v>
       </c>
       <c r="M150">
-        <v>299.25</v>
+        <v>429.75</v>
       </c>
       <c r="N150">
-        <v>135</v>
+        <v>193.5</v>
       </c>
       <c r="O150">
         <v>0</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="Q150">
-        <v>434.25</v>
-      </c>
-      <c r="AC150" t="b">
+        <v>656.5</v>
+      </c>
+      <c r="Y150" t="b">
         <v>1</v>
       </c>
       <c r="AI150" s="2">
         <v>43831</v>
       </c>
       <c r="AJ150" s="2">
-        <v>43921</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
         <v>239</v>
@@ -11767,10 +11764,10 @@
         <v>292</v>
       </c>
       <c r="E151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F151" s="2">
-        <v>43505</v>
+        <v>43661</v>
       </c>
       <c r="G151" t="s">
         <v>497</v>
@@ -11779,45 +11776,48 @@
         <v>628</v>
       </c>
       <c r="I151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J151" s="2">
-        <v>43839</v>
+        <v>43893</v>
       </c>
       <c r="K151">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="L151" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M151">
-        <v>182.5</v>
+        <v>360.5</v>
       </c>
       <c r="N151">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="O151">
         <v>0</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>207.25</v>
       </c>
       <c r="Q151">
-        <v>266.5</v>
-      </c>
-      <c r="AC151" t="b">
+        <v>735.75</v>
+      </c>
+      <c r="AB151" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE151" t="b">
         <v>1</v>
       </c>
       <c r="AI151" s="2">
-        <v>43839</v>
+        <v>43893</v>
       </c>
       <c r="AJ151" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
         <v>78</v>
@@ -11832,49 +11832,49 @@
         <v>336</v>
       </c>
       <c r="F152" s="2">
-        <v>43489</v>
+        <v>42924</v>
       </c>
       <c r="G152" t="s">
         <v>498</v>
       </c>
       <c r="H152" t="s">
-        <v>628</v>
+        <v>568</v>
       </c>
       <c r="I152" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J152" s="2">
-        <v>43746</v>
+        <v>43276</v>
       </c>
       <c r="K152">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="L152" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M152">
-        <v>283.5</v>
+        <v>780.5</v>
       </c>
       <c r="N152">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="O152">
         <v>0</v>
       </c>
       <c r="P152">
-        <v>0</v>
+        <v>94.75</v>
       </c>
       <c r="Q152">
-        <v>418.5</v>
-      </c>
-      <c r="AC152" t="b">
+        <v>1107.25</v>
+      </c>
+      <c r="Z152" t="b">
         <v>1</v>
       </c>
       <c r="AI152" s="2">
         <v>43831</v>
       </c>
       <c r="AJ152" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="153" spans="1:36">
@@ -12334,7 +12334,7 @@
         <v>506</v>
       </c>
       <c r="H160" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I160" t="s">
         <v>340</v>
@@ -13456,10 +13456,10 @@
         <v>524</v>
       </c>
       <c r="H178" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I178" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J178" s="2">
         <v>43893</v>
@@ -14271,7 +14271,7 @@
         <v>640</v>
       </c>
       <c r="I191" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J191" s="2">
         <v>43872</v>
@@ -14655,7 +14655,7 @@
         <v>643</v>
       </c>
       <c r="I197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J197" s="2">
         <v>43483</v>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
         <v>97</v>
@@ -14708,60 +14708,63 @@
         <v>355</v>
       </c>
       <c r="F198" s="2">
-        <v>42943</v>
+        <v>42638</v>
       </c>
       <c r="G198" t="s">
         <v>538</v>
       </c>
       <c r="H198" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I198" t="s">
         <v>355</v>
       </c>
       <c r="J198" s="2">
-        <v>43587</v>
+        <v>43336</v>
       </c>
       <c r="K198">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="L198" s="2">
-        <v>44091</v>
+        <v>43937</v>
       </c>
       <c r="M198">
-        <v>425.75</v>
+        <v>127.5</v>
       </c>
       <c r="N198">
-        <v>122.5</v>
+        <v>109.5</v>
       </c>
       <c r="O198">
         <v>0</v>
       </c>
       <c r="P198">
-        <v>-18.5</v>
+        <v>92.25</v>
       </c>
       <c r="Q198">
-        <v>529.75</v>
-      </c>
-      <c r="Z198" t="b">
+        <v>329.25</v>
+      </c>
+      <c r="Y198" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC198" t="b">
         <v>1</v>
       </c>
       <c r="AI198" s="2">
         <v>43831</v>
       </c>
       <c r="AJ198" s="2">
-        <v>44091</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="199" spans="1:36">
       <c r="A199" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B199" t="s">
         <v>97</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D199" t="s">
         <v>292</v>
@@ -14770,119 +14773,116 @@
         <v>355</v>
       </c>
       <c r="F199" s="2">
-        <v>43238</v>
+        <v>42638</v>
       </c>
       <c r="G199" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H199" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I199" t="s">
         <v>355</v>
       </c>
       <c r="J199" s="2">
-        <v>43594</v>
+        <v>44025</v>
       </c>
       <c r="K199">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="L199" s="2">
-        <v>43957</v>
+        <v>44084</v>
       </c>
       <c r="M199">
-        <v>169.25</v>
+        <v>128.25</v>
       </c>
       <c r="N199">
-        <v>229.5</v>
+        <v>0</v>
       </c>
       <c r="O199">
         <v>0</v>
       </c>
       <c r="P199">
-        <v>280.5</v>
+        <v>0</v>
       </c>
       <c r="Q199">
-        <v>679.25</v>
-      </c>
-      <c r="AG199" t="b">
+        <v>128.25</v>
+      </c>
+      <c r="Y199" t="b">
         <v>1</v>
       </c>
       <c r="AI199" s="2">
-        <v>43831</v>
+        <v>44025</v>
       </c>
       <c r="AJ199" s="2">
-        <v>43957</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C200" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D200" t="s">
         <v>292</v>
       </c>
       <c r="E200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F200" s="2">
-        <v>42638</v>
+        <v>42753</v>
       </c>
       <c r="G200" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H200" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="I200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J200" s="2">
-        <v>43336</v>
+        <v>43227</v>
       </c>
       <c r="K200">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="L200" s="2">
-        <v>43937</v>
+        <v>44071</v>
       </c>
       <c r="M200">
-        <v>127.5</v>
+        <v>392</v>
       </c>
       <c r="N200">
-        <v>109.5</v>
+        <v>104</v>
       </c>
       <c r="O200">
         <v>0</v>
       </c>
       <c r="P200">
-        <v>92.25</v>
+        <v>16.5</v>
       </c>
       <c r="Q200">
-        <v>329.25</v>
+        <v>512.5</v>
       </c>
       <c r="Y200" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC200" t="b">
         <v>1</v>
       </c>
       <c r="AI200" s="2">
         <v>43831</v>
       </c>
       <c r="AJ200" s="2">
-        <v>43937</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="201" spans="1:36">
       <c r="A201" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
         <v>98</v>
@@ -14897,54 +14897,54 @@
         <v>356</v>
       </c>
       <c r="F201" s="2">
-        <v>42638</v>
+        <v>42943</v>
       </c>
       <c r="G201" t="s">
         <v>540</v>
       </c>
       <c r="H201" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I201" t="s">
         <v>356</v>
       </c>
       <c r="J201" s="2">
-        <v>44025</v>
+        <v>43587</v>
       </c>
       <c r="K201">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="L201" s="2">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="M201">
-        <v>128.25</v>
+        <v>425.75</v>
       </c>
       <c r="N201">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="O201">
         <v>0</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="Q201">
-        <v>128.25</v>
-      </c>
-      <c r="Y201" t="b">
+        <v>529.75</v>
+      </c>
+      <c r="Z201" t="b">
         <v>1</v>
       </c>
       <c r="AI201" s="2">
-        <v>44025</v>
+        <v>43831</v>
       </c>
       <c r="AJ201" s="2">
-        <v>44084</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="202" spans="1:36">
       <c r="A202" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B202" t="s">
         <v>98</v>
@@ -14959,49 +14959,49 @@
         <v>356</v>
       </c>
       <c r="F202" s="2">
-        <v>42753</v>
+        <v>43238</v>
       </c>
       <c r="G202" t="s">
         <v>541</v>
       </c>
       <c r="H202" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="I202" t="s">
         <v>356</v>
       </c>
       <c r="J202" s="2">
-        <v>43227</v>
+        <v>43594</v>
       </c>
       <c r="K202">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="L202" s="2">
-        <v>44071</v>
+        <v>43957</v>
       </c>
       <c r="M202">
-        <v>392</v>
+        <v>169.25</v>
       </c>
       <c r="N202">
-        <v>104</v>
+        <v>229.5</v>
       </c>
       <c r="O202">
         <v>0</v>
       </c>
       <c r="P202">
-        <v>16.5</v>
+        <v>280.5</v>
       </c>
       <c r="Q202">
-        <v>512.5</v>
-      </c>
-      <c r="Y202" t="b">
+        <v>679.25</v>
+      </c>
+      <c r="AG202" t="b">
         <v>1</v>
       </c>
       <c r="AI202" s="2">
         <v>43831</v>
       </c>
       <c r="AJ202" s="2">
-        <v>44071</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="203" spans="1:36">

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -132,18 +132,18 @@
     <t>Erklärung Gemeinden Jahr 2020 Ahrntal.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Andrian.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Bozen.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Auer.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Algund.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Andrian.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Auer.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Bozen.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Brixen.xlsx</t>
   </si>
   <si>
@@ -180,33 +180,33 @@
     <t>Erklärung Gemeinden Jahr 2020 Karneid.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Kiens.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Klausen.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Lana.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Latsch.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Lana.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Mals i. V..xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Margreid.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Mals i. V..xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Marling.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Meran.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Marling.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Mölten.xlsx</t>
   </si>
   <si>
@@ -219,51 +219,51 @@
     <t>Erklärung Gemeinden Jahr 2020 Naturns.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Natz Schabs.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Neumarkt.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Olang.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Natz Schabs.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Neumarkt.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Partschings.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Percha.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Pfitsch.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Pfalzen.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Pfatten.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Pfitsch.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Prad a.Stj..xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Prettau.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Rasen-Antholz.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Prad a.Stj..xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Riffian.xlsx</t>
+    <t>Erklärung Gemeinden Jahr 2020 Ritten.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Salurn.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ritten.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Sand in Taufers.xlsx</t>
   </si>
   <si>
@@ -285,15 +285,15 @@
     <t>Erklärung Gemeinden Jahr 2020 St. Lorenzen.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 St. Martin In Passeier.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 St. Pankraz Ulten.xlsx</t>
   </si>
   <si>
     <t>Erklärung Gemeinden Jahr 2020 Taufers im Münstertal.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 St. Martin In Passeier.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Terlan.xlsx</t>
   </si>
   <si>
@@ -303,39 +303,60 @@
     <t>Erklärung Gemeinden Jahr 2020 Tramin.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Tscherms.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Tirol.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Tscherms.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Ulten.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Villanders.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Vöran.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Welschnofen.xlsx</t>
-  </si>
-  <si>
     <t>Ajardi Josef</t>
   </si>
   <si>
     <t>Ruiu Nina</t>
   </si>
   <si>
+    <t>Mair Leo</t>
+  </si>
+  <si>
+    <t>Schwienbacher Magdalena</t>
+  </si>
+  <si>
+    <t>Huber Anna</t>
+  </si>
+  <si>
+    <t>Pircher Elsa Katharina</t>
+  </si>
+  <si>
+    <t>Stampfl Johanna</t>
+  </si>
+  <si>
+    <t>Viaro Camilla</t>
+  </si>
+  <si>
+    <t>Billi Lorenzo</t>
+  </si>
+  <si>
     <t>Bertagnolli Julius</t>
   </si>
   <si>
@@ -348,27 +369,6 @@
     <t>Maturilli Anna Maria</t>
   </si>
   <si>
-    <t>Mair Leo</t>
-  </si>
-  <si>
-    <t>Schwienbacher Magdalena</t>
-  </si>
-  <si>
-    <t>Billi Lorenzo</t>
-  </si>
-  <si>
-    <t>Huber Anna</t>
-  </si>
-  <si>
-    <t>Pircher Elsa Katharina</t>
-  </si>
-  <si>
-    <t>Stampfl Johanna</t>
-  </si>
-  <si>
-    <t>Viaro Camilla</t>
-  </si>
-  <si>
     <t>Cappello Camilla</t>
   </si>
   <si>
@@ -486,46 +486,55 @@
     <t>Rieder Fabian</t>
   </si>
   <si>
+    <t>Hochgruber Raphael</t>
+  </si>
+  <si>
+    <t>Weger Mathe Elisabeth</t>
+  </si>
+  <si>
+    <t>Bekoe Lucia</t>
+  </si>
+  <si>
+    <t>Frei Gasser Mia</t>
+  </si>
+  <si>
     <t>Gostner Noah</t>
   </si>
   <si>
     <t>Mulser Lenny</t>
   </si>
   <si>
-    <t>Hochgruber Raphael</t>
-  </si>
-  <si>
-    <t>Weger Mathe Elisabeth</t>
-  </si>
-  <si>
-    <t>Bekoe Lucia</t>
-  </si>
-  <si>
-    <t>Frei Gasser Mia</t>
+    <t>D´Altri Stella</t>
+  </si>
+  <si>
+    <t>Gasser Lara</t>
+  </si>
+  <si>
+    <t>Goegele Maria</t>
+  </si>
+  <si>
+    <t>Mueller Ronja</t>
+  </si>
+  <si>
+    <t>Pejic Milica</t>
+  </si>
+  <si>
+    <t>Wassler Alex</t>
+  </si>
+  <si>
+    <t>Wenter Leo</t>
   </si>
   <si>
     <t>Linser Finn</t>
   </si>
   <si>
-    <t>D´Altri Stella</t>
-  </si>
-  <si>
-    <t>Gasser Lara</t>
-  </si>
-  <si>
-    <t>Goegele Maria</t>
-  </si>
-  <si>
-    <t>Mueller Ronja</t>
-  </si>
-  <si>
-    <t>Pejic Milica</t>
-  </si>
-  <si>
-    <t>Wassler Alex</t>
-  </si>
-  <si>
-    <t>Wenter Leo</t>
+    <t>Adam Madleen</t>
+  </si>
+  <si>
+    <t>Punter Julius</t>
+  </si>
+  <si>
+    <t>Punter  Emil</t>
   </si>
   <si>
     <t>Gruber Damian</t>
@@ -534,13 +543,16 @@
     <t>Tonidandel Martin</t>
   </si>
   <si>
-    <t>Adam Madleen</t>
-  </si>
-  <si>
-    <t>Punter Julius</t>
-  </si>
-  <si>
-    <t>Punter  Emil</t>
+    <t>Grandioso Mattia</t>
+  </si>
+  <si>
+    <t>Ladurner Moritz</t>
+  </si>
+  <si>
+    <t>Matzoll Rene</t>
+  </si>
+  <si>
+    <t>Strobl Jonathan</t>
   </si>
   <si>
     <t>Agostinetto Matti</t>
@@ -612,18 +624,6 @@
     <t>Vassanelli Noah</t>
   </si>
   <si>
-    <t>Grandioso Mattia</t>
-  </si>
-  <si>
-    <t>Ladurner Moritz</t>
-  </si>
-  <si>
-    <t>Matzoll Rene</t>
-  </si>
-  <si>
-    <t>Strobl Jonathan</t>
-  </si>
-  <si>
     <t>Gruber  Emil</t>
   </si>
   <si>
@@ -660,21 +660,21 @@
     <t>Schnitzer Lia</t>
   </si>
   <si>
+    <t>Battaglia Mattia</t>
+  </si>
+  <si>
+    <t>Peintner  Olivia</t>
+  </si>
+  <si>
+    <t>Ciaghi Maximilian</t>
+  </si>
+  <si>
+    <t>Pürgstaller Alina</t>
+  </si>
+  <si>
     <t>Winkler Paula</t>
   </si>
   <si>
-    <t>Battaglia Mattia</t>
-  </si>
-  <si>
-    <t>Peintner  Olivia</t>
-  </si>
-  <si>
-    <t>Ciaghi Maximilian</t>
-  </si>
-  <si>
-    <t>Pürgstaller Alina</t>
-  </si>
-  <si>
     <t>Abler Sophie</t>
   </si>
   <si>
@@ -687,6 +687,9 @@
     <t>Premstaller Emmi</t>
   </si>
   <si>
+    <t>Bacher Emil</t>
+  </si>
+  <si>
     <t>Ellecosta Emely</t>
   </si>
   <si>
@@ -708,48 +711,45 @@
     <t>Volante Vittorio</t>
   </si>
   <si>
-    <t>Bacher Emil</t>
+    <t>Ennemoser  Ella</t>
+  </si>
+  <si>
+    <t>Gruber  Karolina</t>
+  </si>
+  <si>
+    <t>Pichler Simon</t>
   </si>
   <si>
     <t>Griessmair Jonas</t>
   </si>
   <si>
+    <t>Fiechter Emil</t>
+  </si>
+  <si>
+    <t>Pillon Luna</t>
+  </si>
+  <si>
+    <t>Santer Zoey</t>
+  </si>
+  <si>
+    <t>Walter Moritz</t>
+  </si>
+  <si>
     <t>Taschler  Anton</t>
   </si>
   <si>
-    <t>Ennemoser  Ella</t>
-  </si>
-  <si>
-    <t>Fiechter Emil</t>
-  </si>
-  <si>
-    <t>Pillon Luna</t>
-  </si>
-  <si>
-    <t>Santer Zoey</t>
-  </si>
-  <si>
-    <t>Walter Moritz</t>
-  </si>
-  <si>
-    <t>Gruber  Karolina</t>
-  </si>
-  <si>
-    <t>Pichler Simon</t>
+    <t>Godstime Alex Lukas</t>
+  </si>
+  <si>
+    <t>Mussner Alex</t>
+  </si>
+  <si>
+    <t>Pitscheider Arthur</t>
   </si>
   <si>
     <t>Covazzi Julia</t>
   </si>
   <si>
-    <t>Godstime Alex Lukas</t>
-  </si>
-  <si>
-    <t>Mussner Alex</t>
-  </si>
-  <si>
-    <t>Pitscheider Arthur</t>
-  </si>
-  <si>
     <t>Ausserhofer Matthias</t>
   </si>
   <si>
@@ -798,6 +798,9 @@
     <t>Moosbrugger Theresa</t>
   </si>
   <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
     <t>Matzoll Simon</t>
   </si>
   <si>
@@ -807,9 +810,6 @@
     <t>Malloth Daniel</t>
   </si>
   <si>
-    <t>Kofler Andreas</t>
-  </si>
-  <si>
     <t>Thaler Elias</t>
   </si>
   <si>
@@ -831,21 +831,21 @@
     <t>Zelger Samuel</t>
   </si>
   <si>
+    <t>Niederstaetter Leni</t>
+  </si>
+  <si>
+    <t>Niederstaetter Toni</t>
+  </si>
+  <si>
+    <t>Pircher Paul</t>
+  </si>
+  <si>
+    <t>Scheibenhoffer Alexander</t>
+  </si>
+  <si>
     <t>Prantl Rosa</t>
   </si>
   <si>
-    <t>Niederstaetter Leni</t>
-  </si>
-  <si>
-    <t>Niederstaetter Toni</t>
-  </si>
-  <si>
-    <t>Pircher Paul</t>
-  </si>
-  <si>
-    <t>Scheibenhoffer Alexander</t>
-  </si>
-  <si>
     <t>Gamper Klaus</t>
   </si>
   <si>
@@ -861,42 +861,42 @@
     <t>Trafojer Jakob</t>
   </si>
   <si>
+    <t>Mor  Nadyn</t>
+  </si>
+  <si>
+    <t>Ploner  Simon</t>
+  </si>
+  <si>
+    <t>Mayer Fabienne</t>
+  </si>
+  <si>
+    <t>Obexer Elias</t>
+  </si>
+  <si>
     <t>Delueg Ida</t>
   </si>
   <si>
-    <t>Mayer Fabienne</t>
-  </si>
-  <si>
-    <t>Obexer Elias</t>
-  </si>
-  <si>
-    <t>Mor  Nadyn</t>
-  </si>
-  <si>
-    <t>Ploner  Simon</t>
-  </si>
-  <si>
     <t>Singer  Theresa</t>
   </si>
   <si>
     <t>Villgrattner Jonas</t>
   </si>
   <si>
+    <t>Dejori Pia</t>
+  </si>
+  <si>
+    <t>Kircher  Lena</t>
+  </si>
+  <si>
+    <t>Kohler Mali</t>
+  </si>
+  <si>
+    <t>Vieider Stina Marie</t>
+  </si>
+  <si>
     <t>Innerhofer Moritz</t>
   </si>
   <si>
-    <t>Dejori Pia</t>
-  </si>
-  <si>
-    <t>Kircher  Lena</t>
-  </si>
-  <si>
-    <t>Kohler Mali</t>
-  </si>
-  <si>
-    <t>Vieider Stina Marie</t>
-  </si>
-  <si>
     <t>Sozialgenossenschaft Mit Bäuerinnen Lernen Wachsen Leben</t>
   </si>
   <si>
@@ -906,18 +906,18 @@
     <t>Ahrntal</t>
   </si>
   <si>
+    <t>Andrian</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
     <t>Algund</t>
   </si>
   <si>
-    <t>Andrian</t>
-  </si>
-  <si>
-    <t>Auer</t>
-  </si>
-  <si>
-    <t>Bozen</t>
-  </si>
-  <si>
     <t>Brixen</t>
   </si>
   <si>
@@ -954,33 +954,33 @@
     <t>Karneid</t>
   </si>
   <si>
+    <t>Kiens</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
     <t>Kastelruth</t>
   </si>
   <si>
-    <t>Kiens</t>
-  </si>
-  <si>
-    <t>Klausen</t>
+    <t>Lana</t>
   </si>
   <si>
     <t>Latsch</t>
   </si>
   <si>
-    <t>Lana</t>
+    <t>Mals i. V.</t>
   </si>
   <si>
     <t>Margreid</t>
   </si>
   <si>
-    <t>Mals i. V.</t>
+    <t>Marling</t>
   </si>
   <si>
     <t>Meran</t>
   </si>
   <si>
-    <t>Marling</t>
-  </si>
-  <si>
     <t>Moelten</t>
   </si>
   <si>
@@ -993,51 +993,51 @@
     <t>Naturns</t>
   </si>
   <si>
+    <t>Natz Schabs</t>
+  </si>
+  <si>
+    <t>Neumarkt</t>
+  </si>
+  <si>
     <t>Olang</t>
   </si>
   <si>
-    <t>Natz Schabs</t>
-  </si>
-  <si>
-    <t>Neumarkt</t>
-  </si>
-  <si>
     <t>Partschins</t>
   </si>
   <si>
     <t>Percha</t>
   </si>
   <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
     <t>Pfalzen</t>
   </si>
   <si>
     <t>Pfatten</t>
   </si>
   <si>
-    <t>Pfitsch</t>
+    <t>Prad a Stj</t>
+  </si>
+  <si>
+    <t>Riffian</t>
   </si>
   <si>
     <t>Prettau</t>
   </si>
   <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
     <t>Rasen/Antholz</t>
   </si>
   <si>
-    <t>Prad a Stj</t>
-  </si>
-  <si>
-    <t>Ratschings</t>
-  </si>
-  <si>
-    <t>Riffian</t>
+    <t>Ritten</t>
   </si>
   <si>
     <t>Salurn</t>
   </si>
   <si>
-    <t>Ritten</t>
-  </si>
-  <si>
     <t>Sand in Taufers</t>
   </si>
   <si>
@@ -1059,15 +1059,15 @@
     <t>St. Lorenzen</t>
   </si>
   <si>
+    <t>St. Martin in Passeier</t>
+  </si>
+  <si>
     <t>St. Pankraz Ulten</t>
   </si>
   <si>
     <t>Taufers i. M.</t>
   </si>
   <si>
-    <t>St. Martin in Passeier</t>
-  </si>
-  <si>
     <t>Terlan</t>
   </si>
   <si>
@@ -1077,39 +1077,60 @@
     <t>Tramin</t>
   </si>
   <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
     <t>Tirol</t>
   </si>
   <si>
-    <t>Tscherms</t>
-  </si>
-  <si>
     <t>Ulten</t>
   </si>
   <si>
+    <t>Vintl</t>
+  </si>
+  <si>
+    <t>Villnöss</t>
+  </si>
+  <si>
     <t>Villanderes</t>
   </si>
   <si>
-    <t>Villnöss</t>
-  </si>
-  <si>
-    <t>Vintl</t>
-  </si>
-  <si>
     <t>Völs am Schlern</t>
   </si>
   <si>
+    <t>Welschnofen</t>
+  </si>
+  <si>
     <t>Voeran</t>
   </si>
   <si>
-    <t>Welschnofen</t>
-  </si>
-  <si>
     <t>JRDJSF19R02B220Y</t>
   </si>
   <si>
     <t>RUINNI17C65B220Y</t>
   </si>
   <si>
+    <t>MRALEO17L11F132R</t>
+  </si>
+  <si>
+    <t>SCHMDL17M50F132B</t>
+  </si>
+  <si>
+    <t>HBRNNA18S55A952Y</t>
+  </si>
+  <si>
+    <t>PRCLKT20B55I729Y</t>
+  </si>
+  <si>
+    <t>STMJNN17A47A952V</t>
+  </si>
+  <si>
+    <t>VRICLL16R64L378G</t>
+  </si>
+  <si>
+    <t>BLLLNZ20B12A952J</t>
+  </si>
+  <si>
     <t>BRTJLS17M10I729H</t>
   </si>
   <si>
@@ -1122,27 +1143,6 @@
     <t>MTRNMR17H63F132N</t>
   </si>
   <si>
-    <t>MRALEO17L11F132R</t>
-  </si>
-  <si>
-    <t>SCHMDL17M50F132B</t>
-  </si>
-  <si>
-    <t>BLLLNZ20B12A952J</t>
-  </si>
-  <si>
-    <t>HBRNNA18S55A952Y</t>
-  </si>
-  <si>
-    <t>PRCLKT20B55I729Y</t>
-  </si>
-  <si>
-    <t>STMJNN17A47A952V</t>
-  </si>
-  <si>
-    <t>VRICLL16R64L378G</t>
-  </si>
-  <si>
     <t>CPPCLL18E44B160A</t>
   </si>
   <si>
@@ -1260,46 +1260,55 @@
     <t>RDRFBN17A08B160U</t>
   </si>
   <si>
+    <t>HCHRHL17S04B220O</t>
+  </si>
+  <si>
+    <t>WGRMHL18M51B220M</t>
+  </si>
+  <si>
+    <t>BKELCU17R50A952D</t>
+  </si>
+  <si>
+    <t>FRGMIA17C65B160L</t>
+  </si>
+  <si>
     <t>GSTNHO17T18B160K</t>
   </si>
   <si>
     <t>MLSLNY19A24B160V</t>
   </si>
   <si>
-    <t>HCHRHL17S04B220O</t>
-  </si>
-  <si>
-    <t>WGRMHL18M51B220M</t>
-  </si>
-  <si>
-    <t>BKELCU17R50A952D</t>
-  </si>
-  <si>
-    <t>FRGMIA17C65B160L</t>
+    <t>DLTSLL19B61A944K</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>GGLMRA16S62F132J</t>
+  </si>
+  <si>
+    <t>MLLRNJ17L51F132E</t>
+  </si>
+  <si>
+    <t>PJCMLC17H48F132R</t>
+  </si>
+  <si>
+    <t>WSSLXA18H02A952T</t>
+  </si>
+  <si>
+    <t>WNTLEO17M01F132R</t>
   </si>
   <si>
     <t>LNSFNN18S04I729O</t>
   </si>
   <si>
-    <t>DLTSLL19B61A944K</t>
-  </si>
-  <si>
-    <t>GSSLRA17B48F132D</t>
-  </si>
-  <si>
-    <t>GGLMRA16S62F132J</t>
-  </si>
-  <si>
-    <t>MLLRNJ17L51F132E</t>
-  </si>
-  <si>
-    <t>PJCMLC17H48F132R</t>
-  </si>
-  <si>
-    <t>WSSLXA18H02A952T</t>
-  </si>
-  <si>
-    <t>WNTLEO17M01F132R</t>
+    <t>DMAMLN17S50I729S</t>
+  </si>
+  <si>
+    <t>PNTJLS17H12A952S</t>
+  </si>
+  <si>
+    <t>PNTMLE17H12A952H</t>
   </si>
   <si>
     <t>GRBDMN17E25A952Y</t>
@@ -1308,13 +1317,16 @@
     <t>TNDMTN17M30A952D</t>
   </si>
   <si>
-    <t>DMAMLN17S50I729S</t>
-  </si>
-  <si>
-    <t>PNTJLS17H12A952S</t>
-  </si>
-  <si>
-    <t>PNTMLE17H12A952H</t>
+    <t>GRNMTT19A06F132F</t>
+  </si>
+  <si>
+    <t>LDRMTZ17B09F132D</t>
+  </si>
+  <si>
+    <t>MTZRNE17C30F132A</t>
+  </si>
+  <si>
+    <t>STRJTH17P13F132W</t>
   </si>
   <si>
     <t>GSTMTT20B09A952T</t>
@@ -1386,18 +1398,6 @@
     <t>VSSNHO16R13F132P</t>
   </si>
   <si>
-    <t>GRNMTT19A06F132F</t>
-  </si>
-  <si>
-    <t>LDRMTZ17B09F132D</t>
-  </si>
-  <si>
-    <t>MTZRNE17C30F132A</t>
-  </si>
-  <si>
-    <t>STRJTH17P13F132W</t>
-  </si>
-  <si>
     <t>GRBMLE16T12F132N</t>
   </si>
   <si>
@@ -1434,21 +1434,21 @@
     <t>SCHLIA18P62F132S</t>
   </si>
   <si>
+    <t>BTTMTT17P08B160L</t>
+  </si>
+  <si>
+    <t>PNTLVO17T67B160N</t>
+  </si>
+  <si>
+    <t>CGHMML18T16A952I</t>
+  </si>
+  <si>
+    <t>PRGLNA18R41F132V</t>
+  </si>
+  <si>
     <t>WNKPLA17R42B220L</t>
   </si>
   <si>
-    <t>BTTMTT17P08B160L</t>
-  </si>
-  <si>
-    <t>PNTLVO17T67B160N</t>
-  </si>
-  <si>
-    <t>CGHMML18T16A952I</t>
-  </si>
-  <si>
-    <t>PRGLNA18R41F132V</t>
-  </si>
-  <si>
     <t>BLRSPH16T68F132B</t>
   </si>
   <si>
@@ -1461,6 +1461,9 @@
     <t>PRMMME19P65B220I</t>
   </si>
   <si>
+    <t>BCHMLE18E15B160A</t>
+  </si>
+  <si>
     <t>LLCMLY17S49B220J</t>
   </si>
   <si>
@@ -1482,48 +1485,45 @@
     <t>VLNVTR17B01A952B</t>
   </si>
   <si>
-    <t>BCHMLE18E15B160A</t>
+    <t>NNMLLE17A60A952M</t>
+  </si>
+  <si>
+    <t>GRBKLN17A70F132K</t>
+  </si>
+  <si>
+    <t>PCHSMN19L15F132H</t>
   </si>
   <si>
     <t>GRSJNS17M21B220X</t>
   </si>
   <si>
+    <t>FCHMLE17A12B160W</t>
+  </si>
+  <si>
+    <t>PLLLNU19C41B160R</t>
+  </si>
+  <si>
+    <t>SNTZYO19E51B160D</t>
+  </si>
+  <si>
+    <t>WLTMTZ16M02M067H</t>
+  </si>
+  <si>
     <t>TSCNTN17L08B220M</t>
   </si>
   <si>
-    <t>NNMLLE17A60A952M</t>
-  </si>
-  <si>
-    <t>FCHMLE17A12B160W</t>
-  </si>
-  <si>
-    <t>PLLLNU19C41B160R</t>
-  </si>
-  <si>
-    <t>SNTZYO19E51B160D</t>
-  </si>
-  <si>
-    <t>WLTMTZ16M02M067H</t>
-  </si>
-  <si>
-    <t>GRBKLN17A70F132K</t>
-  </si>
-  <si>
-    <t>PCHSMN19L15F132H</t>
+    <t>GDSLLK17D08A952P</t>
+  </si>
+  <si>
+    <t>MSSLXA19B09A952P</t>
+  </si>
+  <si>
+    <t>PTSRHR19A24B160K</t>
   </si>
   <si>
     <t>CVZJLU18S41H612E</t>
   </si>
   <si>
-    <t>GDSLLK17D08A952P</t>
-  </si>
-  <si>
-    <t>MSSLXA19B09A952P</t>
-  </si>
-  <si>
-    <t>PTSRHR19A24B160K</t>
-  </si>
-  <si>
     <t>SSRMTH17S09B220Q</t>
   </si>
   <si>
@@ -1572,6 +1572,9 @@
     <t>MSBTRS17B42Z102X</t>
   </si>
   <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
     <t>MTZSMN16T01F132M</t>
   </si>
   <si>
@@ -1581,9 +1584,6 @@
     <t>MLLDNL17L10I729Y</t>
   </si>
   <si>
-    <t>KFLNRS17S23F132N</t>
-  </si>
-  <si>
     <t>THLLSE19M01F132O</t>
   </si>
   <si>
@@ -1605,21 +1605,21 @@
     <t>ZLGSML18E08F132P</t>
   </si>
   <si>
+    <t>NDRLNE16T59A952N</t>
+  </si>
+  <si>
+    <t>NDRTNO16T19A952B</t>
+  </si>
+  <si>
+    <t>PRCPLA16S29F132U</t>
+  </si>
+  <si>
+    <t>SCHLND17B12F132N</t>
+  </si>
+  <si>
     <t>PRNRSO18B49F132Z</t>
   </si>
   <si>
-    <t>NDRLNE16T59A952N</t>
-  </si>
-  <si>
-    <t>NDRTNO16T19A952B</t>
-  </si>
-  <si>
-    <t>PRCPLA16S29F132U</t>
-  </si>
-  <si>
-    <t>SCHLND17B12F132N</t>
-  </si>
-  <si>
     <t>GMPKLS16T18F132L</t>
   </si>
   <si>
@@ -1635,48 +1635,63 @@
     <t>TRFJKB16S22F132Q</t>
   </si>
   <si>
+    <t>MRONYN16P65B160C</t>
+  </si>
+  <si>
+    <t>PLNSMN17A18B220Q</t>
+  </si>
+  <si>
+    <t>MYRFNN17L67B160A</t>
+  </si>
+  <si>
+    <t>BXRLSE18E18B160Z</t>
+  </si>
+  <si>
     <t>DLGDIA18A57B160Q</t>
   </si>
   <si>
-    <t>MYRFNN17L67B160A</t>
-  </si>
-  <si>
-    <t>BXRLSE18E18B160Z</t>
-  </si>
-  <si>
-    <t>MRONYN16P65B160C</t>
-  </si>
-  <si>
-    <t>PLNSMN17A18B220Q</t>
-  </si>
-  <si>
     <t>SNGTRS17C61F132M</t>
   </si>
   <si>
     <t>VLLJNS17A09B160F</t>
   </si>
   <si>
+    <t>DJRPIA17A67A952Q</t>
+  </si>
+  <si>
+    <t>KRCLNE17B53B160I</t>
+  </si>
+  <si>
+    <t>KHLMLA17A71A952X</t>
+  </si>
+  <si>
+    <t>VDRSNM18M56B160V</t>
+  </si>
+  <si>
     <t>NNRMTZ17H13F132H</t>
   </si>
   <si>
-    <t>DJRPIA17A67A952Q</t>
-  </si>
-  <si>
-    <t>KRCLNE17B53B160I</t>
-  </si>
-  <si>
-    <t>KHLMLA17A71A952X</t>
-  </si>
-  <si>
-    <t>VDRSNM18M56B160V</t>
-  </si>
-  <si>
     <t>Kirchler Judith</t>
   </si>
   <si>
     <t>Kirchler Irmgard</t>
   </si>
   <si>
+    <t>Werth Petra</t>
+  </si>
+  <si>
+    <t>Molon Karoline</t>
+  </si>
+  <si>
+    <t>Kaserer Monika</t>
+  </si>
+  <si>
+    <t>Plattner Julia</t>
+  </si>
+  <si>
+    <t>Huber Melanie</t>
+  </si>
+  <si>
     <t>Troger Moser Anna</t>
   </si>
   <si>
@@ -1686,21 +1701,6 @@
     <t>De Arruda Ruth</t>
   </si>
   <si>
-    <t>Werth Petra</t>
-  </si>
-  <si>
-    <t>Huber Melanie</t>
-  </si>
-  <si>
-    <t>Molon Karoline</t>
-  </si>
-  <si>
-    <t>Kaserer Monika</t>
-  </si>
-  <si>
-    <t>Plattner Julia</t>
-  </si>
-  <si>
     <t>May Stephanie</t>
   </si>
   <si>
@@ -1782,48 +1782,54 @@
     <t>Covi Sibylle</t>
   </si>
   <si>
+    <t>Leiter Manuela</t>
+  </si>
+  <si>
+    <t>Tasser Margit</t>
+  </si>
+  <si>
+    <t>Duchova Dana</t>
+  </si>
+  <si>
     <t>Bernard  Nadine</t>
   </si>
   <si>
     <t>Silbernagl  Katharina</t>
   </si>
   <si>
-    <t>Leiter Manuela</t>
-  </si>
-  <si>
-    <t>Tasser Margit</t>
-  </si>
-  <si>
-    <t>Duchova Dana</t>
+    <t>Andergassen Ruth</t>
+  </si>
+  <si>
+    <t>Kuprian Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofler Gertraud </t>
+  </si>
+  <si>
+    <t>Unterholzner Tanja</t>
+  </si>
+  <si>
+    <t>Lasakova Ivana</t>
   </si>
   <si>
     <t>Prantl Stefanie</t>
   </si>
   <si>
-    <t>Andergassen Ruth</t>
-  </si>
-  <si>
-    <t>Kuprian Alexandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kofler Gertraud </t>
-  </si>
-  <si>
-    <t>Unterholzner Tanja</t>
-  </si>
-  <si>
-    <t>Lasakova Ivana</t>
-  </si>
-  <si>
     <t>Weisenhorn Annamaria</t>
   </si>
   <si>
+    <t>Prantl  Hildburg</t>
+  </si>
+  <si>
+    <t>Leiter  Julia</t>
+  </si>
+  <si>
+    <t>Alber Karolina</t>
+  </si>
+  <si>
     <t>Kienzl Martina Rosa</t>
   </si>
   <si>
-    <t>Prantl  Hildburg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Borarosova Zaneta </t>
   </si>
   <si>
@@ -1848,18 +1854,12 @@
     <t>Corazza Rosemarie</t>
   </si>
   <si>
-    <t>Alber Karolina</t>
-  </si>
-  <si>
     <t>Karoly Adrienn</t>
   </si>
   <si>
     <t>Schwalt Kathrin</t>
   </si>
   <si>
-    <t>Leiter  Julia</t>
-  </si>
-  <si>
     <t>Duregger Evi</t>
   </si>
   <si>
@@ -1887,6 +1887,9 @@
     <t>Tappeiner Heidemarie</t>
   </si>
   <si>
+    <t>Seehauser Birgit</t>
+  </si>
+  <si>
     <t>Winding Helga</t>
   </si>
   <si>
@@ -1896,7 +1899,7 @@
     <t>Radicchi Daniela</t>
   </si>
   <si>
-    <t>Seehauser Birgit</t>
+    <t>Trientbacher Margit</t>
   </si>
   <si>
     <t>Kammerlander Verena</t>
@@ -1905,15 +1908,12 @@
     <t>Oberstaller Agathe</t>
   </si>
   <si>
-    <t>Trientbacher Margit</t>
+    <t>Fink Valentina</t>
   </si>
   <si>
     <t>Rossi Sara</t>
   </si>
   <si>
-    <t>Fink Valentina</t>
-  </si>
-  <si>
     <t>Rederlechner Angelika</t>
   </si>
   <si>
@@ -1932,12 +1932,12 @@
     <t>Graiss Lisa</t>
   </si>
   <si>
+    <t>Schweigl Simone</t>
+  </si>
+  <si>
     <t>Zöschg Gertrud</t>
   </si>
   <si>
-    <t>Schweigl Simone</t>
-  </si>
-  <si>
     <t>Lunger Alexandra</t>
   </si>
   <si>
@@ -1953,10 +1953,10 @@
     <t>Unterholzner  Vera</t>
   </si>
   <si>
+    <t>Huber Barbara</t>
+  </si>
+  <si>
     <t>Aukenthaler Roswitha</t>
-  </si>
-  <si>
-    <t>Huber Barbara</t>
   </si>
   <si>
     <t>Kompatscher  Sarah</t>
@@ -2608,7 +2608,7 @@
         <v>294</v>
       </c>
       <c r="F4" s="2">
-        <v>42957</v>
+        <v>42927</v>
       </c>
       <c r="G4" t="s">
         <v>362</v>
@@ -2620,19 +2620,19 @@
         <v>294</v>
       </c>
       <c r="J4" s="2">
-        <v>43910</v>
+        <v>43514</v>
       </c>
       <c r="K4">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="L4" s="2">
-        <v>43951</v>
+        <v>43936</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2641,21 +2641,21 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="AC4" t="b">
         <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>43910</v>
+        <v>43831</v>
       </c>
       <c r="AJ4" s="2">
-        <v>43951</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -2670,7 +2670,7 @@
         <v>294</v>
       </c>
       <c r="F5" s="2">
-        <v>43247</v>
+        <v>42957</v>
       </c>
       <c r="G5" t="s">
         <v>363</v>
@@ -2682,48 +2682,45 @@
         <v>294</v>
       </c>
       <c r="J5" s="2">
-        <v>43892</v>
+        <v>43710</v>
       </c>
       <c r="K5">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="L5" s="2">
-        <v>44196</v>
+        <v>43930</v>
       </c>
       <c r="M5">
-        <v>753.5</v>
+        <v>94.5</v>
       </c>
       <c r="N5">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>96.5</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1117</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="b">
+        <v>166.5</v>
+      </c>
+      <c r="AC5" t="b">
         <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <v>43892</v>
+        <v>43831</v>
       </c>
       <c r="AJ5" s="2">
-        <v>44196</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
@@ -2732,10 +2729,10 @@
         <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F6" s="2">
-        <v>43055</v>
+        <v>43419</v>
       </c>
       <c r="G6" t="s">
         <v>364</v>
@@ -2744,37 +2741,40 @@
         <v>552</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J6" s="2">
-        <v>43738</v>
+        <v>43892</v>
       </c>
       <c r="K6">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="L6" s="2">
         <v>44196</v>
       </c>
       <c r="M6">
-        <v>716.5</v>
+        <v>426.5</v>
       </c>
       <c r="N6">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>119.5</v>
+        <v>210.5</v>
       </c>
       <c r="Q6">
-        <v>1056</v>
-      </c>
-      <c r="Z6" t="b">
+        <v>846</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
         <v>1</v>
       </c>
       <c r="AI6" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AJ6" s="2">
         <v>44196</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
@@ -2794,10 +2794,10 @@
         <v>292</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F7" s="2">
-        <v>42909</v>
+        <v>43876</v>
       </c>
       <c r="G7" t="s">
         <v>365</v>
@@ -2806,45 +2806,45 @@
         <v>553</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="J7" s="2">
-        <v>43598</v>
+        <v>44138</v>
       </c>
       <c r="K7">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2">
-        <v>44098</v>
+        <v>44196</v>
       </c>
       <c r="M7">
-        <v>427</v>
+        <v>71</v>
       </c>
       <c r="N7">
-        <v>237.5</v>
+        <v>16</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>594.5</v>
-      </c>
-      <c r="Z7" t="b">
+        <v>87</v>
+      </c>
+      <c r="AF7" t="b">
         <v>1</v>
       </c>
       <c r="AI7" s="2">
-        <v>43831</v>
+        <v>44138</v>
       </c>
       <c r="AJ7" s="2">
-        <v>44098</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2859,7 +2859,7 @@
         <v>295</v>
       </c>
       <c r="F8" s="2">
-        <v>42927</v>
+        <v>42742</v>
       </c>
       <c r="G8" t="s">
         <v>366</v>
@@ -2868,45 +2868,45 @@
         <v>554</v>
       </c>
       <c r="I8" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="J8" s="2">
-        <v>43514</v>
+        <v>43710</v>
       </c>
       <c r="K8">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="L8" s="2">
-        <v>43936</v>
+        <v>44074</v>
       </c>
       <c r="M8">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="N8">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q8">
-        <v>151</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>376</v>
+      </c>
+      <c r="Y8" t="b">
         <v>1</v>
       </c>
       <c r="AI8" s="2">
         <v>43831</v>
       </c>
       <c r="AJ8" s="2">
-        <v>43936</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2921,31 +2921,31 @@
         <v>295</v>
       </c>
       <c r="F9" s="2">
-        <v>42957</v>
+        <v>42667</v>
       </c>
       <c r="G9" t="s">
         <v>367</v>
       </c>
       <c r="H9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I9" t="s">
         <v>295</v>
       </c>
       <c r="J9" s="2">
-        <v>43710</v>
+        <v>43346</v>
       </c>
       <c r="K9">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2">
-        <v>43930</v>
+        <v>43893</v>
       </c>
       <c r="M9">
-        <v>94.5</v>
+        <v>188</v>
       </c>
       <c r="N9">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2954,16 +2954,16 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>166.5</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>188</v>
+      </c>
+      <c r="Y9" t="b">
         <v>1</v>
       </c>
       <c r="AI9" s="2">
         <v>43831</v>
       </c>
       <c r="AJ9" s="2">
-        <v>43930</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2992,7 +2992,7 @@
         <v>555</v>
       </c>
       <c r="I10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J10" s="2">
         <v>44144</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -3045,7 +3045,7 @@
         <v>297</v>
       </c>
       <c r="F11" s="2">
-        <v>43419</v>
+        <v>42957</v>
       </c>
       <c r="G11" t="s">
         <v>369</v>
@@ -3057,45 +3057,42 @@
         <v>297</v>
       </c>
       <c r="J11" s="2">
-        <v>43892</v>
+        <v>43910</v>
       </c>
       <c r="K11">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="L11" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
       <c r="M11">
-        <v>426.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>210.5</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>846</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="b">
+        <v>73</v>
+      </c>
+      <c r="AC11" t="b">
         <v>1</v>
       </c>
       <c r="AI11" s="2">
-        <v>43892</v>
+        <v>43910</v>
       </c>
       <c r="AJ11" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -3110,46 +3107,49 @@
         <v>297</v>
       </c>
       <c r="F12" s="2">
-        <v>43876</v>
+        <v>43247</v>
       </c>
       <c r="G12" t="s">
         <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I12" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="J12" s="2">
-        <v>44138</v>
+        <v>43892</v>
       </c>
       <c r="K12">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="L12" s="2">
         <v>44196</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>753.5</v>
       </c>
       <c r="N12">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q12">
-        <v>87</v>
-      </c>
-      <c r="AF12" t="b">
+        <v>1117</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="b">
         <v>1</v>
       </c>
       <c r="AI12" s="2">
-        <v>44138</v>
+        <v>43892</v>
       </c>
       <c r="AJ12" s="2">
         <v>44196</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -3172,54 +3172,54 @@
         <v>297</v>
       </c>
       <c r="F13" s="2">
-        <v>42742</v>
+        <v>43055</v>
       </c>
       <c r="G13" t="s">
         <v>371</v>
       </c>
       <c r="H13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="J13" s="2">
-        <v>43710</v>
+        <v>43738</v>
       </c>
       <c r="K13">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="L13" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="M13">
-        <v>248</v>
+        <v>716.5</v>
       </c>
       <c r="N13">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>24</v>
+        <v>119.5</v>
       </c>
       <c r="Q13">
-        <v>376</v>
-      </c>
-      <c r="Y13" t="b">
+        <v>1056</v>
+      </c>
+      <c r="Z13" t="b">
         <v>1</v>
       </c>
       <c r="AI13" s="2">
         <v>43831</v>
       </c>
       <c r="AJ13" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -3234,49 +3234,49 @@
         <v>297</v>
       </c>
       <c r="F14" s="2">
-        <v>42667</v>
+        <v>42909</v>
       </c>
       <c r="G14" t="s">
         <v>372</v>
       </c>
       <c r="H14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="J14" s="2">
-        <v>43346</v>
+        <v>43598</v>
       </c>
       <c r="K14">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c r="L14" s="2">
-        <v>43893</v>
+        <v>44098</v>
       </c>
       <c r="M14">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>237.5</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Q14">
-        <v>188</v>
-      </c>
-      <c r="Y14" t="b">
+        <v>594.5</v>
+      </c>
+      <c r="Z14" t="b">
         <v>1</v>
       </c>
       <c r="AI14" s="2">
         <v>43831</v>
       </c>
       <c r="AJ14" s="2">
-        <v>43893</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -3491,7 +3491,7 @@
         <v>561</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J18" s="2">
         <v>43313</v>
@@ -4297,7 +4297,7 @@
         <v>569</v>
       </c>
       <c r="I31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J31" s="2">
         <v>43894</v>
@@ -4418,10 +4418,10 @@
         <v>389</v>
       </c>
       <c r="H33" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J33" s="2">
         <v>43892</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -5971,7 +5971,7 @@
         <v>310</v>
       </c>
       <c r="F58" s="2">
-        <v>43087</v>
+        <v>43043</v>
       </c>
       <c r="G58" t="s">
         <v>412</v>
@@ -5980,31 +5980,31 @@
         <v>586</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="J58" s="2">
-        <v>43545</v>
+        <v>43724</v>
       </c>
       <c r="K58">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="L58" s="2">
-        <v>44106</v>
+        <v>44196</v>
       </c>
       <c r="M58">
-        <v>674</v>
+        <v>768.5</v>
       </c>
       <c r="N58">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>125.25</v>
+        <v>69</v>
       </c>
       <c r="Q58">
-        <v>1057.25</v>
+        <v>1067.5</v>
       </c>
       <c r="Z58" t="b">
         <v>1</v>
@@ -6013,12 +6013,12 @@
         <v>43831</v>
       </c>
       <c r="AJ58" s="2">
-        <v>44106</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="59" spans="1:36">
       <c r="A59" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
         <v>52</v>
@@ -6033,7 +6033,7 @@
         <v>310</v>
       </c>
       <c r="F59" s="2">
-        <v>43489</v>
+        <v>43323</v>
       </c>
       <c r="G59" t="s">
         <v>413</v>
@@ -6042,22 +6042,22 @@
         <v>587</v>
       </c>
       <c r="I59" t="s">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="J59" s="2">
-        <v>43801</v>
+        <v>44144</v>
       </c>
       <c r="K59">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L59" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
       <c r="M59">
-        <v>117.25</v>
+        <v>89.5</v>
       </c>
       <c r="N59">
-        <v>104.5</v>
+        <v>27.5</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -6066,21 +6066,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>221.75</v>
-      </c>
-      <c r="AC59" t="b">
+        <v>117</v>
+      </c>
+      <c r="AF59" t="b">
         <v>1</v>
       </c>
       <c r="AI59" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AJ59" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -6095,7 +6095,7 @@
         <v>311</v>
       </c>
       <c r="F60" s="2">
-        <v>43043</v>
+        <v>43018</v>
       </c>
       <c r="G60" t="s">
         <v>414</v>
@@ -6104,45 +6104,48 @@
         <v>588</v>
       </c>
       <c r="I60" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J60" s="2">
-        <v>43724</v>
+        <v>43848</v>
       </c>
       <c r="K60">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="L60" s="2">
-        <v>44196</v>
+        <v>44100</v>
       </c>
       <c r="M60">
-        <v>768.5</v>
+        <v>886</v>
       </c>
       <c r="N60">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q60">
-        <v>1067.5</v>
+        <v>1350</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
       </c>
+      <c r="AG60" t="b">
+        <v>1</v>
+      </c>
       <c r="AI60" s="2">
-        <v>43831</v>
+        <v>43848</v>
       </c>
       <c r="AJ60" s="2">
-        <v>44196</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>53</v>
@@ -6157,54 +6160,54 @@
         <v>311</v>
       </c>
       <c r="F61" s="2">
-        <v>43323</v>
+        <v>42819</v>
       </c>
       <c r="G61" t="s">
         <v>415</v>
       </c>
       <c r="H61" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="I61" t="s">
-        <v>650</v>
+        <v>298</v>
       </c>
       <c r="J61" s="2">
-        <v>44144</v>
+        <v>43276</v>
       </c>
       <c r="K61">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="L61" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
       <c r="M61">
-        <v>89.5</v>
+        <v>450</v>
       </c>
       <c r="N61">
-        <v>27.5</v>
+        <v>180</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q61">
-        <v>117</v>
-      </c>
-      <c r="AF61" t="b">
+        <v>710</v>
+      </c>
+      <c r="Z61" t="b">
         <v>1</v>
       </c>
       <c r="AI61" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AJ61" s="2">
-        <v>44196</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>54</v>
@@ -6219,57 +6222,54 @@
         <v>312</v>
       </c>
       <c r="F62" s="2">
-        <v>43018</v>
+        <v>43087</v>
       </c>
       <c r="G62" t="s">
         <v>416</v>
       </c>
       <c r="H62" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I62" t="s">
-        <v>651</v>
+        <v>312</v>
       </c>
       <c r="J62" s="2">
-        <v>43848</v>
+        <v>43545</v>
       </c>
       <c r="K62">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="L62" s="2">
-        <v>44100</v>
+        <v>44106</v>
       </c>
       <c r="M62">
-        <v>886</v>
+        <v>674</v>
       </c>
       <c r="N62">
-        <v>414</v>
+        <v>258</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>50</v>
+        <v>125.25</v>
       </c>
       <c r="Q62">
-        <v>1350</v>
+        <v>1057.25</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
       </c>
-      <c r="AG62" t="b">
-        <v>1</v>
-      </c>
       <c r="AI62" s="2">
-        <v>43848</v>
+        <v>43831</v>
       </c>
       <c r="AJ62" s="2">
-        <v>44100</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
         <v>54</v>
@@ -6284,54 +6284,54 @@
         <v>312</v>
       </c>
       <c r="F63" s="2">
-        <v>42819</v>
+        <v>43489</v>
       </c>
       <c r="G63" t="s">
         <v>417</v>
       </c>
       <c r="H63" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="J63" s="2">
-        <v>43276</v>
+        <v>43801</v>
       </c>
       <c r="K63">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="L63" s="2">
-        <v>44090</v>
+        <v>43931</v>
       </c>
       <c r="M63">
-        <v>450</v>
+        <v>117.25</v>
       </c>
       <c r="N63">
-        <v>180</v>
+        <v>104.5</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>710</v>
-      </c>
-      <c r="Z63" t="b">
+        <v>221.75</v>
+      </c>
+      <c r="AC63" t="b">
         <v>1</v>
       </c>
       <c r="AI63" s="2">
         <v>43831</v>
       </c>
       <c r="AJ63" s="2">
-        <v>44090</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>55</v>
@@ -6346,7 +6346,7 @@
         <v>313</v>
       </c>
       <c r="F64" s="2">
-        <v>43408</v>
+        <v>43517</v>
       </c>
       <c r="G64" t="s">
         <v>418</v>
@@ -6355,22 +6355,22 @@
         <v>591</v>
       </c>
       <c r="I64" t="s">
-        <v>652</v>
+        <v>313</v>
       </c>
       <c r="J64" s="2">
-        <v>43852</v>
+        <v>43879</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="L64" s="2">
-        <v>43853</v>
+        <v>43957</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -6379,27 +6379,27 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>10</v>
-      </c>
-      <c r="AG64" t="b">
+        <v>141.5</v>
+      </c>
+      <c r="AE64" t="b">
         <v>1</v>
       </c>
       <c r="AI64" s="2">
-        <v>43852</v>
+        <v>43879</v>
       </c>
       <c r="AJ64" s="2">
-        <v>43853</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
         <v>292</v>
@@ -6408,28 +6408,28 @@
         <v>313</v>
       </c>
       <c r="F65" s="2">
-        <v>43408</v>
+        <v>42774</v>
       </c>
       <c r="G65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I65" t="s">
-        <v>652</v>
+        <v>313</v>
       </c>
       <c r="J65" s="2">
-        <v>44070</v>
+        <v>44046</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L65" s="2">
-        <v>44070</v>
+        <v>44085</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>137.75</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -6441,27 +6441,27 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>6</v>
-      </c>
-      <c r="AG65" t="b">
+        <v>137.75</v>
+      </c>
+      <c r="Y65" t="b">
         <v>1</v>
       </c>
       <c r="AI65" s="2">
-        <v>44070</v>
+        <v>44046</v>
       </c>
       <c r="AJ65" s="2">
-        <v>44070</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
         <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
         <v>292</v>
@@ -6470,93 +6470,93 @@
         <v>313</v>
       </c>
       <c r="F66" s="2">
-        <v>43408</v>
+        <v>42696</v>
       </c>
       <c r="G66" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H66" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I66" t="s">
-        <v>652</v>
+        <v>313</v>
       </c>
       <c r="J66" s="2">
-        <v>44078</v>
+        <v>43297</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="L66" s="2">
-        <v>44078</v>
+        <v>44008</v>
       </c>
       <c r="M66">
-        <v>6.5</v>
+        <v>117.5</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q66">
-        <v>6.5</v>
-      </c>
-      <c r="AG66" t="b">
+        <v>274.5</v>
+      </c>
+      <c r="Y66" t="b">
         <v>1</v>
       </c>
       <c r="AI66" s="2">
-        <v>44078</v>
+        <v>43831</v>
       </c>
       <c r="AJ66" s="2">
-        <v>44078</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
         <v>292</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F67" s="2">
-        <v>43517</v>
+        <v>42927</v>
       </c>
       <c r="G67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H67" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I67" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="J67" s="2">
-        <v>43879</v>
+        <v>43374</v>
       </c>
       <c r="K67">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="L67" s="2">
-        <v>43957</v>
+        <v>43950</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N67">
-        <v>122.5</v>
+        <v>90</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -6565,213 +6565,216 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>141.5</v>
-      </c>
-      <c r="AE67" t="b">
+        <v>138</v>
+      </c>
+      <c r="AC67" t="b">
         <v>1</v>
       </c>
       <c r="AI67" s="2">
-        <v>43879</v>
+        <v>43831</v>
       </c>
       <c r="AJ67" s="2">
-        <v>43957</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
         <v>292</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F68" s="2">
-        <v>42774</v>
+        <v>42894</v>
       </c>
       <c r="G68" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H68" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J68" s="2">
-        <v>44046</v>
+        <v>43550</v>
       </c>
       <c r="K68">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="L68" s="2">
-        <v>44085</v>
+        <v>44090</v>
       </c>
       <c r="M68">
-        <v>137.75</v>
+        <v>473</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q68">
-        <v>137.75</v>
-      </c>
-      <c r="Y68" t="b">
+        <v>660</v>
+      </c>
+      <c r="Z68" t="b">
         <v>1</v>
       </c>
       <c r="AI68" s="2">
-        <v>44046</v>
+        <v>43831</v>
       </c>
       <c r="AJ68" s="2">
-        <v>44085</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
         <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F69" s="2">
-        <v>42696</v>
+        <v>43253</v>
       </c>
       <c r="G69" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H69" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="I69" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="J69" s="2">
-        <v>43297</v>
+        <v>43892</v>
       </c>
       <c r="K69">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="L69" s="2">
-        <v>44008</v>
+        <v>43957</v>
       </c>
       <c r="M69">
-        <v>117.5</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>90</v>
+        <v>110.5</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="Q69">
-        <v>274.5</v>
-      </c>
-      <c r="Y69" t="b">
+        <v>260.5</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE69" t="b">
         <v>1</v>
       </c>
       <c r="AI69" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AJ69" s="2">
-        <v>44008</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="1">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
         <v>292</v>
       </c>
       <c r="E70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F70" s="2">
-        <v>42927</v>
+        <v>42948</v>
       </c>
       <c r="G70" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I70" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="J70" s="2">
-        <v>43374</v>
+        <v>43235</v>
       </c>
       <c r="K70">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="L70" s="2">
-        <v>43950</v>
+        <v>44104</v>
       </c>
       <c r="M70">
-        <v>48</v>
+        <v>644</v>
       </c>
       <c r="N70">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q70">
-        <v>138</v>
-      </c>
-      <c r="AC70" t="b">
+        <v>952</v>
+      </c>
+      <c r="Z70" t="b">
         <v>1</v>
       </c>
       <c r="AI70" s="2">
         <v>43831</v>
       </c>
       <c r="AJ70" s="2">
-        <v>43950</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
         <v>292</v>
@@ -6780,60 +6783,60 @@
         <v>314</v>
       </c>
       <c r="F71" s="2">
-        <v>42894</v>
+        <v>43408</v>
       </c>
       <c r="G71" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H71" t="s">
         <v>596</v>
       </c>
       <c r="I71" t="s">
-        <v>314</v>
+        <v>652</v>
       </c>
       <c r="J71" s="2">
-        <v>43550</v>
+        <v>43852</v>
       </c>
       <c r="K71">
-        <v>259</v>
+        <v>1</v>
       </c>
       <c r="L71" s="2">
-        <v>44090</v>
+        <v>43853</v>
       </c>
       <c r="M71">
-        <v>473</v>
+        <v>10</v>
       </c>
       <c r="N71">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
       </c>
       <c r="P71">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>660</v>
-      </c>
-      <c r="Z71" t="b">
+        <v>10</v>
+      </c>
+      <c r="AG71" t="b">
         <v>1</v>
       </c>
       <c r="AI71" s="2">
-        <v>43831</v>
+        <v>43852</v>
       </c>
       <c r="AJ71" s="2">
-        <v>44090</v>
+        <v>43853</v>
       </c>
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
         <v>292</v>
@@ -6842,57 +6845,54 @@
         <v>314</v>
       </c>
       <c r="F72" s="2">
-        <v>43253</v>
+        <v>43408</v>
       </c>
       <c r="G72" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H72" t="s">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="I72" t="s">
-        <v>294</v>
+        <v>652</v>
       </c>
       <c r="J72" s="2">
-        <v>43892</v>
+        <v>44070</v>
       </c>
       <c r="K72">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2">
-        <v>43957</v>
+        <v>44070</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N72">
-        <v>110.5</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>260.5</v>
-      </c>
-      <c r="AB72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE72" t="b">
+        <v>6</v>
+      </c>
+      <c r="AG72" t="b">
         <v>1</v>
       </c>
       <c r="AI72" s="2">
-        <v>43892</v>
+        <v>44070</v>
       </c>
       <c r="AJ72" s="2">
-        <v>43957</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -6907,54 +6907,54 @@
         <v>314</v>
       </c>
       <c r="F73" s="2">
-        <v>42948</v>
+        <v>43408</v>
       </c>
       <c r="G73" t="s">
         <v>425</v>
       </c>
       <c r="H73" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="I73" t="s">
-        <v>314</v>
+        <v>652</v>
       </c>
       <c r="J73" s="2">
-        <v>43235</v>
+        <v>44078</v>
       </c>
       <c r="K73">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="L73" s="2">
-        <v>44104</v>
+        <v>44078</v>
       </c>
       <c r="M73">
-        <v>644</v>
+        <v>6.5</v>
       </c>
       <c r="N73">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>952</v>
-      </c>
-      <c r="Z73" t="b">
+        <v>6.5</v>
+      </c>
+      <c r="AG73" t="b">
         <v>1</v>
       </c>
       <c r="AI73" s="2">
-        <v>43831</v>
+        <v>44078</v>
       </c>
       <c r="AJ73" s="2">
-        <v>44104</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>57</v>
@@ -6969,31 +6969,31 @@
         <v>315</v>
       </c>
       <c r="F74" s="2">
-        <v>42880</v>
+        <v>43049</v>
       </c>
       <c r="G74" t="s">
         <v>426</v>
       </c>
       <c r="H74" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
+        <v>648</v>
       </c>
       <c r="J74" s="2">
-        <v>43741</v>
+        <v>43739</v>
       </c>
       <c r="K74">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L74" s="2">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="M74">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="N74">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>162</v>
+        <v>202.5</v>
       </c>
       <c r="AC74" t="b">
         <v>1</v>
@@ -7011,12 +7011,12 @@
         <v>43831</v>
       </c>
       <c r="AJ74" s="2">
-        <v>43951</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
@@ -7031,31 +7031,31 @@
         <v>315</v>
       </c>
       <c r="F75" s="2">
-        <v>42977</v>
+        <v>42898</v>
       </c>
       <c r="G75" t="s">
         <v>427</v>
       </c>
       <c r="H75" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="I75" t="s">
-        <v>315</v>
+        <v>648</v>
       </c>
       <c r="J75" s="2">
-        <v>43801</v>
+        <v>43893</v>
       </c>
       <c r="K75">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="L75" s="2">
-        <v>43941</v>
+        <v>43903</v>
       </c>
       <c r="M75">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>82.5</v>
+        <v>18</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -7064,24 +7064,27 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>198.5</v>
+        <v>24</v>
       </c>
       <c r="AC75" t="b">
         <v>1</v>
       </c>
+      <c r="AE75" t="b">
+        <v>1</v>
+      </c>
       <c r="AI75" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ75" s="2">
-        <v>43941</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
         <v>170</v>
@@ -7090,10 +7093,10 @@
         <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F76" s="2">
-        <v>43049</v>
+        <v>42898</v>
       </c>
       <c r="G76" t="s">
         <v>428</v>
@@ -7105,19 +7108,19 @@
         <v>648</v>
       </c>
       <c r="J76" s="2">
-        <v>43739</v>
+        <v>43893</v>
       </c>
       <c r="K76">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="L76" s="2">
-        <v>43948</v>
+        <v>43903</v>
       </c>
       <c r="M76">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>94.5</v>
+        <v>18</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -7126,21 +7129,24 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>202.5</v>
+        <v>24</v>
       </c>
       <c r="AC76" t="b">
         <v>1</v>
       </c>
+      <c r="AE76" t="b">
+        <v>1</v>
+      </c>
       <c r="AI76" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ76" s="2">
-        <v>43948</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>58</v>
@@ -7155,31 +7161,31 @@
         <v>316</v>
       </c>
       <c r="F77" s="2">
-        <v>42898</v>
+        <v>42880</v>
       </c>
       <c r="G77" t="s">
         <v>429</v>
       </c>
       <c r="H77" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="I77" t="s">
-        <v>648</v>
+        <v>316</v>
       </c>
       <c r="J77" s="2">
-        <v>43893</v>
+        <v>43741</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="L77" s="2">
-        <v>43903</v>
+        <v>43951</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N77">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -7188,24 +7194,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="AC77" t="b">
         <v>1</v>
       </c>
-      <c r="AE77" t="b">
-        <v>1</v>
-      </c>
       <c r="AI77" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ77" s="2">
-        <v>43903</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>58</v>
@@ -7220,31 +7223,31 @@
         <v>316</v>
       </c>
       <c r="F78" s="2">
-        <v>42898</v>
+        <v>42977</v>
       </c>
       <c r="G78" t="s">
         <v>430</v>
       </c>
       <c r="H78" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="I78" t="s">
-        <v>648</v>
+        <v>316</v>
       </c>
       <c r="J78" s="2">
-        <v>43893</v>
+        <v>43801</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="L78" s="2">
-        <v>43903</v>
+        <v>43941</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="N78">
-        <v>18</v>
+        <v>82.5</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -7253,24 +7256,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>24</v>
+        <v>198.5</v>
       </c>
       <c r="AC78" t="b">
         <v>1</v>
       </c>
-      <c r="AE78" t="b">
-        <v>1</v>
-      </c>
       <c r="AI78" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ78" s="2">
-        <v>43903</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
@@ -7285,7 +7285,7 @@
         <v>317</v>
       </c>
       <c r="F79" s="2">
-        <v>43870</v>
+        <v>43471</v>
       </c>
       <c r="G79" t="s">
         <v>431</v>
@@ -7294,22 +7294,22 @@
         <v>598</v>
       </c>
       <c r="I79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J79" s="2">
-        <v>44130</v>
+        <v>44088</v>
       </c>
       <c r="K79">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="L79" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
       <c r="M79">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N79">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -7318,21 +7318,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>78</v>
-      </c>
-      <c r="AF79" t="b">
+        <v>24</v>
+      </c>
+      <c r="AG79" t="b">
         <v>1</v>
       </c>
       <c r="AI79" s="2">
-        <v>44130</v>
+        <v>44088</v>
       </c>
       <c r="AJ79" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
         <v>59</v>
@@ -7347,40 +7347,40 @@
         <v>317</v>
       </c>
       <c r="F80" s="2">
-        <v>42772</v>
+        <v>42775</v>
       </c>
       <c r="G80" t="s">
         <v>432</v>
       </c>
       <c r="H80" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I80" t="s">
         <v>317</v>
       </c>
       <c r="J80" s="2">
-        <v>43010</v>
+        <v>43476</v>
       </c>
       <c r="K80">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L80" s="2">
-        <v>44070</v>
+        <v>44097</v>
       </c>
       <c r="M80">
-        <v>345.75</v>
+        <v>606.25</v>
       </c>
       <c r="N80">
-        <v>178.5</v>
+        <v>243.75</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>115.5</v>
+        <v>130.25</v>
       </c>
       <c r="Q80">
-        <v>639.75</v>
+        <v>980.25</v>
       </c>
       <c r="Y80" t="b">
         <v>1</v>
@@ -7389,12 +7389,12 @@
         <v>43831</v>
       </c>
       <c r="AJ80" s="2">
-        <v>44070</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
@@ -7409,60 +7409,60 @@
         <v>317</v>
       </c>
       <c r="F81" s="2">
-        <v>43240</v>
+        <v>42824</v>
       </c>
       <c r="G81" t="s">
         <v>433</v>
       </c>
       <c r="H81" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J81" s="2">
-        <v>43874</v>
+        <v>43678</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="L81" s="2">
-        <v>43875</v>
+        <v>44134</v>
       </c>
       <c r="M81">
-        <v>11</v>
+        <v>559</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q81">
-        <v>11</v>
-      </c>
-      <c r="AG81" t="b">
+        <v>684</v>
+      </c>
+      <c r="Z81" t="b">
         <v>1</v>
       </c>
       <c r="AI81" s="2">
-        <v>43874</v>
+        <v>43831</v>
       </c>
       <c r="AJ81" s="2">
-        <v>43875</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
         <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
         <v>292</v>
@@ -7471,31 +7471,31 @@
         <v>317</v>
       </c>
       <c r="F82" s="2">
-        <v>43240</v>
+        <v>42991</v>
       </c>
       <c r="G82" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H82" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I82" t="s">
         <v>317</v>
       </c>
       <c r="J82" s="2">
-        <v>43542</v>
+        <v>43388</v>
       </c>
       <c r="K82">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="L82" s="2">
-        <v>43908</v>
+        <v>43951</v>
       </c>
       <c r="M82">
-        <v>122.5</v>
+        <v>126.5</v>
       </c>
       <c r="N82">
-        <v>60.5</v>
+        <v>115</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>183</v>
+        <v>241.5</v>
       </c>
       <c r="AC82" t="b">
         <v>1</v>
@@ -7513,51 +7513,51 @@
         <v>43831</v>
       </c>
       <c r="AJ82" s="2">
-        <v>43908</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="1">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
         <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F83" s="2">
-        <v>43605</v>
+        <v>43870</v>
       </c>
       <c r="G83" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H83" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J83" s="2">
-        <v>44144</v>
+        <v>44130</v>
       </c>
       <c r="K83">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L83" s="2">
         <v>44196</v>
       </c>
       <c r="M83">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N83">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -7566,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="b">
         <v>1</v>
       </c>
       <c r="AI83" s="2">
-        <v>44144</v>
+        <v>44130</v>
       </c>
       <c r="AJ83" s="2">
         <v>44196</v>
@@ -7580,137 +7580,134 @@
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="1">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D84" t="s">
         <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F84" s="2">
-        <v>42875</v>
+        <v>42772</v>
       </c>
       <c r="G84" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H84" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J84" s="2">
-        <v>44013</v>
+        <v>43010</v>
       </c>
       <c r="K84">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="L84" s="2">
-        <v>44092</v>
+        <v>44070</v>
       </c>
       <c r="M84">
-        <v>241.5</v>
+        <v>345.75</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>178.5</v>
       </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="Q84">
-        <v>241.5</v>
-      </c>
-      <c r="Z84" t="b">
+        <v>639.75</v>
+      </c>
+      <c r="Y84" t="b">
         <v>1</v>
       </c>
       <c r="AI84" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AJ84" s="2">
-        <v>44092</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="1">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
         <v>292</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F85" s="2">
-        <v>42717</v>
+        <v>43240</v>
       </c>
       <c r="G85" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H85" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I85" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J85" s="2">
-        <v>42996</v>
+        <v>43874</v>
       </c>
       <c r="K85">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="L85" s="2">
-        <v>44049</v>
+        <v>43875</v>
       </c>
       <c r="M85">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="N85">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>592</v>
-      </c>
-      <c r="S85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y85" t="b">
+        <v>11</v>
+      </c>
+      <c r="AG85" t="b">
         <v>1</v>
       </c>
       <c r="AI85" s="2">
-        <v>43831</v>
+        <v>43874</v>
       </c>
       <c r="AJ85" s="2">
-        <v>44049</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="1">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
         <v>179</v>
@@ -7719,10 +7716,10 @@
         <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F86" s="2">
-        <v>43126</v>
+        <v>43240</v>
       </c>
       <c r="G86" t="s">
         <v>437</v>
@@ -7731,22 +7728,22 @@
         <v>602</v>
       </c>
       <c r="I86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J86" s="2">
-        <v>44074</v>
+        <v>43542</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="L86" s="2">
-        <v>44076</v>
+        <v>43908</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>122.5</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -7755,24 +7752,24 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>16</v>
-      </c>
-      <c r="AG86" t="b">
+        <v>183</v>
+      </c>
+      <c r="AC86" t="b">
         <v>1</v>
       </c>
       <c r="AI86" s="2">
-        <v>44074</v>
+        <v>43831</v>
       </c>
       <c r="AJ86" s="2">
-        <v>44076</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>180</v>
@@ -7781,52 +7778,49 @@
         <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F87" s="2">
-        <v>43308</v>
+        <v>43605</v>
       </c>
       <c r="G87" t="s">
         <v>438</v>
       </c>
       <c r="H87" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J87" s="2">
-        <v>43881</v>
+        <v>44144</v>
       </c>
       <c r="K87">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="L87" s="2">
         <v>44196</v>
       </c>
       <c r="M87">
-        <v>600.5</v>
+        <v>62</v>
       </c>
       <c r="N87">
-        <v>286.5</v>
+        <v>18</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>198.5</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1085.5</v>
-      </c>
-      <c r="AB87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE87" t="b">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="b">
         <v>1</v>
       </c>
       <c r="AI87" s="2">
-        <v>43881</v>
+        <v>44144</v>
       </c>
       <c r="AJ87" s="2">
         <v>44196</v>
@@ -7834,10 +7828,10 @@
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="1">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
         <v>181</v>
@@ -7846,60 +7840,60 @@
         <v>292</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F88" s="2">
-        <v>43068</v>
+        <v>42875</v>
       </c>
       <c r="G88" t="s">
         <v>439</v>
       </c>
       <c r="H88" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I88" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J88" s="2">
-        <v>43718</v>
+        <v>44013</v>
       </c>
       <c r="K88">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="L88" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
       <c r="M88">
-        <v>592.5</v>
+        <v>241.5</v>
       </c>
       <c r="N88">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>862.5</v>
+        <v>241.5</v>
       </c>
       <c r="Z88" t="b">
         <v>1</v>
       </c>
       <c r="AI88" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="AJ88" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="1">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
         <v>182</v>
@@ -7908,282 +7902,288 @@
         <v>292</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F89" s="2">
-        <v>42914</v>
+        <v>42717</v>
       </c>
       <c r="G89" t="s">
         <v>440</v>
       </c>
       <c r="H89" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
       <c r="I89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J89" s="2">
-        <v>44145</v>
+        <v>42996</v>
       </c>
       <c r="K89">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="L89" s="2">
-        <v>44196</v>
+        <v>44049</v>
       </c>
       <c r="M89">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Q89">
-        <v>230.5</v>
-      </c>
-      <c r="Z89" t="b">
+        <v>592</v>
+      </c>
+      <c r="S89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y89" t="b">
         <v>1</v>
       </c>
       <c r="AI89" s="2">
-        <v>44145</v>
+        <v>43831</v>
       </c>
       <c r="AJ89" s="2">
-        <v>44196</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="1">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
         <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F90" s="2">
-        <v>42914</v>
+        <v>43126</v>
       </c>
       <c r="G90" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J90" s="2">
-        <v>43587</v>
+        <v>44074</v>
       </c>
       <c r="K90">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="L90" s="2">
-        <v>44134</v>
+        <v>44076</v>
       </c>
       <c r="M90">
-        <v>815</v>
+        <v>16</v>
       </c>
       <c r="N90">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1093</v>
-      </c>
-      <c r="Z90" t="b">
+        <v>16</v>
+      </c>
+      <c r="AG90" t="b">
         <v>1</v>
       </c>
       <c r="AI90" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AJ90" s="2">
-        <v>44134</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="1">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D91" t="s">
         <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F91" s="2">
-        <v>42861</v>
+        <v>43308</v>
       </c>
       <c r="G91" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H91" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I91" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J91" s="2">
-        <v>43409</v>
+        <v>43881</v>
       </c>
       <c r="K91">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="L91" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="M91">
-        <v>138</v>
+        <v>600.5</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>286.5</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>198.5</v>
       </c>
       <c r="Q91">
-        <v>138</v>
-      </c>
-      <c r="Z91" t="b">
+        <v>1085.5</v>
+      </c>
+      <c r="AB91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE91" t="b">
         <v>1</v>
       </c>
       <c r="AI91" s="2">
-        <v>43831</v>
+        <v>43881</v>
       </c>
       <c r="AJ91" s="2">
-        <v>44104</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="1">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
         <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F92" s="2">
-        <v>43215</v>
+        <v>43068</v>
       </c>
       <c r="G92" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H92" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="I92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J92" s="2">
-        <v>43479</v>
+        <v>43718</v>
       </c>
       <c r="K92">
-        <v>126</v>
+        <v>365</v>
       </c>
       <c r="L92" s="2">
-        <v>43957</v>
+        <v>44196</v>
       </c>
       <c r="M92">
-        <v>139.5</v>
+        <v>592.5</v>
       </c>
       <c r="N92">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
       <c r="P92">
-        <v>378</v>
+        <v>70</v>
       </c>
       <c r="Q92">
-        <v>904.5</v>
-      </c>
-      <c r="AG92" t="b">
+        <v>862.5</v>
+      </c>
+      <c r="Z92" t="b">
         <v>1</v>
       </c>
       <c r="AI92" s="2">
         <v>43831</v>
       </c>
       <c r="AJ92" s="2">
-        <v>43957</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="1">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
         <v>292</v>
       </c>
       <c r="E93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F93" s="2">
-        <v>43104</v>
+        <v>42914</v>
       </c>
       <c r="G93" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H93" t="s">
-        <v>606</v>
+        <v>558</v>
       </c>
       <c r="I93" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="J93" s="2">
-        <v>44097</v>
+        <v>44145</v>
       </c>
       <c r="K93">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="L93" s="2">
         <v>44196</v>
       </c>
       <c r="M93">
-        <v>288.5</v>
+        <v>230.5</v>
       </c>
       <c r="N93">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -8192,13 +8192,13 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>321.5</v>
-      </c>
-      <c r="S93" t="b">
+        <v>230.5</v>
+      </c>
+      <c r="Z93" t="b">
         <v>1</v>
       </c>
       <c r="AI93" s="2">
-        <v>44097</v>
+        <v>44145</v>
       </c>
       <c r="AJ93" s="2">
         <v>44196</v>
@@ -8206,10 +8206,10 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
         <v>186</v>
@@ -8218,10 +8218,10 @@
         <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F94" s="2">
-        <v>42750</v>
+        <v>42914</v>
       </c>
       <c r="G94" t="s">
         <v>444</v>
@@ -8230,84 +8230,84 @@
         <v>607</v>
       </c>
       <c r="I94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J94" s="2">
-        <v>44013</v>
+        <v>43587</v>
       </c>
       <c r="K94">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="L94" s="2">
-        <v>44078</v>
+        <v>44134</v>
       </c>
       <c r="M94">
-        <v>148.5</v>
+        <v>815</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q94">
-        <v>148.5</v>
-      </c>
-      <c r="Y94" t="b">
+        <v>1093</v>
+      </c>
+      <c r="Z94" t="b">
         <v>1</v>
       </c>
       <c r="AI94" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AJ94" s="2">
-        <v>44078</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="1">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D95" t="s">
         <v>292</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F95" s="2">
-        <v>42750</v>
+        <v>42861</v>
       </c>
       <c r="G95" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I95" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J95" s="2">
-        <v>43041</v>
+        <v>43409</v>
       </c>
       <c r="K95">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="L95" s="2">
-        <v>43951</v>
+        <v>44104</v>
       </c>
       <c r="M95">
-        <v>180.25</v>
+        <v>138</v>
       </c>
       <c r="N95">
-        <v>203.25</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -8316,125 +8316,122 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>383.5</v>
-      </c>
-      <c r="Y95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC95" t="b">
+        <v>138</v>
+      </c>
+      <c r="Z95" t="b">
         <v>1</v>
       </c>
       <c r="AI95" s="2">
         <v>43831</v>
       </c>
       <c r="AJ95" s="2">
-        <v>43951</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="1">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D96" t="s">
         <v>292</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F96" s="2">
-        <v>42699</v>
+        <v>43215</v>
       </c>
       <c r="G96" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H96" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="I96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J96" s="2">
-        <v>43346</v>
+        <v>43479</v>
       </c>
       <c r="K96">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="L96" s="2">
-        <v>44085</v>
+        <v>43957</v>
       </c>
       <c r="M96">
-        <v>696.25</v>
+        <v>139.5</v>
       </c>
       <c r="N96">
-        <v>329.25</v>
+        <v>387</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>203.5</v>
+        <v>378</v>
       </c>
       <c r="Q96">
-        <v>1229</v>
-      </c>
-      <c r="Y96" t="b">
+        <v>904.5</v>
+      </c>
+      <c r="AG96" t="b">
         <v>1</v>
       </c>
       <c r="AI96" s="2">
         <v>43831</v>
       </c>
       <c r="AJ96" s="2">
-        <v>44085</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="1">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
         <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F97" s="2">
-        <v>42699</v>
+        <v>43104</v>
       </c>
       <c r="G97" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H97" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="I97" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="J97" s="2">
-        <v>44074</v>
+        <v>44097</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="L97" s="2">
-        <v>44078</v>
+        <v>44196</v>
       </c>
       <c r="M97">
-        <v>37</v>
+        <v>288.5</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -8443,125 +8440,122 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
-      </c>
-      <c r="Y97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG97" t="b">
+        <v>321.5</v>
+      </c>
+      <c r="S97" t="b">
         <v>1</v>
       </c>
       <c r="AI97" s="2">
-        <v>44074</v>
+        <v>44097</v>
       </c>
       <c r="AJ97" s="2">
-        <v>44078</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="1">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D98" t="s">
         <v>292</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F98" s="2">
-        <v>43081</v>
+        <v>42750</v>
       </c>
       <c r="G98" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H98" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="I98" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J98" s="2">
-        <v>43360</v>
+        <v>44013</v>
       </c>
       <c r="K98">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="L98" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
       <c r="M98">
-        <v>1357</v>
+        <v>148.5</v>
       </c>
       <c r="N98">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>1716.5</v>
-      </c>
-      <c r="Z98" t="b">
+        <v>148.5</v>
+      </c>
+      <c r="Y98" t="b">
         <v>1</v>
       </c>
       <c r="AI98" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="AJ98" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="1">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
         <v>292</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F99" s="2">
-        <v>43305</v>
+        <v>42750</v>
       </c>
       <c r="G99" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H99" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="I99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J99" s="2">
-        <v>43745</v>
+        <v>43041</v>
       </c>
       <c r="K99">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L99" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="M99">
-        <v>196</v>
+        <v>180.25</v>
       </c>
       <c r="N99">
-        <v>105</v>
+        <v>203.25</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -8570,7 +8564,10 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>301</v>
+        <v>383.5</v>
+      </c>
+      <c r="Y99" t="b">
+        <v>1</v>
       </c>
       <c r="AC99" t="b">
         <v>1</v>
@@ -8579,77 +8576,77 @@
         <v>43831</v>
       </c>
       <c r="AJ99" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="1">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D100" t="s">
         <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F100" s="2">
-        <v>42849</v>
+        <v>42699</v>
       </c>
       <c r="G100" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H100" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="I100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J100" s="2">
-        <v>43284</v>
+        <v>43346</v>
       </c>
       <c r="K100">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L100" s="2">
-        <v>44104</v>
+        <v>44085</v>
       </c>
       <c r="M100">
-        <v>389</v>
+        <v>696.25</v>
       </c>
       <c r="N100">
-        <v>130</v>
+        <v>329.25</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>-6.5</v>
+        <v>203.5</v>
       </c>
       <c r="Q100">
-        <v>512.5</v>
-      </c>
-      <c r="Z100" t="b">
+        <v>1229</v>
+      </c>
+      <c r="Y100" t="b">
         <v>1</v>
       </c>
       <c r="AI100" s="2">
         <v>43831</v>
       </c>
       <c r="AJ100" s="2">
-        <v>44104</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="1">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
         <v>191</v>
@@ -8658,60 +8655,63 @@
         <v>292</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F101" s="2">
-        <v>42868</v>
+        <v>42699</v>
       </c>
       <c r="G101" t="s">
         <v>449</v>
       </c>
       <c r="H101" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J101" s="2">
-        <v>43283</v>
+        <v>44074</v>
       </c>
       <c r="K101">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="L101" s="2">
-        <v>44096</v>
+        <v>44078</v>
       </c>
       <c r="M101">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="N101">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>655</v>
-      </c>
-      <c r="Z101" t="b">
+        <v>37</v>
+      </c>
+      <c r="Y101" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG101" t="b">
         <v>1</v>
       </c>
       <c r="AI101" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AJ101" s="2">
-        <v>44096</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="1">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
         <v>192</v>
@@ -8720,60 +8720,60 @@
         <v>292</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F102" s="2">
-        <v>42780</v>
+        <v>43081</v>
       </c>
       <c r="G102" t="s">
         <v>450</v>
       </c>
       <c r="H102" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J102" s="2">
-        <v>43132</v>
+        <v>43360</v>
       </c>
       <c r="K102">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="L102" s="2">
-        <v>44085</v>
+        <v>44196</v>
       </c>
       <c r="M102">
-        <v>535</v>
+        <v>1357</v>
       </c>
       <c r="N102">
-        <v>252.5</v>
+        <v>349</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>159</v>
+        <v>10.5</v>
       </c>
       <c r="Q102">
-        <v>946.5</v>
-      </c>
-      <c r="Y102" t="b">
+        <v>1716.5</v>
+      </c>
+      <c r="Z102" t="b">
         <v>1</v>
       </c>
       <c r="AI102" s="2">
         <v>43831</v>
       </c>
       <c r="AJ102" s="2">
-        <v>44085</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="1">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
         <v>193</v>
@@ -8782,34 +8782,34 @@
         <v>292</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F103" s="2">
-        <v>43132</v>
+        <v>43305</v>
       </c>
       <c r="G103" t="s">
         <v>451</v>
       </c>
       <c r="H103" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="I103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J103" s="2">
-        <v>43864</v>
+        <v>43745</v>
       </c>
       <c r="K103">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L103" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="M103">
-        <v>15.5</v>
+        <v>196</v>
       </c>
       <c r="N103">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -8818,24 +8818,24 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>110.5</v>
+        <v>301</v>
       </c>
       <c r="AC103" t="b">
         <v>1</v>
       </c>
       <c r="AI103" s="2">
-        <v>43864</v>
+        <v>43831</v>
       </c>
       <c r="AJ103" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="1">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
         <v>194</v>
@@ -8844,60 +8844,60 @@
         <v>292</v>
       </c>
       <c r="E104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F104" s="2">
-        <v>43147</v>
+        <v>42849</v>
       </c>
       <c r="G104" t="s">
         <v>452</v>
       </c>
       <c r="H104" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="I104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J104" s="2">
-        <v>43475</v>
+        <v>43284</v>
       </c>
       <c r="K104">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="L104" s="2">
-        <v>43921</v>
+        <v>44104</v>
       </c>
       <c r="M104">
-        <v>150.75</v>
+        <v>389</v>
       </c>
       <c r="N104">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="O104">
         <v>0</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>-6.5</v>
       </c>
       <c r="Q104">
-        <v>225.75</v>
-      </c>
-      <c r="AC104" t="b">
+        <v>512.5</v>
+      </c>
+      <c r="Z104" t="b">
         <v>1</v>
       </c>
       <c r="AI104" s="2">
         <v>43831</v>
       </c>
       <c r="AJ104" s="2">
-        <v>43921</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="1">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
         <v>195</v>
@@ -8906,57 +8906,57 @@
         <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F105" s="2">
-        <v>42656</v>
+        <v>42868</v>
       </c>
       <c r="G105" t="s">
         <v>453</v>
       </c>
       <c r="H105" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="I105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J105" s="2">
-        <v>42935</v>
+        <v>43283</v>
       </c>
       <c r="K105">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L105" s="2">
-        <v>44077</v>
+        <v>44096</v>
       </c>
       <c r="M105">
-        <v>256</v>
+        <v>445</v>
       </c>
       <c r="N105">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>180</v>
+        <v>-5</v>
       </c>
       <c r="Q105">
-        <v>608</v>
-      </c>
-      <c r="Y105" t="b">
+        <v>655</v>
+      </c>
+      <c r="Z105" t="b">
         <v>1</v>
       </c>
       <c r="AI105" s="2">
         <v>43831</v>
       </c>
       <c r="AJ105" s="2">
-        <v>44077</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="1">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
         <v>60</v>
@@ -8971,54 +8971,54 @@
         <v>318</v>
       </c>
       <c r="F106" s="2">
-        <v>43471</v>
+        <v>42780</v>
       </c>
       <c r="G106" t="s">
         <v>454</v>
       </c>
       <c r="H106" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="I106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J106" s="2">
-        <v>44088</v>
+        <v>43132</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="L106" s="2">
-        <v>44092</v>
+        <v>44085</v>
       </c>
       <c r="M106">
-        <v>24</v>
+        <v>535</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>252.5</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="Q106">
-        <v>24</v>
-      </c>
-      <c r="AG106" t="b">
+        <v>946.5</v>
+      </c>
+      <c r="Y106" t="b">
         <v>1</v>
       </c>
       <c r="AI106" s="2">
-        <v>44088</v>
+        <v>43831</v>
       </c>
       <c r="AJ106" s="2">
-        <v>44092</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="1">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
         <v>60</v>
@@ -9033,54 +9033,54 @@
         <v>318</v>
       </c>
       <c r="F107" s="2">
-        <v>42775</v>
+        <v>43132</v>
       </c>
       <c r="G107" t="s">
         <v>455</v>
       </c>
       <c r="H107" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="I107" t="s">
         <v>318</v>
       </c>
       <c r="J107" s="2">
-        <v>43476</v>
+        <v>43864</v>
       </c>
       <c r="K107">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="L107" s="2">
-        <v>44097</v>
+        <v>43951</v>
       </c>
       <c r="M107">
-        <v>606.25</v>
+        <v>15.5</v>
       </c>
       <c r="N107">
-        <v>243.75</v>
+        <v>95</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
-        <v>130.25</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>980.25</v>
-      </c>
-      <c r="Y107" t="b">
+        <v>110.5</v>
+      </c>
+      <c r="AC107" t="b">
         <v>1</v>
       </c>
       <c r="AI107" s="2">
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="AJ107" s="2">
-        <v>44097</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="1">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="B108" t="s">
         <v>60</v>
@@ -9095,54 +9095,54 @@
         <v>318</v>
       </c>
       <c r="F108" s="2">
-        <v>42824</v>
+        <v>43147</v>
       </c>
       <c r="G108" t="s">
         <v>456</v>
       </c>
       <c r="H108" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J108" s="2">
-        <v>43678</v>
+        <v>43475</v>
       </c>
       <c r="K108">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="L108" s="2">
-        <v>44134</v>
+        <v>43921</v>
       </c>
       <c r="M108">
-        <v>559</v>
+        <v>150.75</v>
       </c>
       <c r="N108">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>684</v>
-      </c>
-      <c r="Z108" t="b">
+        <v>225.75</v>
+      </c>
+      <c r="AC108" t="b">
         <v>1</v>
       </c>
       <c r="AI108" s="2">
         <v>43831</v>
       </c>
       <c r="AJ108" s="2">
-        <v>44134</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="1">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
         <v>60</v>
@@ -9157,7 +9157,7 @@
         <v>318</v>
       </c>
       <c r="F109" s="2">
-        <v>42991</v>
+        <v>42656</v>
       </c>
       <c r="G109" t="s">
         <v>457</v>
@@ -9169,37 +9169,37 @@
         <v>318</v>
       </c>
       <c r="J109" s="2">
-        <v>43388</v>
+        <v>42935</v>
       </c>
       <c r="K109">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="L109" s="2">
-        <v>43951</v>
+        <v>44077</v>
       </c>
       <c r="M109">
-        <v>126.5</v>
+        <v>256</v>
       </c>
       <c r="N109">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Q109">
-        <v>241.5</v>
-      </c>
-      <c r="AC109" t="b">
+        <v>608</v>
+      </c>
+      <c r="Y109" t="b">
         <v>1</v>
       </c>
       <c r="AI109" s="2">
         <v>43831</v>
       </c>
       <c r="AJ109" s="2">
-        <v>43951</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="110" spans="1:36">
@@ -9228,7 +9228,7 @@
         <v>612</v>
       </c>
       <c r="I110" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J110" s="2">
         <v>43132</v>
@@ -9287,7 +9287,7 @@
         <v>459</v>
       </c>
       <c r="H111" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I111" t="s">
         <v>348</v>
@@ -9535,7 +9535,7 @@
         <v>463</v>
       </c>
       <c r="H115" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="I115" t="s">
         <v>652</v>
@@ -9721,7 +9721,7 @@
         <v>465</v>
       </c>
       <c r="H118" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="I118" t="s">
         <v>652</v>
@@ -9969,7 +9969,7 @@
         <v>468</v>
       </c>
       <c r="H122" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="I122" t="s">
         <v>652</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
@@ -10087,57 +10087,57 @@
         <v>323</v>
       </c>
       <c r="F124" s="2">
-        <v>43010</v>
+        <v>42986</v>
       </c>
       <c r="G124" t="s">
         <v>470</v>
       </c>
       <c r="H124" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="I124" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J124" s="2">
-        <v>43761</v>
+        <v>43881</v>
       </c>
       <c r="K124">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="L124" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
       <c r="M124">
-        <v>601</v>
+        <v>24.75</v>
       </c>
       <c r="N124">
-        <v>175.25</v>
+        <v>247.25</v>
       </c>
       <c r="O124">
         <v>0</v>
       </c>
       <c r="P124">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>902.25</v>
-      </c>
-      <c r="Z124" t="b">
+        <v>272</v>
+      </c>
+      <c r="AE124" t="b">
         <v>1</v>
       </c>
       <c r="AI124" s="2">
-        <v>43831</v>
+        <v>43881</v>
       </c>
       <c r="AJ124" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C125" t="s">
         <v>213</v>
@@ -10146,34 +10146,34 @@
         <v>292</v>
       </c>
       <c r="E125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F125" s="2">
-        <v>42986</v>
+        <v>43096</v>
       </c>
       <c r="G125" t="s">
         <v>471</v>
       </c>
       <c r="H125" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="I125" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="J125" s="2">
-        <v>43881</v>
+        <v>43353</v>
       </c>
       <c r="K125">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L125" s="2">
-        <v>43957</v>
+        <v>43921</v>
       </c>
       <c r="M125">
-        <v>24.75</v>
+        <v>103.5</v>
       </c>
       <c r="N125">
-        <v>247.25</v>
+        <v>55</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -10182,21 +10182,21 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>272</v>
-      </c>
-      <c r="AE125" t="b">
+        <v>158.5</v>
+      </c>
+      <c r="AC125" t="b">
         <v>1</v>
       </c>
       <c r="AI125" s="2">
-        <v>43881</v>
+        <v>43831</v>
       </c>
       <c r="AJ125" s="2">
-        <v>43957</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
         <v>66</v>
@@ -10211,31 +10211,31 @@
         <v>324</v>
       </c>
       <c r="F126" s="2">
-        <v>43096</v>
+        <v>43450</v>
       </c>
       <c r="G126" t="s">
         <v>472</v>
       </c>
       <c r="H126" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="I126" t="s">
-        <v>298</v>
+        <v>649</v>
       </c>
       <c r="J126" s="2">
-        <v>43353</v>
+        <v>44172</v>
       </c>
       <c r="K126">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L126" s="2">
-        <v>43921</v>
+        <v>44172</v>
       </c>
       <c r="M126">
-        <v>103.5</v>
+        <v>7.75</v>
       </c>
       <c r="N126">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -10244,24 +10244,24 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>158.5</v>
-      </c>
-      <c r="AC126" t="b">
+        <v>7.75</v>
+      </c>
+      <c r="AG126" t="b">
         <v>1</v>
       </c>
       <c r="AI126" s="2">
-        <v>43831</v>
+        <v>44172</v>
       </c>
       <c r="AJ126" s="2">
-        <v>43921</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
         <v>215</v>
@@ -10270,57 +10270,57 @@
         <v>292</v>
       </c>
       <c r="E127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F127" s="2">
-        <v>43450</v>
+        <v>43374</v>
       </c>
       <c r="G127" t="s">
         <v>473</v>
       </c>
       <c r="H127" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="I127" t="s">
-        <v>649</v>
+        <v>330</v>
       </c>
       <c r="J127" s="2">
-        <v>44172</v>
+        <v>43683</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L127" s="2">
-        <v>44172</v>
+        <v>43957</v>
       </c>
       <c r="M127">
-        <v>7.75</v>
+        <v>175.75</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>204.25</v>
       </c>
       <c r="O127">
         <v>0</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="Q127">
-        <v>7.75</v>
+        <v>665</v>
       </c>
       <c r="AG127" t="b">
         <v>1</v>
       </c>
       <c r="AI127" s="2">
-        <v>44172</v>
+        <v>43831</v>
       </c>
       <c r="AJ127" s="2">
-        <v>44172</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
         <v>67</v>
@@ -10335,49 +10335,49 @@
         <v>325</v>
       </c>
       <c r="F128" s="2">
-        <v>43374</v>
+        <v>43010</v>
       </c>
       <c r="G128" t="s">
         <v>474</v>
       </c>
       <c r="H128" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="I128" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J128" s="2">
-        <v>43683</v>
+        <v>43761</v>
       </c>
       <c r="K128">
+        <v>365</v>
+      </c>
+      <c r="L128" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M128">
+        <v>601</v>
+      </c>
+      <c r="N128">
+        <v>175.25</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
         <v>126</v>
       </c>
-      <c r="L128" s="2">
-        <v>43957</v>
-      </c>
-      <c r="M128">
-        <v>175.75</v>
-      </c>
-      <c r="N128">
-        <v>204.25</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>285</v>
-      </c>
       <c r="Q128">
-        <v>665</v>
-      </c>
-      <c r="AG128" t="b">
+        <v>902.25</v>
+      </c>
+      <c r="Z128" t="b">
         <v>1</v>
       </c>
       <c r="AI128" s="2">
         <v>43831</v>
       </c>
       <c r="AJ128" s="2">
-        <v>43957</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="129" spans="1:36">
@@ -10465,10 +10465,10 @@
         <v>476</v>
       </c>
       <c r="H130" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J130" s="2">
         <v>43864</v>
@@ -10527,10 +10527,10 @@
         <v>477</v>
       </c>
       <c r="H131" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I131" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J131" s="2">
         <v>43864</v>
@@ -10648,57 +10648,57 @@
         <v>328</v>
       </c>
       <c r="F133" s="2">
-        <v>43048</v>
+        <v>43235</v>
       </c>
       <c r="G133" t="s">
         <v>479</v>
       </c>
       <c r="H133" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="I133" t="s">
-        <v>650</v>
+        <v>328</v>
       </c>
       <c r="J133" s="2">
-        <v>43591</v>
+        <v>43773</v>
       </c>
       <c r="K133">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="L133" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="M133">
-        <v>487.25</v>
+        <v>68</v>
       </c>
       <c r="N133">
-        <v>26.25</v>
+        <v>48</v>
       </c>
       <c r="O133">
         <v>0</v>
       </c>
       <c r="P133">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>576.5</v>
-      </c>
-      <c r="Z133" t="b">
+        <v>116</v>
+      </c>
+      <c r="AC133" t="b">
         <v>1</v>
       </c>
       <c r="AI133" s="2">
         <v>43831</v>
       </c>
       <c r="AJ133" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C134" t="s">
         <v>222</v>
@@ -10707,22 +10707,22 @@
         <v>292</v>
       </c>
       <c r="E134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F134" s="2">
-        <v>42982</v>
+        <v>43048</v>
       </c>
       <c r="G134" t="s">
         <v>480</v>
       </c>
       <c r="H134" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="I134" t="s">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="J134" s="2">
-        <v>43348</v>
+        <v>43591</v>
       </c>
       <c r="K134">
         <v>365</v>
@@ -10731,19 +10731,19 @@
         <v>44196</v>
       </c>
       <c r="M134">
-        <v>935</v>
+        <v>487.25</v>
       </c>
       <c r="N134">
-        <v>156</v>
+        <v>26.25</v>
       </c>
       <c r="O134">
         <v>0</v>
       </c>
       <c r="P134">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q134">
-        <v>1103</v>
+        <v>576.5</v>
       </c>
       <c r="Z134" t="b">
         <v>1</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C135" t="s">
         <v>223</v>
@@ -10769,22 +10769,22 @@
         <v>292</v>
       </c>
       <c r="E135" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F135" s="2">
-        <v>42854</v>
+        <v>42982</v>
       </c>
       <c r="G135" t="s">
         <v>481</v>
       </c>
       <c r="H135" t="s">
-        <v>621</v>
+        <v>568</v>
       </c>
       <c r="I135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J135" s="2">
-        <v>43283</v>
+        <v>43348</v>
       </c>
       <c r="K135">
         <v>365</v>
@@ -10793,19 +10793,19 @@
         <v>44196</v>
       </c>
       <c r="M135">
-        <v>409.5</v>
+        <v>935</v>
       </c>
       <c r="N135">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O135">
         <v>0</v>
       </c>
       <c r="P135">
-        <v>65.5</v>
+        <v>12</v>
       </c>
       <c r="Q135">
-        <v>600</v>
+        <v>1103</v>
       </c>
       <c r="Z135" t="b">
         <v>1</v>
@@ -10819,10 +10819,10 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C136" t="s">
         <v>224</v>
@@ -10831,60 +10831,60 @@
         <v>292</v>
       </c>
       <c r="E136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F136" s="2">
-        <v>43578</v>
+        <v>42854</v>
       </c>
       <c r="G136" t="s">
         <v>482</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="I136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J136" s="2">
-        <v>43871</v>
+        <v>43283</v>
       </c>
       <c r="K136">
-        <v>50</v>
+        <v>365</v>
       </c>
       <c r="L136" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M136">
-        <v>81.5</v>
+        <v>409.5</v>
       </c>
       <c r="N136">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="O136">
         <v>0</v>
       </c>
       <c r="P136">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="Q136">
-        <v>165.5</v>
-      </c>
-      <c r="AC136" t="b">
+        <v>600</v>
+      </c>
+      <c r="Z136" t="b">
         <v>1</v>
       </c>
       <c r="AI136" s="2">
-        <v>43871</v>
+        <v>43831</v>
       </c>
       <c r="AJ136" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C137" t="s">
         <v>225</v>
@@ -10893,34 +10893,34 @@
         <v>292</v>
       </c>
       <c r="E137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F137" s="2">
-        <v>42765</v>
+        <v>43578</v>
       </c>
       <c r="G137" t="s">
         <v>483</v>
       </c>
       <c r="H137" t="s">
-        <v>622</v>
+        <v>569</v>
       </c>
       <c r="I137" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="J137" s="2">
-        <v>43080</v>
+        <v>43871</v>
       </c>
       <c r="K137">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="L137" s="2">
-        <v>43957</v>
+        <v>43921</v>
       </c>
       <c r="M137">
-        <v>336</v>
+        <v>81.5</v>
       </c>
       <c r="N137">
-        <v>275.5</v>
+        <v>84</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -10929,24 +10929,24 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>611.5</v>
-      </c>
-      <c r="Y137" t="b">
+        <v>165.5</v>
+      </c>
+      <c r="AC137" t="b">
         <v>1</v>
       </c>
       <c r="AI137" s="2">
-        <v>43831</v>
+        <v>43871</v>
       </c>
       <c r="AJ137" s="2">
-        <v>43957</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C138" t="s">
         <v>226</v>
@@ -10955,43 +10955,43 @@
         <v>292</v>
       </c>
       <c r="E138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F138" s="2">
-        <v>42771</v>
+        <v>42765</v>
       </c>
       <c r="G138" t="s">
         <v>484</v>
       </c>
       <c r="H138" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I138" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="J138" s="2">
-        <v>43647</v>
+        <v>43080</v>
       </c>
       <c r="K138">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="L138" s="2">
-        <v>44060</v>
+        <v>43957</v>
       </c>
       <c r="M138">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="N138">
-        <v>100</v>
+        <v>275.5</v>
       </c>
       <c r="O138">
         <v>0</v>
       </c>
       <c r="P138">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>385</v>
+        <v>611.5</v>
       </c>
       <c r="Y138" t="b">
         <v>1</v>
@@ -11000,12 +11000,12 @@
         <v>43831</v>
       </c>
       <c r="AJ138" s="2">
-        <v>44060</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="139" spans="1:36">
       <c r="A139" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s">
         <v>71</v>
@@ -11020,40 +11020,40 @@
         <v>329</v>
       </c>
       <c r="F139" s="2">
-        <v>42767</v>
+        <v>42771</v>
       </c>
       <c r="G139" t="s">
         <v>485</v>
       </c>
       <c r="H139" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I139" t="s">
         <v>329</v>
       </c>
       <c r="J139" s="2">
-        <v>43290</v>
+        <v>43647</v>
       </c>
       <c r="K139">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L139" s="2">
-        <v>43957</v>
+        <v>44060</v>
       </c>
       <c r="M139">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="N139">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="O139">
         <v>0</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q139">
-        <v>486</v>
+        <v>385</v>
       </c>
       <c r="Y139" t="b">
         <v>1</v>
@@ -11062,12 +11062,12 @@
         <v>43831</v>
       </c>
       <c r="AJ139" s="2">
-        <v>43957</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
         <v>72</v>
@@ -11082,7 +11082,7 @@
         <v>330</v>
       </c>
       <c r="F140" s="2">
-        <v>43235</v>
+        <v>42767</v>
       </c>
       <c r="G140" t="s">
         <v>486</v>
@@ -11094,19 +11094,19 @@
         <v>330</v>
       </c>
       <c r="J140" s="2">
-        <v>43773</v>
+        <v>43290</v>
       </c>
       <c r="K140">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L140" s="2">
-        <v>43921</v>
+        <v>43957</v>
       </c>
       <c r="M140">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="N140">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -11115,21 +11115,21 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>116</v>
-      </c>
-      <c r="AC140" t="b">
+        <v>486</v>
+      </c>
+      <c r="Y140" t="b">
         <v>1</v>
       </c>
       <c r="AI140" s="2">
         <v>43831</v>
       </c>
       <c r="AJ140" s="2">
-        <v>43921</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="141" spans="1:36">
       <c r="A141" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
         <v>73</v>
@@ -11144,31 +11144,31 @@
         <v>331</v>
       </c>
       <c r="F141" s="2">
-        <v>42968</v>
+        <v>42755</v>
       </c>
       <c r="G141" t="s">
         <v>487</v>
       </c>
       <c r="H141" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="I141" t="s">
-        <v>293</v>
+        <v>648</v>
       </c>
       <c r="J141" s="2">
-        <v>43871</v>
+        <v>43661</v>
       </c>
       <c r="K141">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="L141" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="M141">
-        <v>12</v>
+        <v>152.5</v>
       </c>
       <c r="N141">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -11177,21 +11177,24 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>102</v>
+        <v>326.5</v>
+      </c>
+      <c r="Y141" t="b">
+        <v>1</v>
       </c>
       <c r="AC141" t="b">
         <v>1</v>
       </c>
       <c r="AI141" s="2">
-        <v>43871</v>
+        <v>43831</v>
       </c>
       <c r="AJ141" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
         <v>74</v>
@@ -11206,57 +11209,57 @@
         <v>332</v>
       </c>
       <c r="F142" s="2">
-        <v>42924</v>
+        <v>42765</v>
       </c>
       <c r="G142" t="s">
         <v>488</v>
       </c>
       <c r="H142" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="I142" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J142" s="2">
-        <v>43276</v>
+        <v>43160</v>
       </c>
       <c r="K142">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="L142" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
       <c r="M142">
-        <v>780.5</v>
+        <v>429.75</v>
       </c>
       <c r="N142">
-        <v>232</v>
+        <v>193.5</v>
       </c>
       <c r="O142">
         <v>0</v>
       </c>
       <c r="P142">
-        <v>94.75</v>
+        <v>33.25</v>
       </c>
       <c r="Q142">
-        <v>1107.25</v>
-      </c>
-      <c r="Z142" t="b">
+        <v>656.5</v>
+      </c>
+      <c r="Y142" t="b">
         <v>1</v>
       </c>
       <c r="AI142" s="2">
         <v>43831</v>
       </c>
       <c r="AJ142" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C143" t="s">
         <v>231</v>
@@ -11265,55 +11268,55 @@
         <v>292</v>
       </c>
       <c r="E143" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F143" s="2">
-        <v>42755</v>
+        <v>43661</v>
       </c>
       <c r="G143" t="s">
         <v>489</v>
       </c>
       <c r="H143" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="I143" t="s">
-        <v>648</v>
+        <v>332</v>
       </c>
       <c r="J143" s="2">
-        <v>43661</v>
+        <v>43893</v>
       </c>
       <c r="K143">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="L143" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
       <c r="M143">
-        <v>152.5</v>
+        <v>360.5</v>
       </c>
       <c r="N143">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O143">
         <v>0</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>207.25</v>
       </c>
       <c r="Q143">
-        <v>326.5</v>
-      </c>
-      <c r="Y143" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC143" t="b">
+        <v>735.75</v>
+      </c>
+      <c r="AB143" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE143" t="b">
         <v>1</v>
       </c>
       <c r="AI143" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AJ143" s="2">
-        <v>43951</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="144" spans="1:36">
@@ -11321,7 +11324,7 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
@@ -11330,57 +11333,57 @@
         <v>292</v>
       </c>
       <c r="E144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F144" s="2">
-        <v>42747</v>
+        <v>42968</v>
       </c>
       <c r="G144" t="s">
         <v>490</v>
       </c>
       <c r="H144" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="I144" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="J144" s="2">
-        <v>43833</v>
+        <v>43871</v>
       </c>
       <c r="K144">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="L144" s="2">
-        <v>44083</v>
+        <v>43950</v>
       </c>
       <c r="M144">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="N144">
-        <v>124.5</v>
+        <v>90</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
       <c r="P144">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>498</v>
-      </c>
-      <c r="Y144" t="b">
+        <v>102</v>
+      </c>
+      <c r="AC144" t="b">
         <v>1</v>
       </c>
       <c r="AI144" s="2">
-        <v>43833</v>
+        <v>43871</v>
       </c>
       <c r="AJ144" s="2">
-        <v>44083</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>76</v>
@@ -11395,7 +11398,7 @@
         <v>334</v>
       </c>
       <c r="F145" s="2">
-        <v>43525</v>
+        <v>42747</v>
       </c>
       <c r="G145" t="s">
         <v>491</v>
@@ -11407,42 +11410,42 @@
         <v>334</v>
       </c>
       <c r="J145" s="2">
-        <v>43913</v>
+        <v>43833</v>
       </c>
       <c r="K145">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="L145" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
       <c r="M145">
-        <v>544.5</v>
+        <v>272</v>
       </c>
       <c r="N145">
-        <v>7</v>
+        <v>124.5</v>
       </c>
       <c r="O145">
         <v>0</v>
       </c>
       <c r="P145">
-        <v>25</v>
+        <v>101.5</v>
       </c>
       <c r="Q145">
-        <v>576.5</v>
-      </c>
-      <c r="AA145" t="b">
+        <v>498</v>
+      </c>
+      <c r="Y145" t="b">
         <v>1</v>
       </c>
       <c r="AI145" s="2">
-        <v>43913</v>
+        <v>43833</v>
       </c>
       <c r="AJ145" s="2">
-        <v>44196</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
         <v>76</v>
@@ -11457,7 +11460,7 @@
         <v>334</v>
       </c>
       <c r="F146" s="2">
-        <v>43596</v>
+        <v>43525</v>
       </c>
       <c r="G146" t="s">
         <v>492</v>
@@ -11469,34 +11472,34 @@
         <v>334</v>
       </c>
       <c r="J146" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="K146">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L146" s="2">
         <v>44196</v>
       </c>
       <c r="M146">
-        <v>521.75</v>
+        <v>544.5</v>
       </c>
       <c r="N146">
-        <v>20.75</v>
+        <v>7</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>23.75</v>
+        <v>25</v>
       </c>
       <c r="Q146">
-        <v>566.25</v>
+        <v>576.5</v>
       </c>
       <c r="AA146" t="b">
         <v>1</v>
       </c>
       <c r="AI146" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="AJ146" s="2">
         <v>44196</v>
@@ -11504,7 +11507,7 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
         <v>76</v>
@@ -11519,57 +11522,57 @@
         <v>334</v>
       </c>
       <c r="F147" s="2">
-        <v>42584</v>
+        <v>43596</v>
       </c>
       <c r="G147" t="s">
         <v>493</v>
       </c>
       <c r="H147" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="I147" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J147" s="2">
-        <v>43070</v>
+        <v>43906</v>
       </c>
       <c r="K147">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="L147" s="2">
-        <v>44015</v>
+        <v>44196</v>
       </c>
       <c r="M147">
-        <v>470.75</v>
+        <v>521.75</v>
       </c>
       <c r="N147">
-        <v>268.5</v>
+        <v>20.75</v>
       </c>
       <c r="O147">
         <v>0</v>
       </c>
       <c r="P147">
-        <v>49</v>
+        <v>23.75</v>
       </c>
       <c r="Q147">
-        <v>788.25</v>
-      </c>
-      <c r="Y147" t="b">
+        <v>566.25</v>
+      </c>
+      <c r="AA147" t="b">
         <v>1</v>
       </c>
       <c r="AI147" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AJ147" s="2">
-        <v>44015</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C148" t="s">
         <v>236</v>
@@ -11578,10 +11581,10 @@
         <v>292</v>
       </c>
       <c r="E148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F148" s="2">
-        <v>42765</v>
+        <v>42584</v>
       </c>
       <c r="G148" t="s">
         <v>494</v>
@@ -11590,31 +11593,31 @@
         <v>627</v>
       </c>
       <c r="I148" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J148" s="2">
-        <v>43160</v>
+        <v>43070</v>
       </c>
       <c r="K148">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="L148" s="2">
-        <v>44078</v>
+        <v>44015</v>
       </c>
       <c r="M148">
-        <v>429.75</v>
+        <v>470.75</v>
       </c>
       <c r="N148">
-        <v>193.5</v>
+        <v>268.5</v>
       </c>
       <c r="O148">
         <v>0</v>
       </c>
       <c r="P148">
-        <v>33.25</v>
+        <v>49</v>
       </c>
       <c r="Q148">
-        <v>656.5</v>
+        <v>788.25</v>
       </c>
       <c r="Y148" t="b">
         <v>1</v>
@@ -11623,12 +11626,12 @@
         <v>43831</v>
       </c>
       <c r="AJ148" s="2">
-        <v>44078</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -11643,49 +11646,46 @@
         <v>335</v>
       </c>
       <c r="F149" s="2">
-        <v>43661</v>
+        <v>42924</v>
       </c>
       <c r="G149" t="s">
         <v>495</v>
       </c>
       <c r="H149" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="I149" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J149" s="2">
-        <v>43893</v>
+        <v>43276</v>
       </c>
       <c r="K149">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="L149" s="2">
         <v>44196</v>
       </c>
       <c r="M149">
-        <v>360.5</v>
+        <v>780.5</v>
       </c>
       <c r="N149">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="O149">
         <v>0</v>
       </c>
       <c r="P149">
-        <v>207.25</v>
+        <v>94.75</v>
       </c>
       <c r="Q149">
-        <v>735.75</v>
-      </c>
-      <c r="AB149" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE149" t="b">
+        <v>1107.25</v>
+      </c>
+      <c r="Z149" t="b">
         <v>1</v>
       </c>
       <c r="AI149" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ149" s="2">
         <v>44196</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
         <v>78</v>
@@ -11708,7 +11708,7 @@
         <v>336</v>
       </c>
       <c r="F150" s="2">
-        <v>43405</v>
+        <v>42833</v>
       </c>
       <c r="G150" t="s">
         <v>496</v>
@@ -11720,45 +11720,45 @@
         <v>336</v>
       </c>
       <c r="J150" s="2">
-        <v>43710</v>
+        <v>43701</v>
       </c>
       <c r="K150">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="L150" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="M150">
-        <v>1454.5</v>
+        <v>299.25</v>
       </c>
       <c r="N150">
-        <v>465.5</v>
+        <v>135</v>
       </c>
       <c r="O150">
         <v>0</v>
       </c>
       <c r="P150">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <v>2107</v>
-      </c>
-      <c r="AG150" t="b">
+        <v>434.25</v>
+      </c>
+      <c r="AC150" t="b">
         <v>1</v>
       </c>
       <c r="AI150" s="2">
         <v>43831</v>
       </c>
       <c r="AJ150" s="2">
-        <v>44196</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C151" t="s">
         <v>239</v>
@@ -11767,34 +11767,34 @@
         <v>292</v>
       </c>
       <c r="E151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F151" s="2">
-        <v>42833</v>
+        <v>43505</v>
       </c>
       <c r="G151" t="s">
         <v>497</v>
       </c>
       <c r="H151" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J151" s="2">
-        <v>43701</v>
+        <v>43839</v>
       </c>
       <c r="K151">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L151" s="2">
         <v>43921</v>
       </c>
       <c r="M151">
-        <v>299.25</v>
+        <v>182.5</v>
       </c>
       <c r="N151">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -11803,13 +11803,13 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>434.25</v>
+        <v>266.5</v>
       </c>
       <c r="AC151" t="b">
         <v>1</v>
       </c>
       <c r="AI151" s="2">
-        <v>43831</v>
+        <v>43839</v>
       </c>
       <c r="AJ151" s="2">
         <v>43921</v>
@@ -11817,10 +11817,10 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C152" t="s">
         <v>240</v>
@@ -11829,34 +11829,34 @@
         <v>292</v>
       </c>
       <c r="E152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F152" s="2">
-        <v>43505</v>
+        <v>43489</v>
       </c>
       <c r="G152" t="s">
         <v>498</v>
       </c>
       <c r="H152" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J152" s="2">
-        <v>43839</v>
+        <v>43746</v>
       </c>
       <c r="K152">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L152" s="2">
         <v>43921</v>
       </c>
       <c r="M152">
-        <v>182.5</v>
+        <v>283.5</v>
       </c>
       <c r="N152">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -11865,13 +11865,13 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>266.5</v>
+        <v>418.5</v>
       </c>
       <c r="AC152" t="b">
         <v>1</v>
       </c>
       <c r="AI152" s="2">
-        <v>43839</v>
+        <v>43831</v>
       </c>
       <c r="AJ152" s="2">
         <v>43921</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
         <v>79</v>
@@ -11894,7 +11894,7 @@
         <v>337</v>
       </c>
       <c r="F153" s="2">
-        <v>43489</v>
+        <v>43405</v>
       </c>
       <c r="G153" t="s">
         <v>499</v>
@@ -11906,37 +11906,37 @@
         <v>337</v>
       </c>
       <c r="J153" s="2">
-        <v>43746</v>
+        <v>43710</v>
       </c>
       <c r="K153">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="L153" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M153">
-        <v>283.5</v>
+        <v>1454.5</v>
       </c>
       <c r="N153">
-        <v>135</v>
+        <v>465.5</v>
       </c>
       <c r="O153">
         <v>0</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="Q153">
-        <v>418.5</v>
-      </c>
-      <c r="AC153" t="b">
+        <v>2107</v>
+      </c>
+      <c r="AG153" t="b">
         <v>1</v>
       </c>
       <c r="AI153" s="2">
         <v>43831</v>
       </c>
       <c r="AJ153" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="154" spans="1:36">
@@ -12334,7 +12334,7 @@
         <v>506</v>
       </c>
       <c r="H160" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I160" t="s">
         <v>340</v>
@@ -12396,7 +12396,7 @@
         <v>507</v>
       </c>
       <c r="H161" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I161" t="s">
         <v>340</v>
@@ -12458,7 +12458,7 @@
         <v>508</v>
       </c>
       <c r="H162" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I162" t="s">
         <v>341</v>
@@ -12520,7 +12520,7 @@
         <v>509</v>
       </c>
       <c r="H163" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I163" t="s">
         <v>341</v>
@@ -12833,7 +12833,7 @@
         <v>514</v>
       </c>
       <c r="H168" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I168" t="s">
         <v>650</v>
@@ -12895,7 +12895,7 @@
         <v>515</v>
       </c>
       <c r="H169" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I169" t="s">
         <v>650</v>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="170" spans="1:36">
       <c r="A170" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
         <v>87</v>
@@ -12951,7 +12951,7 @@
         <v>345</v>
       </c>
       <c r="F170" s="2">
-        <v>42705</v>
+        <v>43062</v>
       </c>
       <c r="G170" t="s">
         <v>516</v>
@@ -12960,22 +12960,22 @@
         <v>636</v>
       </c>
       <c r="I170" t="s">
-        <v>345</v>
+        <v>655</v>
       </c>
       <c r="J170" s="2">
-        <v>43703</v>
+        <v>44083</v>
       </c>
       <c r="K170">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="L170" s="2">
-        <v>43882</v>
+        <v>44196</v>
       </c>
       <c r="M170">
-        <v>122.5</v>
+        <v>200</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -12984,24 +12984,24 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>122.5</v>
-      </c>
-      <c r="Y170" t="b">
+        <v>213.75</v>
+      </c>
+      <c r="Z170" t="b">
         <v>1</v>
       </c>
       <c r="AI170" s="2">
-        <v>43831</v>
+        <v>44083</v>
       </c>
       <c r="AJ170" s="2">
-        <v>43882</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="171" spans="1:36">
       <c r="A171" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C171" t="s">
         <v>259</v>
@@ -13010,34 +13010,34 @@
         <v>292</v>
       </c>
       <c r="E171" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F171" s="2">
-        <v>42931</v>
+        <v>42705</v>
       </c>
       <c r="G171" t="s">
         <v>517</v>
       </c>
       <c r="H171" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I171" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J171" s="2">
-        <v>43773</v>
+        <v>43703</v>
       </c>
       <c r="K171">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="L171" s="2">
-        <v>43950</v>
+        <v>43882</v>
       </c>
       <c r="M171">
-        <v>102</v>
+        <v>122.5</v>
       </c>
       <c r="N171">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -13046,21 +13046,21 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>198</v>
-      </c>
-      <c r="AC171" t="b">
+        <v>122.5</v>
+      </c>
+      <c r="Y171" t="b">
         <v>1</v>
       </c>
       <c r="AI171" s="2">
         <v>43831</v>
       </c>
       <c r="AJ171" s="2">
-        <v>43950</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="172" spans="1:36">
       <c r="A172" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
         <v>88</v>
@@ -13075,57 +13075,54 @@
         <v>346</v>
       </c>
       <c r="F172" s="2">
-        <v>42926</v>
+        <v>42931</v>
       </c>
       <c r="G172" t="s">
         <v>518</v>
       </c>
       <c r="H172" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="I172" t="s">
-        <v>648</v>
+        <v>346</v>
       </c>
       <c r="J172" s="2">
-        <v>43874</v>
+        <v>43773</v>
       </c>
       <c r="K172">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="L172" s="2">
-        <v>44057</v>
+        <v>43950</v>
       </c>
       <c r="M172">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="N172">
-        <v>168.5</v>
+        <v>96</v>
       </c>
       <c r="O172">
         <v>0</v>
       </c>
       <c r="P172">
-        <v>131.5</v>
+        <v>0</v>
       </c>
       <c r="Q172">
-        <v>470</v>
-      </c>
-      <c r="AB172" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE172" t="b">
+        <v>198</v>
+      </c>
+      <c r="AC172" t="b">
         <v>1</v>
       </c>
       <c r="AI172" s="2">
-        <v>43874</v>
+        <v>43831</v>
       </c>
       <c r="AJ172" s="2">
-        <v>44057</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="173" spans="1:36">
       <c r="A173" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
         <v>89</v>
@@ -13140,49 +13137,52 @@
         <v>347</v>
       </c>
       <c r="F173" s="2">
-        <v>43062</v>
+        <v>42926</v>
       </c>
       <c r="G173" t="s">
         <v>519</v>
       </c>
       <c r="H173" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="I173" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="J173" s="2">
-        <v>44083</v>
+        <v>43874</v>
       </c>
       <c r="K173">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="L173" s="2">
-        <v>44196</v>
+        <v>44057</v>
       </c>
       <c r="M173">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N173">
-        <v>13.75</v>
+        <v>168.5</v>
       </c>
       <c r="O173">
         <v>0</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>131.5</v>
       </c>
       <c r="Q173">
-        <v>213.75</v>
-      </c>
-      <c r="Z173" t="b">
+        <v>470</v>
+      </c>
+      <c r="AB173" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE173" t="b">
         <v>1</v>
       </c>
       <c r="AI173" s="2">
-        <v>44083</v>
+        <v>43874</v>
       </c>
       <c r="AJ173" s="2">
-        <v>44196</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="174" spans="1:36">
@@ -13208,10 +13208,10 @@
         <v>520</v>
       </c>
       <c r="H174" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J174" s="2">
         <v>43837</v>
@@ -13521,7 +13521,7 @@
         <v>555</v>
       </c>
       <c r="I179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J179" s="2">
         <v>44160</v>
@@ -13831,7 +13831,7 @@
         <v>555</v>
       </c>
       <c r="I184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J184" s="2">
         <v>43892</v>
@@ -13884,46 +13884,46 @@
         <v>351</v>
       </c>
       <c r="F185" s="2">
-        <v>43140</v>
+        <v>42723</v>
       </c>
       <c r="G185" t="s">
         <v>527</v>
       </c>
       <c r="H185" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="I185" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J185" s="2">
-        <v>43893</v>
+        <v>43587</v>
       </c>
       <c r="K185">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="L185" s="2">
         <v>43957</v>
       </c>
       <c r="M185">
-        <v>6.25</v>
+        <v>87.5</v>
       </c>
       <c r="N185">
-        <v>112.5</v>
+        <v>108</v>
       </c>
       <c r="O185">
         <v>0</v>
       </c>
       <c r="P185">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q185">
-        <v>118.75</v>
-      </c>
-      <c r="AE185" t="b">
+        <v>235.5</v>
+      </c>
+      <c r="Y185" t="b">
         <v>1</v>
       </c>
       <c r="AI185" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AJ185" s="2">
         <v>43957</v>
@@ -13931,72 +13931,75 @@
     </row>
     <row r="186" spans="1:36">
       <c r="A186" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D186" t="s">
         <v>292</v>
       </c>
       <c r="E186" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F186" s="2">
         <v>42723</v>
       </c>
       <c r="G186" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H186" t="s">
         <v>639</v>
       </c>
       <c r="I186" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J186" s="2">
-        <v>43587</v>
+        <v>43985</v>
       </c>
       <c r="K186">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="L186" s="2">
-        <v>43957</v>
+        <v>44077</v>
       </c>
       <c r="M186">
-        <v>87.5</v>
+        <v>113.5</v>
       </c>
       <c r="N186">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O186">
         <v>0</v>
       </c>
       <c r="P186">
-        <v>40</v>
+        <v>24.5</v>
       </c>
       <c r="Q186">
-        <v>235.5</v>
+        <v>138</v>
       </c>
       <c r="Y186" t="b">
         <v>1</v>
       </c>
+      <c r="AA186" t="b">
+        <v>1</v>
+      </c>
       <c r="AI186" s="2">
-        <v>43831</v>
+        <v>43985</v>
       </c>
       <c r="AJ186" s="2">
-        <v>43957</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="187" spans="1:36">
       <c r="A187" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C187" t="s">
         <v>270</v>
@@ -14005,7 +14008,7 @@
         <v>292</v>
       </c>
       <c r="E187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F187" s="2">
         <v>42723</v>
@@ -14017,113 +14020,113 @@
         <v>639</v>
       </c>
       <c r="I187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J187" s="2">
-        <v>43985</v>
+        <v>43587</v>
       </c>
       <c r="K187">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="L187" s="2">
-        <v>44077</v>
+        <v>43957</v>
       </c>
       <c r="M187">
-        <v>113.5</v>
+        <v>87.5</v>
       </c>
       <c r="N187">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="O187">
         <v>0</v>
       </c>
       <c r="P187">
-        <v>24.5</v>
+        <v>40</v>
       </c>
       <c r="Q187">
-        <v>138</v>
+        <v>235.5</v>
       </c>
       <c r="Y187" t="b">
         <v>1</v>
       </c>
-      <c r="AA187" t="b">
-        <v>1</v>
-      </c>
       <c r="AI187" s="2">
-        <v>43985</v>
+        <v>43831</v>
       </c>
       <c r="AJ187" s="2">
-        <v>44077</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="188" spans="1:36">
       <c r="A188" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D188" t="s">
         <v>292</v>
       </c>
       <c r="E188" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F188" s="2">
         <v>42723</v>
       </c>
       <c r="G188" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H188" t="s">
         <v>639</v>
       </c>
       <c r="I188" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J188" s="2">
-        <v>43587</v>
+        <v>43985</v>
       </c>
       <c r="K188">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="L188" s="2">
-        <v>43957</v>
+        <v>44077</v>
       </c>
       <c r="M188">
-        <v>87.5</v>
+        <v>113.5</v>
       </c>
       <c r="N188">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="O188">
         <v>0</v>
       </c>
       <c r="P188">
-        <v>40</v>
+        <v>24.5</v>
       </c>
       <c r="Q188">
-        <v>235.5</v>
+        <v>138</v>
       </c>
       <c r="Y188" t="b">
         <v>1</v>
       </c>
+      <c r="AA188" t="b">
+        <v>1</v>
+      </c>
       <c r="AI188" s="2">
-        <v>43831</v>
+        <v>43985</v>
       </c>
       <c r="AJ188" s="2">
-        <v>43957</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="189" spans="1:36">
       <c r="A189" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C189" t="s">
         <v>271</v>
@@ -14132,10 +14135,10 @@
         <v>292</v>
       </c>
       <c r="E189" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F189" s="2">
-        <v>42723</v>
+        <v>42703</v>
       </c>
       <c r="G189" t="s">
         <v>529</v>
@@ -14144,51 +14147,48 @@
         <v>639</v>
       </c>
       <c r="I189" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J189" s="2">
-        <v>43985</v>
+        <v>42954</v>
       </c>
       <c r="K189">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="L189" s="2">
-        <v>44077</v>
+        <v>44041</v>
       </c>
       <c r="M189">
-        <v>113.5</v>
+        <v>301.5</v>
       </c>
       <c r="N189">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="O189">
         <v>0</v>
       </c>
       <c r="P189">
-        <v>24.5</v>
+        <v>160</v>
       </c>
       <c r="Q189">
-        <v>138</v>
+        <v>665.5</v>
       </c>
       <c r="Y189" t="b">
         <v>1</v>
       </c>
-      <c r="AA189" t="b">
-        <v>1</v>
-      </c>
       <c r="AI189" s="2">
-        <v>43985</v>
+        <v>43831</v>
       </c>
       <c r="AJ189" s="2">
-        <v>44077</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="190" spans="1:36">
       <c r="A190" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C190" t="s">
         <v>272</v>
@@ -14197,57 +14197,57 @@
         <v>292</v>
       </c>
       <c r="E190" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F190" s="2">
-        <v>42703</v>
+        <v>42778</v>
       </c>
       <c r="G190" t="s">
         <v>530</v>
       </c>
       <c r="H190" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I190" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="J190" s="2">
-        <v>42954</v>
+        <v>43872</v>
       </c>
       <c r="K190">
+        <v>217</v>
+      </c>
+      <c r="L190" s="2">
+        <v>44089</v>
+      </c>
+      <c r="M190">
+        <v>350.5</v>
+      </c>
+      <c r="N190">
         <v>210</v>
       </c>
-      <c r="L190" s="2">
-        <v>44041</v>
-      </c>
-      <c r="M190">
-        <v>301.5</v>
-      </c>
-      <c r="N190">
-        <v>204</v>
-      </c>
       <c r="O190">
         <v>0</v>
       </c>
       <c r="P190">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q190">
-        <v>665.5</v>
+        <v>560.5</v>
       </c>
       <c r="Y190" t="b">
         <v>1</v>
       </c>
       <c r="AI190" s="2">
-        <v>43831</v>
+        <v>43872</v>
       </c>
       <c r="AJ190" s="2">
-        <v>44041</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="191" spans="1:36">
       <c r="A191" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
         <v>94</v>
@@ -14262,31 +14262,31 @@
         <v>352</v>
       </c>
       <c r="F191" s="2">
-        <v>42778</v>
+        <v>43140</v>
       </c>
       <c r="G191" t="s">
         <v>531</v>
       </c>
       <c r="H191" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="I191" t="s">
         <v>318</v>
       </c>
       <c r="J191" s="2">
-        <v>43872</v>
+        <v>43893</v>
       </c>
       <c r="K191">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="L191" s="2">
-        <v>44089</v>
+        <v>43957</v>
       </c>
       <c r="M191">
-        <v>350.5</v>
+        <v>6.25</v>
       </c>
       <c r="N191">
-        <v>210</v>
+        <v>112.5</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -14295,16 +14295,16 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>560.5</v>
-      </c>
-      <c r="Y191" t="b">
+        <v>118.75</v>
+      </c>
+      <c r="AE191" t="b">
         <v>1</v>
       </c>
       <c r="AI191" s="2">
-        <v>43872</v>
+        <v>43893</v>
       </c>
       <c r="AJ191" s="2">
-        <v>44089</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="192" spans="1:36">
@@ -14631,7 +14631,7 @@
     </row>
     <row r="197" spans="1:36">
       <c r="A197" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B197" t="s">
         <v>96</v>
@@ -14646,7 +14646,7 @@
         <v>354</v>
       </c>
       <c r="F197" s="2">
-        <v>43117</v>
+        <v>42638</v>
       </c>
       <c r="G197" t="s">
         <v>537</v>
@@ -14655,31 +14655,34 @@
         <v>643</v>
       </c>
       <c r="I197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J197" s="2">
-        <v>43483</v>
+        <v>43336</v>
       </c>
       <c r="K197">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L197" s="2">
-        <v>43945</v>
+        <v>43937</v>
       </c>
       <c r="M197">
-        <v>134.25</v>
+        <v>127.5</v>
       </c>
       <c r="N197">
-        <v>129.5</v>
+        <v>109.5</v>
       </c>
       <c r="O197">
         <v>0</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="Q197">
-        <v>263.75</v>
+        <v>329.25</v>
+      </c>
+      <c r="Y197" t="b">
+        <v>1</v>
       </c>
       <c r="AC197" t="b">
         <v>1</v>
@@ -14688,204 +14691,201 @@
         <v>43831</v>
       </c>
       <c r="AJ197" s="2">
-        <v>43945</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C198" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D198" t="s">
         <v>292</v>
       </c>
       <c r="E198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F198" s="2">
-        <v>42943</v>
+        <v>42638</v>
       </c>
       <c r="G198" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H198" t="s">
         <v>643</v>
       </c>
       <c r="I198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J198" s="2">
-        <v>43587</v>
+        <v>44025</v>
       </c>
       <c r="K198">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="L198" s="2">
-        <v>44091</v>
+        <v>44084</v>
       </c>
       <c r="M198">
-        <v>425.75</v>
+        <v>128.25</v>
       </c>
       <c r="N198">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="O198">
         <v>0</v>
       </c>
       <c r="P198">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="Q198">
-        <v>529.75</v>
-      </c>
-      <c r="Z198" t="b">
+        <v>128.25</v>
+      </c>
+      <c r="Y198" t="b">
         <v>1</v>
       </c>
       <c r="AI198" s="2">
-        <v>43831</v>
+        <v>44025</v>
       </c>
       <c r="AJ198" s="2">
-        <v>44091</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="199" spans="1:36">
       <c r="A199" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D199" t="s">
         <v>292</v>
       </c>
       <c r="E199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F199" s="2">
-        <v>43238</v>
+        <v>42753</v>
       </c>
       <c r="G199" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H199" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="I199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J199" s="2">
-        <v>43594</v>
+        <v>43227</v>
       </c>
       <c r="K199">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="L199" s="2">
-        <v>43957</v>
+        <v>44071</v>
       </c>
       <c r="M199">
-        <v>169.25</v>
+        <v>392</v>
       </c>
       <c r="N199">
-        <v>229.5</v>
+        <v>104</v>
       </c>
       <c r="O199">
         <v>0</v>
       </c>
       <c r="P199">
-        <v>280.5</v>
+        <v>16.5</v>
       </c>
       <c r="Q199">
-        <v>679.25</v>
-      </c>
-      <c r="AG199" t="b">
+        <v>512.5</v>
+      </c>
+      <c r="Y199" t="b">
         <v>1</v>
       </c>
       <c r="AI199" s="2">
         <v>43831</v>
       </c>
       <c r="AJ199" s="2">
-        <v>43957</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C200" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D200" t="s">
         <v>292</v>
       </c>
       <c r="E200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F200" s="2">
-        <v>42638</v>
+        <v>42943</v>
       </c>
       <c r="G200" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H200" t="s">
         <v>644</v>
       </c>
       <c r="I200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J200" s="2">
-        <v>43336</v>
+        <v>43587</v>
       </c>
       <c r="K200">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="L200" s="2">
-        <v>43937</v>
+        <v>44091</v>
       </c>
       <c r="M200">
-        <v>127.5</v>
+        <v>425.75</v>
       </c>
       <c r="N200">
-        <v>109.5</v>
+        <v>122.5</v>
       </c>
       <c r="O200">
         <v>0</v>
       </c>
       <c r="P200">
-        <v>92.25</v>
+        <v>-18.5</v>
       </c>
       <c r="Q200">
-        <v>329.25</v>
-      </c>
-      <c r="Y200" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC200" t="b">
+        <v>529.75</v>
+      </c>
+      <c r="Z200" t="b">
         <v>1</v>
       </c>
       <c r="AI200" s="2">
         <v>43831</v>
       </c>
       <c r="AJ200" s="2">
-        <v>43937</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="201" spans="1:36">
       <c r="A201" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C201" t="s">
         <v>282</v>
@@ -14894,10 +14894,10 @@
         <v>292</v>
       </c>
       <c r="E201" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F201" s="2">
-        <v>42638</v>
+        <v>43238</v>
       </c>
       <c r="G201" t="s">
         <v>540</v>
@@ -14906,45 +14906,45 @@
         <v>644</v>
       </c>
       <c r="I201" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J201" s="2">
-        <v>44025</v>
+        <v>43594</v>
       </c>
       <c r="K201">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="L201" s="2">
-        <v>44084</v>
+        <v>43957</v>
       </c>
       <c r="M201">
-        <v>128.25</v>
+        <v>169.25</v>
       </c>
       <c r="N201">
-        <v>0</v>
+        <v>229.5</v>
       </c>
       <c r="O201">
         <v>0</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="Q201">
-        <v>128.25</v>
-      </c>
-      <c r="Y201" t="b">
+        <v>679.25</v>
+      </c>
+      <c r="AG201" t="b">
         <v>1</v>
       </c>
       <c r="AI201" s="2">
-        <v>44025</v>
+        <v>43831</v>
       </c>
       <c r="AJ201" s="2">
-        <v>44084</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="202" spans="1:36">
       <c r="A202" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
         <v>98</v>
@@ -14959,49 +14959,49 @@
         <v>356</v>
       </c>
       <c r="F202" s="2">
-        <v>42753</v>
+        <v>43117</v>
       </c>
       <c r="G202" t="s">
         <v>541</v>
       </c>
       <c r="H202" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="I202" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J202" s="2">
-        <v>43227</v>
+        <v>43483</v>
       </c>
       <c r="K202">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="L202" s="2">
-        <v>44071</v>
+        <v>43945</v>
       </c>
       <c r="M202">
-        <v>392</v>
+        <v>134.25</v>
       </c>
       <c r="N202">
-        <v>104</v>
+        <v>129.5</v>
       </c>
       <c r="O202">
         <v>0</v>
       </c>
       <c r="P202">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Q202">
-        <v>512.5</v>
-      </c>
-      <c r="Y202" t="b">
+        <v>263.75</v>
+      </c>
+      <c r="AC202" t="b">
         <v>1</v>
       </c>
       <c r="AI202" s="2">
         <v>43831</v>
       </c>
       <c r="AJ202" s="2">
-        <v>44071</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="203" spans="1:36">
@@ -15027,10 +15027,10 @@
         <v>542</v>
       </c>
       <c r="H203" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I203" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J203" s="2">
         <v>43809</v>
@@ -15145,57 +15145,57 @@
         <v>358</v>
       </c>
       <c r="F205" s="2">
-        <v>42899</v>
+        <v>42762</v>
       </c>
       <c r="G205" t="s">
         <v>544</v>
       </c>
       <c r="H205" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="I205" t="s">
         <v>358</v>
       </c>
       <c r="J205" s="2">
-        <v>43710</v>
+        <v>43409</v>
       </c>
       <c r="K205">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="L205" s="2">
-        <v>43950</v>
+        <v>44091</v>
       </c>
       <c r="M205">
-        <v>96.75</v>
+        <v>308.25</v>
       </c>
       <c r="N205">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O205">
         <v>0</v>
       </c>
       <c r="P205">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q205">
-        <v>188.75</v>
-      </c>
-      <c r="AC205" t="b">
+        <v>481.25</v>
+      </c>
+      <c r="Y205" t="b">
         <v>1</v>
       </c>
       <c r="AI205" s="2">
         <v>43831</v>
       </c>
       <c r="AJ205" s="2">
-        <v>43950</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="206" spans="1:36">
       <c r="A206" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C206" t="s">
         <v>287</v>
@@ -15204,10 +15204,10 @@
         <v>292</v>
       </c>
       <c r="E206" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F206" s="2">
-        <v>42762</v>
+        <v>42779</v>
       </c>
       <c r="G206" t="s">
         <v>545</v>
@@ -15216,31 +15216,31 @@
         <v>645</v>
       </c>
       <c r="I206" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J206" s="2">
-        <v>43409</v>
+        <v>43277</v>
       </c>
       <c r="K206">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L206" s="2">
-        <v>44091</v>
+        <v>44088</v>
       </c>
       <c r="M206">
-        <v>308.25</v>
+        <v>989.75</v>
       </c>
       <c r="N206">
-        <v>117</v>
+        <v>280.5</v>
       </c>
       <c r="O206">
         <v>0</v>
       </c>
       <c r="P206">
-        <v>56</v>
+        <v>-77</v>
       </c>
       <c r="Q206">
-        <v>481.25</v>
+        <v>1193.25</v>
       </c>
       <c r="Y206" t="b">
         <v>1</v>
@@ -15249,15 +15249,15 @@
         <v>43831</v>
       </c>
       <c r="AJ206" s="2">
-        <v>44091</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="207" spans="1:36">
       <c r="A207" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C207" t="s">
         <v>288</v>
@@ -15266,10 +15266,10 @@
         <v>292</v>
       </c>
       <c r="E207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F207" s="2">
-        <v>42779</v>
+        <v>42766</v>
       </c>
       <c r="G207" t="s">
         <v>546</v>
@@ -15278,48 +15278,51 @@
         <v>645</v>
       </c>
       <c r="I207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J207" s="2">
-        <v>43277</v>
+        <v>43451</v>
       </c>
       <c r="K207">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="L207" s="2">
-        <v>44088</v>
+        <v>43931</v>
       </c>
       <c r="M207">
-        <v>989.75</v>
+        <v>129</v>
       </c>
       <c r="N207">
-        <v>280.5</v>
+        <v>77</v>
       </c>
       <c r="O207">
         <v>0</v>
       </c>
       <c r="P207">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="Q207">
-        <v>1193.25</v>
+        <v>206</v>
       </c>
       <c r="Y207" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC207" t="b">
         <v>1</v>
       </c>
       <c r="AI207" s="2">
         <v>43831</v>
       </c>
       <c r="AJ207" s="2">
-        <v>44088</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="208" spans="1:36">
       <c r="A208" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B208" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C208" t="s">
         <v>289</v>
@@ -15328,10 +15331,10 @@
         <v>292</v>
       </c>
       <c r="E208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F208" s="2">
-        <v>42766</v>
+        <v>43328</v>
       </c>
       <c r="G208" t="s">
         <v>547</v>
@@ -15340,22 +15343,22 @@
         <v>645</v>
       </c>
       <c r="I208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J208" s="2">
-        <v>43451</v>
+        <v>44131</v>
       </c>
       <c r="K208">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L208" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
       <c r="M208">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="N208">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -15364,24 +15367,21 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>206</v>
-      </c>
-      <c r="Y208" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC208" t="b">
+        <v>84</v>
+      </c>
+      <c r="AF208" t="b">
         <v>1</v>
       </c>
       <c r="AI208" s="2">
-        <v>43831</v>
+        <v>44131</v>
       </c>
       <c r="AJ208" s="2">
-        <v>43931</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="209" spans="1:36">
       <c r="A209" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B209" t="s">
         <v>101</v>
@@ -15396,31 +15396,31 @@
         <v>359</v>
       </c>
       <c r="F209" s="2">
-        <v>43328</v>
+        <v>42899</v>
       </c>
       <c r="G209" t="s">
         <v>548</v>
       </c>
       <c r="H209" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="I209" t="s">
         <v>359</v>
       </c>
       <c r="J209" s="2">
-        <v>44131</v>
+        <v>43710</v>
       </c>
       <c r="K209">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="L209" s="2">
-        <v>44196</v>
+        <v>43950</v>
       </c>
       <c r="M209">
-        <v>72</v>
+        <v>96.75</v>
       </c>
       <c r="N209">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -15429,16 +15429,16 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>84</v>
-      </c>
-      <c r="AF209" t="b">
+        <v>188.75</v>
+      </c>
+      <c r="AC209" t="b">
         <v>1</v>
       </c>
       <c r="AI209" s="2">
-        <v>44131</v>
+        <v>43831</v>
       </c>
       <c r="AJ209" s="2">
-        <v>44196</v>
+        <v>43950</v>
       </c>
     </row>
   </sheetData>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="149">
   <si>
     <t>filename</t>
   </si>
@@ -138,24 +138,6 @@
     <t>fineNorm</t>
   </si>
   <si>
-    <t>Fehler Gesamtsstundenzahl-über meherere excel1.xlsx</t>
-  </si>
-  <si>
-    <t>Fehler Gesamtsstundenzahl-über meherere excel2.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung_Gemeinde_Eppan a.d. Weinstr._2020.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung_Gemeinde_Freienfeld_2020.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung_Gemeinde_Lana_2020.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung_Gemeinde_Villanders_2020.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Brixen.xlsx</t>
   </si>
   <si>
@@ -195,39 +177,15 @@
     <t>Erklärung Gemeinden Jahr 2020 Terlan.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Ulten.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Tramin.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Ulten.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Villnöss.xlsx</t>
   </si>
   <si>
-    <t>AZZALI LIAM</t>
-  </si>
-  <si>
-    <t>GASHI AMRA</t>
-  </si>
-  <si>
-    <t>LUPERTO SCHMID VITTORIA</t>
-  </si>
-  <si>
-    <t>TRINCO ANITA</t>
-  </si>
-  <si>
-    <t>GRIESSMAIR SIMON</t>
-  </si>
-  <si>
-    <t>TRATTER PIA</t>
-  </si>
-  <si>
-    <t>REITER LUCA</t>
-  </si>
-  <si>
-    <t>GLAESERER KILIAN</t>
-  </si>
-  <si>
     <t>Ostermayer  Alois</t>
   </si>
   <si>
@@ -291,6 +249,9 @@
     <t>Thaler Elias</t>
   </si>
   <si>
+    <t>Gamper Martha</t>
+  </si>
+  <si>
     <t>Tomoiaga Ema Miriam</t>
   </si>
   <si>
@@ -300,36 +261,12 @@
     <t>Zelger Samuel</t>
   </si>
   <si>
-    <t>Gamper Martha</t>
-  </si>
-  <si>
     <t>Obexer Elias</t>
   </si>
   <si>
-    <t>Soc. Coop. Casa Bimbo Tagesmutter Onlus</t>
-  </si>
-  <si>
-    <t>Sozialgenossenschaft Tagesmütter - Gen.</t>
-  </si>
-  <si>
     <t>Sozialgenossenschaft Mit Bäuerinnen Lernen-Wachsen-Leben</t>
   </si>
   <si>
-    <t>Bolzano</t>
-  </si>
-  <si>
-    <t>Eppan a.d. Weinstr.</t>
-  </si>
-  <si>
-    <t>Freienfeld</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Villanders</t>
-  </si>
-  <si>
     <t>Brixen</t>
   </si>
   <si>
@@ -369,39 +306,15 @@
     <t>Terlan</t>
   </si>
   <si>
+    <t>Ulten</t>
+  </si>
+  <si>
     <t>Tramin</t>
   </si>
   <si>
-    <t>Ulten</t>
-  </si>
-  <si>
     <t>Villnöss</t>
   </si>
   <si>
-    <t>ZZLLMI18C28A952J</t>
-  </si>
-  <si>
-    <t>GSHMRA18E44A952B</t>
-  </si>
-  <si>
-    <t>LPRVTR18P50F132F</t>
-  </si>
-  <si>
-    <t>TRNNTA20E70A952B</t>
-  </si>
-  <si>
-    <t>GRSSMN17H30F132E</t>
-  </si>
-  <si>
-    <t>TRTPIA17H43B160S</t>
-  </si>
-  <si>
-    <t>RTRLCU17E18F132Q</t>
-  </si>
-  <si>
-    <t>GLSKLN17H09B160O</t>
-  </si>
-  <si>
     <t>STRLSA17L15Z112O</t>
   </si>
   <si>
@@ -465,6 +378,9 @@
     <t>THLLSE19M01F132O</t>
   </si>
   <si>
+    <t>GMPMTH19D47F132J</t>
+  </si>
+  <si>
     <t>TMGMRM19B41A952N</t>
   </si>
   <si>
@@ -474,30 +390,9 @@
     <t>ZLGSML18E08F132P</t>
   </si>
   <si>
-    <t>GMPMTH19D47F132J</t>
-  </si>
-  <si>
     <t>BXRLSE18E18B160Z</t>
   </si>
   <si>
-    <t>CARUSO MARIA</t>
-  </si>
-  <si>
-    <t>KOTI ALMA</t>
-  </si>
-  <si>
-    <t>CAPPELLO MARGARETH</t>
-  </si>
-  <si>
-    <t>FÜRLER VERONIKA</t>
-  </si>
-  <si>
-    <t>MITTERHOFER MARTINA</t>
-  </si>
-  <si>
-    <t>PALLHUBER KARIN</t>
-  </si>
-  <si>
     <t>Gasser Sophie</t>
   </si>
   <si>
@@ -540,31 +435,16 @@
     <t>Werth Petra</t>
   </si>
   <si>
+    <t xml:space="preserve">Zöschg Rita </t>
+  </si>
+  <si>
     <t>Ambach Maria</t>
   </si>
   <si>
     <t>Huber Melanie</t>
   </si>
   <si>
-    <t xml:space="preserve">Zöschg Rita </t>
-  </si>
-  <si>
     <t>Aukenthaler Roswitha</t>
-  </si>
-  <si>
-    <t>BOLZANO</t>
-  </si>
-  <si>
-    <t>Eppan a.d. Weinstr./Appiano s.s.d.v.</t>
-  </si>
-  <si>
-    <t>Freienfeld/Campo di Trens</t>
-  </si>
-  <si>
-    <t>Lana/Lana</t>
-  </si>
-  <si>
-    <t>Klausen/Chiusa</t>
   </si>
   <si>
     <t>Natz Schabs</t>
@@ -950,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,55 +954,55 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42931</v>
+      </c>
+      <c r="G2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="2">
-        <v>43187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="J2" s="2">
-        <v>43514</v>
+        <v>43313</v>
       </c>
       <c r="K2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>43951</v>
+        <v>43832</v>
       </c>
       <c r="M2">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>398.75</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1181.75</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1131,51 +1011,51 @@
         <v>43831</v>
       </c>
       <c r="AM2" s="2">
-        <v>43951</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2">
-        <v>43224</v>
+        <v>43671</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2">
-        <v>43710</v>
+        <v>44116</v>
       </c>
       <c r="K3">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>43982</v>
+        <v>44118</v>
       </c>
       <c r="M3">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="N3">
-        <v>247.5</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1184,140 +1064,140 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="b">
         <v>1</v>
       </c>
       <c r="AL3" s="2">
-        <v>43831</v>
+        <v>44116</v>
       </c>
       <c r="AM3" s="2">
-        <v>43982</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2">
-        <v>43353</v>
+        <v>42905</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="J4" s="2">
-        <v>44109</v>
+        <v>43166</v>
       </c>
       <c r="K4">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="L4" s="2">
-        <v>44155</v>
+        <v>43957</v>
       </c>
       <c r="M4">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="N4">
-        <v>48</v>
+        <v>262.5</v>
       </c>
       <c r="O4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="Q4">
-        <v>256</v>
+        <v>808.5</v>
       </c>
       <c r="AG4" t="b">
         <v>1</v>
       </c>
       <c r="AL4" s="2">
-        <v>44109</v>
+        <v>43831</v>
       </c>
       <c r="AM4" s="2">
-        <v>44155</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2">
-        <v>43981</v>
+        <v>43278</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="J5" s="2">
-        <v>44193</v>
+        <v>43711</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="L5" s="2">
-        <v>45169</v>
+        <v>43957</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>783</v>
       </c>
       <c r="AG5" t="b">
         <v>1</v>
       </c>
       <c r="AL5" s="2">
-        <v>44193</v>
+        <v>43831</v>
       </c>
       <c r="AM5" s="2">
-        <v>44196</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1325,105 +1205,105 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2">
-        <v>43187</v>
+        <v>43018</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="J6" s="2">
-        <v>43514</v>
+        <v>43848</v>
       </c>
       <c r="K6">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="L6" s="2">
-        <v>43951</v>
+        <v>44100</v>
       </c>
       <c r="M6">
-        <v>319</v>
+        <v>886</v>
       </c>
       <c r="N6">
-        <v>398.75</v>
+        <v>414</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>464</v>
+        <v>50</v>
       </c>
       <c r="Q6">
-        <v>1181.75</v>
+        <v>1350</v>
       </c>
       <c r="AG6" t="b">
         <v>1</v>
       </c>
       <c r="AL6" s="2">
-        <v>43831</v>
+        <v>43848</v>
       </c>
       <c r="AM6" s="2">
-        <v>43951</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2">
-        <v>43224</v>
+        <v>43408</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="J7" s="2">
-        <v>43710</v>
+        <v>43852</v>
       </c>
       <c r="K7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>43982</v>
+        <v>43853</v>
       </c>
       <c r="M7">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>145.5</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1432,119 +1312,119 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="b">
         <v>1</v>
       </c>
       <c r="AL7" s="2">
-        <v>43831</v>
+        <v>43852</v>
       </c>
       <c r="AM7" s="2">
-        <v>43982</v>
+        <v>43853</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2">
-        <v>43353</v>
+        <v>43408</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="J8" s="2">
-        <v>44109</v>
+        <v>44070</v>
       </c>
       <c r="K8">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>44155</v>
+        <v>44070</v>
       </c>
       <c r="M8">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="b">
         <v>1</v>
       </c>
       <c r="AL8" s="2">
-        <v>44109</v>
+        <v>44070</v>
       </c>
       <c r="AM8" s="2">
-        <v>44155</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2">
-        <v>43981</v>
+        <v>43408</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="J9" s="2">
-        <v>44193</v>
+        <v>44078</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>45169</v>
+        <v>44078</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1556,255 +1436,255 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>6.5</v>
       </c>
       <c r="AG9" t="b">
         <v>1</v>
       </c>
       <c r="AL9" s="2">
-        <v>44193</v>
+        <v>44078</v>
       </c>
       <c r="AM9" s="2">
-        <v>44196</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F10" s="2">
-        <v>42916</v>
+        <v>43471</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2">
-        <v>43139</v>
+        <v>44088</v>
       </c>
       <c r="K10">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="L10" s="2">
-        <v>43977</v>
+        <v>44092</v>
       </c>
       <c r="M10">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="N10">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1016</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="b">
         <v>1</v>
       </c>
       <c r="AL10" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AM10" s="2">
-        <v>43977</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F11" s="2">
-        <v>42889</v>
+        <v>43240</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2">
-        <v>43129</v>
+        <v>43874</v>
       </c>
       <c r="K11">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>44074</v>
+        <v>43875</v>
       </c>
       <c r="M11">
-        <v>819</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1289</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="b">
         <v>1</v>
       </c>
       <c r="AL11" s="2">
-        <v>43831</v>
+        <v>43874</v>
       </c>
       <c r="AM11" s="2">
-        <v>44074</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="1">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
-        <v>42873</v>
+        <v>43126</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2">
-        <v>43185</v>
+        <v>44074</v>
       </c>
       <c r="K12">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>44004</v>
+        <v>44076</v>
       </c>
       <c r="M12">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="N12">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>984</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="b">
         <v>1</v>
       </c>
       <c r="AL12" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AM12" s="2">
-        <v>44004</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2">
-        <v>42895</v>
+        <v>43215</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2">
-        <v>43717</v>
+        <v>43479</v>
       </c>
       <c r="K13">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L13" s="2">
-        <v>43966</v>
+        <v>43957</v>
       </c>
       <c r="M13">
-        <v>216</v>
+        <v>139.5</v>
       </c>
       <c r="N13">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="Q13">
-        <v>885</v>
+        <v>904.5</v>
       </c>
       <c r="AG13" t="b">
         <v>1</v>
@@ -1813,48 +1693,48 @@
         <v>43831</v>
       </c>
       <c r="AM13" s="2">
-        <v>43966</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2">
-        <v>42931</v>
+        <v>42699</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2">
-        <v>43313</v>
+        <v>44074</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>43832</v>
+        <v>44078</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1866,305 +1746,305 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="b">
         <v>1</v>
       </c>
       <c r="AL14" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AM14" s="2">
-        <v>43832</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2">
-        <v>43671</v>
+        <v>43039</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J15" s="2">
-        <v>44116</v>
+        <v>43500</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="L15" s="2">
-        <v>44118</v>
+        <v>43957</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>249.5</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>858.5</v>
       </c>
       <c r="AG15" t="b">
         <v>1</v>
       </c>
       <c r="AL15" s="2">
-        <v>44116</v>
+        <v>43831</v>
       </c>
       <c r="AM15" s="2">
-        <v>44118</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
-        <v>42905</v>
+        <v>43167</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="J16" s="2">
-        <v>43166</v>
+        <v>44187</v>
       </c>
       <c r="K16">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>43957</v>
+        <v>44187</v>
       </c>
       <c r="M16">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>262.5</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>808.5</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="b">
         <v>1</v>
       </c>
       <c r="AL16" s="2">
-        <v>43831</v>
+        <v>44187</v>
       </c>
       <c r="AM16" s="2">
-        <v>43957</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2">
-        <v>43278</v>
+        <v>43224</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="J17" s="2">
-        <v>43711</v>
+        <v>44088</v>
       </c>
       <c r="K17">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2">
-        <v>43957</v>
+        <v>44092</v>
       </c>
       <c r="M17">
-        <v>123</v>
+        <v>23.5</v>
       </c>
       <c r="N17">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>783</v>
+        <v>23.5</v>
       </c>
       <c r="AG17" t="b">
         <v>1</v>
       </c>
       <c r="AL17" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AM17" s="2">
-        <v>43957</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2">
-        <v>43018</v>
+        <v>42907</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="J18" s="2">
-        <v>43848</v>
+        <v>43872</v>
       </c>
       <c r="K18">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>44100</v>
+        <v>43873</v>
       </c>
       <c r="M18">
-        <v>886</v>
+        <v>5.75</v>
       </c>
       <c r="N18">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1350</v>
+        <v>5.75</v>
       </c>
       <c r="AG18" t="b">
         <v>1</v>
       </c>
       <c r="AL18" s="2">
-        <v>43848</v>
+        <v>43872</v>
       </c>
       <c r="AM18" s="2">
-        <v>44100</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2">
-        <v>43408</v>
+        <v>43162</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="J19" s="2">
-        <v>43852</v>
+        <v>44095</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>43853</v>
+        <v>44096</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2176,57 +2056,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="b">
         <v>1</v>
       </c>
       <c r="AL19" s="2">
-        <v>43852</v>
+        <v>44095</v>
       </c>
       <c r="AM19" s="2">
-        <v>43853</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2">
-        <v>43408</v>
+        <v>43162</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="J20" s="2">
-        <v>44070</v>
+        <v>44159</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>44070</v>
+        <v>44162</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>22.5</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2238,57 +2118,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>22.5</v>
       </c>
       <c r="AG20" t="b">
         <v>1</v>
       </c>
       <c r="AL20" s="2">
-        <v>44070</v>
+        <v>44159</v>
       </c>
       <c r="AM20" s="2">
-        <v>44070</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2">
-        <v>43408</v>
+        <v>43200</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="J21" s="2">
-        <v>44078</v>
+        <v>44095</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>44078</v>
+        <v>44096</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2300,57 +2180,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="b">
         <v>1</v>
       </c>
       <c r="AL21" s="2">
-        <v>44078</v>
+        <v>44095</v>
       </c>
       <c r="AM21" s="2">
-        <v>44078</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2">
-        <v>43471</v>
+        <v>43450</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="J22" s="2">
-        <v>44088</v>
+        <v>44172</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>44092</v>
+        <v>44172</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>7.75</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2362,199 +2242,199 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>7.75</v>
       </c>
       <c r="AG22" t="b">
         <v>1</v>
       </c>
       <c r="AL22" s="2">
-        <v>44088</v>
+        <v>44172</v>
       </c>
       <c r="AM22" s="2">
-        <v>44092</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2">
-        <v>43240</v>
+        <v>43374</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="J23" s="2">
-        <v>43874</v>
+        <v>43683</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="L23" s="2">
-        <v>43875</v>
+        <v>43957</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>175.75</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>204.25</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>665</v>
       </c>
       <c r="AG23" t="b">
         <v>1</v>
       </c>
       <c r="AL23" s="2">
-        <v>43874</v>
+        <v>43831</v>
       </c>
       <c r="AM23" s="2">
-        <v>43875</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F24" s="2">
-        <v>43126</v>
+        <v>43405</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J24" s="2">
-        <v>44074</v>
+        <v>43710</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="L24" s="2">
-        <v>44076</v>
+        <v>44196</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>1454.5</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>465.5</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>2107</v>
       </c>
       <c r="AG24" t="b">
         <v>1</v>
       </c>
       <c r="AL24" s="2">
-        <v>44074</v>
+        <v>43831</v>
       </c>
       <c r="AM24" s="2">
-        <v>44076</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2">
-        <v>43215</v>
+        <v>43678</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="J25" s="2">
-        <v>43479</v>
+        <v>43837</v>
       </c>
       <c r="K25">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L25" s="2">
         <v>43957</v>
       </c>
       <c r="M25">
-        <v>139.5</v>
+        <v>248.75</v>
       </c>
       <c r="N25">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>378</v>
+        <v>127</v>
       </c>
       <c r="Q25">
-        <v>904.5</v>
+        <v>685.75</v>
       </c>
       <c r="AG25" t="b">
         <v>1</v>
       </c>
       <c r="AL25" s="2">
-        <v>43831</v>
+        <v>43837</v>
       </c>
       <c r="AM25" s="2">
         <v>43957</v>
@@ -2562,64 +2442,64 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2">
-        <v>42699</v>
+        <v>43562</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J26" s="2">
-        <v>44074</v>
+        <v>43879</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="L26" s="2">
-        <v>44078</v>
+        <v>43956</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>20.5</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>658.5</v>
       </c>
       <c r="AG26" t="b">
         <v>1</v>
       </c>
       <c r="AL26" s="2">
-        <v>44074</v>
+        <v>43879</v>
       </c>
       <c r="AM26" s="2">
-        <v>44078</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -2630,99 +2510,99 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2">
-        <v>43039</v>
+        <v>43497</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2">
-        <v>43500</v>
+        <v>44060</v>
       </c>
       <c r="K27">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="L27" s="2">
-        <v>43957</v>
+        <v>44071</v>
       </c>
       <c r="M27">
-        <v>308</v>
+        <v>71.5</v>
       </c>
       <c r="N27">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>249.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>858.5</v>
+        <v>71.5</v>
       </c>
       <c r="AG27" t="b">
         <v>1</v>
       </c>
       <c r="AL27" s="2">
-        <v>43831</v>
+        <v>44060</v>
       </c>
       <c r="AM27" s="2">
-        <v>43957</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2">
-        <v>43167</v>
+        <v>43497</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="J28" s="2">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="2">
-        <v>44187</v>
+        <v>44162</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>26.5</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2734,181 +2614,181 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>26.5</v>
       </c>
       <c r="AG28" t="b">
         <v>1</v>
       </c>
       <c r="AL28" s="2">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="AM28" s="2">
-        <v>44187</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2">
-        <v>43224</v>
+        <v>43497</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="J29" s="2">
-        <v>44088</v>
+        <v>43832</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="L29" s="2">
-        <v>44092</v>
+        <v>43957</v>
       </c>
       <c r="M29">
-        <v>23.5</v>
+        <v>189.75</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>270.5</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>332.5</v>
       </c>
       <c r="Q29">
-        <v>23.5</v>
+        <v>792.75</v>
       </c>
       <c r="AG29" t="b">
         <v>1</v>
       </c>
       <c r="AL29" s="2">
-        <v>44088</v>
+        <v>43832</v>
       </c>
       <c r="AM29" s="2">
-        <v>44092</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43515</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="2">
-        <v>42907</v>
-      </c>
-      <c r="G30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" t="s">
-        <v>185</v>
-      </c>
       <c r="J30" s="2">
-        <v>43872</v>
+        <v>43794</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="L30" s="2">
-        <v>43873</v>
+        <v>43957</v>
       </c>
       <c r="M30">
-        <v>5.75</v>
+        <v>173.5</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>279.5</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>364.5</v>
       </c>
       <c r="Q30">
-        <v>5.75</v>
+        <v>817.5</v>
       </c>
       <c r="AG30" t="b">
         <v>1</v>
       </c>
       <c r="AL30" s="2">
-        <v>43872</v>
+        <v>43831</v>
       </c>
       <c r="AM30" s="2">
-        <v>43873</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2">
-        <v>43162</v>
+        <v>43228</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J31" s="2">
-        <v>44095</v>
+        <v>44078</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>44096</v>
+        <v>44078</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2920,57 +2800,57 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="b">
         <v>1</v>
       </c>
       <c r="AL31" s="2">
-        <v>44095</v>
+        <v>44078</v>
       </c>
       <c r="AM31" s="2">
-        <v>44096</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2">
-        <v>43162</v>
+        <v>43228</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J32" s="2">
-        <v>44159</v>
+        <v>44064</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>44162</v>
+        <v>44064</v>
       </c>
       <c r="M32">
-        <v>22.5</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2982,57 +2862,57 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22.5</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="b">
         <v>1</v>
       </c>
       <c r="AL32" s="2">
-        <v>44159</v>
+        <v>44064</v>
       </c>
       <c r="AM32" s="2">
-        <v>44162</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="1">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2">
-        <v>43200</v>
+        <v>43228</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="J33" s="2">
-        <v>44095</v>
+        <v>43892</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="2">
-        <v>44096</v>
+        <v>43894</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3044,821 +2924,77 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="b">
         <v>1</v>
       </c>
       <c r="AL33" s="2">
-        <v>44095</v>
+        <v>43892</v>
       </c>
       <c r="AM33" s="2">
-        <v>44096</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
         <v>96</v>
       </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
       <c r="F34" s="2">
-        <v>43450</v>
+        <v>43238</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="J34" s="2">
-        <v>44172</v>
+        <v>43594</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L34" s="2">
-        <v>44172</v>
+        <v>43957</v>
       </c>
       <c r="M34">
-        <v>7.75</v>
+        <v>169.25</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>229.5</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="Q34">
-        <v>7.75</v>
+        <v>679.25</v>
       </c>
       <c r="AG34" t="b">
         <v>1</v>
       </c>
       <c r="AL34" s="2">
-        <v>44172</v>
+        <v>43831</v>
       </c>
       <c r="AM34" s="2">
-        <v>44172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35" s="1">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="2">
-        <v>43374</v>
-      </c>
-      <c r="G35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="2">
-        <v>43683</v>
-      </c>
-      <c r="K35">
-        <v>126</v>
-      </c>
-      <c r="L35" s="2">
-        <v>43957</v>
-      </c>
-      <c r="M35">
-        <v>175.75</v>
-      </c>
-      <c r="N35">
-        <v>204.25</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>285</v>
-      </c>
-      <c r="Q35">
-        <v>665</v>
-      </c>
-      <c r="AG35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL35" s="2">
-        <v>43831</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="1">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="2">
-        <v>43405</v>
-      </c>
-      <c r="G36" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I36" t="s">
-        <v>113</v>
-      </c>
-      <c r="J36" s="2">
-        <v>43710</v>
-      </c>
-      <c r="K36">
-        <v>365</v>
-      </c>
-      <c r="L36" s="2">
-        <v>44196</v>
-      </c>
-      <c r="M36">
-        <v>1454.5</v>
-      </c>
-      <c r="N36">
-        <v>465.5</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>187</v>
-      </c>
-      <c r="Q36">
-        <v>2107</v>
-      </c>
-      <c r="AG36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL36" s="2">
-        <v>43831</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="1">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="2">
-        <v>43678</v>
-      </c>
-      <c r="G37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" s="2">
-        <v>43837</v>
-      </c>
-      <c r="K37">
-        <v>120</v>
-      </c>
-      <c r="L37" s="2">
-        <v>43957</v>
-      </c>
-      <c r="M37">
-        <v>248.75</v>
-      </c>
-      <c r="N37">
-        <v>310</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>127</v>
-      </c>
-      <c r="Q37">
-        <v>685.75</v>
-      </c>
-      <c r="AG37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="2">
-        <v>43837</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="1">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="2">
-        <v>43497</v>
-      </c>
-      <c r="G38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44060</v>
-      </c>
-      <c r="K38">
-        <v>11</v>
-      </c>
-      <c r="L38" s="2">
-        <v>44071</v>
-      </c>
-      <c r="M38">
-        <v>71.5</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>71.5</v>
-      </c>
-      <c r="AG38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>44060</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>44071</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39" s="1">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="2">
-        <v>43497</v>
-      </c>
-      <c r="G39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J39" s="2">
-        <v>44160</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" s="2">
-        <v>44162</v>
-      </c>
-      <c r="M39">
-        <v>26.5</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>26.5</v>
-      </c>
-      <c r="AG39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>44160</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39">
-      <c r="A40" s="1">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="2">
-        <v>43497</v>
-      </c>
-      <c r="G40" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40" t="s">
-        <v>183</v>
-      </c>
-      <c r="J40" s="2">
-        <v>43832</v>
-      </c>
-      <c r="K40">
-        <v>125</v>
-      </c>
-      <c r="L40" s="2">
-        <v>43957</v>
-      </c>
-      <c r="M40">
-        <v>189.75</v>
-      </c>
-      <c r="N40">
-        <v>270.5</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>332.5</v>
-      </c>
-      <c r="Q40">
-        <v>792.75</v>
-      </c>
-      <c r="AG40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="2">
-        <v>43832</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
-      <c r="A41" s="1">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="2">
-        <v>43515</v>
-      </c>
-      <c r="G41" t="s">
-        <v>148</v>
-      </c>
-      <c r="H41" t="s">
-        <v>172</v>
-      </c>
-      <c r="I41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="2">
-        <v>43794</v>
-      </c>
-      <c r="K41">
-        <v>126</v>
-      </c>
-      <c r="L41" s="2">
-        <v>43957</v>
-      </c>
-      <c r="M41">
-        <v>173.5</v>
-      </c>
-      <c r="N41">
-        <v>279.5</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>364.5</v>
-      </c>
-      <c r="Q41">
-        <v>817.5</v>
-      </c>
-      <c r="AG41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL41" s="2">
-        <v>43831</v>
-      </c>
-      <c r="AM41" s="2">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
-      <c r="A42" s="1">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="2">
-        <v>43228</v>
-      </c>
-      <c r="G42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" t="s">
-        <v>103</v>
-      </c>
-      <c r="J42" s="2">
-        <v>44078</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>44078</v>
-      </c>
-      <c r="M42">
-        <v>8</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>8</v>
-      </c>
-      <c r="AG42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="2">
-        <v>44078</v>
-      </c>
-      <c r="AM42" s="2">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
-      <c r="A43" s="1">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="2">
-        <v>43228</v>
-      </c>
-      <c r="G43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" t="s">
-        <v>172</v>
-      </c>
-      <c r="I43" t="s">
-        <v>103</v>
-      </c>
-      <c r="J43" s="2">
-        <v>44064</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>44064</v>
-      </c>
-      <c r="M43">
-        <v>7</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>7</v>
-      </c>
-      <c r="AG43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="2">
-        <v>44064</v>
-      </c>
-      <c r="AM43" s="2">
-        <v>44064</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
-      <c r="A44" s="1">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="2">
-        <v>43228</v>
-      </c>
-      <c r="G44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" t="s">
-        <v>173</v>
-      </c>
-      <c r="I44" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" s="2">
-        <v>43892</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44" s="2">
-        <v>43894</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>15</v>
-      </c>
-      <c r="AG44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="2">
-        <v>43892</v>
-      </c>
-      <c r="AM44" s="2">
-        <v>43894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39">
-      <c r="A45" s="1">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="2">
-        <v>43562</v>
-      </c>
-      <c r="G45" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" t="s">
-        <v>174</v>
-      </c>
-      <c r="I45" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="2">
-        <v>43879</v>
-      </c>
-      <c r="K45">
-        <v>77</v>
-      </c>
-      <c r="L45" s="2">
-        <v>43956</v>
-      </c>
-      <c r="M45">
-        <v>20.5</v>
-      </c>
-      <c r="N45">
-        <v>256</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>382</v>
-      </c>
-      <c r="Q45">
-        <v>658.5</v>
-      </c>
-      <c r="AG45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL45" s="2">
-        <v>43879</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39">
-      <c r="A46" s="1">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="2">
-        <v>43238</v>
-      </c>
-      <c r="G46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" t="s">
-        <v>175</v>
-      </c>
-      <c r="I46" t="s">
-        <v>117</v>
-      </c>
-      <c r="J46" s="2">
-        <v>43594</v>
-      </c>
-      <c r="K46">
-        <v>126</v>
-      </c>
-      <c r="L46" s="2">
-        <v>43957</v>
-      </c>
-      <c r="M46">
-        <v>169.25</v>
-      </c>
-      <c r="N46">
-        <v>229.5</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>280.5</v>
-      </c>
-      <c r="Q46">
-        <v>679.25</v>
-      </c>
-      <c r="AG46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="2">
-        <v>43831</v>
-      </c>
-      <c r="AM46" s="2">
         <v>43957</v>
       </c>
     </row>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -204,24 +204,24 @@
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Schnals.xlsx</t>
   </si>
   <si>
+    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Eppan.xlsx</t>
+  </si>
+  <si>
+    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 St. Martin In Passeier.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Pfitsch.xlsx</t>
   </si>
   <si>
-    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Eppan.xlsx</t>
-  </si>
-  <si>
-    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 St. Martin In Passeier.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Moos In Passeier.xlsx</t>
   </si>
   <si>
+    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Meran.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Völs am Schlern.xlsx</t>
   </si>
   <si>
-    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Meran.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Vintl.xlsx</t>
   </si>
   <si>
@@ -282,12 +282,12 @@
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Ratschings.xlsx</t>
   </si>
   <si>
+    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Hafling.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Tramin.xlsx</t>
   </si>
   <si>
-    <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Hafling.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Bäuerinnen prova new/Erklärung Gemeinden Jahr 2020 Margreid.xlsx</t>
   </si>
   <si>
@@ -381,12 +381,12 @@
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Ritten_2020.xlsx</t>
   </si>
   <si>
+    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Laas_2020.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Montan_2020.xlsx</t>
   </si>
   <si>
-    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Laas_2020.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Schenna_2020.xlsx</t>
   </si>
   <si>
@@ -411,12 +411,12 @@
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Pfalzen_2020.xlsx</t>
   </si>
   <si>
+    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Ratschings_2020.xlsx</t>
   </si>
   <si>
-    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Klausen_2020.xlsx</t>
   </si>
   <si>
@@ -435,12 +435,12 @@
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Sterzing_2020.xlsx</t>
   </si>
   <si>
+    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Prad am Stilfser Joch_2020.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Lana_2020.xlsx</t>
   </si>
   <si>
-    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Prad am Stilfser Joch_2020.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Völs am Schlern_2020.xlsx</t>
   </si>
   <si>
@@ -477,12 +477,12 @@
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Vintl_2020.xlsx</t>
   </si>
   <si>
+    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Niederdorf_2020.xlsx</t>
+  </si>
+  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Nals_2020.xlsx</t>
   </si>
   <si>
-    <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Niederdorf_2020.xlsx</t>
-  </si>
-  <si>
     <t>elenchi Sozialgen. Tagesmütter prova/Erklärung_Gemeinde_Burgstall_2020.xlsx</t>
   </si>
   <si>
@@ -600,90 +600,90 @@
     <t>Woerndle Paul</t>
   </si>
   <si>
+    <t>Cellamare Camilla</t>
+  </si>
+  <si>
+    <t>Fabris Nathan</t>
+  </si>
+  <si>
+    <t>Messner Jakob</t>
+  </si>
+  <si>
+    <t>Pramstrahler Josef</t>
+  </si>
+  <si>
+    <t>Kofler Andreas</t>
+  </si>
+  <si>
     <t>Whitecotton Leopold Harrison</t>
   </si>
   <si>
-    <t>Cellamare Camilla</t>
-  </si>
-  <si>
-    <t>Fabris Nathan</t>
-  </si>
-  <si>
-    <t>Messner Jakob</t>
-  </si>
-  <si>
-    <t>Pramstrahler Josef</t>
-  </si>
-  <si>
-    <t>Kofler Andreas</t>
-  </si>
-  <si>
     <t>Gufler Lina</t>
   </si>
   <si>
+    <t>Agostinetto Matti</t>
+  </si>
+  <si>
+    <t>Agostinetto  Levi</t>
+  </si>
+  <si>
+    <t>Burger Karin</t>
+  </si>
+  <si>
+    <t>Ciaramella Lageder Giacomo Clemens</t>
+  </si>
+  <si>
+    <t>Costa Yasmina</t>
+  </si>
+  <si>
+    <t>Doliana Mia</t>
+  </si>
+  <si>
+    <t>Huber Alexander</t>
+  </si>
+  <si>
+    <t>Massei Damian</t>
+  </si>
+  <si>
+    <t>Maturilli Anna Maria</t>
+  </si>
+  <si>
+    <t>Mazohl Mari</t>
+  </si>
+  <si>
+    <t>Niederstaetter Leo</t>
+  </si>
+  <si>
+    <t>Orlando Amy</t>
+  </si>
+  <si>
+    <t>Perillo Zwink Noah Leon</t>
+  </si>
+  <si>
+    <t>Pfattner  Jonas</t>
+  </si>
+  <si>
+    <t>Prevedello  Timo</t>
+  </si>
+  <si>
+    <t>Scano Nicole</t>
+  </si>
+  <si>
+    <t>Stanzel Amira</t>
+  </si>
+  <si>
+    <t>Stragenegg Krieg Paul</t>
+  </si>
+  <si>
+    <t>Usom Best Daniel</t>
+  </si>
+  <si>
+    <t>Vassanelli Noah</t>
+  </si>
+  <si>
     <t>Villgrattner Jonas</t>
   </si>
   <si>
-    <t>Agostinetto Matti</t>
-  </si>
-  <si>
-    <t>Agostinetto  Levi</t>
-  </si>
-  <si>
-    <t>Burger Karin</t>
-  </si>
-  <si>
-    <t>Ciaramella Lageder Giacomo Clemens</t>
-  </si>
-  <si>
-    <t>Costa Yasmina</t>
-  </si>
-  <si>
-    <t>Doliana Mia</t>
-  </si>
-  <si>
-    <t>Huber Alexander</t>
-  </si>
-  <si>
-    <t>Massei Damian</t>
-  </si>
-  <si>
-    <t>Maturilli Anna Maria</t>
-  </si>
-  <si>
-    <t>Mazohl Mari</t>
-  </si>
-  <si>
-    <t>Niederstaetter Leo</t>
-  </si>
-  <si>
-    <t>Orlando Amy</t>
-  </si>
-  <si>
-    <t>Perillo Zwink Noah Leon</t>
-  </si>
-  <si>
-    <t>Pfattner  Jonas</t>
-  </si>
-  <si>
-    <t>Prevedello  Timo</t>
-  </si>
-  <si>
-    <t>Scano Nicole</t>
-  </si>
-  <si>
-    <t>Stanzel Amira</t>
-  </si>
-  <si>
-    <t>Stragenegg Krieg Paul</t>
-  </si>
-  <si>
-    <t>Usom Best Daniel</t>
-  </si>
-  <si>
-    <t>Vassanelli Noah</t>
-  </si>
-  <si>
     <t>Mor  Nadyn</t>
   </si>
   <si>
@@ -810,15 +810,15 @@
     <t>Walter Moritz</t>
   </si>
   <si>
+    <t>Eschgfaeller Marie</t>
+  </si>
+  <si>
     <t>Frei Juri</t>
   </si>
   <si>
     <t>Kajana Mia</t>
   </si>
   <si>
-    <t>Eschgfaeller Marie</t>
-  </si>
-  <si>
     <t>Doda Denis</t>
   </si>
   <si>
@@ -1050,6 +1050,9 @@
     <t>STEINWANDTER ARTHUR</t>
   </si>
   <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
     <t>KAUFMANN SAMUEL</t>
   </si>
   <si>
@@ -1059,9 +1062,6 @@
     <t>THALER DOMINIK</t>
   </si>
   <si>
-    <t>HOCHKOFLER NADINE</t>
-  </si>
-  <si>
     <t>KAUFMANN JONAS /</t>
   </si>
   <si>
@@ -1176,21 +1176,21 @@
     <t>HEISS MICHAEL</t>
   </si>
   <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
     <t>GRAUS DAVID</t>
   </si>
   <si>
     <t>HOFER LEO *</t>
   </si>
   <si>
-    <t>HOFER EVA</t>
-  </si>
-  <si>
-    <t>HOLZER LARISSA</t>
-  </si>
-  <si>
-    <t>LASTA VALENTIN</t>
-  </si>
-  <si>
     <t>KOFLER PAULI</t>
   </si>
   <si>
@@ -1236,6 +1236,9 @@
     <t>TRATTER PIA /</t>
   </si>
   <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
     <t>BARBAGALLO GIADA</t>
   </si>
   <si>
@@ -1293,9 +1296,6 @@
     <t>SILBERNAGL ILVY</t>
   </si>
   <si>
-    <t>GRUBER IDA</t>
-  </si>
-  <si>
     <t>BAUMGARTNER PAUL //</t>
   </si>
   <si>
@@ -1365,15 +1365,15 @@
     <t>JENNEWEIN MAX</t>
   </si>
   <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
     <t>MAIR FINN</t>
   </si>
   <si>
-    <t>STEINWANDTER FELIX</t>
-  </si>
-  <si>
-    <t>THOMASER NOEMI</t>
-  </si>
-  <si>
     <t>PFITSCHER LAURIN</t>
   </si>
   <si>
@@ -1440,24 +1440,24 @@
     <t>Schnals</t>
   </si>
   <si>
+    <t>Eppan</t>
+  </si>
+  <si>
+    <t>St. Martin in Passeier</t>
+  </si>
+  <si>
     <t>Pfitsch</t>
   </si>
   <si>
-    <t>Eppan</t>
-  </si>
-  <si>
-    <t>St. Martin in Passeier</t>
-  </si>
-  <si>
     <t>Moos in Passeier</t>
   </si>
   <si>
+    <t>Meran</t>
+  </si>
+  <si>
     <t>Völs am Schlern</t>
   </si>
   <si>
-    <t>Meran</t>
-  </si>
-  <si>
     <t>Vintl</t>
   </si>
   <si>
@@ -1518,12 +1518,12 @@
     <t>Ratschings</t>
   </si>
   <si>
+    <t>Hafling</t>
+  </si>
+  <si>
     <t>Tramin</t>
   </si>
   <si>
-    <t>Hafling</t>
-  </si>
-  <si>
     <t>Margreid</t>
   </si>
   <si>
@@ -1608,12 +1608,12 @@
     <t>Ritten</t>
   </si>
   <si>
+    <t>Laas</t>
+  </si>
+  <si>
     <t>Montan</t>
   </si>
   <si>
-    <t>Laas</t>
-  </si>
-  <si>
     <t>Eppan a.d. Weinstr.</t>
   </si>
   <si>
@@ -1650,12 +1650,12 @@
     <t>Welsberg</t>
   </si>
   <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
     <t>Nals</t>
   </si>
   <si>
-    <t>Niederdorf</t>
-  </si>
-  <si>
     <t>GGEGNT17P50A952S</t>
   </si>
   <si>
@@ -1770,90 +1770,90 @@
     <t>WRNPLA17T13I729Z</t>
   </si>
   <si>
+    <t>CLLCLL17P60F132P</t>
+  </si>
+  <si>
+    <t>FBRNHN20B09F132A</t>
+  </si>
+  <si>
+    <t>MSSJKB17S30F132S</t>
+  </si>
+  <si>
+    <t>PRMJSF19H13A952Z</t>
+  </si>
+  <si>
+    <t>KFLNRS17S23F132N</t>
+  </si>
+  <si>
     <t>WHTLLD18B20Z112Z</t>
   </si>
   <si>
-    <t>CLLCLL17P60F132P</t>
-  </si>
-  <si>
-    <t>FBRNHN20B09F132A</t>
-  </si>
-  <si>
-    <t>MSSJKB17S30F132S</t>
-  </si>
-  <si>
-    <t>PRMJSF19H13A952Z</t>
-  </si>
-  <si>
-    <t>KFLNRS17S23F132N</t>
-  </si>
-  <si>
     <t>GFLLNI18L57F132G</t>
   </si>
   <si>
+    <t>GSTMTT20B09A952T</t>
+  </si>
+  <si>
+    <t>GSTLVE17B06A952V</t>
+  </si>
+  <si>
+    <t>BRGKRN19E60I729G</t>
+  </si>
+  <si>
+    <t>CRMGMC19T22F132F</t>
+  </si>
+  <si>
+    <t>CSTYMN17E60F132Y</t>
+  </si>
+  <si>
+    <t>DLNMIA16T71A952X</t>
+  </si>
+  <si>
+    <t>HBRLND18L27Z102R</t>
+  </si>
+  <si>
+    <t>MSSDMN17S29Z102Y</t>
+  </si>
+  <si>
+    <t>MTRNMR17H63F132N</t>
+  </si>
+  <si>
+    <t>MZHMRA18P64F132P</t>
+  </si>
+  <si>
+    <t>NDRLEO17H28F132T</t>
+  </si>
+  <si>
+    <t>RLNMYA17E46F132T</t>
+  </si>
+  <si>
+    <t>PRLNLN17A15F132L</t>
+  </si>
+  <si>
+    <t>PFTJNS16S25A952D</t>
+  </si>
+  <si>
+    <t>PRVTMI17T12F132L</t>
+  </si>
+  <si>
+    <t>SCNNCL17D64F132B</t>
+  </si>
+  <si>
+    <t>STNMRA17E53F132I</t>
+  </si>
+  <si>
+    <t>STRPLA17B14F132K</t>
+  </si>
+  <si>
+    <t>SMBDNL17C15A952L</t>
+  </si>
+  <si>
+    <t>VSSNHO16R13F132P</t>
+  </si>
+  <si>
     <t>VLLJNS17A09B160F</t>
   </si>
   <si>
-    <t>GSTMTT20B09A952T</t>
-  </si>
-  <si>
-    <t>GSTLVE17B06A952V</t>
-  </si>
-  <si>
-    <t>BRGKRN19E60I729G</t>
-  </si>
-  <si>
-    <t>CRMGMC19T22F132F</t>
-  </si>
-  <si>
-    <t>CSTYMN17E60F132Y</t>
-  </si>
-  <si>
-    <t>DLNMIA16T71A952X</t>
-  </si>
-  <si>
-    <t>HBRLND18L27Z102R</t>
-  </si>
-  <si>
-    <t>MSSDMN17S29Z102Y</t>
-  </si>
-  <si>
-    <t>MTRNMR17H63F132N</t>
-  </si>
-  <si>
-    <t>MZHMRA18P64F132P</t>
-  </si>
-  <si>
-    <t>NDRLEO17H28F132T</t>
-  </si>
-  <si>
-    <t>RLNMYA17E46F132T</t>
-  </si>
-  <si>
-    <t>PRLNLN17A15F132L</t>
-  </si>
-  <si>
-    <t>PFTJNS16S25A952D</t>
-  </si>
-  <si>
-    <t>PRVTMI17T12F132L</t>
-  </si>
-  <si>
-    <t>SCNNCL17D64F132B</t>
-  </si>
-  <si>
-    <t>STNMRA17E53F132I</t>
-  </si>
-  <si>
-    <t>STRPLA17B14F132K</t>
-  </si>
-  <si>
-    <t>SMBDNL17C15A952L</t>
-  </si>
-  <si>
-    <t>VSSNHO16R13F132P</t>
-  </si>
-  <si>
     <t>MRONYN16P65B160C</t>
   </si>
   <si>
@@ -1980,15 +1980,15 @@
     <t>WLTMTZ16M02M067H</t>
   </si>
   <si>
+    <t>SCHMRA17T62A952K</t>
+  </si>
+  <si>
     <t>FREJRU18E29A952R</t>
   </si>
   <si>
     <t>KJNMIA18M43A952A</t>
   </si>
   <si>
-    <t>SCHMRA17T62A952K</t>
-  </si>
-  <si>
     <t>DDODNS17L05I729E</t>
   </si>
   <si>
@@ -2217,6 +2217,9 @@
     <t>STNRHR17T17F132Y</t>
   </si>
   <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
     <t>KFMSML17R13A952W</t>
   </si>
   <si>
@@ -2226,9 +2229,6 @@
     <t>THLDNK17S13F132U</t>
   </si>
   <si>
-    <t>HCHNDN17M53I729Y</t>
-  </si>
-  <si>
     <t>KFMJNS18S22F132I</t>
   </si>
   <si>
@@ -2334,21 +2334,21 @@
     <t>HSSMHL17T11B220O</t>
   </si>
   <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
     <t>GRSDVD17B16B160N</t>
   </si>
   <si>
     <t>HFRLEO18C02B160M</t>
   </si>
   <si>
-    <t>HFRVEA17L50B160H</t>
-  </si>
-  <si>
-    <t>HLZLSS16M51M067B</t>
-  </si>
-  <si>
-    <t>LSTVNT17E18B160K</t>
-  </si>
-  <si>
     <t>KFLPLA19H24B220Y</t>
   </si>
   <si>
@@ -2385,6 +2385,9 @@
     <t>TRTPIA17H43B160S</t>
   </si>
   <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
     <t>BRBGDI17L49A952B</t>
   </si>
   <si>
@@ -2439,9 +2442,6 @@
     <t>SLBLVY15C48F132K</t>
   </si>
   <si>
-    <t>GRBDIA17A58I729E</t>
-  </si>
-  <si>
     <t>HFRHNH17P65B160X</t>
   </si>
   <si>
@@ -2586,63 +2586,63 @@
     <t>Graiss Lisa</t>
   </si>
   <si>
+    <t>Mathà Renate</t>
+  </si>
+  <si>
+    <t>Oberhofer  Kathrin</t>
+  </si>
+  <si>
+    <t>Ambach Maria</t>
+  </si>
+  <si>
+    <t>Schweigl Simone</t>
+  </si>
+  <si>
     <t>Oberstaller Agathe</t>
   </si>
   <si>
-    <t>Mathà Renate</t>
-  </si>
-  <si>
-    <t>Oberhofer  Kathrin</t>
-  </si>
-  <si>
-    <t>Ambach Maria</t>
-  </si>
-  <si>
-    <t>Schweigl Simone</t>
-  </si>
-  <si>
     <t>Trocker Christine</t>
   </si>
   <si>
+    <t>Kienzl Martina Rosa</t>
+  </si>
+  <si>
+    <t>Prantl  Hildburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borarosova Zaneta </t>
+  </si>
+  <si>
+    <t>Theiner Sylvia</t>
+  </si>
+  <si>
+    <t>Muszala Annekathrin</t>
+  </si>
+  <si>
+    <t>Schwienbacher  Hanna</t>
+  </si>
+  <si>
+    <t>De Arruda Ruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czuchin Rosa </t>
+  </si>
+  <si>
+    <t>Christanell Elisabeth</t>
+  </si>
+  <si>
+    <t>Corazza Rosemarie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radina  Germana </t>
+  </si>
+  <si>
+    <t>Schwalt Kathrin</t>
+  </si>
+  <si>
     <t>Lunger Alexandra</t>
   </si>
   <si>
-    <t>Kienzl Martina Rosa</t>
-  </si>
-  <si>
-    <t>Prantl  Hildburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borarosova Zaneta </t>
-  </si>
-  <si>
-    <t>Theiner Sylvia</t>
-  </si>
-  <si>
-    <t>Muszala Annekathrin</t>
-  </si>
-  <si>
-    <t>Schwienbacher  Hanna</t>
-  </si>
-  <si>
-    <t>De Arruda Ruth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czuchin Rosa </t>
-  </si>
-  <si>
-    <t>Christanell Elisabeth</t>
-  </si>
-  <si>
-    <t>Corazza Rosemarie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radina  Germana </t>
-  </si>
-  <si>
-    <t>Schwalt Kathrin</t>
-  </si>
-  <si>
     <t>Huber Barbara</t>
   </si>
   <si>
@@ -2940,6 +2940,9 @@
     <t>FÜRLER VERONIKA</t>
   </si>
   <si>
+    <t>RADWANSKA KATARZYNA</t>
+  </si>
+  <si>
     <t>LAGEDER JOHANNA</t>
   </si>
   <si>
@@ -2964,9 +2967,6 @@
     <t>FERRARI ELIANA</t>
   </si>
   <si>
-    <t>RADWANSKA KATARZYNA</t>
-  </si>
-  <si>
     <t>LADURNER JOHANNA</t>
   </si>
   <si>
@@ -3099,13 +3099,13 @@
     <t>Freienfeld/Campo di Trens</t>
   </si>
   <si>
+    <t>Prad am Stilfser Joch/Prato allo Stelvio</t>
+  </si>
+  <si>
     <t>Meran/Merano</t>
   </si>
   <si>
     <t>Tscherms/Cermes</t>
-  </si>
-  <si>
-    <t>Prad am Stilfser Joch/Prato allo Stelvio</t>
   </si>
   <si>
     <t>Algund/Lagundo</t>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
@@ -6641,7 +6641,7 @@
         <v>472</v>
       </c>
       <c r="F42" s="2">
-        <v>43151</v>
+        <v>42998</v>
       </c>
       <c r="G42" t="s">
         <v>582</v>
@@ -6653,22 +6653,22 @@
         <v>472</v>
       </c>
       <c r="J42" s="2">
-        <v>44089</v>
+        <v>44033</v>
       </c>
       <c r="K42">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="L42" s="2">
-        <v>44196</v>
+        <v>44088</v>
       </c>
       <c r="M42">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="N42">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="b">
         <v>1</v>
@@ -6686,24 +6686,24 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
       </c>
       <c r="AU42" s="2">
-        <v>44089</v>
+        <v>44033</v>
       </c>
       <c r="AV42" s="2">
-        <v>44196</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>193</v>
@@ -6712,10 +6712,10 @@
         <v>455</v>
       </c>
       <c r="E43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F43" s="2">
-        <v>42998</v>
+        <v>43870</v>
       </c>
       <c r="G43" t="s">
         <v>583</v>
@@ -6724,25 +6724,25 @@
         <v>855</v>
       </c>
       <c r="I43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J43" s="2">
-        <v>44033</v>
+        <v>44144</v>
       </c>
       <c r="K43">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L43" s="2">
-        <v>44088</v>
+        <v>44196</v>
       </c>
       <c r="M43">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -6751,33 +6751,33 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>151</v>
-      </c>
-      <c r="AM43" t="b">
+        <v>66</v>
+      </c>
+      <c r="AJ43" t="b">
         <v>1</v>
       </c>
       <c r="AR43">
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43">
         <v>0</v>
       </c>
       <c r="AU43" s="2">
-        <v>44033</v>
+        <v>44144</v>
       </c>
       <c r="AV43" s="2">
-        <v>44088</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
         <v>194</v>
@@ -6786,10 +6786,10 @@
         <v>455</v>
       </c>
       <c r="E44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F44" s="2">
-        <v>43870</v>
+        <v>43069</v>
       </c>
       <c r="G44" t="s">
         <v>584</v>
@@ -6798,60 +6798,60 @@
         <v>856</v>
       </c>
       <c r="I44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J44" s="2">
-        <v>44144</v>
+        <v>43678</v>
       </c>
       <c r="K44">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="L44" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
       <c r="M44">
-        <v>54</v>
+        <v>825.75</v>
       </c>
       <c r="N44">
-        <v>12</v>
+        <v>363.5</v>
       </c>
       <c r="O44">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>105.25</v>
       </c>
       <c r="R44">
-        <v>66</v>
-      </c>
-      <c r="AJ44" t="b">
+        <v>1294.5</v>
+      </c>
+      <c r="AA44" t="b">
         <v>1</v>
       </c>
       <c r="AR44">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT44">
         <v>0</v>
       </c>
       <c r="AU44" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AV44" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>195</v>
@@ -6860,52 +6860,55 @@
         <v>455</v>
       </c>
       <c r="E45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F45" s="2">
-        <v>43069</v>
+        <v>43629</v>
       </c>
       <c r="G45" t="s">
         <v>585</v>
       </c>
       <c r="H45" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J45" s="2">
-        <v>43678</v>
+        <v>43906</v>
       </c>
       <c r="K45">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="L45" s="2">
-        <v>44092</v>
+        <v>43921</v>
       </c>
       <c r="M45">
-        <v>825.75</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>363.5</v>
+        <v>23</v>
       </c>
       <c r="O45">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>105.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1294.5</v>
-      </c>
-      <c r="AA45" t="b">
+        <v>23</v>
+      </c>
+      <c r="AF45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="b">
         <v>1</v>
       </c>
       <c r="AR45">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <v>0</v>
@@ -6914,15 +6917,15 @@
         <v>0</v>
       </c>
       <c r="AU45" s="2">
-        <v>43831</v>
+        <v>43906</v>
       </c>
       <c r="AV45" s="2">
-        <v>44092</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>61</v>
@@ -6937,34 +6940,34 @@
         <v>473</v>
       </c>
       <c r="F46" s="2">
-        <v>43629</v>
+        <v>43062</v>
       </c>
       <c r="G46" t="s">
         <v>586</v>
       </c>
       <c r="H46" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="I46" t="s">
-        <v>473</v>
+        <v>997</v>
       </c>
       <c r="J46" s="2">
-        <v>43906</v>
+        <v>44083</v>
       </c>
       <c r="K46">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="L46" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46">
-        <v>23</v>
+        <v>13.75</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -6973,33 +6976,30 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>23</v>
-      </c>
-      <c r="AF46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG46" t="b">
+        <v>213.75</v>
+      </c>
+      <c r="AA46" t="b">
         <v>1</v>
       </c>
       <c r="AR46">
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT46">
         <v>0</v>
       </c>
       <c r="AU46" s="2">
-        <v>43906</v>
+        <v>44083</v>
       </c>
       <c r="AV46" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -7014,7 +7014,7 @@
         <v>474</v>
       </c>
       <c r="F47" s="2">
-        <v>43062</v>
+        <v>43151</v>
       </c>
       <c r="G47" t="s">
         <v>587</v>
@@ -7023,22 +7023,22 @@
         <v>858</v>
       </c>
       <c r="I47" t="s">
-        <v>997</v>
+        <v>474</v>
       </c>
       <c r="J47" s="2">
-        <v>44083</v>
+        <v>44089</v>
       </c>
       <c r="K47">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L47" s="2">
         <v>44196</v>
       </c>
       <c r="M47">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N47">
-        <v>13.75</v>
+        <v>30</v>
       </c>
       <c r="O47">
         <v>15</v>
@@ -7050,9 +7050,9 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>213.75</v>
-      </c>
-      <c r="AA47" t="b">
+        <v>204</v>
+      </c>
+      <c r="AM47" t="b">
         <v>1</v>
       </c>
       <c r="AR47">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AU47" s="2">
-        <v>44083</v>
+        <v>44089</v>
       </c>
       <c r="AV47" s="2">
         <v>44196</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="49" spans="1:48">
       <c r="A49" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>64</v>
@@ -7168,7 +7168,7 @@
         <v>476</v>
       </c>
       <c r="F49" s="2">
-        <v>42744</v>
+        <v>43870</v>
       </c>
       <c r="G49" t="s">
         <v>589</v>
@@ -7177,25 +7177,25 @@
         <v>860</v>
       </c>
       <c r="I49" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="J49" s="2">
-        <v>44056</v>
+        <v>44130</v>
       </c>
       <c r="K49">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="L49" s="2">
-        <v>44085</v>
+        <v>44196</v>
       </c>
       <c r="M49">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -7204,33 +7204,33 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="b">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="b">
         <v>1</v>
       </c>
       <c r="AR49">
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT49">
         <v>0</v>
       </c>
       <c r="AU49" s="2">
-        <v>44056</v>
+        <v>44130</v>
       </c>
       <c r="AV49" s="2">
-        <v>44085</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>200</v>
@@ -7239,72 +7239,72 @@
         <v>455</v>
       </c>
       <c r="E50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F50" s="2">
-        <v>43870</v>
+        <v>42772</v>
       </c>
       <c r="G50" t="s">
         <v>590</v>
       </c>
       <c r="H50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J50" s="2">
-        <v>44130</v>
+        <v>43010</v>
       </c>
       <c r="K50">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="L50" s="2">
-        <v>44196</v>
+        <v>44070</v>
       </c>
       <c r="M50">
-        <v>63</v>
+        <v>345.75</v>
       </c>
       <c r="N50">
-        <v>15</v>
+        <v>178.5</v>
       </c>
       <c r="O50">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="R50">
-        <v>78</v>
-      </c>
-      <c r="AJ50" t="b">
+        <v>639.75</v>
+      </c>
+      <c r="Z50" t="b">
         <v>1</v>
       </c>
       <c r="AR50">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT50">
         <v>0</v>
       </c>
       <c r="AU50" s="2">
-        <v>44130</v>
+        <v>43831</v>
       </c>
       <c r="AV50" s="2">
-        <v>44196</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="51" spans="1:48">
       <c r="A51" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
         <v>201</v>
@@ -7313,10 +7313,10 @@
         <v>455</v>
       </c>
       <c r="E51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F51" s="2">
-        <v>42772</v>
+        <v>43605</v>
       </c>
       <c r="G51" t="s">
         <v>591</v>
@@ -7325,60 +7325,60 @@
         <v>861</v>
       </c>
       <c r="I51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J51" s="2">
-        <v>43010</v>
+        <v>44144</v>
       </c>
       <c r="K51">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="L51" s="2">
-        <v>44070</v>
+        <v>44196</v>
       </c>
       <c r="M51">
-        <v>345.75</v>
+        <v>62</v>
       </c>
       <c r="N51">
-        <v>178.5</v>
+        <v>18</v>
       </c>
       <c r="O51">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>115.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>639.75</v>
-      </c>
-      <c r="Z51" t="b">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="b">
         <v>1</v>
       </c>
       <c r="AR51">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT51">
         <v>0</v>
       </c>
       <c r="AU51" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AV51" s="2">
-        <v>44070</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="52" spans="1:48">
       <c r="A52" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>202</v>
@@ -7387,10 +7387,10 @@
         <v>455</v>
       </c>
       <c r="E52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F52" s="2">
-        <v>43605</v>
+        <v>43821</v>
       </c>
       <c r="G52" t="s">
         <v>592</v>
@@ -7399,25 +7399,25 @@
         <v>862</v>
       </c>
       <c r="I52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J52" s="2">
-        <v>44144</v>
+        <v>44137</v>
       </c>
       <c r="K52">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L52" s="2">
         <v>44196</v>
       </c>
       <c r="M52">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="N52">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O52">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -7426,9 +7426,12 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AJ52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="b">
         <v>1</v>
       </c>
       <c r="AR52">
@@ -7441,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="AU52" s="2">
-        <v>44144</v>
+        <v>44137</v>
       </c>
       <c r="AV52" s="2">
         <v>44196</v>
@@ -7449,10 +7452,10 @@
     </row>
     <row r="53" spans="1:48">
       <c r="A53" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>203</v>
@@ -7461,37 +7464,37 @@
         <v>455</v>
       </c>
       <c r="E53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F53" s="2">
-        <v>43821</v>
+        <v>42875</v>
       </c>
       <c r="G53" t="s">
         <v>593</v>
       </c>
       <c r="H53" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J53" s="2">
-        <v>44137</v>
+        <v>44013</v>
       </c>
       <c r="K53">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L53" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
       <c r="M53">
-        <v>156</v>
+        <v>241.5</v>
       </c>
       <c r="N53">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -7500,36 +7503,33 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>180</v>
-      </c>
-      <c r="AJ53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM53" t="b">
+        <v>241.5</v>
+      </c>
+      <c r="AA53" t="b">
         <v>1</v>
       </c>
       <c r="AR53">
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT53">
         <v>0</v>
       </c>
       <c r="AU53" s="2">
-        <v>44137</v>
+        <v>44013</v>
       </c>
       <c r="AV53" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="1">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
         <v>204</v>
@@ -7538,52 +7538,52 @@
         <v>455</v>
       </c>
       <c r="E54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F54" s="2">
-        <v>42875</v>
+        <v>42735</v>
       </c>
       <c r="G54" t="s">
         <v>594</v>
       </c>
       <c r="H54" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J54" s="2">
-        <v>44013</v>
+        <v>42996</v>
       </c>
       <c r="K54">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="L54" s="2">
-        <v>44092</v>
+        <v>44049</v>
       </c>
       <c r="M54">
-        <v>241.5</v>
+        <v>231</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="R54">
-        <v>241.5</v>
-      </c>
-      <c r="AA54" t="b">
+        <v>592</v>
+      </c>
+      <c r="Z54" t="b">
         <v>1</v>
       </c>
       <c r="AR54">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -7592,18 +7592,18 @@
         <v>0</v>
       </c>
       <c r="AU54" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AV54" s="2">
-        <v>44092</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="1">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
         <v>205</v>
@@ -7612,10 +7612,10 @@
         <v>455</v>
       </c>
       <c r="E55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F55" s="2">
-        <v>42735</v>
+        <v>43308</v>
       </c>
       <c r="G55" t="s">
         <v>595</v>
@@ -7624,60 +7624,63 @@
         <v>864</v>
       </c>
       <c r="I55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J55" s="2">
-        <v>42996</v>
+        <v>43881</v>
       </c>
       <c r="K55">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="L55" s="2">
-        <v>44049</v>
+        <v>44196</v>
       </c>
       <c r="M55">
-        <v>231</v>
+        <v>600.5</v>
       </c>
       <c r="N55">
-        <v>175</v>
+        <v>286.5</v>
       </c>
       <c r="O55">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>186</v>
+        <v>198.5</v>
       </c>
       <c r="R55">
-        <v>592</v>
-      </c>
-      <c r="Z55" t="b">
+        <v>1085.5</v>
+      </c>
+      <c r="AH55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI55" t="b">
         <v>1</v>
       </c>
       <c r="AR55">
         <v>74</v>
       </c>
       <c r="AS55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT55">
         <v>0</v>
       </c>
       <c r="AU55" s="2">
-        <v>43831</v>
+        <v>43881</v>
       </c>
       <c r="AV55" s="2">
-        <v>44049</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="1">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>206</v>
@@ -7686,10 +7689,10 @@
         <v>455</v>
       </c>
       <c r="E56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F56" s="2">
-        <v>43308</v>
+        <v>43068</v>
       </c>
       <c r="G56" t="s">
         <v>596</v>
@@ -7698,39 +7701,36 @@
         <v>865</v>
       </c>
       <c r="I56" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="J56" s="2">
-        <v>43881</v>
+        <v>43718</v>
       </c>
       <c r="K56">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="L56" s="2">
         <v>44196</v>
       </c>
       <c r="M56">
-        <v>600.5</v>
+        <v>592.5</v>
       </c>
       <c r="N56">
-        <v>286.5</v>
+        <v>200</v>
       </c>
       <c r="O56">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>198.5</v>
+        <v>70</v>
       </c>
       <c r="R56">
-        <v>1085.5</v>
-      </c>
-      <c r="AH56" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI56" t="b">
+        <v>862.5</v>
+      </c>
+      <c r="AA56" t="b">
         <v>1</v>
       </c>
       <c r="AR56">
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="2">
-        <v>43881</v>
+        <v>43831</v>
       </c>
       <c r="AV56" s="2">
         <v>44196</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>207</v>
@@ -7763,10 +7763,10 @@
         <v>455</v>
       </c>
       <c r="E57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F57" s="2">
-        <v>43068</v>
+        <v>42909</v>
       </c>
       <c r="G57" t="s">
         <v>597</v>
@@ -7775,43 +7775,49 @@
         <v>866</v>
       </c>
       <c r="I57" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="J57" s="2">
-        <v>43718</v>
+        <v>43598</v>
       </c>
       <c r="K57">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>44196</v>
+        <v>43831</v>
       </c>
       <c r="M57">
-        <v>592.5</v>
+        <v>50</v>
       </c>
       <c r="N57">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="R57">
-        <v>862.5</v>
-      </c>
-      <c r="AA57" t="b">
+        <v>385</v>
+      </c>
+      <c r="AC57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM57" t="b">
         <v>1</v>
       </c>
       <c r="AR57">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -7820,15 +7826,15 @@
         <v>43831</v>
       </c>
       <c r="AV57" s="2">
-        <v>44196</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
         <v>208</v>
@@ -7837,10 +7843,10 @@
         <v>455</v>
       </c>
       <c r="E58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F58" s="2">
-        <v>42909</v>
+        <v>43367</v>
       </c>
       <c r="G58" t="s">
         <v>598</v>
@@ -7849,40 +7855,34 @@
         <v>867</v>
       </c>
       <c r="I58" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="J58" s="2">
-        <v>43598</v>
+        <v>44066</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="L58" s="2">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="M58">
-        <v>50</v>
+        <v>251.75</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>385</v>
-      </c>
-      <c r="AC58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD58" t="b">
-        <v>1</v>
+        <v>272.25</v>
       </c>
       <c r="AM58" t="b">
         <v>1</v>
@@ -7891,24 +7891,24 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT58">
         <v>0</v>
       </c>
       <c r="AU58" s="2">
-        <v>43831</v>
+        <v>44066</v>
       </c>
       <c r="AV58" s="2">
-        <v>43831</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="59" spans="1:48">
       <c r="A59" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>209</v>
@@ -7917,37 +7917,37 @@
         <v>455</v>
       </c>
       <c r="E59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F59" s="2">
-        <v>43367</v>
+        <v>42914</v>
       </c>
       <c r="G59" t="s">
         <v>599</v>
       </c>
       <c r="H59" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I59" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="J59" s="2">
-        <v>44066</v>
+        <v>44145</v>
       </c>
       <c r="K59">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="L59" s="2">
         <v>44196</v>
       </c>
       <c r="M59">
-        <v>251.75</v>
+        <v>230.5</v>
       </c>
       <c r="N59">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -7956,9 +7956,9 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>272.25</v>
-      </c>
-      <c r="AM59" t="b">
+        <v>230.5</v>
+      </c>
+      <c r="AA59" t="b">
         <v>1</v>
       </c>
       <c r="AR59">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="AU59" s="2">
-        <v>44066</v>
+        <v>44145</v>
       </c>
       <c r="AV59" s="2">
         <v>44196</v>
@@ -7979,84 +7979,84 @@
     </row>
     <row r="60" spans="1:48">
       <c r="A60" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
         <v>455</v>
       </c>
       <c r="E60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F60" s="2">
         <v>42914</v>
       </c>
       <c r="G60" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H60" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="I60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J60" s="2">
-        <v>44145</v>
+        <v>43587</v>
       </c>
       <c r="K60">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="L60" s="2">
-        <v>44196</v>
+        <v>44134</v>
       </c>
       <c r="M60">
-        <v>230.5</v>
+        <v>815</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O60">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R60">
-        <v>230.5</v>
+        <v>1093</v>
       </c>
       <c r="AA60" t="b">
         <v>1</v>
       </c>
       <c r="AR60">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT60">
         <v>0</v>
       </c>
       <c r="AU60" s="2">
-        <v>44145</v>
+        <v>43831</v>
       </c>
       <c r="AV60" s="2">
-        <v>44196</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="61" spans="1:48">
       <c r="A61" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>210</v>
@@ -8065,52 +8065,55 @@
         <v>455</v>
       </c>
       <c r="E61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F61" s="2">
-        <v>42914</v>
+        <v>42861</v>
       </c>
       <c r="G61" t="s">
         <v>600</v>
       </c>
       <c r="H61" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="I61" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="J61" s="2">
-        <v>43587</v>
+        <v>43991</v>
       </c>
       <c r="K61">
-        <v>304</v>
+        <v>114</v>
       </c>
       <c r="L61" s="2">
-        <v>44134</v>
+        <v>44104</v>
       </c>
       <c r="M61">
-        <v>815</v>
+        <v>138</v>
       </c>
       <c r="N61">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1093</v>
+        <v>138</v>
       </c>
       <c r="AA61" t="b">
         <v>1</v>
       </c>
+      <c r="AM61" t="b">
+        <v>1</v>
+      </c>
       <c r="AR61">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -8119,18 +8122,18 @@
         <v>0</v>
       </c>
       <c r="AU61" s="2">
-        <v>43831</v>
+        <v>43991</v>
       </c>
       <c r="AV61" s="2">
-        <v>44134</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="1">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>211</v>
@@ -8139,31 +8142,31 @@
         <v>455</v>
       </c>
       <c r="E62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F62" s="2">
-        <v>42861</v>
+        <v>42750</v>
       </c>
       <c r="G62" t="s">
         <v>601</v>
       </c>
       <c r="H62" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="J62" s="2">
-        <v>43991</v>
+        <v>44013</v>
       </c>
       <c r="K62">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="L62" s="2">
-        <v>44104</v>
+        <v>44078</v>
       </c>
       <c r="M62">
-        <v>138</v>
+        <v>148.5</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -8178,12 +8181,9 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>138</v>
-      </c>
-      <c r="AA62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM62" t="b">
+        <v>148.5</v>
+      </c>
+      <c r="Z62" t="b">
         <v>1</v>
       </c>
       <c r="AR62">
@@ -8196,54 +8196,54 @@
         <v>0</v>
       </c>
       <c r="AU62" s="2">
-        <v>43991</v>
+        <v>44013</v>
       </c>
       <c r="AV62" s="2">
-        <v>44104</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
         <v>455</v>
       </c>
       <c r="E63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F63" s="2">
         <v>42750</v>
       </c>
       <c r="G63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H63" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J63" s="2">
-        <v>44013</v>
+        <v>43041</v>
       </c>
       <c r="K63">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="L63" s="2">
-        <v>44078</v>
+        <v>43951</v>
       </c>
       <c r="M63">
-        <v>148.5</v>
+        <v>180.25</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>203.25</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>148.5</v>
+        <v>383.5</v>
       </c>
       <c r="Z63" t="b">
         <v>1</v>
@@ -8270,18 +8270,18 @@
         <v>0</v>
       </c>
       <c r="AU63" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="AV63" s="2">
-        <v>44078</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="64" spans="1:48">
       <c r="A64" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>212</v>
@@ -8290,52 +8290,52 @@
         <v>455</v>
       </c>
       <c r="E64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F64" s="2">
-        <v>42750</v>
+        <v>42699</v>
       </c>
       <c r="G64" t="s">
         <v>602</v>
       </c>
       <c r="H64" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="I64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J64" s="2">
-        <v>43041</v>
+        <v>43346</v>
       </c>
       <c r="K64">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="L64" s="2">
-        <v>43951</v>
+        <v>44085</v>
       </c>
       <c r="M64">
-        <v>180.25</v>
+        <v>696.25</v>
       </c>
       <c r="N64">
-        <v>203.25</v>
+        <v>329.25</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>203.5</v>
       </c>
       <c r="R64">
-        <v>383.5</v>
+        <v>1229</v>
       </c>
       <c r="Z64" t="b">
         <v>1</v>
       </c>
       <c r="AR64">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -8347,69 +8347,69 @@
         <v>43831</v>
       </c>
       <c r="AV64" s="2">
-        <v>43951</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="65" spans="1:48">
       <c r="A65" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
         <v>455</v>
       </c>
       <c r="E65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F65" s="2">
         <v>42699</v>
       </c>
       <c r="G65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H65" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="I65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J65" s="2">
-        <v>43346</v>
+        <v>44074</v>
       </c>
       <c r="K65">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="L65" s="2">
-        <v>44085</v>
+        <v>44078</v>
       </c>
       <c r="M65">
-        <v>696.25</v>
+        <v>37</v>
       </c>
       <c r="N65">
-        <v>329.25</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>203.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1229</v>
+        <v>37</v>
       </c>
       <c r="Z65" t="b">
         <v>1</v>
       </c>
       <c r="AR65">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS65">
         <v>0</v>
@@ -8418,18 +8418,18 @@
         <v>0</v>
       </c>
       <c r="AU65" s="2">
-        <v>43831</v>
+        <v>44074</v>
       </c>
       <c r="AV65" s="2">
-        <v>44085</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="1">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>213</v>
@@ -8438,72 +8438,72 @@
         <v>455</v>
       </c>
       <c r="E66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F66" s="2">
-        <v>42699</v>
+        <v>43081</v>
       </c>
       <c r="G66" t="s">
         <v>603</v>
       </c>
       <c r="H66" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="I66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J66" s="2">
-        <v>44074</v>
+        <v>43360</v>
       </c>
       <c r="K66">
-        <v>5</v>
+        <v>366</v>
       </c>
       <c r="L66" s="2">
-        <v>44078</v>
+        <v>44196</v>
       </c>
       <c r="M66">
-        <v>37</v>
+        <v>1357</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R66">
-        <v>37</v>
-      </c>
-      <c r="Z66" t="b">
+        <v>1716.5</v>
+      </c>
+      <c r="AA66" t="b">
         <v>1</v>
       </c>
       <c r="AR66">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT66">
         <v>0</v>
       </c>
       <c r="AU66" s="2">
-        <v>44074</v>
+        <v>43831</v>
       </c>
       <c r="AV66" s="2">
-        <v>44078</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="67" spans="1:48">
       <c r="A67" s="1">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>214</v>
@@ -8512,46 +8512,46 @@
         <v>455</v>
       </c>
       <c r="E67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F67" s="2">
-        <v>43081</v>
+        <v>42849</v>
       </c>
       <c r="G67" t="s">
         <v>604</v>
       </c>
       <c r="H67" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J67" s="2">
-        <v>43360</v>
+        <v>43284</v>
       </c>
       <c r="K67">
-        <v>366</v>
+        <v>274</v>
       </c>
       <c r="L67" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="M67">
-        <v>1357</v>
+        <v>389</v>
       </c>
       <c r="N67">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="O67">
-        <v>384</v>
+        <v>138</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>10.5</v>
+        <v>-6.5</v>
       </c>
       <c r="R67">
-        <v>1716.5</v>
+        <v>512.5</v>
       </c>
       <c r="AA67" t="b">
         <v>1</v>
@@ -8560,7 +8560,7 @@
         <v>74</v>
       </c>
       <c r="AS67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT67">
         <v>0</v>
@@ -8569,15 +8569,15 @@
         <v>43831</v>
       </c>
       <c r="AV67" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="68" spans="1:48">
       <c r="A68" s="1">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>215</v>
@@ -8586,46 +8586,46 @@
         <v>455</v>
       </c>
       <c r="E68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F68" s="2">
-        <v>42849</v>
+        <v>42868</v>
       </c>
       <c r="G68" t="s">
         <v>605</v>
       </c>
       <c r="H68" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="I68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J68" s="2">
-        <v>43284</v>
+        <v>43283</v>
       </c>
       <c r="K68">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L68" s="2">
-        <v>44104</v>
+        <v>44096</v>
       </c>
       <c r="M68">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="N68">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="O68">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>-6.5</v>
+        <v>-5</v>
       </c>
       <c r="R68">
-        <v>512.5</v>
+        <v>655</v>
       </c>
       <c r="AA68" t="b">
         <v>1</v>
@@ -8643,15 +8643,15 @@
         <v>43831</v>
       </c>
       <c r="AV68" s="2">
-        <v>44104</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="69" spans="1:48">
       <c r="A69" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
         <v>216</v>
@@ -8660,48 +8660,48 @@
         <v>455</v>
       </c>
       <c r="E69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F69" s="2">
-        <v>42868</v>
+        <v>42780</v>
       </c>
       <c r="G69" t="s">
         <v>606</v>
       </c>
       <c r="H69" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J69" s="2">
-        <v>43283</v>
+        <v>43132</v>
       </c>
       <c r="K69">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L69" s="2">
-        <v>44096</v>
+        <v>44085</v>
       </c>
       <c r="M69">
-        <v>445</v>
+        <v>535</v>
       </c>
       <c r="N69">
-        <v>215</v>
+        <v>252.5</v>
       </c>
       <c r="O69">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>-5</v>
+        <v>159</v>
       </c>
       <c r="R69">
-        <v>655</v>
-      </c>
-      <c r="AA69" t="b">
+        <v>946.5</v>
+      </c>
+      <c r="Z69" t="b">
         <v>1</v>
       </c>
       <c r="AR69">
@@ -8717,15 +8717,15 @@
         <v>43831</v>
       </c>
       <c r="AV69" s="2">
-        <v>44096</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="1">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
         <v>217</v>
@@ -8734,52 +8734,52 @@
         <v>455</v>
       </c>
       <c r="E70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F70" s="2">
-        <v>42780</v>
+        <v>42809</v>
       </c>
       <c r="G70" t="s">
         <v>607</v>
       </c>
       <c r="H70" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J70" s="2">
-        <v>43132</v>
+        <v>43759</v>
       </c>
       <c r="K70">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="L70" s="2">
-        <v>44085</v>
+        <v>43861</v>
       </c>
       <c r="M70">
-        <v>535</v>
+        <v>121</v>
       </c>
       <c r="N70">
-        <v>252.5</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>946.5</v>
-      </c>
-      <c r="Z70" t="b">
+        <v>121</v>
+      </c>
+      <c r="AM70" t="b">
         <v>1</v>
       </c>
       <c r="AR70">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -8791,15 +8791,15 @@
         <v>43831</v>
       </c>
       <c r="AV70" s="2">
-        <v>44085</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>218</v>
@@ -8808,52 +8808,52 @@
         <v>455</v>
       </c>
       <c r="E71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F71" s="2">
-        <v>42809</v>
+        <v>42656</v>
       </c>
       <c r="G71" t="s">
         <v>608</v>
       </c>
       <c r="H71" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="I71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J71" s="2">
-        <v>43759</v>
+        <v>42935</v>
       </c>
       <c r="K71">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="L71" s="2">
-        <v>43861</v>
+        <v>44077</v>
       </c>
       <c r="M71">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R71">
-        <v>121</v>
-      </c>
-      <c r="AM71" t="b">
+        <v>608</v>
+      </c>
+      <c r="Z71" t="b">
         <v>1</v>
       </c>
       <c r="AR71">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -8865,12 +8865,12 @@
         <v>43831</v>
       </c>
       <c r="AV71" s="2">
-        <v>43861</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="1">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
@@ -8885,7 +8885,7 @@
         <v>477</v>
       </c>
       <c r="F72" s="2">
-        <v>42656</v>
+        <v>42744</v>
       </c>
       <c r="G72" t="s">
         <v>609</v>
@@ -8894,40 +8894,40 @@
         <v>872</v>
       </c>
       <c r="I72" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="J72" s="2">
-        <v>42935</v>
+        <v>44056</v>
       </c>
       <c r="K72">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="L72" s="2">
-        <v>44077</v>
+        <v>44085</v>
       </c>
       <c r="M72">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="N72">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>608</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="b">
         <v>1</v>
       </c>
       <c r="AR72">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS72">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="AU72" s="2">
-        <v>43831</v>
+        <v>44056</v>
       </c>
       <c r="AV72" s="2">
-        <v>44077</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="73" spans="1:48">
@@ -9548,7 +9548,7 @@
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
         <v>455</v>
@@ -9560,13 +9560,13 @@
         <v>43821</v>
       </c>
       <c r="G81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H81" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J81" s="2">
         <v>44081</v>
@@ -9773,7 +9773,7 @@
         <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
         <v>455</v>
@@ -9785,13 +9785,13 @@
         <v>42909</v>
       </c>
       <c r="G84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H84" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J84" s="2">
         <v>43831</v>
@@ -9924,7 +9924,7 @@
         <v>71</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
         <v>455</v>
@@ -9936,13 +9936,13 @@
         <v>43151</v>
       </c>
       <c r="G86" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H86" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="I86" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J86" s="2">
         <v>43725</v>
@@ -10762,10 +10762,10 @@
         <v>630</v>
       </c>
       <c r="H97" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J97" s="2">
         <v>43893</v>
@@ -10987,10 +10987,10 @@
         <v>633</v>
       </c>
       <c r="H100" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J100" s="2">
         <v>43879</v>
@@ -11576,7 +11576,7 @@
         <v>83</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108" t="s">
         <v>455</v>
@@ -11588,13 +11588,13 @@
         <v>42998</v>
       </c>
       <c r="G108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H108" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I108" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J108" s="2">
         <v>43710</v>
@@ -12562,10 +12562,10 @@
         <v>651</v>
       </c>
       <c r="H121" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="I121" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J121" s="2">
         <v>43070</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="122" spans="1:48">
       <c r="A122" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
         <v>86</v>
@@ -12630,72 +12630,69 @@
         <v>498</v>
       </c>
       <c r="F122" s="2">
-        <v>43249</v>
+        <v>43091</v>
       </c>
       <c r="G122" t="s">
         <v>652</v>
       </c>
       <c r="H122" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="I122" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="J122" s="2">
-        <v>43900</v>
+        <v>43647</v>
       </c>
       <c r="K122">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="L122" s="2">
-        <v>43956</v>
+        <v>44196</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="N122">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>97.75</v>
       </c>
       <c r="R122">
-        <v>90</v>
-      </c>
-      <c r="AF122" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG122" t="b">
+        <v>1249.75</v>
+      </c>
+      <c r="AA122" t="b">
         <v>1</v>
       </c>
       <c r="AR122">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS122">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT122">
         <v>0</v>
       </c>
       <c r="AU122" s="2">
-        <v>43900</v>
+        <v>43831</v>
       </c>
       <c r="AV122" s="2">
-        <v>43956</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="123" spans="1:48">
       <c r="A123" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C123" t="s">
         <v>263</v>
@@ -12704,34 +12701,34 @@
         <v>455</v>
       </c>
       <c r="E123" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F123" s="2">
-        <v>43315</v>
+        <v>43249</v>
       </c>
       <c r="G123" t="s">
         <v>653</v>
       </c>
       <c r="H123" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="I123" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="J123" s="2">
-        <v>43683</v>
+        <v>43900</v>
       </c>
       <c r="K123">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="L123" s="2">
-        <v>43968</v>
+        <v>43956</v>
       </c>
       <c r="M123">
-        <v>99.5</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>144.75</v>
+        <v>90</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -12740,12 +12737,15 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>66.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>310.5</v>
-      </c>
-      <c r="AC123" t="b">
+        <v>90</v>
+      </c>
+      <c r="AF123" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG123" t="b">
         <v>1</v>
       </c>
       <c r="AR123">
@@ -12758,10 +12758,10 @@
         <v>0</v>
       </c>
       <c r="AU123" s="2">
-        <v>43831</v>
+        <v>43900</v>
       </c>
       <c r="AV123" s="2">
-        <v>43968</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="124" spans="1:48">
@@ -12781,52 +12781,52 @@
         <v>499</v>
       </c>
       <c r="F124" s="2">
-        <v>43091</v>
+        <v>43315</v>
       </c>
       <c r="G124" t="s">
         <v>654</v>
       </c>
       <c r="H124" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
       <c r="I124" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="J124" s="2">
-        <v>43647</v>
+        <v>43683</v>
       </c>
       <c r="K124">
-        <v>366</v>
+        <v>138</v>
       </c>
       <c r="L124" s="2">
-        <v>44196</v>
+        <v>43968</v>
       </c>
       <c r="M124">
-        <v>888</v>
+        <v>99.5</v>
       </c>
       <c r="N124">
-        <v>264</v>
+        <v>144.75</v>
       </c>
       <c r="O124">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>97.75</v>
+        <v>66.25</v>
       </c>
       <c r="R124">
-        <v>1249.75</v>
-      </c>
-      <c r="AA124" t="b">
+        <v>310.5</v>
+      </c>
+      <c r="AC124" t="b">
         <v>1</v>
       </c>
       <c r="AR124">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS124">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT124">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>43831</v>
       </c>
       <c r="AV124" s="2">
-        <v>44196</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="125" spans="1:48">
@@ -13533,7 +13533,7 @@
         <v>661</v>
       </c>
       <c r="H134" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="I134" t="s">
         <v>504</v>
@@ -13607,7 +13607,7 @@
         <v>662</v>
       </c>
       <c r="H135" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="I135" t="s">
         <v>504</v>
@@ -13681,7 +13681,7 @@
         <v>663</v>
       </c>
       <c r="H136" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="I136" t="s">
         <v>504</v>
@@ -13888,7 +13888,7 @@
         <v>93</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D139" t="s">
         <v>455</v>
@@ -13900,7 +13900,7 @@
         <v>42809</v>
       </c>
       <c r="G139" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H139" t="s">
         <v>884</v>
@@ -14714,7 +14714,7 @@
         <v>98</v>
       </c>
       <c r="C150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D150" t="s">
         <v>455</v>
@@ -14726,10 +14726,10 @@
         <v>43367</v>
       </c>
       <c r="G150" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H150" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I150" t="s">
         <v>512</v>
@@ -15531,7 +15531,7 @@
         <v>100</v>
       </c>
       <c r="C161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D161" t="s">
         <v>455</v>
@@ -15543,10 +15543,10 @@
         <v>42861</v>
       </c>
       <c r="G161" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H161" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I161" t="s">
         <v>512</v>
@@ -16147,7 +16147,7 @@
         <v>915</v>
       </c>
       <c r="I169" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J169" s="2">
         <v>43678</v>
@@ -19693,7 +19693,7 @@
     </row>
     <row r="217" spans="1:48">
       <c r="A217" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
         <v>119</v>
@@ -19708,45 +19708,45 @@
         <v>528</v>
       </c>
       <c r="F217" s="2">
-        <v>43021</v>
+        <v>42960</v>
       </c>
       <c r="G217" t="s">
         <v>731</v>
       </c>
       <c r="H217" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="I217" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="J217" s="2">
-        <v>43332</v>
+        <v>43661</v>
       </c>
       <c r="K217">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="L217" s="2">
-        <v>44092</v>
+        <v>43976</v>
       </c>
       <c r="M217">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="N217">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="O217">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="P217">
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>19.75</v>
+        <v>256</v>
       </c>
       <c r="R217">
-        <v>656.75</v>
-      </c>
-      <c r="AA217" t="b">
+        <v>569</v>
+      </c>
+      <c r="AM217" t="b">
         <v>1</v>
       </c>
       <c r="AR217">
@@ -19762,15 +19762,15 @@
         <v>43831</v>
       </c>
       <c r="AV217" s="2">
-        <v>44092</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="218" spans="1:48">
       <c r="A218" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C218" t="s">
         <v>343</v>
@@ -19779,10 +19779,10 @@
         <v>458</v>
       </c>
       <c r="E218" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F218" s="2">
-        <v>43034</v>
+        <v>43021</v>
       </c>
       <c r="G218" t="s">
         <v>732</v>
@@ -19794,7 +19794,7 @@
         <v>1013</v>
       </c>
       <c r="J218" s="2">
-        <v>43717</v>
+        <v>43332</v>
       </c>
       <c r="K218">
         <v>262</v>
@@ -19803,22 +19803,22 @@
         <v>44092</v>
       </c>
       <c r="M218">
-        <v>514.75</v>
+        <v>409</v>
       </c>
       <c r="N218">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="O218">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="P218">
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>-18.75</v>
+        <v>19.75</v>
       </c>
       <c r="R218">
-        <v>767</v>
+        <v>656.75</v>
       </c>
       <c r="AA218" t="b">
         <v>1</v>
@@ -19841,10 +19841,10 @@
     </row>
     <row r="219" spans="1:48">
       <c r="A219" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C219" t="s">
         <v>344</v>
@@ -19853,22 +19853,22 @@
         <v>458</v>
       </c>
       <c r="E219" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F219" s="2">
-        <v>43052</v>
+        <v>43034</v>
       </c>
       <c r="G219" t="s">
         <v>733</v>
       </c>
       <c r="H219" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I219" t="s">
         <v>1013</v>
       </c>
       <c r="J219" s="2">
-        <v>43248</v>
+        <v>43717</v>
       </c>
       <c r="K219">
         <v>262</v>
@@ -19877,22 +19877,22 @@
         <v>44092</v>
       </c>
       <c r="M219">
-        <v>333.5</v>
+        <v>514.75</v>
       </c>
       <c r="N219">
         <v>271</v>
       </c>
       <c r="O219">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>113.5</v>
+        <v>-18.75</v>
       </c>
       <c r="R219">
-        <v>718</v>
+        <v>767</v>
       </c>
       <c r="AA219" t="b">
         <v>1</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="220" spans="1:48">
       <c r="A220" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
         <v>120</v>
@@ -19930,45 +19930,45 @@
         <v>529</v>
       </c>
       <c r="F220" s="2">
-        <v>42960</v>
+        <v>43052</v>
       </c>
       <c r="G220" t="s">
         <v>734</v>
       </c>
       <c r="H220" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="I220" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="J220" s="2">
-        <v>43661</v>
+        <v>43248</v>
       </c>
       <c r="K220">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="L220" s="2">
-        <v>43976</v>
+        <v>44092</v>
       </c>
       <c r="M220">
-        <v>113</v>
+        <v>333.5</v>
       </c>
       <c r="N220">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="O220">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="P220">
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>256</v>
+        <v>113.5</v>
       </c>
       <c r="R220">
-        <v>569</v>
-      </c>
-      <c r="AM220" t="b">
+        <v>718</v>
+      </c>
+      <c r="AA220" t="b">
         <v>1</v>
       </c>
       <c r="AR220">
@@ -19984,7 +19984,7 @@
         <v>43831</v>
       </c>
       <c r="AV220" s="2">
-        <v>43976</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="221" spans="1:48">
@@ -22908,7 +22908,7 @@
     </row>
     <row r="260" spans="1:48">
       <c r="A260" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B260" t="s">
         <v>129</v>
@@ -22920,10 +22920,10 @@
         <v>458</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="F260" s="2">
-        <v>42782</v>
+        <v>42926</v>
       </c>
       <c r="G260" t="s">
         <v>770</v>
@@ -22935,33 +22935,33 @@
         <v>1022</v>
       </c>
       <c r="J260" s="2">
-        <v>43723</v>
+        <v>43213</v>
       </c>
       <c r="K260">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L260" s="2">
-        <v>44071</v>
+        <v>44095</v>
       </c>
       <c r="M260">
-        <v>256</v>
+        <v>875</v>
       </c>
       <c r="N260">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="O260">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="P260">
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>-15</v>
+        <v>-133.75</v>
       </c>
       <c r="R260">
-        <v>385</v>
-      </c>
-      <c r="Z260" t="b">
+        <v>1089.25</v>
+      </c>
+      <c r="AA260" t="b">
         <v>1</v>
       </c>
       <c r="AR260">
@@ -22977,12 +22977,12 @@
         <v>43831</v>
       </c>
       <c r="AV260" s="2">
-        <v>44071</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="261" spans="1:48">
       <c r="A261" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B261" t="s">
         <v>129</v>
@@ -22994,10 +22994,10 @@
         <v>458</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="F261" s="2">
-        <v>43161</v>
+        <v>42593</v>
       </c>
       <c r="G261" t="s">
         <v>771</v>
@@ -23009,60 +23009,57 @@
         <v>1022</v>
       </c>
       <c r="J261" s="2">
-        <v>44144</v>
+        <v>42982</v>
       </c>
       <c r="K261">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="L261" s="2">
-        <v>44435</v>
+        <v>44050</v>
       </c>
       <c r="M261">
-        <v>79.25</v>
+        <v>244.75</v>
       </c>
       <c r="N261">
-        <v>29.75</v>
+        <v>168</v>
       </c>
       <c r="O261">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="P261">
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>41.75</v>
       </c>
       <c r="R261">
-        <v>96.25</v>
-      </c>
-      <c r="AJ261" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN261" t="b">
+        <v>454.5</v>
+      </c>
+      <c r="Z261" t="b">
         <v>1</v>
       </c>
       <c r="AR261">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS261">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT261">
         <v>0</v>
       </c>
       <c r="AU261" s="2">
-        <v>44144</v>
+        <v>43831</v>
       </c>
       <c r="AV261" s="2">
-        <v>44196</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="262" spans="1:48">
       <c r="A262" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C262" t="s">
         <v>386</v>
@@ -23071,10 +23068,10 @@
         <v>458</v>
       </c>
       <c r="E262" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F262" s="2">
-        <v>42926</v>
+        <v>42873</v>
       </c>
       <c r="G262" t="s">
         <v>772</v>
@@ -23086,31 +23083,31 @@
         <v>1022</v>
       </c>
       <c r="J262" s="2">
-        <v>43213</v>
+        <v>43353</v>
       </c>
       <c r="K262">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L262" s="2">
-        <v>44095</v>
+        <v>44092</v>
       </c>
       <c r="M262">
-        <v>875</v>
+        <v>588.25</v>
       </c>
       <c r="N262">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="O262">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="P262">
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>-133.75</v>
+        <v>-7.25</v>
       </c>
       <c r="R262">
-        <v>1089.25</v>
+        <v>887</v>
       </c>
       <c r="AA262" t="b">
         <v>1</v>
@@ -23128,12 +23125,12 @@
         <v>43831</v>
       </c>
       <c r="AV262" s="2">
-        <v>44095</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="263" spans="1:48">
       <c r="A263" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B263" t="s">
         <v>130</v>
@@ -23145,10 +23142,10 @@
         <v>458</v>
       </c>
       <c r="E263" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="F263" s="2">
-        <v>42593</v>
+        <v>42782</v>
       </c>
       <c r="G263" t="s">
         <v>773</v>
@@ -23160,31 +23157,31 @@
         <v>1022</v>
       </c>
       <c r="J263" s="2">
-        <v>42982</v>
+        <v>43723</v>
       </c>
       <c r="K263">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L263" s="2">
-        <v>44050</v>
+        <v>44071</v>
       </c>
       <c r="M263">
-        <v>244.75</v>
+        <v>256</v>
       </c>
       <c r="N263">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="O263">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="P263">
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>41.75</v>
+        <v>-15</v>
       </c>
       <c r="R263">
-        <v>454.5</v>
+        <v>385</v>
       </c>
       <c r="Z263" t="b">
         <v>1</v>
@@ -23202,12 +23199,12 @@
         <v>43831</v>
       </c>
       <c r="AV263" s="2">
-        <v>44050</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="264" spans="1:48">
       <c r="A264" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
         <v>130</v>
@@ -23219,10 +23216,10 @@
         <v>458</v>
       </c>
       <c r="E264" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="F264" s="2">
-        <v>42873</v>
+        <v>43161</v>
       </c>
       <c r="G264" t="s">
         <v>774</v>
@@ -23234,49 +23231,52 @@
         <v>1022</v>
       </c>
       <c r="J264" s="2">
-        <v>43353</v>
+        <v>44144</v>
       </c>
       <c r="K264">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="L264" s="2">
-        <v>44092</v>
+        <v>44435</v>
       </c>
       <c r="M264">
-        <v>588.25</v>
+        <v>79.25</v>
       </c>
       <c r="N264">
-        <v>306</v>
+        <v>29.75</v>
       </c>
       <c r="O264">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="P264">
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>-7.25</v>
+        <v>0</v>
       </c>
       <c r="R264">
-        <v>887</v>
-      </c>
-      <c r="AA264" t="b">
+        <v>96.25</v>
+      </c>
+      <c r="AJ264" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN264" t="b">
         <v>1</v>
       </c>
       <c r="AR264">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS264">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT264">
         <v>0</v>
       </c>
       <c r="AU264" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AV264" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="265" spans="1:48">
@@ -24406,7 +24406,7 @@
     </row>
     <row r="280" spans="1:48">
       <c r="A280" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B280" t="s">
         <v>137</v>
@@ -24418,10 +24418,10 @@
         <v>458</v>
       </c>
       <c r="E280" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="F280" s="2">
-        <v>42925</v>
+        <v>42753</v>
       </c>
       <c r="G280" t="s">
         <v>787</v>
@@ -24430,36 +24430,36 @@
         <v>972</v>
       </c>
       <c r="I280" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="J280" s="2">
-        <v>43759</v>
+        <v>43129</v>
       </c>
       <c r="K280">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="L280" s="2">
-        <v>44155</v>
+        <v>44071</v>
       </c>
       <c r="M280">
-        <v>469.25</v>
+        <v>235.5</v>
       </c>
       <c r="N280">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="O280">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="P280">
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>24</v>
+        <v>-18.5</v>
       </c>
       <c r="R280">
-        <v>703.25</v>
-      </c>
-      <c r="AA280" t="b">
+        <v>380</v>
+      </c>
+      <c r="Z280" t="b">
         <v>1</v>
       </c>
       <c r="AR280">
@@ -24475,15 +24475,15 @@
         <v>43831</v>
       </c>
       <c r="AV280" s="2">
-        <v>44155</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="281" spans="1:48">
       <c r="A281" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C281" t="s">
         <v>405</v>
@@ -24495,19 +24495,19 @@
         <v>512</v>
       </c>
       <c r="F281" s="2">
-        <v>42876</v>
+        <v>42925</v>
       </c>
       <c r="G281" t="s">
         <v>788</v>
       </c>
       <c r="H281" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I281" t="s">
         <v>1014</v>
       </c>
       <c r="J281" s="2">
-        <v>43332</v>
+        <v>43759</v>
       </c>
       <c r="K281">
         <v>325</v>
@@ -24516,22 +24516,22 @@
         <v>44155</v>
       </c>
       <c r="M281">
-        <v>507.25</v>
+        <v>469.25</v>
       </c>
       <c r="N281">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O281">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P281">
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>-11.25</v>
+        <v>24</v>
       </c>
       <c r="R281">
-        <v>696</v>
+        <v>703.25</v>
       </c>
       <c r="AA281" t="b">
         <v>1</v>
@@ -24554,10 +24554,10 @@
     </row>
     <row r="282" spans="1:48">
       <c r="A282" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B282" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C282" t="s">
         <v>406</v>
@@ -24569,7 +24569,7 @@
         <v>512</v>
       </c>
       <c r="F282" s="2">
-        <v>43338</v>
+        <v>42876</v>
       </c>
       <c r="G282" t="s">
         <v>789</v>
@@ -24578,46 +24578,43 @@
         <v>973</v>
       </c>
       <c r="I282" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="J282" s="2">
-        <v>43724</v>
+        <v>43332</v>
       </c>
       <c r="K282">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="L282" s="2">
-        <v>44435</v>
+        <v>44155</v>
       </c>
       <c r="M282">
-        <v>149.5</v>
+        <v>507.25</v>
       </c>
       <c r="N282">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O282">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="P282">
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-11.25</v>
       </c>
       <c r="R282">
-        <v>149.5</v>
-      </c>
-      <c r="AM282" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN282" t="b">
+        <v>696</v>
+      </c>
+      <c r="AA282" t="b">
         <v>1</v>
       </c>
       <c r="AR282">
         <v>74</v>
       </c>
       <c r="AS282">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT282">
         <v>0</v>
@@ -24626,15 +24623,15 @@
         <v>43831</v>
       </c>
       <c r="AV282" s="2">
-        <v>44196</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="283" spans="1:48">
       <c r="A283" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B283" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C283" t="s">
         <v>407</v>
@@ -24646,7 +24643,7 @@
         <v>512</v>
       </c>
       <c r="F283" s="2">
-        <v>43748</v>
+        <v>43338</v>
       </c>
       <c r="G283" t="s">
         <v>790</v>
@@ -24655,40 +24652,43 @@
         <v>974</v>
       </c>
       <c r="I283" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="J283" s="2">
-        <v>43934</v>
+        <v>43724</v>
       </c>
       <c r="K283">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="L283" s="2">
-        <v>44806</v>
+        <v>44435</v>
       </c>
       <c r="M283">
-        <v>439</v>
+        <v>149.5</v>
       </c>
       <c r="N283">
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="O283">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="P283">
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>-106.75</v>
+        <v>0</v>
       </c>
       <c r="R283">
-        <v>360.5</v>
-      </c>
-      <c r="AG283" t="b">
+        <v>149.5</v>
+      </c>
+      <c r="AM283" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN283" t="b">
         <v>1</v>
       </c>
       <c r="AR283">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS283">
         <v>8</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="AU283" s="2">
-        <v>43934</v>
+        <v>43831</v>
       </c>
       <c r="AV283" s="2">
         <v>44196</v>
@@ -24705,10 +24705,10 @@
     </row>
     <row r="284" spans="1:48">
       <c r="A284" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C284" t="s">
         <v>408</v>
@@ -24720,69 +24720,69 @@
         <v>512</v>
       </c>
       <c r="F284" s="2">
-        <v>42790</v>
+        <v>43748</v>
       </c>
       <c r="G284" t="s">
         <v>791</v>
       </c>
       <c r="H284" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I284" t="s">
         <v>1014</v>
       </c>
       <c r="J284" s="2">
-        <v>43339</v>
+        <v>43934</v>
       </c>
       <c r="K284">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L284" s="2">
-        <v>44092</v>
+        <v>44806</v>
       </c>
       <c r="M284">
-        <v>479.75</v>
+        <v>439</v>
       </c>
       <c r="N284">
-        <v>150</v>
+        <v>28.25</v>
       </c>
       <c r="O284">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="P284">
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>-57.25</v>
+        <v>-106.75</v>
       </c>
       <c r="R284">
-        <v>572.5</v>
-      </c>
-      <c r="Z284" t="b">
+        <v>360.5</v>
+      </c>
+      <c r="AG284" t="b">
         <v>1</v>
       </c>
       <c r="AR284">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS284">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT284">
         <v>0</v>
       </c>
       <c r="AU284" s="2">
-        <v>43831</v>
+        <v>43934</v>
       </c>
       <c r="AV284" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="285" spans="1:48">
       <c r="A285" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B285" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C285" t="s">
         <v>409</v>
@@ -24794,7 +24794,7 @@
         <v>512</v>
       </c>
       <c r="F285" s="2">
-        <v>42769</v>
+        <v>42790</v>
       </c>
       <c r="G285" t="s">
         <v>792</v>
@@ -24806,31 +24806,31 @@
         <v>1014</v>
       </c>
       <c r="J285" s="2">
-        <v>43374</v>
+        <v>43339</v>
       </c>
       <c r="K285">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="L285" s="2">
-        <v>44012</v>
+        <v>44092</v>
       </c>
       <c r="M285">
-        <v>144</v>
+        <v>479.75</v>
       </c>
       <c r="N285">
-        <v>374</v>
+        <v>150</v>
       </c>
       <c r="O285">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="P285">
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>-57.25</v>
       </c>
       <c r="R285">
-        <v>518</v>
+        <v>572.5</v>
       </c>
       <c r="Z285" t="b">
         <v>1</v>
@@ -24848,15 +24848,15 @@
         <v>43831</v>
       </c>
       <c r="AV285" s="2">
-        <v>44012</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="286" spans="1:48">
       <c r="A286" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B286" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C286" t="s">
         <v>410</v>
@@ -24868,7 +24868,7 @@
         <v>512</v>
       </c>
       <c r="F286" s="2">
-        <v>43705</v>
+        <v>42769</v>
       </c>
       <c r="G286" t="s">
         <v>793</v>
@@ -24880,22 +24880,22 @@
         <v>1014</v>
       </c>
       <c r="J286" s="2">
-        <v>44088</v>
+        <v>43374</v>
       </c>
       <c r="K286">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="L286" s="2">
-        <v>44806</v>
+        <v>44012</v>
       </c>
       <c r="M286">
-        <v>188.5</v>
+        <v>144</v>
       </c>
       <c r="N286">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="O286">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="P286">
         <v>0</v>
@@ -24904,36 +24904,33 @@
         <v>0</v>
       </c>
       <c r="R286">
-        <v>206.5</v>
-      </c>
-      <c r="T286" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN286" t="b">
+        <v>518</v>
+      </c>
+      <c r="Z286" t="b">
         <v>1</v>
       </c>
       <c r="AR286">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS286">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT286">
         <v>0</v>
       </c>
       <c r="AU286" s="2">
-        <v>44088</v>
+        <v>43831</v>
       </c>
       <c r="AV286" s="2">
-        <v>44196</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="287" spans="1:48">
       <c r="A287" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B287" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C287" t="s">
         <v>411</v>
@@ -24945,34 +24942,34 @@
         <v>512</v>
       </c>
       <c r="F287" s="2">
-        <v>42754</v>
+        <v>43705</v>
       </c>
       <c r="G287" t="s">
         <v>794</v>
       </c>
       <c r="H287" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I287" t="s">
         <v>1014</v>
       </c>
       <c r="J287" s="2">
-        <v>43122</v>
+        <v>44088</v>
       </c>
       <c r="K287">
-        <v>366</v>
+        <v>109</v>
       </c>
       <c r="L287" s="2">
-        <v>44240</v>
+        <v>44806</v>
       </c>
       <c r="M287">
-        <v>77.5</v>
+        <v>188.5</v>
       </c>
       <c r="N287">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O287">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P287">
         <v>0</v>
@@ -24981,16 +24978,16 @@
         <v>0</v>
       </c>
       <c r="R287">
-        <v>77.5</v>
-      </c>
-      <c r="Y287" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z287" t="b">
+        <v>206.5</v>
+      </c>
+      <c r="T287" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN287" t="b">
         <v>1</v>
       </c>
       <c r="AR287">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS287">
         <v>8</v>
@@ -24999,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="AU287" s="2">
-        <v>43831</v>
+        <v>44088</v>
       </c>
       <c r="AV287" s="2">
         <v>44196</v>
@@ -25007,10 +25004,10 @@
     </row>
     <row r="288" spans="1:48">
       <c r="A288" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B288" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C288" t="s">
         <v>412</v>
@@ -25022,34 +25019,34 @@
         <v>512</v>
       </c>
       <c r="F288" s="2">
-        <v>42774</v>
+        <v>42754</v>
       </c>
       <c r="G288" t="s">
-        <v>678</v>
+        <v>795</v>
       </c>
       <c r="H288" t="s">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="I288" t="s">
         <v>1014</v>
       </c>
       <c r="J288" s="2">
-        <v>43074</v>
+        <v>43122</v>
       </c>
       <c r="K288">
-        <v>182</v>
+        <v>366</v>
       </c>
       <c r="L288" s="2">
-        <v>44012</v>
+        <v>44240</v>
       </c>
       <c r="M288">
-        <v>190</v>
+        <v>77.5</v>
       </c>
       <c r="N288">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="O288">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="P288">
         <v>0</v>
@@ -25058,7 +25055,10 @@
         <v>0</v>
       </c>
       <c r="R288">
-        <v>570</v>
+        <v>77.5</v>
+      </c>
+      <c r="Y288" t="b">
+        <v>1</v>
       </c>
       <c r="Z288" t="b">
         <v>1</v>
@@ -25067,7 +25067,7 @@
         <v>74</v>
       </c>
       <c r="AS288">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT288">
         <v>0</v>
@@ -25076,15 +25076,15 @@
         <v>43831</v>
       </c>
       <c r="AV288" s="2">
-        <v>44012</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="289" spans="1:48">
       <c r="A289" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B289" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C289" t="s">
         <v>413</v>
@@ -25096,34 +25096,34 @@
         <v>512</v>
       </c>
       <c r="F289" s="2">
-        <v>43285</v>
+        <v>42774</v>
       </c>
       <c r="G289" t="s">
-        <v>795</v>
+        <v>678</v>
       </c>
       <c r="H289" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
       <c r="I289" t="s">
         <v>1014</v>
       </c>
       <c r="J289" s="2">
-        <v>44137</v>
+        <v>43074</v>
       </c>
       <c r="K289">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="L289" s="2">
-        <v>44470</v>
+        <v>44012</v>
       </c>
       <c r="M289">
-        <v>130.5</v>
+        <v>190</v>
       </c>
       <c r="N289">
-        <v>16.5</v>
+        <v>380</v>
       </c>
       <c r="O289">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="P289">
         <v>0</v>
@@ -25132,33 +25132,33 @@
         <v>0</v>
       </c>
       <c r="R289">
-        <v>147</v>
-      </c>
-      <c r="AJ289" t="b">
+        <v>570</v>
+      </c>
+      <c r="Z289" t="b">
         <v>1</v>
       </c>
       <c r="AR289">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS289">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT289">
         <v>0</v>
       </c>
       <c r="AU289" s="2">
-        <v>44137</v>
+        <v>43831</v>
       </c>
       <c r="AV289" s="2">
-        <v>44196</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="290" spans="1:48">
       <c r="A290" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C290" t="s">
         <v>414</v>
@@ -25170,7 +25170,7 @@
         <v>512</v>
       </c>
       <c r="F290" s="2">
-        <v>42438</v>
+        <v>43285</v>
       </c>
       <c r="G290" t="s">
         <v>796</v>
@@ -25179,25 +25179,25 @@
         <v>978</v>
       </c>
       <c r="I290" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="J290" s="2">
-        <v>43885</v>
+        <v>44137</v>
       </c>
       <c r="K290">
-        <v>312</v>
+        <v>60</v>
       </c>
       <c r="L290" s="2">
-        <v>44813</v>
+        <v>44470</v>
       </c>
       <c r="M290">
-        <v>0</v>
+        <v>130.5</v>
       </c>
       <c r="N290">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O290">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P290">
         <v>0</v>
@@ -25206,22 +25206,22 @@
         <v>0</v>
       </c>
       <c r="R290">
-        <v>0</v>
-      </c>
-      <c r="AO290" t="b">
+        <v>147</v>
+      </c>
+      <c r="AJ290" t="b">
         <v>1</v>
       </c>
       <c r="AR290">
         <v>0</v>
       </c>
       <c r="AS290">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT290">
         <v>0</v>
       </c>
       <c r="AU290" s="2">
-        <v>43885</v>
+        <v>44137</v>
       </c>
       <c r="AV290" s="2">
         <v>44196</v>
@@ -25229,10 +25229,10 @@
     </row>
     <row r="291" spans="1:48">
       <c r="A291" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B291" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C291" t="s">
         <v>415</v>
@@ -25244,25 +25244,25 @@
         <v>512</v>
       </c>
       <c r="F291" s="2">
-        <v>42117</v>
+        <v>42438</v>
       </c>
       <c r="G291" t="s">
         <v>797</v>
       </c>
       <c r="H291" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="I291" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="J291" s="2">
-        <v>42430</v>
+        <v>43885</v>
       </c>
       <c r="K291">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="L291" s="2">
-        <v>44439</v>
+        <v>44813</v>
       </c>
       <c r="M291">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="AU291" s="2">
-        <v>43831</v>
+        <v>43885</v>
       </c>
       <c r="AV291" s="2">
         <v>44196</v>
@@ -25303,10 +25303,10 @@
     </row>
     <row r="292" spans="1:48">
       <c r="A292" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B292" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C292" t="s">
         <v>416</v>
@@ -25318,55 +25318,52 @@
         <v>512</v>
       </c>
       <c r="F292" s="2">
-        <v>43013</v>
+        <v>42117</v>
       </c>
       <c r="G292" t="s">
         <v>798</v>
       </c>
       <c r="H292" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="I292" t="s">
         <v>1014</v>
       </c>
       <c r="J292" s="2">
-        <v>43745</v>
+        <v>42430</v>
       </c>
       <c r="K292">
         <v>366</v>
       </c>
       <c r="L292" s="2">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="M292">
         <v>0</v>
       </c>
       <c r="N292">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O292">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P292">
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="R292">
-        <v>337.5</v>
-      </c>
-      <c r="AA292" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM292" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO292" t="b">
         <v>1</v>
       </c>
       <c r="AR292">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS292">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT292">
         <v>0</v>
@@ -25380,10 +25377,10 @@
     </row>
     <row r="293" spans="1:48">
       <c r="A293" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B293" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C293" t="s">
         <v>417</v>
@@ -25395,52 +25392,55 @@
         <v>512</v>
       </c>
       <c r="F293" s="2">
-        <v>42247</v>
+        <v>43013</v>
       </c>
       <c r="G293" t="s">
         <v>799</v>
       </c>
       <c r="H293" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I293" t="s">
         <v>1014</v>
       </c>
       <c r="J293" s="2">
-        <v>42415</v>
+        <v>43745</v>
       </c>
       <c r="K293">
         <v>366</v>
       </c>
       <c r="L293" s="2">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="M293">
         <v>0</v>
       </c>
       <c r="N293">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O293">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P293">
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="R293">
-        <v>0</v>
-      </c>
-      <c r="AO293" t="b">
+        <v>337.5</v>
+      </c>
+      <c r="AA293" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM293" t="b">
         <v>1</v>
       </c>
       <c r="AR293">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS293">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT293">
         <v>0</v>
@@ -25454,10 +25454,10 @@
     </row>
     <row r="294" spans="1:48">
       <c r="A294" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B294" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C294" t="s">
         <v>418</v>
@@ -25469,49 +25469,49 @@
         <v>512</v>
       </c>
       <c r="F294" s="2">
-        <v>42868</v>
+        <v>42247</v>
       </c>
       <c r="G294" t="s">
         <v>800</v>
       </c>
       <c r="H294" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I294" t="s">
         <v>1014</v>
       </c>
       <c r="J294" s="2">
-        <v>43234</v>
+        <v>42415</v>
       </c>
       <c r="K294">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="L294" s="2">
-        <v>44092</v>
+        <v>44439</v>
       </c>
       <c r="M294">
-        <v>459.5</v>
+        <v>0</v>
       </c>
       <c r="N294">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="O294">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="P294">
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R294">
-        <v>747.75</v>
-      </c>
-      <c r="AA294" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO294" t="b">
         <v>1</v>
       </c>
       <c r="AR294">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS294">
         <v>0</v>
@@ -25523,15 +25523,15 @@
         <v>43831</v>
       </c>
       <c r="AV294" s="2">
-        <v>44092</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="295" spans="1:48">
       <c r="A295" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B295" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C295" t="s">
         <v>419</v>
@@ -25543,49 +25543,49 @@
         <v>512</v>
       </c>
       <c r="F295" s="2">
-        <v>42205</v>
+        <v>42868</v>
       </c>
       <c r="G295" t="s">
         <v>801</v>
       </c>
       <c r="H295" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="I295" t="s">
         <v>1014</v>
       </c>
       <c r="J295" s="2">
-        <v>42625</v>
+        <v>43234</v>
       </c>
       <c r="K295">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="L295" s="2">
-        <v>44439</v>
+        <v>44092</v>
       </c>
       <c r="M295">
-        <v>0</v>
+        <v>459.5</v>
       </c>
       <c r="N295">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="O295">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="P295">
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R295">
-        <v>0</v>
-      </c>
-      <c r="AO295" t="b">
+        <v>747.75</v>
+      </c>
+      <c r="AA295" t="b">
         <v>1</v>
       </c>
       <c r="AR295">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS295">
         <v>0</v>
@@ -25597,15 +25597,15 @@
         <v>43831</v>
       </c>
       <c r="AV295" s="2">
-        <v>44196</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="296" spans="1:48">
       <c r="A296" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B296" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C296" t="s">
         <v>420</v>
@@ -25617,49 +25617,49 @@
         <v>512</v>
       </c>
       <c r="F296" s="2">
-        <v>42873</v>
+        <v>42205</v>
       </c>
       <c r="G296" t="s">
         <v>802</v>
       </c>
       <c r="H296" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I296" t="s">
         <v>1014</v>
       </c>
       <c r="J296" s="2">
-        <v>43185</v>
+        <v>42625</v>
       </c>
       <c r="K296">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="L296" s="2">
-        <v>44004</v>
+        <v>44439</v>
       </c>
       <c r="M296">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N296">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="O296">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="P296">
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>984</v>
-      </c>
-      <c r="AK296" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO296" t="b">
         <v>1</v>
       </c>
       <c r="AR296">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS296">
         <v>0</v>
@@ -25671,15 +25671,15 @@
         <v>43831</v>
       </c>
       <c r="AV296" s="2">
-        <v>44004</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="297" spans="1:48">
       <c r="A297" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B297" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C297" t="s">
         <v>421</v>
@@ -25691,52 +25691,52 @@
         <v>512</v>
       </c>
       <c r="F297" s="2">
-        <v>43120</v>
+        <v>42873</v>
       </c>
       <c r="G297" t="s">
         <v>803</v>
       </c>
       <c r="H297" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I297" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="J297" s="2">
-        <v>43535</v>
+        <v>43185</v>
       </c>
       <c r="K297">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="L297" s="2">
-        <v>44168</v>
+        <v>44004</v>
       </c>
       <c r="M297">
-        <v>698.5</v>
+        <v>240</v>
       </c>
       <c r="N297">
-        <v>220</v>
+        <v>408</v>
       </c>
       <c r="O297">
-        <v>233</v>
+        <v>418</v>
       </c>
       <c r="P297">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Q297">
-        <v>44.5</v>
+        <v>336</v>
       </c>
       <c r="R297">
-        <v>963</v>
-      </c>
-      <c r="T297" t="b">
+        <v>984</v>
+      </c>
+      <c r="AK297" t="b">
         <v>1</v>
       </c>
       <c r="AR297">
         <v>74</v>
       </c>
       <c r="AS297">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT297">
         <v>0</v>
@@ -25745,15 +25745,15 @@
         <v>43831</v>
       </c>
       <c r="AV297" s="2">
-        <v>44168</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="298" spans="1:48">
       <c r="A298" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B298" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C298" t="s">
         <v>422</v>
@@ -25765,52 +25765,52 @@
         <v>512</v>
       </c>
       <c r="F298" s="2">
-        <v>42071</v>
+        <v>43120</v>
       </c>
       <c r="G298" t="s">
         <v>804</v>
       </c>
       <c r="H298" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="I298" t="s">
         <v>1026</v>
       </c>
       <c r="J298" s="2">
-        <v>42430</v>
+        <v>43535</v>
       </c>
       <c r="K298">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="L298" s="2">
-        <v>44442</v>
+        <v>44168</v>
       </c>
       <c r="M298">
-        <v>0</v>
+        <v>698.5</v>
       </c>
       <c r="N298">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="O298">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="P298">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="R298">
-        <v>0</v>
-      </c>
-      <c r="AO298" t="b">
+        <v>963</v>
+      </c>
+      <c r="T298" t="b">
         <v>1</v>
       </c>
       <c r="AR298">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS298">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT298">
         <v>0</v>
@@ -25819,12 +25819,12 @@
         <v>43831</v>
       </c>
       <c r="AV298" s="2">
-        <v>44196</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="299" spans="1:48">
       <c r="A299" s="1">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B299" t="s">
         <v>138</v>
@@ -25836,52 +25836,52 @@
         <v>458</v>
       </c>
       <c r="E299" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="F299" s="2">
-        <v>42753</v>
+        <v>42071</v>
       </c>
       <c r="G299" t="s">
         <v>805</v>
       </c>
       <c r="H299" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I299" t="s">
         <v>1027</v>
       </c>
       <c r="J299" s="2">
-        <v>43129</v>
+        <v>42430</v>
       </c>
       <c r="K299">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="L299" s="2">
-        <v>44071</v>
+        <v>44442</v>
       </c>
       <c r="M299">
-        <v>235.5</v>
+        <v>0</v>
       </c>
       <c r="N299">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="O299">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="P299">
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>380</v>
-      </c>
-      <c r="Z299" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO299" t="b">
         <v>1</v>
       </c>
       <c r="AR299">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS299">
         <v>0</v>
@@ -25893,7 +25893,7 @@
         <v>43831</v>
       </c>
       <c r="AV299" s="2">
-        <v>44071</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="300" spans="1:48">
@@ -25910,7 +25910,7 @@
         <v>458</v>
       </c>
       <c r="E300" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F300" s="2">
         <v>43737</v>
@@ -25987,7 +25987,7 @@
         <v>458</v>
       </c>
       <c r="E301" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F301" s="2">
         <v>43003</v>
@@ -26070,7 +26070,7 @@
         <v>807</v>
       </c>
       <c r="H302" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="I302" t="s">
         <v>1014</v>
@@ -26147,7 +26147,7 @@
         <v>981</v>
       </c>
       <c r="I303" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J303" s="2">
         <v>43892</v>
@@ -26884,7 +26884,7 @@
         <v>458</v>
       </c>
       <c r="E313" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F313" s="2">
         <v>43404</v>
@@ -26896,7 +26896,7 @@
         <v>984</v>
       </c>
       <c r="I313" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J313" s="2">
         <v>43892</v>
@@ -26961,7 +26961,7 @@
         <v>458</v>
       </c>
       <c r="E314" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F314" s="2">
         <v>43494</v>
@@ -26973,7 +26973,7 @@
         <v>985</v>
       </c>
       <c r="I314" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J314" s="2">
         <v>43759</v>
@@ -27035,19 +27035,19 @@
         <v>458</v>
       </c>
       <c r="E315" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F315" s="2">
         <v>43338</v>
       </c>
       <c r="G315" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H315" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I315" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J315" s="2">
         <v>43724</v>
@@ -27109,7 +27109,7 @@
         <v>458</v>
       </c>
       <c r="E316" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F316" s="2">
         <v>42790</v>
@@ -27118,10 +27118,10 @@
         <v>816</v>
       </c>
       <c r="H316" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I316" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J316" s="2">
         <v>43332</v>
@@ -27183,7 +27183,7 @@
         <v>458</v>
       </c>
       <c r="E317" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F317" s="2">
         <v>42992</v>
@@ -27192,10 +27192,10 @@
         <v>817</v>
       </c>
       <c r="H317" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I317" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J317" s="2">
         <v>43178</v>
@@ -27257,7 +27257,7 @@
         <v>458</v>
       </c>
       <c r="E318" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F318" s="2">
         <v>43535</v>
@@ -27266,10 +27266,10 @@
         <v>818</v>
       </c>
       <c r="H318" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I318" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J318" s="2">
         <v>44151</v>
@@ -27473,7 +27473,7 @@
         <v>146</v>
       </c>
       <c r="C321" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D321" t="s">
         <v>458</v>
@@ -27485,7 +27485,7 @@
         <v>42960</v>
       </c>
       <c r="G321" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H321" t="s">
         <v>935</v>
@@ -27639,10 +27639,10 @@
         <v>822</v>
       </c>
       <c r="H323" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I323" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="J323" s="2">
         <v>42996</v>
@@ -27698,7 +27698,7 @@
         <v>148</v>
       </c>
       <c r="C324" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D324" t="s">
         <v>458</v>
@@ -27710,10 +27710,10 @@
         <v>43013</v>
       </c>
       <c r="G324" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H324" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I324" t="s">
         <v>1014</v>
@@ -27932,51 +27932,45 @@
         <v>542</v>
       </c>
       <c r="F327" s="2">
-        <v>43586</v>
+        <v>43079</v>
       </c>
       <c r="G327" t="s">
-        <v>747</v>
+        <v>825</v>
       </c>
       <c r="H327" t="s">
-        <v>950</v>
+        <v>989</v>
       </c>
       <c r="I327" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="J327" s="2">
-        <v>43878</v>
+        <v>43738</v>
       </c>
       <c r="K327">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="L327" s="2">
-        <v>44680</v>
+        <v>44196</v>
       </c>
       <c r="M327">
-        <v>53</v>
+        <v>623.75</v>
       </c>
       <c r="N327">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="O327">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="P327">
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="R327">
-        <v>462</v>
-      </c>
-      <c r="AH327" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI327" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM327" t="b">
+        <v>847.75</v>
+      </c>
+      <c r="AA327" t="b">
         <v>1</v>
       </c>
       <c r="AR327">
@@ -27989,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="AU327" s="2">
-        <v>43878</v>
+        <v>43831</v>
       </c>
       <c r="AV327" s="2">
         <v>44196</v>
@@ -27997,10 +27991,10 @@
     </row>
     <row r="328" spans="1:48">
       <c r="A328" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C328" t="s">
         <v>448</v>
@@ -28009,13 +28003,13 @@
         <v>458</v>
       </c>
       <c r="E328" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F328" s="2">
-        <v>43079</v>
+        <v>42710</v>
       </c>
       <c r="G328" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H328" t="s">
         <v>989</v>
@@ -28024,40 +28018,40 @@
         <v>1032</v>
       </c>
       <c r="J328" s="2">
-        <v>43738</v>
+        <v>43332</v>
       </c>
       <c r="K328">
-        <v>366</v>
+        <v>241</v>
       </c>
       <c r="L328" s="2">
-        <v>44196</v>
+        <v>44071</v>
       </c>
       <c r="M328">
-        <v>623.75</v>
+        <v>454.5</v>
       </c>
       <c r="N328">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O328">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="P328">
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>39</v>
+        <v>18.5</v>
       </c>
       <c r="R328">
-        <v>847.75</v>
-      </c>
-      <c r="AA328" t="b">
+        <v>699</v>
+      </c>
+      <c r="Z328" t="b">
         <v>1</v>
       </c>
       <c r="AR328">
         <v>74</v>
       </c>
       <c r="AS328">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT328">
         <v>0</v>
@@ -28066,12 +28060,12 @@
         <v>43831</v>
       </c>
       <c r="AV328" s="2">
-        <v>44196</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="329" spans="1:48">
       <c r="A329" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B329" t="s">
         <v>152</v>
@@ -28086,61 +28080,67 @@
         <v>543</v>
       </c>
       <c r="F329" s="2">
-        <v>42710</v>
+        <v>43586</v>
       </c>
       <c r="G329" t="s">
-        <v>826</v>
+        <v>747</v>
       </c>
       <c r="H329" t="s">
-        <v>989</v>
+        <v>950</v>
       </c>
       <c r="I329" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="J329" s="2">
-        <v>43332</v>
+        <v>43878</v>
       </c>
       <c r="K329">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="L329" s="2">
-        <v>44071</v>
+        <v>44680</v>
       </c>
       <c r="M329">
-        <v>454.5</v>
+        <v>53</v>
       </c>
       <c r="N329">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="O329">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="P329">
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>18.5</v>
+        <v>244</v>
       </c>
       <c r="R329">
-        <v>699</v>
-      </c>
-      <c r="Z329" t="b">
+        <v>462</v>
+      </c>
+      <c r="AH329" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI329" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM329" t="b">
         <v>1</v>
       </c>
       <c r="AR329">
         <v>74</v>
       </c>
       <c r="AS329">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT329">
         <v>0</v>
       </c>
       <c r="AU329" s="2">
-        <v>43831</v>
+        <v>43878</v>
       </c>
       <c r="AV329" s="2">
-        <v>44071</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="330" spans="1:48">
@@ -28169,7 +28169,7 @@
         <v>990</v>
       </c>
       <c r="I330" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="J330" s="2">
         <v>44102</v>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>filename</t>
   </si>
@@ -163,51 +163,12 @@
   </si>
   <si>
     <t>fineNorm</t>
-  </si>
-  <si>
-    <t>Report annuale Merano.xlsx</t>
-  </si>
-  <si>
-    <t>Report annuale Bz.xlsx</t>
-  </si>
-  <si>
-    <t>Gangemi Victoria Maria</t>
-  </si>
-  <si>
-    <t>Jasar Jonny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coooperativa Baobab </t>
-  </si>
-  <si>
-    <t>Cooperativa Baobab</t>
-  </si>
-  <si>
-    <t>Merano</t>
-  </si>
-  <si>
-    <t>Bolzano</t>
-  </si>
-  <si>
-    <t>GNGVTR17M54F132R</t>
-  </si>
-  <si>
-    <t>JSRJNY18B12A952P</t>
-  </si>
-  <si>
-    <t>Marcella Burgo</t>
-  </si>
-  <si>
-    <t>Ruth Perez Garcia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -260,12 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="B1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="2:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,154 +667,6 @@
       </c>
       <c r="AV1" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48">
-      <c r="A2" s="1">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42961</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43570</v>
-      </c>
-      <c r="K2">
-        <v>366</v>
-      </c>
-      <c r="L2" s="2">
-        <v>44333</v>
-      </c>
-      <c r="M2">
-        <v>682.3</v>
-      </c>
-      <c r="N2">
-        <v>323.5</v>
-      </c>
-      <c r="O2">
-        <v>225</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1005.8</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>74</v>
-      </c>
-      <c r="AS2">
-        <v>8</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>43831</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43143</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2">
-        <v>43892</v>
-      </c>
-      <c r="K3">
-        <v>305</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44443</v>
-      </c>
-      <c r="M3">
-        <v>425.5</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>120</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>437.5</v>
-      </c>
-      <c r="AI3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>74</v>
-      </c>
-      <c r="AS3">
-        <v>8</v>
-      </c>
-      <c r="AT3">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>43892</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>44196</v>
       </c>
     </row>
   </sheetData>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -213,12 +213,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Kaltern.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Kastelbell-Tschars.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Karneid.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Kastelbell-Tschars.xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Kastelruth.xlsx</t>
   </si>
   <si>
@@ -237,12 +237,12 @@
     <t>Erklärung Gemeinden Jahr 2020 Leifers.xlsx</t>
   </si>
   <si>
+    <t>Erklärung Gemeinden Jahr 2020 Mals i. V..xlsx</t>
+  </si>
+  <si>
     <t>Erklärung Gemeinden Jahr 2020 Margreid.xlsx</t>
   </si>
   <si>
-    <t>Erklärung Gemeinden Jahr 2020 Mals i. V..xlsx</t>
-  </si>
-  <si>
     <t>Erklärung Gemeinden Jahr 2020 Marling.xlsx</t>
   </si>
   <si>
@@ -477,15 +477,15 @@
     <t>Sinn Sebastian</t>
   </si>
   <si>
+    <t>Corduneanu Dorian *</t>
+  </si>
+  <si>
     <t>Bozzano Pietro</t>
   </si>
   <si>
     <t>Rieder Fabian</t>
   </si>
   <si>
-    <t>Corduneanu Dorian *</t>
-  </si>
-  <si>
     <t>Gostner Noah</t>
   </si>
   <si>
@@ -858,12 +858,12 @@
     <t>Kaltern</t>
   </si>
   <si>
+    <t>Kastelbell-Tschars</t>
+  </si>
+  <si>
     <t>Karneid</t>
   </si>
   <si>
-    <t>Kastelbell-Tschars</t>
-  </si>
-  <si>
     <t>Kastelruth</t>
   </si>
   <si>
@@ -882,12 +882,12 @@
     <t>Leifers</t>
   </si>
   <si>
+    <t>Mals i. V.</t>
+  </si>
+  <si>
     <t>Margreid</t>
   </si>
   <si>
-    <t>Mals i. V.</t>
-  </si>
-  <si>
     <t>Marling</t>
   </si>
   <si>
@@ -1122,15 +1122,15 @@
     <t>SNNSST19C22A952Q</t>
   </si>
   <si>
+    <t>CRDDRN17D05I729Y</t>
+  </si>
+  <si>
     <t>BZZPTR17A26B160X</t>
   </si>
   <si>
     <t>RDRFBN17A08B160U</t>
   </si>
   <si>
-    <t>CRDDRN17D05I729Y</t>
-  </si>
-  <si>
     <t>GSTNHO17T18B160K</t>
   </si>
   <si>
@@ -1548,10 +1548,10 @@
     <t>Peterlin Verena</t>
   </si>
   <si>
+    <t>Prantl Stefanie</t>
+  </si>
+  <si>
     <t>Covi Sibylle</t>
-  </si>
-  <si>
-    <t>Prantl Stefanie</t>
   </si>
   <si>
     <t>Bernard  Nadine</t>
@@ -2810,7 +2810,7 @@
         <v>482</v>
       </c>
       <c r="I9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J9" s="2">
         <v>44144</v>
@@ -4296,7 +4296,7 @@
         <v>496</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J29" s="2">
         <v>44075</v>
@@ -5560,7 +5560,7 @@
         <v>278</v>
       </c>
       <c r="F46" s="2">
-        <v>42761</v>
+        <v>42830</v>
       </c>
       <c r="G46" t="s">
         <v>366</v>
@@ -5569,10 +5569,10 @@
         <v>508</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>566</v>
       </c>
       <c r="J46" s="2">
-        <v>43381</v>
+        <v>43105</v>
       </c>
       <c r="K46">
         <v>127</v>
@@ -5581,10 +5581,10 @@
         <v>43957</v>
       </c>
       <c r="M46">
-        <v>174</v>
+        <v>151.5</v>
       </c>
       <c r="N46">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -5596,9 +5596,9 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>384</v>
-      </c>
-      <c r="Z46" t="b">
+        <v>259.5</v>
+      </c>
+      <c r="AN46" t="b">
         <v>1</v>
       </c>
       <c r="AR46">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>152</v>
@@ -5631,34 +5631,34 @@
         <v>261</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F47" s="2">
-        <v>42743</v>
+        <v>42761</v>
       </c>
       <c r="G47" t="s">
         <v>367</v>
       </c>
       <c r="H47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J47" s="2">
-        <v>43850</v>
+        <v>43381</v>
       </c>
       <c r="K47">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="L47" s="2">
         <v>43957</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="N47">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>172</v>
+        <v>384</v>
       </c>
       <c r="Z47" t="b">
         <v>1</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AU47" s="2">
-        <v>43850</v>
+        <v>43831</v>
       </c>
       <c r="AV47" s="2">
         <v>43957</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
@@ -5708,7 +5708,7 @@
         <v>279</v>
       </c>
       <c r="F48" s="2">
-        <v>42830</v>
+        <v>42743</v>
       </c>
       <c r="G48" t="s">
         <v>368</v>
@@ -5717,22 +5717,22 @@
         <v>509</v>
       </c>
       <c r="I48" t="s">
-        <v>566</v>
+        <v>279</v>
       </c>
       <c r="J48" s="2">
-        <v>43105</v>
+        <v>43850</v>
       </c>
       <c r="K48">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L48" s="2">
         <v>43957</v>
       </c>
       <c r="M48">
-        <v>151.5</v>
+        <v>68</v>
       </c>
       <c r="N48">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -5744,9 +5744,9 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>259.5</v>
-      </c>
-      <c r="AN48" t="b">
+        <v>172</v>
+      </c>
+      <c r="Z48" t="b">
         <v>1</v>
       </c>
       <c r="AR48">
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="2">
-        <v>43831</v>
+        <v>43850</v>
       </c>
       <c r="AV48" s="2">
         <v>43957</v>
@@ -7185,13 +7185,13 @@
     </row>
     <row r="68" spans="1:48">
       <c r="A68" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
         <v>261</v>
@@ -7200,49 +7200,49 @@
         <v>286</v>
       </c>
       <c r="F68" s="2">
-        <v>43411</v>
+        <v>42898</v>
       </c>
       <c r="G68" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="H68" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="I68" t="s">
-        <v>283</v>
+        <v>565</v>
       </c>
       <c r="J68" s="2">
-        <v>43732</v>
+        <v>43893</v>
       </c>
       <c r="K68">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L68" s="2">
-        <v>44012</v>
+        <v>43903</v>
       </c>
       <c r="M68">
-        <v>175.75</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="O68">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>-13.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>332</v>
-      </c>
-      <c r="AM68" t="b">
+        <v>24</v>
+      </c>
+      <c r="AI68" t="b">
         <v>1</v>
       </c>
       <c r="AR68">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AS68">
         <v>0</v>
@@ -7251,21 +7251,21 @@
         <v>0</v>
       </c>
       <c r="AU68" s="2">
-        <v>43831</v>
+        <v>43893</v>
       </c>
       <c r="AV68" s="2">
-        <v>44012</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="69" spans="1:48">
       <c r="A69" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
         <v>261</v>
@@ -7274,31 +7274,31 @@
         <v>286</v>
       </c>
       <c r="F69" s="2">
-        <v>43411</v>
+        <v>42898</v>
       </c>
       <c r="G69" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H69" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="I69" t="s">
-        <v>283</v>
+        <v>565</v>
       </c>
       <c r="J69" s="2">
-        <v>44013</v>
+        <v>43893</v>
       </c>
       <c r="K69">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="L69" s="2">
-        <v>44143</v>
+        <v>43903</v>
       </c>
       <c r="M69">
-        <v>341.5</v>
+        <v>6</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -7310,9 +7310,9 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>341.5</v>
-      </c>
-      <c r="AM69" t="b">
+        <v>24</v>
+      </c>
+      <c r="AI69" t="b">
         <v>1</v>
       </c>
       <c r="AR69">
@@ -7325,54 +7325,54 @@
         <v>0</v>
       </c>
       <c r="AU69" s="2">
-        <v>44013</v>
+        <v>43893</v>
       </c>
       <c r="AV69" s="2">
-        <v>44143</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
         <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F70" s="2">
-        <v>42898</v>
+        <v>42809</v>
       </c>
       <c r="G70" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H70" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="I70" t="s">
         <v>565</v>
       </c>
       <c r="J70" s="2">
-        <v>43893</v>
+        <v>43969</v>
       </c>
       <c r="K70">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L70" s="2">
-        <v>43903</v>
+        <v>44078</v>
       </c>
       <c r="M70">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="N70">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -7384,9 +7384,9 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>24</v>
-      </c>
-      <c r="AI70" t="b">
+        <v>213</v>
+      </c>
+      <c r="AM70" t="b">
         <v>1</v>
       </c>
       <c r="AR70">
@@ -7399,21 +7399,21 @@
         <v>0</v>
       </c>
       <c r="AU70" s="2">
-        <v>43893</v>
+        <v>43969</v>
       </c>
       <c r="AV70" s="2">
-        <v>43903</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
         <v>261</v>
@@ -7422,49 +7422,49 @@
         <v>287</v>
       </c>
       <c r="F71" s="2">
-        <v>42898</v>
+        <v>43411</v>
       </c>
       <c r="G71" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="H71" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I71" t="s">
-        <v>565</v>
+        <v>283</v>
       </c>
       <c r="J71" s="2">
-        <v>43893</v>
+        <v>43732</v>
       </c>
       <c r="K71">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="L71" s="2">
-        <v>43903</v>
+        <v>44012</v>
       </c>
       <c r="M71">
-        <v>6</v>
+        <v>175.75</v>
       </c>
       <c r="N71">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-13.75</v>
       </c>
       <c r="R71">
-        <v>24</v>
-      </c>
-      <c r="AI71" t="b">
+        <v>332</v>
+      </c>
+      <c r="AM71" t="b">
         <v>1</v>
       </c>
       <c r="AR71">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -7473,21 +7473,21 @@
         <v>0</v>
       </c>
       <c r="AU71" s="2">
-        <v>43893</v>
+        <v>43831</v>
       </c>
       <c r="AV71" s="2">
-        <v>43903</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
         <v>261</v>
@@ -7496,28 +7496,28 @@
         <v>287</v>
       </c>
       <c r="F72" s="2">
-        <v>42809</v>
+        <v>43411</v>
       </c>
       <c r="G72" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H72" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="I72" t="s">
-        <v>565</v>
+        <v>283</v>
       </c>
       <c r="J72" s="2">
-        <v>43969</v>
+        <v>44013</v>
       </c>
       <c r="K72">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="L72" s="2">
-        <v>44078</v>
+        <v>44143</v>
       </c>
       <c r="M72">
-        <v>213</v>
+        <v>341.5</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>213</v>
+        <v>341.5</v>
       </c>
       <c r="AM72" t="b">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>0</v>
       </c>
       <c r="AU72" s="2">
-        <v>43969</v>
+        <v>44013</v>
       </c>
       <c r="AV72" s="2">
-        <v>44078</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="73" spans="1:48">
@@ -9669,7 +9669,7 @@
         <v>409</v>
       </c>
       <c r="H101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I101" t="s">
         <v>566</v>
@@ -9817,7 +9817,7 @@
         <v>410</v>
       </c>
       <c r="H103" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I103" t="s">
         <v>566</v>
@@ -10412,7 +10412,7 @@
         <v>410</v>
       </c>
       <c r="H111" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I111" t="s">
         <v>566</v>
@@ -10486,7 +10486,7 @@
         <v>416</v>
       </c>
       <c r="H112" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I112" t="s">
         <v>566</v>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>filename</t>
   </si>
@@ -168,10 +168,7 @@
     <t>fineNorm</t>
   </si>
   <si>
-    <t>Report annuale_2020 Bolzano ret 2_FA.xlsx</t>
-  </si>
-  <si>
-    <t>GOSA ISABEL</t>
+    <t>Report annuale_2020 Bolzano ret 2_FAxlsx.xlsx</t>
   </si>
   <si>
     <t>HYDER GHULAM SYED</t>
@@ -189,9 +186,6 @@
     <t>BOLZANO</t>
   </si>
   <si>
-    <t>GSOSBL18B41F257N</t>
-  </si>
-  <si>
     <t>HYDSDG17T02A952G</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
   </si>
   <si>
     <t>PCNCVEA18T43A952L</t>
-  </si>
-  <si>
-    <t>VIOLETA MURATI</t>
   </si>
   <si>
     <t>MERIEM ABID</t>
@@ -569,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +714,7 @@
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -732,72 +723,75 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2">
+        <v>43071</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="2">
-        <v>43132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2">
-        <v>44075</v>
+        <v>43160</v>
       </c>
       <c r="K2">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="L2" s="2">
-        <v>44439</v>
+        <v>44074</v>
       </c>
       <c r="M2">
-        <v>504</v>
+        <v>740.5</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="O2">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="P2">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>688</v>
+        <v>1280.5</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
       </c>
       <c r="AK2" t="b">
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AT2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="2">
-        <v>44075</v>
+        <v>43831</v>
       </c>
       <c r="AW2" s="2">
-        <v>44196</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -806,75 +800,72 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
       <c r="F3" s="2">
-        <v>43071</v>
+        <v>43773</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2">
-        <v>43160</v>
+        <v>44081</v>
       </c>
       <c r="K3">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="L3" s="2">
-        <v>44074</v>
+        <v>44804</v>
       </c>
       <c r="M3">
-        <v>740.5</v>
+        <v>552</v>
       </c>
       <c r="N3">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>388</v>
+        <v>52</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1280.5</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
+        <v>609</v>
       </c>
       <c r="AK3" t="b">
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="2">
-        <v>43831</v>
+        <v>44081</v>
       </c>
       <c r="AW3" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -883,140 +874,66 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" s="2">
-        <v>43773</v>
+        <v>43437</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="K4">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
-        <v>44804</v>
+        <v>44109</v>
       </c>
       <c r="M4">
-        <v>552</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>609</v>
-      </c>
-      <c r="AK4" t="b">
+        <v>30</v>
+      </c>
+      <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="AW4" s="2">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49">
-      <c r="A5" s="1">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43437</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44088</v>
-      </c>
-      <c r="K5">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2">
-        <v>44109</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>30</v>
-      </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>44088</v>
-      </c>
-      <c r="AW5" s="2">
         <v>44109</v>
       </c>
     </row>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="368">
   <si>
     <t>filename</t>
   </si>
@@ -60,6 +60,9 @@
 n. 543_1025/2020</t>
   </si>
   <si>
+    <t>massimo543</t>
+  </si>
+  <si>
     <t>Ore contrattualizzate non erogate
 ai sensi della delibera
 n. 733/2020</t>
@@ -166,12 +169,972 @@
   </si>
   <si>
     <t>fineNorm</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfalzen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Brixen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Laas_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Terenten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Sarntal_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Meran_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Gargazon_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Freienfeld_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Bruneck_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Leifers_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Branzoll_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Natz-Schabs_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Völs am Schlern_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Klausen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Schlanders_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Bozen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Ratschings_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Mölten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Mals_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Montan_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_St.Pankraz_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Algund_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Niederdorf_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Prad am Stilfser Joch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Sterzing_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Schenna_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Lana_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Rasen-Antholz_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_St.Lorenzen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Eppan a.d. Weinstr._2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Ritten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Tscherms_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Plaus_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Nals_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Welsberg_2020.xlsx</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>Sozialgenossenschaft Tagesmütter - Gen.</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Laas</t>
+  </si>
+  <si>
+    <t>Terenten</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Freienfeld</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Branzoll</t>
+  </si>
+  <si>
+    <t>Natz-Schabs</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Mölten</t>
+  </si>
+  <si>
+    <t>Mals</t>
+  </si>
+  <si>
+    <t>Montan</t>
+  </si>
+  <si>
+    <t>St.Pankraz</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz</t>
+  </si>
+  <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr.</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Plaus</t>
+  </si>
+  <si>
+    <t>Nals</t>
+  </si>
+  <si>
+    <t>Welsberg</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>MAIRHOFER HEIDRUN</t>
+  </si>
+  <si>
+    <t>LETZNER PETRA</t>
+  </si>
+  <si>
+    <t>PUNER PAULA</t>
+  </si>
+  <si>
+    <t>GURSCHLER ANDREA</t>
+  </si>
+  <si>
+    <t>LECHNER MARTHA</t>
+  </si>
+  <si>
+    <t>STUEFER DOROTHEA</t>
+  </si>
+  <si>
+    <t>SCHEITLER SABINE ISABELLA</t>
+  </si>
+  <si>
+    <t>MARINI ANNARITA</t>
+  </si>
+  <si>
+    <t>VARHANIKOVA LENKA</t>
+  </si>
+  <si>
+    <t>FÜRLER VERONIKA</t>
+  </si>
+  <si>
+    <t>FEICHTER ELISABETH</t>
+  </si>
+  <si>
+    <t>TAFERNER PETRA</t>
+  </si>
+  <si>
+    <t>BONADIO CONCETTA</t>
+  </si>
+  <si>
+    <t>PUFF CHRISTINA</t>
+  </si>
+  <si>
+    <t>KALTENHAUSER ADELHEID</t>
+  </si>
+  <si>
+    <t>HASELRIEDER ANGELIKA</t>
+  </si>
+  <si>
+    <t>PEINTNER CAROLIN</t>
+  </si>
+  <si>
+    <t>UNTERTHURNER CARMEN</t>
+  </si>
+  <si>
+    <t>SPERANZA ROMINA</t>
+  </si>
+  <si>
+    <t>KLOSTERMAIER EVELYN</t>
+  </si>
+  <si>
+    <t>MENAPACE ELENA</t>
+  </si>
+  <si>
+    <t>STEGER SONYA</t>
+  </si>
+  <si>
+    <t>WERTH AGATHA</t>
+  </si>
+  <si>
+    <t>LIENHART ELISABETH</t>
+  </si>
+  <si>
+    <t>GASSER MARIANNA</t>
+  </si>
+  <si>
+    <t>DIETRICH MARGRIT</t>
+  </si>
+  <si>
+    <t>WIPFLER MARIETTA KATHARINA</t>
+  </si>
+  <si>
+    <t>POLITI MARINA</t>
+  </si>
+  <si>
+    <t>CANDOTTI MARTINA</t>
+  </si>
+  <si>
+    <t>INNERHOFER MARTHA</t>
+  </si>
+  <si>
+    <t>FLENGER ALEXANDRA</t>
+  </si>
+  <si>
+    <t>PICHLER ELISABETH</t>
+  </si>
+  <si>
+    <t>LAIMER HELGA</t>
+  </si>
+  <si>
+    <t>LADURNER JOHANNA</t>
+  </si>
+  <si>
+    <t>BRUNELLO CHRISTINE</t>
+  </si>
+  <si>
+    <t>KARGRUBER AGNES</t>
+  </si>
+  <si>
+    <t>RADWANSKA KATARZYNA</t>
+  </si>
+  <si>
+    <t>LEITNER ANNELIES</t>
+  </si>
+  <si>
+    <t>LAGEDER JOHANNA</t>
+  </si>
+  <si>
+    <t>KRÖSS WALTRAUD</t>
+  </si>
+  <si>
+    <t>GIOVANAZZI ANJA</t>
+  </si>
+  <si>
+    <t>MITTERHOFER MARTINA</t>
+  </si>
+  <si>
+    <t>LERCHNER MARTA</t>
+  </si>
+  <si>
+    <t>LANTHALER UTE</t>
+  </si>
+  <si>
+    <t>KIER CLAUDIA</t>
+  </si>
+  <si>
+    <t>PLATTNER HELENE</t>
+  </si>
+  <si>
+    <t>BURGER SIMONE</t>
+  </si>
+  <si>
+    <t>FINK PAULA</t>
+  </si>
+  <si>
+    <t>RAUTER INGE</t>
+  </si>
+  <si>
+    <t>Bruneck/Brunico</t>
+  </si>
+  <si>
+    <t>Pfitsch/Val di Vizze</t>
+  </si>
+  <si>
+    <t>Vahrn/Varna</t>
+  </si>
+  <si>
+    <t>Schluderns/Sluderno</t>
+  </si>
+  <si>
+    <t>Terenten/Terento</t>
+  </si>
+  <si>
+    <t>Sarntal/Sarentino</t>
+  </si>
+  <si>
+    <t>Meran/Merano</t>
+  </si>
+  <si>
+    <t>Terlan/Terlano</t>
+  </si>
+  <si>
+    <t>Freienfeld/Campo di Trens</t>
+  </si>
+  <si>
+    <t>Bozen/Bolzano</t>
+  </si>
+  <si>
+    <t>Leifers/Laives</t>
+  </si>
+  <si>
+    <t>Brixen/Bressanone</t>
+  </si>
+  <si>
+    <t>Völs am Schlern/Fie' allo Sciliar</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz/Rasun Anterselva</t>
+  </si>
+  <si>
+    <t>Schlanders/Silandro</t>
+  </si>
+  <si>
+    <t>Mölten/Meltina</t>
+  </si>
+  <si>
+    <t>Montan/Montagna</t>
+  </si>
+  <si>
+    <t>Lana/Lana</t>
+  </si>
+  <si>
+    <t>Algund/Lagundo</t>
+  </si>
+  <si>
+    <t>Welsberg/Monguelfo</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch/Prato allo Stelvio</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr./Appiano s.s.d.v.</t>
+  </si>
+  <si>
+    <t>Ritten/Renon</t>
+  </si>
+  <si>
+    <t>Olang/Valdaora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -224,11 +1187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,13 +1487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AW1"/>
+  <dimension ref="A1:AX97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:49">
+    <row r="1" spans="1:50">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,6 +1637,7200 @@
       </c>
       <c r="AW1" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K2">
+        <v>366</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M2">
+        <v>745</v>
+      </c>
+      <c r="N2">
+        <v>230</v>
+      </c>
+      <c r="O2">
+        <v>224</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>26</v>
+      </c>
+      <c r="R2">
+        <v>1001</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>74</v>
+      </c>
+      <c r="AU2">
+        <v>8</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K3">
+        <v>366</v>
+      </c>
+      <c r="L3" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M3">
+        <v>745</v>
+      </c>
+      <c r="N3">
+        <v>230</v>
+      </c>
+      <c r="O3">
+        <v>224</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>1001</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>74</v>
+      </c>
+      <c r="AU3">
+        <v>8</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42926</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K4">
+        <v>265</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M4">
+        <v>875</v>
+      </c>
+      <c r="N4">
+        <v>348</v>
+      </c>
+      <c r="O4">
+        <v>304</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-133.75</v>
+      </c>
+      <c r="R4">
+        <v>1089.25</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>74</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42593</v>
+      </c>
+      <c r="G5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42982</v>
+      </c>
+      <c r="K5">
+        <v>220</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M5">
+        <v>244.75</v>
+      </c>
+      <c r="N5">
+        <v>168</v>
+      </c>
+      <c r="O5">
+        <v>152</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>41.75</v>
+      </c>
+      <c r="R5">
+        <v>454.5</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>74</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42873</v>
+      </c>
+      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K6">
+        <v>262</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M6">
+        <v>588.25</v>
+      </c>
+      <c r="N6">
+        <v>306</v>
+      </c>
+      <c r="O6">
+        <v>250</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-7.25</v>
+      </c>
+      <c r="R6">
+        <v>887</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>74</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43042</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K7">
+        <v>366</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M7">
+        <v>884.25</v>
+      </c>
+      <c r="N7">
+        <v>234</v>
+      </c>
+      <c r="O7">
+        <v>256</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>24.5</v>
+      </c>
+      <c r="R7">
+        <v>1142.75</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>74</v>
+      </c>
+      <c r="AU7">
+        <v>8</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43014</v>
+      </c>
+      <c r="G8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43367</v>
+      </c>
+      <c r="K8">
+        <v>366</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M8">
+        <v>868.5</v>
+      </c>
+      <c r="N8">
+        <v>296</v>
+      </c>
+      <c r="O8">
+        <v>267</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>29</v>
+      </c>
+      <c r="R8">
+        <v>1193.5</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>74</v>
+      </c>
+      <c r="AU8">
+        <v>8</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42960</v>
+      </c>
+      <c r="G9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43845</v>
+      </c>
+      <c r="K9">
+        <v>224</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44068</v>
+      </c>
+      <c r="M9">
+        <v>113</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>188</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>256</v>
+      </c>
+      <c r="R9">
+        <v>569</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>74</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>43845</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42752</v>
+      </c>
+      <c r="G10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43108</v>
+      </c>
+      <c r="K10">
+        <v>178</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M10">
+        <v>208</v>
+      </c>
+      <c r="N10">
+        <v>406</v>
+      </c>
+      <c r="O10">
+        <v>255</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>614</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>74</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43062</v>
+      </c>
+      <c r="G11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K11">
+        <v>366</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M11">
+        <v>442</v>
+      </c>
+      <c r="N11">
+        <v>148</v>
+      </c>
+      <c r="O11">
+        <v>129</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-12</v>
+      </c>
+      <c r="R11">
+        <v>578</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>74</v>
+      </c>
+      <c r="AU11">
+        <v>8</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" t="s">
+        <v>349</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44102</v>
+      </c>
+      <c r="K12">
+        <v>95</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M12">
+        <v>142.5</v>
+      </c>
+      <c r="N12">
+        <v>35</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>177.5</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>8</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>44102</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>350</v>
+      </c>
+      <c r="J13" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K13">
+        <v>305</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44288</v>
+      </c>
+      <c r="M13">
+        <v>359.75</v>
+      </c>
+      <c r="N13">
+        <v>168</v>
+      </c>
+      <c r="O13">
+        <v>156</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>55.5</v>
+      </c>
+      <c r="R13">
+        <v>583.25</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>74</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" t="s">
+        <v>350</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43724</v>
+      </c>
+      <c r="K14">
+        <v>313</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44143</v>
+      </c>
+      <c r="M14">
+        <v>291.75</v>
+      </c>
+      <c r="N14">
+        <v>136</v>
+      </c>
+      <c r="O14">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>125</v>
+      </c>
+      <c r="R14">
+        <v>552.75</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>74</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="2">
+        <v>42790</v>
+      </c>
+      <c r="G15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K15">
+        <v>241</v>
+      </c>
+      <c r="L15" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M15">
+        <v>626.5</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>286</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7.75</v>
+      </c>
+      <c r="R15">
+        <v>934.25</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>74</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42992</v>
+      </c>
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" t="s">
+        <v>350</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43178</v>
+      </c>
+      <c r="K16">
+        <v>269</v>
+      </c>
+      <c r="L16" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M16">
+        <v>639</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16">
+        <v>278</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>73.5</v>
+      </c>
+      <c r="R16">
+        <v>1012.5</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>74</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" s="1">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43535</v>
+      </c>
+      <c r="G17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44151</v>
+      </c>
+      <c r="K17">
+        <v>46</v>
+      </c>
+      <c r="L17" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M17">
+        <v>72.5</v>
+      </c>
+      <c r="N17">
+        <v>27</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>99.5</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>8</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>44151</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" t="s">
+        <v>303</v>
+      </c>
+      <c r="I18" t="s">
+        <v>351</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43878</v>
+      </c>
+      <c r="K18">
+        <v>319</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44680</v>
+      </c>
+      <c r="M18">
+        <v>865.5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>122</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-388.5</v>
+      </c>
+      <c r="R18">
+        <v>477</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>74</v>
+      </c>
+      <c r="AU18">
+        <v>8</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>43878</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" t="s">
+        <v>304</v>
+      </c>
+      <c r="I19" t="s">
+        <v>352</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43591</v>
+      </c>
+      <c r="K19">
+        <v>225</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44055</v>
+      </c>
+      <c r="M19">
+        <v>837</v>
+      </c>
+      <c r="N19">
+        <v>450</v>
+      </c>
+      <c r="O19">
+        <v>470</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>144</v>
+      </c>
+      <c r="R19">
+        <v>1431</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>74</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42889</v>
+      </c>
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J20" s="2">
+        <v>43129</v>
+      </c>
+      <c r="K20">
+        <v>225</v>
+      </c>
+      <c r="L20" s="2">
+        <v>44055</v>
+      </c>
+      <c r="M20">
+        <v>819</v>
+      </c>
+      <c r="N20">
+        <v>400</v>
+      </c>
+      <c r="O20">
+        <v>424</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>70</v>
+      </c>
+      <c r="R20">
+        <v>1289</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>74</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43496</v>
+      </c>
+      <c r="G21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" t="s">
+        <v>344</v>
+      </c>
+      <c r="J21" s="2">
+        <v>43927</v>
+      </c>
+      <c r="K21">
+        <v>270</v>
+      </c>
+      <c r="L21" s="2">
+        <v>44209</v>
+      </c>
+      <c r="M21">
+        <v>391.5</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>391.5</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>43927</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42794</v>
+      </c>
+      <c r="G22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="2">
+        <v>43115</v>
+      </c>
+      <c r="K22">
+        <v>220</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M22">
+        <v>354.25</v>
+      </c>
+      <c r="N22">
+        <v>170</v>
+      </c>
+      <c r="O22">
+        <v>195</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>55.5</v>
+      </c>
+      <c r="R22">
+        <v>579.75</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>74</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43001</v>
+      </c>
+      <c r="G23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" s="2">
+        <v>43871</v>
+      </c>
+      <c r="K23">
+        <v>201</v>
+      </c>
+      <c r="L23" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M23">
+        <v>48</v>
+      </c>
+      <c r="N23">
+        <v>144</v>
+      </c>
+      <c r="O23">
+        <v>118</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>129</v>
+      </c>
+      <c r="R23">
+        <v>321</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>74</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>43871</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42940</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43857</v>
+      </c>
+      <c r="M24">
+        <v>90</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>90</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="2">
+        <v>42940</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" t="s">
+        <v>308</v>
+      </c>
+      <c r="I25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J25" s="2">
+        <v>43857</v>
+      </c>
+      <c r="K25">
+        <v>340</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44449</v>
+      </c>
+      <c r="M25">
+        <v>1199.5</v>
+      </c>
+      <c r="N25">
+        <v>348</v>
+      </c>
+      <c r="O25">
+        <v>383</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>1551.5</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>74</v>
+      </c>
+      <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>43857</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42761</v>
+      </c>
+      <c r="G26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>309</v>
+      </c>
+      <c r="I26" t="s">
+        <v>355</v>
+      </c>
+      <c r="J26" s="2">
+        <v>43689</v>
+      </c>
+      <c r="K26">
+        <v>171</v>
+      </c>
+      <c r="L26" s="2">
+        <v>44001</v>
+      </c>
+      <c r="M26">
+        <v>209</v>
+      </c>
+      <c r="N26">
+        <v>358</v>
+      </c>
+      <c r="O26">
+        <v>353</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>250</v>
+      </c>
+      <c r="R26">
+        <v>817</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>74</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43737</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" t="s">
+        <v>356</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44186</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M27">
+        <v>13.5</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>13.5</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>44186</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="A28" s="1">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43003</v>
+      </c>
+      <c r="G28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K28">
+        <v>262</v>
+      </c>
+      <c r="L28" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M28">
+        <v>335.25</v>
+      </c>
+      <c r="N28">
+        <v>120</v>
+      </c>
+      <c r="O28">
+        <v>125</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>-11.5</v>
+      </c>
+      <c r="R28">
+        <v>443.75</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>74</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43563</v>
+      </c>
+      <c r="G30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" t="s">
+        <v>358</v>
+      </c>
+      <c r="J30" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K30">
+        <v>305</v>
+      </c>
+      <c r="L30" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M30">
+        <v>587.75</v>
+      </c>
+      <c r="N30">
+        <v>204</v>
+      </c>
+      <c r="O30">
+        <v>217</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>17.5</v>
+      </c>
+      <c r="R30">
+        <v>809.25</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>74</v>
+      </c>
+      <c r="AU30">
+        <v>8</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" t="s">
+        <v>312</v>
+      </c>
+      <c r="I31" t="s">
+        <v>358</v>
+      </c>
+      <c r="J31" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K31">
+        <v>299</v>
+      </c>
+      <c r="L31" s="2">
+        <v>44190</v>
+      </c>
+      <c r="M31">
+        <v>677.75</v>
+      </c>
+      <c r="N31">
+        <v>126</v>
+      </c>
+      <c r="O31">
+        <v>195</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>-92.5</v>
+      </c>
+      <c r="R31">
+        <v>711.25</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>74</v>
+      </c>
+      <c r="AU31">
+        <v>8</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32" s="1">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" t="s">
+        <v>312</v>
+      </c>
+      <c r="I32" t="s">
+        <v>358</v>
+      </c>
+      <c r="J32" s="2">
+        <v>44116</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32" s="2">
+        <v>44138</v>
+      </c>
+      <c r="M32">
+        <v>55.75</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>55.75</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>44116</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="2">
+        <v>42650</v>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" t="s">
+        <v>300</v>
+      </c>
+      <c r="I33" t="s">
+        <v>349</v>
+      </c>
+      <c r="J33" s="2">
+        <v>43016</v>
+      </c>
+      <c r="K33">
+        <v>248</v>
+      </c>
+      <c r="L33" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>240</v>
+      </c>
+      <c r="O33">
+        <v>86</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>49</v>
+      </c>
+      <c r="R33">
+        <v>289</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>74</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="1">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42650</v>
+      </c>
+      <c r="G34" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" t="s">
+        <v>313</v>
+      </c>
+      <c r="I34" t="s">
+        <v>353</v>
+      </c>
+      <c r="J34" s="2">
+        <v>43016</v>
+      </c>
+      <c r="K34">
+        <v>248</v>
+      </c>
+      <c r="L34" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M34">
+        <v>464.5</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>138</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>464.5</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>74</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43901</v>
+      </c>
+      <c r="G35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" t="s">
+        <v>314</v>
+      </c>
+      <c r="I35" t="s">
+        <v>353</v>
+      </c>
+      <c r="J35" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K35">
+        <v>29</v>
+      </c>
+      <c r="L35" s="2">
+        <v>44165</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>32.5</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>52.5</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>8</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="2">
+        <v>42772</v>
+      </c>
+      <c r="G36" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" t="s">
+        <v>315</v>
+      </c>
+      <c r="I36" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K36">
+        <v>192</v>
+      </c>
+      <c r="L36" s="2">
+        <v>44022</v>
+      </c>
+      <c r="M36">
+        <v>414.5</v>
+      </c>
+      <c r="N36">
+        <v>308</v>
+      </c>
+      <c r="O36">
+        <v>306</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>71.5</v>
+      </c>
+      <c r="R36">
+        <v>794</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>74</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37" s="1">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43737</v>
+      </c>
+      <c r="G37" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44060</v>
+      </c>
+      <c r="K37">
+        <v>126</v>
+      </c>
+      <c r="L37" s="2">
+        <v>44185</v>
+      </c>
+      <c r="M37">
+        <v>360.75</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>22</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>-8.5</v>
+      </c>
+      <c r="R37">
+        <v>352.25</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>8</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>44060</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="A38" s="1">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+      <c r="L38" s="2">
+        <v>43870</v>
+      </c>
+      <c r="M38">
+        <v>54</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>54</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="2">
+        <v>42742</v>
+      </c>
+      <c r="G39" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" t="s">
+        <v>316</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K39">
+        <v>178</v>
+      </c>
+      <c r="L39" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M39">
+        <v>163</v>
+      </c>
+      <c r="N39">
+        <v>200</v>
+      </c>
+      <c r="O39">
+        <v>249</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>236</v>
+      </c>
+      <c r="R39">
+        <v>599</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>74</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="A40" s="1">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43570</v>
+      </c>
+      <c r="G40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K40">
+        <v>60</v>
+      </c>
+      <c r="L40" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M40">
+        <v>94</v>
+      </c>
+      <c r="N40">
+        <v>91.5</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>185.5</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>8</v>
+      </c>
+      <c r="AV40">
+        <v>2</v>
+      </c>
+      <c r="AW40" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="2">
+        <v>42835</v>
+      </c>
+      <c r="G41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" s="2">
+        <v>43703</v>
+      </c>
+      <c r="K41">
+        <v>366</v>
+      </c>
+      <c r="L41" s="2">
+        <v>44220</v>
+      </c>
+      <c r="M41">
+        <v>73</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT41">
+        <v>74</v>
+      </c>
+      <c r="AU41">
+        <v>8</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="2">
+        <v>42656</v>
+      </c>
+      <c r="G42" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" s="2">
+        <v>42996</v>
+      </c>
+      <c r="K42">
+        <v>248</v>
+      </c>
+      <c r="L42" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M42">
+        <v>735.25</v>
+      </c>
+      <c r="N42">
+        <v>376</v>
+      </c>
+      <c r="O42">
+        <v>333</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>7.25</v>
+      </c>
+      <c r="R42">
+        <v>1118.5</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT42">
+        <v>74</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX42" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43030</v>
+      </c>
+      <c r="G43" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" t="s">
+        <v>318</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" s="2">
+        <v>43227</v>
+      </c>
+      <c r="K43">
+        <v>255</v>
+      </c>
+      <c r="L43" s="2">
+        <v>44085</v>
+      </c>
+      <c r="M43">
+        <v>271</v>
+      </c>
+      <c r="N43">
+        <v>391</v>
+      </c>
+      <c r="O43">
+        <v>284</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>319</v>
+      </c>
+      <c r="R43">
+        <v>981</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>74</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX43" s="2">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50">
+      <c r="A44" s="1">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44049</v>
+      </c>
+      <c r="G44" t="s">
+        <v>251</v>
+      </c>
+      <c r="H44" t="s">
+        <v>319</v>
+      </c>
+      <c r="I44" t="s">
+        <v>353</v>
+      </c>
+      <c r="J44" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K44">
+        <v>53</v>
+      </c>
+      <c r="L44" s="2">
+        <v>45163</v>
+      </c>
+      <c r="M44">
+        <v>92</v>
+      </c>
+      <c r="N44">
+        <v>32</v>
+      </c>
+      <c r="O44">
+        <v>18</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>124</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX44" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50">
+      <c r="A45" s="1">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="2">
+        <v>42748</v>
+      </c>
+      <c r="G45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" t="s">
+        <v>320</v>
+      </c>
+      <c r="I45" t="s">
+        <v>353</v>
+      </c>
+      <c r="J45" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K45">
+        <v>179</v>
+      </c>
+      <c r="L45" s="2">
+        <v>44009</v>
+      </c>
+      <c r="M45">
+        <v>128.5</v>
+      </c>
+      <c r="N45">
+        <v>250</v>
+      </c>
+      <c r="O45">
+        <v>267</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>269</v>
+      </c>
+      <c r="R45">
+        <v>647.5</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>74</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX45" s="2">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50">
+      <c r="A46" s="1">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="2">
+        <v>42911</v>
+      </c>
+      <c r="G46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H46" t="s">
+        <v>321</v>
+      </c>
+      <c r="I46" t="s">
+        <v>353</v>
+      </c>
+      <c r="J46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="K46">
+        <v>262</v>
+      </c>
+      <c r="L46" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M46">
+        <v>529.5</v>
+      </c>
+      <c r="N46">
+        <v>460</v>
+      </c>
+      <c r="O46">
+        <v>305</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>91</v>
+      </c>
+      <c r="R46">
+        <v>1080.5</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>74</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX46" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50">
+      <c r="A47" s="1">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="2">
+        <v>42888</v>
+      </c>
+      <c r="G47" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" s="2">
+        <v>43885</v>
+      </c>
+      <c r="K47">
+        <v>174</v>
+      </c>
+      <c r="L47" s="2">
+        <v>44058</v>
+      </c>
+      <c r="M47">
+        <v>182.5</v>
+      </c>
+      <c r="N47">
+        <v>286</v>
+      </c>
+      <c r="O47">
+        <v>225</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>62</v>
+      </c>
+      <c r="R47">
+        <v>530.5</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>74</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="2">
+        <v>43885</v>
+      </c>
+      <c r="AX47" s="2">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50">
+      <c r="A48" s="1">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="2">
+        <v>42909</v>
+      </c>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" t="s">
+        <v>353</v>
+      </c>
+      <c r="J48" s="2">
+        <v>43696</v>
+      </c>
+      <c r="K48">
+        <v>269</v>
+      </c>
+      <c r="L48" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M48">
+        <v>761</v>
+      </c>
+      <c r="N48">
+        <v>330</v>
+      </c>
+      <c r="O48">
+        <v>317</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>63.25</v>
+      </c>
+      <c r="R48">
+        <v>1154.25</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>74</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX48" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50">
+      <c r="A49" s="1">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43600</v>
+      </c>
+      <c r="G49" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" t="s">
+        <v>313</v>
+      </c>
+      <c r="I49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K49">
+        <v>305</v>
+      </c>
+      <c r="L49" s="2">
+        <v>44372</v>
+      </c>
+      <c r="M49">
+        <v>797</v>
+      </c>
+      <c r="N49">
+        <v>261.5</v>
+      </c>
+      <c r="O49">
+        <v>300</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>31.5</v>
+      </c>
+      <c r="R49">
+        <v>1090</v>
+      </c>
+      <c r="AH49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>74</v>
+      </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX49" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50">
+      <c r="A50" s="1">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G50" t="s">
+        <v>257</v>
+      </c>
+      <c r="H50" t="s">
+        <v>323</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K50">
+        <v>305</v>
+      </c>
+      <c r="L50" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M50">
+        <v>321.5</v>
+      </c>
+      <c r="N50">
+        <v>138</v>
+      </c>
+      <c r="O50">
+        <v>125</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-3.5</v>
+      </c>
+      <c r="R50">
+        <v>456</v>
+      </c>
+      <c r="AI50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>74</v>
+      </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
+      <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX50" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="A51" s="1">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="2">
+        <v>42782</v>
+      </c>
+      <c r="G51" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" t="s">
+        <v>296</v>
+      </c>
+      <c r="I51" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" s="2">
+        <v>43723</v>
+      </c>
+      <c r="K51">
+        <v>241</v>
+      </c>
+      <c r="L51" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M51">
+        <v>256</v>
+      </c>
+      <c r="N51">
+        <v>144</v>
+      </c>
+      <c r="O51">
+        <v>118</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-15</v>
+      </c>
+      <c r="R51">
+        <v>385</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>74</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX51" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43161</v>
+      </c>
+      <c r="G52" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K52">
+        <v>53</v>
+      </c>
+      <c r="L52" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M52">
+        <v>79.25</v>
+      </c>
+      <c r="N52">
+        <v>29.75</v>
+      </c>
+      <c r="O52">
+        <v>16</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>109</v>
+      </c>
+      <c r="AJ52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX52" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50">
+      <c r="A53" s="1">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J53" s="2">
+        <v>44148</v>
+      </c>
+      <c r="K53">
+        <v>49</v>
+      </c>
+      <c r="L53" s="2">
+        <v>45191</v>
+      </c>
+      <c r="M53">
+        <v>79.25</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>12</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>79.25</v>
+      </c>
+      <c r="AM53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>8</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>44148</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50">
+      <c r="A54" s="1">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="2">
+        <v>43307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" t="s">
+        <v>324</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44148</v>
+      </c>
+      <c r="K54">
+        <v>49</v>
+      </c>
+      <c r="L54" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M54">
+        <v>79.25</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>12</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>79.25</v>
+      </c>
+      <c r="AM54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="2">
+        <v>44148</v>
+      </c>
+      <c r="AX54" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50">
+      <c r="A55" s="1">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="2">
+        <v>42937</v>
+      </c>
+      <c r="G55" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" t="s">
+        <v>347</v>
+      </c>
+      <c r="J55" s="2">
+        <v>43486</v>
+      </c>
+      <c r="K55">
+        <v>290</v>
+      </c>
+      <c r="L55" s="2">
+        <v>44120</v>
+      </c>
+      <c r="M55">
+        <v>294</v>
+      </c>
+      <c r="N55">
+        <v>120</v>
+      </c>
+      <c r="O55">
+        <v>104</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-6</v>
+      </c>
+      <c r="R55">
+        <v>408</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>74</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX55" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43235</v>
+      </c>
+      <c r="G56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="2">
+        <v>44139</v>
+      </c>
+      <c r="K56">
+        <v>58</v>
+      </c>
+      <c r="L56" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M56">
+        <v>76.5</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>76.5</v>
+      </c>
+      <c r="AM56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="2">
+        <v>44139</v>
+      </c>
+      <c r="AX56" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50">
+      <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43021</v>
+      </c>
+      <c r="G57" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" t="s">
+        <v>360</v>
+      </c>
+      <c r="J57" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K57">
+        <v>262</v>
+      </c>
+      <c r="L57" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M57">
+        <v>409</v>
+      </c>
+      <c r="N57">
+        <v>228</v>
+      </c>
+      <c r="O57">
+        <v>185</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>19.75</v>
+      </c>
+      <c r="R57">
+        <v>656.75</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>74</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX57" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50">
+      <c r="A58" s="1">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="2">
+        <v>43034</v>
+      </c>
+      <c r="G58" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" s="2">
+        <v>43717</v>
+      </c>
+      <c r="K58">
+        <v>262</v>
+      </c>
+      <c r="L58" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M58">
+        <v>514.75</v>
+      </c>
+      <c r="N58">
+        <v>271</v>
+      </c>
+      <c r="O58">
+        <v>216</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-18.75</v>
+      </c>
+      <c r="R58">
+        <v>767</v>
+      </c>
+      <c r="AA58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT58">
+        <v>74</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX58" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43052</v>
+      </c>
+      <c r="G59" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" t="s">
+        <v>326</v>
+      </c>
+      <c r="I59" t="s">
+        <v>360</v>
+      </c>
+      <c r="J59" s="2">
+        <v>43248</v>
+      </c>
+      <c r="K59">
+        <v>262</v>
+      </c>
+      <c r="L59" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M59">
+        <v>333.5</v>
+      </c>
+      <c r="N59">
+        <v>271</v>
+      </c>
+      <c r="O59">
+        <v>202</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>113.5</v>
+      </c>
+      <c r="R59">
+        <v>718</v>
+      </c>
+      <c r="AA59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT59">
+        <v>74</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50">
+      <c r="A60" s="1">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="2">
+        <v>42980</v>
+      </c>
+      <c r="G60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" t="s">
+        <v>327</v>
+      </c>
+      <c r="I60" t="s">
+        <v>361</v>
+      </c>
+      <c r="J60" s="2">
+        <v>43017</v>
+      </c>
+      <c r="K60">
+        <v>182</v>
+      </c>
+      <c r="L60" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M60">
+        <v>170.5</v>
+      </c>
+      <c r="N60">
+        <v>390</v>
+      </c>
+      <c r="O60">
+        <v>227</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>560.5</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>74</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50">
+      <c r="A61" s="1">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="2">
+        <v>43292</v>
+      </c>
+      <c r="G61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" t="s">
+        <v>328</v>
+      </c>
+      <c r="I61" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K61">
+        <v>305</v>
+      </c>
+      <c r="L61" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M61">
+        <v>459</v>
+      </c>
+      <c r="N61">
+        <v>337</v>
+      </c>
+      <c r="O61">
+        <v>214</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
+        <v>796.5</v>
+      </c>
+      <c r="AH61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT61">
+        <v>74</v>
+      </c>
+      <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50">
+      <c r="A62" s="1">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="2">
+        <v>43541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>268</v>
+      </c>
+      <c r="H62" t="s">
+        <v>329</v>
+      </c>
+      <c r="I62" t="s">
+        <v>362</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K62">
+        <v>53</v>
+      </c>
+      <c r="L62" s="2">
+        <v>44785</v>
+      </c>
+      <c r="M62">
+        <v>74.5</v>
+      </c>
+      <c r="N62">
+        <v>23.75</v>
+      </c>
+      <c r="O62">
+        <v>14</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>98.25</v>
+      </c>
+      <c r="AJ62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>8</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX62" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50">
+      <c r="A63" s="1">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="2">
+        <v>43079</v>
+      </c>
+      <c r="G63" t="s">
+        <v>269</v>
+      </c>
+      <c r="H63" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" t="s">
+        <v>363</v>
+      </c>
+      <c r="J63" s="2">
+        <v>43738</v>
+      </c>
+      <c r="K63">
+        <v>366</v>
+      </c>
+      <c r="L63" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M63">
+        <v>623.75</v>
+      </c>
+      <c r="N63">
+        <v>209</v>
+      </c>
+      <c r="O63">
+        <v>195</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>39</v>
+      </c>
+      <c r="R63">
+        <v>871.75</v>
+      </c>
+      <c r="AA63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT63">
+        <v>74</v>
+      </c>
+      <c r="AU63">
+        <v>8</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX63" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:50">
+      <c r="A64" s="1">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="2">
+        <v>42710</v>
+      </c>
+      <c r="G64" t="s">
+        <v>270</v>
+      </c>
+      <c r="H64" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" t="s">
+        <v>363</v>
+      </c>
+      <c r="J64" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K64">
+        <v>241</v>
+      </c>
+      <c r="L64" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M64">
+        <v>454.5</v>
+      </c>
+      <c r="N64">
+        <v>226</v>
+      </c>
+      <c r="O64">
+        <v>214</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>18.5</v>
+      </c>
+      <c r="R64">
+        <v>699</v>
+      </c>
+      <c r="Z64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>74</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX64" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="A65" s="1">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="2">
+        <v>42753</v>
+      </c>
+      <c r="G65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65" t="s">
+        <v>331</v>
+      </c>
+      <c r="I65" t="s">
+        <v>364</v>
+      </c>
+      <c r="J65" s="2">
+        <v>43129</v>
+      </c>
+      <c r="K65">
+        <v>241</v>
+      </c>
+      <c r="L65" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M65">
+        <v>235.5</v>
+      </c>
+      <c r="N65">
+        <v>163</v>
+      </c>
+      <c r="O65">
+        <v>116</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>-18.5</v>
+      </c>
+      <c r="R65">
+        <v>380</v>
+      </c>
+      <c r="Z65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT65">
+        <v>74</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX65" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G66" t="s">
+        <v>230</v>
+      </c>
+      <c r="H66" t="s">
+        <v>304</v>
+      </c>
+      <c r="I66" t="s">
+        <v>352</v>
+      </c>
+      <c r="J66" s="2">
+        <v>44056</v>
+      </c>
+      <c r="K66">
+        <v>141</v>
+      </c>
+      <c r="L66" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M66">
+        <v>526</v>
+      </c>
+      <c r="N66">
+        <v>70</v>
+      </c>
+      <c r="O66">
+        <v>35</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-99</v>
+      </c>
+      <c r="R66">
+        <v>497</v>
+      </c>
+      <c r="AK66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>8</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66" s="2">
+        <v>44056</v>
+      </c>
+      <c r="AX66" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="A67" s="1">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="2">
+        <v>43426</v>
+      </c>
+      <c r="G67" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" t="s">
+        <v>332</v>
+      </c>
+      <c r="I67" t="s">
+        <v>361</v>
+      </c>
+      <c r="J67" s="2">
+        <v>43710</v>
+      </c>
+      <c r="K67">
+        <v>182</v>
+      </c>
+      <c r="L67" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M67">
+        <v>154.25</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>62</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>154.25</v>
+      </c>
+      <c r="AN67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>74</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX67" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="A68" s="1">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="2">
+        <v>42925</v>
+      </c>
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" t="s">
+        <v>333</v>
+      </c>
+      <c r="I68" t="s">
+        <v>361</v>
+      </c>
+      <c r="J68" s="2">
+        <v>43759</v>
+      </c>
+      <c r="K68">
+        <v>260</v>
+      </c>
+      <c r="L68" s="2">
+        <v>44090</v>
+      </c>
+      <c r="M68">
+        <v>469.25</v>
+      </c>
+      <c r="N68">
+        <v>210</v>
+      </c>
+      <c r="O68">
+        <v>200</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>24</v>
+      </c>
+      <c r="R68">
+        <v>703.25</v>
+      </c>
+      <c r="AA68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>74</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX68" s="2">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50">
+      <c r="A69" s="1">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G69" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" t="s">
+        <v>302</v>
+      </c>
+      <c r="I69" t="s">
+        <v>350</v>
+      </c>
+      <c r="J69" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K69">
+        <v>53</v>
+      </c>
+      <c r="L69" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M69">
+        <v>149.5</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>22</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>149.5</v>
+      </c>
+      <c r="AM69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX69" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:50">
+      <c r="A70" s="1">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="2">
+        <v>42790</v>
+      </c>
+      <c r="G70" t="s">
+        <v>274</v>
+      </c>
+      <c r="H70" t="s">
+        <v>334</v>
+      </c>
+      <c r="I70" t="s">
+        <v>361</v>
+      </c>
+      <c r="J70" s="2">
+        <v>43339</v>
+      </c>
+      <c r="K70">
+        <v>262</v>
+      </c>
+      <c r="L70" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M70">
+        <v>479.75</v>
+      </c>
+      <c r="N70">
+        <v>150</v>
+      </c>
+      <c r="O70">
+        <v>161</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>-57.25</v>
+      </c>
+      <c r="R70">
+        <v>572.5</v>
+      </c>
+      <c r="Z70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>74</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX70" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="71" spans="1:50">
+      <c r="A71" s="1">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="2">
+        <v>42769</v>
+      </c>
+      <c r="G71" t="s">
+        <v>275</v>
+      </c>
+      <c r="H71" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71" t="s">
+        <v>361</v>
+      </c>
+      <c r="J71" s="2">
+        <v>43374</v>
+      </c>
+      <c r="K71">
+        <v>182</v>
+      </c>
+      <c r="L71" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M71">
+        <v>144</v>
+      </c>
+      <c r="N71">
+        <v>374</v>
+      </c>
+      <c r="O71">
+        <v>210</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>518</v>
+      </c>
+      <c r="Z71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>74</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX71" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50">
+      <c r="A72" s="1">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43702</v>
+      </c>
+      <c r="G72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" t="s">
+        <v>335</v>
+      </c>
+      <c r="I72" t="s">
+        <v>361</v>
+      </c>
+      <c r="J72" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K72">
+        <v>109</v>
+      </c>
+      <c r="L72" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M72">
+        <v>188.5</v>
+      </c>
+      <c r="N72">
+        <v>18</v>
+      </c>
+      <c r="O72">
+        <v>15</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>206.5</v>
+      </c>
+      <c r="AN72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX72" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50">
+      <c r="A73" s="1">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="2">
+        <v>42754</v>
+      </c>
+      <c r="G73" t="s">
+        <v>277</v>
+      </c>
+      <c r="H73" t="s">
+        <v>327</v>
+      </c>
+      <c r="I73" t="s">
+        <v>361</v>
+      </c>
+      <c r="J73" s="2">
+        <v>43122</v>
+      </c>
+      <c r="K73">
+        <v>31</v>
+      </c>
+      <c r="L73" s="2">
+        <v>43861</v>
+      </c>
+      <c r="M73">
+        <v>77.5</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>77.5</v>
+      </c>
+      <c r="Z73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX73" s="2">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50">
+      <c r="A74" s="1">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="2">
+        <v>42774</v>
+      </c>
+      <c r="G74" t="s">
+        <v>278</v>
+      </c>
+      <c r="H74" t="s">
+        <v>332</v>
+      </c>
+      <c r="I74" t="s">
+        <v>361</v>
+      </c>
+      <c r="J74" s="2">
+        <v>43074</v>
+      </c>
+      <c r="K74">
+        <v>182</v>
+      </c>
+      <c r="L74" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M74">
+        <v>190</v>
+      </c>
+      <c r="N74">
+        <v>380</v>
+      </c>
+      <c r="O74">
+        <v>231</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>570</v>
+      </c>
+      <c r="Z74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>74</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX74" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:50">
+      <c r="A75" s="1">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43285</v>
+      </c>
+      <c r="G75" t="s">
+        <v>279</v>
+      </c>
+      <c r="H75" t="s">
+        <v>336</v>
+      </c>
+      <c r="I75" t="s">
+        <v>361</v>
+      </c>
+      <c r="J75" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K75">
+        <v>60</v>
+      </c>
+      <c r="L75" s="2">
+        <v>44470</v>
+      </c>
+      <c r="M75">
+        <v>130.5</v>
+      </c>
+      <c r="N75">
+        <v>16.5</v>
+      </c>
+      <c r="O75">
+        <v>19</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>147</v>
+      </c>
+      <c r="AJ75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX75" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="A76" s="1">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="2">
+        <v>43013</v>
+      </c>
+      <c r="G76" t="s">
+        <v>280</v>
+      </c>
+      <c r="H76" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76" t="s">
+        <v>361</v>
+      </c>
+      <c r="J76" s="2">
+        <v>43745</v>
+      </c>
+      <c r="K76">
+        <v>366</v>
+      </c>
+      <c r="L76" s="2">
+        <v>44408</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>150</v>
+      </c>
+      <c r="O76">
+        <v>75</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>187.5</v>
+      </c>
+      <c r="R76">
+        <v>337.5</v>
+      </c>
+      <c r="AA76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>74</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX76" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:50">
+      <c r="A77" s="1">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="2">
+        <v>42868</v>
+      </c>
+      <c r="G77" t="s">
+        <v>281</v>
+      </c>
+      <c r="H77" t="s">
+        <v>336</v>
+      </c>
+      <c r="I77" t="s">
+        <v>361</v>
+      </c>
+      <c r="J77" s="2">
+        <v>43234</v>
+      </c>
+      <c r="K77">
+        <v>262</v>
+      </c>
+      <c r="L77" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M77">
+        <v>459.5</v>
+      </c>
+      <c r="N77">
+        <v>289</v>
+      </c>
+      <c r="O77">
+        <v>211</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>747.75</v>
+      </c>
+      <c r="AA77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT77">
+        <v>74</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX77" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50">
+      <c r="A78" s="1">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G78" t="s">
+        <v>239</v>
+      </c>
+      <c r="H78" t="s">
+        <v>311</v>
+      </c>
+      <c r="I78" t="s">
+        <v>357</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44096</v>
+      </c>
+      <c r="K78">
+        <v>101</v>
+      </c>
+      <c r="L78" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M78">
+        <v>102.75</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+      <c r="O78">
+        <v>8</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>108.75</v>
+      </c>
+      <c r="AM78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>8</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78" s="2">
+        <v>44096</v>
+      </c>
+      <c r="AX78" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:50">
+      <c r="A79" s="1">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="2">
+        <v>42744</v>
+      </c>
+      <c r="G79" t="s">
+        <v>282</v>
+      </c>
+      <c r="H79" t="s">
+        <v>337</v>
+      </c>
+      <c r="I79" t="s">
+        <v>357</v>
+      </c>
+      <c r="J79" s="2">
+        <v>43234</v>
+      </c>
+      <c r="K79">
+        <v>146</v>
+      </c>
+      <c r="L79" s="2">
+        <v>43976</v>
+      </c>
+      <c r="M79">
+        <v>143.5</v>
+      </c>
+      <c r="N79">
+        <v>170</v>
+      </c>
+      <c r="O79">
+        <v>277</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>234</v>
+      </c>
+      <c r="R79">
+        <v>547.5</v>
+      </c>
+      <c r="Z79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT79">
+        <v>74</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX79" s="2">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:50">
+      <c r="A80" s="1">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43167</v>
+      </c>
+      <c r="G80" t="s">
+        <v>283</v>
+      </c>
+      <c r="H80" t="s">
+        <v>311</v>
+      </c>
+      <c r="I80" t="s">
+        <v>357</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44046</v>
+      </c>
+      <c r="K80">
+        <v>151</v>
+      </c>
+      <c r="L80" s="2">
+        <v>44456</v>
+      </c>
+      <c r="M80">
+        <v>512.5</v>
+      </c>
+      <c r="N80">
+        <v>66</v>
+      </c>
+      <c r="O80">
+        <v>25</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>-96.5</v>
+      </c>
+      <c r="R80">
+        <v>482</v>
+      </c>
+      <c r="AN80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>8</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80" s="2">
+        <v>44046</v>
+      </c>
+      <c r="AX80" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50">
+      <c r="A81" s="1">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="2">
+        <v>42753</v>
+      </c>
+      <c r="G81" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" t="s">
+        <v>337</v>
+      </c>
+      <c r="I81" t="s">
+        <v>357</v>
+      </c>
+      <c r="J81" s="2">
+        <v>42989</v>
+      </c>
+      <c r="K81">
+        <v>241</v>
+      </c>
+      <c r="L81" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M81">
+        <v>500.25</v>
+      </c>
+      <c r="N81">
+        <v>256.25</v>
+      </c>
+      <c r="O81">
+        <v>234</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>8</v>
+      </c>
+      <c r="R81">
+        <v>764.5</v>
+      </c>
+      <c r="Z81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT81">
+        <v>74</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX81" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" t="s">
+        <v>206</v>
+      </c>
+      <c r="F82" s="2">
+        <v>43713</v>
+      </c>
+      <c r="G82" t="s">
+        <v>285</v>
+      </c>
+      <c r="H82" t="s">
+        <v>295</v>
+      </c>
+      <c r="I82" t="s">
+        <v>344</v>
+      </c>
+      <c r="J82" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K82">
+        <v>305</v>
+      </c>
+      <c r="L82" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M82">
+        <v>516</v>
+      </c>
+      <c r="N82">
+        <v>247</v>
+      </c>
+      <c r="O82">
+        <v>210</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>19.75</v>
+      </c>
+      <c r="R82">
+        <v>782.75</v>
+      </c>
+      <c r="AH82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT82">
+        <v>74</v>
+      </c>
+      <c r="AU82">
+        <v>8</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX82" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:50">
+      <c r="A83" s="1">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="2">
+        <v>42724</v>
+      </c>
+      <c r="G83" t="s">
+        <v>286</v>
+      </c>
+      <c r="H83" t="s">
+        <v>338</v>
+      </c>
+      <c r="I83" t="s">
+        <v>365</v>
+      </c>
+      <c r="J83" s="2">
+        <v>43500</v>
+      </c>
+      <c r="K83">
+        <v>35</v>
+      </c>
+      <c r="L83" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M83">
+        <v>63</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>63</v>
+      </c>
+      <c r="Z83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX83" s="2">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50">
+      <c r="A84" s="1">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43286</v>
+      </c>
+      <c r="G84" t="s">
+        <v>287</v>
+      </c>
+      <c r="H84" t="s">
+        <v>338</v>
+      </c>
+      <c r="I84" t="s">
+        <v>365</v>
+      </c>
+      <c r="J84" s="2">
+        <v>43374</v>
+      </c>
+      <c r="K84">
+        <v>366</v>
+      </c>
+      <c r="L84" s="2">
+        <v>44372</v>
+      </c>
+      <c r="M84">
+        <v>520</v>
+      </c>
+      <c r="N84">
+        <v>150</v>
+      </c>
+      <c r="O84">
+        <v>174</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>89</v>
+      </c>
+      <c r="R84">
+        <v>759</v>
+      </c>
+      <c r="U84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT84">
+        <v>74</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>2</v>
+      </c>
+      <c r="AW84" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX84" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:50">
+      <c r="A85" s="1">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G85" t="s">
+        <v>288</v>
+      </c>
+      <c r="H85" t="s">
+        <v>339</v>
+      </c>
+      <c r="I85" t="s">
+        <v>365</v>
+      </c>
+      <c r="J85" s="2">
+        <v>43556</v>
+      </c>
+      <c r="K85">
+        <v>366</v>
+      </c>
+      <c r="L85" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M85">
+        <v>513</v>
+      </c>
+      <c r="N85">
+        <v>173</v>
+      </c>
+      <c r="O85">
+        <v>185</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>122</v>
+      </c>
+      <c r="R85">
+        <v>808</v>
+      </c>
+      <c r="U85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT85">
+        <v>74</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX85" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:50">
+      <c r="A86" s="1">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" s="2">
+        <v>42743</v>
+      </c>
+      <c r="G86" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" t="s">
+        <v>340</v>
+      </c>
+      <c r="I86" t="s">
+        <v>365</v>
+      </c>
+      <c r="J86" s="2">
+        <v>43108</v>
+      </c>
+      <c r="K86">
+        <v>178</v>
+      </c>
+      <c r="L86" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M86">
+        <v>150.75</v>
+      </c>
+      <c r="N86">
+        <v>192</v>
+      </c>
+      <c r="O86">
+        <v>182</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>97</v>
+      </c>
+      <c r="R86">
+        <v>439.75</v>
+      </c>
+      <c r="Z86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT86">
+        <v>74</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX86" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:50">
+      <c r="A87" s="1">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43023</v>
+      </c>
+      <c r="G87" t="s">
+        <v>290</v>
+      </c>
+      <c r="H87" t="s">
+        <v>341</v>
+      </c>
+      <c r="I87" t="s">
+        <v>366</v>
+      </c>
+      <c r="J87" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K87">
+        <v>99</v>
+      </c>
+      <c r="L87" s="2">
+        <v>43990</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>144</v>
+      </c>
+      <c r="O87">
+        <v>207</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>129</v>
+      </c>
+      <c r="R87">
+        <v>277</v>
+      </c>
+      <c r="AH87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT87">
+        <v>74</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX87" s="2">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="88" spans="1:50">
+      <c r="A88" s="1">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43030</v>
+      </c>
+      <c r="G88" t="s">
+        <v>250</v>
+      </c>
+      <c r="H88" t="s">
+        <v>318</v>
+      </c>
+      <c r="I88" t="s">
+        <v>353</v>
+      </c>
+      <c r="J88" s="2">
+        <v>43970</v>
+      </c>
+      <c r="K88">
+        <v>116</v>
+      </c>
+      <c r="L88" s="2">
+        <v>44085</v>
+      </c>
+      <c r="M88">
+        <v>185</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>-152</v>
+      </c>
+      <c r="R88">
+        <v>33</v>
+      </c>
+      <c r="AM88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="2">
+        <v>43970</v>
+      </c>
+      <c r="AX88" s="2">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50">
+      <c r="A89" s="1">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="2">
+        <v>42787</v>
+      </c>
+      <c r="G89" t="s">
+        <v>291</v>
+      </c>
+      <c r="H89" t="s">
+        <v>341</v>
+      </c>
+      <c r="I89" t="s">
+        <v>366</v>
+      </c>
+      <c r="J89" s="2">
+        <v>43619</v>
+      </c>
+      <c r="K89">
+        <v>196</v>
+      </c>
+      <c r="L89" s="2">
+        <v>44026</v>
+      </c>
+      <c r="M89">
+        <v>195.25</v>
+      </c>
+      <c r="N89">
+        <v>252</v>
+      </c>
+      <c r="O89">
+        <v>237</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>180.5</v>
+      </c>
+      <c r="R89">
+        <v>627.75</v>
+      </c>
+      <c r="Z89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>74</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX89" s="2">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:50">
+      <c r="A90" s="1">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G90" t="s">
+        <v>260</v>
+      </c>
+      <c r="H90" t="s">
+        <v>324</v>
+      </c>
+      <c r="I90" t="s">
+        <v>359</v>
+      </c>
+      <c r="J90" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K90">
+        <v>60</v>
+      </c>
+      <c r="L90" s="2">
+        <v>44147</v>
+      </c>
+      <c r="M90">
+        <v>96.75</v>
+      </c>
+      <c r="N90">
+        <v>6.75</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>103.5</v>
+      </c>
+      <c r="AM90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX90" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50">
+      <c r="A91" s="1">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" t="s">
+        <v>208</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43307</v>
+      </c>
+      <c r="G91" t="s">
+        <v>261</v>
+      </c>
+      <c r="H91" t="s">
+        <v>324</v>
+      </c>
+      <c r="I91" t="s">
+        <v>359</v>
+      </c>
+      <c r="J91" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K91">
+        <v>60</v>
+      </c>
+      <c r="L91" s="2">
+        <v>44147</v>
+      </c>
+      <c r="M91">
+        <v>96.75</v>
+      </c>
+      <c r="N91">
+        <v>6.75</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>103.5</v>
+      </c>
+      <c r="AM91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX91" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50">
+      <c r="A92" s="1">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="2">
+        <v>42857</v>
+      </c>
+      <c r="G92" t="s">
+        <v>292</v>
+      </c>
+      <c r="H92" t="s">
+        <v>342</v>
+      </c>
+      <c r="I92" t="s">
+        <v>366</v>
+      </c>
+      <c r="J92" s="2">
+        <v>43024</v>
+      </c>
+      <c r="K92">
+        <v>269</v>
+      </c>
+      <c r="L92" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M92">
+        <v>414.75</v>
+      </c>
+      <c r="N92">
+        <v>210</v>
+      </c>
+      <c r="O92">
+        <v>185</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>49</v>
+      </c>
+      <c r="R92">
+        <v>673.75</v>
+      </c>
+      <c r="AA92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT92">
+        <v>74</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX92" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50">
+      <c r="A93" s="1">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43086</v>
+      </c>
+      <c r="G93" t="s">
+        <v>293</v>
+      </c>
+      <c r="H93" t="s">
+        <v>341</v>
+      </c>
+      <c r="I93" t="s">
+        <v>366</v>
+      </c>
+      <c r="J93" s="2">
+        <v>43738</v>
+      </c>
+      <c r="K93">
+        <v>274</v>
+      </c>
+      <c r="L93" s="2">
+        <v>44104</v>
+      </c>
+      <c r="M93">
+        <v>509</v>
+      </c>
+      <c r="N93">
+        <v>336</v>
+      </c>
+      <c r="O93">
+        <v>254</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>96</v>
+      </c>
+      <c r="R93">
+        <v>941</v>
+      </c>
+      <c r="AA93" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT93">
+        <v>74</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX93" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50">
+      <c r="A94" s="1">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" t="s">
+        <v>209</v>
+      </c>
+      <c r="F94" s="2">
+        <v>43013</v>
+      </c>
+      <c r="G94" t="s">
+        <v>280</v>
+      </c>
+      <c r="H94" t="s">
+        <v>333</v>
+      </c>
+      <c r="I94" t="s">
+        <v>361</v>
+      </c>
+      <c r="J94" s="2">
+        <v>43745</v>
+      </c>
+      <c r="K94">
+        <v>366</v>
+      </c>
+      <c r="L94" s="2">
+        <v>44408</v>
+      </c>
+      <c r="M94">
+        <v>394</v>
+      </c>
+      <c r="N94">
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>90</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>404</v>
+      </c>
+      <c r="AA94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT94">
+        <v>74</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX94" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50">
+      <c r="A95" s="1">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" t="s">
+        <v>210</v>
+      </c>
+      <c r="F95" s="2">
+        <v>42960</v>
+      </c>
+      <c r="G95" t="s">
+        <v>220</v>
+      </c>
+      <c r="H95" t="s">
+        <v>298</v>
+      </c>
+      <c r="I95" t="s">
+        <v>347</v>
+      </c>
+      <c r="J95" s="2">
+        <v>43661</v>
+      </c>
+      <c r="K95">
+        <v>14</v>
+      </c>
+      <c r="L95" s="2">
+        <v>43844</v>
+      </c>
+      <c r="M95">
+        <v>14.5</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>14.5</v>
+      </c>
+      <c r="AM95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX95" s="2">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50">
+      <c r="A96" s="1">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" t="s">
+        <v>211</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G96" t="s">
+        <v>229</v>
+      </c>
+      <c r="H96" t="s">
+        <v>303</v>
+      </c>
+      <c r="I96" t="s">
+        <v>351</v>
+      </c>
+      <c r="J96" s="2">
+        <v>43878</v>
+      </c>
+      <c r="K96">
+        <v>319</v>
+      </c>
+      <c r="L96" s="2">
+        <v>44680</v>
+      </c>
+      <c r="M96">
+        <v>53</v>
+      </c>
+      <c r="N96">
+        <v>165</v>
+      </c>
+      <c r="O96">
+        <v>118</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>244</v>
+      </c>
+      <c r="R96">
+        <v>462</v>
+      </c>
+      <c r="AH96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>74</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="2">
+        <v>43878</v>
+      </c>
+      <c r="AX96" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:50">
+      <c r="A97" s="1">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" t="s">
+        <v>212</v>
+      </c>
+      <c r="F97" s="2">
+        <v>43330</v>
+      </c>
+      <c r="G97" t="s">
+        <v>294</v>
+      </c>
+      <c r="H97" t="s">
+        <v>343</v>
+      </c>
+      <c r="I97" t="s">
+        <v>367</v>
+      </c>
+      <c r="J97" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K97">
+        <v>60</v>
+      </c>
+      <c r="L97" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M97">
+        <v>84</v>
+      </c>
+      <c r="N97">
+        <v>16</v>
+      </c>
+      <c r="O97">
+        <v>13</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>100</v>
+      </c>
+      <c r="AJ97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>8</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX97" s="2">
+        <v>44196</v>
       </c>
     </row>
   </sheetData>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="365">
   <si>
     <t>filename</t>
   </si>
@@ -169,12 +169,963 @@
   </si>
   <si>
     <t>fineNorm</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Meran_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Mölten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Montan_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Nals_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Natz-Schabs_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Niederdorf_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfalzen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Plaus_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Prad am Stilfser Joch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Rasen-Antholz_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Ratschings_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Ritten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Sarntal_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Schenna_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Schlanders_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_St.Lorenzen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_St.Pankraz_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Sterzing_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Terenten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Tscherms_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Völs am Schlern_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Welsberg_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Algund_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Bozen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Branzoll_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Brixen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Bruneck_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Eppan a.d. Weinstr._2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Freienfeld_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Gargazon_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Klausen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Laas_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Lana_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Leifers_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Mals_2020.xlsx</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>Sozialgenossenschaft Tagesmütter - Gen.</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Mölten</t>
+  </si>
+  <si>
+    <t>Montan</t>
+  </si>
+  <si>
+    <t>Nals</t>
+  </si>
+  <si>
+    <t>Natz-Schabs</t>
+  </si>
+  <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Plaus</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
+    <t>St.Pankraz</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Terenten</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Welsberg</t>
+  </si>
+  <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Branzoll</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr.</t>
+  </si>
+  <si>
+    <t>Freienfeld</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Laas</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Mals</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>SCHEITLER SABINE ISABELLA</t>
+  </si>
+  <si>
+    <t>MARINI ANNARITA</t>
+  </si>
+  <si>
+    <t>INNERHOFER MARTHA</t>
+  </si>
+  <si>
+    <t>FLENGER ALEXANDRA</t>
+  </si>
+  <si>
+    <t>PICHLER ELISABETH</t>
+  </si>
+  <si>
+    <t>VARHANIKOVA LENKA</t>
+  </si>
+  <si>
+    <t>KALTENHAUSER ADELHEID</t>
+  </si>
+  <si>
+    <t>KARGRUBER AGNES</t>
+  </si>
+  <si>
+    <t>MAIRHOFER HEIDRUN</t>
+  </si>
+  <si>
+    <t>LETZNER PETRA</t>
+  </si>
+  <si>
+    <t>GURSCHLER ANDREA</t>
+  </si>
+  <si>
+    <t>RADWANSKA KATARZYNA</t>
+  </si>
+  <si>
+    <t>PEINTNER CAROLIN</t>
+  </si>
+  <si>
+    <t>LERCHNER MARTA</t>
+  </si>
+  <si>
+    <t>BURGER SIMONE</t>
+  </si>
+  <si>
+    <t>LIENHART ELISABETH</t>
+  </si>
+  <si>
+    <t>FINK PAULA</t>
+  </si>
+  <si>
+    <t>STUEFER DOROTHEA</t>
+  </si>
+  <si>
+    <t>LEITNER ANNELIES</t>
+  </si>
+  <si>
+    <t>UNTERTHURNER CARMEN</t>
+  </si>
+  <si>
+    <t>LAIMER HELGA</t>
+  </si>
+  <si>
+    <t>FÜRLER VERONIKA</t>
+  </si>
+  <si>
+    <t>LECHNER MARTHA</t>
+  </si>
+  <si>
+    <t>LAGEDER JOHANNA</t>
+  </si>
+  <si>
+    <t>HASELRIEDER ANGELIKA</t>
+  </si>
+  <si>
+    <t>RAUTER INGE</t>
+  </si>
+  <si>
+    <t>LADURNER JOHANNA</t>
+  </si>
+  <si>
+    <t>BRUNELLO CHRISTINE</t>
+  </si>
+  <si>
+    <t>SPERANZA ROMINA</t>
+  </si>
+  <si>
+    <t>KLOSTERMAIER EVELYN</t>
+  </si>
+  <si>
+    <t>MENAPACE ELENA</t>
+  </si>
+  <si>
+    <t>BONADIO CONCETTA</t>
+  </si>
+  <si>
+    <t>STEGER SONYA</t>
+  </si>
+  <si>
+    <t>WERTH AGATHA</t>
+  </si>
+  <si>
+    <t>GASSER MARIANNA</t>
+  </si>
+  <si>
+    <t>DIETRICH MARGRIT</t>
+  </si>
+  <si>
+    <t>WIPFLER MARIETTA KATHARINA</t>
+  </si>
+  <si>
+    <t>POLITI MARINA</t>
+  </si>
+  <si>
+    <t>CANDOTTI MARTINA</t>
+  </si>
+  <si>
+    <t>PUFF CHRISTINA</t>
+  </si>
+  <si>
+    <t>PUNER PAULA</t>
+  </si>
+  <si>
+    <t>TAFERNER PETRA</t>
+  </si>
+  <si>
+    <t>LANTHALER UTE</t>
+  </si>
+  <si>
+    <t>KIER CLAUDIA</t>
+  </si>
+  <si>
+    <t>PLATTNER HELENE</t>
+  </si>
+  <si>
+    <t>KRÖSS WALTRAUD</t>
+  </si>
+  <si>
+    <t>GIOVANAZZI ANJA</t>
+  </si>
+  <si>
+    <t>MITTERHOFER MARTINA</t>
+  </si>
+  <si>
+    <t>Meran/Merano</t>
+  </si>
+  <si>
+    <t>Mölten/Meltina</t>
+  </si>
+  <si>
+    <t>Montan/Montagna</t>
+  </si>
+  <si>
+    <t>Terlan/Terlano</t>
+  </si>
+  <si>
+    <t>Brixen/Bressanone</t>
+  </si>
+  <si>
+    <t>Welsberg/Monguelfo</t>
+  </si>
+  <si>
+    <t>Bruneck/Brunico</t>
+  </si>
+  <si>
+    <t>Pfitsch/Val di Vizze</t>
+  </si>
+  <si>
+    <t>Schluderns/Sluderno</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch/Prato allo Stelvio</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz/Rasun Anterselva</t>
+  </si>
+  <si>
+    <t>Ritten/Renon</t>
+  </si>
+  <si>
+    <t>Bozen/Bolzano</t>
+  </si>
+  <si>
+    <t>Sarntal/Sarentino</t>
+  </si>
+  <si>
+    <t>Lana/Lana</t>
+  </si>
+  <si>
+    <t>Schlanders/Silandro</t>
+  </si>
+  <si>
+    <t>Freienfeld/Campo di Trens</t>
+  </si>
+  <si>
+    <t>Terenten/Terento</t>
+  </si>
+  <si>
+    <t>Völs am Schlern/Fie' allo Sciliar</t>
+  </si>
+  <si>
+    <t>Olang/Valdaora</t>
+  </si>
+  <si>
+    <t>Algund/Lagundo</t>
+  </si>
+  <si>
+    <t>Leifers/Laives</t>
+  </si>
+  <si>
+    <t>Vahrn/Varna</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr./Appiano s.s.d.v.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -227,11 +1178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,13 +1478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AX1"/>
+  <dimension ref="A1:AX96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:50">
+    <row r="1" spans="1:50">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,6 +1631,7123 @@
       </c>
       <c r="AX1" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K2">
+        <v>305</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44288</v>
+      </c>
+      <c r="M2">
+        <v>359.75</v>
+      </c>
+      <c r="N2">
+        <v>168</v>
+      </c>
+      <c r="O2">
+        <v>156</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>55.5</v>
+      </c>
+      <c r="R2">
+        <v>583.25</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>74</v>
+      </c>
+      <c r="AU2">
+        <v>8</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" s="1">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43724</v>
+      </c>
+      <c r="K3">
+        <v>313</v>
+      </c>
+      <c r="L3" s="2">
+        <v>44143</v>
+      </c>
+      <c r="M3">
+        <v>291.75</v>
+      </c>
+      <c r="N3">
+        <v>136</v>
+      </c>
+      <c r="O3">
+        <v>130</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>125</v>
+      </c>
+      <c r="R3">
+        <v>552.75</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>74</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" s="1">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42790</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K4">
+        <v>241</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M4">
+        <v>626.5</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>286</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>7.75</v>
+      </c>
+      <c r="R4">
+        <v>934.25</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>74</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42992</v>
+      </c>
+      <c r="G5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43178</v>
+      </c>
+      <c r="K5">
+        <v>269</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M5">
+        <v>639</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>278</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>73.5</v>
+      </c>
+      <c r="R5">
+        <v>1012.5</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>74</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" s="1">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43535</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44151</v>
+      </c>
+      <c r="K6">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M6">
+        <v>72.5</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>99.5</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>8</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>44151</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44148</v>
+      </c>
+      <c r="K7">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45191</v>
+      </c>
+      <c r="M7">
+        <v>79.25</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>79.25</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>8</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>44148</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43307</v>
+      </c>
+      <c r="G8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44148</v>
+      </c>
+      <c r="K8">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M8">
+        <v>79.25</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>79.25</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>8</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>44148</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43021</v>
+      </c>
+      <c r="G9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K9">
+        <v>262</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M9">
+        <v>409</v>
+      </c>
+      <c r="N9">
+        <v>228</v>
+      </c>
+      <c r="O9">
+        <v>185</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>19.75</v>
+      </c>
+      <c r="R9">
+        <v>656.75</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>74</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43034</v>
+      </c>
+      <c r="G10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43717</v>
+      </c>
+      <c r="K10">
+        <v>262</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M10">
+        <v>514.75</v>
+      </c>
+      <c r="N10">
+        <v>271</v>
+      </c>
+      <c r="O10">
+        <v>216</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-18.75</v>
+      </c>
+      <c r="R10">
+        <v>767</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>74</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43052</v>
+      </c>
+      <c r="G11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" t="s">
+        <v>343</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43248</v>
+      </c>
+      <c r="K11">
+        <v>262</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M11">
+        <v>333.5</v>
+      </c>
+      <c r="N11">
+        <v>271</v>
+      </c>
+      <c r="O11">
+        <v>202</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>113.5</v>
+      </c>
+      <c r="R11">
+        <v>718</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>74</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I12" t="s">
+        <v>344</v>
+      </c>
+      <c r="J12" s="2">
+        <v>43878</v>
+      </c>
+      <c r="K12">
+        <v>319</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44680</v>
+      </c>
+      <c r="M12">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>165</v>
+      </c>
+      <c r="O12">
+        <v>118</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>244</v>
+      </c>
+      <c r="R12">
+        <v>462</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>74</v>
+      </c>
+      <c r="AU12">
+        <v>8</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>43878</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42761</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J13" s="2">
+        <v>43689</v>
+      </c>
+      <c r="K13">
+        <v>171</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44001</v>
+      </c>
+      <c r="M13">
+        <v>209</v>
+      </c>
+      <c r="N13">
+        <v>358</v>
+      </c>
+      <c r="O13">
+        <v>353</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>250</v>
+      </c>
+      <c r="R13">
+        <v>817</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>74</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43079</v>
+      </c>
+      <c r="G14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43738</v>
+      </c>
+      <c r="K14">
+        <v>366</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M14">
+        <v>623.75</v>
+      </c>
+      <c r="N14">
+        <v>209</v>
+      </c>
+      <c r="O14">
+        <v>195</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>39</v>
+      </c>
+      <c r="R14">
+        <v>871.75</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>74</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="2">
+        <v>42710</v>
+      </c>
+      <c r="G15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K15">
+        <v>241</v>
+      </c>
+      <c r="L15" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M15">
+        <v>454.5</v>
+      </c>
+      <c r="N15">
+        <v>226</v>
+      </c>
+      <c r="O15">
+        <v>214</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>18.5</v>
+      </c>
+      <c r="R15">
+        <v>699</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>74</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K16">
+        <v>366</v>
+      </c>
+      <c r="L16" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M16">
+        <v>745</v>
+      </c>
+      <c r="N16">
+        <v>230</v>
+      </c>
+      <c r="O16">
+        <v>224</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+      <c r="R16">
+        <v>1001</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>74</v>
+      </c>
+      <c r="AU16">
+        <v>8</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K17">
+        <v>366</v>
+      </c>
+      <c r="L17" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M17">
+        <v>745</v>
+      </c>
+      <c r="N17">
+        <v>230</v>
+      </c>
+      <c r="O17">
+        <v>224</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <v>1001</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>74</v>
+      </c>
+      <c r="AU17">
+        <v>8</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42926</v>
+      </c>
+      <c r="G18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" t="s">
+        <v>348</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K18">
+        <v>265</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M18">
+        <v>875</v>
+      </c>
+      <c r="N18">
+        <v>348</v>
+      </c>
+      <c r="O18">
+        <v>304</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-133.75</v>
+      </c>
+      <c r="R18">
+        <v>1089.25</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>74</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42593</v>
+      </c>
+      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" t="s">
+        <v>348</v>
+      </c>
+      <c r="J19" s="2">
+        <v>42982</v>
+      </c>
+      <c r="K19">
+        <v>220</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M19">
+        <v>244.75</v>
+      </c>
+      <c r="N19">
+        <v>168</v>
+      </c>
+      <c r="O19">
+        <v>152</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>41.75</v>
+      </c>
+      <c r="R19">
+        <v>454.5</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>74</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42873</v>
+      </c>
+      <c r="G20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J20" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K20">
+        <v>262</v>
+      </c>
+      <c r="L20" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M20">
+        <v>588.25</v>
+      </c>
+      <c r="N20">
+        <v>306</v>
+      </c>
+      <c r="O20">
+        <v>250</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>-7.25</v>
+      </c>
+      <c r="R20">
+        <v>887</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>74</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42960</v>
+      </c>
+      <c r="G21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" t="s">
+        <v>303</v>
+      </c>
+      <c r="I21" t="s">
+        <v>349</v>
+      </c>
+      <c r="J21" s="2">
+        <v>43661</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2">
+        <v>43844</v>
+      </c>
+      <c r="M21">
+        <v>14.5</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>14.5</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42753</v>
+      </c>
+      <c r="G22" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>350</v>
+      </c>
+      <c r="J22" s="2">
+        <v>43129</v>
+      </c>
+      <c r="K22">
+        <v>241</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M22">
+        <v>235.5</v>
+      </c>
+      <c r="N22">
+        <v>163</v>
+      </c>
+      <c r="O22">
+        <v>116</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>-18.5</v>
+      </c>
+      <c r="R22">
+        <v>380</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>74</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G23" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" t="s">
+        <v>351</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44096</v>
+      </c>
+      <c r="K23">
+        <v>101</v>
+      </c>
+      <c r="L23" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M23">
+        <v>102.75</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>108.75</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>8</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>44096</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42744</v>
+      </c>
+      <c r="G24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" t="s">
+        <v>306</v>
+      </c>
+      <c r="I24" t="s">
+        <v>351</v>
+      </c>
+      <c r="J24" s="2">
+        <v>43234</v>
+      </c>
+      <c r="K24">
+        <v>146</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43976</v>
+      </c>
+      <c r="M24">
+        <v>143.5</v>
+      </c>
+      <c r="N24">
+        <v>170</v>
+      </c>
+      <c r="O24">
+        <v>277</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>234</v>
+      </c>
+      <c r="R24">
+        <v>547.5</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>74</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" t="s">
+        <v>351</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44046</v>
+      </c>
+      <c r="K25">
+        <v>151</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44456</v>
+      </c>
+      <c r="M25">
+        <v>512.5</v>
+      </c>
+      <c r="N25">
+        <v>66</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>-96.5</v>
+      </c>
+      <c r="R25">
+        <v>482</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>44046</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42753</v>
+      </c>
+      <c r="G26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26" t="s">
+        <v>351</v>
+      </c>
+      <c r="J26" s="2">
+        <v>42989</v>
+      </c>
+      <c r="K26">
+        <v>241</v>
+      </c>
+      <c r="L26" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M26">
+        <v>500.25</v>
+      </c>
+      <c r="N26">
+        <v>256.25</v>
+      </c>
+      <c r="O26">
+        <v>234</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>764.5</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>74</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42782</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" t="s">
+        <v>348</v>
+      </c>
+      <c r="J27" s="2">
+        <v>43723</v>
+      </c>
+      <c r="K27">
+        <v>241</v>
+      </c>
+      <c r="L27" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M27">
+        <v>256</v>
+      </c>
+      <c r="N27">
+        <v>144</v>
+      </c>
+      <c r="O27">
+        <v>118</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>-15</v>
+      </c>
+      <c r="R27">
+        <v>385</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>74</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" t="s">
+        <v>348</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K28">
+        <v>53</v>
+      </c>
+      <c r="L28" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M28">
+        <v>79.25</v>
+      </c>
+      <c r="N28">
+        <v>29.75</v>
+      </c>
+      <c r="O28">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>109</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>8</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43023</v>
+      </c>
+      <c r="G29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" t="s">
+        <v>352</v>
+      </c>
+      <c r="J29" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K29">
+        <v>99</v>
+      </c>
+      <c r="L29" s="2">
+        <v>43990</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>144</v>
+      </c>
+      <c r="O29">
+        <v>207</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>129</v>
+      </c>
+      <c r="R29">
+        <v>277</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>74</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43030</v>
+      </c>
+      <c r="G30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" t="s">
+        <v>353</v>
+      </c>
+      <c r="J30" s="2">
+        <v>43970</v>
+      </c>
+      <c r="K30">
+        <v>116</v>
+      </c>
+      <c r="L30" s="2">
+        <v>44085</v>
+      </c>
+      <c r="M30">
+        <v>185</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>-152</v>
+      </c>
+      <c r="R30">
+        <v>33</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>43970</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="2">
+        <v>42787</v>
+      </c>
+      <c r="G31" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" t="s">
+        <v>352</v>
+      </c>
+      <c r="J31" s="2">
+        <v>43619</v>
+      </c>
+      <c r="K31">
+        <v>196</v>
+      </c>
+      <c r="L31" s="2">
+        <v>44026</v>
+      </c>
+      <c r="M31">
+        <v>195.25</v>
+      </c>
+      <c r="N31">
+        <v>252</v>
+      </c>
+      <c r="O31">
+        <v>237</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>180.5</v>
+      </c>
+      <c r="R31">
+        <v>627.75</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>74</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32" s="1">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G32" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" t="s">
+        <v>342</v>
+      </c>
+      <c r="J32" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K32">
+        <v>60</v>
+      </c>
+      <c r="L32" s="2">
+        <v>44147</v>
+      </c>
+      <c r="M32">
+        <v>96.75</v>
+      </c>
+      <c r="N32">
+        <v>6.75</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>103.5</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33" s="1">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43307</v>
+      </c>
+      <c r="G33" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" t="s">
+        <v>342</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K33">
+        <v>60</v>
+      </c>
+      <c r="L33" s="2">
+        <v>44147</v>
+      </c>
+      <c r="M33">
+        <v>96.75</v>
+      </c>
+      <c r="N33">
+        <v>6.75</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>103.5</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42857</v>
+      </c>
+      <c r="G34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" t="s">
+        <v>309</v>
+      </c>
+      <c r="I34" t="s">
+        <v>352</v>
+      </c>
+      <c r="J34" s="2">
+        <v>43024</v>
+      </c>
+      <c r="K34">
+        <v>269</v>
+      </c>
+      <c r="L34" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M34">
+        <v>414.75</v>
+      </c>
+      <c r="N34">
+        <v>210</v>
+      </c>
+      <c r="O34">
+        <v>185</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>49</v>
+      </c>
+      <c r="R34">
+        <v>673.75</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>74</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43086</v>
+      </c>
+      <c r="G35" t="s">
+        <v>243</v>
+      </c>
+      <c r="H35" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" t="s">
+        <v>352</v>
+      </c>
+      <c r="J35" s="2">
+        <v>43738</v>
+      </c>
+      <c r="K35">
+        <v>274</v>
+      </c>
+      <c r="L35" s="2">
+        <v>44104</v>
+      </c>
+      <c r="M35">
+        <v>509</v>
+      </c>
+      <c r="N35">
+        <v>336</v>
+      </c>
+      <c r="O35">
+        <v>254</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>96</v>
+      </c>
+      <c r="R35">
+        <v>941</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>74</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43062</v>
+      </c>
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H36" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" t="s">
+        <v>354</v>
+      </c>
+      <c r="J36" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K36">
+        <v>366</v>
+      </c>
+      <c r="L36" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M36">
+        <v>442</v>
+      </c>
+      <c r="N36">
+        <v>148</v>
+      </c>
+      <c r="O36">
+        <v>129</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>-12</v>
+      </c>
+      <c r="R36">
+        <v>578</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>74</v>
+      </c>
+      <c r="AU36">
+        <v>8</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G37" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" t="s">
+        <v>354</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44102</v>
+      </c>
+      <c r="K37">
+        <v>95</v>
+      </c>
+      <c r="L37" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M37">
+        <v>142.5</v>
+      </c>
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>177.5</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>8</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>44102</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43426</v>
+      </c>
+      <c r="G38" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" t="s">
+        <v>355</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43710</v>
+      </c>
+      <c r="K38">
+        <v>182</v>
+      </c>
+      <c r="L38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M38">
+        <v>154.25</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>62</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>154.25</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>74</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43563</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" t="s">
+        <v>312</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K39">
+        <v>305</v>
+      </c>
+      <c r="L39" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M39">
+        <v>587.75</v>
+      </c>
+      <c r="N39">
+        <v>204</v>
+      </c>
+      <c r="O39">
+        <v>217</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>17.5</v>
+      </c>
+      <c r="R39">
+        <v>809.25</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>74</v>
+      </c>
+      <c r="AU39">
+        <v>8</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" t="s">
+        <v>312</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K40">
+        <v>299</v>
+      </c>
+      <c r="L40" s="2">
+        <v>44190</v>
+      </c>
+      <c r="M40">
+        <v>677.75</v>
+      </c>
+      <c r="N40">
+        <v>126</v>
+      </c>
+      <c r="O40">
+        <v>195</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>-92.5</v>
+      </c>
+      <c r="R40">
+        <v>711.25</v>
+      </c>
+      <c r="AI40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT40">
+        <v>74</v>
+      </c>
+      <c r="AU40">
+        <v>8</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43235</v>
+      </c>
+      <c r="G41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H41" t="s">
+        <v>312</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" s="2">
+        <v>44116</v>
+      </c>
+      <c r="K41">
+        <v>23</v>
+      </c>
+      <c r="L41" s="2">
+        <v>44138</v>
+      </c>
+      <c r="M41">
+        <v>55.75</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>55.75</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>44116</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43713</v>
+      </c>
+      <c r="G42" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K42">
+        <v>305</v>
+      </c>
+      <c r="L42" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M42">
+        <v>516</v>
+      </c>
+      <c r="N42">
+        <v>247</v>
+      </c>
+      <c r="O42">
+        <v>210</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>19.75</v>
+      </c>
+      <c r="R42">
+        <v>782.75</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT42">
+        <v>74</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX42" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="2">
+        <v>42980</v>
+      </c>
+      <c r="G43" t="s">
+        <v>251</v>
+      </c>
+      <c r="H43" t="s">
+        <v>313</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" s="2">
+        <v>43017</v>
+      </c>
+      <c r="K43">
+        <v>182</v>
+      </c>
+      <c r="L43" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M43">
+        <v>170.5</v>
+      </c>
+      <c r="N43">
+        <v>390</v>
+      </c>
+      <c r="O43">
+        <v>227</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>560.5</v>
+      </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>74</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX43" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50">
+      <c r="A44" s="1">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G44" t="s">
+        <v>252</v>
+      </c>
+      <c r="H44" t="s">
+        <v>314</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" s="2">
+        <v>44056</v>
+      </c>
+      <c r="K44">
+        <v>141</v>
+      </c>
+      <c r="L44" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M44">
+        <v>526</v>
+      </c>
+      <c r="N44">
+        <v>70</v>
+      </c>
+      <c r="O44">
+        <v>35</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-99</v>
+      </c>
+      <c r="R44">
+        <v>497</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44" s="2">
+        <v>44056</v>
+      </c>
+      <c r="AX44" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50">
+      <c r="A45" s="1">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="2">
+        <v>42752</v>
+      </c>
+      <c r="G45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" t="s">
+        <v>315</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" s="2">
+        <v>43108</v>
+      </c>
+      <c r="K45">
+        <v>178</v>
+      </c>
+      <c r="L45" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M45">
+        <v>208</v>
+      </c>
+      <c r="N45">
+        <v>406</v>
+      </c>
+      <c r="O45">
+        <v>255</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>614</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>74</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX45" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43013</v>
+      </c>
+      <c r="G46" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" t="s">
+        <v>316</v>
+      </c>
+      <c r="I46" t="s">
+        <v>355</v>
+      </c>
+      <c r="J46" s="2">
+        <v>43745</v>
+      </c>
+      <c r="K46">
+        <v>366</v>
+      </c>
+      <c r="L46" s="2">
+        <v>44408</v>
+      </c>
+      <c r="M46">
+        <v>394</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>90</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>404</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>74</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX46" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43737</v>
+      </c>
+      <c r="G47" t="s">
+        <v>255</v>
+      </c>
+      <c r="H47" t="s">
+        <v>317</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" s="2">
+        <v>44186</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M47">
+        <v>13.5</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>13.5</v>
+      </c>
+      <c r="AM47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="2">
+        <v>44186</v>
+      </c>
+      <c r="AX47" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="2">
+        <v>43003</v>
+      </c>
+      <c r="G48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" t="s">
+        <v>317</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K48">
+        <v>262</v>
+      </c>
+      <c r="L48" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M48">
+        <v>335.25</v>
+      </c>
+      <c r="N48">
+        <v>120</v>
+      </c>
+      <c r="O48">
+        <v>125</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-11.5</v>
+      </c>
+      <c r="R48">
+        <v>443.75</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>74</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX48" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50">
+      <c r="A49" s="1">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43330</v>
+      </c>
+      <c r="G49" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" t="s">
+        <v>318</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M49">
+        <v>84</v>
+      </c>
+      <c r="N49">
+        <v>16</v>
+      </c>
+      <c r="O49">
+        <v>13</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX49" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50">
+      <c r="A50" s="1">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43292</v>
+      </c>
+      <c r="G50" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" t="s">
+        <v>319</v>
+      </c>
+      <c r="I50" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K50">
+        <v>305</v>
+      </c>
+      <c r="L50" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M50">
+        <v>459</v>
+      </c>
+      <c r="N50">
+        <v>337</v>
+      </c>
+      <c r="O50">
+        <v>214</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0.5</v>
+      </c>
+      <c r="R50">
+        <v>796.5</v>
+      </c>
+      <c r="AH50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>74</v>
+      </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX50" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="A51" s="1">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43541</v>
+      </c>
+      <c r="G51" t="s">
+        <v>259</v>
+      </c>
+      <c r="H51" t="s">
+        <v>320</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K51">
+        <v>53</v>
+      </c>
+      <c r="L51" s="2">
+        <v>44785</v>
+      </c>
+      <c r="M51">
+        <v>74.5</v>
+      </c>
+      <c r="N51">
+        <v>23.75</v>
+      </c>
+      <c r="O51">
+        <v>14</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>98.25</v>
+      </c>
+      <c r="AJ51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>8</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX51" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="2">
+        <v>42650</v>
+      </c>
+      <c r="G52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" t="s">
+        <v>310</v>
+      </c>
+      <c r="I52" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" s="2">
+        <v>43016</v>
+      </c>
+      <c r="K52">
+        <v>248</v>
+      </c>
+      <c r="L52" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>240</v>
+      </c>
+      <c r="O52">
+        <v>86</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>49</v>
+      </c>
+      <c r="R52">
+        <v>289</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <v>74</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX52" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50">
+      <c r="A53" s="1">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="2">
+        <v>42650</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" t="s">
+        <v>321</v>
+      </c>
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" s="2">
+        <v>43016</v>
+      </c>
+      <c r="K53">
+        <v>248</v>
+      </c>
+      <c r="L53" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M53">
+        <v>464.5</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>138</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>464.5</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT53">
+        <v>74</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50">
+      <c r="A54" s="1">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="2">
+        <v>43901</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" t="s">
+        <v>322</v>
+      </c>
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K54">
+        <v>29</v>
+      </c>
+      <c r="L54" s="2">
+        <v>44165</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>32.5</v>
+      </c>
+      <c r="O54">
+        <v>18</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>52.5</v>
+      </c>
+      <c r="AJ54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX54" s="2">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50">
+      <c r="A55" s="1">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="2">
+        <v>42772</v>
+      </c>
+      <c r="G55" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" t="s">
+        <v>323</v>
+      </c>
+      <c r="I55" t="s">
+        <v>353</v>
+      </c>
+      <c r="J55" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K55">
+        <v>192</v>
+      </c>
+      <c r="L55" s="2">
+        <v>44022</v>
+      </c>
+      <c r="M55">
+        <v>414.5</v>
+      </c>
+      <c r="N55">
+        <v>308</v>
+      </c>
+      <c r="O55">
+        <v>306</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>71.5</v>
+      </c>
+      <c r="R55">
+        <v>794</v>
+      </c>
+      <c r="Z55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>74</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX55" s="2">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50">
+      <c r="A56" s="1">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43737</v>
+      </c>
+      <c r="G56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" t="s">
+        <v>317</v>
+      </c>
+      <c r="I56" t="s">
+        <v>359</v>
+      </c>
+      <c r="J56" s="2">
+        <v>44060</v>
+      </c>
+      <c r="K56">
+        <v>126</v>
+      </c>
+      <c r="L56" s="2">
+        <v>44185</v>
+      </c>
+      <c r="M56">
+        <v>360.75</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>22</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-8.5</v>
+      </c>
+      <c r="R56">
+        <v>352.25</v>
+      </c>
+      <c r="AM56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="2">
+        <v>44060</v>
+      </c>
+      <c r="AX56" s="2">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50">
+      <c r="A57" s="1">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43001</v>
+      </c>
+      <c r="G57" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" t="s">
+        <v>324</v>
+      </c>
+      <c r="I57" t="s">
+        <v>353</v>
+      </c>
+      <c r="J57" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K57">
+        <v>40</v>
+      </c>
+      <c r="L57" s="2">
+        <v>43870</v>
+      </c>
+      <c r="M57">
+        <v>54</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>54</v>
+      </c>
+      <c r="AM57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX57" s="2">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50">
+      <c r="A58" s="1">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="2">
+        <v>42742</v>
+      </c>
+      <c r="G58" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" t="s">
+        <v>353</v>
+      </c>
+      <c r="J58" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K58">
+        <v>178</v>
+      </c>
+      <c r="L58" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M58">
+        <v>163</v>
+      </c>
+      <c r="N58">
+        <v>200</v>
+      </c>
+      <c r="O58">
+        <v>249</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>236</v>
+      </c>
+      <c r="R58">
+        <v>599</v>
+      </c>
+      <c r="Z58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT58">
+        <v>74</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX58" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43570</v>
+      </c>
+      <c r="G59" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" t="s">
+        <v>324</v>
+      </c>
+      <c r="I59" t="s">
+        <v>353</v>
+      </c>
+      <c r="J59" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K59">
+        <v>60</v>
+      </c>
+      <c r="L59" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M59">
+        <v>94</v>
+      </c>
+      <c r="N59">
+        <v>91.5</v>
+      </c>
+      <c r="O59">
+        <v>30</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>185.5</v>
+      </c>
+      <c r="AJ59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>8</v>
+      </c>
+      <c r="AV59">
+        <v>2</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50">
+      <c r="A60" s="1">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="2">
+        <v>42835</v>
+      </c>
+      <c r="G60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" t="s">
+        <v>353</v>
+      </c>
+      <c r="J60" s="2">
+        <v>43703</v>
+      </c>
+      <c r="K60">
+        <v>366</v>
+      </c>
+      <c r="L60" s="2">
+        <v>44220</v>
+      </c>
+      <c r="M60">
+        <v>73</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>74</v>
+      </c>
+      <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50">
+      <c r="A61" s="1">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="2">
+        <v>42656</v>
+      </c>
+      <c r="G61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" t="s">
+        <v>326</v>
+      </c>
+      <c r="I61" t="s">
+        <v>353</v>
+      </c>
+      <c r="J61" s="2">
+        <v>42996</v>
+      </c>
+      <c r="K61">
+        <v>248</v>
+      </c>
+      <c r="L61" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M61">
+        <v>735.25</v>
+      </c>
+      <c r="N61">
+        <v>376</v>
+      </c>
+      <c r="O61">
+        <v>333</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>7.25</v>
+      </c>
+      <c r="R61">
+        <v>1118.5</v>
+      </c>
+      <c r="Z61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT61">
+        <v>74</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50">
+      <c r="A62" s="1">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="2">
+        <v>43030</v>
+      </c>
+      <c r="G62" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" t="s">
+        <v>353</v>
+      </c>
+      <c r="J62" s="2">
+        <v>43227</v>
+      </c>
+      <c r="K62">
+        <v>255</v>
+      </c>
+      <c r="L62" s="2">
+        <v>44085</v>
+      </c>
+      <c r="M62">
+        <v>271</v>
+      </c>
+      <c r="N62">
+        <v>391</v>
+      </c>
+      <c r="O62">
+        <v>284</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>319</v>
+      </c>
+      <c r="R62">
+        <v>981</v>
+      </c>
+      <c r="AM62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT62">
+        <v>74</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX62" s="2">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50">
+      <c r="A63" s="1">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="2">
+        <v>44049</v>
+      </c>
+      <c r="G63" t="s">
+        <v>268</v>
+      </c>
+      <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" t="s">
+        <v>353</v>
+      </c>
+      <c r="J63" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K63">
+        <v>53</v>
+      </c>
+      <c r="L63" s="2">
+        <v>45163</v>
+      </c>
+      <c r="M63">
+        <v>92</v>
+      </c>
+      <c r="N63">
+        <v>32</v>
+      </c>
+      <c r="O63">
+        <v>18</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>124</v>
+      </c>
+      <c r="AJ63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>8</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX63" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:50">
+      <c r="A64" s="1">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="2">
+        <v>42748</v>
+      </c>
+      <c r="G64" t="s">
+        <v>269</v>
+      </c>
+      <c r="H64" t="s">
+        <v>328</v>
+      </c>
+      <c r="I64" t="s">
+        <v>353</v>
+      </c>
+      <c r="J64" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K64">
+        <v>179</v>
+      </c>
+      <c r="L64" s="2">
+        <v>44009</v>
+      </c>
+      <c r="M64">
+        <v>128.5</v>
+      </c>
+      <c r="N64">
+        <v>250</v>
+      </c>
+      <c r="O64">
+        <v>267</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>269</v>
+      </c>
+      <c r="R64">
+        <v>647.5</v>
+      </c>
+      <c r="Z64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>74</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX64" s="2">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="A65" s="1">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="2">
+        <v>42911</v>
+      </c>
+      <c r="G65" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" t="s">
+        <v>329</v>
+      </c>
+      <c r="I65" t="s">
+        <v>353</v>
+      </c>
+      <c r="J65" s="2">
+        <v>43115</v>
+      </c>
+      <c r="K65">
+        <v>262</v>
+      </c>
+      <c r="L65" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M65">
+        <v>529.5</v>
+      </c>
+      <c r="N65">
+        <v>460</v>
+      </c>
+      <c r="O65">
+        <v>305</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>91</v>
+      </c>
+      <c r="R65">
+        <v>1080.5</v>
+      </c>
+      <c r="AA65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT65">
+        <v>74</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX65" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="A66" s="1">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="2">
+        <v>42888</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" t="s">
+        <v>323</v>
+      </c>
+      <c r="I66" t="s">
+        <v>353</v>
+      </c>
+      <c r="J66" s="2">
+        <v>43885</v>
+      </c>
+      <c r="K66">
+        <v>174</v>
+      </c>
+      <c r="L66" s="2">
+        <v>44058</v>
+      </c>
+      <c r="M66">
+        <v>182.5</v>
+      </c>
+      <c r="N66">
+        <v>286</v>
+      </c>
+      <c r="O66">
+        <v>225</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>62</v>
+      </c>
+      <c r="R66">
+        <v>530.5</v>
+      </c>
+      <c r="AH66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>74</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="2">
+        <v>43885</v>
+      </c>
+      <c r="AX66" s="2">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="A67" s="1">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="2">
+        <v>42909</v>
+      </c>
+      <c r="G67" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" t="s">
+        <v>330</v>
+      </c>
+      <c r="I67" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" s="2">
+        <v>43696</v>
+      </c>
+      <c r="K67">
+        <v>269</v>
+      </c>
+      <c r="L67" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M67">
+        <v>761</v>
+      </c>
+      <c r="N67">
+        <v>330</v>
+      </c>
+      <c r="O67">
+        <v>317</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>63.25</v>
+      </c>
+      <c r="R67">
+        <v>1154.25</v>
+      </c>
+      <c r="AA67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>74</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX67" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="A68" s="1">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="2">
+        <v>43600</v>
+      </c>
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" t="s">
+        <v>321</v>
+      </c>
+      <c r="I68" t="s">
+        <v>353</v>
+      </c>
+      <c r="J68" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K68">
+        <v>305</v>
+      </c>
+      <c r="L68" s="2">
+        <v>44372</v>
+      </c>
+      <c r="M68">
+        <v>797</v>
+      </c>
+      <c r="N68">
+        <v>261.5</v>
+      </c>
+      <c r="O68">
+        <v>300</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>31.5</v>
+      </c>
+      <c r="R68">
+        <v>1090</v>
+      </c>
+      <c r="AH68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>74</v>
+      </c>
+      <c r="AU68">
+        <v>8</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX68" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50">
+      <c r="A69" s="1">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G69" t="s">
+        <v>274</v>
+      </c>
+      <c r="H69" t="s">
+        <v>331</v>
+      </c>
+      <c r="I69" t="s">
+        <v>353</v>
+      </c>
+      <c r="J69" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K69">
+        <v>305</v>
+      </c>
+      <c r="L69" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M69">
+        <v>321.5</v>
+      </c>
+      <c r="N69">
+        <v>138</v>
+      </c>
+      <c r="O69">
+        <v>125</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>-3.5</v>
+      </c>
+      <c r="R69">
+        <v>456</v>
+      </c>
+      <c r="AI69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT69">
+        <v>74</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AX69" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:50">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="2">
+        <v>42940</v>
+      </c>
+      <c r="G70" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70" t="s">
+        <v>332</v>
+      </c>
+      <c r="I70" t="s">
+        <v>362</v>
+      </c>
+      <c r="J70" s="2">
+        <v>43857</v>
+      </c>
+      <c r="K70">
+        <v>340</v>
+      </c>
+      <c r="L70" s="2">
+        <v>44449</v>
+      </c>
+      <c r="M70">
+        <v>1199.5</v>
+      </c>
+      <c r="N70">
+        <v>348</v>
+      </c>
+      <c r="O70">
+        <v>383</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>1551.5</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>74</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70" s="2">
+        <v>43857</v>
+      </c>
+      <c r="AX70" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:50">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="2">
+        <v>43042</v>
+      </c>
+      <c r="G71" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71" t="s">
+        <v>333</v>
+      </c>
+      <c r="I71" t="s">
+        <v>363</v>
+      </c>
+      <c r="J71" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K71">
+        <v>366</v>
+      </c>
+      <c r="L71" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M71">
+        <v>884.25</v>
+      </c>
+      <c r="N71">
+        <v>234</v>
+      </c>
+      <c r="O71">
+        <v>256</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>24.5</v>
+      </c>
+      <c r="R71">
+        <v>1142.75</v>
+      </c>
+      <c r="AA71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>74</v>
+      </c>
+      <c r="AU71">
+        <v>8</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX71" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50">
+      <c r="A72" s="1">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43014</v>
+      </c>
+      <c r="G72" t="s">
+        <v>277</v>
+      </c>
+      <c r="H72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I72" t="s">
+        <v>363</v>
+      </c>
+      <c r="J72" s="2">
+        <v>43367</v>
+      </c>
+      <c r="K72">
+        <v>366</v>
+      </c>
+      <c r="L72" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M72">
+        <v>868.5</v>
+      </c>
+      <c r="N72">
+        <v>296</v>
+      </c>
+      <c r="O72">
+        <v>267</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>29</v>
+      </c>
+      <c r="R72">
+        <v>1193.5</v>
+      </c>
+      <c r="AA72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>74</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX72" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50">
+      <c r="A73" s="1">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="2">
+        <v>42794</v>
+      </c>
+      <c r="G73" t="s">
+        <v>278</v>
+      </c>
+      <c r="H73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I73" t="s">
+        <v>347</v>
+      </c>
+      <c r="J73" s="2">
+        <v>43115</v>
+      </c>
+      <c r="K73">
+        <v>220</v>
+      </c>
+      <c r="L73" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M73">
+        <v>354.25</v>
+      </c>
+      <c r="N73">
+        <v>170</v>
+      </c>
+      <c r="O73">
+        <v>195</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>55.5</v>
+      </c>
+      <c r="R73">
+        <v>579.75</v>
+      </c>
+      <c r="Z73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>74</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX73" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50">
+      <c r="A74" s="1">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="2">
+        <v>42724</v>
+      </c>
+      <c r="G74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H74" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" t="s">
+        <v>364</v>
+      </c>
+      <c r="J74" s="2">
+        <v>43500</v>
+      </c>
+      <c r="K74">
+        <v>35</v>
+      </c>
+      <c r="L74" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M74">
+        <v>63</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>63</v>
+      </c>
+      <c r="Z74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX74" s="2">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:50">
+      <c r="A75" s="1">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43286</v>
+      </c>
+      <c r="G75" t="s">
+        <v>280</v>
+      </c>
+      <c r="H75" t="s">
+        <v>335</v>
+      </c>
+      <c r="I75" t="s">
+        <v>364</v>
+      </c>
+      <c r="J75" s="2">
+        <v>43374</v>
+      </c>
+      <c r="K75">
+        <v>366</v>
+      </c>
+      <c r="L75" s="2">
+        <v>44372</v>
+      </c>
+      <c r="M75">
+        <v>520</v>
+      </c>
+      <c r="N75">
+        <v>150</v>
+      </c>
+      <c r="O75">
+        <v>174</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>89</v>
+      </c>
+      <c r="R75">
+        <v>759</v>
+      </c>
+      <c r="U75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT75">
+        <v>74</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX75" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="A76" s="1">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G76" t="s">
+        <v>281</v>
+      </c>
+      <c r="H76" t="s">
+        <v>336</v>
+      </c>
+      <c r="I76" t="s">
+        <v>364</v>
+      </c>
+      <c r="J76" s="2">
+        <v>43556</v>
+      </c>
+      <c r="K76">
+        <v>366</v>
+      </c>
+      <c r="L76" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M76">
+        <v>513</v>
+      </c>
+      <c r="N76">
+        <v>173</v>
+      </c>
+      <c r="O76">
+        <v>185</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>122</v>
+      </c>
+      <c r="R76">
+        <v>808</v>
+      </c>
+      <c r="U76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>74</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX76" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:50">
+      <c r="A77" s="1">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="2">
+        <v>42743</v>
+      </c>
+      <c r="G77" t="s">
+        <v>282</v>
+      </c>
+      <c r="H77" t="s">
+        <v>337</v>
+      </c>
+      <c r="I77" t="s">
+        <v>364</v>
+      </c>
+      <c r="J77" s="2">
+        <v>43108</v>
+      </c>
+      <c r="K77">
+        <v>178</v>
+      </c>
+      <c r="L77" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M77">
+        <v>150.75</v>
+      </c>
+      <c r="N77">
+        <v>192</v>
+      </c>
+      <c r="O77">
+        <v>182</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>97</v>
+      </c>
+      <c r="R77">
+        <v>439.75</v>
+      </c>
+      <c r="Z77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT77">
+        <v>74</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX77" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50">
+      <c r="A78" s="1">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>175</v>
+      </c>
+      <c r="E78" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G78" t="s">
+        <v>252</v>
+      </c>
+      <c r="H78" t="s">
+        <v>314</v>
+      </c>
+      <c r="I78" t="s">
+        <v>357</v>
+      </c>
+      <c r="J78" s="2">
+        <v>43591</v>
+      </c>
+      <c r="K78">
+        <v>225</v>
+      </c>
+      <c r="L78" s="2">
+        <v>44055</v>
+      </c>
+      <c r="M78">
+        <v>837</v>
+      </c>
+      <c r="N78">
+        <v>450</v>
+      </c>
+      <c r="O78">
+        <v>470</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>144</v>
+      </c>
+      <c r="R78">
+        <v>1431</v>
+      </c>
+      <c r="AK78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT78">
+        <v>74</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX78" s="2">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:50">
+      <c r="A79" s="1">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="2">
+        <v>42889</v>
+      </c>
+      <c r="G79" t="s">
+        <v>283</v>
+      </c>
+      <c r="H79" t="s">
+        <v>314</v>
+      </c>
+      <c r="I79" t="s">
+        <v>357</v>
+      </c>
+      <c r="J79" s="2">
+        <v>43129</v>
+      </c>
+      <c r="K79">
+        <v>225</v>
+      </c>
+      <c r="L79" s="2">
+        <v>44055</v>
+      </c>
+      <c r="M79">
+        <v>819</v>
+      </c>
+      <c r="N79">
+        <v>400</v>
+      </c>
+      <c r="O79">
+        <v>424</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>70</v>
+      </c>
+      <c r="R79">
+        <v>1289</v>
+      </c>
+      <c r="AK79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT79">
+        <v>74</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX79" s="2">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="80" spans="1:50">
+      <c r="A80" s="1">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" t="s">
+        <v>206</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G80" t="s">
+        <v>222</v>
+      </c>
+      <c r="H80" t="s">
+        <v>298</v>
+      </c>
+      <c r="I80" t="s">
+        <v>344</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43878</v>
+      </c>
+      <c r="K80">
+        <v>319</v>
+      </c>
+      <c r="L80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="M80">
+        <v>865.5</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>122</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>-388.5</v>
+      </c>
+      <c r="R80">
+        <v>477</v>
+      </c>
+      <c r="AM80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT80">
+        <v>74</v>
+      </c>
+      <c r="AU80">
+        <v>8</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80" s="2">
+        <v>43878</v>
+      </c>
+      <c r="AX80" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50">
+      <c r="A81" s="1">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G81" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" t="s">
+        <v>305</v>
+      </c>
+      <c r="I81" t="s">
+        <v>351</v>
+      </c>
+      <c r="J81" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M81">
+        <v>8</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>8</v>
+      </c>
+      <c r="AM81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX81" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50">
+      <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="2">
+        <v>42960</v>
+      </c>
+      <c r="G82" t="s">
+        <v>231</v>
+      </c>
+      <c r="H82" t="s">
+        <v>303</v>
+      </c>
+      <c r="I82" t="s">
+        <v>349</v>
+      </c>
+      <c r="J82" s="2">
+        <v>43845</v>
+      </c>
+      <c r="K82">
+        <v>224</v>
+      </c>
+      <c r="L82" s="2">
+        <v>44068</v>
+      </c>
+      <c r="M82">
+        <v>113</v>
+      </c>
+      <c r="N82">
+        <v>200</v>
+      </c>
+      <c r="O82">
+        <v>188</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>256</v>
+      </c>
+      <c r="R82">
+        <v>569</v>
+      </c>
+      <c r="AM82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT82">
+        <v>74</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="2">
+        <v>43845</v>
+      </c>
+      <c r="AX82" s="2">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="83" spans="1:50">
+      <c r="A83" s="1">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" s="2">
+        <v>42925</v>
+      </c>
+      <c r="G83" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" t="s">
+        <v>316</v>
+      </c>
+      <c r="I83" t="s">
+        <v>355</v>
+      </c>
+      <c r="J83" s="2">
+        <v>43759</v>
+      </c>
+      <c r="K83">
+        <v>260</v>
+      </c>
+      <c r="L83" s="2">
+        <v>44090</v>
+      </c>
+      <c r="M83">
+        <v>469.25</v>
+      </c>
+      <c r="N83">
+        <v>210</v>
+      </c>
+      <c r="O83">
+        <v>200</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>24</v>
+      </c>
+      <c r="R83">
+        <v>703.25</v>
+      </c>
+      <c r="AA83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT83">
+        <v>74</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX83" s="2">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50">
+      <c r="A84" s="1">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G84" t="s">
+        <v>213</v>
+      </c>
+      <c r="H84" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" t="s">
+        <v>341</v>
+      </c>
+      <c r="J84" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K84">
+        <v>53</v>
+      </c>
+      <c r="L84" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M84">
+        <v>149.5</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>22</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>149.5</v>
+      </c>
+      <c r="AM84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AX84" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:50">
+      <c r="A85" s="1">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="2">
+        <v>42790</v>
+      </c>
+      <c r="G85" t="s">
+        <v>285</v>
+      </c>
+      <c r="H85" t="s">
+        <v>338</v>
+      </c>
+      <c r="I85" t="s">
+        <v>355</v>
+      </c>
+      <c r="J85" s="2">
+        <v>43339</v>
+      </c>
+      <c r="K85">
+        <v>262</v>
+      </c>
+      <c r="L85" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M85">
+        <v>479.75</v>
+      </c>
+      <c r="N85">
+        <v>150</v>
+      </c>
+      <c r="O85">
+        <v>161</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>-57.25</v>
+      </c>
+      <c r="R85">
+        <v>572.5</v>
+      </c>
+      <c r="Z85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT85">
+        <v>74</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX85" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:50">
+      <c r="A86" s="1">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="2">
+        <v>42769</v>
+      </c>
+      <c r="G86" t="s">
+        <v>286</v>
+      </c>
+      <c r="H86" t="s">
+        <v>313</v>
+      </c>
+      <c r="I86" t="s">
+        <v>355</v>
+      </c>
+      <c r="J86" s="2">
+        <v>43374</v>
+      </c>
+      <c r="K86">
+        <v>182</v>
+      </c>
+      <c r="L86" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M86">
+        <v>144</v>
+      </c>
+      <c r="N86">
+        <v>374</v>
+      </c>
+      <c r="O86">
+        <v>210</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>518</v>
+      </c>
+      <c r="Z86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT86">
+        <v>74</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX86" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:50">
+      <c r="A87" s="1">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43702</v>
+      </c>
+      <c r="G87" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" t="s">
+        <v>339</v>
+      </c>
+      <c r="I87" t="s">
+        <v>355</v>
+      </c>
+      <c r="J87" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K87">
+        <v>109</v>
+      </c>
+      <c r="L87" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M87">
+        <v>188.5</v>
+      </c>
+      <c r="N87">
+        <v>18</v>
+      </c>
+      <c r="O87">
+        <v>15</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>206.5</v>
+      </c>
+      <c r="AN87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AX87" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:50">
+      <c r="A88" s="1">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="2">
+        <v>42754</v>
+      </c>
+      <c r="G88" t="s">
+        <v>288</v>
+      </c>
+      <c r="H88" t="s">
+        <v>313</v>
+      </c>
+      <c r="I88" t="s">
+        <v>355</v>
+      </c>
+      <c r="J88" s="2">
+        <v>43122</v>
+      </c>
+      <c r="K88">
+        <v>31</v>
+      </c>
+      <c r="L88" s="2">
+        <v>43861</v>
+      </c>
+      <c r="M88">
+        <v>77.5</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>77.5</v>
+      </c>
+      <c r="Z88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX88" s="2">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50">
+      <c r="A89" s="1">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="2">
+        <v>42774</v>
+      </c>
+      <c r="G89" t="s">
+        <v>289</v>
+      </c>
+      <c r="H89" t="s">
+        <v>311</v>
+      </c>
+      <c r="I89" t="s">
+        <v>355</v>
+      </c>
+      <c r="J89" s="2">
+        <v>43074</v>
+      </c>
+      <c r="K89">
+        <v>182</v>
+      </c>
+      <c r="L89" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M89">
+        <v>190</v>
+      </c>
+      <c r="N89">
+        <v>380</v>
+      </c>
+      <c r="O89">
+        <v>231</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>570</v>
+      </c>
+      <c r="Z89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>74</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX89" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:50">
+      <c r="A90" s="1">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43285</v>
+      </c>
+      <c r="G90" t="s">
+        <v>290</v>
+      </c>
+      <c r="H90" t="s">
+        <v>340</v>
+      </c>
+      <c r="I90" t="s">
+        <v>355</v>
+      </c>
+      <c r="J90" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K90">
+        <v>60</v>
+      </c>
+      <c r="L90" s="2">
+        <v>44470</v>
+      </c>
+      <c r="M90">
+        <v>130.5</v>
+      </c>
+      <c r="N90">
+        <v>16.5</v>
+      </c>
+      <c r="O90">
+        <v>19</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>147</v>
+      </c>
+      <c r="AJ90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AX90" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50">
+      <c r="A91" s="1">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43013</v>
+      </c>
+      <c r="G91" t="s">
+        <v>254</v>
+      </c>
+      <c r="H91" t="s">
+        <v>316</v>
+      </c>
+      <c r="I91" t="s">
+        <v>355</v>
+      </c>
+      <c r="J91" s="2">
+        <v>43745</v>
+      </c>
+      <c r="K91">
+        <v>366</v>
+      </c>
+      <c r="L91" s="2">
+        <v>44408</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>150</v>
+      </c>
+      <c r="O91">
+        <v>75</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>187.5</v>
+      </c>
+      <c r="R91">
+        <v>337.5</v>
+      </c>
+      <c r="AA91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT91">
+        <v>74</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX91" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50">
+      <c r="A92" s="1">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>175</v>
+      </c>
+      <c r="E92" t="s">
+        <v>209</v>
+      </c>
+      <c r="F92" s="2">
+        <v>42868</v>
+      </c>
+      <c r="G92" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" t="s">
+        <v>340</v>
+      </c>
+      <c r="I92" t="s">
+        <v>355</v>
+      </c>
+      <c r="J92" s="2">
+        <v>43234</v>
+      </c>
+      <c r="K92">
+        <v>262</v>
+      </c>
+      <c r="L92" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M92">
+        <v>459.5</v>
+      </c>
+      <c r="N92">
+        <v>289</v>
+      </c>
+      <c r="O92">
+        <v>211</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>-0.75</v>
+      </c>
+      <c r="R92">
+        <v>747.75</v>
+      </c>
+      <c r="AA92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT92">
+        <v>74</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX92" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50">
+      <c r="A93" s="1">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43001</v>
+      </c>
+      <c r="G93" t="s">
+        <v>263</v>
+      </c>
+      <c r="H93" t="s">
+        <v>324</v>
+      </c>
+      <c r="I93" t="s">
+        <v>353</v>
+      </c>
+      <c r="J93" s="2">
+        <v>43871</v>
+      </c>
+      <c r="K93">
+        <v>201</v>
+      </c>
+      <c r="L93" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M93">
+        <v>48</v>
+      </c>
+      <c r="N93">
+        <v>144</v>
+      </c>
+      <c r="O93">
+        <v>118</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>129</v>
+      </c>
+      <c r="R93">
+        <v>321</v>
+      </c>
+      <c r="AM93" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT93">
+        <v>74</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="2">
+        <v>43871</v>
+      </c>
+      <c r="AX93" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50">
+      <c r="A94" s="1">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" s="2">
+        <v>42940</v>
+      </c>
+      <c r="G94" t="s">
+        <v>275</v>
+      </c>
+      <c r="H94" t="s">
+        <v>332</v>
+      </c>
+      <c r="I94" t="s">
+        <v>362</v>
+      </c>
+      <c r="J94" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K94">
+        <v>27</v>
+      </c>
+      <c r="L94" s="2">
+        <v>43857</v>
+      </c>
+      <c r="M94">
+        <v>90</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>90</v>
+      </c>
+      <c r="AM94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX94" s="2">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50">
+      <c r="A95" s="1">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
+        <v>175</v>
+      </c>
+      <c r="E95" t="s">
+        <v>211</v>
+      </c>
+      <c r="F95" s="2">
+        <v>42937</v>
+      </c>
+      <c r="G95" t="s">
+        <v>292</v>
+      </c>
+      <c r="H95" t="s">
+        <v>303</v>
+      </c>
+      <c r="I95" t="s">
+        <v>349</v>
+      </c>
+      <c r="J95" s="2">
+        <v>43486</v>
+      </c>
+      <c r="K95">
+        <v>290</v>
+      </c>
+      <c r="L95" s="2">
+        <v>44120</v>
+      </c>
+      <c r="M95">
+        <v>294</v>
+      </c>
+      <c r="N95">
+        <v>120</v>
+      </c>
+      <c r="O95">
+        <v>104</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>-6</v>
+      </c>
+      <c r="R95">
+        <v>408</v>
+      </c>
+      <c r="AA95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT95">
+        <v>74</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AX95" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50">
+      <c r="A96" s="1">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" t="s">
+        <v>211</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43235</v>
+      </c>
+      <c r="G96" t="s">
+        <v>249</v>
+      </c>
+      <c r="H96" t="s">
+        <v>312</v>
+      </c>
+      <c r="I96" t="s">
+        <v>356</v>
+      </c>
+      <c r="J96" s="2">
+        <v>44139</v>
+      </c>
+      <c r="K96">
+        <v>58</v>
+      </c>
+      <c r="L96" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M96">
+        <v>76.5</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>76.5</v>
+      </c>
+      <c r="AM96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="2">
+        <v>44139</v>
+      </c>
+      <c r="AX96" s="2">
+        <v>44196</v>
       </c>
     </row>
   </sheetData>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>filename</t>
   </si>
@@ -60,6 +60,9 @@
 n. 543_1025/2020</t>
   </si>
   <si>
+    <t>massimo543</t>
+  </si>
+  <si>
     <t>Ore contrattualizzate non erogate
 ai sensi della delibera
 n. 733/2020</t>
@@ -69,12 +72,12 @@
 nella fase 2 (finanziamento compensativo)</t>
   </si>
   <si>
+    <t>massimofc</t>
+  </si>
+  <si>
     <t>Ore totali rendicontate per il 2020</t>
   </si>
   <si>
-    <t>massimofc</t>
-  </si>
-  <si>
     <t>errCodFisc1</t>
   </si>
   <si>
@@ -172,12 +175,96 @@
   </si>
   <si>
     <t>fineNorm</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfalzen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Brixen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>HEISS ANTON</t>
+  </si>
+  <si>
+    <t>HEISS MICHAEL</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>Sozialgenossenschaft Tagesmütter - Gen.</t>
+  </si>
+  <si>
+    <t>Pfalzen</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>HSSNTN17T11B220O</t>
+  </si>
+  <si>
+    <t>HSSMHL17T11B220O</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>MAIRHOFER HEIDRUN</t>
+  </si>
+  <si>
+    <t>LETZNER PETRA</t>
+  </si>
+  <si>
+    <t>PUNER PAULA</t>
+  </si>
+  <si>
+    <t>Bruneck/Brunico</t>
+  </si>
+  <si>
+    <t>Pfitsch/Val di Vizze</t>
+  </si>
+  <si>
+    <t>Vahrn/Varna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -230,11 +317,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AY1"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:51">
+    <row r="1" spans="1:52">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,6 +773,569 @@
       </c>
       <c r="AY1" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K2">
+        <v>366</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M2">
+        <v>745</v>
+      </c>
+      <c r="N2">
+        <v>230</v>
+      </c>
+      <c r="O2">
+        <v>224</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>26</v>
+      </c>
+      <c r="R2">
+        <v>1955</v>
+      </c>
+      <c r="S2">
+        <v>1001</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>74</v>
+      </c>
+      <c r="AV2">
+        <v>8</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>715</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K3">
+        <v>366</v>
+      </c>
+      <c r="L3" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M3">
+        <v>745</v>
+      </c>
+      <c r="N3">
+        <v>230</v>
+      </c>
+      <c r="O3">
+        <v>224</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>1955</v>
+      </c>
+      <c r="S3">
+        <v>1001</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>74</v>
+      </c>
+      <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>715</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42926</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K4">
+        <v>265</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M4">
+        <v>875</v>
+      </c>
+      <c r="N4">
+        <v>348</v>
+      </c>
+      <c r="O4">
+        <v>304</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-133.75</v>
+      </c>
+      <c r="R4">
+        <v>3543</v>
+      </c>
+      <c r="S4">
+        <v>1089.25</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>74</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>862</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42593</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42982</v>
+      </c>
+      <c r="K5">
+        <v>220</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M5">
+        <v>244.75</v>
+      </c>
+      <c r="N5">
+        <v>168</v>
+      </c>
+      <c r="O5">
+        <v>152</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>41.75</v>
+      </c>
+      <c r="R5">
+        <v>2209</v>
+      </c>
+      <c r="S5">
+        <v>454.5</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>74</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1069</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42873</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K6">
+        <v>262</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M6">
+        <v>588.25</v>
+      </c>
+      <c r="N6">
+        <v>306</v>
+      </c>
+      <c r="O6">
+        <v>250</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-7.25</v>
+      </c>
+      <c r="R6">
+        <v>2444</v>
+      </c>
+      <c r="S6">
+        <v>887</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>74</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>722</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43042</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K7">
+        <v>366</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M7">
+        <v>884.25</v>
+      </c>
+      <c r="N7">
+        <v>234</v>
+      </c>
+      <c r="O7">
+        <v>256</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>24.5</v>
+      </c>
+      <c r="R7">
+        <v>2276</v>
+      </c>
+      <c r="S7">
+        <v>1142.75</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>74</v>
+      </c>
+      <c r="AV7">
+        <v>8</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>729</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43014</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43367</v>
+      </c>
+      <c r="K8">
+        <v>366</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M8">
+        <v>868.5</v>
+      </c>
+      <c r="N8">
+        <v>296</v>
+      </c>
+      <c r="O8">
+        <v>267</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>29</v>
+      </c>
+      <c r="R8">
+        <v>2309</v>
+      </c>
+      <c r="S8">
+        <v>1193.5</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>74</v>
+      </c>
+      <c r="AV8">
+        <v>8</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>708</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>44196</v>
       </c>
     </row>
   </sheetData>

--- a/storico.xlsx
+++ b/storico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="370">
   <si>
     <t>filename</t>
   </si>
@@ -177,13 +177,301 @@
     <t>fineNorm</t>
   </si>
   <si>
+    <t>Erklärung_Gemeinde_Algund_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Bozen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Branzoll_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Brixen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Bruneck_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Eppan a.d. Weinstr._2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Freienfeld_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Gargazon_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Laas_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Lana_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Klausen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Meran_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Leifers_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Mals_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Montan_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Mölten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Nals_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Niederdorf_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Natz-Schabs_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Plaus_2020.xlsx</t>
+  </si>
+  <si>
     <t>Erklärung_Gemeinde_Pfalzen_2020.xlsx</t>
   </si>
   <si>
-    <t>Erklärung_Gemeinde_Pfitsch_2020.xlsx</t>
-  </si>
-  <si>
-    <t>Erklärung_Gemeinde_Brixen_2020.xlsx</t>
+    <t>Erklärung_Gemeinde_Prad am Stilfser Joch_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Ratschings_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Rasen-Antholz_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Ritten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Sarntal_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Schenna_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Schlanders_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_St.Pankraz_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_St.Lorenzen_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Sterzing_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Terenten_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Tscherms_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Völs am Schlern_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Erklärung_Gemeinde_Welsberg_2020.xlsx</t>
+  </si>
+  <si>
+    <t>FLARER THEO</t>
+  </si>
+  <si>
+    <t>MIRANDOLA LENZ</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO</t>
+  </si>
+  <si>
+    <t>ALBRECHT LEO /</t>
+  </si>
+  <si>
+    <t>ALESSI CLOE</t>
+  </si>
+  <si>
+    <t>ANDRIGO THOMAS</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL /</t>
+  </si>
+  <si>
+    <t>BERTACCHE SAMUEL</t>
+  </si>
+  <si>
+    <t>BERTI RAPHAEL</t>
+  </si>
+  <si>
+    <t>BOVA SOPHIE</t>
+  </si>
+  <si>
+    <t>DAPUNT ZEILINGER MIRA</t>
+  </si>
+  <si>
+    <t>FILIPPIN ETTORE</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD</t>
+  </si>
+  <si>
+    <t>OCHSENREITER JAKOB</t>
+  </si>
+  <si>
+    <t>PREMSTALLER FELIX</t>
+  </si>
+  <si>
+    <t>RATSCHILLER ANTON LEO</t>
+  </si>
+  <si>
+    <t>RIVELLI CASTILLO LOLA</t>
+  </si>
+  <si>
+    <t>SAILER SENI</t>
+  </si>
+  <si>
+    <t>SIMONETTO GHELLER MATTEO</t>
+  </si>
+  <si>
+    <t>ZINGERLE MATHILDA</t>
+  </si>
+  <si>
+    <t>CABULA LEONARDO</t>
+  </si>
+  <si>
+    <t>ALBERTI VICKY</t>
+  </si>
+  <si>
+    <t>NITZ MIA</t>
+  </si>
+  <si>
+    <t>SANTON PHILIPP</t>
+  </si>
+  <si>
+    <t>TOLLOI MATTHAEUS</t>
+  </si>
+  <si>
+    <t>FABI MARIE (TM)</t>
+  </si>
+  <si>
+    <t>FRAU AARON</t>
+  </si>
+  <si>
+    <t>KOESSLER JOHAN</t>
+  </si>
+  <si>
+    <t>MADEDDU DAVIS</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES</t>
+  </si>
+  <si>
+    <t>TRATTER PIA</t>
+  </si>
+  <si>
+    <t>MAIR FINN /</t>
+  </si>
+  <si>
+    <t>HOCHKOFLER NADINE</t>
+  </si>
+  <si>
+    <t>BARBAGALLO GIADA</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE /</t>
+  </si>
+  <si>
+    <t>DE ZORDO LISA MARIE</t>
+  </si>
+  <si>
+    <t>ERB VIKTORIA</t>
+  </si>
+  <si>
+    <t>FREI KATHARINA *</t>
+  </si>
+  <si>
+    <t>GALANTIN ILVY MARIE</t>
+  </si>
+  <si>
+    <t>GASSER LARA</t>
+  </si>
+  <si>
+    <t>GURNDIN LENA</t>
+  </si>
+  <si>
+    <t>MAIRHOFER MARIE</t>
+  </si>
+  <si>
+    <t>PARIS MARIE</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI</t>
+  </si>
+  <si>
+    <t>BIASI PAUL</t>
+  </si>
+  <si>
+    <t>BREDENHOELLER LILLY SOPHIE</t>
+  </si>
+  <si>
+    <t>INNERHOFER SOPHIA</t>
+  </si>
+  <si>
+    <t>KLOTZNER LAHNER ELIAS</t>
+  </si>
+  <si>
+    <t>WIDMANN NIKLAS JAN</t>
+  </si>
+  <si>
+    <t>GAISER DARIA</t>
+  </si>
+  <si>
+    <t>VILL LIAM</t>
+  </si>
+  <si>
+    <t>KAUFMANN SAMUEL</t>
+  </si>
+  <si>
+    <t>TERLETH LUKAS</t>
+  </si>
+  <si>
+    <t>THALER DOMINIK</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE /</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN /</t>
+  </si>
+  <si>
+    <t>MAIR FINN</t>
+  </si>
+  <si>
+    <t>STEINWANDTER FELIX</t>
+  </si>
+  <si>
+    <t>THOMASER NOEMI</t>
+  </si>
+  <si>
+    <t>HOFER EVA</t>
+  </si>
+  <si>
+    <t>HOLZER LARISSA</t>
+  </si>
+  <si>
+    <t>LASTA VALENTIN</t>
+  </si>
+  <si>
+    <t>FILO JAKOB</t>
   </si>
   <si>
     <t>HEISS ANTON</t>
@@ -192,31 +480,373 @@
     <t>HEISS MICHAEL</t>
   </si>
   <si>
-    <t>HOFER EVA</t>
-  </si>
-  <si>
-    <t>HOLZER LARISSA</t>
-  </si>
-  <si>
-    <t>LASTA VALENTIN</t>
-  </si>
-  <si>
-    <t>ALBERTI VICKY</t>
-  </si>
-  <si>
-    <t>NITZ MIA</t>
+    <t>GRUBER IDA</t>
+  </si>
+  <si>
+    <t>GRAUS DAVID</t>
+  </si>
+  <si>
+    <t>HOFER LEO *</t>
+  </si>
+  <si>
+    <t>KOFLER PAULI /</t>
+  </si>
+  <si>
+    <t>OBERFRANK LUIS</t>
+  </si>
+  <si>
+    <t>STEINER EMMA /</t>
+  </si>
+  <si>
+    <t>STEINKASSERER ADRIAN</t>
+  </si>
+  <si>
+    <t>BURCHIA PINO</t>
+  </si>
+  <si>
+    <t>FILZ THIBAUD /neu</t>
+  </si>
+  <si>
+    <t>HOFER MILENA DOLORES</t>
+  </si>
+  <si>
+    <t>PLONER LEONIE</t>
+  </si>
+  <si>
+    <t>PLONER MARIAN</t>
+  </si>
+  <si>
+    <t>RAGGI MATTIA</t>
+  </si>
+  <si>
+    <t>STEINWANDTER ARTHUR</t>
+  </si>
+  <si>
+    <t>LOCHER LENI</t>
+  </si>
+  <si>
+    <t>STAUDER JOHANNA *</t>
+  </si>
+  <si>
+    <t>KAUFMANN JONAS /</t>
+  </si>
+  <si>
+    <t>DIETL JULIAN</t>
+  </si>
+  <si>
+    <t>HAFELE ELINA AURELIA</t>
+  </si>
+  <si>
+    <t>THALER YLENIA</t>
+  </si>
+  <si>
+    <t>PICHLER PAUL</t>
+  </si>
+  <si>
+    <t>TRATTER JOHANNES /</t>
+  </si>
+  <si>
+    <t>INNERHOFER JULIAN</t>
+  </si>
+  <si>
+    <t>BAUMGARTNER PAUL //</t>
+  </si>
+  <si>
+    <t>HOFER HANNAH</t>
+  </si>
+  <si>
+    <t>MOSER ELIAS</t>
   </si>
   <si>
     <t>Sozialgenossenschaft Tagesmütter - Gen.</t>
   </si>
   <si>
+    <t>Algund</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Branzoll</t>
+  </si>
+  <si>
+    <t>Brixen</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>Eppan a.d. Weinstr.</t>
+  </si>
+  <si>
+    <t>Freienfeld</t>
+  </si>
+  <si>
+    <t>Gargazon</t>
+  </si>
+  <si>
+    <t>Laas</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Klausen</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Leifers</t>
+  </si>
+  <si>
+    <t>Mals</t>
+  </si>
+  <si>
+    <t>Montan</t>
+  </si>
+  <si>
+    <t>Mölten</t>
+  </si>
+  <si>
+    <t>Nals</t>
+  </si>
+  <si>
+    <t>Niederdorf</t>
+  </si>
+  <si>
+    <t>Pfitsch</t>
+  </si>
+  <si>
+    <t>Natz-Schabs</t>
+  </si>
+  <si>
+    <t>Plaus</t>
+  </si>
+  <si>
     <t>Pfalzen</t>
   </si>
   <si>
-    <t>Pfitsch</t>
-  </si>
-  <si>
-    <t>Brixen</t>
+    <t>Prad am Stilfser Joch</t>
+  </si>
+  <si>
+    <t>Ratschings</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz</t>
+  </si>
+  <si>
+    <t>Ritten</t>
+  </si>
+  <si>
+    <t>Sarntal</t>
+  </si>
+  <si>
+    <t>Schenna</t>
+  </si>
+  <si>
+    <t>Schlanders</t>
+  </si>
+  <si>
+    <t>St.Pankraz</t>
+  </si>
+  <si>
+    <t>St.Lorenzen</t>
+  </si>
+  <si>
+    <t>Sterzing</t>
+  </si>
+  <si>
+    <t>Terenten</t>
+  </si>
+  <si>
+    <t>Tscherms</t>
+  </si>
+  <si>
+    <t>Völs am Schlern</t>
+  </si>
+  <si>
+    <t>Welsberg</t>
+  </si>
+  <si>
+    <t>FLRTHE18L11F132U</t>
+  </si>
+  <si>
+    <t>MRNLNZ19C17F132A</t>
+  </si>
+  <si>
+    <t>LBRLEO16R07A952F</t>
+  </si>
+  <si>
+    <t>LSSCLO20C51F132E</t>
+  </si>
+  <si>
+    <t>NDRTMS17B06A952J</t>
+  </si>
+  <si>
+    <t>BMGPLA19P29A952I</t>
+  </si>
+  <si>
+    <t>BRTSML17P23A952Y</t>
+  </si>
+  <si>
+    <t>BRTRHL17A07A952C</t>
+  </si>
+  <si>
+    <t>BVOSPH19D55A952V</t>
+  </si>
+  <si>
+    <t>DPNMRI17D50Z102Q</t>
+  </si>
+  <si>
+    <t>FLPTTR16R13A952A</t>
+  </si>
+  <si>
+    <t>FLZTBD17R22A952S</t>
+  </si>
+  <si>
+    <t>CHSJKB20M06A952B</t>
+  </si>
+  <si>
+    <t>PRMFLX17A13A952N</t>
+  </si>
+  <si>
+    <t>RTSNNL17H25F132F</t>
+  </si>
+  <si>
+    <t>RVLLLO17H42Z404I</t>
+  </si>
+  <si>
+    <t>SLRSNE17H23A952H</t>
+  </si>
+  <si>
+    <t>SMNMTT19E15A952W</t>
+  </si>
+  <si>
+    <t>ZNGMHL19H64A952H</t>
+  </si>
+  <si>
+    <t>CBLLRD17L24A952H</t>
+  </si>
+  <si>
+    <t>LBRVKY17S43B160U</t>
+  </si>
+  <si>
+    <t>NTZMIA17R46B160F</t>
+  </si>
+  <si>
+    <t>SNTPLP19A31B220R</t>
+  </si>
+  <si>
+    <t>TLLMTH17B28B220V</t>
+  </si>
+  <si>
+    <t>FBAMRA16T60F132X</t>
+  </si>
+  <si>
+    <t>FRARNA18L05A952U</t>
+  </si>
+  <si>
+    <t>KSSJHN19A02A952N</t>
+  </si>
+  <si>
+    <t>MDDDVS17A08A952N</t>
+  </si>
+  <si>
+    <t>TRTJNN18M26B160I</t>
+  </si>
+  <si>
+    <t>TRTPIA17H43B160S</t>
+  </si>
+  <si>
+    <t>MRAFNN19E01F132B</t>
+  </si>
+  <si>
+    <t>HCHNDN17M53I729Y</t>
+  </si>
+  <si>
+    <t>BRBGDI17L49A952B</t>
+  </si>
+  <si>
+    <t>BRDLLY18M66F132T</t>
+  </si>
+  <si>
+    <t>DZRLMR17B64A952J</t>
+  </si>
+  <si>
+    <t>RBEVTR17B43F132X</t>
+  </si>
+  <si>
+    <t>FREKHR19M65F132M</t>
+  </si>
+  <si>
+    <t>GLNLYM17A59F132K</t>
+  </si>
+  <si>
+    <t>GSSLRA17B48F132D</t>
+  </si>
+  <si>
+    <t>GRNLNE18L44F132V</t>
+  </si>
+  <si>
+    <t>MRHMRA17R45F132N</t>
+  </si>
+  <si>
+    <t>PRSMRA17E53F132P</t>
+  </si>
+  <si>
+    <t>KFLPLA19H24B220Y</t>
+  </si>
+  <si>
+    <t>BSIPLA18R31A952C</t>
+  </si>
+  <si>
+    <t>NNRSPH17B64F132A</t>
+  </si>
+  <si>
+    <t>KLTLSE17P14F132J</t>
+  </si>
+  <si>
+    <t>WDMNLS19C11F132C</t>
+  </si>
+  <si>
+    <t>GSRDRA17L61I729N</t>
+  </si>
+  <si>
+    <t>VLLLMI18E15I729L</t>
+  </si>
+  <si>
+    <t>KFMSML17R13A952W</t>
+  </si>
+  <si>
+    <t>TRLLKS17R26A952Z</t>
+  </si>
+  <si>
+    <t>THLDNK17S13F132U</t>
+  </si>
+  <si>
+    <t>PLNLNE20D45A952Z</t>
+  </si>
+  <si>
+    <t>PLNMRN18L26B160A</t>
+  </si>
+  <si>
+    <t>STNFLX17T10B220L</t>
+  </si>
+  <si>
+    <t>THMNMO16T46B220C</t>
+  </si>
+  <si>
+    <t>HFRVEA17L50B160H</t>
+  </si>
+  <si>
+    <t>HLZLSS16M51M067B</t>
+  </si>
+  <si>
+    <t>LSTVNT17E18B160K</t>
+  </si>
+  <si>
+    <t>FLIJKB17A26B160K</t>
   </si>
   <si>
     <t>HSSNTN17T11B220O</t>
@@ -225,37 +855,283 @@
     <t>HSSMHL17T11B220O</t>
   </si>
   <si>
-    <t>HFRVEA17L50B160H</t>
-  </si>
-  <si>
-    <t>HLZLSS16M51M067B</t>
-  </si>
-  <si>
-    <t>LSTVNT17E18B160K</t>
-  </si>
-  <si>
-    <t>LBRVKY17S43B160U</t>
-  </si>
-  <si>
-    <t>NTZMIA17R46B160F</t>
+    <t>GRBDIA17A58I729E</t>
+  </si>
+  <si>
+    <t>GRSDVD17B16B160N</t>
+  </si>
+  <si>
+    <t>HFRLEO18C02B160M</t>
+  </si>
+  <si>
+    <t>BRFLSU17A09B220H</t>
+  </si>
+  <si>
+    <t>STNMME18C48B220A</t>
+  </si>
+  <si>
+    <t>STNDRN17A18B220I</t>
+  </si>
+  <si>
+    <t>BRCPNI17R15B160Y</t>
+  </si>
+  <si>
+    <t>HFRMND17B61F132N</t>
+  </si>
+  <si>
+    <t>RGGMTT17E02B160Z</t>
+  </si>
+  <si>
+    <t>STNRHR17T17F132Y</t>
+  </si>
+  <si>
+    <t>LCHLNE17S63A952R</t>
+  </si>
+  <si>
+    <t>STDJNN18R71A952E</t>
+  </si>
+  <si>
+    <t>KFMJNS18S22F132I</t>
+  </si>
+  <si>
+    <t>DTLJLN19D08I729J</t>
+  </si>
+  <si>
+    <t>HFLLRL18A45I729A</t>
+  </si>
+  <si>
+    <t>THLYLN17P42F132U</t>
+  </si>
+  <si>
+    <t>PCHPLA19P05B220X</t>
+  </si>
+  <si>
+    <t>NNRJLN17A17B220Y</t>
+  </si>
+  <si>
+    <t>HFRHNH17P65B160X</t>
+  </si>
+  <si>
+    <t>MSRLSE18M18B220W</t>
+  </si>
+  <si>
+    <t>LADURNER JOHANNA</t>
+  </si>
+  <si>
+    <t>BRUNELLO CHRISTINE</t>
+  </si>
+  <si>
+    <t>STUEFER DOROTHEA</t>
+  </si>
+  <si>
+    <t>SPERANZA ROMINA</t>
+  </si>
+  <si>
+    <t>KLOSTERMAIER EVELYN</t>
+  </si>
+  <si>
+    <t>MENAPACE ELENA</t>
+  </si>
+  <si>
+    <t>HASELRIEDER ANGELIKA</t>
+  </si>
+  <si>
+    <t>BONADIO CONCETTA</t>
+  </si>
+  <si>
+    <t>STEGER SONYA</t>
+  </si>
+  <si>
+    <t>WERTH AGATHA</t>
+  </si>
+  <si>
+    <t>LIENHART ELISABETH</t>
+  </si>
+  <si>
+    <t>GASSER MARIANNA</t>
+  </si>
+  <si>
+    <t>DIETRICH MARGRIT</t>
+  </si>
+  <si>
+    <t>WIPFLER MARIETTA KATHARINA</t>
+  </si>
+  <si>
+    <t>POLITI MARINA</t>
+  </si>
+  <si>
+    <t>CANDOTTI MARTINA</t>
+  </si>
+  <si>
+    <t>PUFF CHRISTINA</t>
+  </si>
+  <si>
+    <t>PUNER PAULA</t>
+  </si>
+  <si>
+    <t>FEICHTER ELISABETH</t>
+  </si>
+  <si>
+    <t>TAFERNER PETRA</t>
+  </si>
+  <si>
+    <t>LANTHALER UTE</t>
+  </si>
+  <si>
+    <t>KIER CLAUDIA</t>
+  </si>
+  <si>
+    <t>PLATTNER HELENE</t>
+  </si>
+  <si>
+    <t>FÜRLER VERONIKA</t>
+  </si>
+  <si>
+    <t>VARHANIKOVA LENKA</t>
+  </si>
+  <si>
+    <t>GURSCHLER ANDREA</t>
+  </si>
+  <si>
+    <t>LAGEDER JOHANNA</t>
+  </si>
+  <si>
+    <t>MARINI ANNARITA</t>
+  </si>
+  <si>
+    <t>KRÖSS WALTRAUD</t>
+  </si>
+  <si>
+    <t>LAIMER HELGA</t>
+  </si>
+  <si>
+    <t>GIOVANAZZI ANJA</t>
+  </si>
+  <si>
+    <t>LEITNER ANNELIES</t>
+  </si>
+  <si>
+    <t>MITTERHOFER MARTINA</t>
+  </si>
+  <si>
+    <t>PEINTNER CAROLIN</t>
+  </si>
+  <si>
+    <t>SCHEITLER SABINE ISABELLA</t>
+  </si>
+  <si>
+    <t>UNTERTHURNER CARMEN</t>
+  </si>
+  <si>
+    <t>FLENGER ALEXANDRA</t>
+  </si>
+  <si>
+    <t>PICHLER ELISABETH</t>
+  </si>
+  <si>
+    <t>INNERHOFER MARTHA</t>
+  </si>
+  <si>
+    <t>KARGRUBER AGNES</t>
+  </si>
+  <si>
+    <t>LETZNER PETRA</t>
+  </si>
+  <si>
+    <t>KALTENHAUSER ADELHEID</t>
   </si>
   <si>
     <t>MAIRHOFER HEIDRUN</t>
   </si>
   <si>
-    <t>LETZNER PETRA</t>
-  </si>
-  <si>
-    <t>PUNER PAULA</t>
+    <t>RADWANSKA KATARZYNA</t>
+  </si>
+  <si>
+    <t>LERCHNER MARTA</t>
+  </si>
+  <si>
+    <t>BURGER SIMONE</t>
+  </si>
+  <si>
+    <t>FINK PAULA</t>
+  </si>
+  <si>
+    <t>LECHNER MARTHA</t>
+  </si>
+  <si>
+    <t>RAUTER INGE</t>
+  </si>
+  <si>
+    <t>Meran/Merano</t>
+  </si>
+  <si>
+    <t>Algund/Lagundo</t>
+  </si>
+  <si>
+    <t>Sarntal/Sarentino</t>
+  </si>
+  <si>
+    <t>Bozen/Bolzano</t>
+  </si>
+  <si>
+    <t>Völs am Schlern/Fie' allo Sciliar</t>
+  </si>
+  <si>
+    <t>Leifers/Laives</t>
+  </si>
+  <si>
+    <t>Vahrn/Varna</t>
   </si>
   <si>
     <t>Bruneck/Brunico</t>
   </si>
   <si>
+    <t>Eppan a.d. Weinstr./Appiano s.s.d.v.</t>
+  </si>
+  <si>
+    <t>Freienfeld/Campo di Trens</t>
+  </si>
+  <si>
+    <t>Terlan/Terlano</t>
+  </si>
+  <si>
+    <t>Schluderns/Sluderno</t>
+  </si>
+  <si>
+    <t>Lana/Lana</t>
+  </si>
+  <si>
+    <t>Rasen-Antholz/Rasun Anterselva</t>
+  </si>
+  <si>
+    <t>Schlanders/Silandro</t>
+  </si>
+  <si>
+    <t>Montan/Montagna</t>
+  </si>
+  <si>
+    <t>Mölten/Meltina</t>
+  </si>
+  <si>
+    <t>Welsberg/Monguelfo</t>
+  </si>
+  <si>
     <t>Pfitsch/Val di Vizze</t>
   </si>
   <si>
-    <t>Vahrn/Varna</t>
+    <t>Brixen/Bressanone</t>
+  </si>
+  <si>
+    <t>Prad am Stilfser Joch/Prato allo Stelvio</t>
+  </si>
+  <si>
+    <t>Ritten/Renon</t>
+  </si>
+  <si>
+    <t>Terenten/Terento</t>
+  </si>
+  <si>
+    <t>Olang/Valdaora</t>
   </si>
 </sst>
 </file>
@@ -617,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AZ97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,63 +1656,66 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="F2" s="2">
-        <v>43080</v>
+        <v>43292</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="J2" s="2">
-        <v>43360</v>
+        <v>43892</v>
       </c>
       <c r="K2">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="L2" s="2">
         <v>44435</v>
       </c>
       <c r="M2">
-        <v>745</v>
+        <v>459</v>
       </c>
       <c r="N2">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="O2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>26</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1955</v>
+        <v>477</v>
       </c>
       <c r="S2">
-        <v>1001</v>
-      </c>
-      <c r="AB2" t="b">
+        <v>796.5</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="b">
         <v>1</v>
       </c>
       <c r="AU2">
@@ -849,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>715</v>
+        <v>183</v>
       </c>
       <c r="AY2" s="2">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="AZ2" s="2">
         <v>44196</v>
@@ -860,67 +1739,67 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2">
-        <v>43080</v>
+        <v>43541</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="J3" s="2">
-        <v>43360</v>
+        <v>44144</v>
       </c>
       <c r="K3">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2">
-        <v>44435</v>
+        <v>44785</v>
       </c>
       <c r="M3">
-        <v>745</v>
+        <v>74.5</v>
       </c>
       <c r="N3">
-        <v>230</v>
+        <v>23.75</v>
       </c>
       <c r="O3">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1001</v>
-      </c>
-      <c r="AB3" t="b">
+        <v>98.25</v>
+      </c>
+      <c r="AK3" t="b">
         <v>1</v>
       </c>
       <c r="AU3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>8</v>
@@ -929,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>43831</v>
+        <v>44144</v>
       </c>
       <c r="AZ3" s="2">
         <v>44196</v>
@@ -940,63 +1819,63 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="F4" s="2">
-        <v>42926</v>
+        <v>42650</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="J4" s="2">
-        <v>43213</v>
+        <v>43016</v>
       </c>
       <c r="K4">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="L4" s="2">
-        <v>44095</v>
+        <v>44078</v>
       </c>
       <c r="M4">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="O4">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-133.75</v>
+        <v>49</v>
       </c>
       <c r="R4">
-        <v>3543</v>
+        <v>1234</v>
       </c>
       <c r="S4">
-        <v>1089.25</v>
-      </c>
-      <c r="AB4" t="b">
+        <v>289</v>
+      </c>
+      <c r="AA4" t="b">
         <v>1</v>
       </c>
       <c r="AU4">
@@ -1009,74 +1888,77 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>862</v>
+        <v>1059</v>
       </c>
       <c r="AY4" s="2">
         <v>43831</v>
       </c>
       <c r="AZ4" s="2">
-        <v>44095</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2">
-        <v>42593</v>
+        <v>42650</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="J5" s="2">
-        <v>42982</v>
+        <v>43016</v>
       </c>
       <c r="K5">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L5" s="2">
-        <v>44050</v>
+        <v>44078</v>
       </c>
       <c r="M5">
-        <v>244.75</v>
+        <v>464.5</v>
       </c>
       <c r="N5">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>41.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2209</v>
+        <v>1983</v>
       </c>
       <c r="S5">
-        <v>454.5</v>
+        <v>464.5</v>
       </c>
       <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="b">
         <v>1</v>
       </c>
       <c r="AU5">
@@ -1089,238 +1971,241 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="AY5" s="2">
         <v>43831</v>
       </c>
       <c r="AZ5" s="2">
-        <v>44050</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2">
-        <v>42873</v>
+        <v>43901</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="J6" s="2">
-        <v>43353</v>
+        <v>44137</v>
       </c>
       <c r="K6">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2">
-        <v>44092</v>
+        <v>44165</v>
       </c>
       <c r="M6">
-        <v>588.25</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>306</v>
+        <v>32.5</v>
       </c>
       <c r="O6">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>-7.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2444</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>887</v>
-      </c>
-      <c r="AB6" t="b">
+        <v>52.5</v>
+      </c>
+      <c r="AK6" t="b">
         <v>1</v>
       </c>
       <c r="AU6">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX6">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>43831</v>
+        <v>44137</v>
       </c>
       <c r="AZ6" s="2">
-        <v>44092</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2">
-        <v>43042</v>
+        <v>42772</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="J7" s="2">
-        <v>43346</v>
+        <v>43353</v>
       </c>
       <c r="K7">
-        <v>366</v>
+        <v>192</v>
       </c>
       <c r="L7" s="2">
-        <v>44442</v>
+        <v>44022</v>
       </c>
       <c r="M7">
-        <v>884.25</v>
+        <v>414.5</v>
       </c>
       <c r="N7">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="O7">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24.5</v>
+        <v>71.5</v>
       </c>
       <c r="R7">
-        <v>2276</v>
+        <v>2771</v>
       </c>
       <c r="S7">
-        <v>1142.75</v>
-      </c>
-      <c r="AB7" t="b">
+        <v>794</v>
+      </c>
+      <c r="AA7" t="b">
         <v>1</v>
       </c>
       <c r="AU7">
         <v>74</v>
       </c>
       <c r="AV7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="AY7" s="2">
         <v>43831</v>
       </c>
       <c r="AZ7" s="2">
-        <v>44196</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2">
-        <v>43014</v>
+        <v>43737</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="J8" s="2">
-        <v>43367</v>
+        <v>44060</v>
       </c>
       <c r="K8">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="L8" s="2">
-        <v>44435</v>
+        <v>44185</v>
       </c>
       <c r="M8">
-        <v>868.5</v>
+        <v>360.75</v>
       </c>
       <c r="N8">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>-8.5</v>
       </c>
       <c r="R8">
-        <v>2309</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1193.5</v>
-      </c>
-      <c r="AB8" t="b">
+        <v>352.25</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
         <v>1</v>
       </c>
       <c r="AU8">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>8</v>
@@ -1329,12 +2214,7210 @@
         <v>0</v>
       </c>
       <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>44060</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43870</v>
+      </c>
+      <c r="M9">
+        <v>54</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>54</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42742</v>
+      </c>
+      <c r="G10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K10">
+        <v>178</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M10">
+        <v>163</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>249</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>236</v>
+      </c>
+      <c r="R10">
+        <v>2231</v>
+      </c>
+      <c r="S10">
+        <v>599</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>74</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>663</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43570</v>
+      </c>
+      <c r="G11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M11">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>91.5</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>185.5</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" s="1">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42835</v>
+      </c>
+      <c r="G12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" t="s">
+        <v>349</v>
+      </c>
+      <c r="J12" s="2">
+        <v>43703</v>
+      </c>
+      <c r="K12">
+        <v>366</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44220</v>
+      </c>
+      <c r="M12">
+        <v>73</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>74</v>
+      </c>
+      <c r="S12">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>74</v>
+      </c>
+      <c r="AV12">
+        <v>8</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>372</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" s="1">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42656</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I13" t="s">
+        <v>349</v>
+      </c>
+      <c r="J13" s="2">
+        <v>42996</v>
+      </c>
+      <c r="K13">
+        <v>248</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44078</v>
+      </c>
+      <c r="M13">
+        <v>735.25</v>
+      </c>
+      <c r="N13">
+        <v>376</v>
+      </c>
+      <c r="O13">
+        <v>333</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7.25</v>
+      </c>
+      <c r="R13">
+        <v>4867</v>
+      </c>
+      <c r="S13">
+        <v>1118.5</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>74</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1079</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="1">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43030</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" t="s">
+        <v>349</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43227</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44085</v>
+      </c>
+      <c r="M14">
+        <v>271</v>
+      </c>
+      <c r="N14">
+        <v>391</v>
+      </c>
+      <c r="O14">
+        <v>284</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>319</v>
+      </c>
+      <c r="R14">
+        <v>3263</v>
+      </c>
+      <c r="S14">
+        <v>981</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>74</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>848</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="1">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44049</v>
+      </c>
+      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" t="s">
+        <v>349</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K15">
+        <v>53</v>
+      </c>
+      <c r="L15" s="2">
+        <v>45163</v>
+      </c>
+      <c r="M15">
+        <v>92</v>
+      </c>
+      <c r="N15">
+        <v>32</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>124</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>8</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="1">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42748</v>
+      </c>
+      <c r="G16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I16" t="s">
+        <v>349</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K16">
+        <v>179</v>
+      </c>
+      <c r="L16" s="2">
+        <v>44009</v>
+      </c>
+      <c r="M16">
+        <v>128.5</v>
+      </c>
+      <c r="N16">
+        <v>250</v>
+      </c>
+      <c r="O16">
+        <v>267</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>269</v>
+      </c>
+      <c r="R16">
+        <v>2377</v>
+      </c>
+      <c r="S16">
+        <v>647.5</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>74</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>657</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="1">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42911</v>
+      </c>
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43115</v>
+      </c>
+      <c r="K17">
+        <v>262</v>
+      </c>
+      <c r="L17" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M17">
+        <v>529.5</v>
+      </c>
+      <c r="N17">
+        <v>460</v>
+      </c>
+      <c r="O17">
+        <v>305</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>91</v>
+      </c>
+      <c r="R17">
+        <v>3959</v>
+      </c>
+      <c r="S17">
+        <v>1080.5</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>74</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>960</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="1">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42888</v>
+      </c>
+      <c r="G18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" t="s">
+        <v>349</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43885</v>
+      </c>
+      <c r="K18">
+        <v>174</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44058</v>
+      </c>
+      <c r="M18">
+        <v>182.5</v>
+      </c>
+      <c r="N18">
+        <v>286</v>
+      </c>
+      <c r="O18">
+        <v>225</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>62</v>
+      </c>
+      <c r="R18">
+        <v>530</v>
+      </c>
+      <c r="S18">
+        <v>530.5</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>74</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>174</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>43885</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="1">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42909</v>
+      </c>
+      <c r="G19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43696</v>
+      </c>
+      <c r="K19">
+        <v>269</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M19">
+        <v>761</v>
+      </c>
+      <c r="N19">
+        <v>330</v>
+      </c>
+      <c r="O19">
+        <v>317</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>63.25</v>
+      </c>
+      <c r="R19">
+        <v>1626</v>
+      </c>
+      <c r="S19">
+        <v>1154.25</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>74</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>379</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="1">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43600</v>
+      </c>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
+        <v>349</v>
+      </c>
+      <c r="J20" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K20">
+        <v>305</v>
+      </c>
+      <c r="L20" s="2">
+        <v>44372</v>
+      </c>
+      <c r="M20">
+        <v>797</v>
+      </c>
+      <c r="N20">
+        <v>261.5</v>
+      </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>31.5</v>
+      </c>
+      <c r="R20">
+        <v>654</v>
+      </c>
+      <c r="S20">
+        <v>1090</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>74</v>
+      </c>
+      <c r="AV20">
+        <v>8</v>
+      </c>
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20">
+        <v>183</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="1">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" t="s">
+        <v>349</v>
+      </c>
+      <c r="J21" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K21">
+        <v>305</v>
+      </c>
+      <c r="L21" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M21">
+        <v>321.5</v>
+      </c>
+      <c r="N21">
+        <v>138</v>
+      </c>
+      <c r="O21">
+        <v>125</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>-3.5</v>
+      </c>
+      <c r="R21">
+        <v>273</v>
+      </c>
+      <c r="S21">
+        <v>456</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>74</v>
+      </c>
+      <c r="AV21">
+        <v>8</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>183</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42940</v>
+      </c>
+      <c r="G22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" t="s">
+        <v>351</v>
+      </c>
+      <c r="J22" s="2">
+        <v>43857</v>
+      </c>
+      <c r="K22">
+        <v>340</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44449</v>
+      </c>
+      <c r="M22">
+        <v>1199.5</v>
+      </c>
+      <c r="N22">
+        <v>348</v>
+      </c>
+      <c r="O22">
+        <v>383</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>994</v>
+      </c>
+      <c r="S22">
+        <v>1551.5</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>74</v>
+      </c>
+      <c r="AV22">
+        <v>8</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>218</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>43857</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43042</v>
+      </c>
+      <c r="G23" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" t="s">
+        <v>352</v>
+      </c>
+      <c r="J23" s="2">
+        <v>43346</v>
+      </c>
+      <c r="K23">
+        <v>366</v>
+      </c>
+      <c r="L23" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M23">
+        <v>884.25</v>
+      </c>
+      <c r="N23">
+        <v>234</v>
+      </c>
+      <c r="O23">
+        <v>256</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>24.5</v>
+      </c>
+      <c r="R23">
+        <v>2276</v>
+      </c>
+      <c r="S23">
+        <v>1142.75</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>74</v>
+      </c>
+      <c r="AV23">
+        <v>8</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>729</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43014</v>
+      </c>
+      <c r="G24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I24" t="s">
+        <v>352</v>
+      </c>
+      <c r="J24" s="2">
+        <v>43367</v>
+      </c>
+      <c r="K24">
+        <v>366</v>
+      </c>
+      <c r="L24" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M24">
+        <v>868.5</v>
+      </c>
+      <c r="N24">
+        <v>296</v>
+      </c>
+      <c r="O24">
+        <v>267</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>29</v>
+      </c>
+      <c r="R24">
+        <v>2309</v>
+      </c>
+      <c r="S24">
+        <v>1193.5</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>74</v>
+      </c>
+      <c r="AV24">
+        <v>8</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
         <v>708</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY24" s="2">
         <v>43831</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ24" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43496</v>
+      </c>
+      <c r="G25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" t="s">
+        <v>315</v>
+      </c>
+      <c r="I25" t="s">
+        <v>353</v>
+      </c>
+      <c r="J25" s="2">
+        <v>43927</v>
+      </c>
+      <c r="K25">
+        <v>270</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44209</v>
+      </c>
+      <c r="M25">
+        <v>391.5</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>11</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>391.5</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>8</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>43927</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42794</v>
+      </c>
+      <c r="G26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" t="s">
+        <v>353</v>
+      </c>
+      <c r="J26" s="2">
+        <v>43115</v>
+      </c>
+      <c r="K26">
+        <v>220</v>
+      </c>
+      <c r="L26" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M26">
+        <v>354.25</v>
+      </c>
+      <c r="N26">
+        <v>170</v>
+      </c>
+      <c r="O26">
+        <v>195</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>55.5</v>
+      </c>
+      <c r="R26">
+        <v>2467</v>
+      </c>
+      <c r="S26">
+        <v>579.75</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>74</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>936</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42724</v>
+      </c>
+      <c r="G27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" t="s">
+        <v>354</v>
+      </c>
+      <c r="J27" s="2">
+        <v>43500</v>
+      </c>
+      <c r="K27">
+        <v>35</v>
+      </c>
+      <c r="L27" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M27">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>63</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43286</v>
+      </c>
+      <c r="G28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="2">
+        <v>43374</v>
+      </c>
+      <c r="K28">
+        <v>366</v>
+      </c>
+      <c r="L28" s="2">
+        <v>44372</v>
+      </c>
+      <c r="M28">
+        <v>520</v>
+      </c>
+      <c r="N28">
+        <v>150</v>
+      </c>
+      <c r="O28">
+        <v>174</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>89</v>
+      </c>
+      <c r="R28">
+        <v>1453</v>
+      </c>
+      <c r="S28">
+        <v>759</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>74</v>
+      </c>
+      <c r="AV28">
+        <v>8</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28">
+        <v>701</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I29" t="s">
+        <v>354</v>
+      </c>
+      <c r="J29" s="2">
+        <v>43556</v>
+      </c>
+      <c r="K29">
+        <v>366</v>
+      </c>
+      <c r="L29" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M29">
+        <v>513</v>
+      </c>
+      <c r="N29">
+        <v>173</v>
+      </c>
+      <c r="O29">
+        <v>185</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>122</v>
+      </c>
+      <c r="R29">
+        <v>1145</v>
+      </c>
+      <c r="S29">
+        <v>808</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>74</v>
+      </c>
+      <c r="AV29">
+        <v>8</v>
+      </c>
+      <c r="AW29">
+        <v>2</v>
+      </c>
+      <c r="AX29">
+        <v>519</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42743</v>
+      </c>
+      <c r="G30" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I30" t="s">
+        <v>354</v>
+      </c>
+      <c r="J30" s="2">
+        <v>43108</v>
+      </c>
+      <c r="K30">
+        <v>178</v>
+      </c>
+      <c r="L30" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M30">
+        <v>150.75</v>
+      </c>
+      <c r="N30">
+        <v>192</v>
+      </c>
+      <c r="O30">
+        <v>182</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>97</v>
+      </c>
+      <c r="R30">
+        <v>2226</v>
+      </c>
+      <c r="S30">
+        <v>439.75</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>74</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>901</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G31" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" t="s">
+        <v>320</v>
+      </c>
+      <c r="I31" t="s">
+        <v>355</v>
+      </c>
+      <c r="J31" s="2">
+        <v>43591</v>
+      </c>
+      <c r="K31">
+        <v>225</v>
+      </c>
+      <c r="L31" s="2">
+        <v>44055</v>
+      </c>
+      <c r="M31">
+        <v>837</v>
+      </c>
+      <c r="N31">
+        <v>450</v>
+      </c>
+      <c r="O31">
+        <v>470</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>144</v>
+      </c>
+      <c r="R31">
+        <v>2958</v>
+      </c>
+      <c r="S31">
+        <v>1431</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>74</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>465</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="2">
+        <v>42889</v>
+      </c>
+      <c r="G32" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I32" t="s">
+        <v>355</v>
+      </c>
+      <c r="J32" s="2">
+        <v>43129</v>
+      </c>
+      <c r="K32">
+        <v>225</v>
+      </c>
+      <c r="L32" s="2">
+        <v>44055</v>
+      </c>
+      <c r="M32">
+        <v>819</v>
+      </c>
+      <c r="N32">
+        <v>400</v>
+      </c>
+      <c r="O32">
+        <v>424</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>70</v>
+      </c>
+      <c r="R32">
+        <v>5311</v>
+      </c>
+      <c r="S32">
+        <v>1289</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>74</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>927</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="2">
+        <v>43878</v>
+      </c>
+      <c r="K33">
+        <v>319</v>
+      </c>
+      <c r="L33" s="2">
+        <v>44680</v>
+      </c>
+      <c r="M33">
+        <v>865.5</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>122</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>-388.5</v>
+      </c>
+      <c r="R33">
+        <v>294</v>
+      </c>
+      <c r="S33">
+        <v>477</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU33">
+        <v>74</v>
+      </c>
+      <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>197</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>43878</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42960</v>
+      </c>
+      <c r="G34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" t="s">
+        <v>322</v>
+      </c>
+      <c r="I34" t="s">
+        <v>357</v>
+      </c>
+      <c r="J34" s="2">
+        <v>43845</v>
+      </c>
+      <c r="K34">
+        <v>224</v>
+      </c>
+      <c r="L34" s="2">
+        <v>44068</v>
+      </c>
+      <c r="M34">
+        <v>113</v>
+      </c>
+      <c r="N34">
+        <v>200</v>
+      </c>
+      <c r="O34">
+        <v>188</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>256</v>
+      </c>
+      <c r="R34">
+        <v>569</v>
+      </c>
+      <c r="S34">
+        <v>569</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>74</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>224</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>43845</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="2">
+        <v>42925</v>
+      </c>
+      <c r="G35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" t="s">
+        <v>323</v>
+      </c>
+      <c r="I35" t="s">
+        <v>358</v>
+      </c>
+      <c r="J35" s="2">
+        <v>43759</v>
+      </c>
+      <c r="K35">
+        <v>260</v>
+      </c>
+      <c r="L35" s="2">
+        <v>44090</v>
+      </c>
+      <c r="M35">
+        <v>469.25</v>
+      </c>
+      <c r="N35">
+        <v>210</v>
+      </c>
+      <c r="O35">
+        <v>200</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <v>854</v>
+      </c>
+      <c r="S35">
+        <v>703.25</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>74</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>316</v>
+      </c>
+      <c r="AY35" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ35" s="2">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" t="s">
+        <v>324</v>
+      </c>
+      <c r="I36" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K36">
+        <v>53</v>
+      </c>
+      <c r="L36" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M36">
+        <v>149.5</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>22</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>149.5</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>8</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="2">
+        <v>42790</v>
+      </c>
+      <c r="G37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" t="s">
+        <v>325</v>
+      </c>
+      <c r="I37" t="s">
+        <v>358</v>
+      </c>
+      <c r="J37" s="2">
+        <v>43339</v>
+      </c>
+      <c r="K37">
+        <v>262</v>
+      </c>
+      <c r="L37" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M37">
+        <v>479.75</v>
+      </c>
+      <c r="N37">
+        <v>150</v>
+      </c>
+      <c r="O37">
+        <v>161</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>-57.25</v>
+      </c>
+      <c r="R37">
+        <v>1608</v>
+      </c>
+      <c r="S37">
+        <v>572.5</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU37">
+        <v>74</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>736</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="1">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="2">
+        <v>42769</v>
+      </c>
+      <c r="G38" t="s">
+        <v>250</v>
+      </c>
+      <c r="H38" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43374</v>
+      </c>
+      <c r="K38">
+        <v>182</v>
+      </c>
+      <c r="L38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M38">
+        <v>144</v>
+      </c>
+      <c r="N38">
+        <v>374</v>
+      </c>
+      <c r="O38">
+        <v>210</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1819</v>
+      </c>
+      <c r="S38">
+        <v>518</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>74</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>639</v>
+      </c>
+      <c r="AY38" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ38" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" s="1">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43702</v>
+      </c>
+      <c r="G39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" t="s">
+        <v>358</v>
+      </c>
+      <c r="J39" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K39">
+        <v>109</v>
+      </c>
+      <c r="L39" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M39">
+        <v>188.5</v>
+      </c>
+      <c r="N39">
+        <v>18</v>
+      </c>
+      <c r="O39">
+        <v>15</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>206.5</v>
+      </c>
+      <c r="AO39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>8</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="2">
+        <v>42754</v>
+      </c>
+      <c r="G40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" s="2">
+        <v>43122</v>
+      </c>
+      <c r="K40">
+        <v>31</v>
+      </c>
+      <c r="L40" s="2">
+        <v>43861</v>
+      </c>
+      <c r="M40">
+        <v>77.5</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>77.5</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="1">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="2">
+        <v>42774</v>
+      </c>
+      <c r="G41" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I41" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" s="2">
+        <v>43074</v>
+      </c>
+      <c r="K41">
+        <v>182</v>
+      </c>
+      <c r="L41" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M41">
+        <v>190</v>
+      </c>
+      <c r="N41">
+        <v>380</v>
+      </c>
+      <c r="O41">
+        <v>231</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>2941</v>
+      </c>
+      <c r="S41">
+        <v>570</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU41">
+        <v>74</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>939</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" s="1">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" t="s">
+        <v>329</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K42">
+        <v>60</v>
+      </c>
+      <c r="L42" s="2">
+        <v>44470</v>
+      </c>
+      <c r="M42">
+        <v>130.5</v>
+      </c>
+      <c r="N42">
+        <v>16.5</v>
+      </c>
+      <c r="O42">
+        <v>19</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>147</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>8</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AZ42" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" s="1">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43013</v>
+      </c>
+      <c r="G43" t="s">
+        <v>255</v>
+      </c>
+      <c r="H43" t="s">
+        <v>323</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" s="2">
+        <v>43745</v>
+      </c>
+      <c r="K43">
+        <v>366</v>
+      </c>
+      <c r="L43" s="2">
+        <v>44408</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>150</v>
+      </c>
+      <c r="O43">
+        <v>75</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>187.5</v>
+      </c>
+      <c r="R43">
+        <v>304</v>
+      </c>
+      <c r="S43">
+        <v>337.5</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>74</v>
+      </c>
+      <c r="AV43">
+        <v>8</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>330</v>
+      </c>
+      <c r="AY43" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ43" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" s="1">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="2">
+        <v>42868</v>
+      </c>
+      <c r="G44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" t="s">
+        <v>329</v>
+      </c>
+      <c r="I44" t="s">
+        <v>358</v>
+      </c>
+      <c r="J44" s="2">
+        <v>43234</v>
+      </c>
+      <c r="K44">
+        <v>262</v>
+      </c>
+      <c r="L44" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M44">
+        <v>459.5</v>
+      </c>
+      <c r="N44">
+        <v>289</v>
+      </c>
+      <c r="O44">
+        <v>211</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-0.75</v>
+      </c>
+      <c r="R44">
+        <v>2400</v>
+      </c>
+      <c r="S44">
+        <v>747.75</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU44">
+        <v>74</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>841</v>
+      </c>
+      <c r="AY44" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ44" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45" s="1">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" t="s">
+        <v>359</v>
+      </c>
+      <c r="J45" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+      <c r="L45" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AZ45" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" t="s">
+        <v>331</v>
+      </c>
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K46">
+        <v>305</v>
+      </c>
+      <c r="L46" s="2">
+        <v>44288</v>
+      </c>
+      <c r="M46">
+        <v>359.75</v>
+      </c>
+      <c r="N46">
+        <v>168</v>
+      </c>
+      <c r="O46">
+        <v>156</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>55.5</v>
+      </c>
+      <c r="R46">
+        <v>350</v>
+      </c>
+      <c r="S46">
+        <v>583.25</v>
+      </c>
+      <c r="AI46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU46">
+        <v>74</v>
+      </c>
+      <c r="AV46">
+        <v>8</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>183</v>
+      </c>
+      <c r="AY46" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ46" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G47" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I47" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" s="2">
+        <v>43724</v>
+      </c>
+      <c r="K47">
+        <v>313</v>
+      </c>
+      <c r="L47" s="2">
+        <v>44143</v>
+      </c>
+      <c r="M47">
+        <v>291.75</v>
+      </c>
+      <c r="N47">
+        <v>136</v>
+      </c>
+      <c r="O47">
+        <v>130</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>125</v>
+      </c>
+      <c r="R47">
+        <v>619</v>
+      </c>
+      <c r="S47">
+        <v>552.75</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <v>74</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>351</v>
+      </c>
+      <c r="AY47" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ47" s="2">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52">
+      <c r="A48" s="1">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="2">
+        <v>42790</v>
+      </c>
+      <c r="G48" t="s">
+        <v>259</v>
+      </c>
+      <c r="H48" t="s">
+        <v>324</v>
+      </c>
+      <c r="I48" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K48">
+        <v>241</v>
+      </c>
+      <c r="L48" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M48">
+        <v>626.5</v>
+      </c>
+      <c r="N48">
+        <v>300</v>
+      </c>
+      <c r="O48">
+        <v>286</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>7.75</v>
+      </c>
+      <c r="R48">
+        <v>2869</v>
+      </c>
+      <c r="S48">
+        <v>934.25</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>74</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>740</v>
+      </c>
+      <c r="AY48" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ48" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
+      <c r="A49" s="1">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42992</v>
+      </c>
+      <c r="G49" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49" t="s">
+        <v>324</v>
+      </c>
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="2">
+        <v>43178</v>
+      </c>
+      <c r="K49">
+        <v>269</v>
+      </c>
+      <c r="L49" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M49">
+        <v>639</v>
+      </c>
+      <c r="N49">
+        <v>300</v>
+      </c>
+      <c r="O49">
+        <v>278</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>73.5</v>
+      </c>
+      <c r="R49">
+        <v>3376</v>
+      </c>
+      <c r="S49">
+        <v>1012.5</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>74</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>897</v>
+      </c>
+      <c r="AY49" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ49" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50" s="1">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43535</v>
+      </c>
+      <c r="G50" t="s">
+        <v>261</v>
+      </c>
+      <c r="H50" t="s">
+        <v>324</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" s="2">
+        <v>44151</v>
+      </c>
+      <c r="K50">
+        <v>46</v>
+      </c>
+      <c r="L50" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M50">
+        <v>72.5</v>
+      </c>
+      <c r="N50">
+        <v>27</v>
+      </c>
+      <c r="O50">
+        <v>17</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>99.5</v>
+      </c>
+      <c r="AK50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>8</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="2">
+        <v>44151</v>
+      </c>
+      <c r="AZ50" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51" s="1">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43001</v>
+      </c>
+      <c r="G51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51" t="s">
+        <v>349</v>
+      </c>
+      <c r="J51" s="2">
+        <v>43871</v>
+      </c>
+      <c r="K51">
+        <v>201</v>
+      </c>
+      <c r="L51" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M51">
+        <v>48</v>
+      </c>
+      <c r="N51">
+        <v>144</v>
+      </c>
+      <c r="O51">
+        <v>118</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>129</v>
+      </c>
+      <c r="R51">
+        <v>321</v>
+      </c>
+      <c r="S51">
+        <v>321</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU51">
+        <v>74</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>201</v>
+      </c>
+      <c r="AY51" s="2">
+        <v>43871</v>
+      </c>
+      <c r="AZ51" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52" s="1">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="2">
+        <v>42940</v>
+      </c>
+      <c r="G52" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" t="s">
+        <v>351</v>
+      </c>
+      <c r="J52" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K52">
+        <v>27</v>
+      </c>
+      <c r="L52" s="2">
+        <v>43857</v>
+      </c>
+      <c r="M52">
+        <v>90</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>90</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ52" s="2">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="2">
+        <v>42937</v>
+      </c>
+      <c r="G53" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" t="s">
+        <v>322</v>
+      </c>
+      <c r="I53" t="s">
+        <v>357</v>
+      </c>
+      <c r="J53" s="2">
+        <v>43486</v>
+      </c>
+      <c r="K53">
+        <v>290</v>
+      </c>
+      <c r="L53" s="2">
+        <v>44120</v>
+      </c>
+      <c r="M53">
+        <v>294</v>
+      </c>
+      <c r="N53">
+        <v>120</v>
+      </c>
+      <c r="O53">
+        <v>104</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-6</v>
+      </c>
+      <c r="R53">
+        <v>828</v>
+      </c>
+      <c r="S53">
+        <v>408</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU53">
+        <v>74</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>589</v>
+      </c>
+      <c r="AY53" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ53" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="2">
+        <v>43235</v>
+      </c>
+      <c r="G54" t="s">
+        <v>263</v>
+      </c>
+      <c r="H54" t="s">
+        <v>332</v>
+      </c>
+      <c r="I54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44139</v>
+      </c>
+      <c r="K54">
+        <v>58</v>
+      </c>
+      <c r="L54" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M54">
+        <v>76.5</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>76.5</v>
+      </c>
+      <c r="AN54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>8</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="2">
+        <v>44139</v>
+      </c>
+      <c r="AZ54" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="2">
+        <v>43021</v>
+      </c>
+      <c r="G55" t="s">
+        <v>264</v>
+      </c>
+      <c r="H55" t="s">
+        <v>333</v>
+      </c>
+      <c r="I55" t="s">
+        <v>361</v>
+      </c>
+      <c r="J55" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K55">
+        <v>262</v>
+      </c>
+      <c r="L55" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M55">
+        <v>409</v>
+      </c>
+      <c r="N55">
+        <v>228</v>
+      </c>
+      <c r="O55">
+        <v>185</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>19.75</v>
+      </c>
+      <c r="R55">
+        <v>1862</v>
+      </c>
+      <c r="S55">
+        <v>656.75</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU55">
+        <v>74</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>743</v>
+      </c>
+      <c r="AY55" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ55" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
+      <c r="A56" s="1">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43034</v>
+      </c>
+      <c r="G56" t="s">
+        <v>265</v>
+      </c>
+      <c r="H56" t="s">
+        <v>333</v>
+      </c>
+      <c r="I56" t="s">
+        <v>361</v>
+      </c>
+      <c r="J56" s="2">
+        <v>43717</v>
+      </c>
+      <c r="K56">
+        <v>262</v>
+      </c>
+      <c r="L56" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M56">
+        <v>514.75</v>
+      </c>
+      <c r="N56">
+        <v>271</v>
+      </c>
+      <c r="O56">
+        <v>216</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-18.75</v>
+      </c>
+      <c r="R56">
+        <v>1048</v>
+      </c>
+      <c r="S56">
+        <v>767</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU56">
+        <v>74</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>358</v>
+      </c>
+      <c r="AY56" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ56" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
+      <c r="A57" s="1">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43052</v>
+      </c>
+      <c r="G57" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" t="s">
+        <v>334</v>
+      </c>
+      <c r="I57" t="s">
+        <v>361</v>
+      </c>
+      <c r="J57" s="2">
+        <v>43248</v>
+      </c>
+      <c r="K57">
+        <v>262</v>
+      </c>
+      <c r="L57" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M57">
+        <v>333.5</v>
+      </c>
+      <c r="N57">
+        <v>271</v>
+      </c>
+      <c r="O57">
+        <v>202</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>113.5</v>
+      </c>
+      <c r="R57">
+        <v>2266</v>
+      </c>
+      <c r="S57">
+        <v>718</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU57">
+        <v>74</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>827</v>
+      </c>
+      <c r="AY57" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
+      <c r="A58" s="1">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G58" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" t="s">
+        <v>335</v>
+      </c>
+      <c r="I58" t="s">
+        <v>362</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44148</v>
+      </c>
+      <c r="K58">
+        <v>49</v>
+      </c>
+      <c r="L58" s="2">
+        <v>45191</v>
+      </c>
+      <c r="M58">
+        <v>79.25</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>12</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>79.25</v>
+      </c>
+      <c r="AN58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="2">
+        <v>44148</v>
+      </c>
+      <c r="AZ58" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="A59" s="1">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43307</v>
+      </c>
+      <c r="G59" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" t="s">
+        <v>335</v>
+      </c>
+      <c r="I59" t="s">
+        <v>362</v>
+      </c>
+      <c r="J59" s="2">
+        <v>44148</v>
+      </c>
+      <c r="K59">
+        <v>49</v>
+      </c>
+      <c r="L59" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M59">
+        <v>79.25</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>12</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>79.25</v>
+      </c>
+      <c r="AN59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>8</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="2">
+        <v>44148</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
+      <c r="A60" s="1">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" t="s">
+        <v>356</v>
+      </c>
+      <c r="J60" s="2">
+        <v>43878</v>
+      </c>
+      <c r="K60">
+        <v>319</v>
+      </c>
+      <c r="L60" s="2">
+        <v>44680</v>
+      </c>
+      <c r="M60">
+        <v>53</v>
+      </c>
+      <c r="N60">
+        <v>165</v>
+      </c>
+      <c r="O60">
+        <v>118</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>244</v>
+      </c>
+      <c r="R60">
+        <v>285</v>
+      </c>
+      <c r="S60">
+        <v>462</v>
+      </c>
+      <c r="AI60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU60">
+        <v>74</v>
+      </c>
+      <c r="AV60">
+        <v>8</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>197</v>
+      </c>
+      <c r="AY60" s="2">
+        <v>43878</v>
+      </c>
+      <c r="AZ60" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" s="1">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="2">
+        <v>43079</v>
+      </c>
+      <c r="G61" t="s">
+        <v>269</v>
+      </c>
+      <c r="H61" t="s">
+        <v>336</v>
+      </c>
+      <c r="I61" t="s">
+        <v>363</v>
+      </c>
+      <c r="J61" s="2">
+        <v>43738</v>
+      </c>
+      <c r="K61">
+        <v>366</v>
+      </c>
+      <c r="L61" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M61">
+        <v>623.75</v>
+      </c>
+      <c r="N61">
+        <v>209</v>
+      </c>
+      <c r="O61">
+        <v>195</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>39</v>
+      </c>
+      <c r="R61">
+        <v>802</v>
+      </c>
+      <c r="S61">
+        <v>871.75</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU61">
+        <v>74</v>
+      </c>
+      <c r="AV61">
+        <v>8</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>337</v>
+      </c>
+      <c r="AY61" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ61" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="2">
+        <v>42710</v>
+      </c>
+      <c r="G62" t="s">
+        <v>270</v>
+      </c>
+      <c r="H62" t="s">
+        <v>336</v>
+      </c>
+      <c r="I62" t="s">
+        <v>363</v>
+      </c>
+      <c r="J62" s="2">
+        <v>43332</v>
+      </c>
+      <c r="K62">
+        <v>241</v>
+      </c>
+      <c r="L62" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M62">
+        <v>454.5</v>
+      </c>
+      <c r="N62">
+        <v>226</v>
+      </c>
+      <c r="O62">
+        <v>214</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>18.5</v>
+      </c>
+      <c r="R62">
+        <v>2146</v>
+      </c>
+      <c r="S62">
+        <v>699</v>
+      </c>
+      <c r="AA62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU62">
+        <v>74</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>740</v>
+      </c>
+      <c r="AY62" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ62" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="2">
+        <v>42926</v>
+      </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" t="s">
+        <v>337</v>
+      </c>
+      <c r="I63" t="s">
+        <v>364</v>
+      </c>
+      <c r="J63" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K63">
+        <v>265</v>
+      </c>
+      <c r="L63" s="2">
+        <v>44095</v>
+      </c>
+      <c r="M63">
+        <v>875</v>
+      </c>
+      <c r="N63">
+        <v>348</v>
+      </c>
+      <c r="O63">
+        <v>304</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-133.75</v>
+      </c>
+      <c r="R63">
+        <v>3543</v>
+      </c>
+      <c r="S63">
+        <v>1089.25</v>
+      </c>
+      <c r="AB63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU63">
+        <v>74</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>862</v>
+      </c>
+      <c r="AY63" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ63" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="2">
+        <v>42593</v>
+      </c>
+      <c r="G64" t="s">
+        <v>272</v>
+      </c>
+      <c r="H64" t="s">
+        <v>337</v>
+      </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J64" s="2">
+        <v>42982</v>
+      </c>
+      <c r="K64">
+        <v>220</v>
+      </c>
+      <c r="L64" s="2">
+        <v>44050</v>
+      </c>
+      <c r="M64">
+        <v>244.75</v>
+      </c>
+      <c r="N64">
+        <v>168</v>
+      </c>
+      <c r="O64">
+        <v>152</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>41.75</v>
+      </c>
+      <c r="R64">
+        <v>2209</v>
+      </c>
+      <c r="S64">
+        <v>454.5</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>74</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>1069</v>
+      </c>
+      <c r="AY64" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ64" s="2">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="A65" s="1">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="2">
+        <v>42873</v>
+      </c>
+      <c r="G65" t="s">
+        <v>273</v>
+      </c>
+      <c r="H65" t="s">
+        <v>337</v>
+      </c>
+      <c r="I65" t="s">
+        <v>364</v>
+      </c>
+      <c r="J65" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K65">
+        <v>262</v>
+      </c>
+      <c r="L65" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M65">
+        <v>588.25</v>
+      </c>
+      <c r="N65">
+        <v>306</v>
+      </c>
+      <c r="O65">
+        <v>250</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>-7.25</v>
+      </c>
+      <c r="R65">
+        <v>2444</v>
+      </c>
+      <c r="S65">
+        <v>887</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU65">
+        <v>74</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>722</v>
+      </c>
+      <c r="AY65" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ65" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="2">
+        <v>42761</v>
+      </c>
+      <c r="G66" t="s">
+        <v>274</v>
+      </c>
+      <c r="H66" t="s">
+        <v>338</v>
+      </c>
+      <c r="I66" t="s">
+        <v>365</v>
+      </c>
+      <c r="J66" s="2">
+        <v>43689</v>
+      </c>
+      <c r="K66">
+        <v>171</v>
+      </c>
+      <c r="L66" s="2">
+        <v>44001</v>
+      </c>
+      <c r="M66">
+        <v>209</v>
+      </c>
+      <c r="N66">
+        <v>358</v>
+      </c>
+      <c r="O66">
+        <v>353</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>250</v>
+      </c>
+      <c r="R66">
+        <v>1495</v>
+      </c>
+      <c r="S66">
+        <v>817</v>
+      </c>
+      <c r="AA66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU66">
+        <v>74</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>313</v>
+      </c>
+      <c r="AY66" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ66" s="2">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
+      <c r="A67" s="1">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="2">
+        <v>42960</v>
+      </c>
+      <c r="G67" t="s">
+        <v>246</v>
+      </c>
+      <c r="H67" t="s">
+        <v>322</v>
+      </c>
+      <c r="I67" t="s">
+        <v>357</v>
+      </c>
+      <c r="J67" s="2">
+        <v>43661</v>
+      </c>
+      <c r="K67">
+        <v>14</v>
+      </c>
+      <c r="L67" s="2">
+        <v>43844</v>
+      </c>
+      <c r="M67">
+        <v>14.5</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>14.5</v>
+      </c>
+      <c r="AN67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ67" s="2">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52">
+      <c r="A68" s="1">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G68" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" t="s">
+        <v>339</v>
+      </c>
+      <c r="I68" t="s">
+        <v>353</v>
+      </c>
+      <c r="J68" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K68">
+        <v>366</v>
+      </c>
+      <c r="L68" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M68">
+        <v>745</v>
+      </c>
+      <c r="N68">
+        <v>230</v>
+      </c>
+      <c r="O68">
+        <v>224</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>26</v>
+      </c>
+      <c r="R68">
+        <v>1955</v>
+      </c>
+      <c r="S68">
+        <v>1001</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU68">
+        <v>74</v>
+      </c>
+      <c r="AV68">
+        <v>8</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>715</v>
+      </c>
+      <c r="AY68" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ68" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52">
+      <c r="A69" s="1">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43080</v>
+      </c>
+      <c r="G69" t="s">
+        <v>276</v>
+      </c>
+      <c r="H69" t="s">
+        <v>339</v>
+      </c>
+      <c r="I69" t="s">
+        <v>353</v>
+      </c>
+      <c r="J69" s="2">
+        <v>43360</v>
+      </c>
+      <c r="K69">
+        <v>366</v>
+      </c>
+      <c r="L69" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M69">
+        <v>745</v>
+      </c>
+      <c r="N69">
+        <v>230</v>
+      </c>
+      <c r="O69">
+        <v>224</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>26</v>
+      </c>
+      <c r="R69">
+        <v>1955</v>
+      </c>
+      <c r="S69">
+        <v>1001</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU69">
+        <v>74</v>
+      </c>
+      <c r="AV69">
+        <v>8</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>715</v>
+      </c>
+      <c r="AY69" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ69" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52">
+      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="2">
+        <v>42753</v>
+      </c>
+      <c r="G70" t="s">
+        <v>277</v>
+      </c>
+      <c r="H70" t="s">
+        <v>340</v>
+      </c>
+      <c r="I70" t="s">
+        <v>366</v>
+      </c>
+      <c r="J70" s="2">
+        <v>43129</v>
+      </c>
+      <c r="K70">
+        <v>241</v>
+      </c>
+      <c r="L70" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M70">
+        <v>235.5</v>
+      </c>
+      <c r="N70">
+        <v>163</v>
+      </c>
+      <c r="O70">
+        <v>116</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>-18.5</v>
+      </c>
+      <c r="R70">
+        <v>1487</v>
+      </c>
+      <c r="S70">
+        <v>380</v>
+      </c>
+      <c r="AA70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU70">
+        <v>74</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>943</v>
+      </c>
+      <c r="AY70" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ70" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52">
+      <c r="A71" s="1">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="2">
+        <v>42782</v>
+      </c>
+      <c r="G71" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" t="s">
+        <v>337</v>
+      </c>
+      <c r="I71" t="s">
+        <v>364</v>
+      </c>
+      <c r="J71" s="2">
+        <v>43723</v>
+      </c>
+      <c r="K71">
+        <v>241</v>
+      </c>
+      <c r="L71" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M71">
+        <v>256</v>
+      </c>
+      <c r="N71">
+        <v>144</v>
+      </c>
+      <c r="O71">
+        <v>118</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>-15</v>
+      </c>
+      <c r="R71">
+        <v>557</v>
+      </c>
+      <c r="S71">
+        <v>385</v>
+      </c>
+      <c r="AA71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU71">
+        <v>74</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>349</v>
+      </c>
+      <c r="AY71" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ71" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52">
+      <c r="A72" s="1">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43161</v>
+      </c>
+      <c r="G72" t="s">
+        <v>279</v>
+      </c>
+      <c r="H72" t="s">
+        <v>337</v>
+      </c>
+      <c r="I72" t="s">
+        <v>364</v>
+      </c>
+      <c r="J72" s="2">
+        <v>44144</v>
+      </c>
+      <c r="K72">
+        <v>53</v>
+      </c>
+      <c r="L72" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M72">
+        <v>79.25</v>
+      </c>
+      <c r="N72">
+        <v>29.75</v>
+      </c>
+      <c r="O72">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>109</v>
+      </c>
+      <c r="AK72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="2">
+        <v>44144</v>
+      </c>
+      <c r="AZ72" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
+      <c r="A73" s="1">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="2">
+        <v>43640</v>
+      </c>
+      <c r="G73" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" t="s">
+        <v>359</v>
+      </c>
+      <c r="J73" s="2">
+        <v>44096</v>
+      </c>
+      <c r="K73">
+        <v>101</v>
+      </c>
+      <c r="L73" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M73">
+        <v>102.75</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73">
+        <v>8</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>108.75</v>
+      </c>
+      <c r="AN73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>8</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="2">
+        <v>44096</v>
+      </c>
+      <c r="AZ73" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52">
+      <c r="A74" s="1">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="2">
+        <v>42744</v>
+      </c>
+      <c r="G74" t="s">
+        <v>280</v>
+      </c>
+      <c r="H74" t="s">
+        <v>341</v>
+      </c>
+      <c r="I74" t="s">
+        <v>359</v>
+      </c>
+      <c r="J74" s="2">
+        <v>43234</v>
+      </c>
+      <c r="K74">
+        <v>146</v>
+      </c>
+      <c r="L74" s="2">
+        <v>43976</v>
+      </c>
+      <c r="M74">
+        <v>143.5</v>
+      </c>
+      <c r="N74">
+        <v>170</v>
+      </c>
+      <c r="O74">
+        <v>277</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>234</v>
+      </c>
+      <c r="R74">
+        <v>2787</v>
+      </c>
+      <c r="S74">
+        <v>547.5</v>
+      </c>
+      <c r="AA74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU74">
+        <v>74</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>743</v>
+      </c>
+      <c r="AY74" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ74" s="2">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52">
+      <c r="A75" s="1">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43167</v>
+      </c>
+      <c r="G75" t="s">
+        <v>281</v>
+      </c>
+      <c r="H75" t="s">
+        <v>330</v>
+      </c>
+      <c r="I75" t="s">
+        <v>359</v>
+      </c>
+      <c r="J75" s="2">
+        <v>44046</v>
+      </c>
+      <c r="K75">
+        <v>151</v>
+      </c>
+      <c r="L75" s="2">
+        <v>44456</v>
+      </c>
+      <c r="M75">
+        <v>512.5</v>
+      </c>
+      <c r="N75">
+        <v>66</v>
+      </c>
+      <c r="O75">
+        <v>25</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>-96.5</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>482</v>
+      </c>
+      <c r="AO75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
+        <v>8</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75" s="2">
+        <v>44046</v>
+      </c>
+      <c r="AZ75" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52">
+      <c r="A76" s="1">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" s="2">
+        <v>42753</v>
+      </c>
+      <c r="G76" t="s">
+        <v>282</v>
+      </c>
+      <c r="H76" t="s">
+        <v>341</v>
+      </c>
+      <c r="I76" t="s">
+        <v>359</v>
+      </c>
+      <c r="J76" s="2">
+        <v>42989</v>
+      </c>
+      <c r="K76">
+        <v>241</v>
+      </c>
+      <c r="L76" s="2">
+        <v>44071</v>
+      </c>
+      <c r="M76">
+        <v>500.25</v>
+      </c>
+      <c r="N76">
+        <v>256.25</v>
+      </c>
+      <c r="O76">
+        <v>234</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>8</v>
+      </c>
+      <c r="R76">
+        <v>3436</v>
+      </c>
+      <c r="S76">
+        <v>764.5</v>
+      </c>
+      <c r="AA76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU76">
+        <v>74</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>1083</v>
+      </c>
+      <c r="AY76" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ76" s="2">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52">
+      <c r="A77" s="1">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="2">
+        <v>43023</v>
+      </c>
+      <c r="G77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H77" t="s">
+        <v>342</v>
+      </c>
+      <c r="I77" t="s">
+        <v>367</v>
+      </c>
+      <c r="J77" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K77">
+        <v>99</v>
+      </c>
+      <c r="L77" s="2">
+        <v>43990</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>144</v>
+      </c>
+      <c r="O77">
+        <v>207</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>129</v>
+      </c>
+      <c r="R77">
+        <v>277</v>
+      </c>
+      <c r="S77">
+        <v>277</v>
+      </c>
+      <c r="AI77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU77">
+        <v>74</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
+        <v>99</v>
+      </c>
+      <c r="AY77" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ77" s="2">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52">
+      <c r="A78" s="1">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43030</v>
+      </c>
+      <c r="G78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H78" t="s">
+        <v>307</v>
+      </c>
+      <c r="I78" t="s">
+        <v>349</v>
+      </c>
+      <c r="J78" s="2">
+        <v>43970</v>
+      </c>
+      <c r="K78">
+        <v>116</v>
+      </c>
+      <c r="L78" s="2">
+        <v>44085</v>
+      </c>
+      <c r="M78">
+        <v>185</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>-152</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>33</v>
+      </c>
+      <c r="AN78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78" s="2">
+        <v>43970</v>
+      </c>
+      <c r="AZ78" s="2">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
+      <c r="A79" s="1">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" s="2">
+        <v>42787</v>
+      </c>
+      <c r="G79" t="s">
+        <v>284</v>
+      </c>
+      <c r="H79" t="s">
+        <v>342</v>
+      </c>
+      <c r="I79" t="s">
+        <v>367</v>
+      </c>
+      <c r="J79" s="2">
+        <v>43619</v>
+      </c>
+      <c r="K79">
+        <v>196</v>
+      </c>
+      <c r="L79" s="2">
+        <v>44026</v>
+      </c>
+      <c r="M79">
+        <v>195.25</v>
+      </c>
+      <c r="N79">
+        <v>252</v>
+      </c>
+      <c r="O79">
+        <v>237</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>180.5</v>
+      </c>
+      <c r="R79">
+        <v>1307</v>
+      </c>
+      <c r="S79">
+        <v>627.75</v>
+      </c>
+      <c r="AA79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU79">
+        <v>74</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>408</v>
+      </c>
+      <c r="AY79" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ79" s="2">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52">
+      <c r="A80" s="1">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43926</v>
+      </c>
+      <c r="G80" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" t="s">
+        <v>335</v>
+      </c>
+      <c r="I80" t="s">
+        <v>362</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K80">
+        <v>60</v>
+      </c>
+      <c r="L80" s="2">
+        <v>44147</v>
+      </c>
+      <c r="M80">
+        <v>96.75</v>
+      </c>
+      <c r="N80">
+        <v>6.75</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>103.5</v>
+      </c>
+      <c r="AN80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AZ80" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52">
+      <c r="A81" s="1">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43307</v>
+      </c>
+      <c r="G81" t="s">
+        <v>268</v>
+      </c>
+      <c r="H81" t="s">
+        <v>335</v>
+      </c>
+      <c r="I81" t="s">
+        <v>362</v>
+      </c>
+      <c r="J81" s="2">
+        <v>44088</v>
+      </c>
+      <c r="K81">
+        <v>60</v>
+      </c>
+      <c r="L81" s="2">
+        <v>44147</v>
+      </c>
+      <c r="M81">
+        <v>96.75</v>
+      </c>
+      <c r="N81">
+        <v>6.75</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>103.5</v>
+      </c>
+      <c r="AN81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81" s="2">
+        <v>44088</v>
+      </c>
+      <c r="AZ81" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52">
+      <c r="A82" s="1">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="2">
+        <v>42857</v>
+      </c>
+      <c r="G82" t="s">
+        <v>285</v>
+      </c>
+      <c r="H82" t="s">
+        <v>343</v>
+      </c>
+      <c r="I82" t="s">
+        <v>367</v>
+      </c>
+      <c r="J82" s="2">
+        <v>43024</v>
+      </c>
+      <c r="K82">
+        <v>269</v>
+      </c>
+      <c r="L82" s="2">
+        <v>44099</v>
+      </c>
+      <c r="M82">
+        <v>414.75</v>
+      </c>
+      <c r="N82">
+        <v>210</v>
+      </c>
+      <c r="O82">
+        <v>185</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>49</v>
+      </c>
+      <c r="R82">
+        <v>2632</v>
+      </c>
+      <c r="S82">
+        <v>673.75</v>
+      </c>
+      <c r="AB82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU82">
+        <v>74</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>1051</v>
+      </c>
+      <c r="AY82" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ82" s="2">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52">
+      <c r="A83" s="1">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" s="2">
+        <v>43086</v>
+      </c>
+      <c r="G83" t="s">
+        <v>286</v>
+      </c>
+      <c r="H83" t="s">
+        <v>342</v>
+      </c>
+      <c r="I83" t="s">
+        <v>367</v>
+      </c>
+      <c r="J83" s="2">
+        <v>43738</v>
+      </c>
+      <c r="K83">
+        <v>274</v>
+      </c>
+      <c r="L83" s="2">
+        <v>44104</v>
+      </c>
+      <c r="M83">
+        <v>509</v>
+      </c>
+      <c r="N83">
+        <v>336</v>
+      </c>
+      <c r="O83">
+        <v>254</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>96</v>
+      </c>
+      <c r="R83">
+        <v>1157</v>
+      </c>
+      <c r="S83">
+        <v>941</v>
+      </c>
+      <c r="AB83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU83">
+        <v>74</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>337</v>
+      </c>
+      <c r="AY83" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ83" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52">
+      <c r="A84" s="1">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43062</v>
+      </c>
+      <c r="G84" t="s">
+        <v>287</v>
+      </c>
+      <c r="H84" t="s">
+        <v>299</v>
+      </c>
+      <c r="I84" t="s">
+        <v>348</v>
+      </c>
+      <c r="J84" s="2">
+        <v>43353</v>
+      </c>
+      <c r="K84">
+        <v>366</v>
+      </c>
+      <c r="L84" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M84">
+        <v>442</v>
+      </c>
+      <c r="N84">
+        <v>148</v>
+      </c>
+      <c r="O84">
+        <v>129</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>-12</v>
+      </c>
+      <c r="R84">
+        <v>1140</v>
+      </c>
+      <c r="S84">
+        <v>578</v>
+      </c>
+      <c r="AB84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU84">
+        <v>74</v>
+      </c>
+      <c r="AV84">
+        <v>8</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>722</v>
+      </c>
+      <c r="AY84" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ84" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52">
+      <c r="A85" s="1">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G85" t="s">
+        <v>288</v>
+      </c>
+      <c r="H85" t="s">
+        <v>299</v>
+      </c>
+      <c r="I85" t="s">
+        <v>348</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44102</v>
+      </c>
+      <c r="K85">
+        <v>95</v>
+      </c>
+      <c r="L85" s="2">
+        <v>44442</v>
+      </c>
+      <c r="M85">
+        <v>142.5</v>
+      </c>
+      <c r="N85">
+        <v>35</v>
+      </c>
+      <c r="O85">
+        <v>14</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>177.5</v>
+      </c>
+      <c r="AO85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>8</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85" s="2">
+        <v>44102</v>
+      </c>
+      <c r="AZ85" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52">
+      <c r="A86" s="1">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43426</v>
+      </c>
+      <c r="G86" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" t="s">
+        <v>328</v>
+      </c>
+      <c r="I86" t="s">
+        <v>358</v>
+      </c>
+      <c r="J86" s="2">
+        <v>43710</v>
+      </c>
+      <c r="K86">
+        <v>182</v>
+      </c>
+      <c r="L86" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M86">
+        <v>154.25</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>62</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>256</v>
+      </c>
+      <c r="S86">
+        <v>154.25</v>
+      </c>
+      <c r="AO86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU86">
+        <v>74</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>303</v>
+      </c>
+      <c r="AY86" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ86" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52">
+      <c r="A87" s="1">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43563</v>
+      </c>
+      <c r="G87" t="s">
+        <v>290</v>
+      </c>
+      <c r="H87" t="s">
+        <v>332</v>
+      </c>
+      <c r="I87" t="s">
+        <v>360</v>
+      </c>
+      <c r="J87" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K87">
+        <v>305</v>
+      </c>
+      <c r="L87" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M87">
+        <v>587.75</v>
+      </c>
+      <c r="N87">
+        <v>204</v>
+      </c>
+      <c r="O87">
+        <v>217</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>17.5</v>
+      </c>
+      <c r="R87">
+        <v>485</v>
+      </c>
+      <c r="S87">
+        <v>809.25</v>
+      </c>
+      <c r="AI87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU87">
+        <v>74</v>
+      </c>
+      <c r="AV87">
+        <v>8</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>183</v>
+      </c>
+      <c r="AY87" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ87" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52">
+      <c r="A88" s="1">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" t="s">
+        <v>332</v>
+      </c>
+      <c r="I88" t="s">
+        <v>360</v>
+      </c>
+      <c r="J88" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K88">
+        <v>299</v>
+      </c>
+      <c r="L88" s="2">
+        <v>44190</v>
+      </c>
+      <c r="M88">
+        <v>677.75</v>
+      </c>
+      <c r="N88">
+        <v>126</v>
+      </c>
+      <c r="O88">
+        <v>195</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>-92.5</v>
+      </c>
+      <c r="R88">
+        <v>435</v>
+      </c>
+      <c r="S88">
+        <v>711.25</v>
+      </c>
+      <c r="AJ88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU88">
+        <v>74</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <v>183</v>
+      </c>
+      <c r="AY88" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ88" s="2">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52">
+      <c r="A89" s="1">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="2">
+        <v>43235</v>
+      </c>
+      <c r="G89" t="s">
+        <v>263</v>
+      </c>
+      <c r="H89" t="s">
+        <v>332</v>
+      </c>
+      <c r="I89" t="s">
+        <v>360</v>
+      </c>
+      <c r="J89" s="2">
+        <v>44116</v>
+      </c>
+      <c r="K89">
+        <v>23</v>
+      </c>
+      <c r="L89" s="2">
+        <v>44138</v>
+      </c>
+      <c r="M89">
+        <v>55.75</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>55.75</v>
+      </c>
+      <c r="AN89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89" s="2">
+        <v>44116</v>
+      </c>
+      <c r="AZ89" s="2">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52">
+      <c r="A90" s="1">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" s="2">
+        <v>42980</v>
+      </c>
+      <c r="G90" t="s">
+        <v>292</v>
+      </c>
+      <c r="H90" t="s">
+        <v>326</v>
+      </c>
+      <c r="I90" t="s">
+        <v>358</v>
+      </c>
+      <c r="J90" s="2">
+        <v>43017</v>
+      </c>
+      <c r="K90">
+        <v>182</v>
+      </c>
+      <c r="L90" s="2">
+        <v>44012</v>
+      </c>
+      <c r="M90">
+        <v>170.5</v>
+      </c>
+      <c r="N90">
+        <v>390</v>
+      </c>
+      <c r="O90">
+        <v>227</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>3068</v>
+      </c>
+      <c r="S90">
+        <v>560.5</v>
+      </c>
+      <c r="V90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU90">
+        <v>74</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
+        <v>996</v>
+      </c>
+      <c r="AY90" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ90" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43713</v>
+      </c>
+      <c r="G91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" t="s">
+        <v>339</v>
+      </c>
+      <c r="I91" t="s">
+        <v>353</v>
+      </c>
+      <c r="J91" s="2">
+        <v>43892</v>
+      </c>
+      <c r="K91">
+        <v>305</v>
+      </c>
+      <c r="L91" s="2">
+        <v>44806</v>
+      </c>
+      <c r="M91">
+        <v>516</v>
+      </c>
+      <c r="N91">
+        <v>247</v>
+      </c>
+      <c r="O91">
+        <v>210</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>19.75</v>
+      </c>
+      <c r="R91">
+        <v>469</v>
+      </c>
+      <c r="S91">
+        <v>782.75</v>
+      </c>
+      <c r="AI91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU91">
+        <v>74</v>
+      </c>
+      <c r="AV91">
+        <v>8</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
+        <v>183</v>
+      </c>
+      <c r="AY91" s="2">
+        <v>43892</v>
+      </c>
+      <c r="AZ91" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52">
+      <c r="A92" s="1">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" t="s">
+        <v>210</v>
+      </c>
+      <c r="F92" s="2">
+        <v>43338</v>
+      </c>
+      <c r="G92" t="s">
+        <v>243</v>
+      </c>
+      <c r="H92" t="s">
+        <v>320</v>
+      </c>
+      <c r="I92" t="s">
+        <v>355</v>
+      </c>
+      <c r="J92" s="2">
+        <v>44056</v>
+      </c>
+      <c r="K92">
+        <v>141</v>
+      </c>
+      <c r="L92" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M92">
+        <v>526</v>
+      </c>
+      <c r="N92">
+        <v>70</v>
+      </c>
+      <c r="O92">
+        <v>35</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>-99</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>497</v>
+      </c>
+      <c r="AL92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>8</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92" s="2">
+        <v>44056</v>
+      </c>
+      <c r="AZ92" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="A93" s="1">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" t="s">
+        <v>211</v>
+      </c>
+      <c r="F93" s="2">
+        <v>42752</v>
+      </c>
+      <c r="G93" t="s">
+        <v>294</v>
+      </c>
+      <c r="H93" t="s">
+        <v>344</v>
+      </c>
+      <c r="I93" t="s">
+        <v>368</v>
+      </c>
+      <c r="J93" s="2">
+        <v>43108</v>
+      </c>
+      <c r="K93">
+        <v>178</v>
+      </c>
+      <c r="L93" s="2">
+        <v>44008</v>
+      </c>
+      <c r="M93">
+        <v>208</v>
+      </c>
+      <c r="N93">
+        <v>406</v>
+      </c>
+      <c r="O93">
+        <v>255</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>3108</v>
+      </c>
+      <c r="S93">
+        <v>614</v>
+      </c>
+      <c r="AA93" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU93">
+        <v>74</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>901</v>
+      </c>
+      <c r="AY93" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ93" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52">
+      <c r="A94" s="1">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" s="2">
+        <v>43013</v>
+      </c>
+      <c r="G94" t="s">
+        <v>255</v>
+      </c>
+      <c r="H94" t="s">
+        <v>323</v>
+      </c>
+      <c r="I94" t="s">
+        <v>358</v>
+      </c>
+      <c r="J94" s="2">
+        <v>43745</v>
+      </c>
+      <c r="K94">
+        <v>366</v>
+      </c>
+      <c r="L94" s="2">
+        <v>44408</v>
+      </c>
+      <c r="M94">
+        <v>394</v>
+      </c>
+      <c r="N94">
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>90</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>364</v>
+      </c>
+      <c r="S94">
+        <v>404</v>
+      </c>
+      <c r="AB94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>74</v>
+      </c>
+      <c r="AV94">
+        <v>8</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>330</v>
+      </c>
+      <c r="AY94" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ94" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52">
+      <c r="A95" s="1">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" t="s">
+        <v>178</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="2">
+        <v>43737</v>
+      </c>
+      <c r="G95" t="s">
+        <v>220</v>
+      </c>
+      <c r="H95" t="s">
+        <v>303</v>
+      </c>
+      <c r="I95" t="s">
+        <v>350</v>
+      </c>
+      <c r="J95" s="2">
+        <v>44186</v>
+      </c>
+      <c r="K95">
+        <v>11</v>
+      </c>
+      <c r="L95" s="2">
+        <v>44799</v>
+      </c>
+      <c r="M95">
+        <v>13.5</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>13.5</v>
+      </c>
+      <c r="AN95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95" s="2">
+        <v>44186</v>
+      </c>
+      <c r="AZ95" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="A96" s="1">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43003</v>
+      </c>
+      <c r="G96" t="s">
+        <v>295</v>
+      </c>
+      <c r="H96" t="s">
+        <v>303</v>
+      </c>
+      <c r="I96" t="s">
+        <v>350</v>
+      </c>
+      <c r="J96" s="2">
+        <v>43213</v>
+      </c>
+      <c r="K96">
+        <v>262</v>
+      </c>
+      <c r="L96" s="2">
+        <v>44092</v>
+      </c>
+      <c r="M96">
+        <v>335.25</v>
+      </c>
+      <c r="N96">
+        <v>120</v>
+      </c>
+      <c r="O96">
+        <v>125</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>-11.5</v>
+      </c>
+      <c r="R96">
+        <v>1460</v>
+      </c>
+      <c r="S96">
+        <v>443.75</v>
+      </c>
+      <c r="AB96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU96">
+        <v>74</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>862</v>
+      </c>
+      <c r="AY96" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AZ96" s="2">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52">
+      <c r="A97" s="1">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="2">
+        <v>43330</v>
+      </c>
+      <c r="G97" t="s">
+        <v>296</v>
+      </c>
+      <c r="H97" t="s">
+        <v>345</v>
+      </c>
+      <c r="I97" t="s">
+        <v>369</v>
+      </c>
+      <c r="J97" s="2">
+        <v>44137</v>
+      </c>
+      <c r="K97">
+        <v>60</v>
+      </c>
+      <c r="L97" s="2">
+        <v>44435</v>
+      </c>
+      <c r="M97">
+        <v>84</v>
+      </c>
+      <c r="N97">
+        <v>16</v>
+      </c>
+      <c r="O97">
+        <v>13</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>100</v>
+      </c>
+      <c r="AK97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
+        <v>8</v>
+      </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97" s="2">
+        <v>44137</v>
+      </c>
+      <c r="AZ97" s="2">
         <v>44196</v>
       </c>
     </row>
